--- a/test/data/tm.xlsx
+++ b/test/data/tm.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="274">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -96,7 +96,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Preset </t>
+    <t>Preset</t>
   </si>
   <si>
     <r>
@@ -106,7 +106,7 @@
         <color indexed="11"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve">Preset </t>
+      <t>Preset</t>
     </r>
   </si>
   <si>
@@ -698,9 +698,6 @@
     <t>经验丰富，善于发现客户需求，能利用各种沟通技巧完成销售目的，对产品知识不够重视，工作态度时好时坏，不愿意承担压力。</t>
   </si>
   <si>
-    <t>Preset</t>
-  </si>
-  <si>
     <t>phase</t>
   </si>
   <si>
@@ -1081,10 +1078,16 @@
     <t>totalPhase</t>
   </si>
   <si>
+    <t>case</t>
+  </si>
+  <si>
     <t>铁马区域管理沙盘模拟</t>
   </si>
   <si>
     <t>辅助地区经理进行区域管理实战模拟测试与练习工具</t>
+  </si>
+  <si>
+    <t>tm</t>
   </si>
   <si>
     <t>abilityDescription</t>
@@ -1438,7 +1441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="89">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -2439,28 +2442,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="17"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="17"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="13"/>
       </left>
       <right style="thin">
@@ -2570,7 +2551,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2922,6 +2903,9 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3090,55 +3074,49 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="80" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="80" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="81" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="83" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="82" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="83" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="84" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="84" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="84" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="86" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="87" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="85" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4422,7 +4400,7 @@
     <row r="19" ht="13" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" t="s" s="3">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -4435,7 +4413,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="s" s="5">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="E20" s="12"/>
     </row>
@@ -4511,7 +4489,7 @@
     <hyperlink ref="D14" location="'Product'!R1C1" tooltip="" display="Product"/>
     <hyperlink ref="D16" location="'Requirement'!R1C1" tooltip="" display="Requirement"/>
     <hyperlink ref="D18" location="'Resource'!R1C1" tooltip="" display="Resource"/>
-    <hyperlink ref="D20" location="'Preset'!R1C1" tooltip="" display="Preset "/>
+    <hyperlink ref="D20" location="'Preset'!R1C1" tooltip="" display="Preset"/>
     <hyperlink ref="D22" location="'Report '!R1C1" tooltip="" display="Report "/>
     <hyperlink ref="D24" location="'Proposal'!R1C1" tooltip="" display="Proposal"/>
     <hyperlink ref="D26" location="'Evaluation'!R1C1" tooltip="" display="Evaluation"/>
@@ -6236,7 +6214,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -6251,67 +6229,70 @@
     <col min="11" max="11" width="22.1719" style="111" customWidth="1"/>
     <col min="12" max="14" width="16.3516" style="111" customWidth="1"/>
     <col min="15" max="15" width="20" style="111" customWidth="1"/>
-    <col min="16" max="19" width="16.3516" style="111" customWidth="1"/>
-    <col min="20" max="256" width="16.3516" style="111" customWidth="1"/>
+    <col min="16" max="20" width="16.3516" style="111" customWidth="1"/>
+    <col min="21" max="256" width="16.3516" style="111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
       <c r="A1" t="s" s="26">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s" s="26">
         <v>141</v>
       </c>
-      <c r="B1" t="s" s="26">
+      <c r="C1" t="s" s="26">
         <v>142</v>
       </c>
-      <c r="C1" t="s" s="26">
+      <c r="D1" t="s" s="26">
         <v>143</v>
       </c>
-      <c r="D1" t="s" s="26">
+      <c r="E1" t="s" s="26">
         <v>144</v>
       </c>
-      <c r="E1" t="s" s="26">
+      <c r="F1" t="s" s="26">
         <v>145</v>
       </c>
-      <c r="F1" t="s" s="26">
+      <c r="G1" t="s" s="26">
         <v>146</v>
       </c>
-      <c r="G1" t="s" s="26">
+      <c r="H1" t="s" s="26">
         <v>147</v>
       </c>
-      <c r="H1" t="s" s="26">
+      <c r="I1" t="s" s="26">
         <v>148</v>
       </c>
-      <c r="I1" t="s" s="26">
+      <c r="J1" t="s" s="26">
         <v>149</v>
       </c>
-      <c r="J1" t="s" s="26">
+      <c r="K1" t="s" s="26">
         <v>150</v>
       </c>
-      <c r="K1" t="s" s="26">
+      <c r="L1" t="s" s="26">
         <v>151</v>
       </c>
-      <c r="L1" t="s" s="26">
+      <c r="M1" t="s" s="26">
         <v>152</v>
       </c>
-      <c r="M1" t="s" s="26">
+      <c r="N1" t="s" s="26">
         <v>153</v>
       </c>
-      <c r="N1" t="s" s="26">
+      <c r="O1" t="s" s="26">
         <v>154</v>
       </c>
-      <c r="O1" t="s" s="26">
+      <c r="P1" t="s" s="26">
         <v>155</v>
       </c>
-      <c r="P1" t="s" s="26">
+      <c r="Q1" t="s" s="26">
         <v>156</v>
       </c>
-      <c r="Q1" t="s" s="26">
+      <c r="R1" t="s" s="26">
         <v>157</v>
       </c>
-      <c r="R1" t="s" s="26">
+      <c r="S1" t="s" s="26">
         <v>158</v>
       </c>
-      <c r="S1" t="s" s="26">
-        <v>159</v>
+      <c r="T1" t="s" s="26">
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
@@ -6322,7 +6303,7 @@
         <v>89</v>
       </c>
       <c r="C2" t="s" s="113">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" s="54"/>
       <c r="E2" s="114">
@@ -6370,6 +6351,9 @@
       <c r="S2" s="112">
         <v>0</v>
       </c>
+      <c r="T2" s="117">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" ht="20.1" customHeight="1">
       <c r="A3" s="112">
@@ -6379,7 +6363,7 @@
         <v>89</v>
       </c>
       <c r="C3" t="s" s="113">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" s="54"/>
       <c r="E3" s="114">
@@ -6427,6 +6411,9 @@
       <c r="S3" s="112">
         <v>0</v>
       </c>
+      <c r="T3" s="117">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" ht="20.1" customHeight="1">
       <c r="A4" s="112">
@@ -6436,7 +6423,7 @@
         <v>89</v>
       </c>
       <c r="C4" t="s" s="113">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D4" s="54"/>
       <c r="E4" s="114">
@@ -6484,6 +6471,9 @@
       <c r="S4" s="112">
         <v>0</v>
       </c>
+      <c r="T4" s="117">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" ht="20.1" customHeight="1">
       <c r="A5" s="112">
@@ -6493,7 +6483,7 @@
         <v>89</v>
       </c>
       <c r="C5" t="s" s="113">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" s="54"/>
       <c r="E5" s="114">
@@ -6541,6 +6531,9 @@
       <c r="S5" s="112">
         <v>0</v>
       </c>
+      <c r="T5" s="117">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" ht="20.1" customHeight="1">
       <c r="A6" s="112">
@@ -6550,7 +6543,7 @@
         <v>89</v>
       </c>
       <c r="C6" t="s" s="113">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="114">
@@ -6598,6 +6591,9 @@
       <c r="S6" s="112">
         <v>0</v>
       </c>
+      <c r="T6" s="117">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" ht="20.1" customHeight="1">
       <c r="A7" s="112">
@@ -6607,7 +6603,7 @@
         <v>89</v>
       </c>
       <c r="C7" t="s" s="113">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D7" s="54"/>
       <c r="E7" s="114">
@@ -6655,6 +6651,9 @@
       <c r="S7" s="112">
         <v>0</v>
       </c>
+      <c r="T7" s="117">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" ht="20.1" customHeight="1">
       <c r="A8" s="112">
@@ -6664,7 +6663,7 @@
         <v>89</v>
       </c>
       <c r="C8" t="s" s="113">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D8" s="54"/>
       <c r="E8" s="114">
@@ -6712,6 +6711,9 @@
       <c r="S8" s="112">
         <v>0</v>
       </c>
+      <c r="T8" s="117">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" ht="20.1" customHeight="1">
       <c r="A9" s="112">
@@ -6721,7 +6723,7 @@
         <v>89</v>
       </c>
       <c r="C9" t="s" s="113">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D9" s="54"/>
       <c r="E9" s="114">
@@ -6769,6 +6771,9 @@
       <c r="S9" s="112">
         <v>0</v>
       </c>
+      <c r="T9" s="117">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" ht="20.1" customHeight="1">
       <c r="A10" s="112">
@@ -6778,7 +6783,7 @@
         <v>89</v>
       </c>
       <c r="C10" t="s" s="113">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D10" s="54"/>
       <c r="E10" s="114">
@@ -6826,6 +6831,9 @@
       <c r="S10" s="112">
         <v>0</v>
       </c>
+      <c r="T10" s="117">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" ht="19.9" customHeight="1">
       <c r="A11" s="112">
@@ -6835,7 +6843,7 @@
         <v>89</v>
       </c>
       <c r="C11" t="s" s="113">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D11" s="54"/>
       <c r="E11" s="114">
@@ -6882,6 +6890,9 @@
       </c>
       <c r="S11" s="112">
         <v>0</v>
+      </c>
+      <c r="T11" s="117">
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="19.9" customHeight="1">
@@ -6938,6 +6949,9 @@
       <c r="S12" s="96">
         <v>5</v>
       </c>
+      <c r="T12" s="96">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" ht="19.9" customHeight="1">
       <c r="A13" s="112">
@@ -6993,6 +7007,9 @@
       <c r="S13" s="96">
         <v>10</v>
       </c>
+      <c r="T13" s="96">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" ht="19.9" customHeight="1">
       <c r="A14" s="112">
@@ -7048,6 +7065,9 @@
       <c r="S14" s="96">
         <v>10</v>
       </c>
+      <c r="T14" s="96">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" ht="19.9" customHeight="1">
       <c r="A15" s="112">
@@ -7103,6 +7123,9 @@
       <c r="S15" s="96">
         <v>13</v>
       </c>
+      <c r="T15" s="96">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" ht="19.9" customHeight="1">
       <c r="A16" s="112">
@@ -7158,6 +7181,9 @@
       <c r="S16" s="96">
         <v>12</v>
       </c>
+      <c r="T16" s="96">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" ht="19.9" customHeight="1">
       <c r="A17" s="112">
@@ -7212,6 +7238,9 @@
       </c>
       <c r="S17" s="112">
         <v>0</v>
+      </c>
+      <c r="T17" s="117">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -7231,506 +7260,506 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="9.17188" style="117" customWidth="1"/>
-    <col min="3" max="7" width="13.5" style="117" customWidth="1"/>
-    <col min="8" max="8" width="13.6719" style="117" customWidth="1"/>
-    <col min="9" max="10" width="17.5" style="117" customWidth="1"/>
-    <col min="11" max="12" width="20.5" style="117" customWidth="1"/>
-    <col min="13" max="15" width="17.8516" style="117" customWidth="1"/>
-    <col min="16" max="16" width="19.1719" style="117" customWidth="1"/>
-    <col min="17" max="17" width="14.5" style="117" customWidth="1"/>
-    <col min="18" max="18" width="20.1719" style="117" customWidth="1"/>
-    <col min="19" max="19" width="17.6719" style="117" customWidth="1"/>
-    <col min="20" max="256" width="8.85156" style="117" customWidth="1"/>
+    <col min="1" max="2" width="9.17188" style="118" customWidth="1"/>
+    <col min="3" max="7" width="13.5" style="118" customWidth="1"/>
+    <col min="8" max="8" width="13.6719" style="118" customWidth="1"/>
+    <col min="9" max="10" width="17.5" style="118" customWidth="1"/>
+    <col min="11" max="12" width="20.5" style="118" customWidth="1"/>
+    <col min="13" max="15" width="17.8516" style="118" customWidth="1"/>
+    <col min="16" max="16" width="19.1719" style="118" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="118" customWidth="1"/>
+    <col min="18" max="18" width="20.1719" style="118" customWidth="1"/>
+    <col min="19" max="19" width="17.6719" style="118" customWidth="1"/>
+    <col min="20" max="256" width="8.85156" style="118" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="118">
+      <c r="A1" t="s" s="119">
+        <v>169</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+    </row>
+    <row r="2" ht="15.95" customHeight="1">
+      <c r="A2" t="s" s="121">
         <v>170</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-    </row>
-    <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" t="s" s="120">
+      <c r="B2" t="s" s="122">
         <v>171</v>
       </c>
-      <c r="B2" t="s" s="121">
+      <c r="C2" t="s" s="122">
         <v>172</v>
       </c>
-      <c r="C2" t="s" s="121">
+      <c r="D2" t="s" s="122">
         <v>173</v>
       </c>
-      <c r="D2" t="s" s="121">
+      <c r="E2" t="s" s="122">
         <v>174</v>
       </c>
-      <c r="E2" t="s" s="121">
+      <c r="F2" t="s" s="122">
         <v>175</v>
       </c>
-      <c r="F2" t="s" s="121">
+      <c r="G2" t="s" s="122">
         <v>176</v>
       </c>
-      <c r="G2" t="s" s="121">
+      <c r="H2" t="s" s="122">
         <v>177</v>
       </c>
-      <c r="H2" t="s" s="121">
+      <c r="I2" t="s" s="122">
         <v>178</v>
       </c>
-      <c r="I2" t="s" s="121">
+      <c r="J2" t="s" s="122">
         <v>179</v>
       </c>
-      <c r="J2" t="s" s="121">
+      <c r="K2" t="s" s="122">
         <v>180</v>
       </c>
-      <c r="K2" t="s" s="121">
+      <c r="L2" t="s" s="122">
         <v>181</v>
       </c>
-      <c r="L2" t="s" s="121">
+      <c r="M2" t="s" s="122">
         <v>182</v>
       </c>
-      <c r="M2" t="s" s="121">
+      <c r="N2" t="s" s="122">
         <v>183</v>
       </c>
-      <c r="N2" t="s" s="121">
+      <c r="O2" t="s" s="122">
         <v>184</v>
       </c>
-      <c r="O2" t="s" s="121">
+      <c r="P2" t="s" s="122">
         <v>185</v>
       </c>
-      <c r="P2" t="s" s="121">
+      <c r="Q2" t="s" s="122">
         <v>186</v>
       </c>
-      <c r="Q2" t="s" s="121">
+      <c r="R2" t="s" s="122">
         <v>187</v>
       </c>
-      <c r="R2" t="s" s="121">
+      <c r="S2" t="s" s="122">
         <v>188</v>
-      </c>
-      <c r="S2" t="s" s="121">
-        <v>189</v>
       </c>
     </row>
     <row r="3" ht="34.5" customHeight="1">
       <c r="A3" t="s" s="27">
+        <v>189</v>
+      </c>
+      <c r="B3" t="s" s="123">
+        <v>140</v>
+      </c>
+      <c r="C3" t="s" s="124">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s" s="123">
+        <v>142</v>
+      </c>
+      <c r="E3" t="s" s="123">
+        <v>141</v>
+      </c>
+      <c r="F3" t="s" s="124">
+        <v>143</v>
+      </c>
+      <c r="G3" t="s" s="124">
         <v>190</v>
       </c>
-      <c r="B3" t="s" s="122">
-        <v>141</v>
-      </c>
-      <c r="C3" t="s" s="123">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s" s="122">
-        <v>143</v>
-      </c>
-      <c r="E3" t="s" s="122">
-        <v>142</v>
-      </c>
-      <c r="F3" t="s" s="123">
-        <v>144</v>
-      </c>
-      <c r="G3" t="s" s="123">
+      <c r="H3" t="s" s="123">
+        <v>147</v>
+      </c>
+      <c r="I3" t="s" s="124">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s" s="124">
         <v>191</v>
       </c>
-      <c r="H3" t="s" s="122">
+      <c r="K3" t="s" s="123">
+        <v>145</v>
+      </c>
+      <c r="L3" t="s" s="124">
+        <v>192</v>
+      </c>
+      <c r="M3" t="s" s="123">
+        <v>193</v>
+      </c>
+      <c r="N3" t="s" s="125">
+        <v>194</v>
+      </c>
+      <c r="O3" t="s" s="124">
+        <v>195</v>
+      </c>
+      <c r="P3" t="s" s="124">
         <v>148</v>
       </c>
-      <c r="I3" t="s" s="123">
-        <v>36</v>
-      </c>
-      <c r="J3" t="s" s="123">
-        <v>192</v>
-      </c>
-      <c r="K3" t="s" s="122">
-        <v>146</v>
-      </c>
-      <c r="L3" t="s" s="123">
-        <v>193</v>
-      </c>
-      <c r="M3" t="s" s="122">
-        <v>194</v>
-      </c>
-      <c r="N3" t="s" s="124">
-        <v>195</v>
-      </c>
-      <c r="O3" t="s" s="123">
+      <c r="Q3" t="s" s="123">
         <v>196</v>
       </c>
-      <c r="P3" t="s" s="123">
-        <v>149</v>
-      </c>
-      <c r="Q3" t="s" s="122">
+      <c r="R3" t="s" s="124">
         <v>197</v>
       </c>
-      <c r="R3" t="s" s="123">
+      <c r="S3" t="s" s="123">
         <v>198</v>
-      </c>
-      <c r="S3" t="s" s="122">
-        <v>199</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1">
       <c r="A4" s="64"/>
-      <c r="B4" s="125">
+      <c r="B4" s="126">
         <v>-5</v>
       </c>
-      <c r="C4" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D4" t="s" s="127">
+      <c r="C4" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D4" t="s" s="128">
+        <v>199</v>
+      </c>
+      <c r="E4" t="s" s="128">
         <v>200</v>
-      </c>
-      <c r="E4" t="s" s="127">
-        <v>201</v>
       </c>
       <c r="F4" s="65"/>
       <c r="G4" s="64"/>
-      <c r="H4" s="128">
+      <c r="H4" s="129">
         <v>10560000</v>
       </c>
       <c r="I4" s="66"/>
       <c r="J4" s="64"/>
-      <c r="K4" s="129"/>
+      <c r="K4" s="130"/>
       <c r="L4" s="64"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="131"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="132"/>
       <c r="O4" s="66"/>
       <c r="P4" s="64"/>
       <c r="Q4" s="116"/>
-      <c r="R4" s="132"/>
-      <c r="S4" s="133"/>
+      <c r="R4" s="133"/>
+      <c r="S4" s="134"/>
     </row>
     <row r="5" ht="13.5" customHeight="1">
       <c r="A5" s="108"/>
-      <c r="B5" s="125">
+      <c r="B5" s="126">
         <v>-5</v>
       </c>
-      <c r="C5" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D5" t="s" s="127">
-        <v>202</v>
-      </c>
-      <c r="E5" t="s" s="127">
+      <c r="C5" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D5" t="s" s="128">
         <v>201</v>
       </c>
-      <c r="F5" s="134"/>
+      <c r="E5" t="s" s="128">
+        <v>200</v>
+      </c>
+      <c r="F5" s="135"/>
       <c r="G5" s="108"/>
-      <c r="H5" s="128">
+      <c r="H5" s="129">
         <v>3700000</v>
       </c>
       <c r="I5" s="42"/>
       <c r="J5" s="108"/>
-      <c r="K5" s="129"/>
+      <c r="K5" s="130"/>
       <c r="L5" s="108"/>
-      <c r="M5" s="130"/>
-      <c r="N5" s="131"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="132"/>
       <c r="O5" s="42"/>
       <c r="P5" s="108"/>
       <c r="Q5" s="116"/>
-      <c r="R5" s="135"/>
-      <c r="S5" s="133"/>
+      <c r="R5" s="136"/>
+      <c r="S5" s="134"/>
     </row>
     <row r="6" ht="13.5" customHeight="1">
       <c r="A6" s="108"/>
-      <c r="B6" s="125">
+      <c r="B6" s="126">
         <v>-5</v>
       </c>
-      <c r="C6" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D6" t="s" s="127">
-        <v>203</v>
-      </c>
-      <c r="E6" t="s" s="127">
-        <v>201</v>
-      </c>
-      <c r="F6" s="134"/>
+      <c r="C6" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D6" t="s" s="128">
+        <v>202</v>
+      </c>
+      <c r="E6" t="s" s="128">
+        <v>200</v>
+      </c>
+      <c r="F6" s="135"/>
       <c r="G6" s="108"/>
-      <c r="H6" s="128">
+      <c r="H6" s="129">
         <v>13041600</v>
       </c>
       <c r="I6" s="42"/>
       <c r="J6" s="108"/>
-      <c r="K6" s="129"/>
+      <c r="K6" s="130"/>
       <c r="L6" s="108"/>
-      <c r="M6" s="130"/>
-      <c r="N6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="132"/>
       <c r="O6" s="42"/>
       <c r="P6" s="108"/>
       <c r="Q6" s="116"/>
-      <c r="R6" s="135"/>
-      <c r="S6" s="133"/>
+      <c r="R6" s="136"/>
+      <c r="S6" s="134"/>
     </row>
     <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="108"/>
-      <c r="B7" s="125">
+      <c r="B7" s="126">
         <v>-5</v>
       </c>
-      <c r="C7" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D7" t="s" s="127">
-        <v>204</v>
-      </c>
-      <c r="E7" t="s" s="127">
-        <v>201</v>
-      </c>
-      <c r="F7" s="134"/>
+      <c r="C7" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D7" t="s" s="128">
+        <v>203</v>
+      </c>
+      <c r="E7" t="s" s="128">
+        <v>200</v>
+      </c>
+      <c r="F7" s="135"/>
       <c r="G7" s="108"/>
-      <c r="H7" s="128">
+      <c r="H7" s="129">
         <v>6200000</v>
       </c>
       <c r="I7" s="42"/>
       <c r="J7" s="108"/>
-      <c r="K7" s="129"/>
+      <c r="K7" s="130"/>
       <c r="L7" s="108"/>
-      <c r="M7" s="130"/>
-      <c r="N7" s="131"/>
+      <c r="M7" s="131"/>
+      <c r="N7" s="132"/>
       <c r="O7" s="42"/>
       <c r="P7" s="108"/>
       <c r="Q7" s="116"/>
-      <c r="R7" s="135"/>
-      <c r="S7" s="133"/>
+      <c r="R7" s="136"/>
+      <c r="S7" s="134"/>
     </row>
     <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="136"/>
-      <c r="B8" s="125">
+      <c r="A8" s="137"/>
+      <c r="B8" s="126">
         <v>-5</v>
       </c>
-      <c r="C8" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D8" t="s" s="127">
-        <v>205</v>
-      </c>
-      <c r="E8" t="s" s="127">
-        <v>201</v>
+      <c r="C8" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D8" t="s" s="128">
+        <v>204</v>
+      </c>
+      <c r="E8" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F8" s="78"/>
       <c r="G8" s="79"/>
-      <c r="H8" s="137">
+      <c r="H8" s="138">
         <v>1400000</v>
       </c>
       <c r="I8" s="78"/>
       <c r="J8" s="79"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="130"/>
-      <c r="N8" s="140"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="131"/>
+      <c r="N8" s="141"/>
       <c r="O8" s="44"/>
       <c r="P8" s="79"/>
       <c r="Q8" s="116"/>
-      <c r="R8" s="139"/>
-      <c r="S8" s="133"/>
+      <c r="R8" s="140"/>
+      <c r="S8" s="134"/>
     </row>
     <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="141"/>
-      <c r="B9" s="125">
+      <c r="A9" s="142"/>
+      <c r="B9" s="126">
         <v>-5</v>
       </c>
-      <c r="C9" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D9" t="s" s="127">
-        <v>206</v>
-      </c>
-      <c r="E9" t="s" s="127">
-        <v>201</v>
+      <c r="C9" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D9" t="s" s="128">
+        <v>205</v>
+      </c>
+      <c r="E9" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="41"/>
-      <c r="H9" s="137">
+      <c r="H9" s="138">
         <v>4067200</v>
       </c>
       <c r="I9" s="40"/>
       <c r="J9" s="41"/>
-      <c r="K9" s="138"/>
+      <c r="K9" s="139"/>
       <c r="L9" s="86"/>
-      <c r="M9" s="130"/>
-      <c r="N9" s="140"/>
+      <c r="M9" s="131"/>
+      <c r="N9" s="141"/>
       <c r="O9" s="11"/>
       <c r="P9" s="41"/>
       <c r="Q9" s="116"/>
       <c r="R9" s="86"/>
-      <c r="S9" s="133"/>
+      <c r="S9" s="134"/>
     </row>
     <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="141"/>
-      <c r="B10" s="125">
+      <c r="A10" s="142"/>
+      <c r="B10" s="126">
         <v>-5</v>
       </c>
-      <c r="C10" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D10" t="s" s="127">
-        <v>207</v>
-      </c>
-      <c r="E10" t="s" s="127">
-        <v>201</v>
+      <c r="C10" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D10" t="s" s="128">
+        <v>206</v>
+      </c>
+      <c r="E10" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="41"/>
-      <c r="H10" s="137">
+      <c r="H10" s="138">
         <v>1419200</v>
       </c>
       <c r="I10" s="40"/>
       <c r="J10" s="41"/>
-      <c r="K10" s="138"/>
+      <c r="K10" s="139"/>
       <c r="L10" s="86"/>
-      <c r="M10" s="130"/>
-      <c r="N10" s="140"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="141"/>
       <c r="O10" s="11"/>
       <c r="P10" s="41"/>
       <c r="Q10" s="116"/>
       <c r="R10" s="86"/>
-      <c r="S10" s="133"/>
+      <c r="S10" s="134"/>
     </row>
     <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="141"/>
-      <c r="B11" s="125">
+      <c r="A11" s="142"/>
+      <c r="B11" s="126">
         <v>-5</v>
       </c>
-      <c r="C11" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D11" t="s" s="127">
-        <v>208</v>
-      </c>
-      <c r="E11" t="s" s="127">
-        <v>201</v>
+      <c r="C11" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D11" t="s" s="128">
+        <v>207</v>
+      </c>
+      <c r="E11" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F11" s="40"/>
       <c r="G11" s="41"/>
-      <c r="H11" s="137">
+      <c r="H11" s="138">
         <v>1014300</v>
       </c>
       <c r="I11" s="40"/>
       <c r="J11" s="41"/>
-      <c r="K11" s="138"/>
+      <c r="K11" s="139"/>
       <c r="L11" s="86"/>
-      <c r="M11" s="130"/>
-      <c r="N11" s="140"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="141"/>
       <c r="O11" s="11"/>
       <c r="P11" s="41"/>
       <c r="Q11" s="116"/>
       <c r="R11" s="86"/>
-      <c r="S11" s="133"/>
+      <c r="S11" s="134"/>
     </row>
     <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="141"/>
-      <c r="B12" s="125">
+      <c r="A12" s="142"/>
+      <c r="B12" s="126">
         <v>-5</v>
       </c>
-      <c r="C12" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D12" t="s" s="127">
-        <v>209</v>
-      </c>
-      <c r="E12" t="s" s="127">
-        <v>201</v>
+      <c r="C12" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D12" t="s" s="128">
+        <v>208</v>
+      </c>
+      <c r="E12" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F12" s="40"/>
       <c r="G12" s="41"/>
-      <c r="H12" s="137">
+      <c r="H12" s="138">
         <v>628320</v>
       </c>
       <c r="I12" s="40"/>
       <c r="J12" s="41"/>
-      <c r="K12" s="138"/>
+      <c r="K12" s="139"/>
       <c r="L12" s="86"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="140"/>
+      <c r="M12" s="131"/>
+      <c r="N12" s="141"/>
       <c r="O12" s="11"/>
       <c r="P12" s="41"/>
       <c r="Q12" s="116"/>
       <c r="R12" s="86"/>
-      <c r="S12" s="133"/>
+      <c r="S12" s="134"/>
     </row>
     <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="141"/>
-      <c r="B13" s="142">
+      <c r="A13" s="142"/>
+      <c r="B13" s="143">
         <v>-5</v>
       </c>
-      <c r="C13" t="s" s="143">
-        <v>143</v>
-      </c>
-      <c r="D13" t="s" s="127">
-        <v>210</v>
-      </c>
-      <c r="E13" t="s" s="127">
-        <v>201</v>
+      <c r="C13" t="s" s="144">
+        <v>142</v>
+      </c>
+      <c r="D13" t="s" s="128">
+        <v>209</v>
+      </c>
+      <c r="E13" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="41"/>
-      <c r="H13" s="137">
+      <c r="H13" s="138">
         <v>12234288</v>
       </c>
       <c r="I13" s="40"/>
       <c r="J13" s="41"/>
-      <c r="K13" s="138"/>
+      <c r="K13" s="139"/>
       <c r="L13" s="86"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="140"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="141"/>
       <c r="O13" s="11"/>
       <c r="P13" s="41"/>
       <c r="Q13" s="116"/>
       <c r="R13" s="86"/>
-      <c r="S13" s="133"/>
+      <c r="S13" s="134"/>
     </row>
     <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="144"/>
+      <c r="A14" s="145"/>
       <c r="B14" s="112">
         <v>-4</v>
       </c>
-      <c r="C14" t="s" s="145">
-        <v>143</v>
-      </c>
-      <c r="D14" t="s" s="127">
+      <c r="C14" t="s" s="146">
+        <v>142</v>
+      </c>
+      <c r="D14" t="s" s="128">
+        <v>199</v>
+      </c>
+      <c r="E14" t="s" s="128">
         <v>200</v>
       </c>
-      <c r="E14" t="s" s="127">
-        <v>201</v>
-      </c>
-      <c r="F14" s="146"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="128">
+      <c r="F14" s="147"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="129">
         <v>10560000</v>
       </c>
-      <c r="I14" s="147"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="129">
+      <c r="I14" s="148"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="130">
         <v>737747.64</v>
       </c>
-      <c r="L14" s="144"/>
-      <c r="M14" s="125">
+      <c r="L14" s="145"/>
+      <c r="M14" s="126">
         <v>700000</v>
       </c>
-      <c r="N14" s="131"/>
-      <c r="O14" s="147"/>
-      <c r="P14" s="144"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="145"/>
       <c r="Q14" s="116">
         <v>1.0539252</v>
       </c>
-      <c r="R14" s="148"/>
-      <c r="S14" s="133">
+      <c r="R14" s="149"/>
+      <c r="S14" s="134">
         <v>0.15</v>
       </c>
     </row>
@@ -7739,37 +7768,37 @@
       <c r="B15" s="112">
         <v>-4</v>
       </c>
-      <c r="C15" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D15" t="s" s="127">
-        <v>202</v>
-      </c>
-      <c r="E15" t="s" s="127">
+      <c r="C15" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D15" t="s" s="128">
         <v>201</v>
       </c>
-      <c r="F15" s="134"/>
+      <c r="E15" t="s" s="128">
+        <v>200</v>
+      </c>
+      <c r="F15" s="135"/>
       <c r="G15" s="108"/>
-      <c r="H15" s="128">
+      <c r="H15" s="129">
         <v>3700000</v>
       </c>
       <c r="I15" s="42"/>
       <c r="J15" s="108"/>
-      <c r="K15" s="129">
+      <c r="K15" s="130">
         <v>245915.88</v>
       </c>
       <c r="L15" s="108"/>
-      <c r="M15" s="125">
+      <c r="M15" s="126">
         <v>250000</v>
       </c>
-      <c r="N15" s="131"/>
+      <c r="N15" s="132"/>
       <c r="O15" s="42"/>
       <c r="P15" s="108"/>
       <c r="Q15" s="116">
         <v>0.98366352</v>
       </c>
-      <c r="R15" s="135"/>
-      <c r="S15" s="133">
+      <c r="R15" s="136"/>
+      <c r="S15" s="134">
         <v>0.11</v>
       </c>
     </row>
@@ -7778,37 +7807,37 @@
       <c r="B16" s="112">
         <v>-4</v>
       </c>
-      <c r="C16" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D16" t="s" s="127">
-        <v>203</v>
-      </c>
-      <c r="E16" t="s" s="127">
-        <v>201</v>
-      </c>
-      <c r="F16" s="134"/>
+      <c r="C16" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D16" t="s" s="128">
+        <v>202</v>
+      </c>
+      <c r="E16" t="s" s="128">
+        <v>200</v>
+      </c>
+      <c r="F16" s="135"/>
       <c r="G16" s="108"/>
-      <c r="H16" s="128">
+      <c r="H16" s="129">
         <v>13041600</v>
       </c>
       <c r="I16" s="42"/>
       <c r="J16" s="108"/>
-      <c r="K16" s="129">
+      <c r="K16" s="130">
         <v>901691.5600000001</v>
       </c>
       <c r="L16" s="108"/>
-      <c r="M16" s="125">
+      <c r="M16" s="126">
         <v>850000</v>
       </c>
-      <c r="N16" s="131"/>
+      <c r="N16" s="132"/>
       <c r="O16" s="42"/>
       <c r="P16" s="108"/>
       <c r="Q16" s="116">
         <v>1.0608136</v>
       </c>
-      <c r="R16" s="135"/>
-      <c r="S16" s="133">
+      <c r="R16" s="136"/>
+      <c r="S16" s="134">
         <v>0.18</v>
       </c>
     </row>
@@ -7817,2029 +7846,2029 @@
       <c r="B17" s="112">
         <v>-4</v>
       </c>
-      <c r="C17" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D17" t="s" s="127">
-        <v>204</v>
-      </c>
-      <c r="E17" t="s" s="127">
-        <v>201</v>
-      </c>
-      <c r="F17" s="134"/>
+      <c r="C17" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D17" t="s" s="128">
+        <v>203</v>
+      </c>
+      <c r="E17" t="s" s="128">
+        <v>200</v>
+      </c>
+      <c r="F17" s="135"/>
       <c r="G17" s="108"/>
-      <c r="H17" s="128">
+      <c r="H17" s="129">
         <v>6200000</v>
       </c>
       <c r="I17" s="42"/>
       <c r="J17" s="108"/>
-      <c r="K17" s="129">
+      <c r="K17" s="130">
         <v>614789.7</v>
       </c>
       <c r="L17" s="108"/>
-      <c r="M17" s="125">
+      <c r="M17" s="126">
         <v>600000</v>
       </c>
-      <c r="N17" s="131"/>
+      <c r="N17" s="132"/>
       <c r="O17" s="42"/>
       <c r="P17" s="108"/>
       <c r="Q17" s="116">
         <v>1.0246495</v>
       </c>
-      <c r="R17" s="135"/>
-      <c r="S17" s="133">
+      <c r="R17" s="136"/>
+      <c r="S17" s="134">
         <v>0.13</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="136"/>
+      <c r="A18" s="137"/>
       <c r="B18" s="112">
         <v>-4</v>
       </c>
-      <c r="C18" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D18" t="s" s="127">
-        <v>205</v>
-      </c>
-      <c r="E18" t="s" s="127">
-        <v>201</v>
+      <c r="C18" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D18" t="s" s="128">
+        <v>204</v>
+      </c>
+      <c r="E18" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F18" s="78"/>
       <c r="G18" s="79"/>
-      <c r="H18" s="137">
+      <c r="H18" s="138">
         <v>1400000</v>
       </c>
       <c r="I18" s="78"/>
       <c r="J18" s="79"/>
-      <c r="K18" s="138">
+      <c r="K18" s="139">
         <v>102464.95</v>
       </c>
-      <c r="L18" s="139"/>
-      <c r="M18" s="125">
+      <c r="L18" s="140"/>
+      <c r="M18" s="126">
         <v>100000</v>
       </c>
-      <c r="N18" s="140"/>
+      <c r="N18" s="141"/>
       <c r="O18" s="44"/>
       <c r="P18" s="79"/>
       <c r="Q18" s="116">
         <v>1.0246495</v>
       </c>
-      <c r="R18" s="139"/>
-      <c r="S18" s="133">
+      <c r="R18" s="140"/>
+      <c r="S18" s="134">
         <v>0.12</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="141"/>
+      <c r="A19" s="142"/>
       <c r="B19" s="112">
         <v>-4</v>
       </c>
-      <c r="C19" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D19" t="s" s="127">
-        <v>206</v>
-      </c>
-      <c r="E19" t="s" s="127">
-        <v>201</v>
+      <c r="C19" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D19" t="s" s="128">
+        <v>205</v>
+      </c>
+      <c r="E19" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F19" s="40"/>
       <c r="G19" s="41"/>
-      <c r="H19" s="137">
+      <c r="H19" s="138">
         <v>4067200</v>
       </c>
       <c r="I19" s="40"/>
       <c r="J19" s="41"/>
-      <c r="K19" s="138">
+      <c r="K19" s="139">
         <v>286901.86</v>
       </c>
       <c r="L19" s="86"/>
-      <c r="M19" s="125">
+      <c r="M19" s="126">
         <v>350000</v>
       </c>
-      <c r="N19" s="140"/>
+      <c r="N19" s="141"/>
       <c r="O19" s="11"/>
       <c r="P19" s="41"/>
       <c r="Q19" s="116">
         <v>0.8197196</v>
       </c>
       <c r="R19" s="86"/>
-      <c r="S19" s="133">
+      <c r="S19" s="134">
         <v>-0.11</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="141"/>
+      <c r="A20" s="142"/>
       <c r="B20" s="112">
         <v>-4</v>
       </c>
-      <c r="C20" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D20" t="s" s="127">
-        <v>207</v>
-      </c>
-      <c r="E20" t="s" s="127">
-        <v>201</v>
+      <c r="C20" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D20" t="s" s="128">
+        <v>206</v>
+      </c>
+      <c r="E20" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F20" s="40"/>
       <c r="G20" s="41"/>
-      <c r="H20" s="137">
+      <c r="H20" s="138">
         <v>1419200</v>
       </c>
       <c r="I20" s="40"/>
       <c r="J20" s="41"/>
-      <c r="K20" s="138">
+      <c r="K20" s="139">
         <v>122957.94</v>
       </c>
       <c r="L20" s="86"/>
-      <c r="M20" s="125">
+      <c r="M20" s="126">
         <v>120000</v>
       </c>
-      <c r="N20" s="140"/>
+      <c r="N20" s="141"/>
       <c r="O20" s="11"/>
       <c r="P20" s="41"/>
       <c r="Q20" s="116">
         <v>1.0246495</v>
       </c>
       <c r="R20" s="86"/>
-      <c r="S20" s="133">
+      <c r="S20" s="134">
         <v>0.16</v>
       </c>
     </row>
     <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="141"/>
+      <c r="A21" s="142"/>
       <c r="B21" s="112">
         <v>-4</v>
       </c>
-      <c r="C21" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D21" t="s" s="127">
-        <v>208</v>
-      </c>
-      <c r="E21" t="s" s="127">
-        <v>201</v>
+      <c r="C21" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D21" t="s" s="128">
+        <v>207</v>
+      </c>
+      <c r="E21" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F21" s="40"/>
       <c r="G21" s="41"/>
-      <c r="H21" s="137">
+      <c r="H21" s="138">
         <v>1014300</v>
       </c>
       <c r="I21" s="40"/>
       <c r="J21" s="41"/>
-      <c r="K21" s="138">
+      <c r="K21" s="139">
         <v>32788.784</v>
       </c>
       <c r="L21" s="86"/>
-      <c r="M21" s="125">
+      <c r="M21" s="126">
         <v>35000</v>
       </c>
-      <c r="N21" s="140"/>
+      <c r="N21" s="141"/>
       <c r="O21" s="11"/>
       <c r="P21" s="41"/>
       <c r="Q21" s="116">
         <v>0.9368224000000001</v>
       </c>
       <c r="R21" s="86"/>
-      <c r="S21" s="133">
+      <c r="S21" s="134">
         <v>-0.23</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="141"/>
+      <c r="A22" s="142"/>
       <c r="B22" s="112">
         <v>-4</v>
       </c>
-      <c r="C22" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D22" t="s" s="127">
-        <v>209</v>
-      </c>
-      <c r="E22" t="s" s="127">
-        <v>201</v>
+      <c r="C22" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D22" t="s" s="128">
+        <v>208</v>
+      </c>
+      <c r="E22" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F22" s="40"/>
       <c r="G22" s="41"/>
-      <c r="H22" s="137">
+      <c r="H22" s="138">
         <v>628320</v>
       </c>
       <c r="I22" s="40"/>
       <c r="J22" s="41"/>
-      <c r="K22" s="138">
+      <c r="K22" s="139">
         <v>81971.960000000006</v>
       </c>
       <c r="L22" s="86"/>
-      <c r="M22" s="125">
+      <c r="M22" s="126">
         <v>75000</v>
       </c>
-      <c r="N22" s="140"/>
+      <c r="N22" s="141"/>
       <c r="O22" s="11"/>
       <c r="P22" s="41"/>
       <c r="Q22" s="116">
         <v>1.09295946666667</v>
       </c>
       <c r="R22" s="86"/>
-      <c r="S22" s="133">
+      <c r="S22" s="134">
         <v>0.29</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1">
-      <c r="A23" s="141"/>
+      <c r="A23" s="142"/>
       <c r="B23" s="112">
         <v>-4</v>
       </c>
-      <c r="C23" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D23" t="s" s="127">
-        <v>210</v>
-      </c>
-      <c r="E23" t="s" s="127">
-        <v>201</v>
+      <c r="C23" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D23" t="s" s="128">
+        <v>209</v>
+      </c>
+      <c r="E23" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F23" s="40"/>
       <c r="G23" s="41"/>
-      <c r="H23" s="137">
+      <c r="H23" s="138">
         <v>12234288</v>
       </c>
       <c r="I23" s="40"/>
       <c r="J23" s="41"/>
-      <c r="K23" s="138">
+      <c r="K23" s="139">
         <v>971367.726</v>
       </c>
       <c r="L23" s="86"/>
-      <c r="M23" s="125">
+      <c r="M23" s="126">
         <v>900000</v>
       </c>
-      <c r="N23" s="140"/>
+      <c r="N23" s="141"/>
       <c r="O23" s="11"/>
       <c r="P23" s="41"/>
       <c r="Q23" s="116">
         <v>1.07929747333333</v>
       </c>
       <c r="R23" s="86"/>
-      <c r="S23" s="133">
+      <c r="S23" s="134">
         <v>0.18</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="141"/>
+      <c r="A24" s="142"/>
       <c r="B24" s="112">
         <v>-3</v>
       </c>
-      <c r="C24" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D24" t="s" s="127">
+      <c r="C24" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D24" t="s" s="128">
+        <v>199</v>
+      </c>
+      <c r="E24" t="s" s="128">
         <v>200</v>
-      </c>
-      <c r="E24" t="s" s="127">
-        <v>201</v>
       </c>
       <c r="F24" s="40"/>
       <c r="G24" s="41"/>
-      <c r="H24" s="137">
+      <c r="H24" s="138">
         <v>10560000</v>
       </c>
       <c r="I24" s="40"/>
       <c r="J24" s="41"/>
-      <c r="K24" s="138">
+      <c r="K24" s="139">
         <v>556986.16</v>
       </c>
       <c r="L24" s="86"/>
-      <c r="M24" s="138">
+      <c r="M24" s="139">
         <v>650000</v>
       </c>
-      <c r="N24" s="149"/>
+      <c r="N24" s="150"/>
       <c r="O24" s="11"/>
-      <c r="P24" s="150"/>
+      <c r="P24" s="151"/>
       <c r="Q24" s="116">
         <v>0.856901784615385</v>
       </c>
       <c r="R24" s="86"/>
-      <c r="S24" s="133">
+      <c r="S24" s="134">
         <v>-0.245018038959772</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
-      <c r="A25" s="141"/>
+      <c r="A25" s="142"/>
       <c r="B25" s="112">
         <v>-3</v>
       </c>
-      <c r="C25" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D25" t="s" s="127">
-        <v>202</v>
-      </c>
-      <c r="E25" t="s" s="127">
+      <c r="C25" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D25" t="s" s="128">
         <v>201</v>
+      </c>
+      <c r="E25" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="41"/>
-      <c r="H25" s="137">
+      <c r="H25" s="138">
         <v>3700000</v>
       </c>
       <c r="I25" s="40"/>
       <c r="J25" s="41"/>
-      <c r="K25" s="138">
+      <c r="K25" s="139">
         <v>191328.72</v>
       </c>
       <c r="L25" s="86"/>
-      <c r="M25" s="138">
+      <c r="M25" s="139">
         <v>200000</v>
       </c>
-      <c r="N25" s="149"/>
+      <c r="N25" s="150"/>
       <c r="O25" s="11"/>
-      <c r="P25" s="150"/>
+      <c r="P25" s="151"/>
       <c r="Q25" s="116">
         <v>0.9566436</v>
       </c>
       <c r="R25" s="86"/>
-      <c r="S25" s="133">
+      <c r="S25" s="134">
         <v>-0.221974928987912</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="141"/>
+      <c r="A26" s="142"/>
       <c r="B26" s="112">
         <v>-3</v>
       </c>
-      <c r="C26" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D26" t="s" s="127">
-        <v>203</v>
-      </c>
-      <c r="E26" t="s" s="127">
-        <v>201</v>
+      <c r="C26" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D26" t="s" s="128">
+        <v>202</v>
+      </c>
+      <c r="E26" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F26" s="40"/>
       <c r="G26" s="41"/>
-      <c r="H26" s="137">
+      <c r="H26" s="138">
         <v>13041600</v>
       </c>
       <c r="I26" s="40"/>
       <c r="J26" s="41"/>
-      <c r="K26" s="138">
+      <c r="K26" s="139">
         <v>736028.144</v>
       </c>
       <c r="L26" s="86"/>
-      <c r="M26" s="138">
+      <c r="M26" s="139">
         <v>800000</v>
       </c>
-      <c r="N26" s="149"/>
+      <c r="N26" s="150"/>
       <c r="O26" s="11"/>
       <c r="P26" s="41"/>
       <c r="Q26" s="116">
         <v>0.92003518</v>
       </c>
       <c r="R26" s="86"/>
-      <c r="S26" s="133">
+      <c r="S26" s="134">
         <v>-0.18372514876373</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="141"/>
+      <c r="A27" s="142"/>
       <c r="B27" s="112">
         <v>-3</v>
       </c>
-      <c r="C27" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D27" t="s" s="127">
-        <v>204</v>
-      </c>
-      <c r="E27" t="s" s="127">
-        <v>201</v>
+      <c r="C27" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D27" t="s" s="128">
+        <v>203</v>
+      </c>
+      <c r="E27" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F27" s="40"/>
       <c r="G27" s="41"/>
-      <c r="H27" s="137">
+      <c r="H27" s="138">
         <v>6200000</v>
       </c>
       <c r="I27" s="40"/>
       <c r="J27" s="41"/>
-      <c r="K27" s="138">
+      <c r="K27" s="139">
         <v>478321.8</v>
       </c>
       <c r="L27" s="86"/>
-      <c r="M27" s="138">
+      <c r="M27" s="139">
         <v>550000</v>
       </c>
-      <c r="N27" s="149"/>
+      <c r="N27" s="150"/>
       <c r="O27" s="11"/>
       <c r="P27" s="41"/>
       <c r="Q27" s="116">
         <v>0.869676</v>
       </c>
       <c r="R27" s="86"/>
-      <c r="S27" s="133">
+      <c r="S27" s="134">
         <v>-0.221974928987912</v>
       </c>
     </row>
     <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="141"/>
+      <c r="A28" s="142"/>
       <c r="B28" s="112">
         <v>-3</v>
       </c>
-      <c r="C28" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D28" t="s" s="127">
-        <v>205</v>
-      </c>
-      <c r="E28" t="s" s="127">
-        <v>201</v>
+      <c r="C28" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D28" t="s" s="128">
+        <v>204</v>
+      </c>
+      <c r="E28" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F28" s="40"/>
       <c r="G28" s="41"/>
-      <c r="H28" s="137">
+      <c r="H28" s="138">
         <v>1400000</v>
       </c>
       <c r="I28" s="40"/>
       <c r="J28" s="41"/>
-      <c r="K28" s="138">
+      <c r="K28" s="139">
         <v>69720.3</v>
       </c>
       <c r="L28" s="86"/>
-      <c r="M28" s="138">
+      <c r="M28" s="139">
         <v>80000</v>
       </c>
-      <c r="N28" s="149"/>
+      <c r="N28" s="150"/>
       <c r="O28" s="11"/>
       <c r="P28" s="41"/>
       <c r="Q28" s="116">
         <v>0.87150375</v>
       </c>
       <c r="R28" s="86"/>
-      <c r="S28" s="133">
+      <c r="S28" s="134">
         <v>-0.319569277104024</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" s="141"/>
+      <c r="A29" s="142"/>
       <c r="B29" s="112">
         <v>-3</v>
       </c>
-      <c r="C29" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D29" t="s" s="127">
-        <v>206</v>
-      </c>
-      <c r="E29" t="s" s="127">
-        <v>201</v>
+      <c r="C29" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D29" t="s" s="128">
+        <v>205</v>
+      </c>
+      <c r="E29" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F29" s="40"/>
       <c r="G29" s="41"/>
-      <c r="H29" s="137">
+      <c r="H29" s="138">
         <v>4067200</v>
       </c>
       <c r="I29" s="40"/>
       <c r="J29" s="41"/>
-      <c r="K29" s="138">
+      <c r="K29" s="139">
         <v>223216.84</v>
       </c>
       <c r="L29" s="86"/>
-      <c r="M29" s="138">
+      <c r="M29" s="139">
         <v>250000</v>
       </c>
-      <c r="N29" s="149"/>
+      <c r="N29" s="150"/>
       <c r="O29" s="11"/>
       <c r="P29" s="41"/>
       <c r="Q29" s="116">
         <v>0.89286736</v>
       </c>
       <c r="R29" s="86"/>
-      <c r="S29" s="133">
+      <c r="S29" s="134">
         <v>-0.221974928987912</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1">
-      <c r="A30" s="141"/>
+      <c r="A30" s="142"/>
       <c r="B30" s="112">
         <v>-3</v>
       </c>
-      <c r="C30" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D30" t="s" s="127">
-        <v>207</v>
-      </c>
-      <c r="E30" t="s" s="127">
-        <v>201</v>
+      <c r="C30" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D30" t="s" s="128">
+        <v>206</v>
+      </c>
+      <c r="E30" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F30" s="40"/>
       <c r="G30" s="41"/>
-      <c r="H30" s="137">
+      <c r="H30" s="138">
         <v>1419200</v>
       </c>
       <c r="I30" s="40"/>
       <c r="J30" s="41"/>
-      <c r="K30" s="138">
+      <c r="K30" s="139">
         <v>90664.36</v>
       </c>
       <c r="L30" s="86"/>
-      <c r="M30" s="138">
+      <c r="M30" s="139">
         <v>100000</v>
       </c>
-      <c r="N30" s="149"/>
+      <c r="N30" s="150"/>
       <c r="O30" s="11"/>
       <c r="P30" s="41"/>
       <c r="Q30" s="116">
         <v>0.9066436</v>
       </c>
       <c r="R30" s="86"/>
-      <c r="S30" s="133">
+      <c r="S30" s="134">
         <v>-0.262639240702959</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1">
-      <c r="A31" s="141"/>
+      <c r="A31" s="142"/>
       <c r="B31" s="112">
         <v>-3</v>
       </c>
-      <c r="C31" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D31" t="s" s="127">
-        <v>208</v>
-      </c>
-      <c r="E31" t="s" s="127">
-        <v>201</v>
+      <c r="C31" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D31" t="s" s="128">
+        <v>207</v>
+      </c>
+      <c r="E31" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F31" s="40"/>
       <c r="G31" s="41"/>
-      <c r="H31" s="137">
+      <c r="H31" s="138">
         <v>1014300</v>
       </c>
       <c r="I31" s="40"/>
       <c r="J31" s="41"/>
-      <c r="K31" s="138">
+      <c r="K31" s="139">
         <v>25510.496</v>
       </c>
       <c r="L31" s="86"/>
-      <c r="M31" s="138">
+      <c r="M31" s="139">
         <v>25000</v>
       </c>
-      <c r="N31" s="149"/>
+      <c r="N31" s="150"/>
       <c r="O31" s="11"/>
       <c r="P31" s="41"/>
       <c r="Q31" s="116">
         <v>1.02041984</v>
       </c>
       <c r="R31" s="86"/>
-      <c r="S31" s="133">
+      <c r="S31" s="134">
         <v>-0.221974928987912</v>
       </c>
     </row>
     <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="141"/>
+      <c r="A32" s="142"/>
       <c r="B32" s="112">
         <v>-3</v>
       </c>
-      <c r="C32" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D32" t="s" s="127">
-        <v>209</v>
-      </c>
-      <c r="E32" t="s" s="127">
-        <v>201</v>
+      <c r="C32" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D32" t="s" s="128">
+        <v>208</v>
+      </c>
+      <c r="E32" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F32" s="40"/>
       <c r="G32" s="41"/>
-      <c r="H32" s="137">
+      <c r="H32" s="138">
         <v>628320</v>
       </c>
       <c r="I32" s="40"/>
       <c r="J32" s="41"/>
-      <c r="K32" s="138">
+      <c r="K32" s="139">
         <v>59832.18</v>
       </c>
       <c r="L32" s="86"/>
-      <c r="M32" s="138">
+      <c r="M32" s="139">
         <v>60000</v>
       </c>
-      <c r="N32" s="149"/>
+      <c r="N32" s="150"/>
       <c r="O32" s="11"/>
       <c r="P32" s="41"/>
       <c r="Q32" s="116">
         <v>0.997203</v>
       </c>
       <c r="R32" s="86"/>
-      <c r="S32" s="133">
+      <c r="S32" s="134">
         <v>-0.270089674566767</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="141"/>
+      <c r="A33" s="142"/>
       <c r="B33" s="112">
         <v>-3</v>
       </c>
-      <c r="C33" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D33" t="s" s="127">
-        <v>210</v>
-      </c>
-      <c r="E33" t="s" s="127">
-        <v>201</v>
+      <c r="C33" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D33" t="s" s="128">
+        <v>209</v>
+      </c>
+      <c r="E33" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F33" s="40"/>
       <c r="G33" s="41"/>
-      <c r="H33" s="137">
+      <c r="H33" s="138">
         <v>12234288</v>
       </c>
       <c r="I33" s="40"/>
       <c r="J33" s="41"/>
-      <c r="K33" s="138">
+      <c r="K33" s="139">
         <v>757203</v>
       </c>
       <c r="L33" s="86"/>
-      <c r="M33" s="138">
+      <c r="M33" s="139">
         <v>850000</v>
       </c>
-      <c r="N33" s="149"/>
+      <c r="N33" s="150"/>
       <c r="O33" s="11"/>
       <c r="P33" s="41"/>
       <c r="Q33" s="116">
         <v>0.890827058823529</v>
       </c>
       <c r="R33" s="86"/>
-      <c r="S33" s="133">
+      <c r="S33" s="134">
         <v>-0.220477498137507</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="141"/>
+      <c r="A34" s="142"/>
       <c r="B34" s="112">
         <v>-2</v>
       </c>
-      <c r="C34" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D34" t="s" s="127">
+      <c r="C34" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D34" t="s" s="128">
+        <v>199</v>
+      </c>
+      <c r="E34" t="s" s="128">
         <v>200</v>
-      </c>
-      <c r="E34" t="s" s="127">
-        <v>201</v>
       </c>
       <c r="F34" s="40"/>
       <c r="G34" s="41"/>
-      <c r="H34" s="137">
+      <c r="H34" s="138">
         <v>10560000</v>
       </c>
       <c r="I34" s="40"/>
       <c r="J34" s="41"/>
-      <c r="K34" s="138">
+      <c r="K34" s="139">
         <v>525785.6899999999</v>
       </c>
       <c r="L34" s="86"/>
-      <c r="M34" s="125">
+      <c r="M34" s="126">
         <v>550000</v>
       </c>
-      <c r="N34" s="140"/>
+      <c r="N34" s="141"/>
       <c r="O34" s="11"/>
       <c r="P34" s="41"/>
       <c r="Q34" s="116">
         <v>0.9559739818181821</v>
       </c>
       <c r="R34" s="86"/>
-      <c r="S34" s="133">
+      <c r="S34" s="134">
         <v>-0.0560165983298402</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1">
-      <c r="A35" s="141"/>
+      <c r="A35" s="142"/>
       <c r="B35" s="112">
         <v>-2</v>
       </c>
-      <c r="C35" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D35" t="s" s="127">
-        <v>202</v>
-      </c>
-      <c r="E35" t="s" s="127">
+      <c r="C35" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D35" t="s" s="128">
         <v>201</v>
+      </c>
+      <c r="E35" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F35" s="40"/>
       <c r="G35" s="41"/>
-      <c r="H35" s="137">
+      <c r="H35" s="138">
         <v>3700000</v>
       </c>
       <c r="I35" s="40"/>
       <c r="J35" s="41"/>
-      <c r="K35" s="138">
+      <c r="K35" s="139">
         <v>154642.85</v>
       </c>
       <c r="L35" s="86"/>
-      <c r="M35" s="125">
+      <c r="M35" s="126">
         <v>170000</v>
       </c>
-      <c r="N35" s="140"/>
+      <c r="N35" s="141"/>
       <c r="O35" s="11"/>
       <c r="P35" s="41"/>
       <c r="Q35" s="116">
         <v>0.909663823529412</v>
       </c>
       <c r="R35" s="86"/>
-      <c r="S35" s="133">
+      <c r="S35" s="134">
         <v>-0.191742619717521</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1">
-      <c r="A36" s="141"/>
+      <c r="A36" s="142"/>
       <c r="B36" s="112">
         <v>-2</v>
       </c>
-      <c r="C36" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D36" t="s" s="127">
-        <v>203</v>
-      </c>
-      <c r="E36" t="s" s="127">
-        <v>201</v>
+      <c r="C36" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s" s="128">
+        <v>202</v>
+      </c>
+      <c r="E36" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F36" s="40"/>
       <c r="G36" s="41"/>
-      <c r="H36" s="137">
+      <c r="H36" s="138">
         <v>13041600</v>
       </c>
       <c r="I36" s="40"/>
       <c r="J36" s="41"/>
-      <c r="K36" s="138">
+      <c r="K36" s="139">
         <v>711357.11</v>
       </c>
       <c r="L36" s="86"/>
-      <c r="M36" s="125">
+      <c r="M36" s="126">
         <v>750000</v>
       </c>
-      <c r="N36" s="140"/>
+      <c r="N36" s="141"/>
       <c r="O36" s="11"/>
       <c r="P36" s="41"/>
       <c r="Q36" s="116">
         <v>0.948476146666667</v>
       </c>
       <c r="R36" s="86"/>
-      <c r="S36" s="133">
+      <c r="S36" s="134">
         <v>-0.0335191448874813</v>
       </c>
     </row>
     <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" s="141"/>
+      <c r="A37" s="142"/>
       <c r="B37" s="112">
         <v>-2</v>
       </c>
-      <c r="C37" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D37" t="s" s="127">
-        <v>204</v>
-      </c>
-      <c r="E37" t="s" s="127">
-        <v>201</v>
+      <c r="C37" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D37" t="s" s="128">
+        <v>203</v>
+      </c>
+      <c r="E37" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F37" s="40"/>
       <c r="G37" s="41"/>
-      <c r="H37" s="137">
+      <c r="H37" s="138">
         <v>6200000</v>
       </c>
       <c r="I37" s="40"/>
       <c r="J37" s="41"/>
-      <c r="K37" s="138">
+      <c r="K37" s="139">
         <v>432999.98</v>
       </c>
       <c r="L37" s="86"/>
-      <c r="M37" s="125">
+      <c r="M37" s="126">
         <v>500000</v>
       </c>
-      <c r="N37" s="140"/>
+      <c r="N37" s="141"/>
       <c r="O37" s="11"/>
       <c r="P37" s="41"/>
       <c r="Q37" s="116">
         <v>0.86599996</v>
       </c>
       <c r="R37" s="86"/>
-      <c r="S37" s="133">
+      <c r="S37" s="134">
         <v>-0.0947517340836231</v>
       </c>
     </row>
     <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" s="141"/>
+      <c r="A38" s="142"/>
       <c r="B38" s="112">
         <v>-2</v>
       </c>
-      <c r="C38" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D38" t="s" s="127">
-        <v>205</v>
-      </c>
-      <c r="E38" t="s" s="127">
-        <v>201</v>
+      <c r="C38" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D38" t="s" s="128">
+        <v>204</v>
+      </c>
+      <c r="E38" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F38" s="40"/>
       <c r="G38" s="41"/>
-      <c r="H38" s="137">
+      <c r="H38" s="138">
         <v>1400000</v>
       </c>
       <c r="I38" s="40"/>
       <c r="J38" s="41"/>
-      <c r="K38" s="138">
+      <c r="K38" s="139">
         <v>77321.425</v>
       </c>
       <c r="L38" s="86"/>
-      <c r="M38" s="125">
+      <c r="M38" s="126">
         <v>80000</v>
       </c>
-      <c r="N38" s="140"/>
+      <c r="N38" s="141"/>
       <c r="O38" s="11"/>
       <c r="P38" s="41"/>
       <c r="Q38" s="116">
         <v>0.9665178125</v>
       </c>
       <c r="R38" s="86"/>
-      <c r="S38" s="133">
+      <c r="S38" s="134">
         <v>0.109023125259071</v>
       </c>
     </row>
     <row r="39" ht="13.5" customHeight="1">
-      <c r="A39" s="141"/>
+      <c r="A39" s="142"/>
       <c r="B39" s="112">
         <v>-2</v>
       </c>
-      <c r="C39" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D39" t="s" s="127">
-        <v>206</v>
-      </c>
-      <c r="E39" t="s" s="127">
-        <v>201</v>
+      <c r="C39" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D39" t="s" s="128">
+        <v>205</v>
+      </c>
+      <c r="E39" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F39" s="40"/>
       <c r="G39" s="41"/>
-      <c r="H39" s="137">
+      <c r="H39" s="138">
         <v>4067200</v>
       </c>
       <c r="I39" s="40"/>
       <c r="J39" s="41"/>
-      <c r="K39" s="138">
+      <c r="K39" s="139">
         <v>247428.56</v>
       </c>
       <c r="L39" s="86"/>
-      <c r="M39" s="125">
+      <c r="M39" s="126">
         <v>250000</v>
       </c>
-      <c r="N39" s="140"/>
+      <c r="N39" s="141"/>
       <c r="O39" s="11"/>
       <c r="P39" s="41"/>
       <c r="Q39" s="116">
         <v>0.98971424</v>
       </c>
       <c r="R39" s="86"/>
-      <c r="S39" s="133">
+      <c r="S39" s="134">
         <v>0.1084672643874</v>
       </c>
     </row>
     <row r="40" ht="13.5" customHeight="1">
-      <c r="A40" s="141"/>
+      <c r="A40" s="142"/>
       <c r="B40" s="112">
         <v>-2</v>
       </c>
-      <c r="C40" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D40" t="s" s="127">
-        <v>207</v>
-      </c>
-      <c r="E40" t="s" s="127">
-        <v>201</v>
+      <c r="C40" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D40" t="s" s="128">
+        <v>206</v>
+      </c>
+      <c r="E40" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F40" s="40"/>
       <c r="G40" s="41"/>
-      <c r="H40" s="137">
+      <c r="H40" s="138">
         <v>1419200</v>
       </c>
       <c r="I40" s="40"/>
       <c r="J40" s="41"/>
-      <c r="K40" s="138">
+      <c r="K40" s="139">
         <v>92785.710000000006</v>
       </c>
       <c r="L40" s="86"/>
-      <c r="M40" s="125">
+      <c r="M40" s="126">
         <v>100000</v>
       </c>
-      <c r="N40" s="140"/>
+      <c r="N40" s="141"/>
       <c r="O40" s="11"/>
       <c r="P40" s="41"/>
       <c r="Q40" s="116">
         <v>0.9278571</v>
       </c>
       <c r="R40" s="86"/>
-      <c r="S40" s="133">
+      <c r="S40" s="134">
         <v>0.0233978379155821</v>
       </c>
     </row>
     <row r="41" ht="13.5" customHeight="1">
-      <c r="A41" s="141"/>
+      <c r="A41" s="142"/>
       <c r="B41" s="112">
         <v>-2</v>
       </c>
-      <c r="C41" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D41" t="s" s="127">
-        <v>208</v>
-      </c>
-      <c r="E41" t="s" s="127">
-        <v>201</v>
+      <c r="C41" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D41" t="s" s="128">
+        <v>207</v>
+      </c>
+      <c r="E41" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F41" s="40"/>
       <c r="G41" s="41"/>
-      <c r="H41" s="137">
+      <c r="H41" s="138">
         <v>1014300</v>
       </c>
       <c r="I41" s="40"/>
       <c r="J41" s="41"/>
-      <c r="K41" s="138">
+      <c r="K41" s="139">
         <v>21649.999</v>
       </c>
       <c r="L41" s="86"/>
-      <c r="M41" s="125">
+      <c r="M41" s="126">
         <v>25000</v>
       </c>
-      <c r="N41" s="140"/>
+      <c r="N41" s="141"/>
       <c r="O41" s="11"/>
       <c r="P41" s="41"/>
       <c r="Q41" s="116">
         <v>0.86599996</v>
       </c>
       <c r="R41" s="86"/>
-      <c r="S41" s="133">
+      <c r="S41" s="134">
         <v>-0.151329750703397</v>
       </c>
     </row>
     <row r="42" ht="13.5" customHeight="1">
-      <c r="A42" s="141"/>
+      <c r="A42" s="142"/>
       <c r="B42" s="112">
         <v>-2</v>
       </c>
-      <c r="C42" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D42" t="s" s="127">
-        <v>209</v>
-      </c>
-      <c r="E42" t="s" s="127">
-        <v>201</v>
+      <c r="C42" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D42" t="s" s="128">
+        <v>208</v>
+      </c>
+      <c r="E42" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F42" s="40"/>
       <c r="G42" s="41"/>
-      <c r="H42" s="137">
+      <c r="H42" s="138">
         <v>628320</v>
       </c>
       <c r="I42" s="40"/>
       <c r="J42" s="41"/>
-      <c r="K42" s="138">
+      <c r="K42" s="139">
         <v>55671.426</v>
       </c>
       <c r="L42" s="86"/>
-      <c r="M42" s="125">
+      <c r="M42" s="126">
         <v>60000</v>
       </c>
-      <c r="N42" s="140"/>
+      <c r="N42" s="141"/>
       <c r="O42" s="11"/>
       <c r="P42" s="41"/>
       <c r="Q42" s="116">
         <v>0.9278571</v>
       </c>
       <c r="R42" s="86"/>
-      <c r="S42" s="133">
+      <c r="S42" s="134">
         <v>-0.0695404045114185</v>
       </c>
     </row>
     <row r="43" ht="13.5" customHeight="1">
-      <c r="A43" s="141"/>
+      <c r="A43" s="142"/>
       <c r="B43" s="112">
         <v>-2</v>
       </c>
-      <c r="C43" t="s" s="126">
-        <v>143</v>
-      </c>
-      <c r="D43" t="s" s="127">
-        <v>210</v>
-      </c>
-      <c r="E43" t="s" s="127">
-        <v>201</v>
+      <c r="C43" t="s" s="127">
+        <v>142</v>
+      </c>
+      <c r="D43" t="s" s="128">
+        <v>209</v>
+      </c>
+      <c r="E43" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F43" s="40"/>
       <c r="G43" s="41"/>
-      <c r="H43" s="137">
+      <c r="H43" s="138">
         <v>12234288</v>
       </c>
       <c r="I43" s="40"/>
       <c r="J43" s="41"/>
-      <c r="K43" s="138">
+      <c r="K43" s="139">
         <v>773214.25</v>
       </c>
       <c r="L43" s="86"/>
-      <c r="M43" s="125">
+      <c r="M43" s="126">
         <v>800000</v>
       </c>
-      <c r="N43" s="140"/>
+      <c r="N43" s="141"/>
       <c r="O43" s="11"/>
       <c r="P43" s="41"/>
       <c r="Q43" s="116">
         <v>0.9665178125</v>
       </c>
       <c r="R43" s="86"/>
-      <c r="S43" s="133">
+      <c r="S43" s="134">
         <v>0.0211452543109312</v>
       </c>
     </row>
     <row r="44" ht="13.5" customHeight="1">
-      <c r="A44" s="141"/>
-      <c r="B44" s="142">
+      <c r="A44" s="142"/>
+      <c r="B44" s="143">
         <v>-1</v>
       </c>
-      <c r="C44" t="s" s="151">
-        <v>143</v>
-      </c>
-      <c r="D44" t="s" s="127">
+      <c r="C44" t="s" s="152">
+        <v>142</v>
+      </c>
+      <c r="D44" t="s" s="128">
+        <v>199</v>
+      </c>
+      <c r="E44" t="s" s="128">
         <v>200</v>
-      </c>
-      <c r="E44" t="s" s="127">
-        <v>201</v>
       </c>
       <c r="F44" s="40"/>
       <c r="G44" s="41"/>
-      <c r="H44" s="137">
+      <c r="H44" s="138">
         <v>10560000</v>
       </c>
       <c r="I44" s="40"/>
       <c r="J44" s="41"/>
-      <c r="K44" s="138">
+      <c r="K44" s="139">
         <v>716400</v>
       </c>
       <c r="L44" s="86"/>
-      <c r="M44" s="125">
+      <c r="M44" s="126">
         <v>600000</v>
       </c>
-      <c r="N44" s="140"/>
+      <c r="N44" s="141"/>
       <c r="O44" s="11"/>
       <c r="P44" s="41"/>
       <c r="Q44" s="116">
         <v>1.194</v>
       </c>
       <c r="R44" s="86"/>
-      <c r="S44" s="133">
+      <c r="S44" s="134">
         <v>0.362532327572475</v>
       </c>
     </row>
     <row r="45" ht="13.5" customHeight="1">
-      <c r="A45" s="141"/>
-      <c r="B45" s="142">
+      <c r="A45" s="142"/>
+      <c r="B45" s="143">
         <v>-1</v>
       </c>
-      <c r="C45" t="s" s="151">
-        <v>143</v>
-      </c>
-      <c r="D45" t="s" s="127">
-        <v>202</v>
-      </c>
-      <c r="E45" t="s" s="127">
+      <c r="C45" t="s" s="152">
+        <v>142</v>
+      </c>
+      <c r="D45" t="s" s="128">
         <v>201</v>
+      </c>
+      <c r="E45" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F45" s="40"/>
       <c r="G45" s="41"/>
-      <c r="H45" s="137">
+      <c r="H45" s="138">
         <v>3700000</v>
       </c>
       <c r="I45" s="40"/>
       <c r="J45" s="41"/>
-      <c r="K45" s="138">
+      <c r="K45" s="139">
         <v>220500</v>
       </c>
       <c r="L45" s="86"/>
-      <c r="M45" s="125">
+      <c r="M45" s="126">
         <v>200000</v>
       </c>
-      <c r="N45" s="140"/>
+      <c r="N45" s="141"/>
       <c r="O45" s="11"/>
       <c r="P45" s="41"/>
       <c r="Q45" s="116">
         <v>1.1025</v>
       </c>
       <c r="R45" s="86"/>
-      <c r="S45" s="133">
+      <c r="S45" s="134">
         <v>0.425866116668181</v>
       </c>
     </row>
     <row r="46" ht="13.5" customHeight="1">
-      <c r="A46" s="141"/>
-      <c r="B46" s="142">
+      <c r="A46" s="142"/>
+      <c r="B46" s="143">
         <v>-1</v>
       </c>
-      <c r="C46" t="s" s="151">
-        <v>143</v>
-      </c>
-      <c r="D46" t="s" s="127">
-        <v>203</v>
-      </c>
-      <c r="E46" t="s" s="127">
-        <v>201</v>
+      <c r="C46" t="s" s="152">
+        <v>142</v>
+      </c>
+      <c r="D46" t="s" s="128">
+        <v>202</v>
+      </c>
+      <c r="E46" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F46" s="40"/>
       <c r="G46" s="41"/>
-      <c r="H46" s="137">
+      <c r="H46" s="138">
         <v>13041600</v>
       </c>
       <c r="I46" s="40"/>
       <c r="J46" s="41"/>
-      <c r="K46" s="138">
+      <c r="K46" s="139">
         <v>859704</v>
       </c>
       <c r="L46" s="86"/>
-      <c r="M46" s="125">
+      <c r="M46" s="126">
         <v>800000</v>
       </c>
-      <c r="N46" s="140"/>
+      <c r="N46" s="141"/>
       <c r="O46" s="11"/>
       <c r="P46" s="41"/>
       <c r="Q46" s="116">
         <v>1.07463</v>
       </c>
       <c r="R46" s="86"/>
-      <c r="S46" s="133">
+      <c r="S46" s="134">
         <v>0.208540672349504</v>
       </c>
     </row>
     <row r="47" ht="13.5" customHeight="1">
-      <c r="A47" s="141"/>
-      <c r="B47" s="142">
+      <c r="A47" s="142"/>
+      <c r="B47" s="143">
         <v>-1</v>
       </c>
-      <c r="C47" t="s" s="151">
-        <v>143</v>
-      </c>
-      <c r="D47" t="s" s="127">
-        <v>204</v>
-      </c>
-      <c r="E47" t="s" s="127">
-        <v>201</v>
+      <c r="C47" t="s" s="152">
+        <v>142</v>
+      </c>
+      <c r="D47" t="s" s="128">
+        <v>203</v>
+      </c>
+      <c r="E47" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F47" s="40"/>
       <c r="G47" s="41"/>
-      <c r="H47" s="137">
+      <c r="H47" s="138">
         <v>6200000</v>
       </c>
       <c r="I47" s="40"/>
       <c r="J47" s="41"/>
-      <c r="K47" s="138">
+      <c r="K47" s="139">
         <v>400000</v>
       </c>
       <c r="L47" s="86"/>
-      <c r="M47" s="125">
+      <c r="M47" s="126">
         <v>450000</v>
       </c>
-      <c r="N47" s="140"/>
+      <c r="N47" s="141"/>
       <c r="O47" s="11"/>
       <c r="P47" s="41"/>
       <c r="Q47" s="116">
         <v>0.888888888888889</v>
       </c>
       <c r="R47" s="86"/>
-      <c r="S47" s="133">
+      <c r="S47" s="134">
         <v>-0.0762124284624679</v>
       </c>
     </row>
     <row r="48" ht="13.5" customHeight="1">
-      <c r="A48" s="141"/>
-      <c r="B48" s="142">
+      <c r="A48" s="142"/>
+      <c r="B48" s="143">
         <v>-1</v>
       </c>
-      <c r="C48" t="s" s="151">
-        <v>143</v>
-      </c>
-      <c r="D48" t="s" s="127">
-        <v>205</v>
-      </c>
-      <c r="E48" t="s" s="127">
-        <v>201</v>
+      <c r="C48" t="s" s="152">
+        <v>142</v>
+      </c>
+      <c r="D48" t="s" s="128">
+        <v>204</v>
+      </c>
+      <c r="E48" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F48" s="40"/>
       <c r="G48" s="41"/>
-      <c r="H48" s="137">
+      <c r="H48" s="138">
         <v>1400000</v>
       </c>
       <c r="I48" s="40"/>
       <c r="J48" s="41"/>
-      <c r="K48" s="138">
+      <c r="K48" s="139">
         <v>90000</v>
       </c>
       <c r="L48" s="86"/>
-      <c r="M48" s="125">
+      <c r="M48" s="126">
         <v>85000</v>
       </c>
-      <c r="N48" s="140"/>
+      <c r="N48" s="141"/>
       <c r="O48" s="11"/>
       <c r="P48" s="41"/>
       <c r="Q48" s="116">
         <v>1.05882352941176</v>
       </c>
       <c r="R48" s="86"/>
-      <c r="S48" s="133">
+      <c r="S48" s="134">
         <v>0.163972340137291</v>
       </c>
     </row>
     <row r="49" ht="13.5" customHeight="1">
-      <c r="A49" s="141"/>
-      <c r="B49" s="142">
+      <c r="A49" s="142"/>
+      <c r="B49" s="143">
         <v>-1</v>
       </c>
-      <c r="C49" t="s" s="151">
-        <v>143</v>
-      </c>
-      <c r="D49" t="s" s="127">
-        <v>206</v>
-      </c>
-      <c r="E49" t="s" s="127">
-        <v>201</v>
+      <c r="C49" t="s" s="152">
+        <v>142</v>
+      </c>
+      <c r="D49" t="s" s="128">
+        <v>205</v>
+      </c>
+      <c r="E49" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F49" s="40"/>
       <c r="G49" s="41"/>
-      <c r="H49" s="137">
+      <c r="H49" s="138">
         <v>4067200</v>
       </c>
       <c r="I49" s="40"/>
       <c r="J49" s="41"/>
-      <c r="K49" s="138">
+      <c r="K49" s="139">
         <v>276368</v>
       </c>
       <c r="L49" s="86"/>
-      <c r="M49" s="125">
+      <c r="M49" s="126">
         <v>250000</v>
       </c>
-      <c r="N49" s="140"/>
+      <c r="N49" s="141"/>
       <c r="O49" s="11"/>
       <c r="P49" s="41"/>
       <c r="Q49" s="116">
         <v>1.105472</v>
       </c>
       <c r="R49" s="86"/>
-      <c r="S49" s="133">
+      <c r="S49" s="134">
         <v>0.116960790621746</v>
       </c>
     </row>
     <row r="50" ht="13.5" customHeight="1">
-      <c r="A50" s="141"/>
-      <c r="B50" s="142">
+      <c r="A50" s="142"/>
+      <c r="B50" s="143">
         <v>-1</v>
       </c>
-      <c r="C50" t="s" s="151">
-        <v>143</v>
-      </c>
-      <c r="D50" t="s" s="127">
-        <v>207</v>
-      </c>
-      <c r="E50" t="s" s="127">
-        <v>201</v>
+      <c r="C50" t="s" s="152">
+        <v>142</v>
+      </c>
+      <c r="D50" t="s" s="128">
+        <v>206</v>
+      </c>
+      <c r="E50" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F50" s="40"/>
       <c r="G50" s="41"/>
-      <c r="H50" s="137">
+      <c r="H50" s="138">
         <v>1419200</v>
       </c>
       <c r="I50" s="40"/>
       <c r="J50" s="41"/>
-      <c r="K50" s="138">
+      <c r="K50" s="139">
         <v>90248</v>
       </c>
       <c r="L50" s="86"/>
-      <c r="M50" s="125">
+      <c r="M50" s="126">
         <v>100000</v>
       </c>
-      <c r="N50" s="140"/>
+      <c r="N50" s="141"/>
       <c r="O50" s="11"/>
       <c r="P50" s="41"/>
       <c r="Q50" s="116">
         <v>0.9024799999999999</v>
       </c>
       <c r="R50" s="86"/>
-      <c r="S50" s="133">
+      <c r="S50" s="134">
         <v>-0.0273502245119426</v>
       </c>
     </row>
     <row r="51" ht="13.5" customHeight="1">
-      <c r="A51" s="141"/>
-      <c r="B51" s="142">
+      <c r="A51" s="142"/>
+      <c r="B51" s="143">
         <v>-1</v>
       </c>
-      <c r="C51" t="s" s="151">
-        <v>143</v>
-      </c>
-      <c r="D51" t="s" s="127">
-        <v>208</v>
-      </c>
-      <c r="E51" t="s" s="127">
-        <v>201</v>
+      <c r="C51" t="s" s="152">
+        <v>142</v>
+      </c>
+      <c r="D51" t="s" s="128">
+        <v>207</v>
+      </c>
+      <c r="E51" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F51" s="40"/>
       <c r="G51" s="41"/>
-      <c r="H51" s="137">
+      <c r="H51" s="138">
         <v>1014300</v>
       </c>
       <c r="I51" s="40"/>
       <c r="J51" s="41"/>
-      <c r="K51" s="138">
+      <c r="K51" s="139">
         <v>28930</v>
       </c>
       <c r="L51" s="86"/>
-      <c r="M51" s="125">
+      <c r="M51" s="126">
         <v>25000</v>
       </c>
-      <c r="N51" s="140"/>
+      <c r="N51" s="141"/>
       <c r="O51" s="11"/>
       <c r="P51" s="41"/>
       <c r="Q51" s="116">
         <v>1.1572</v>
       </c>
       <c r="R51" s="86"/>
-      <c r="S51" s="133">
+      <c r="S51" s="134">
         <v>0.33625872222904</v>
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1">
-      <c r="A52" s="141"/>
-      <c r="B52" s="142">
+      <c r="A52" s="142"/>
+      <c r="B52" s="143">
         <v>-1</v>
       </c>
-      <c r="C52" t="s" s="151">
-        <v>143</v>
-      </c>
-      <c r="D52" t="s" s="127">
-        <v>209</v>
-      </c>
-      <c r="E52" t="s" s="127">
-        <v>201</v>
+      <c r="C52" t="s" s="152">
+        <v>142</v>
+      </c>
+      <c r="D52" t="s" s="128">
+        <v>208</v>
+      </c>
+      <c r="E52" t="s" s="128">
+        <v>200</v>
       </c>
       <c r="F52" s="40"/>
       <c r="G52" s="41"/>
-      <c r="H52" s="137">
+      <c r="H52" s="138">
         <v>628320</v>
       </c>
       <c r="I52" s="40"/>
       <c r="J52" s="41"/>
-      <c r="K52" s="138">
+      <c r="K52" s="139">
         <v>35840</v>
       </c>
       <c r="L52" s="86"/>
-      <c r="M52" s="125">
+      <c r="M52" s="126">
         <v>40000</v>
       </c>
-      <c r="N52" s="140"/>
+      <c r="N52" s="141"/>
       <c r="O52" s="11"/>
       <c r="P52" s="41"/>
       <c r="Q52" s="116">
         <v>0.896</v>
       </c>
       <c r="R52" s="86"/>
-      <c r="S52" s="133">
+      <c r="S52" s="134">
         <v>-0.356222705701844</v>
       </c>
     </row>
     <row r="53" ht="13.5" customHeight="1">
-      <c r="A53" s="141"/>
-      <c r="B53" s="142">
+      <c r="A53" s="142"/>
+      <c r="B53" s="143">
         <v>-1</v>
       </c>
-      <c r="C53" t="s" s="143">
-        <v>143</v>
-      </c>
-      <c r="D53" t="s" s="127">
-        <v>210</v>
-      </c>
-      <c r="E53" t="s" s="127">
-        <v>201</v>
-      </c>
-      <c r="F53" s="152"/>
+      <c r="C53" t="s" s="144">
+        <v>142</v>
+      </c>
+      <c r="D53" t="s" s="128">
+        <v>209</v>
+      </c>
+      <c r="E53" t="s" s="128">
+        <v>200</v>
+      </c>
+      <c r="F53" s="153"/>
       <c r="G53" s="41"/>
-      <c r="H53" s="137">
+      <c r="H53" s="138">
         <v>12234288</v>
       </c>
       <c r="I53" s="40"/>
       <c r="J53" s="41"/>
-      <c r="K53" s="138">
+      <c r="K53" s="139">
         <v>835229</v>
       </c>
       <c r="L53" s="86"/>
-      <c r="M53" s="125">
+      <c r="M53" s="126">
         <v>800000</v>
       </c>
-      <c r="N53" s="140"/>
+      <c r="N53" s="141"/>
       <c r="O53" s="11"/>
       <c r="P53" s="41"/>
       <c r="Q53" s="116">
         <v>1.04403625</v>
       </c>
       <c r="R53" s="86"/>
-      <c r="S53" s="133">
+      <c r="S53" s="134">
         <v>0.08020383742281</v>
       </c>
     </row>
     <row r="54" ht="13.5" customHeight="1">
-      <c r="A54" s="141"/>
+      <c r="A54" s="142"/>
       <c r="B54" s="112">
         <v>-4</v>
       </c>
-      <c r="C54" t="s" s="153">
-        <v>144</v>
-      </c>
-      <c r="D54" s="154"/>
-      <c r="E54" t="s" s="155">
+      <c r="C54" t="s" s="154">
+        <v>143</v>
+      </c>
+      <c r="D54" s="155"/>
+      <c r="E54" t="s" s="156">
+        <v>210</v>
+      </c>
+      <c r="F54" t="s" s="156">
         <v>211</v>
-      </c>
-      <c r="F54" t="s" s="155">
-        <v>212</v>
       </c>
       <c r="G54" s="40"/>
       <c r="H54" s="71"/>
       <c r="I54" s="11"/>
       <c r="J54" s="41"/>
-      <c r="K54" s="156">
+      <c r="K54" s="157">
         <v>1053340</v>
       </c>
       <c r="L54" s="86"/>
-      <c r="M54" s="156">
+      <c r="M54" s="157">
         <v>975000</v>
       </c>
-      <c r="N54" s="157"/>
+      <c r="N54" s="158"/>
       <c r="O54" s="11"/>
       <c r="P54" s="41"/>
-      <c r="Q54" s="158">
+      <c r="Q54" s="159">
         <v>1.08034871794872</v>
       </c>
       <c r="R54" s="86"/>
-      <c r="S54" s="158">
+      <c r="S54" s="159">
         <v>0.187882670877236</v>
       </c>
     </row>
     <row r="55" ht="13.5" customHeight="1">
-      <c r="A55" s="141"/>
+      <c r="A55" s="142"/>
       <c r="B55" s="112">
         <v>-4</v>
       </c>
-      <c r="C55" t="s" s="159">
-        <v>144</v>
+      <c r="C55" t="s" s="160">
+        <v>143</v>
       </c>
       <c r="D55" s="41"/>
-      <c r="E55" t="s" s="155">
-        <v>211</v>
-      </c>
-      <c r="F55" t="s" s="155">
-        <v>213</v>
+      <c r="E55" t="s" s="156">
+        <v>210</v>
+      </c>
+      <c r="F55" t="s" s="156">
+        <v>212</v>
       </c>
       <c r="G55" s="40"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
       <c r="J55" s="41"/>
-      <c r="K55" s="156">
+      <c r="K55" s="157">
         <v>1516481</v>
       </c>
       <c r="L55" s="86"/>
-      <c r="M55" s="156">
+      <c r="M55" s="157">
         <v>1450000</v>
       </c>
-      <c r="N55" s="157"/>
+      <c r="N55" s="158"/>
       <c r="O55" s="11"/>
       <c r="P55" s="41"/>
-      <c r="Q55" s="158">
+      <c r="Q55" s="159">
         <v>1.04584896551724</v>
       </c>
       <c r="R55" s="86"/>
-      <c r="S55" s="158">
+      <c r="S55" s="159">
         <v>0.159205827067669</v>
       </c>
     </row>
     <row r="56" ht="13.5" customHeight="1">
-      <c r="A56" s="141"/>
+      <c r="A56" s="142"/>
       <c r="B56" s="112">
         <v>-4</v>
       </c>
-      <c r="C56" t="s" s="159">
-        <v>144</v>
+      <c r="C56" t="s" s="160">
+        <v>143</v>
       </c>
       <c r="D56" s="41"/>
-      <c r="E56" t="s" s="155">
-        <v>211</v>
-      </c>
-      <c r="F56" t="s" s="155">
-        <v>214</v>
+      <c r="E56" t="s" s="156">
+        <v>210</v>
+      </c>
+      <c r="F56" t="s" s="156">
+        <v>213</v>
       </c>
       <c r="G56" s="40"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="41"/>
-      <c r="K56" s="156">
+      <c r="K56" s="157">
         <v>319691</v>
       </c>
       <c r="L56" s="86"/>
-      <c r="M56" s="156">
+      <c r="M56" s="157">
         <v>385000</v>
       </c>
-      <c r="N56" s="157"/>
+      <c r="N56" s="158"/>
       <c r="O56" s="11"/>
       <c r="P56" s="41"/>
-      <c r="Q56" s="158">
+      <c r="Q56" s="159">
         <v>0.830366233766234</v>
       </c>
       <c r="R56" s="86"/>
-      <c r="S56" s="158">
+      <c r="S56" s="159">
         <v>-0.124001966568338</v>
       </c>
     </row>
     <row r="57" ht="13.5" customHeight="1">
-      <c r="A57" s="141"/>
+      <c r="A57" s="142"/>
       <c r="B57" s="112">
         <v>-4</v>
       </c>
-      <c r="C57" t="s" s="159">
-        <v>144</v>
+      <c r="C57" t="s" s="160">
+        <v>143</v>
       </c>
       <c r="D57" s="41"/>
-      <c r="E57" t="s" s="155">
-        <v>211</v>
-      </c>
-      <c r="F57" t="s" s="155">
-        <v>215</v>
+      <c r="E57" t="s" s="156">
+        <v>210</v>
+      </c>
+      <c r="F57" t="s" s="156">
+        <v>214</v>
       </c>
       <c r="G57" s="40"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="41"/>
-      <c r="K57" s="156">
+      <c r="K57" s="157">
         <v>368874</v>
       </c>
       <c r="L57" s="86"/>
-      <c r="M57" s="156">
+      <c r="M57" s="157">
         <v>370000</v>
       </c>
-      <c r="N57" s="157"/>
+      <c r="N57" s="158"/>
       <c r="O57" s="11"/>
       <c r="P57" s="41"/>
-      <c r="Q57" s="158">
+      <c r="Q57" s="159">
         <v>0.996956756756757</v>
       </c>
       <c r="R57" s="86"/>
-      <c r="S57" s="158">
+      <c r="S57" s="159">
         <v>0.126180758017493</v>
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1">
-      <c r="A58" s="141"/>
+      <c r="A58" s="142"/>
       <c r="B58" s="112">
         <v>-4</v>
       </c>
-      <c r="C58" t="s" s="159">
-        <v>144</v>
+      <c r="C58" t="s" s="160">
+        <v>143</v>
       </c>
       <c r="D58" s="41"/>
-      <c r="E58" t="s" s="155">
-        <v>211</v>
-      </c>
-      <c r="F58" t="s" s="155">
-        <v>216</v>
+      <c r="E58" t="s" s="156">
+        <v>210</v>
+      </c>
+      <c r="F58" t="s" s="156">
+        <v>215</v>
       </c>
       <c r="G58" s="40"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
       <c r="J58" s="41"/>
-      <c r="K58" s="156">
+      <c r="K58" s="157">
         <v>840213</v>
       </c>
       <c r="L58" s="86"/>
-      <c r="M58" s="156">
+      <c r="M58" s="157">
         <v>800000</v>
       </c>
-      <c r="N58" s="157"/>
+      <c r="N58" s="158"/>
       <c r="O58" s="11"/>
       <c r="P58" s="41"/>
-      <c r="Q58" s="158">
+      <c r="Q58" s="159">
         <v>1.05026625</v>
       </c>
       <c r="R58" s="86"/>
-      <c r="S58" s="158">
+      <c r="S58" s="159">
         <v>0.146255697851096</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1">
-      <c r="A59" s="141"/>
+      <c r="A59" s="142"/>
       <c r="B59" s="112">
         <v>-3</v>
       </c>
-      <c r="C59" t="s" s="159">
-        <v>144</v>
+      <c r="C59" t="s" s="160">
+        <v>143</v>
       </c>
       <c r="D59" s="41"/>
-      <c r="E59" t="s" s="155">
+      <c r="E59" t="s" s="156">
+        <v>210</v>
+      </c>
+      <c r="F59" t="s" s="156">
         <v>211</v>
-      </c>
-      <c r="F59" t="s" s="155">
-        <v>212</v>
       </c>
       <c r="G59" s="40"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="41"/>
-      <c r="K59" s="156">
+      <c r="K59" s="157">
         <v>817035</v>
       </c>
       <c r="L59" s="86"/>
-      <c r="M59" s="156">
+      <c r="M59" s="157">
         <v>910000</v>
       </c>
-      <c r="N59" s="157"/>
+      <c r="N59" s="158"/>
       <c r="O59" s="11"/>
       <c r="P59" s="41"/>
-      <c r="Q59" s="158">
+      <c r="Q59" s="159">
         <v>0.897840659340659</v>
       </c>
       <c r="R59" s="86"/>
-      <c r="S59" s="158">
+      <c r="S59" s="159">
         <v>0.0145048865715667</v>
       </c>
     </row>
     <row r="60" ht="13.5" customHeight="1">
-      <c r="A60" s="141"/>
+      <c r="A60" s="142"/>
       <c r="B60" s="112">
         <v>-3</v>
       </c>
-      <c r="C60" t="s" s="159">
-        <v>144</v>
+      <c r="C60" t="s" s="160">
+        <v>143</v>
       </c>
       <c r="D60" s="41"/>
-      <c r="E60" t="s" s="155">
-        <v>211</v>
-      </c>
-      <c r="F60" t="s" s="155">
-        <v>213</v>
+      <c r="E60" t="s" s="156">
+        <v>210</v>
+      </c>
+      <c r="F60" t="s" s="156">
+        <v>212</v>
       </c>
       <c r="G60" s="40"/>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
       <c r="J60" s="41"/>
-      <c r="K60" s="156">
+      <c r="K60" s="157">
         <v>1214350</v>
       </c>
       <c r="L60" s="86"/>
-      <c r="M60" s="156">
+      <c r="M60" s="157">
         <v>1350000</v>
       </c>
-      <c r="N60" s="157"/>
+      <c r="N60" s="158"/>
       <c r="O60" s="11"/>
       <c r="P60" s="41"/>
-      <c r="Q60" s="158">
+      <c r="Q60" s="159">
         <v>0.8995185185185181</v>
       </c>
       <c r="R60" s="86"/>
-      <c r="S60" s="158">
+      <c r="S60" s="159">
         <v>-0.0576382426812698</v>
       </c>
     </row>
     <row r="61" ht="13.5" customHeight="1">
-      <c r="A61" s="141"/>
+      <c r="A61" s="142"/>
       <c r="B61" s="112">
         <v>-3</v>
       </c>
-      <c r="C61" t="s" s="159">
-        <v>144</v>
+      <c r="C61" t="s" s="160">
+        <v>143</v>
       </c>
       <c r="D61" s="41"/>
-      <c r="E61" t="s" s="155">
-        <v>211</v>
-      </c>
-      <c r="F61" t="s" s="155">
-        <v>214</v>
+      <c r="E61" t="s" s="156">
+        <v>210</v>
+      </c>
+      <c r="F61" t="s" s="156">
+        <v>213</v>
       </c>
       <c r="G61" s="40"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
       <c r="J61" s="41"/>
-      <c r="K61" s="156">
+      <c r="K61" s="157">
         <v>248727</v>
       </c>
       <c r="L61" s="86"/>
-      <c r="M61" s="156">
+      <c r="M61" s="157">
         <v>275000</v>
       </c>
-      <c r="N61" s="157"/>
+      <c r="N61" s="158"/>
       <c r="O61" s="11"/>
       <c r="P61" s="41"/>
-      <c r="Q61" s="158">
+      <c r="Q61" s="159">
         <v>0.904461818181818</v>
       </c>
       <c r="R61" s="86"/>
-      <c r="S61" s="158">
+      <c r="S61" s="159">
         <v>0.081824651123521</v>
       </c>
     </row>
     <row r="62" ht="13.5" customHeight="1">
-      <c r="A62" s="141"/>
+      <c r="A62" s="142"/>
       <c r="B62" s="112">
         <v>-3</v>
       </c>
-      <c r="C62" t="s" s="159">
-        <v>144</v>
+      <c r="C62" t="s" s="160">
+        <v>143</v>
       </c>
       <c r="D62" s="41"/>
-      <c r="E62" t="s" s="155">
-        <v>211</v>
-      </c>
-      <c r="F62" t="s" s="155">
-        <v>215</v>
+      <c r="E62" t="s" s="156">
+        <v>210</v>
+      </c>
+      <c r="F62" t="s" s="156">
+        <v>214</v>
       </c>
       <c r="G62" s="40"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
       <c r="J62" s="41"/>
-      <c r="K62" s="156">
+      <c r="K62" s="157">
         <v>281993</v>
       </c>
       <c r="L62" s="86"/>
-      <c r="M62" s="156">
+      <c r="M62" s="157">
         <v>300000</v>
       </c>
-      <c r="N62" s="157"/>
+      <c r="N62" s="158"/>
       <c r="O62" s="11"/>
       <c r="P62" s="41"/>
-      <c r="Q62" s="158">
+      <c r="Q62" s="159">
         <v>0.939976666666667</v>
       </c>
       <c r="R62" s="86"/>
-      <c r="S62" s="158">
+      <c r="S62" s="159">
         <v>-0.122570418414641</v>
       </c>
     </row>
     <row r="63" ht="13.5" customHeight="1">
-      <c r="A63" s="141"/>
+      <c r="A63" s="142"/>
       <c r="B63" s="112">
         <v>-3</v>
       </c>
-      <c r="C63" t="s" s="159">
-        <v>144</v>
+      <c r="C63" t="s" s="160">
+        <v>143</v>
       </c>
       <c r="D63" s="41"/>
-      <c r="E63" t="s" s="155">
-        <v>211</v>
-      </c>
-      <c r="F63" t="s" s="155">
-        <v>216</v>
+      <c r="E63" t="s" s="156">
+        <v>210</v>
+      </c>
+      <c r="F63" t="s" s="156">
+        <v>215</v>
       </c>
       <c r="G63" s="40"/>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
       <c r="J63" s="41"/>
-      <c r="K63" s="156">
+      <c r="K63" s="157">
         <v>626706</v>
       </c>
       <c r="L63" s="86"/>
-      <c r="M63" s="156">
+      <c r="M63" s="157">
         <v>730000</v>
       </c>
-      <c r="N63" s="157"/>
+      <c r="N63" s="158"/>
       <c r="O63" s="11"/>
       <c r="P63" s="41"/>
-      <c r="Q63" s="158">
+      <c r="Q63" s="159">
         <v>0.858501369863014</v>
       </c>
       <c r="R63" s="86"/>
-      <c r="S63" s="158">
+      <c r="S63" s="159">
         <v>-0.0376556152326609</v>
       </c>
     </row>
     <row r="64" ht="13.5" customHeight="1">
-      <c r="A64" s="141"/>
+      <c r="A64" s="142"/>
       <c r="B64" s="112">
         <v>-2</v>
       </c>
-      <c r="C64" t="s" s="159">
-        <v>144</v>
+      <c r="C64" t="s" s="160">
+        <v>143</v>
       </c>
       <c r="D64" s="41"/>
-      <c r="E64" t="s" s="155">
+      <c r="E64" t="s" s="156">
+        <v>210</v>
+      </c>
+      <c r="F64" t="s" s="156">
         <v>211</v>
-      </c>
-      <c r="F64" t="s" s="155">
-        <v>212</v>
       </c>
       <c r="G64" s="40"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
       <c r="J64" s="41"/>
-      <c r="K64" s="156">
+      <c r="K64" s="157">
         <v>828886</v>
       </c>
       <c r="L64" s="86"/>
-      <c r="M64" s="156">
+      <c r="M64" s="157">
         <v>860000</v>
       </c>
-      <c r="N64" s="157"/>
+      <c r="N64" s="158"/>
       <c r="O64" s="11"/>
       <c r="P64" s="41"/>
-      <c r="Q64" s="158">
+      <c r="Q64" s="159">
         <v>0.963820930232558</v>
       </c>
       <c r="R64" s="86"/>
-      <c r="S64" s="158">
+      <c r="S64" s="159">
         <v>0.0145048865715667</v>
       </c>
     </row>
     <row r="65" ht="13.5" customHeight="1">
-      <c r="A65" s="141"/>
+      <c r="A65" s="142"/>
       <c r="B65" s="112">
         <v>-2</v>
       </c>
-      <c r="C65" t="s" s="159">
-        <v>144</v>
+      <c r="C65" t="s" s="160">
+        <v>143</v>
       </c>
       <c r="D65" s="41"/>
-      <c r="E65" t="s" s="155">
-        <v>211</v>
-      </c>
-      <c r="F65" t="s" s="155">
-        <v>213</v>
+      <c r="E65" t="s" s="156">
+        <v>210</v>
+      </c>
+      <c r="F65" t="s" s="156">
+        <v>212</v>
       </c>
       <c r="G65" s="40"/>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
       <c r="J65" s="41"/>
-      <c r="K65" s="156">
+      <c r="K65" s="157">
         <v>1144357</v>
       </c>
       <c r="L65" s="86"/>
-      <c r="M65" s="156">
+      <c r="M65" s="157">
         <v>1250000</v>
       </c>
-      <c r="N65" s="157"/>
+      <c r="N65" s="158"/>
       <c r="O65" s="11"/>
       <c r="P65" s="41"/>
-      <c r="Q65" s="158">
+      <c r="Q65" s="159">
         <v>0.9154856</v>
       </c>
       <c r="R65" s="86"/>
-      <c r="S65" s="158">
+      <c r="S65" s="159">
         <v>-0.0576382426812698</v>
       </c>
     </row>
     <row r="66" ht="13.5" customHeight="1">
-      <c r="A66" s="141"/>
+      <c r="A66" s="142"/>
       <c r="B66" s="112">
         <v>-2</v>
       </c>
-      <c r="C66" t="s" s="159">
-        <v>144</v>
+      <c r="C66" t="s" s="160">
+        <v>143</v>
       </c>
       <c r="D66" s="41"/>
-      <c r="E66" t="s" s="155">
-        <v>211</v>
-      </c>
-      <c r="F66" t="s" s="155">
-        <v>214</v>
+      <c r="E66" t="s" s="156">
+        <v>210</v>
+      </c>
+      <c r="F66" t="s" s="156">
+        <v>213</v>
       </c>
       <c r="G66" s="40"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
       <c r="J66" s="41"/>
-      <c r="K66" s="156">
+      <c r="K66" s="157">
         <v>269079</v>
       </c>
       <c r="L66" s="86"/>
-      <c r="M66" s="156">
+      <c r="M66" s="157">
         <v>275000</v>
       </c>
-      <c r="N66" s="157"/>
+      <c r="N66" s="158"/>
       <c r="O66" s="11"/>
       <c r="P66" s="41"/>
-      <c r="Q66" s="158">
+      <c r="Q66" s="159">
         <v>0.978469090909091</v>
       </c>
       <c r="R66" s="86"/>
-      <c r="S66" s="158">
+      <c r="S66" s="159">
         <v>0.081824651123521</v>
       </c>
     </row>
     <row r="67" ht="13.5" customHeight="1">
-      <c r="A67" s="141"/>
+      <c r="A67" s="142"/>
       <c r="B67" s="112">
         <v>-2</v>
       </c>
-      <c r="C67" t="s" s="159">
-        <v>144</v>
+      <c r="C67" t="s" s="160">
+        <v>143</v>
       </c>
       <c r="D67" s="41"/>
-      <c r="E67" t="s" s="155">
-        <v>211</v>
-      </c>
-      <c r="F67" t="s" s="155">
-        <v>215</v>
+      <c r="E67" t="s" s="156">
+        <v>210</v>
+      </c>
+      <c r="F67" t="s" s="156">
+        <v>214</v>
       </c>
       <c r="G67" s="40"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
       <c r="J67" s="41"/>
-      <c r="K67" s="156">
+      <c r="K67" s="157">
         <v>247429</v>
       </c>
       <c r="L67" s="86"/>
-      <c r="M67" s="156">
+      <c r="M67" s="157">
         <v>270000</v>
       </c>
-      <c r="N67" s="157"/>
+      <c r="N67" s="158"/>
       <c r="O67" s="11"/>
       <c r="P67" s="41"/>
-      <c r="Q67" s="158">
+      <c r="Q67" s="159">
         <v>0.9164037037037041</v>
       </c>
       <c r="R67" s="86"/>
-      <c r="S67" s="158">
+      <c r="S67" s="159">
         <v>-0.122570418414641</v>
       </c>
     </row>
     <row r="68" ht="13.5" customHeight="1">
-      <c r="A68" s="141"/>
+      <c r="A68" s="142"/>
       <c r="B68" s="112">
         <v>-2</v>
       </c>
-      <c r="C68" t="s" s="159">
-        <v>144</v>
+      <c r="C68" t="s" s="160">
+        <v>143</v>
       </c>
       <c r="D68" s="41"/>
-      <c r="E68" t="s" s="155">
-        <v>211</v>
-      </c>
-      <c r="F68" t="s" s="155">
-        <v>216</v>
+      <c r="E68" t="s" s="156">
+        <v>210</v>
+      </c>
+      <c r="F68" t="s" s="156">
+        <v>215</v>
       </c>
       <c r="G68" s="40"/>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
       <c r="J68" s="41"/>
-      <c r="K68" s="156">
+      <c r="K68" s="157">
         <v>603107</v>
       </c>
       <c r="L68" s="86"/>
-      <c r="M68" s="156">
+      <c r="M68" s="157">
         <v>630000</v>
       </c>
-      <c r="N68" s="157"/>
+      <c r="N68" s="158"/>
       <c r="O68" s="11"/>
       <c r="P68" s="41"/>
-      <c r="Q68" s="158">
+      <c r="Q68" s="159">
         <v>0.9573126984126979</v>
       </c>
       <c r="R68" s="86"/>
-      <c r="S68" s="158">
+      <c r="S68" s="159">
         <v>-0.0376556152326609</v>
       </c>
     </row>
     <row r="69" ht="13.5" customHeight="1">
-      <c r="A69" s="141"/>
-      <c r="B69" s="125">
+      <c r="A69" s="142"/>
+      <c r="B69" s="126">
         <v>-1</v>
       </c>
-      <c r="C69" t="s" s="159">
-        <v>144</v>
+      <c r="C69" t="s" s="160">
+        <v>143</v>
       </c>
       <c r="D69" s="41"/>
-      <c r="E69" t="s" s="155">
+      <c r="E69" t="s" s="156">
+        <v>210</v>
+      </c>
+      <c r="F69" t="s" s="156">
         <v>211</v>
-      </c>
-      <c r="F69" t="s" s="155">
-        <v>212</v>
       </c>
       <c r="G69" s="40"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
       <c r="J69" s="41"/>
-      <c r="K69" s="156">
+      <c r="K69" s="157">
         <v>871069</v>
       </c>
       <c r="L69" s="86"/>
-      <c r="M69" s="156">
+      <c r="M69" s="157">
         <v>840000</v>
       </c>
-      <c r="N69" s="157"/>
+      <c r="N69" s="158"/>
       <c r="O69" s="11"/>
       <c r="P69" s="41"/>
-      <c r="Q69" s="158">
+      <c r="Q69" s="159">
         <v>1.0369869047619</v>
       </c>
       <c r="R69" s="86"/>
@@ -9848,35 +9877,35 @@
       </c>
     </row>
     <row r="70" ht="13.5" customHeight="1">
-      <c r="A70" s="141"/>
-      <c r="B70" s="125">
+      <c r="A70" s="142"/>
+      <c r="B70" s="126">
         <v>-1</v>
       </c>
-      <c r="C70" t="s" s="159">
-        <v>144</v>
+      <c r="C70" t="s" s="160">
+        <v>143</v>
       </c>
       <c r="D70" s="41"/>
-      <c r="E70" t="s" s="155">
-        <v>211</v>
-      </c>
-      <c r="F70" t="s" s="155">
-        <v>213</v>
+      <c r="E70" t="s" s="156">
+        <v>210</v>
+      </c>
+      <c r="F70" t="s" s="156">
+        <v>212</v>
       </c>
       <c r="G70" s="40"/>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
       <c r="J70" s="41"/>
-      <c r="K70" s="156">
+      <c r="K70" s="157">
         <v>1259704</v>
       </c>
       <c r="L70" s="86"/>
-      <c r="M70" s="156">
+      <c r="M70" s="157">
         <v>1250000</v>
       </c>
-      <c r="N70" s="157"/>
+      <c r="N70" s="158"/>
       <c r="O70" s="11"/>
       <c r="P70" s="41"/>
-      <c r="Q70" s="158">
+      <c r="Q70" s="159">
         <v>1.0077632</v>
       </c>
       <c r="R70" s="86"/>
@@ -9885,35 +9914,35 @@
       </c>
     </row>
     <row r="71" ht="13.5" customHeight="1">
-      <c r="A71" s="141"/>
-      <c r="B71" s="125">
+      <c r="A71" s="142"/>
+      <c r="B71" s="126">
         <v>-1</v>
       </c>
-      <c r="C71" t="s" s="159">
-        <v>144</v>
+      <c r="C71" t="s" s="160">
+        <v>143</v>
       </c>
       <c r="D71" s="41"/>
-      <c r="E71" t="s" s="155">
-        <v>211</v>
-      </c>
-      <c r="F71" t="s" s="155">
-        <v>214</v>
+      <c r="E71" t="s" s="156">
+        <v>210</v>
+      </c>
+      <c r="F71" t="s" s="156">
+        <v>213</v>
       </c>
       <c r="G71" s="40"/>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
       <c r="J71" s="41"/>
-      <c r="K71" s="156">
+      <c r="K71" s="157">
         <v>305298</v>
       </c>
       <c r="L71" s="86"/>
-      <c r="M71" s="156">
+      <c r="M71" s="157">
         <v>275000</v>
       </c>
-      <c r="N71" s="157"/>
+      <c r="N71" s="158"/>
       <c r="O71" s="11"/>
       <c r="P71" s="41"/>
-      <c r="Q71" s="158">
+      <c r="Q71" s="159">
         <v>1.11017454545455</v>
       </c>
       <c r="R71" s="86"/>
@@ -9922,35 +9951,35 @@
       </c>
     </row>
     <row r="72" ht="13.5" customHeight="1">
-      <c r="A72" s="141"/>
-      <c r="B72" s="125">
+      <c r="A72" s="142"/>
+      <c r="B72" s="126">
         <v>-1</v>
       </c>
-      <c r="C72" t="s" s="159">
-        <v>144</v>
+      <c r="C72" t="s" s="160">
+        <v>143</v>
       </c>
       <c r="D72" s="41"/>
-      <c r="E72" t="s" s="155">
-        <v>211</v>
-      </c>
-      <c r="F72" t="s" s="155">
-        <v>215</v>
+      <c r="E72" t="s" s="156">
+        <v>210</v>
+      </c>
+      <c r="F72" t="s" s="156">
+        <v>214</v>
       </c>
       <c r="G72" s="40"/>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
       <c r="J72" s="41"/>
-      <c r="K72" s="156">
+      <c r="K72" s="157">
         <v>310748</v>
       </c>
       <c r="L72" s="86"/>
-      <c r="M72" s="156">
+      <c r="M72" s="157">
         <v>300000</v>
       </c>
-      <c r="N72" s="157"/>
+      <c r="N72" s="158"/>
       <c r="O72" s="11"/>
       <c r="P72" s="41"/>
-      <c r="Q72" s="158">
+      <c r="Q72" s="159">
         <v>1.03582666666667</v>
       </c>
       <c r="R72" s="86"/>
@@ -9959,35 +9988,35 @@
       </c>
     </row>
     <row r="73" ht="13.5" customHeight="1">
-      <c r="A73" s="141"/>
-      <c r="B73" s="125">
+      <c r="A73" s="142"/>
+      <c r="B73" s="126">
         <v>-1</v>
       </c>
-      <c r="C73" t="s" s="160">
-        <v>144</v>
+      <c r="C73" t="s" s="161">
+        <v>143</v>
       </c>
       <c r="D73" s="41"/>
-      <c r="E73" t="s" s="155">
-        <v>211</v>
-      </c>
-      <c r="F73" t="s" s="155">
-        <v>216</v>
+      <c r="E73" t="s" s="156">
+        <v>210</v>
+      </c>
+      <c r="F73" t="s" s="156">
+        <v>215</v>
       </c>
       <c r="G73" s="40"/>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
       <c r="J73" s="41"/>
-      <c r="K73" s="156">
+      <c r="K73" s="157">
         <v>806400</v>
       </c>
       <c r="L73" s="86"/>
-      <c r="M73" s="156">
+      <c r="M73" s="157">
         <v>685000</v>
       </c>
-      <c r="N73" s="157"/>
+      <c r="N73" s="158"/>
       <c r="O73" s="11"/>
       <c r="P73" s="41"/>
-      <c r="Q73" s="158">
+      <c r="Q73" s="159">
         <v>1.17722627737226</v>
       </c>
       <c r="R73" s="86"/>
@@ -9996,422 +10025,422 @@
       </c>
     </row>
     <row r="74" ht="13.5" customHeight="1">
-      <c r="A74" s="141"/>
+      <c r="A74" s="142"/>
       <c r="B74" s="112">
         <v>-4</v>
       </c>
-      <c r="C74" t="s" s="161">
-        <v>142</v>
+      <c r="C74" t="s" s="162">
+        <v>141</v>
       </c>
       <c r="D74" s="86"/>
-      <c r="E74" t="s" s="162">
-        <v>217</v>
-      </c>
-      <c r="F74" s="163"/>
+      <c r="E74" t="s" s="163">
+        <v>216</v>
+      </c>
+      <c r="F74" s="164"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
       <c r="J74" s="41"/>
-      <c r="K74" s="164">
+      <c r="K74" s="165">
         <v>4098598</v>
       </c>
       <c r="L74" s="86"/>
-      <c r="M74" s="164">
+      <c r="M74" s="165">
         <v>3980000</v>
       </c>
-      <c r="N74" s="165"/>
+      <c r="N74" s="166"/>
       <c r="O74" s="11"/>
       <c r="P74" s="41"/>
-      <c r="Q74" s="166">
+      <c r="Q74" s="167">
         <v>1.02979849246231</v>
       </c>
       <c r="R74" s="86"/>
-      <c r="S74" s="164">
+      <c r="S74" s="165">
         <v>0.132072104234243</v>
       </c>
     </row>
     <row r="75" ht="13.5" customHeight="1">
-      <c r="A75" s="141"/>
+      <c r="A75" s="142"/>
       <c r="B75" s="112">
         <v>-4</v>
       </c>
-      <c r="C75" t="s" s="161">
-        <v>142</v>
+      <c r="C75" t="s" s="162">
+        <v>141</v>
       </c>
       <c r="D75" s="86"/>
-      <c r="E75" t="s" s="162">
-        <v>218</v>
+      <c r="E75" t="s" s="163">
+        <v>217</v>
       </c>
       <c r="F75" s="40"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
       <c r="J75" s="41"/>
-      <c r="K75" s="164">
+      <c r="K75" s="165">
         <v>728487</v>
       </c>
       <c r="L75" s="86"/>
-      <c r="M75" s="164">
+      <c r="M75" s="165">
         <v>655000</v>
       </c>
-      <c r="N75" s="165"/>
+      <c r="N75" s="166"/>
       <c r="O75" s="11"/>
       <c r="P75" s="41"/>
-      <c r="Q75" s="166">
+      <c r="Q75" s="167">
         <v>1.11219389312977</v>
       </c>
       <c r="R75" s="86"/>
-      <c r="S75" s="164">
+      <c r="S75" s="165">
         <v>0.277815753907202</v>
       </c>
     </row>
     <row r="76" ht="13.5" customHeight="1">
-      <c r="A76" s="141"/>
+      <c r="A76" s="142"/>
       <c r="B76" s="112">
         <v>-4</v>
       </c>
-      <c r="C76" t="s" s="161">
-        <v>142</v>
+      <c r="C76" t="s" s="162">
+        <v>141</v>
       </c>
       <c r="D76" s="86"/>
-      <c r="E76" t="s" s="162">
-        <v>219</v>
+      <c r="E76" t="s" s="163">
+        <v>218</v>
       </c>
       <c r="F76" s="40"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
       <c r="J76" s="41"/>
-      <c r="K76" s="164">
+      <c r="K76" s="165">
         <v>2576862</v>
       </c>
       <c r="L76" s="86"/>
-      <c r="M76" s="164">
+      <c r="M76" s="165">
         <v>2610000</v>
       </c>
-      <c r="N76" s="165"/>
+      <c r="N76" s="166"/>
       <c r="O76" s="11"/>
       <c r="P76" s="41"/>
-      <c r="Q76" s="166">
+      <c r="Q76" s="167">
         <v>0.987303448275862</v>
       </c>
       <c r="R76" s="86"/>
-      <c r="S76" s="164">
+      <c r="S76" s="165">
         <v>0.09925064051998669</v>
       </c>
     </row>
     <row r="77" ht="13.5" customHeight="1">
-      <c r="A77" s="141"/>
+      <c r="A77" s="142"/>
       <c r="B77" s="112">
         <v>-3</v>
       </c>
-      <c r="C77" t="s" s="161">
-        <v>142</v>
+      <c r="C77" t="s" s="162">
+        <v>141</v>
       </c>
       <c r="D77" s="86"/>
-      <c r="E77" t="s" s="162">
-        <v>217</v>
+      <c r="E77" t="s" s="163">
+        <v>216</v>
       </c>
       <c r="F77" s="40"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
       <c r="J77" s="41"/>
-      <c r="K77" s="164">
+      <c r="K77" s="165">
         <v>3188812</v>
       </c>
       <c r="L77" s="86"/>
-      <c r="M77" s="164">
+      <c r="M77" s="165">
         <v>3565000</v>
       </c>
-      <c r="N77" s="165"/>
+      <c r="N77" s="166"/>
       <c r="O77" s="11"/>
       <c r="P77" s="41"/>
-      <c r="Q77" s="166">
+      <c r="Q77" s="167">
         <v>0.894477419354839</v>
       </c>
       <c r="R77" s="86"/>
-      <c r="S77" s="164">
+      <c r="S77" s="165">
         <v>-0.221974928987912</v>
       </c>
     </row>
     <row r="78" ht="13.5" customHeight="1">
-      <c r="A78" s="141"/>
+      <c r="A78" s="142"/>
       <c r="B78" s="112">
         <v>-3</v>
       </c>
-      <c r="C78" t="s" s="161">
-        <v>142</v>
+      <c r="C78" t="s" s="162">
+        <v>141</v>
       </c>
       <c r="D78" s="86"/>
-      <c r="E78" t="s" s="162">
-        <v>218</v>
+      <c r="E78" t="s" s="163">
+        <v>217</v>
       </c>
       <c r="F78" s="40"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
       <c r="J78" s="41"/>
-      <c r="K78" s="164">
+      <c r="K78" s="165">
         <v>560064</v>
       </c>
       <c r="L78" s="86"/>
-      <c r="M78" s="164">
+      <c r="M78" s="165">
         <v>615000</v>
       </c>
-      <c r="N78" s="165"/>
+      <c r="N78" s="166"/>
       <c r="O78" s="11"/>
       <c r="P78" s="41"/>
-      <c r="Q78" s="166">
+      <c r="Q78" s="167">
         <v>0.9106731707317069</v>
       </c>
       <c r="R78" s="86"/>
-      <c r="S78" s="164">
+      <c r="S78" s="165">
         <v>-0.23119561502127</v>
       </c>
     </row>
     <row r="79" ht="13.5" customHeight="1">
-      <c r="A79" s="141"/>
+      <c r="A79" s="142"/>
       <c r="B79" s="112">
         <v>-3</v>
       </c>
-      <c r="C79" t="s" s="161">
-        <v>142</v>
+      <c r="C79" t="s" s="162">
+        <v>141</v>
       </c>
       <c r="D79" s="86"/>
-      <c r="E79" t="s" s="162">
-        <v>219</v>
+      <c r="E79" t="s" s="163">
+        <v>218</v>
       </c>
       <c r="F79" s="40"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
       <c r="J79" s="41"/>
-      <c r="K79" s="164">
+      <c r="K79" s="165">
         <v>2293022</v>
       </c>
       <c r="L79" s="86"/>
-      <c r="M79" s="164">
+      <c r="M79" s="165">
         <v>2365000</v>
       </c>
-      <c r="N79" s="165"/>
+      <c r="N79" s="166"/>
       <c r="O79" s="11"/>
       <c r="P79" s="41"/>
-      <c r="Q79" s="166">
+      <c r="Q79" s="167">
         <v>0.96956532769556</v>
       </c>
       <c r="R79" s="86"/>
-      <c r="S79" s="164">
+      <c r="S79" s="165">
         <v>-0.110149476378634</v>
       </c>
     </row>
     <row r="80" ht="13.5" customHeight="1">
-      <c r="A80" s="141"/>
+      <c r="A80" s="142"/>
       <c r="B80" s="112">
         <v>-2</v>
       </c>
-      <c r="C80" t="s" s="161">
-        <v>142</v>
+      <c r="C80" t="s" s="162">
+        <v>141</v>
       </c>
       <c r="D80" s="86"/>
-      <c r="E80" t="s" s="162">
-        <v>217</v>
+      <c r="E80" t="s" s="163">
+        <v>216</v>
       </c>
       <c r="F80" s="40"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
       <c r="J80" s="41"/>
-      <c r="K80" s="164">
+      <c r="K80" s="165">
         <v>3092857</v>
       </c>
       <c r="L80" s="86"/>
-      <c r="M80" s="164">
+      <c r="M80" s="165">
         <v>3285000</v>
       </c>
-      <c r="N80" s="165"/>
+      <c r="N80" s="166"/>
       <c r="O80" s="11"/>
       <c r="P80" s="41"/>
-      <c r="Q80" s="166">
+      <c r="Q80" s="167">
         <v>0.94150898021309</v>
       </c>
       <c r="R80" s="86"/>
-      <c r="S80" s="164">
+      <c r="S80" s="165">
         <v>-0.0300911436610248</v>
       </c>
     </row>
     <row r="81" ht="13.5" customHeight="1">
-      <c r="A81" s="141"/>
+      <c r="A81" s="142"/>
       <c r="B81" s="112">
         <v>-2</v>
       </c>
-      <c r="C81" t="s" s="161">
-        <v>142</v>
+      <c r="C81" t="s" s="162">
+        <v>141</v>
       </c>
       <c r="D81" s="86"/>
-      <c r="E81" t="s" s="162">
-        <v>218</v>
+      <c r="E81" t="s" s="163">
+        <v>217</v>
       </c>
       <c r="F81" s="40"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
       <c r="J81" s="41"/>
-      <c r="K81" s="164">
+      <c r="K81" s="165">
         <v>792494</v>
       </c>
       <c r="L81" s="86"/>
-      <c r="M81" s="164">
+      <c r="M81" s="165">
         <v>615000</v>
       </c>
-      <c r="N81" s="165"/>
+      <c r="N81" s="166"/>
       <c r="O81" s="11"/>
       <c r="P81" s="41"/>
-      <c r="Q81" s="166">
+      <c r="Q81" s="167">
         <v>1.2886081300813</v>
       </c>
       <c r="R81" s="86"/>
-      <c r="S81" s="164">
+      <c r="S81" s="165">
         <v>0.415006142155182</v>
       </c>
     </row>
     <row r="82" ht="13.5" customHeight="1">
-      <c r="A82" s="141"/>
+      <c r="A82" s="142"/>
       <c r="B82" s="112">
         <v>-2</v>
       </c>
-      <c r="C82" t="s" s="161">
-        <v>142</v>
+      <c r="C82" t="s" s="162">
+        <v>141</v>
       </c>
       <c r="D82" s="86"/>
-      <c r="E82" t="s" s="162">
-        <v>219</v>
+      <c r="E82" t="s" s="163">
+        <v>218</v>
       </c>
       <c r="F82" s="40"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
       <c r="J82" s="41"/>
-      <c r="K82" s="164">
+      <c r="K82" s="165">
         <v>2263056</v>
       </c>
       <c r="L82" s="86"/>
-      <c r="M82" s="164">
+      <c r="M82" s="165">
         <v>2345000</v>
       </c>
-      <c r="N82" s="165"/>
+      <c r="N82" s="166"/>
       <c r="O82" s="11"/>
       <c r="P82" s="41"/>
-      <c r="Q82" s="166">
+      <c r="Q82" s="167">
         <v>0.9650558635394459</v>
       </c>
       <c r="R82" s="86"/>
-      <c r="S82" s="164">
+      <c r="S82" s="165">
         <v>-0.0130683438711011</v>
       </c>
     </row>
     <row r="83" ht="13.5" customHeight="1">
-      <c r="A83" s="141"/>
-      <c r="B83" s="125">
+      <c r="A83" s="142"/>
+      <c r="B83" s="126">
         <v>-1</v>
       </c>
-      <c r="C83" t="s" s="161">
-        <v>142</v>
+      <c r="C83" t="s" s="162">
+        <v>141</v>
       </c>
       <c r="D83" s="86"/>
-      <c r="E83" t="s" s="162">
-        <v>217</v>
+      <c r="E83" t="s" s="163">
+        <v>216</v>
       </c>
       <c r="F83" s="40"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
       <c r="J83" s="41"/>
-      <c r="K83" s="164">
+      <c r="K83" s="165">
         <v>3553219</v>
       </c>
       <c r="L83" s="86"/>
-      <c r="M83" s="164">
+      <c r="M83" s="165">
         <v>3350000</v>
       </c>
-      <c r="N83" s="165"/>
+      <c r="N83" s="166"/>
       <c r="O83" s="11"/>
       <c r="P83" s="41"/>
-      <c r="Q83" s="166">
+      <c r="Q83" s="167">
         <v>1.0606623880597</v>
       </c>
       <c r="R83" s="86"/>
-      <c r="S83" s="164">
+      <c r="S83" s="165">
         <v>0.148846842902856</v>
       </c>
     </row>
     <row r="84" ht="13.5" customHeight="1">
-      <c r="A84" s="141"/>
-      <c r="B84" s="125">
+      <c r="A84" s="142"/>
+      <c r="B84" s="126">
         <v>-1</v>
       </c>
-      <c r="C84" t="s" s="161">
-        <v>142</v>
+      <c r="C84" t="s" s="162">
+        <v>141</v>
       </c>
       <c r="D84" s="86"/>
-      <c r="E84" t="s" s="162">
-        <v>218</v>
+      <c r="E84" t="s" s="163">
+        <v>217</v>
       </c>
       <c r="F84" s="40"/>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
       <c r="J84" s="41"/>
-      <c r="K84" s="164">
+      <c r="K84" s="165">
         <v>2475498</v>
       </c>
       <c r="L84" s="86"/>
-      <c r="M84" s="164">
+      <c r="M84" s="165">
         <v>2035000</v>
       </c>
-      <c r="N84" s="165"/>
+      <c r="N84" s="166"/>
       <c r="O84" s="11"/>
       <c r="P84" s="41"/>
-      <c r="Q84" s="166">
+      <c r="Q84" s="167">
         <v>1.21646093366093</v>
       </c>
       <c r="R84" s="86"/>
-      <c r="S84" s="164">
+      <c r="S84" s="165">
         <v>2.12368043164996</v>
       </c>
     </row>
     <row r="85" ht="13.5" customHeight="1">
-      <c r="A85" s="167"/>
-      <c r="B85" s="125">
+      <c r="A85" s="168"/>
+      <c r="B85" s="126">
         <v>-1</v>
       </c>
-      <c r="C85" t="s" s="161">
-        <v>142</v>
-      </c>
-      <c r="D85" s="168"/>
-      <c r="E85" t="s" s="162">
-        <v>219</v>
-      </c>
-      <c r="F85" s="169"/>
+      <c r="C85" t="s" s="162">
+        <v>141</v>
+      </c>
+      <c r="D85" s="169"/>
+      <c r="E85" t="s" s="163">
+        <v>218</v>
+      </c>
+      <c r="F85" s="170"/>
       <c r="G85" s="72"/>
       <c r="H85" s="72"/>
       <c r="I85" s="72"/>
-      <c r="J85" s="170"/>
-      <c r="K85" s="164">
+      <c r="J85" s="171"/>
+      <c r="K85" s="165">
         <v>860533</v>
       </c>
-      <c r="L85" s="168"/>
-      <c r="M85" s="164">
+      <c r="L85" s="169"/>
+      <c r="M85" s="165">
         <v>1135000</v>
       </c>
-      <c r="N85" s="171"/>
+      <c r="N85" s="172"/>
       <c r="O85" s="72"/>
-      <c r="P85" s="170"/>
-      <c r="Q85" s="166">
+      <c r="P85" s="171"/>
+      <c r="Q85" s="167">
         <v>0.758178854625551</v>
       </c>
-      <c r="R85" s="168"/>
-      <c r="S85" s="164">
+      <c r="R85" s="169"/>
+      <c r="S85" s="165">
         <v>-0.619747368160576</v>
       </c>
     </row>
@@ -10432,14 +10461,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="172" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="172" customWidth="1"/>
+    <col min="1" max="4" width="16.3516" style="173" customWidth="1"/>
+    <col min="5" max="256" width="16.3516" style="173" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -10450,10 +10479,11 @@
         <v>23</v>
       </c>
       <c r="C1" t="s" s="27">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s" s="27">
         <v>220</v>
       </c>
-      <c r="D1" s="173"/>
-      <c r="E1" s="9"/>
     </row>
     <row r="2" ht="36" customHeight="1">
       <c r="A2" t="s" s="174">
@@ -10465,64 +10495,57 @@
       <c r="C2" s="39">
         <v>1</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="12"/>
+      <c r="D2" t="s" s="175">
+        <v>223</v>
+      </c>
     </row>
     <row r="3" ht="20.1" customHeight="1">
       <c r="A3" s="110"/>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="42"/>
     </row>
     <row r="4" ht="20.1" customHeight="1">
       <c r="A4" s="110"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="42"/>
     </row>
     <row r="5" ht="20.1" customHeight="1">
       <c r="A5" s="110"/>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="42"/>
     </row>
     <row r="6" ht="20.1" customHeight="1">
       <c r="A6" s="110"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" ht="20.1" customHeight="1">
       <c r="A7" s="110"/>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="12"/>
+      <c r="D7" s="42"/>
     </row>
     <row r="8" ht="20.1" customHeight="1">
       <c r="A8" s="110"/>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="42"/>
     </row>
     <row r="9" ht="20.1" customHeight="1">
       <c r="A9" s="110"/>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="12"/>
+      <c r="D9" s="42"/>
     </row>
     <row r="10" ht="20.1" customHeight="1">
       <c r="A10" s="110"/>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
-      <c r="D10" s="176"/>
-      <c r="E10" s="21"/>
+      <c r="D10" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -10541,11 +10564,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13" style="177" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="177" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="177" customWidth="1"/>
-    <col min="4" max="6" width="8.85156" style="177" customWidth="1"/>
-    <col min="7" max="256" width="8.85156" style="177" customWidth="1"/>
+    <col min="1" max="1" width="13" style="176" customWidth="1"/>
+    <col min="2" max="2" width="8.85156" style="176" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="176" customWidth="1"/>
+    <col min="4" max="6" width="8.85156" style="176" customWidth="1"/>
+    <col min="7" max="256" width="8.85156" style="176" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1">
@@ -10556,322 +10579,322 @@
         <v>29</v>
       </c>
       <c r="C1" t="s" s="27">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D1" t="s" s="27">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E1" t="s" s="27">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F1" t="s" s="27">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" ht="14.65" customHeight="1">
-      <c r="A2" t="s" s="178">
-        <v>227</v>
-      </c>
-      <c r="B2" t="s" s="179">
+      <c r="A2" t="s" s="177">
         <v>228</v>
       </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
+      <c r="B2" t="s" s="178">
+        <v>229</v>
+      </c>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
     </row>
     <row r="3" ht="14.65" customHeight="1">
-      <c r="A3" t="s" s="178">
-        <v>227</v>
-      </c>
-      <c r="B3" t="s" s="181">
-        <v>229</v>
-      </c>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
+      <c r="A3" t="s" s="177">
+        <v>228</v>
+      </c>
+      <c r="B3" t="s" s="180">
+        <v>230</v>
+      </c>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
     </row>
     <row r="4" ht="14.65" customHeight="1">
-      <c r="A4" t="s" s="179">
-        <v>227</v>
-      </c>
-      <c r="B4" t="s" s="181">
-        <v>230</v>
-      </c>
-      <c r="C4" s="182"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
+      <c r="A4" t="s" s="178">
+        <v>228</v>
+      </c>
+      <c r="B4" t="s" s="180">
+        <v>231</v>
+      </c>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="182"/>
+      <c r="F4" s="182"/>
     </row>
     <row r="5" ht="50.65" customHeight="1">
-      <c r="A5" t="s" s="181">
-        <v>231</v>
-      </c>
-      <c r="B5" t="s" s="181">
+      <c r="A5" t="s" s="180">
         <v>232</v>
       </c>
-      <c r="C5" t="s" s="184">
+      <c r="B5" t="s" s="180">
         <v>233</v>
       </c>
-      <c r="D5" s="185"/>
-      <c r="E5" t="s" s="186">
+      <c r="C5" t="s" s="183">
         <v>234</v>
       </c>
-      <c r="F5" t="s" s="187">
+      <c r="D5" s="184"/>
+      <c r="E5" t="s" s="185">
         <v>235</v>
       </c>
+      <c r="F5" t="s" s="186">
+        <v>236</v>
+      </c>
     </row>
     <row r="6" ht="50.65" customHeight="1">
-      <c r="A6" t="s" s="181">
-        <v>231</v>
-      </c>
-      <c r="B6" t="s" s="181">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s" s="184">
+      <c r="A6" t="s" s="180">
+        <v>232</v>
+      </c>
+      <c r="B6" t="s" s="180">
+        <v>237</v>
+      </c>
+      <c r="C6" t="s" s="183">
+        <v>234</v>
+      </c>
+      <c r="D6" s="184"/>
+      <c r="E6" t="s" s="185">
+        <v>238</v>
+      </c>
+      <c r="F6" t="s" s="186">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" ht="50.65" customHeight="1">
+      <c r="A7" t="s" s="180">
+        <v>232</v>
+      </c>
+      <c r="B7" t="s" s="180">
+        <v>240</v>
+      </c>
+      <c r="C7" t="s" s="183">
+        <v>234</v>
+      </c>
+      <c r="D7" s="184"/>
+      <c r="E7" t="s" s="185">
+        <v>241</v>
+      </c>
+      <c r="F7" t="s" s="186">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" ht="50.65" customHeight="1">
+      <c r="A8" t="s" s="180">
+        <v>243</v>
+      </c>
+      <c r="B8" t="s" s="180">
         <v>233</v>
       </c>
-      <c r="D6" s="185"/>
-      <c r="E6" t="s" s="186">
+      <c r="C8" t="s" s="183">
+        <v>244</v>
+      </c>
+      <c r="D8" s="184"/>
+      <c r="E8" t="s" s="185">
+        <v>245</v>
+      </c>
+      <c r="F8" t="s" s="187">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" ht="50.65" customHeight="1">
+      <c r="A9" t="s" s="180">
+        <v>243</v>
+      </c>
+      <c r="B9" t="s" s="180">
         <v>237</v>
       </c>
-      <c r="F6" t="s" s="187">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7" ht="50.65" customHeight="1">
-      <c r="A7" t="s" s="181">
-        <v>231</v>
-      </c>
-      <c r="B7" t="s" s="181">
-        <v>239</v>
-      </c>
-      <c r="C7" t="s" s="184">
+      <c r="C9" t="s" s="183">
+        <v>244</v>
+      </c>
+      <c r="D9" s="184"/>
+      <c r="E9" t="s" s="185">
+        <v>247</v>
+      </c>
+      <c r="F9" t="s" s="188">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" ht="50.65" customHeight="1">
+      <c r="A10" t="s" s="180">
+        <v>243</v>
+      </c>
+      <c r="B10" t="s" s="180">
+        <v>240</v>
+      </c>
+      <c r="C10" t="s" s="183">
+        <v>244</v>
+      </c>
+      <c r="D10" s="184"/>
+      <c r="E10" t="s" s="185">
+        <v>249</v>
+      </c>
+      <c r="F10" t="s" s="188">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" ht="38.65" customHeight="1">
+      <c r="A11" t="s" s="180">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s" s="180">
         <v>233</v>
       </c>
-      <c r="D7" s="185"/>
-      <c r="E7" t="s" s="186">
+      <c r="C11" t="s" s="183">
+        <v>251</v>
+      </c>
+      <c r="D11" s="184"/>
+      <c r="E11" t="s" s="185">
+        <v>252</v>
+      </c>
+      <c r="F11" t="s" s="188">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" ht="38.65" customHeight="1">
+      <c r="A12" t="s" s="180">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s" s="180">
+        <v>237</v>
+      </c>
+      <c r="C12" t="s" s="183">
+        <v>251</v>
+      </c>
+      <c r="D12" s="184"/>
+      <c r="E12" t="s" s="185">
+        <v>254</v>
+      </c>
+      <c r="F12" t="s" s="188">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" ht="38.65" customHeight="1">
+      <c r="A13" t="s" s="180">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s" s="180">
         <v>240</v>
       </c>
-      <c r="F7" t="s" s="187">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" ht="50.65" customHeight="1">
-      <c r="A8" t="s" s="181">
-        <v>242</v>
-      </c>
-      <c r="B8" t="s" s="181">
-        <v>232</v>
-      </c>
-      <c r="C8" t="s" s="184">
-        <v>243</v>
-      </c>
-      <c r="D8" s="185"/>
-      <c r="E8" t="s" s="186">
-        <v>244</v>
-      </c>
-      <c r="F8" t="s" s="188">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="9" ht="50.65" customHeight="1">
-      <c r="A9" t="s" s="181">
-        <v>242</v>
-      </c>
-      <c r="B9" t="s" s="181">
-        <v>236</v>
-      </c>
-      <c r="C9" t="s" s="184">
-        <v>243</v>
-      </c>
-      <c r="D9" s="185"/>
-      <c r="E9" t="s" s="186">
-        <v>246</v>
-      </c>
-      <c r="F9" t="s" s="189">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" ht="50.65" customHeight="1">
-      <c r="A10" t="s" s="181">
-        <v>242</v>
-      </c>
-      <c r="B10" t="s" s="181">
-        <v>239</v>
-      </c>
-      <c r="C10" t="s" s="184">
-        <v>243</v>
-      </c>
-      <c r="D10" s="185"/>
-      <c r="E10" t="s" s="186">
-        <v>248</v>
-      </c>
-      <c r="F10" t="s" s="189">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" ht="38.65" customHeight="1">
-      <c r="A11" t="s" s="181">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s" s="181">
-        <v>232</v>
-      </c>
-      <c r="C11" t="s" s="184">
-        <v>250</v>
-      </c>
-      <c r="D11" s="185"/>
-      <c r="E11" t="s" s="186">
+      <c r="C13" t="s" s="183">
         <v>251</v>
       </c>
-      <c r="F11" t="s" s="189">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="12" ht="38.65" customHeight="1">
-      <c r="A12" t="s" s="181">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s" s="181">
-        <v>236</v>
-      </c>
-      <c r="C12" t="s" s="184">
-        <v>250</v>
-      </c>
-      <c r="D12" s="185"/>
-      <c r="E12" t="s" s="186">
-        <v>253</v>
-      </c>
-      <c r="F12" t="s" s="189">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13" ht="38.65" customHeight="1">
-      <c r="A13" t="s" s="181">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s" s="181">
-        <v>239</v>
-      </c>
-      <c r="C13" t="s" s="184">
-        <v>250</v>
-      </c>
-      <c r="D13" s="185"/>
-      <c r="E13" t="s" s="186">
-        <v>255</v>
-      </c>
-      <c r="F13" t="s" s="189">
+      <c r="D13" s="184"/>
+      <c r="E13" t="s" s="185">
         <v>256</v>
       </c>
+      <c r="F13" t="s" s="188">
+        <v>257</v>
+      </c>
     </row>
     <row r="14" ht="38.65" customHeight="1">
-      <c r="A14" t="s" s="181">
-        <v>257</v>
-      </c>
-      <c r="B14" t="s" s="181">
-        <v>232</v>
-      </c>
-      <c r="C14" t="s" s="184">
+      <c r="A14" t="s" s="180">
         <v>258</v>
       </c>
-      <c r="D14" s="185"/>
-      <c r="E14" t="s" s="186">
+      <c r="B14" t="s" s="180">
+        <v>233</v>
+      </c>
+      <c r="C14" t="s" s="183">
         <v>259</v>
       </c>
-      <c r="F14" t="s" s="189">
+      <c r="D14" s="184"/>
+      <c r="E14" t="s" s="185">
         <v>260</v>
       </c>
+      <c r="F14" t="s" s="188">
+        <v>261</v>
+      </c>
     </row>
     <row r="15" ht="38.65" customHeight="1">
-      <c r="A15" t="s" s="181">
-        <v>257</v>
-      </c>
-      <c r="B15" t="s" s="181">
-        <v>236</v>
-      </c>
-      <c r="C15" t="s" s="184">
+      <c r="A15" t="s" s="180">
         <v>258</v>
       </c>
-      <c r="D15" s="185"/>
-      <c r="E15" t="s" s="186">
-        <v>261</v>
-      </c>
-      <c r="F15" t="s" s="189">
+      <c r="B15" t="s" s="180">
+        <v>237</v>
+      </c>
+      <c r="C15" t="s" s="183">
+        <v>259</v>
+      </c>
+      <c r="D15" s="184"/>
+      <c r="E15" t="s" s="185">
         <v>262</v>
       </c>
+      <c r="F15" t="s" s="188">
+        <v>263</v>
+      </c>
     </row>
     <row r="16" ht="38.65" customHeight="1">
-      <c r="A16" t="s" s="181">
-        <v>257</v>
-      </c>
-      <c r="B16" t="s" s="181">
-        <v>239</v>
-      </c>
-      <c r="C16" t="s" s="184">
+      <c r="A16" t="s" s="180">
         <v>258</v>
       </c>
-      <c r="D16" s="185"/>
-      <c r="E16" t="s" s="186">
-        <v>263</v>
-      </c>
-      <c r="F16" t="s" s="189">
+      <c r="B16" t="s" s="180">
+        <v>240</v>
+      </c>
+      <c r="C16" t="s" s="183">
+        <v>259</v>
+      </c>
+      <c r="D16" s="184"/>
+      <c r="E16" t="s" s="185">
         <v>264</v>
       </c>
+      <c r="F16" t="s" s="188">
+        <v>265</v>
+      </c>
     </row>
     <row r="17" ht="50.65" customHeight="1">
-      <c r="A17" t="s" s="181">
-        <v>265</v>
-      </c>
-      <c r="B17" t="s" s="181">
-        <v>232</v>
-      </c>
-      <c r="C17" t="s" s="184">
+      <c r="A17" t="s" s="180">
         <v>266</v>
       </c>
-      <c r="D17" s="185"/>
-      <c r="E17" t="s" s="186">
+      <c r="B17" t="s" s="180">
+        <v>233</v>
+      </c>
+      <c r="C17" t="s" s="183">
         <v>267</v>
       </c>
-      <c r="F17" t="s" s="189">
+      <c r="D17" s="184"/>
+      <c r="E17" t="s" s="185">
         <v>268</v>
       </c>
+      <c r="F17" t="s" s="188">
+        <v>269</v>
+      </c>
     </row>
     <row r="18" ht="50.65" customHeight="1">
-      <c r="A18" t="s" s="181">
-        <v>265</v>
-      </c>
-      <c r="B18" t="s" s="181">
-        <v>236</v>
-      </c>
-      <c r="C18" t="s" s="184">
+      <c r="A18" t="s" s="180">
         <v>266</v>
       </c>
-      <c r="D18" s="185"/>
-      <c r="E18" t="s" s="186">
-        <v>269</v>
-      </c>
-      <c r="F18" t="s" s="189">
+      <c r="B18" t="s" s="180">
+        <v>237</v>
+      </c>
+      <c r="C18" t="s" s="183">
+        <v>267</v>
+      </c>
+      <c r="D18" s="184"/>
+      <c r="E18" t="s" s="185">
         <v>270</v>
       </c>
+      <c r="F18" t="s" s="188">
+        <v>271</v>
+      </c>
     </row>
     <row r="19" ht="50.65" customHeight="1">
-      <c r="A19" t="s" s="181">
-        <v>265</v>
-      </c>
-      <c r="B19" t="s" s="181">
-        <v>239</v>
-      </c>
-      <c r="C19" t="s" s="184">
+      <c r="A19" t="s" s="180">
         <v>266</v>
       </c>
-      <c r="D19" s="185"/>
-      <c r="E19" t="s" s="186">
-        <v>271</v>
-      </c>
-      <c r="F19" t="s" s="189">
+      <c r="B19" t="s" s="180">
+        <v>240</v>
+      </c>
+      <c r="C19" t="s" s="183">
+        <v>267</v>
+      </c>
+      <c r="D19" s="184"/>
+      <c r="E19" t="s" s="185">
         <v>272</v>
+      </c>
+      <c r="F19" t="s" s="188">
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/tm.xlsx
+++ b/test/data/tm.xlsx
@@ -9,8 +9,8 @@
     <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
     <sheet name="Hospital" sheetId="2" r:id="rId5"/>
     <sheet name="Product" sheetId="3" r:id="rId6"/>
-    <sheet name="Requirement" sheetId="4" r:id="rId7"/>
-    <sheet name="Resource" sheetId="5" r:id="rId8"/>
+    <sheet name="Resource" sheetId="4" r:id="rId7"/>
+    <sheet name="Requirement" sheetId="5" r:id="rId8"/>
     <sheet name="Preset" sheetId="6" r:id="rId9"/>
     <sheet name="Report " sheetId="7" r:id="rId10"/>
     <sheet name="Proposal" sheetId="8" r:id="rId11"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -197,22 +197,10 @@
     <t>patientNum</t>
   </si>
   <si>
-    <t>policy.name</t>
-  </si>
-  <si>
-    <t>policy.describe</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>region.id</t>
-    </r>
+    <t>patientNumA</t>
+  </si>
+  <si>
+    <t>patientNumB</t>
   </si>
   <si>
     <r>
@@ -502,30 +490,6 @@
   </si>
   <si>
     <t>导入期</t>
-  </si>
-  <si>
-    <t>meetingPlaces</t>
-  </si>
-  <si>
-    <t>visitingHours</t>
-  </si>
-  <si>
-    <t>teamExperience</t>
-  </si>
-  <si>
-    <t>teamDescription</t>
-  </si>
-  <si>
-    <t>managerKpi</t>
-  </si>
-  <si>
-    <t>managementHours</t>
-  </si>
-  <si>
-    <t>totalBudget</t>
-  </si>
-  <si>
-    <t>totalQuotas</t>
   </si>
   <si>
     <t>gender</t>
@@ -696,6 +660,30 @@
   </si>
   <si>
     <t>经验丰富，善于发现客户需求，能利用各种沟通技巧完成销售目的，对产品知识不够重视，工作态度时好时坏，不愿意承担压力。</t>
+  </si>
+  <si>
+    <t>meetingPlaces</t>
+  </si>
+  <si>
+    <t>visitingHours</t>
+  </si>
+  <si>
+    <t>teamExperience</t>
+  </si>
+  <si>
+    <t>teamDescription</t>
+  </si>
+  <si>
+    <t>managerKpi</t>
+  </si>
+  <si>
+    <t>managementHours</t>
+  </si>
+  <si>
+    <t>totalBudget</t>
+  </si>
+  <si>
+    <t>totalQuotas</t>
   </si>
   <si>
     <t>phase</t>
@@ -1287,7 +1275,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="0&quot; &quot;"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1316,13 +1304,6 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <u val="single"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -1650,6 +1631,39 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="17"/>
       </left>
       <right style="thin">
@@ -1665,94 +1679,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="17"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="17"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="17"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="18"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="13"/>
       </left>
       <right style="thin">
@@ -1794,6 +1720,15 @@
       <bottom style="thin">
         <color indexed="18"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1926,7 +1861,38 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="17"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2022,6 +1988,96 @@
       </top>
       <bottom style="thin">
         <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2049,81 +2105,6 @@
         <color indexed="17"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="17"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="17"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="18"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="17"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2639,445 +2620,445 @@
     <xf numFmtId="49" fontId="5" fillId="8" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="56" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="9" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="58" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="63" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="69" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="70" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="71" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="9" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="72" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="73" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="74" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="73" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="75" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="76" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="77" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="78" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="79" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="78" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="56" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="8" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="8" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="8" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="8" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="9" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="58" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="63" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="69" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="70" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="71" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="9" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="72" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="73" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="74" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="73" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="75" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="76" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="77" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="78" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="79" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="78" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -4360,7 +4341,7 @@
     <row r="15" ht="13" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" t="s" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4373,14 +4354,14 @@
         <v>5</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E16" s="12"/>
     </row>
     <row r="17" ht="13" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" t="s" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -4393,7 +4374,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="s" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18" s="12"/>
     </row>
@@ -4495,8 +4476,8 @@
     <hyperlink ref="D26" location="'Evaluation'!R1C1" tooltip="" display="Evaluation"/>
     <hyperlink ref="D12" location="'Hospital'!R1C1" tooltip="" display="Hospital"/>
     <hyperlink ref="D14" location="'Product'!R1C1" tooltip="" display="Product"/>
-    <hyperlink ref="D16" location="'Requirement'!R1C1" tooltip="" display="Requirement"/>
-    <hyperlink ref="D18" location="'Resource'!R1C1" tooltip="" display="Resource"/>
+    <hyperlink ref="D16" location="'Resource'!R1C1" tooltip="" display="Resource"/>
+    <hyperlink ref="D18" location="'Requirement'!R1C1" tooltip="" display="Requirement"/>
     <hyperlink ref="D20" location="'Preset'!R1C1" tooltip="" display="Preset"/>
     <hyperlink ref="D22" location="'Report '!R1C1" tooltip="" display="Report "/>
     <hyperlink ref="D24" location="'Proposal'!R1C1" tooltip="" display="Proposal"/>
@@ -4515,7 +4496,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -4523,10 +4504,8 @@
   <cols>
     <col min="1" max="1" width="25.6719" style="25" customWidth="1"/>
     <col min="2" max="2" width="59.3516" style="25" customWidth="1"/>
-    <col min="3" max="16" width="16.3516" style="25" customWidth="1"/>
-    <col min="17" max="17" width="26.3516" style="25" customWidth="1"/>
-    <col min="18" max="18" width="16.3516" style="25" customWidth="1"/>
-    <col min="19" max="256" width="8.85156" style="25" customWidth="1"/>
+    <col min="3" max="17" width="16.3516" style="25" customWidth="1"/>
+    <col min="18" max="256" width="8.85156" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -4575,36 +4554,33 @@
       <c r="O1" t="s" s="28">
         <v>36</v>
       </c>
-      <c r="P1" t="s" s="27">
+      <c r="P1" t="s" s="28">
         <v>37</v>
       </c>
-      <c r="Q1" t="s" s="27">
+      <c r="Q1" t="s" s="28">
         <v>38</v>
-      </c>
-      <c r="R1" t="s" s="27">
-        <v>39</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="29">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s" s="30">
         <v>40</v>
-      </c>
-      <c r="B2" t="s" s="30">
-        <v>41</v>
       </c>
       <c r="C2" s="31">
         <v>1920</v>
       </c>
       <c r="D2" t="s" s="29">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="32"/>
       <c r="F2" s="33"/>
       <c r="G2" t="s" s="34">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s" s="35">
         <v>43</v>
-      </c>
-      <c r="H2" t="s" s="35">
-        <v>44</v>
       </c>
       <c r="I2" s="31">
         <v>350</v>
@@ -4617,7 +4593,7 @@
       </c>
       <c r="L2" s="36"/>
       <c r="M2" t="s" s="37">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N2" s="38">
         <v>10</v>
@@ -4625,36 +4601,33 @@
       <c r="O2" s="38">
         <v>10</v>
       </c>
-      <c r="P2" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="39">
-        <v>0</v>
-      </c>
-      <c r="R2" s="39">
-        <v>0</v>
+      <c r="P2" s="38">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="38">
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="20.1" customHeight="1">
       <c r="A3" t="s" s="29">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s" s="30">
         <v>46</v>
-      </c>
-      <c r="B3" t="s" s="30">
-        <v>47</v>
       </c>
       <c r="C3" s="31">
         <v>1987</v>
       </c>
       <c r="D3" t="s" s="29">
+        <v>41</v>
+      </c>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="G3" t="s" s="34">
         <v>42</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" t="s" s="34">
-        <v>43</v>
-      </c>
       <c r="H3" t="s" s="29">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="31">
         <v>100</v>
@@ -4667,7 +4640,7 @@
       </c>
       <c r="L3" s="36"/>
       <c r="M3" t="s" s="37">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N3" s="38">
         <v>10</v>
@@ -4675,30 +4648,33 @@
       <c r="O3" s="38">
         <v>10</v>
       </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
+      <c r="P3" s="38">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="38">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" ht="20.1" customHeight="1">
       <c r="A4" t="s" s="29">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s" s="30">
         <v>50</v>
-      </c>
-      <c r="B4" t="s" s="30">
-        <v>51</v>
       </c>
       <c r="C4" s="31">
         <v>1984</v>
       </c>
       <c r="D4" t="s" s="29">
+        <v>51</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" t="s" s="34">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s" s="29">
         <v>52</v>
-      </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="G4" t="s" s="34">
-        <v>43</v>
-      </c>
-      <c r="H4" t="s" s="29">
-        <v>53</v>
       </c>
       <c r="I4" s="31">
         <v>350</v>
@@ -4711,7 +4687,7 @@
       </c>
       <c r="L4" s="36"/>
       <c r="M4" t="s" s="37">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N4" s="38">
         <v>10</v>
@@ -4719,30 +4695,33 @@
       <c r="O4" s="38">
         <v>10</v>
       </c>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
+      <c r="P4" s="38">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="38">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" ht="19.9" customHeight="1">
       <c r="A5" t="s" s="29">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s" s="30">
         <v>55</v>
-      </c>
-      <c r="B5" t="s" s="30">
-        <v>56</v>
       </c>
       <c r="C5" s="31">
         <v>1997</v>
       </c>
       <c r="D5" t="s" s="29">
+        <v>41</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" t="s" s="34">
         <v>42</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" t="s" s="34">
-        <v>43</v>
-      </c>
       <c r="H5" t="s" s="29">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="31">
         <v>200</v>
@@ -4755,7 +4734,7 @@
       </c>
       <c r="L5" s="36"/>
       <c r="M5" t="s" s="37">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N5" s="38">
         <v>10</v>
@@ -4763,30 +4742,33 @@
       <c r="O5" s="38">
         <v>10</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="45"/>
+      <c r="P5" s="38">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="38">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" ht="19.9" customHeight="1">
       <c r="A6" t="s" s="29">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s" s="30">
         <v>57</v>
-      </c>
-      <c r="B6" t="s" s="30">
-        <v>58</v>
       </c>
       <c r="C6" s="31">
         <v>1962</v>
       </c>
       <c r="D6" t="s" s="29">
+        <v>41</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" t="s" s="34">
         <v>42</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
-      <c r="G6" t="s" s="34">
-        <v>43</v>
-      </c>
       <c r="H6" t="s" s="29">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="31">
         <v>100</v>
@@ -4799,7 +4781,7 @@
       </c>
       <c r="L6" s="36"/>
       <c r="M6" t="s" s="37">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N6" s="38">
         <v>10</v>
@@ -4807,30 +4789,33 @@
       <c r="O6" s="38">
         <v>10</v>
       </c>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="12"/>
+      <c r="P6" s="38">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="38">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" ht="19.9" customHeight="1">
       <c r="A7" t="s" s="29">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s" s="30">
         <v>59</v>
-      </c>
-      <c r="B7" t="s" s="30">
-        <v>60</v>
       </c>
       <c r="C7" s="31">
         <v>1998</v>
       </c>
       <c r="D7" t="s" s="29">
-        <v>52</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
+        <v>51</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
       <c r="G7" t="s" s="34">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s" s="29">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" s="31">
         <v>100</v>
@@ -4843,7 +4828,7 @@
       </c>
       <c r="L7" s="36"/>
       <c r="M7" t="s" s="37">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N7" s="38">
         <v>10</v>
@@ -4851,30 +4836,33 @@
       <c r="O7" s="38">
         <v>10</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="12"/>
+      <c r="P7" s="38">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="38">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" ht="19.9" customHeight="1">
       <c r="A8" t="s" s="29">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s" s="30">
         <v>62</v>
-      </c>
-      <c r="B8" t="s" s="30">
-        <v>63</v>
       </c>
       <c r="C8" s="31">
         <v>1988</v>
       </c>
       <c r="D8" t="s" s="29">
-        <v>42</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
+        <v>41</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
       <c r="G8" t="s" s="34">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s" s="29">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I8" s="31">
         <v>40</v>
@@ -4887,7 +4875,7 @@
       </c>
       <c r="L8" s="36"/>
       <c r="M8" t="s" s="37">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N8" s="38">
         <v>10</v>
@@ -4895,30 +4883,33 @@
       <c r="O8" s="38">
         <v>10</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="12"/>
+      <c r="P8" s="38">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="38">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" ht="19.9" customHeight="1">
       <c r="A9" t="s" s="29">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s" s="30">
         <v>65</v>
-      </c>
-      <c r="B9" t="s" s="30">
-        <v>66</v>
       </c>
       <c r="C9" s="31">
         <v>1976</v>
       </c>
       <c r="D9" t="s" s="29">
-        <v>52</v>
-      </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
+        <v>51</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
       <c r="G9" t="s" s="34">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s" s="29">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I9" s="31">
         <v>40</v>
@@ -4931,7 +4922,7 @@
       </c>
       <c r="L9" s="36"/>
       <c r="M9" t="s" s="37">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N9" s="38">
         <v>10</v>
@@ -4939,30 +4930,33 @@
       <c r="O9" s="38">
         <v>10</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="12"/>
+      <c r="P9" s="38">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="38">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" ht="19.9" customHeight="1">
       <c r="A10" t="s" s="29">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s" s="30">
         <v>68</v>
-      </c>
-      <c r="B10" t="s" s="30">
-        <v>69</v>
       </c>
       <c r="C10" s="31">
         <v>1999</v>
       </c>
       <c r="D10" t="s" s="29">
+        <v>41</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" t="s" s="34">
         <v>42</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41"/>
-      <c r="G10" t="s" s="34">
-        <v>43</v>
-      </c>
       <c r="H10" t="s" s="29">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10" s="31">
         <v>40</v>
@@ -4975,7 +4969,7 @@
       </c>
       <c r="L10" s="36"/>
       <c r="M10" t="s" s="37">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N10" s="38">
         <v>10</v>
@@ -4983,35 +4977,38 @@
       <c r="O10" s="38">
         <v>10</v>
       </c>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="12"/>
+      <c r="P10" s="38">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="38">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" ht="19.9" customHeight="1">
       <c r="A11" t="s" s="29">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s" s="41">
         <v>70</v>
-      </c>
-      <c r="B11" t="s" s="47">
-        <v>71</v>
       </c>
       <c r="C11" s="31">
         <v>1958</v>
       </c>
-      <c r="D11" t="s" s="48">
+      <c r="D11" t="s" s="42">
+        <v>41</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" t="s" s="43">
         <v>42</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41"/>
-      <c r="G11" t="s" s="49">
-        <v>43</v>
-      </c>
-      <c r="H11" t="s" s="48">
-        <v>53</v>
-      </c>
-      <c r="I11" s="50">
+      <c r="H11" t="s" s="42">
+        <v>52</v>
+      </c>
+      <c r="I11" s="44">
         <v>400</v>
       </c>
-      <c r="J11" s="50">
+      <c r="J11" s="44">
         <v>1200</v>
       </c>
       <c r="K11" s="31">
@@ -5019,77 +5016,77 @@
       </c>
       <c r="L11" s="36"/>
       <c r="M11" t="s" s="37">
-        <v>54</v>
-      </c>
-      <c r="N11" s="51">
+        <v>53</v>
+      </c>
+      <c r="N11" s="45">
         <v>10</v>
       </c>
-      <c r="O11" s="51">
+      <c r="O11" s="45">
         <v>10</v>
       </c>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="12"/>
+      <c r="P11" s="45">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="45">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" ht="19.9" customHeight="1">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="12"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
     </row>
     <row r="13" ht="19.9" customHeight="1">
-      <c r="A13" s="63"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="12"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
     </row>
     <row r="14" ht="19.9" customHeight="1">
-      <c r="A14" s="70"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="44"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="44"/>
+      <c r="L14" s="66"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="12"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
     </row>
     <row r="15" ht="19.9" customHeight="1">
       <c r="A15" s="10"/>
@@ -5106,10 +5103,9 @@
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
     </row>
     <row r="16" ht="19.9" customHeight="1">
       <c r="A16" s="10"/>
@@ -5126,10 +5122,9 @@
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="12"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
     </row>
     <row r="17" ht="19.9" customHeight="1">
       <c r="A17" s="10"/>
@@ -5147,9 +5142,8 @@
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="12"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="69"/>
     </row>
     <row r="18" ht="19.9" customHeight="1">
       <c r="A18" s="10"/>
@@ -5168,8 +5162,7 @@
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="12"/>
+      <c r="Q18" s="12"/>
     </row>
     <row r="19" ht="19.9" customHeight="1">
       <c r="A19" s="10"/>
@@ -5188,8 +5181,7 @@
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="12"/>
+      <c r="Q19" s="12"/>
     </row>
     <row r="20" ht="19.9" customHeight="1">
       <c r="A20" s="10"/>
@@ -5208,8 +5200,7 @@
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="12"/>
+      <c r="Q20" s="12"/>
     </row>
     <row r="21" ht="19.9" customHeight="1">
       <c r="A21" s="10"/>
@@ -5228,8 +5219,7 @@
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="12"/>
+      <c r="Q21" s="12"/>
     </row>
     <row r="22" ht="19.9" customHeight="1">
       <c r="A22" s="10"/>
@@ -5248,8 +5238,7 @@
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="12"/>
+      <c r="Q22" s="12"/>
     </row>
     <row r="23" ht="19.9" customHeight="1">
       <c r="A23" s="10"/>
@@ -5268,8 +5257,7 @@
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="12"/>
+      <c r="Q23" s="12"/>
     </row>
     <row r="24" ht="19.9" customHeight="1">
       <c r="A24" s="10"/>
@@ -5288,8 +5276,7 @@
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="12"/>
+      <c r="Q24" s="12"/>
     </row>
     <row r="25" ht="19.9" customHeight="1">
       <c r="A25" s="10"/>
@@ -5308,8 +5295,7 @@
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="12"/>
+      <c r="Q25" s="12"/>
     </row>
     <row r="26" ht="19.9" customHeight="1">
       <c r="A26" s="10"/>
@@ -5328,8 +5314,7 @@
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="12"/>
+      <c r="Q26" s="12"/>
     </row>
     <row r="27" ht="19.9" customHeight="1">
       <c r="A27" s="10"/>
@@ -5348,8 +5333,7 @@
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="12"/>
+      <c r="Q27" s="12"/>
     </row>
     <row r="28" ht="19.9" customHeight="1">
       <c r="A28" s="10"/>
@@ -5368,8 +5352,7 @@
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="12"/>
+      <c r="Q28" s="12"/>
     </row>
     <row r="29" ht="19.9" customHeight="1">
       <c r="A29" s="10"/>
@@ -5388,8 +5371,7 @@
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="12"/>
+      <c r="Q29" s="12"/>
     </row>
     <row r="30" ht="19.9" customHeight="1">
       <c r="A30" s="10"/>
@@ -5408,33 +5390,28 @@
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="12"/>
+      <c r="Q30" s="12"/>
     </row>
     <row r="31" ht="19.9" customHeight="1">
       <c r="A31" s="20"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="21"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="21"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="R1" r:id="rId1" location="" tooltip="" display="region.id"/>
-  </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
@@ -5454,12 +5431,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="73" customWidth="1"/>
-    <col min="2" max="2" width="19.1719" style="73" customWidth="1"/>
-    <col min="3" max="14" width="16.3516" style="73" customWidth="1"/>
-    <col min="15" max="15" width="29.8516" style="73" customWidth="1"/>
-    <col min="16" max="19" width="16.3516" style="73" customWidth="1"/>
-    <col min="20" max="256" width="8.85156" style="73" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="71" customWidth="1"/>
+    <col min="2" max="2" width="19.1719" style="71" customWidth="1"/>
+    <col min="3" max="14" width="16.3516" style="71" customWidth="1"/>
+    <col min="15" max="15" width="29.8516" style="71" customWidth="1"/>
+    <col min="16" max="19" width="16.3516" style="71" customWidth="1"/>
+    <col min="20" max="256" width="8.85156" style="71" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
@@ -5467,278 +5444,278 @@
         <v>22</v>
       </c>
       <c r="B1" t="s" s="26">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s" s="26">
         <v>72</v>
       </c>
-      <c r="C1" t="s" s="26">
+      <c r="D1" t="s" s="26">
         <v>73</v>
-      </c>
-      <c r="D1" t="s" s="26">
-        <v>74</v>
       </c>
       <c r="E1" t="s" s="27">
         <v>27</v>
       </c>
       <c r="F1" t="s" s="27">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s" s="27">
         <v>75</v>
       </c>
-      <c r="G1" t="s" s="27">
+      <c r="H1" t="s" s="27">
         <v>76</v>
       </c>
-      <c r="H1" t="s" s="27">
+      <c r="I1" t="s" s="26">
         <v>77</v>
       </c>
-      <c r="I1" t="s" s="26">
+      <c r="J1" t="s" s="26">
         <v>78</v>
       </c>
-      <c r="J1" t="s" s="26">
+      <c r="K1" t="s" s="26">
         <v>79</v>
       </c>
-      <c r="K1" t="s" s="26">
+      <c r="L1" t="s" s="26">
         <v>80</v>
       </c>
-      <c r="L1" t="s" s="26">
+      <c r="M1" t="s" s="26">
         <v>81</v>
       </c>
-      <c r="M1" t="s" s="26">
+      <c r="N1" t="s" s="26">
         <v>82</v>
       </c>
-      <c r="N1" t="s" s="26">
+      <c r="O1" t="s" s="26">
         <v>83</v>
       </c>
-      <c r="O1" t="s" s="26">
+      <c r="P1" t="s" s="27">
         <v>84</v>
       </c>
-      <c r="P1" t="s" s="27">
+      <c r="Q1" t="s" s="27">
         <v>85</v>
       </c>
-      <c r="Q1" t="s" s="27">
+      <c r="R1" t="s" s="27">
         <v>86</v>
       </c>
-      <c r="R1" t="s" s="27">
+      <c r="S1" t="s" s="26">
         <v>87</v>
       </c>
-      <c r="S1" t="s" s="26">
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="72">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="74">
+      <c r="B2" t="s" s="72">
         <v>89</v>
       </c>
-      <c r="B2" t="s" s="74">
+      <c r="C2" t="s" s="72">
         <v>90</v>
       </c>
-      <c r="C2" t="s" s="74">
+      <c r="D2" t="s" s="73">
         <v>91</v>
       </c>
-      <c r="D2" t="s" s="75">
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="74">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s" s="72">
         <v>92</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="76">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s" s="74">
+      <c r="K2" s="74">
+        <v>89</v>
+      </c>
+      <c r="L2" s="74">
+        <v>75</v>
+      </c>
+      <c r="M2" s="74">
+        <v>2005</v>
+      </c>
+      <c r="N2" t="s" s="72">
         <v>93</v>
       </c>
-      <c r="K2" s="76">
-        <v>89</v>
-      </c>
-      <c r="L2" s="76">
-        <v>75</v>
-      </c>
-      <c r="M2" s="76">
-        <v>2005</v>
-      </c>
-      <c r="N2" t="s" s="74">
+      <c r="O2" t="s" s="75">
         <v>94</v>
       </c>
-      <c r="O2" t="s" s="77">
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="59"/>
+      <c r="S2" t="s" s="72">
         <v>95</v>
       </c>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="64"/>
-      <c r="S2" t="s" s="74">
+    </row>
+    <row r="3" ht="19.9" customHeight="1">
+      <c r="A3" t="s" s="72">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" ht="19.9" customHeight="1">
-      <c r="A3" t="s" s="74">
+      <c r="B3" t="s" s="72">
         <v>97</v>
       </c>
-      <c r="B3" t="s" s="74">
+      <c r="C3" t="s" s="72">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s" s="72">
         <v>98</v>
       </c>
-      <c r="C3" t="s" s="74">
-        <v>91</v>
-      </c>
-      <c r="D3" t="s" s="74">
+      <c r="E3" s="76"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="74">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s" s="72">
+        <v>92</v>
+      </c>
+      <c r="K3" s="74">
+        <v>134</v>
+      </c>
+      <c r="L3" s="74">
+        <v>100</v>
+      </c>
+      <c r="M3" s="74">
+        <v>2013</v>
+      </c>
+      <c r="N3" t="s" s="72">
+        <v>93</v>
+      </c>
+      <c r="O3" t="s" s="78">
         <v>99</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="76">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s" s="74">
-        <v>93</v>
-      </c>
-      <c r="K3" s="76">
-        <v>134</v>
-      </c>
-      <c r="L3" s="76">
+      <c r="P3" s="76"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="77"/>
+      <c r="S3" t="s" s="72">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" ht="19.9" customHeight="1">
+      <c r="A4" t="s" s="72">
         <v>100</v>
       </c>
-      <c r="M3" s="76">
-        <v>2013</v>
-      </c>
-      <c r="N3" t="s" s="74">
-        <v>94</v>
-      </c>
-      <c r="O3" t="s" s="80">
-        <v>100</v>
-      </c>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="79"/>
-      <c r="S3" t="s" s="74">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" ht="19.9" customHeight="1">
-      <c r="A4" t="s" s="74">
+      <c r="B4" t="s" s="72">
         <v>101</v>
       </c>
-      <c r="B4" t="s" s="74">
+      <c r="C4" t="s" s="72">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s" s="72">
         <v>102</v>
       </c>
-      <c r="C4" t="s" s="74">
-        <v>91</v>
-      </c>
-      <c r="D4" t="s" s="74">
-        <v>103</v>
-      </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="76">
+      <c r="H4" s="40"/>
+      <c r="I4" s="74">
         <v>1</v>
       </c>
-      <c r="J4" t="s" s="74">
+      <c r="J4" t="s" s="72">
+        <v>92</v>
+      </c>
+      <c r="K4" s="74">
+        <v>43</v>
+      </c>
+      <c r="L4" s="74">
+        <v>30</v>
+      </c>
+      <c r="M4" s="74">
+        <v>2015</v>
+      </c>
+      <c r="N4" t="s" s="79">
         <v>93</v>
       </c>
-      <c r="K4" s="76">
-        <v>43</v>
-      </c>
-      <c r="L4" s="76">
-        <v>30</v>
-      </c>
-      <c r="M4" s="76">
-        <v>2015</v>
-      </c>
-      <c r="N4" t="s" s="81">
-        <v>94</v>
-      </c>
-      <c r="O4" t="s" s="80">
+      <c r="O4" t="s" s="78">
+        <v>103</v>
+      </c>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="40"/>
+      <c r="S4" t="s" s="72">
         <v>104</v>
       </c>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="41"/>
-      <c r="S4" t="s" s="74">
-        <v>105</v>
-      </c>
     </row>
     <row r="5" ht="19.9" customHeight="1">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="40"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="39"/>
       <c r="Q5" s="11"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="82"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="80"/>
     </row>
     <row r="6" ht="19.9" customHeight="1">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="40"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="39"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="82"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="80"/>
     </row>
     <row r="7" ht="19.9" customHeight="1">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="40"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="39"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="82"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="80"/>
     </row>
     <row r="8" ht="14.65" customHeight="1">
-      <c r="A8" s="87"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="90"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="88"/>
     </row>
     <row r="9" ht="14.65" customHeight="1">
       <c r="A9" s="7"/>
@@ -5763,23 +5740,23 @@
     </row>
     <row r="10" ht="14.65" customHeight="1">
       <c r="A10" s="20"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
       <c r="S10" s="21"/>
     </row>
   </sheetData>
@@ -5796,143 +5773,257 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="8" width="16.3516" style="91" customWidth="1"/>
-    <col min="9" max="256" width="16.3516" style="91" customWidth="1"/>
+    <col min="1" max="11" width="16.3516" style="89" customWidth="1"/>
+    <col min="12" max="256" width="8.85156" style="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34.5" customHeight="1">
-      <c r="A1" t="s" s="27">
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s" s="26">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s" s="26">
         <v>106</v>
       </c>
-      <c r="B1" t="s" s="27">
+      <c r="D1" t="s" s="26">
         <v>107</v>
       </c>
-      <c r="C1" t="s" s="27">
+      <c r="E1" t="s" s="26">
         <v>108</v>
       </c>
-      <c r="D1" t="s" s="27">
+      <c r="F1" t="s" s="26">
         <v>109</v>
       </c>
-      <c r="E1" t="s" s="27">
+      <c r="G1" t="s" s="26">
         <v>110</v>
       </c>
-      <c r="F1" t="s" s="27">
+      <c r="H1" t="s" s="26">
         <v>111</v>
       </c>
-      <c r="G1" t="s" s="27">
+      <c r="I1" t="s" s="27">
         <v>112</v>
       </c>
-      <c r="H1" t="s" s="27">
+      <c r="J1" t="s" s="26">
         <v>113</v>
       </c>
+      <c r="K1" t="s" s="27">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="92">
-        <v>6</v>
-      </c>
-      <c r="B2" s="39">
+      <c r="A2" t="s" s="90">
+        <v>114</v>
+      </c>
+      <c r="B2" s="91">
+        <v>1</v>
+      </c>
+      <c r="C2" s="91">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s" s="90">
+        <v>115</v>
+      </c>
+      <c r="E2" t="s" s="90">
+        <v>116</v>
+      </c>
+      <c r="F2" s="80"/>
+      <c r="G2" t="s" s="92">
+        <v>117</v>
+      </c>
+      <c r="H2" s="93">
+        <v>8</v>
+      </c>
+      <c r="I2" s="94">
         <v>100</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="39">
-        <v>8</v>
-      </c>
-      <c r="F2" s="39">
+      <c r="J2" s="95">
+        <v>1</v>
+      </c>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" ht="20.1" customHeight="1">
+      <c r="A3" t="s" s="90">
+        <v>118</v>
+      </c>
+      <c r="B3" s="91">
+        <v>0</v>
+      </c>
+      <c r="C3" s="91">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="90">
+        <v>119</v>
+      </c>
+      <c r="E3" t="s" s="90">
+        <v>120</v>
+      </c>
+      <c r="F3" s="80"/>
+      <c r="G3" t="s" s="92">
+        <v>121</v>
+      </c>
+      <c r="H3" s="93">
+        <v>5</v>
+      </c>
+      <c r="I3" s="96">
         <v>100</v>
       </c>
-      <c r="G2" s="39">
-        <v>200000</v>
-      </c>
-      <c r="H2" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="14.65" customHeight="1">
-      <c r="A3" s="93"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
-    </row>
-    <row r="4" ht="14.65" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" ht="14.65" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" ht="14.65" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" ht="14.65" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" ht="14.65" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" ht="14.65" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" ht="14.65" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="21"/>
+      <c r="J3" s="97">
+        <v>1</v>
+      </c>
+      <c r="K3" s="98"/>
+    </row>
+    <row r="4" ht="20.1" customHeight="1">
+      <c r="A4" t="s" s="90">
+        <v>122</v>
+      </c>
+      <c r="B4" s="91">
+        <v>1</v>
+      </c>
+      <c r="C4" s="91">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s" s="90">
+        <v>119</v>
+      </c>
+      <c r="E4" t="s" s="90">
+        <v>123</v>
+      </c>
+      <c r="F4" s="83"/>
+      <c r="G4" t="s" s="92">
+        <v>124</v>
+      </c>
+      <c r="H4" s="93">
+        <v>3</v>
+      </c>
+      <c r="I4" s="96">
+        <v>100</v>
+      </c>
+      <c r="J4" s="97">
+        <v>1</v>
+      </c>
+      <c r="K4" s="98"/>
+    </row>
+    <row r="5" ht="20.1" customHeight="1">
+      <c r="A5" t="s" s="90">
+        <v>125</v>
+      </c>
+      <c r="B5" s="91">
+        <v>0</v>
+      </c>
+      <c r="C5" s="91">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s" s="90">
+        <v>115</v>
+      </c>
+      <c r="E5" t="s" s="90">
+        <v>126</v>
+      </c>
+      <c r="F5" s="80"/>
+      <c r="G5" t="s" s="92">
+        <v>127</v>
+      </c>
+      <c r="H5" s="93">
+        <v>2</v>
+      </c>
+      <c r="I5" s="96">
+        <v>100</v>
+      </c>
+      <c r="J5" s="97">
+        <v>1</v>
+      </c>
+      <c r="K5" s="98"/>
+    </row>
+    <row r="6" ht="20.1" customHeight="1">
+      <c r="A6" t="s" s="90">
+        <v>128</v>
+      </c>
+      <c r="B6" s="91">
+        <v>1</v>
+      </c>
+      <c r="C6" s="99">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s" s="90">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s" s="90">
+        <v>129</v>
+      </c>
+      <c r="F6" s="80"/>
+      <c r="G6" t="s" s="100">
+        <v>130</v>
+      </c>
+      <c r="H6" s="101">
+        <v>5</v>
+      </c>
+      <c r="I6" s="102">
+        <v>100</v>
+      </c>
+      <c r="J6" s="97">
+        <v>1</v>
+      </c>
+      <c r="K6" s="98"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1">
+      <c r="A7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="98"/>
+    </row>
+    <row r="8" ht="20.1" customHeight="1">
+      <c r="A8" s="107"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+    </row>
+    <row r="9" ht="20.1" customHeight="1">
+      <c r="A9" s="107"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+    </row>
+    <row r="10" ht="20.1" customHeight="1">
+      <c r="A10" s="107"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -5948,257 +6039,143 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="11" width="16.3516" style="94" customWidth="1"/>
-    <col min="12" max="256" width="8.85156" style="94" customWidth="1"/>
+    <col min="1" max="8" width="16.3516" style="108" customWidth="1"/>
+    <col min="9" max="256" width="16.3516" style="108" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s" s="26">
-        <v>114</v>
-      </c>
-      <c r="C1" t="s" s="26">
-        <v>115</v>
-      </c>
-      <c r="D1" t="s" s="26">
-        <v>116</v>
-      </c>
-      <c r="E1" t="s" s="26">
-        <v>117</v>
-      </c>
-      <c r="F1" t="s" s="26">
-        <v>118</v>
-      </c>
-      <c r="G1" t="s" s="26">
-        <v>119</v>
-      </c>
-      <c r="H1" t="s" s="26">
-        <v>120</v>
-      </c>
-      <c r="I1" t="s" s="27">
-        <v>121</v>
-      </c>
-      <c r="J1" t="s" s="26">
-        <v>122</v>
-      </c>
-      <c r="K1" t="s" s="27">
-        <v>27</v>
+    <row r="1" ht="34.5" customHeight="1">
+      <c r="A1" t="s" s="27">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s" s="27">
+        <v>132</v>
+      </c>
+      <c r="C1" t="s" s="27">
+        <v>133</v>
+      </c>
+      <c r="D1" t="s" s="27">
+        <v>134</v>
+      </c>
+      <c r="E1" t="s" s="27">
+        <v>135</v>
+      </c>
+      <c r="F1" t="s" s="27">
+        <v>136</v>
+      </c>
+      <c r="G1" t="s" s="27">
+        <v>137</v>
+      </c>
+      <c r="H1" t="s" s="27">
+        <v>138</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="95">
-        <v>123</v>
-      </c>
-      <c r="B2" s="96">
-        <v>1</v>
-      </c>
-      <c r="C2" s="96">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s" s="95">
-        <v>124</v>
-      </c>
-      <c r="E2" t="s" s="95">
-        <v>125</v>
-      </c>
-      <c r="F2" s="82"/>
-      <c r="G2" t="s" s="97">
-        <v>126</v>
-      </c>
-      <c r="H2" s="98">
+      <c r="A2" s="109">
+        <v>6</v>
+      </c>
+      <c r="B2" s="102">
+        <v>100</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="102">
         <v>8</v>
       </c>
-      <c r="I2" s="99">
+      <c r="F2" s="102">
         <v>100</v>
       </c>
-      <c r="J2" s="100">
-        <v>1</v>
-      </c>
-      <c r="K2" s="66"/>
-    </row>
-    <row r="3" ht="20.1" customHeight="1">
-      <c r="A3" t="s" s="95">
-        <v>127</v>
-      </c>
-      <c r="B3" s="96">
-        <v>0</v>
-      </c>
-      <c r="C3" s="96">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s" s="95">
-        <v>128</v>
-      </c>
-      <c r="E3" t="s" s="95">
-        <v>129</v>
-      </c>
-      <c r="F3" s="82"/>
-      <c r="G3" t="s" s="97">
-        <v>130</v>
-      </c>
-      <c r="H3" s="98">
-        <v>5</v>
-      </c>
-      <c r="I3" s="101">
-        <v>100</v>
-      </c>
-      <c r="J3" s="102">
-        <v>1</v>
-      </c>
-      <c r="K3" s="42"/>
-    </row>
-    <row r="4" ht="20.1" customHeight="1">
-      <c r="A4" t="s" s="95">
-        <v>131</v>
-      </c>
-      <c r="B4" s="96">
-        <v>1</v>
-      </c>
-      <c r="C4" s="96">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s" s="95">
-        <v>128</v>
-      </c>
-      <c r="E4" t="s" s="95">
-        <v>132</v>
-      </c>
-      <c r="F4" s="85"/>
-      <c r="G4" t="s" s="97">
-        <v>133</v>
-      </c>
-      <c r="H4" s="98">
-        <v>3</v>
-      </c>
-      <c r="I4" s="101">
-        <v>100</v>
-      </c>
-      <c r="J4" s="102">
-        <v>1</v>
-      </c>
-      <c r="K4" s="42"/>
-    </row>
-    <row r="5" ht="20.1" customHeight="1">
-      <c r="A5" t="s" s="95">
-        <v>134</v>
-      </c>
-      <c r="B5" s="96">
-        <v>0</v>
-      </c>
-      <c r="C5" s="96">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s" s="95">
-        <v>124</v>
-      </c>
-      <c r="E5" t="s" s="95">
-        <v>135</v>
-      </c>
-      <c r="F5" s="82"/>
-      <c r="G5" t="s" s="97">
-        <v>136</v>
-      </c>
-      <c r="H5" s="98">
-        <v>2</v>
-      </c>
-      <c r="I5" s="101">
-        <v>100</v>
-      </c>
-      <c r="J5" s="102">
-        <v>1</v>
-      </c>
-      <c r="K5" s="42"/>
-    </row>
-    <row r="6" ht="20.1" customHeight="1">
-      <c r="A6" t="s" s="95">
-        <v>137</v>
-      </c>
-      <c r="B6" s="96">
-        <v>1</v>
-      </c>
-      <c r="C6" s="103">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s" s="95">
-        <v>124</v>
-      </c>
-      <c r="E6" t="s" s="95">
-        <v>138</v>
-      </c>
-      <c r="F6" s="82"/>
-      <c r="G6" t="s" s="104">
-        <v>139</v>
-      </c>
-      <c r="H6" s="105">
-        <v>5</v>
-      </c>
-      <c r="I6" s="39">
-        <v>100</v>
-      </c>
-      <c r="J6" s="102">
-        <v>1</v>
-      </c>
-      <c r="K6" s="42"/>
-    </row>
-    <row r="7" ht="20.1" customHeight="1">
-      <c r="A7" s="106"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="42"/>
-    </row>
-    <row r="8" ht="20.1" customHeight="1">
-      <c r="A8" s="110"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-    </row>
-    <row r="9" ht="20.1" customHeight="1">
-      <c r="A9" s="110"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-    </row>
-    <row r="10" ht="20.1" customHeight="1">
-      <c r="A10" s="110"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
+      <c r="G2" s="102">
+        <v>200000</v>
+      </c>
+      <c r="H2" s="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="14.65" customHeight="1">
+      <c r="A3" s="110"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="69"/>
+    </row>
+    <row r="4" ht="14.65" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" ht="14.65" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" ht="14.65" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" ht="14.65" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" ht="14.65" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" ht="14.65" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" ht="14.65" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -6235,61 +6212,61 @@
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
       <c r="A1" t="s" s="26">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s" s="26">
         <v>140</v>
       </c>
-      <c r="B1" t="s" s="26">
+      <c r="C1" t="s" s="26">
         <v>141</v>
       </c>
-      <c r="C1" t="s" s="26">
+      <c r="D1" t="s" s="26">
         <v>142</v>
       </c>
-      <c r="D1" t="s" s="26">
+      <c r="E1" t="s" s="26">
         <v>143</v>
       </c>
-      <c r="E1" t="s" s="26">
+      <c r="F1" t="s" s="26">
         <v>144</v>
       </c>
-      <c r="F1" t="s" s="26">
+      <c r="G1" t="s" s="26">
         <v>145</v>
       </c>
-      <c r="G1" t="s" s="26">
+      <c r="H1" t="s" s="26">
         <v>146</v>
       </c>
-      <c r="H1" t="s" s="26">
+      <c r="I1" t="s" s="26">
         <v>147</v>
       </c>
-      <c r="I1" t="s" s="26">
+      <c r="J1" t="s" s="26">
         <v>148</v>
       </c>
-      <c r="J1" t="s" s="26">
+      <c r="K1" t="s" s="26">
         <v>149</v>
       </c>
-      <c r="K1" t="s" s="26">
+      <c r="L1" t="s" s="26">
         <v>150</v>
       </c>
-      <c r="L1" t="s" s="26">
+      <c r="M1" t="s" s="26">
         <v>151</v>
       </c>
-      <c r="M1" t="s" s="26">
+      <c r="N1" t="s" s="26">
         <v>152</v>
       </c>
-      <c r="N1" t="s" s="26">
+      <c r="O1" t="s" s="26">
         <v>153</v>
       </c>
-      <c r="O1" t="s" s="26">
+      <c r="P1" t="s" s="26">
         <v>154</v>
       </c>
-      <c r="P1" t="s" s="26">
+      <c r="Q1" t="s" s="26">
         <v>155</v>
       </c>
-      <c r="Q1" t="s" s="26">
+      <c r="R1" t="s" s="26">
         <v>156</v>
       </c>
-      <c r="R1" t="s" s="26">
+      <c r="S1" t="s" s="26">
         <v>157</v>
-      </c>
-      <c r="S1" t="s" s="26">
-        <v>158</v>
       </c>
       <c r="T1" t="s" s="26">
         <v>28</v>
@@ -6300,12 +6277,12 @@
         <v>-1</v>
       </c>
       <c r="B2" t="s" s="113">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s" s="113">
-        <v>159</v>
-      </c>
-      <c r="D2" s="54"/>
+        <v>158</v>
+      </c>
+      <c r="D2" s="48"/>
       <c r="E2" s="114">
         <v>600000</v>
       </c>
@@ -6360,12 +6337,12 @@
         <v>-1</v>
       </c>
       <c r="B3" t="s" s="113">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s" s="113">
-        <v>160</v>
-      </c>
-      <c r="D3" s="54"/>
+        <v>159</v>
+      </c>
+      <c r="D3" s="48"/>
       <c r="E3" s="114">
         <v>200000</v>
       </c>
@@ -6420,12 +6397,12 @@
         <v>-1</v>
       </c>
       <c r="B4" t="s" s="113">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s" s="113">
-        <v>161</v>
-      </c>
-      <c r="D4" s="54"/>
+        <v>160</v>
+      </c>
+      <c r="D4" s="48"/>
       <c r="E4" s="114">
         <v>800000</v>
       </c>
@@ -6480,12 +6457,12 @@
         <v>-1</v>
       </c>
       <c r="B5" t="s" s="113">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s" s="113">
-        <v>162</v>
-      </c>
-      <c r="D5" s="54"/>
+        <v>161</v>
+      </c>
+      <c r="D5" s="48"/>
       <c r="E5" s="114">
         <v>450000</v>
       </c>
@@ -6540,12 +6517,12 @@
         <v>-1</v>
       </c>
       <c r="B6" t="s" s="113">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s" s="113">
-        <v>163</v>
-      </c>
-      <c r="D6" s="54"/>
+        <v>162</v>
+      </c>
+      <c r="D6" s="48"/>
       <c r="E6" s="114">
         <v>85000</v>
       </c>
@@ -6600,12 +6577,12 @@
         <v>-1</v>
       </c>
       <c r="B7" t="s" s="113">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s" s="113">
-        <v>164</v>
-      </c>
-      <c r="D7" s="54"/>
+        <v>163</v>
+      </c>
+      <c r="D7" s="48"/>
       <c r="E7" s="114">
         <v>250000</v>
       </c>
@@ -6660,12 +6637,12 @@
         <v>-1</v>
       </c>
       <c r="B8" t="s" s="113">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s" s="113">
-        <v>165</v>
-      </c>
-      <c r="D8" s="54"/>
+        <v>164</v>
+      </c>
+      <c r="D8" s="48"/>
       <c r="E8" s="114">
         <v>100000</v>
       </c>
@@ -6720,12 +6697,12 @@
         <v>-1</v>
       </c>
       <c r="B9" t="s" s="113">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s" s="113">
-        <v>166</v>
-      </c>
-      <c r="D9" s="54"/>
+        <v>165</v>
+      </c>
+      <c r="D9" s="48"/>
       <c r="E9" s="114">
         <v>25000</v>
       </c>
@@ -6780,12 +6757,12 @@
         <v>-1</v>
       </c>
       <c r="B10" t="s" s="113">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s" s="113">
-        <v>167</v>
-      </c>
-      <c r="D10" s="54"/>
+        <v>166</v>
+      </c>
+      <c r="D10" s="48"/>
       <c r="E10" s="114">
         <v>40000</v>
       </c>
@@ -6840,12 +6817,12 @@
         <v>-1</v>
       </c>
       <c r="B11" t="s" s="113">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s" s="113">
-        <v>168</v>
-      </c>
-      <c r="D11" s="54"/>
+        <v>167</v>
+      </c>
+      <c r="D11" s="48"/>
       <c r="E11" s="114">
         <v>800000</v>
       </c>
@@ -6899,10 +6876,10 @@
       <c r="A12" s="112">
         <v>-1</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" t="s" s="95">
-        <v>123</v>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" t="s" s="90">
+        <v>114</v>
       </c>
       <c r="E12" s="114">
         <v>840000</v>
@@ -6919,37 +6896,37 @@
       <c r="I12" s="112">
         <v>0</v>
       </c>
-      <c r="J12" s="96">
+      <c r="J12" s="91">
         <v>7</v>
       </c>
-      <c r="K12" s="96">
+      <c r="K12" s="91">
         <v>8</v>
       </c>
-      <c r="L12" s="96">
+      <c r="L12" s="91">
         <v>7</v>
       </c>
-      <c r="M12" s="96">
+      <c r="M12" s="91">
         <v>9</v>
       </c>
-      <c r="N12" s="96">
+      <c r="N12" s="91">
         <v>4</v>
       </c>
-      <c r="O12" s="96">
+      <c r="O12" s="91">
         <v>160</v>
       </c>
-      <c r="P12" s="96">
+      <c r="P12" s="91">
         <v>60</v>
       </c>
-      <c r="Q12" s="96">
+      <c r="Q12" s="91">
         <v>18</v>
       </c>
-      <c r="R12" s="96">
+      <c r="R12" s="91">
         <v>8</v>
       </c>
-      <c r="S12" s="96">
+      <c r="S12" s="91">
         <v>5</v>
       </c>
-      <c r="T12" s="96">
+      <c r="T12" s="91">
         <v>2</v>
       </c>
     </row>
@@ -6957,10 +6934,10 @@
       <c r="A13" s="112">
         <v>-1</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" t="s" s="95">
-        <v>127</v>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" t="s" s="90">
+        <v>118</v>
       </c>
       <c r="E13" s="114">
         <v>1250000</v>
@@ -6977,37 +6954,37 @@
       <c r="I13" s="112">
         <v>0</v>
       </c>
-      <c r="J13" s="96">
+      <c r="J13" s="91">
         <v>9</v>
       </c>
-      <c r="K13" s="96">
+      <c r="K13" s="91">
         <v>8</v>
       </c>
-      <c r="L13" s="96">
+      <c r="L13" s="91">
         <v>8</v>
       </c>
-      <c r="M13" s="96">
+      <c r="M13" s="91">
         <v>8</v>
       </c>
-      <c r="N13" s="96">
+      <c r="N13" s="91">
         <v>7</v>
       </c>
-      <c r="O13" s="96">
+      <c r="O13" s="91">
         <v>155</v>
       </c>
-      <c r="P13" s="96">
+      <c r="P13" s="91">
         <v>60</v>
       </c>
-      <c r="Q13" s="96">
+      <c r="Q13" s="91">
         <v>23</v>
       </c>
-      <c r="R13" s="96">
+      <c r="R13" s="91">
         <v>12</v>
       </c>
-      <c r="S13" s="96">
+      <c r="S13" s="91">
         <v>10</v>
       </c>
-      <c r="T13" s="96">
+      <c r="T13" s="91">
         <v>2</v>
       </c>
     </row>
@@ -7015,10 +6992,10 @@
       <c r="A14" s="112">
         <v>-1</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" t="s" s="95">
-        <v>131</v>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" t="s" s="90">
+        <v>122</v>
       </c>
       <c r="E14" s="114">
         <v>275000</v>
@@ -7035,37 +7012,37 @@
       <c r="I14" s="112">
         <v>0</v>
       </c>
-      <c r="J14" s="96">
+      <c r="J14" s="91">
         <v>4</v>
       </c>
-      <c r="K14" s="96">
+      <c r="K14" s="91">
         <v>5</v>
       </c>
-      <c r="L14" s="96">
+      <c r="L14" s="91">
         <v>7</v>
       </c>
-      <c r="M14" s="96">
+      <c r="M14" s="91">
         <v>7</v>
       </c>
-      <c r="N14" s="96">
+      <c r="N14" s="91">
         <v>8</v>
       </c>
-      <c r="O14" s="96">
+      <c r="O14" s="91">
         <v>130</v>
       </c>
-      <c r="P14" s="96">
+      <c r="P14" s="91">
         <v>50</v>
       </c>
-      <c r="Q14" s="96">
+      <c r="Q14" s="91">
         <v>18</v>
       </c>
-      <c r="R14" s="96">
+      <c r="R14" s="91">
         <v>10</v>
       </c>
-      <c r="S14" s="96">
+      <c r="S14" s="91">
         <v>10</v>
       </c>
-      <c r="T14" s="96">
+      <c r="T14" s="91">
         <v>2</v>
       </c>
     </row>
@@ -7073,10 +7050,10 @@
       <c r="A15" s="112">
         <v>-1</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" t="s" s="95">
-        <v>134</v>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" t="s" s="90">
+        <v>125</v>
       </c>
       <c r="E15" s="114">
         <v>300000</v>
@@ -7093,37 +7070,37 @@
       <c r="I15" s="112">
         <v>0</v>
       </c>
-      <c r="J15" s="96">
+      <c r="J15" s="91">
         <v>5</v>
       </c>
-      <c r="K15" s="96">
+      <c r="K15" s="91">
         <v>6</v>
       </c>
-      <c r="L15" s="96">
+      <c r="L15" s="91">
         <v>4</v>
       </c>
-      <c r="M15" s="96">
+      <c r="M15" s="91">
         <v>6</v>
       </c>
-      <c r="N15" s="96">
+      <c r="N15" s="91">
         <v>9</v>
       </c>
-      <c r="O15" s="96">
+      <c r="O15" s="91">
         <v>120</v>
       </c>
-      <c r="P15" s="96">
+      <c r="P15" s="91">
         <v>45</v>
       </c>
-      <c r="Q15" s="96">
+      <c r="Q15" s="91">
         <v>16</v>
       </c>
-      <c r="R15" s="96">
+      <c r="R15" s="91">
         <v>15</v>
       </c>
-      <c r="S15" s="96">
+      <c r="S15" s="91">
         <v>13</v>
       </c>
-      <c r="T15" s="96">
+      <c r="T15" s="91">
         <v>2</v>
       </c>
     </row>
@@ -7131,10 +7108,10 @@
       <c r="A16" s="112">
         <v>-1</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" t="s" s="95">
-        <v>137</v>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" t="s" s="90">
+        <v>128</v>
       </c>
       <c r="E16" s="114">
         <v>685000</v>
@@ -7151,37 +7128,37 @@
       <c r="I16" s="112">
         <v>0</v>
       </c>
-      <c r="J16" s="96">
+      <c r="J16" s="91">
         <v>7</v>
       </c>
-      <c r="K16" s="96">
+      <c r="K16" s="91">
         <v>9</v>
       </c>
-      <c r="L16" s="96">
+      <c r="L16" s="91">
         <v>5</v>
       </c>
-      <c r="M16" s="96">
+      <c r="M16" s="91">
         <v>8</v>
       </c>
-      <c r="N16" s="96">
+      <c r="N16" s="91">
         <v>7</v>
       </c>
-      <c r="O16" s="96">
+      <c r="O16" s="91">
         <v>150</v>
       </c>
-      <c r="P16" s="96">
+      <c r="P16" s="91">
         <v>55</v>
       </c>
-      <c r="Q16" s="96">
+      <c r="Q16" s="91">
         <v>20</v>
       </c>
-      <c r="R16" s="96">
+      <c r="R16" s="91">
         <v>13</v>
       </c>
-      <c r="S16" s="96">
+      <c r="S16" s="91">
         <v>12</v>
       </c>
-      <c r="T16" s="96">
+      <c r="T16" s="91">
         <v>2</v>
       </c>
     </row>
@@ -7190,10 +7167,10 @@
         <v>-1</v>
       </c>
       <c r="B17" t="s" s="113">
-        <v>89</v>
-      </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
+        <v>88</v>
+      </c>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="112">
         <v>3700000</v>
       </c>
@@ -7275,7 +7252,7 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" t="s" s="119">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1" s="120"/>
       <c r="C1" s="120"/>
@@ -7298,242 +7275,242 @@
     </row>
     <row r="2" ht="15.95" customHeight="1">
       <c r="A2" t="s" s="121">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s" s="122">
         <v>170</v>
       </c>
-      <c r="B2" t="s" s="122">
+      <c r="C2" t="s" s="122">
         <v>171</v>
       </c>
-      <c r="C2" t="s" s="122">
+      <c r="D2" t="s" s="122">
         <v>172</v>
       </c>
-      <c r="D2" t="s" s="122">
+      <c r="E2" t="s" s="122">
         <v>173</v>
       </c>
-      <c r="E2" t="s" s="122">
+      <c r="F2" t="s" s="122">
         <v>174</v>
       </c>
-      <c r="F2" t="s" s="122">
+      <c r="G2" t="s" s="122">
         <v>175</v>
       </c>
-      <c r="G2" t="s" s="122">
+      <c r="H2" t="s" s="122">
         <v>176</v>
       </c>
-      <c r="H2" t="s" s="122">
+      <c r="I2" t="s" s="122">
         <v>177</v>
       </c>
-      <c r="I2" t="s" s="122">
+      <c r="J2" t="s" s="122">
         <v>178</v>
       </c>
-      <c r="J2" t="s" s="122">
+      <c r="K2" t="s" s="122">
         <v>179</v>
       </c>
-      <c r="K2" t="s" s="122">
+      <c r="L2" t="s" s="122">
         <v>180</v>
       </c>
-      <c r="L2" t="s" s="122">
+      <c r="M2" t="s" s="122">
         <v>181</v>
       </c>
-      <c r="M2" t="s" s="122">
+      <c r="N2" t="s" s="122">
         <v>182</v>
       </c>
-      <c r="N2" t="s" s="122">
+      <c r="O2" t="s" s="122">
         <v>183</v>
       </c>
-      <c r="O2" t="s" s="122">
+      <c r="P2" t="s" s="122">
         <v>184</v>
       </c>
-      <c r="P2" t="s" s="122">
+      <c r="Q2" t="s" s="122">
         <v>185</v>
       </c>
-      <c r="Q2" t="s" s="122">
+      <c r="R2" t="s" s="122">
         <v>186</v>
       </c>
-      <c r="R2" t="s" s="122">
+      <c r="S2" t="s" s="122">
         <v>187</v>
-      </c>
-      <c r="S2" t="s" s="122">
-        <v>188</v>
       </c>
     </row>
     <row r="3" ht="34.5" customHeight="1">
       <c r="A3" t="s" s="27">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s" s="123">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s" s="124">
         <v>28</v>
       </c>
       <c r="D3" t="s" s="123">
+        <v>141</v>
+      </c>
+      <c r="E3" t="s" s="123">
+        <v>140</v>
+      </c>
+      <c r="F3" t="s" s="124">
         <v>142</v>
       </c>
-      <c r="E3" t="s" s="123">
-        <v>141</v>
-      </c>
-      <c r="F3" t="s" s="124">
-        <v>143</v>
-      </c>
       <c r="G3" t="s" s="124">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H3" t="s" s="123">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I3" t="s" s="124">
         <v>36</v>
       </c>
       <c r="J3" t="s" s="124">
+        <v>190</v>
+      </c>
+      <c r="K3" t="s" s="123">
+        <v>144</v>
+      </c>
+      <c r="L3" t="s" s="124">
         <v>191</v>
       </c>
-      <c r="K3" t="s" s="123">
-        <v>145</v>
-      </c>
-      <c r="L3" t="s" s="124">
+      <c r="M3" t="s" s="123">
         <v>192</v>
       </c>
-      <c r="M3" t="s" s="123">
+      <c r="N3" t="s" s="125">
         <v>193</v>
       </c>
-      <c r="N3" t="s" s="125">
+      <c r="O3" t="s" s="124">
         <v>194</v>
       </c>
-      <c r="O3" t="s" s="124">
+      <c r="P3" t="s" s="124">
+        <v>147</v>
+      </c>
+      <c r="Q3" t="s" s="123">
         <v>195</v>
       </c>
-      <c r="P3" t="s" s="124">
-        <v>148</v>
-      </c>
-      <c r="Q3" t="s" s="123">
+      <c r="R3" t="s" s="124">
         <v>196</v>
       </c>
-      <c r="R3" t="s" s="124">
+      <c r="S3" t="s" s="123">
         <v>197</v>
       </c>
-      <c r="S3" t="s" s="123">
-        <v>198</v>
-      </c>
     </row>
     <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="64"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="126">
         <v>-5</v>
       </c>
       <c r="C4" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s" s="128">
+        <v>198</v>
+      </c>
+      <c r="E4" t="s" s="128">
         <v>199</v>
       </c>
-      <c r="E4" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="64"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="129">
         <v>10560000</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="64"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="59"/>
       <c r="K4" s="130"/>
-      <c r="L4" s="64"/>
+      <c r="L4" s="59"/>
       <c r="M4" s="131"/>
       <c r="N4" s="132"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="64"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="59"/>
       <c r="Q4" s="116"/>
       <c r="R4" s="133"/>
       <c r="S4" s="134"/>
     </row>
     <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" s="108"/>
+      <c r="A5" s="105"/>
       <c r="B5" s="126">
         <v>-5</v>
       </c>
       <c r="C5" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s" s="128">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E5" t="s" s="128">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F5" s="135"/>
-      <c r="G5" s="108"/>
+      <c r="G5" s="105"/>
       <c r="H5" s="129">
         <v>3700000</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="108"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="105"/>
       <c r="K5" s="130"/>
-      <c r="L5" s="108"/>
+      <c r="L5" s="105"/>
       <c r="M5" s="131"/>
       <c r="N5" s="132"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="108"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="105"/>
       <c r="Q5" s="116"/>
       <c r="R5" s="136"/>
       <c r="S5" s="134"/>
     </row>
     <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="108"/>
+      <c r="A6" s="105"/>
       <c r="B6" s="126">
         <v>-5</v>
       </c>
       <c r="C6" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s" s="128">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E6" t="s" s="128">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F6" s="135"/>
-      <c r="G6" s="108"/>
+      <c r="G6" s="105"/>
       <c r="H6" s="129">
         <v>13041600</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="108"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="105"/>
       <c r="K6" s="130"/>
-      <c r="L6" s="108"/>
+      <c r="L6" s="105"/>
       <c r="M6" s="131"/>
       <c r="N6" s="132"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="108"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="105"/>
       <c r="Q6" s="116"/>
       <c r="R6" s="136"/>
       <c r="S6" s="134"/>
     </row>
     <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="108"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="126">
         <v>-5</v>
       </c>
       <c r="C7" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s" s="128">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E7" t="s" s="128">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F7" s="135"/>
-      <c r="G7" s="108"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="129">
         <v>6200000</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="108"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="105"/>
       <c r="K7" s="130"/>
-      <c r="L7" s="108"/>
+      <c r="L7" s="105"/>
       <c r="M7" s="131"/>
       <c r="N7" s="132"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="108"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="105"/>
       <c r="Q7" s="116"/>
       <c r="R7" s="136"/>
       <c r="S7" s="134"/>
@@ -7544,27 +7521,27 @@
         <v>-5</v>
       </c>
       <c r="C8" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s" s="128">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E8" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F8" s="78"/>
-      <c r="G8" s="79"/>
+        <v>199</v>
+      </c>
+      <c r="F8" s="76"/>
+      <c r="G8" s="77"/>
       <c r="H8" s="138">
         <v>1400000</v>
       </c>
-      <c r="I8" s="78"/>
-      <c r="J8" s="79"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="77"/>
       <c r="K8" s="139"/>
       <c r="L8" s="140"/>
       <c r="M8" s="131"/>
       <c r="N8" s="141"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="79"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="77"/>
       <c r="Q8" s="116"/>
       <c r="R8" s="140"/>
       <c r="S8" s="134"/>
@@ -7575,29 +7552,29 @@
         <v>-5</v>
       </c>
       <c r="C9" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s" s="128">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E9" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="138">
         <v>4067200</v>
       </c>
-      <c r="I9" s="40"/>
-      <c r="J9" s="41"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="139"/>
-      <c r="L9" s="86"/>
+      <c r="L9" s="84"/>
       <c r="M9" s="131"/>
       <c r="N9" s="141"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="41"/>
+      <c r="P9" s="40"/>
       <c r="Q9" s="116"/>
-      <c r="R9" s="86"/>
+      <c r="R9" s="84"/>
       <c r="S9" s="134"/>
     </row>
     <row r="10" ht="13.5" customHeight="1">
@@ -7606,29 +7583,29 @@
         <v>-5</v>
       </c>
       <c r="C10" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s" s="128">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E10" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="138">
         <v>1419200</v>
       </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="139"/>
-      <c r="L10" s="86"/>
+      <c r="L10" s="84"/>
       <c r="M10" s="131"/>
       <c r="N10" s="141"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="41"/>
+      <c r="P10" s="40"/>
       <c r="Q10" s="116"/>
-      <c r="R10" s="86"/>
+      <c r="R10" s="84"/>
       <c r="S10" s="134"/>
     </row>
     <row r="11" ht="13.5" customHeight="1">
@@ -7637,29 +7614,29 @@
         <v>-5</v>
       </c>
       <c r="C11" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s" s="128">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E11" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="138">
         <v>1014300</v>
       </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
       <c r="K11" s="139"/>
-      <c r="L11" s="86"/>
+      <c r="L11" s="84"/>
       <c r="M11" s="131"/>
       <c r="N11" s="141"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="41"/>
+      <c r="P11" s="40"/>
       <c r="Q11" s="116"/>
-      <c r="R11" s="86"/>
+      <c r="R11" s="84"/>
       <c r="S11" s="134"/>
     </row>
     <row r="12" ht="13.5" customHeight="1">
@@ -7668,29 +7645,29 @@
         <v>-5</v>
       </c>
       <c r="C12" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s" s="128">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E12" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="138">
         <v>628320</v>
       </c>
-      <c r="I12" s="40"/>
-      <c r="J12" s="41"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
       <c r="K12" s="139"/>
-      <c r="L12" s="86"/>
+      <c r="L12" s="84"/>
       <c r="M12" s="131"/>
       <c r="N12" s="141"/>
       <c r="O12" s="11"/>
-      <c r="P12" s="41"/>
+      <c r="P12" s="40"/>
       <c r="Q12" s="116"/>
-      <c r="R12" s="86"/>
+      <c r="R12" s="84"/>
       <c r="S12" s="134"/>
     </row>
     <row r="13" ht="13.5" customHeight="1">
@@ -7699,29 +7676,29 @@
         <v>-5</v>
       </c>
       <c r="C13" t="s" s="144">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s" s="128">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E13" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="138">
         <v>12234288</v>
       </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="41"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
       <c r="K13" s="139"/>
-      <c r="L13" s="86"/>
+      <c r="L13" s="84"/>
       <c r="M13" s="131"/>
       <c r="N13" s="141"/>
       <c r="O13" s="11"/>
-      <c r="P13" s="41"/>
+      <c r="P13" s="40"/>
       <c r="Q13" s="116"/>
-      <c r="R13" s="86"/>
+      <c r="R13" s="84"/>
       <c r="S13" s="134"/>
     </row>
     <row r="14" ht="13.5" customHeight="1">
@@ -7730,13 +7707,13 @@
         <v>-4</v>
       </c>
       <c r="C14" t="s" s="146">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s" s="128">
+        <v>198</v>
+      </c>
+      <c r="E14" t="s" s="128">
         <v>199</v>
-      </c>
-      <c r="E14" t="s" s="128">
-        <v>200</v>
       </c>
       <c r="F14" s="147"/>
       <c r="G14" s="145"/>
@@ -7764,36 +7741,36 @@
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="108"/>
+      <c r="A15" s="105"/>
       <c r="B15" s="112">
         <v>-4</v>
       </c>
       <c r="C15" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s" s="128">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E15" t="s" s="128">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F15" s="135"/>
-      <c r="G15" s="108"/>
+      <c r="G15" s="105"/>
       <c r="H15" s="129">
         <v>3700000</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="108"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="105"/>
       <c r="K15" s="130">
         <v>245915.88</v>
       </c>
-      <c r="L15" s="108"/>
+      <c r="L15" s="105"/>
       <c r="M15" s="126">
         <v>250000</v>
       </c>
       <c r="N15" s="132"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="108"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="105"/>
       <c r="Q15" s="116">
         <v>0.98366352</v>
       </c>
@@ -7803,36 +7780,36 @@
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="108"/>
+      <c r="A16" s="105"/>
       <c r="B16" s="112">
         <v>-4</v>
       </c>
       <c r="C16" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s" s="128">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E16" t="s" s="128">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F16" s="135"/>
-      <c r="G16" s="108"/>
+      <c r="G16" s="105"/>
       <c r="H16" s="129">
         <v>13041600</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="108"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="105"/>
       <c r="K16" s="130">
         <v>901691.5600000001</v>
       </c>
-      <c r="L16" s="108"/>
+      <c r="L16" s="105"/>
       <c r="M16" s="126">
         <v>850000</v>
       </c>
       <c r="N16" s="132"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="108"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="105"/>
       <c r="Q16" s="116">
         <v>1.0608136</v>
       </c>
@@ -7842,36 +7819,36 @@
       </c>
     </row>
     <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="108"/>
+      <c r="A17" s="105"/>
       <c r="B17" s="112">
         <v>-4</v>
       </c>
       <c r="C17" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D17" t="s" s="128">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E17" t="s" s="128">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F17" s="135"/>
-      <c r="G17" s="108"/>
+      <c r="G17" s="105"/>
       <c r="H17" s="129">
         <v>6200000</v>
       </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="108"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="105"/>
       <c r="K17" s="130">
         <v>614789.7</v>
       </c>
-      <c r="L17" s="108"/>
+      <c r="L17" s="105"/>
       <c r="M17" s="126">
         <v>600000</v>
       </c>
       <c r="N17" s="132"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="108"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="105"/>
       <c r="Q17" s="116">
         <v>1.0246495</v>
       </c>
@@ -7886,21 +7863,21 @@
         <v>-4</v>
       </c>
       <c r="C18" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D18" t="s" s="128">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E18" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F18" s="78"/>
-      <c r="G18" s="79"/>
+        <v>199</v>
+      </c>
+      <c r="F18" s="76"/>
+      <c r="G18" s="77"/>
       <c r="H18" s="138">
         <v>1400000</v>
       </c>
-      <c r="I18" s="78"/>
-      <c r="J18" s="79"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="77"/>
       <c r="K18" s="139">
         <v>102464.95</v>
       </c>
@@ -7909,8 +7886,8 @@
         <v>100000</v>
       </c>
       <c r="N18" s="141"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="79"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="77"/>
       <c r="Q18" s="116">
         <v>1.0246495</v>
       </c>
@@ -7925,35 +7902,35 @@
         <v>-4</v>
       </c>
       <c r="C19" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D19" t="s" s="128">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E19" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="138">
         <v>4067200</v>
       </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="41"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
       <c r="K19" s="139">
         <v>286901.86</v>
       </c>
-      <c r="L19" s="86"/>
+      <c r="L19" s="84"/>
       <c r="M19" s="126">
         <v>350000</v>
       </c>
       <c r="N19" s="141"/>
       <c r="O19" s="11"/>
-      <c r="P19" s="41"/>
+      <c r="P19" s="40"/>
       <c r="Q19" s="116">
         <v>0.8197196</v>
       </c>
-      <c r="R19" s="86"/>
+      <c r="R19" s="84"/>
       <c r="S19" s="134">
         <v>-0.11</v>
       </c>
@@ -7964,35 +7941,35 @@
         <v>-4</v>
       </c>
       <c r="C20" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D20" t="s" s="128">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E20" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="138">
         <v>1419200</v>
       </c>
-      <c r="I20" s="40"/>
-      <c r="J20" s="41"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
       <c r="K20" s="139">
         <v>122957.94</v>
       </c>
-      <c r="L20" s="86"/>
+      <c r="L20" s="84"/>
       <c r="M20" s="126">
         <v>120000</v>
       </c>
       <c r="N20" s="141"/>
       <c r="O20" s="11"/>
-      <c r="P20" s="41"/>
+      <c r="P20" s="40"/>
       <c r="Q20" s="116">
         <v>1.0246495</v>
       </c>
-      <c r="R20" s="86"/>
+      <c r="R20" s="84"/>
       <c r="S20" s="134">
         <v>0.16</v>
       </c>
@@ -8003,35 +7980,35 @@
         <v>-4</v>
       </c>
       <c r="C21" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s" s="128">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E21" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="138">
         <v>1014300</v>
       </c>
-      <c r="I21" s="40"/>
-      <c r="J21" s="41"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
       <c r="K21" s="139">
         <v>32788.784</v>
       </c>
-      <c r="L21" s="86"/>
+      <c r="L21" s="84"/>
       <c r="M21" s="126">
         <v>35000</v>
       </c>
       <c r="N21" s="141"/>
       <c r="O21" s="11"/>
-      <c r="P21" s="41"/>
+      <c r="P21" s="40"/>
       <c r="Q21" s="116">
         <v>0.9368224000000001</v>
       </c>
-      <c r="R21" s="86"/>
+      <c r="R21" s="84"/>
       <c r="S21" s="134">
         <v>-0.23</v>
       </c>
@@ -8042,35 +8019,35 @@
         <v>-4</v>
       </c>
       <c r="C22" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D22" t="s" s="128">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E22" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
       <c r="H22" s="138">
         <v>628320</v>
       </c>
-      <c r="I22" s="40"/>
-      <c r="J22" s="41"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
       <c r="K22" s="139">
         <v>81971.960000000006</v>
       </c>
-      <c r="L22" s="86"/>
+      <c r="L22" s="84"/>
       <c r="M22" s="126">
         <v>75000</v>
       </c>
       <c r="N22" s="141"/>
       <c r="O22" s="11"/>
-      <c r="P22" s="41"/>
+      <c r="P22" s="40"/>
       <c r="Q22" s="116">
         <v>1.09295946666667</v>
       </c>
-      <c r="R22" s="86"/>
+      <c r="R22" s="84"/>
       <c r="S22" s="134">
         <v>0.29</v>
       </c>
@@ -8081,35 +8058,35 @@
         <v>-4</v>
       </c>
       <c r="C23" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s" s="128">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E23" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
       <c r="H23" s="138">
         <v>12234288</v>
       </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40"/>
       <c r="K23" s="139">
         <v>971367.726</v>
       </c>
-      <c r="L23" s="86"/>
+      <c r="L23" s="84"/>
       <c r="M23" s="126">
         <v>900000</v>
       </c>
       <c r="N23" s="141"/>
       <c r="O23" s="11"/>
-      <c r="P23" s="41"/>
+      <c r="P23" s="40"/>
       <c r="Q23" s="116">
         <v>1.07929747333333</v>
       </c>
-      <c r="R23" s="86"/>
+      <c r="R23" s="84"/>
       <c r="S23" s="134">
         <v>0.18</v>
       </c>
@@ -8120,25 +8097,25 @@
         <v>-3</v>
       </c>
       <c r="C24" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D24" t="s" s="128">
+        <v>198</v>
+      </c>
+      <c r="E24" t="s" s="128">
         <v>199</v>
       </c>
-      <c r="E24" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
       <c r="H24" s="138">
         <v>10560000</v>
       </c>
-      <c r="I24" s="40"/>
-      <c r="J24" s="41"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="40"/>
       <c r="K24" s="139">
         <v>556986.16</v>
       </c>
-      <c r="L24" s="86"/>
+      <c r="L24" s="84"/>
       <c r="M24" s="139">
         <v>650000</v>
       </c>
@@ -8148,7 +8125,7 @@
       <c r="Q24" s="116">
         <v>0.856901784615385</v>
       </c>
-      <c r="R24" s="86"/>
+      <c r="R24" s="84"/>
       <c r="S24" s="134">
         <v>-0.245018038959772</v>
       </c>
@@ -8159,25 +8136,25 @@
         <v>-3</v>
       </c>
       <c r="C25" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s" s="128">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E25" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
       <c r="H25" s="138">
         <v>3700000</v>
       </c>
-      <c r="I25" s="40"/>
-      <c r="J25" s="41"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="40"/>
       <c r="K25" s="139">
         <v>191328.72</v>
       </c>
-      <c r="L25" s="86"/>
+      <c r="L25" s="84"/>
       <c r="M25" s="139">
         <v>200000</v>
       </c>
@@ -8187,7 +8164,7 @@
       <c r="Q25" s="116">
         <v>0.9566436</v>
       </c>
-      <c r="R25" s="86"/>
+      <c r="R25" s="84"/>
       <c r="S25" s="134">
         <v>-0.221974928987912</v>
       </c>
@@ -8198,35 +8175,35 @@
         <v>-3</v>
       </c>
       <c r="C26" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D26" t="s" s="128">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E26" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
       <c r="H26" s="138">
         <v>13041600</v>
       </c>
-      <c r="I26" s="40"/>
-      <c r="J26" s="41"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
       <c r="K26" s="139">
         <v>736028.144</v>
       </c>
-      <c r="L26" s="86"/>
+      <c r="L26" s="84"/>
       <c r="M26" s="139">
         <v>800000</v>
       </c>
       <c r="N26" s="150"/>
       <c r="O26" s="11"/>
-      <c r="P26" s="41"/>
+      <c r="P26" s="40"/>
       <c r="Q26" s="116">
         <v>0.92003518</v>
       </c>
-      <c r="R26" s="86"/>
+      <c r="R26" s="84"/>
       <c r="S26" s="134">
         <v>-0.18372514876373</v>
       </c>
@@ -8237,35 +8214,35 @@
         <v>-3</v>
       </c>
       <c r="C27" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s" s="128">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E27" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
       <c r="H27" s="138">
         <v>6200000</v>
       </c>
-      <c r="I27" s="40"/>
-      <c r="J27" s="41"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="40"/>
       <c r="K27" s="139">
         <v>478321.8</v>
       </c>
-      <c r="L27" s="86"/>
+      <c r="L27" s="84"/>
       <c r="M27" s="139">
         <v>550000</v>
       </c>
       <c r="N27" s="150"/>
       <c r="O27" s="11"/>
-      <c r="P27" s="41"/>
+      <c r="P27" s="40"/>
       <c r="Q27" s="116">
         <v>0.869676</v>
       </c>
-      <c r="R27" s="86"/>
+      <c r="R27" s="84"/>
       <c r="S27" s="134">
         <v>-0.221974928987912</v>
       </c>
@@ -8276,35 +8253,35 @@
         <v>-3</v>
       </c>
       <c r="C28" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s" s="128">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E28" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F28" s="39"/>
+      <c r="G28" s="40"/>
       <c r="H28" s="138">
         <v>1400000</v>
       </c>
-      <c r="I28" s="40"/>
-      <c r="J28" s="41"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="40"/>
       <c r="K28" s="139">
         <v>69720.3</v>
       </c>
-      <c r="L28" s="86"/>
+      <c r="L28" s="84"/>
       <c r="M28" s="139">
         <v>80000</v>
       </c>
       <c r="N28" s="150"/>
       <c r="O28" s="11"/>
-      <c r="P28" s="41"/>
+      <c r="P28" s="40"/>
       <c r="Q28" s="116">
         <v>0.87150375</v>
       </c>
-      <c r="R28" s="86"/>
+      <c r="R28" s="84"/>
       <c r="S28" s="134">
         <v>-0.319569277104024</v>
       </c>
@@ -8315,35 +8292,35 @@
         <v>-3</v>
       </c>
       <c r="C29" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s" s="128">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E29" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F29" s="39"/>
+      <c r="G29" s="40"/>
       <c r="H29" s="138">
         <v>4067200</v>
       </c>
-      <c r="I29" s="40"/>
-      <c r="J29" s="41"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
       <c r="K29" s="139">
         <v>223216.84</v>
       </c>
-      <c r="L29" s="86"/>
+      <c r="L29" s="84"/>
       <c r="M29" s="139">
         <v>250000</v>
       </c>
       <c r="N29" s="150"/>
       <c r="O29" s="11"/>
-      <c r="P29" s="41"/>
+      <c r="P29" s="40"/>
       <c r="Q29" s="116">
         <v>0.89286736</v>
       </c>
-      <c r="R29" s="86"/>
+      <c r="R29" s="84"/>
       <c r="S29" s="134">
         <v>-0.221974928987912</v>
       </c>
@@ -8354,35 +8331,35 @@
         <v>-3</v>
       </c>
       <c r="C30" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s" s="128">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E30" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
       <c r="H30" s="138">
         <v>1419200</v>
       </c>
-      <c r="I30" s="40"/>
-      <c r="J30" s="41"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40"/>
       <c r="K30" s="139">
         <v>90664.36</v>
       </c>
-      <c r="L30" s="86"/>
+      <c r="L30" s="84"/>
       <c r="M30" s="139">
         <v>100000</v>
       </c>
       <c r="N30" s="150"/>
       <c r="O30" s="11"/>
-      <c r="P30" s="41"/>
+      <c r="P30" s="40"/>
       <c r="Q30" s="116">
         <v>0.9066436</v>
       </c>
-      <c r="R30" s="86"/>
+      <c r="R30" s="84"/>
       <c r="S30" s="134">
         <v>-0.262639240702959</v>
       </c>
@@ -8393,35 +8370,35 @@
         <v>-3</v>
       </c>
       <c r="C31" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s" s="128">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E31" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F31" s="39"/>
+      <c r="G31" s="40"/>
       <c r="H31" s="138">
         <v>1014300</v>
       </c>
-      <c r="I31" s="40"/>
-      <c r="J31" s="41"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="40"/>
       <c r="K31" s="139">
         <v>25510.496</v>
       </c>
-      <c r="L31" s="86"/>
+      <c r="L31" s="84"/>
       <c r="M31" s="139">
         <v>25000</v>
       </c>
       <c r="N31" s="150"/>
       <c r="O31" s="11"/>
-      <c r="P31" s="41"/>
+      <c r="P31" s="40"/>
       <c r="Q31" s="116">
         <v>1.02041984</v>
       </c>
-      <c r="R31" s="86"/>
+      <c r="R31" s="84"/>
       <c r="S31" s="134">
         <v>-0.221974928987912</v>
       </c>
@@ -8432,35 +8409,35 @@
         <v>-3</v>
       </c>
       <c r="C32" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s" s="128">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E32" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F32" s="39"/>
+      <c r="G32" s="40"/>
       <c r="H32" s="138">
         <v>628320</v>
       </c>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="40"/>
       <c r="K32" s="139">
         <v>59832.18</v>
       </c>
-      <c r="L32" s="86"/>
+      <c r="L32" s="84"/>
       <c r="M32" s="139">
         <v>60000</v>
       </c>
       <c r="N32" s="150"/>
       <c r="O32" s="11"/>
-      <c r="P32" s="41"/>
+      <c r="P32" s="40"/>
       <c r="Q32" s="116">
         <v>0.997203</v>
       </c>
-      <c r="R32" s="86"/>
+      <c r="R32" s="84"/>
       <c r="S32" s="134">
         <v>-0.270089674566767</v>
       </c>
@@ -8471,35 +8448,35 @@
         <v>-3</v>
       </c>
       <c r="C33" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s" s="128">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E33" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F33" s="40"/>
-      <c r="G33" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F33" s="39"/>
+      <c r="G33" s="40"/>
       <c r="H33" s="138">
         <v>12234288</v>
       </c>
-      <c r="I33" s="40"/>
-      <c r="J33" s="41"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="40"/>
       <c r="K33" s="139">
         <v>757203</v>
       </c>
-      <c r="L33" s="86"/>
+      <c r="L33" s="84"/>
       <c r="M33" s="139">
         <v>850000</v>
       </c>
       <c r="N33" s="150"/>
       <c r="O33" s="11"/>
-      <c r="P33" s="41"/>
+      <c r="P33" s="40"/>
       <c r="Q33" s="116">
         <v>0.890827058823529</v>
       </c>
-      <c r="R33" s="86"/>
+      <c r="R33" s="84"/>
       <c r="S33" s="134">
         <v>-0.220477498137507</v>
       </c>
@@ -8510,35 +8487,35 @@
         <v>-2</v>
       </c>
       <c r="C34" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D34" t="s" s="128">
+        <v>198</v>
+      </c>
+      <c r="E34" t="s" s="128">
         <v>199</v>
       </c>
-      <c r="E34" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="41"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="40"/>
       <c r="H34" s="138">
         <v>10560000</v>
       </c>
-      <c r="I34" s="40"/>
-      <c r="J34" s="41"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="40"/>
       <c r="K34" s="139">
         <v>525785.6899999999</v>
       </c>
-      <c r="L34" s="86"/>
+      <c r="L34" s="84"/>
       <c r="M34" s="126">
         <v>550000</v>
       </c>
       <c r="N34" s="141"/>
       <c r="O34" s="11"/>
-      <c r="P34" s="41"/>
+      <c r="P34" s="40"/>
       <c r="Q34" s="116">
         <v>0.9559739818181821</v>
       </c>
-      <c r="R34" s="86"/>
+      <c r="R34" s="84"/>
       <c r="S34" s="134">
         <v>-0.0560165983298402</v>
       </c>
@@ -8549,35 +8526,35 @@
         <v>-2</v>
       </c>
       <c r="C35" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D35" t="s" s="128">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E35" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F35" s="40"/>
-      <c r="G35" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F35" s="39"/>
+      <c r="G35" s="40"/>
       <c r="H35" s="138">
         <v>3700000</v>
       </c>
-      <c r="I35" s="40"/>
-      <c r="J35" s="41"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="40"/>
       <c r="K35" s="139">
         <v>154642.85</v>
       </c>
-      <c r="L35" s="86"/>
+      <c r="L35" s="84"/>
       <c r="M35" s="126">
         <v>170000</v>
       </c>
       <c r="N35" s="141"/>
       <c r="O35" s="11"/>
-      <c r="P35" s="41"/>
+      <c r="P35" s="40"/>
       <c r="Q35" s="116">
         <v>0.909663823529412</v>
       </c>
-      <c r="R35" s="86"/>
+      <c r="R35" s="84"/>
       <c r="S35" s="134">
         <v>-0.191742619717521</v>
       </c>
@@ -8588,35 +8565,35 @@
         <v>-2</v>
       </c>
       <c r="C36" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D36" t="s" s="128">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E36" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F36" s="40"/>
-      <c r="G36" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F36" s="39"/>
+      <c r="G36" s="40"/>
       <c r="H36" s="138">
         <v>13041600</v>
       </c>
-      <c r="I36" s="40"/>
-      <c r="J36" s="41"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="40"/>
       <c r="K36" s="139">
         <v>711357.11</v>
       </c>
-      <c r="L36" s="86"/>
+      <c r="L36" s="84"/>
       <c r="M36" s="126">
         <v>750000</v>
       </c>
       <c r="N36" s="141"/>
       <c r="O36" s="11"/>
-      <c r="P36" s="41"/>
+      <c r="P36" s="40"/>
       <c r="Q36" s="116">
         <v>0.948476146666667</v>
       </c>
-      <c r="R36" s="86"/>
+      <c r="R36" s="84"/>
       <c r="S36" s="134">
         <v>-0.0335191448874813</v>
       </c>
@@ -8627,35 +8604,35 @@
         <v>-2</v>
       </c>
       <c r="C37" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D37" t="s" s="128">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E37" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F37" s="40"/>
-      <c r="G37" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F37" s="39"/>
+      <c r="G37" s="40"/>
       <c r="H37" s="138">
         <v>6200000</v>
       </c>
-      <c r="I37" s="40"/>
-      <c r="J37" s="41"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="40"/>
       <c r="K37" s="139">
         <v>432999.98</v>
       </c>
-      <c r="L37" s="86"/>
+      <c r="L37" s="84"/>
       <c r="M37" s="126">
         <v>500000</v>
       </c>
       <c r="N37" s="141"/>
       <c r="O37" s="11"/>
-      <c r="P37" s="41"/>
+      <c r="P37" s="40"/>
       <c r="Q37" s="116">
         <v>0.86599996</v>
       </c>
-      <c r="R37" s="86"/>
+      <c r="R37" s="84"/>
       <c r="S37" s="134">
         <v>-0.0947517340836231</v>
       </c>
@@ -8666,35 +8643,35 @@
         <v>-2</v>
       </c>
       <c r="C38" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D38" t="s" s="128">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E38" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F38" s="40"/>
-      <c r="G38" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F38" s="39"/>
+      <c r="G38" s="40"/>
       <c r="H38" s="138">
         <v>1400000</v>
       </c>
-      <c r="I38" s="40"/>
-      <c r="J38" s="41"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="40"/>
       <c r="K38" s="139">
         <v>77321.425</v>
       </c>
-      <c r="L38" s="86"/>
+      <c r="L38" s="84"/>
       <c r="M38" s="126">
         <v>80000</v>
       </c>
       <c r="N38" s="141"/>
       <c r="O38" s="11"/>
-      <c r="P38" s="41"/>
+      <c r="P38" s="40"/>
       <c r="Q38" s="116">
         <v>0.9665178125</v>
       </c>
-      <c r="R38" s="86"/>
+      <c r="R38" s="84"/>
       <c r="S38" s="134">
         <v>0.109023125259071</v>
       </c>
@@ -8705,35 +8682,35 @@
         <v>-2</v>
       </c>
       <c r="C39" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D39" t="s" s="128">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E39" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F39" s="40"/>
-      <c r="G39" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F39" s="39"/>
+      <c r="G39" s="40"/>
       <c r="H39" s="138">
         <v>4067200</v>
       </c>
-      <c r="I39" s="40"/>
-      <c r="J39" s="41"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="40"/>
       <c r="K39" s="139">
         <v>247428.56</v>
       </c>
-      <c r="L39" s="86"/>
+      <c r="L39" s="84"/>
       <c r="M39" s="126">
         <v>250000</v>
       </c>
       <c r="N39" s="141"/>
       <c r="O39" s="11"/>
-      <c r="P39" s="41"/>
+      <c r="P39" s="40"/>
       <c r="Q39" s="116">
         <v>0.98971424</v>
       </c>
-      <c r="R39" s="86"/>
+      <c r="R39" s="84"/>
       <c r="S39" s="134">
         <v>0.1084672643874</v>
       </c>
@@ -8744,35 +8721,35 @@
         <v>-2</v>
       </c>
       <c r="C40" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D40" t="s" s="128">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E40" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F40" s="40"/>
-      <c r="G40" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F40" s="39"/>
+      <c r="G40" s="40"/>
       <c r="H40" s="138">
         <v>1419200</v>
       </c>
-      <c r="I40" s="40"/>
-      <c r="J40" s="41"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="40"/>
       <c r="K40" s="139">
         <v>92785.710000000006</v>
       </c>
-      <c r="L40" s="86"/>
+      <c r="L40" s="84"/>
       <c r="M40" s="126">
         <v>100000</v>
       </c>
       <c r="N40" s="141"/>
       <c r="O40" s="11"/>
-      <c r="P40" s="41"/>
+      <c r="P40" s="40"/>
       <c r="Q40" s="116">
         <v>0.9278571</v>
       </c>
-      <c r="R40" s="86"/>
+      <c r="R40" s="84"/>
       <c r="S40" s="134">
         <v>0.0233978379155821</v>
       </c>
@@ -8783,35 +8760,35 @@
         <v>-2</v>
       </c>
       <c r="C41" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s" s="128">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E41" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F41" s="40"/>
-      <c r="G41" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F41" s="39"/>
+      <c r="G41" s="40"/>
       <c r="H41" s="138">
         <v>1014300</v>
       </c>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="40"/>
       <c r="K41" s="139">
         <v>21649.999</v>
       </c>
-      <c r="L41" s="86"/>
+      <c r="L41" s="84"/>
       <c r="M41" s="126">
         <v>25000</v>
       </c>
       <c r="N41" s="141"/>
       <c r="O41" s="11"/>
-      <c r="P41" s="41"/>
+      <c r="P41" s="40"/>
       <c r="Q41" s="116">
         <v>0.86599996</v>
       </c>
-      <c r="R41" s="86"/>
+      <c r="R41" s="84"/>
       <c r="S41" s="134">
         <v>-0.151329750703397</v>
       </c>
@@ -8822,35 +8799,35 @@
         <v>-2</v>
       </c>
       <c r="C42" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D42" t="s" s="128">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E42" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F42" s="40"/>
-      <c r="G42" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F42" s="39"/>
+      <c r="G42" s="40"/>
       <c r="H42" s="138">
         <v>628320</v>
       </c>
-      <c r="I42" s="40"/>
-      <c r="J42" s="41"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="40"/>
       <c r="K42" s="139">
         <v>55671.426</v>
       </c>
-      <c r="L42" s="86"/>
+      <c r="L42" s="84"/>
       <c r="M42" s="126">
         <v>60000</v>
       </c>
       <c r="N42" s="141"/>
       <c r="O42" s="11"/>
-      <c r="P42" s="41"/>
+      <c r="P42" s="40"/>
       <c r="Q42" s="116">
         <v>0.9278571</v>
       </c>
-      <c r="R42" s="86"/>
+      <c r="R42" s="84"/>
       <c r="S42" s="134">
         <v>-0.0695404045114185</v>
       </c>
@@ -8861,35 +8838,35 @@
         <v>-2</v>
       </c>
       <c r="C43" t="s" s="127">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D43" t="s" s="128">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E43" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F43" s="40"/>
-      <c r="G43" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F43" s="39"/>
+      <c r="G43" s="40"/>
       <c r="H43" s="138">
         <v>12234288</v>
       </c>
-      <c r="I43" s="40"/>
-      <c r="J43" s="41"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="40"/>
       <c r="K43" s="139">
         <v>773214.25</v>
       </c>
-      <c r="L43" s="86"/>
+      <c r="L43" s="84"/>
       <c r="M43" s="126">
         <v>800000</v>
       </c>
       <c r="N43" s="141"/>
       <c r="O43" s="11"/>
-      <c r="P43" s="41"/>
+      <c r="P43" s="40"/>
       <c r="Q43" s="116">
         <v>0.9665178125</v>
       </c>
-      <c r="R43" s="86"/>
+      <c r="R43" s="84"/>
       <c r="S43" s="134">
         <v>0.0211452543109312</v>
       </c>
@@ -8900,35 +8877,35 @@
         <v>-1</v>
       </c>
       <c r="C44" t="s" s="152">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D44" t="s" s="128">
+        <v>198</v>
+      </c>
+      <c r="E44" t="s" s="128">
         <v>199</v>
       </c>
-      <c r="E44" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F44" s="40"/>
-      <c r="G44" s="41"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="40"/>
       <c r="H44" s="138">
         <v>10560000</v>
       </c>
-      <c r="I44" s="40"/>
-      <c r="J44" s="41"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="40"/>
       <c r="K44" s="139">
         <v>716400</v>
       </c>
-      <c r="L44" s="86"/>
+      <c r="L44" s="84"/>
       <c r="M44" s="126">
         <v>600000</v>
       </c>
       <c r="N44" s="141"/>
       <c r="O44" s="11"/>
-      <c r="P44" s="41"/>
+      <c r="P44" s="40"/>
       <c r="Q44" s="116">
         <v>1.194</v>
       </c>
-      <c r="R44" s="86"/>
+      <c r="R44" s="84"/>
       <c r="S44" s="134">
         <v>0.362532327572475</v>
       </c>
@@ -8939,35 +8916,35 @@
         <v>-1</v>
       </c>
       <c r="C45" t="s" s="152">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" t="s" s="128">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E45" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F45" s="40"/>
-      <c r="G45" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F45" s="39"/>
+      <c r="G45" s="40"/>
       <c r="H45" s="138">
         <v>3700000</v>
       </c>
-      <c r="I45" s="40"/>
-      <c r="J45" s="41"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="40"/>
       <c r="K45" s="139">
         <v>220500</v>
       </c>
-      <c r="L45" s="86"/>
+      <c r="L45" s="84"/>
       <c r="M45" s="126">
         <v>200000</v>
       </c>
       <c r="N45" s="141"/>
       <c r="O45" s="11"/>
-      <c r="P45" s="41"/>
+      <c r="P45" s="40"/>
       <c r="Q45" s="116">
         <v>1.1025</v>
       </c>
-      <c r="R45" s="86"/>
+      <c r="R45" s="84"/>
       <c r="S45" s="134">
         <v>0.425866116668181</v>
       </c>
@@ -8978,35 +8955,35 @@
         <v>-1</v>
       </c>
       <c r="C46" t="s" s="152">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" t="s" s="128">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E46" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F46" s="40"/>
-      <c r="G46" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F46" s="39"/>
+      <c r="G46" s="40"/>
       <c r="H46" s="138">
         <v>13041600</v>
       </c>
-      <c r="I46" s="40"/>
-      <c r="J46" s="41"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="40"/>
       <c r="K46" s="139">
         <v>859704</v>
       </c>
-      <c r="L46" s="86"/>
+      <c r="L46" s="84"/>
       <c r="M46" s="126">
         <v>800000</v>
       </c>
       <c r="N46" s="141"/>
       <c r="O46" s="11"/>
-      <c r="P46" s="41"/>
+      <c r="P46" s="40"/>
       <c r="Q46" s="116">
         <v>1.07463</v>
       </c>
-      <c r="R46" s="86"/>
+      <c r="R46" s="84"/>
       <c r="S46" s="134">
         <v>0.208540672349504</v>
       </c>
@@ -9017,35 +8994,35 @@
         <v>-1</v>
       </c>
       <c r="C47" t="s" s="152">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" t="s" s="128">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E47" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F47" s="40"/>
-      <c r="G47" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F47" s="39"/>
+      <c r="G47" s="40"/>
       <c r="H47" s="138">
         <v>6200000</v>
       </c>
-      <c r="I47" s="40"/>
-      <c r="J47" s="41"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="40"/>
       <c r="K47" s="139">
         <v>400000</v>
       </c>
-      <c r="L47" s="86"/>
+      <c r="L47" s="84"/>
       <c r="M47" s="126">
         <v>450000</v>
       </c>
       <c r="N47" s="141"/>
       <c r="O47" s="11"/>
-      <c r="P47" s="41"/>
+      <c r="P47" s="40"/>
       <c r="Q47" s="116">
         <v>0.888888888888889</v>
       </c>
-      <c r="R47" s="86"/>
+      <c r="R47" s="84"/>
       <c r="S47" s="134">
         <v>-0.0762124284624679</v>
       </c>
@@ -9056,35 +9033,35 @@
         <v>-1</v>
       </c>
       <c r="C48" t="s" s="152">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" t="s" s="128">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E48" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F48" s="40"/>
-      <c r="G48" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F48" s="39"/>
+      <c r="G48" s="40"/>
       <c r="H48" s="138">
         <v>1400000</v>
       </c>
-      <c r="I48" s="40"/>
-      <c r="J48" s="41"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="40"/>
       <c r="K48" s="139">
         <v>90000</v>
       </c>
-      <c r="L48" s="86"/>
+      <c r="L48" s="84"/>
       <c r="M48" s="126">
         <v>85000</v>
       </c>
       <c r="N48" s="141"/>
       <c r="O48" s="11"/>
-      <c r="P48" s="41"/>
+      <c r="P48" s="40"/>
       <c r="Q48" s="116">
         <v>1.05882352941176</v>
       </c>
-      <c r="R48" s="86"/>
+      <c r="R48" s="84"/>
       <c r="S48" s="134">
         <v>0.163972340137291</v>
       </c>
@@ -9095,35 +9072,35 @@
         <v>-1</v>
       </c>
       <c r="C49" t="s" s="152">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D49" t="s" s="128">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E49" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F49" s="40"/>
-      <c r="G49" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F49" s="39"/>
+      <c r="G49" s="40"/>
       <c r="H49" s="138">
         <v>4067200</v>
       </c>
-      <c r="I49" s="40"/>
-      <c r="J49" s="41"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="40"/>
       <c r="K49" s="139">
         <v>276368</v>
       </c>
-      <c r="L49" s="86"/>
+      <c r="L49" s="84"/>
       <c r="M49" s="126">
         <v>250000</v>
       </c>
       <c r="N49" s="141"/>
       <c r="O49" s="11"/>
-      <c r="P49" s="41"/>
+      <c r="P49" s="40"/>
       <c r="Q49" s="116">
         <v>1.105472</v>
       </c>
-      <c r="R49" s="86"/>
+      <c r="R49" s="84"/>
       <c r="S49" s="134">
         <v>0.116960790621746</v>
       </c>
@@ -9134,35 +9111,35 @@
         <v>-1</v>
       </c>
       <c r="C50" t="s" s="152">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s" s="128">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E50" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F50" s="40"/>
-      <c r="G50" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F50" s="39"/>
+      <c r="G50" s="40"/>
       <c r="H50" s="138">
         <v>1419200</v>
       </c>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="40"/>
       <c r="K50" s="139">
         <v>90248</v>
       </c>
-      <c r="L50" s="86"/>
+      <c r="L50" s="84"/>
       <c r="M50" s="126">
         <v>100000</v>
       </c>
       <c r="N50" s="141"/>
       <c r="O50" s="11"/>
-      <c r="P50" s="41"/>
+      <c r="P50" s="40"/>
       <c r="Q50" s="116">
         <v>0.9024799999999999</v>
       </c>
-      <c r="R50" s="86"/>
+      <c r="R50" s="84"/>
       <c r="S50" s="134">
         <v>-0.0273502245119426</v>
       </c>
@@ -9173,35 +9150,35 @@
         <v>-1</v>
       </c>
       <c r="C51" t="s" s="152">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D51" t="s" s="128">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E51" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F51" s="40"/>
-      <c r="G51" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F51" s="39"/>
+      <c r="G51" s="40"/>
       <c r="H51" s="138">
         <v>1014300</v>
       </c>
-      <c r="I51" s="40"/>
-      <c r="J51" s="41"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="40"/>
       <c r="K51" s="139">
         <v>28930</v>
       </c>
-      <c r="L51" s="86"/>
+      <c r="L51" s="84"/>
       <c r="M51" s="126">
         <v>25000</v>
       </c>
       <c r="N51" s="141"/>
       <c r="O51" s="11"/>
-      <c r="P51" s="41"/>
+      <c r="P51" s="40"/>
       <c r="Q51" s="116">
         <v>1.1572</v>
       </c>
-      <c r="R51" s="86"/>
+      <c r="R51" s="84"/>
       <c r="S51" s="134">
         <v>0.33625872222904</v>
       </c>
@@ -9212,35 +9189,35 @@
         <v>-1</v>
       </c>
       <c r="C52" t="s" s="152">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D52" t="s" s="128">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E52" t="s" s="128">
-        <v>200</v>
-      </c>
-      <c r="F52" s="40"/>
-      <c r="G52" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="F52" s="39"/>
+      <c r="G52" s="40"/>
       <c r="H52" s="138">
         <v>628320</v>
       </c>
-      <c r="I52" s="40"/>
-      <c r="J52" s="41"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="40"/>
       <c r="K52" s="139">
         <v>35840</v>
       </c>
-      <c r="L52" s="86"/>
+      <c r="L52" s="84"/>
       <c r="M52" s="126">
         <v>40000</v>
       </c>
       <c r="N52" s="141"/>
       <c r="O52" s="11"/>
-      <c r="P52" s="41"/>
+      <c r="P52" s="40"/>
       <c r="Q52" s="116">
         <v>0.896</v>
       </c>
-      <c r="R52" s="86"/>
+      <c r="R52" s="84"/>
       <c r="S52" s="134">
         <v>-0.356222705701844</v>
       </c>
@@ -9251,35 +9228,35 @@
         <v>-1</v>
       </c>
       <c r="C53" t="s" s="144">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D53" t="s" s="128">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E53" t="s" s="128">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F53" s="153"/>
-      <c r="G53" s="41"/>
+      <c r="G53" s="40"/>
       <c r="H53" s="138">
         <v>12234288</v>
       </c>
-      <c r="I53" s="40"/>
-      <c r="J53" s="41"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="40"/>
       <c r="K53" s="139">
         <v>835229</v>
       </c>
-      <c r="L53" s="86"/>
+      <c r="L53" s="84"/>
       <c r="M53" s="126">
         <v>800000</v>
       </c>
       <c r="N53" s="141"/>
       <c r="O53" s="11"/>
-      <c r="P53" s="41"/>
+      <c r="P53" s="40"/>
       <c r="Q53" s="116">
         <v>1.04403625</v>
       </c>
-      <c r="R53" s="86"/>
+      <c r="R53" s="84"/>
       <c r="S53" s="134">
         <v>0.08020383742281</v>
       </c>
@@ -9290,33 +9267,33 @@
         <v>-4</v>
       </c>
       <c r="C54" t="s" s="154">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D54" s="155"/>
       <c r="E54" t="s" s="156">
+        <v>209</v>
+      </c>
+      <c r="F54" t="s" s="156">
         <v>210</v>
       </c>
-      <c r="F54" t="s" s="156">
-        <v>211</v>
-      </c>
-      <c r="G54" s="40"/>
-      <c r="H54" s="71"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="67"/>
       <c r="I54" s="11"/>
-      <c r="J54" s="41"/>
+      <c r="J54" s="40"/>
       <c r="K54" s="157">
         <v>1053340</v>
       </c>
-      <c r="L54" s="86"/>
+      <c r="L54" s="84"/>
       <c r="M54" s="157">
         <v>975000</v>
       </c>
       <c r="N54" s="158"/>
       <c r="O54" s="11"/>
-      <c r="P54" s="41"/>
+      <c r="P54" s="40"/>
       <c r="Q54" s="159">
         <v>1.08034871794872</v>
       </c>
-      <c r="R54" s="86"/>
+      <c r="R54" s="84"/>
       <c r="S54" s="159">
         <v>0.187882670877236</v>
       </c>
@@ -9327,33 +9304,33 @@
         <v>-4</v>
       </c>
       <c r="C55" t="s" s="160">
-        <v>143</v>
-      </c>
-      <c r="D55" s="41"/>
+        <v>142</v>
+      </c>
+      <c r="D55" s="40"/>
       <c r="E55" t="s" s="156">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F55" t="s" s="156">
-        <v>212</v>
-      </c>
-      <c r="G55" s="40"/>
+        <v>211</v>
+      </c>
+      <c r="G55" s="39"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
-      <c r="J55" s="41"/>
+      <c r="J55" s="40"/>
       <c r="K55" s="157">
         <v>1516481</v>
       </c>
-      <c r="L55" s="86"/>
+      <c r="L55" s="84"/>
       <c r="M55" s="157">
         <v>1450000</v>
       </c>
       <c r="N55" s="158"/>
       <c r="O55" s="11"/>
-      <c r="P55" s="41"/>
+      <c r="P55" s="40"/>
       <c r="Q55" s="159">
         <v>1.04584896551724</v>
       </c>
-      <c r="R55" s="86"/>
+      <c r="R55" s="84"/>
       <c r="S55" s="159">
         <v>0.159205827067669</v>
       </c>
@@ -9364,33 +9341,33 @@
         <v>-4</v>
       </c>
       <c r="C56" t="s" s="160">
-        <v>143</v>
-      </c>
-      <c r="D56" s="41"/>
+        <v>142</v>
+      </c>
+      <c r="D56" s="40"/>
       <c r="E56" t="s" s="156">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F56" t="s" s="156">
-        <v>213</v>
-      </c>
-      <c r="G56" s="40"/>
+        <v>212</v>
+      </c>
+      <c r="G56" s="39"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
-      <c r="J56" s="41"/>
+      <c r="J56" s="40"/>
       <c r="K56" s="157">
         <v>319691</v>
       </c>
-      <c r="L56" s="86"/>
+      <c r="L56" s="84"/>
       <c r="M56" s="157">
         <v>385000</v>
       </c>
       <c r="N56" s="158"/>
       <c r="O56" s="11"/>
-      <c r="P56" s="41"/>
+      <c r="P56" s="40"/>
       <c r="Q56" s="159">
         <v>0.830366233766234</v>
       </c>
-      <c r="R56" s="86"/>
+      <c r="R56" s="84"/>
       <c r="S56" s="159">
         <v>-0.124001966568338</v>
       </c>
@@ -9401,33 +9378,33 @@
         <v>-4</v>
       </c>
       <c r="C57" t="s" s="160">
-        <v>143</v>
-      </c>
-      <c r="D57" s="41"/>
+        <v>142</v>
+      </c>
+      <c r="D57" s="40"/>
       <c r="E57" t="s" s="156">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F57" t="s" s="156">
-        <v>214</v>
-      </c>
-      <c r="G57" s="40"/>
+        <v>213</v>
+      </c>
+      <c r="G57" s="39"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
-      <c r="J57" s="41"/>
+      <c r="J57" s="40"/>
       <c r="K57" s="157">
         <v>368874</v>
       </c>
-      <c r="L57" s="86"/>
+      <c r="L57" s="84"/>
       <c r="M57" s="157">
         <v>370000</v>
       </c>
       <c r="N57" s="158"/>
       <c r="O57" s="11"/>
-      <c r="P57" s="41"/>
+      <c r="P57" s="40"/>
       <c r="Q57" s="159">
         <v>0.996956756756757</v>
       </c>
-      <c r="R57" s="86"/>
+      <c r="R57" s="84"/>
       <c r="S57" s="159">
         <v>0.126180758017493</v>
       </c>
@@ -9438,33 +9415,33 @@
         <v>-4</v>
       </c>
       <c r="C58" t="s" s="160">
-        <v>143</v>
-      </c>
-      <c r="D58" s="41"/>
+        <v>142</v>
+      </c>
+      <c r="D58" s="40"/>
       <c r="E58" t="s" s="156">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F58" t="s" s="156">
-        <v>215</v>
-      </c>
-      <c r="G58" s="40"/>
+        <v>214</v>
+      </c>
+      <c r="G58" s="39"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
-      <c r="J58" s="41"/>
+      <c r="J58" s="40"/>
       <c r="K58" s="157">
         <v>840213</v>
       </c>
-      <c r="L58" s="86"/>
+      <c r="L58" s="84"/>
       <c r="M58" s="157">
         <v>800000</v>
       </c>
       <c r="N58" s="158"/>
       <c r="O58" s="11"/>
-      <c r="P58" s="41"/>
+      <c r="P58" s="40"/>
       <c r="Q58" s="159">
         <v>1.05026625</v>
       </c>
-      <c r="R58" s="86"/>
+      <c r="R58" s="84"/>
       <c r="S58" s="159">
         <v>0.146255697851096</v>
       </c>
@@ -9475,33 +9452,33 @@
         <v>-3</v>
       </c>
       <c r="C59" t="s" s="160">
-        <v>143</v>
-      </c>
-      <c r="D59" s="41"/>
+        <v>142</v>
+      </c>
+      <c r="D59" s="40"/>
       <c r="E59" t="s" s="156">
+        <v>209</v>
+      </c>
+      <c r="F59" t="s" s="156">
         <v>210</v>
       </c>
-      <c r="F59" t="s" s="156">
-        <v>211</v>
-      </c>
-      <c r="G59" s="40"/>
+      <c r="G59" s="39"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
-      <c r="J59" s="41"/>
+      <c r="J59" s="40"/>
       <c r="K59" s="157">
         <v>817035</v>
       </c>
-      <c r="L59" s="86"/>
+      <c r="L59" s="84"/>
       <c r="M59" s="157">
         <v>910000</v>
       </c>
       <c r="N59" s="158"/>
       <c r="O59" s="11"/>
-      <c r="P59" s="41"/>
+      <c r="P59" s="40"/>
       <c r="Q59" s="159">
         <v>0.897840659340659</v>
       </c>
-      <c r="R59" s="86"/>
+      <c r="R59" s="84"/>
       <c r="S59" s="159">
         <v>0.0145048865715667</v>
       </c>
@@ -9512,33 +9489,33 @@
         <v>-3</v>
       </c>
       <c r="C60" t="s" s="160">
-        <v>143</v>
-      </c>
-      <c r="D60" s="41"/>
+        <v>142</v>
+      </c>
+      <c r="D60" s="40"/>
       <c r="E60" t="s" s="156">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F60" t="s" s="156">
-        <v>212</v>
-      </c>
-      <c r="G60" s="40"/>
+        <v>211</v>
+      </c>
+      <c r="G60" s="39"/>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
-      <c r="J60" s="41"/>
+      <c r="J60" s="40"/>
       <c r="K60" s="157">
         <v>1214350</v>
       </c>
-      <c r="L60" s="86"/>
+      <c r="L60" s="84"/>
       <c r="M60" s="157">
         <v>1350000</v>
       </c>
       <c r="N60" s="158"/>
       <c r="O60" s="11"/>
-      <c r="P60" s="41"/>
+      <c r="P60" s="40"/>
       <c r="Q60" s="159">
         <v>0.8995185185185181</v>
       </c>
-      <c r="R60" s="86"/>
+      <c r="R60" s="84"/>
       <c r="S60" s="159">
         <v>-0.0576382426812698</v>
       </c>
@@ -9549,33 +9526,33 @@
         <v>-3</v>
       </c>
       <c r="C61" t="s" s="160">
-        <v>143</v>
-      </c>
-      <c r="D61" s="41"/>
+        <v>142</v>
+      </c>
+      <c r="D61" s="40"/>
       <c r="E61" t="s" s="156">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F61" t="s" s="156">
-        <v>213</v>
-      </c>
-      <c r="G61" s="40"/>
+        <v>212</v>
+      </c>
+      <c r="G61" s="39"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
-      <c r="J61" s="41"/>
+      <c r="J61" s="40"/>
       <c r="K61" s="157">
         <v>248727</v>
       </c>
-      <c r="L61" s="86"/>
+      <c r="L61" s="84"/>
       <c r="M61" s="157">
         <v>275000</v>
       </c>
       <c r="N61" s="158"/>
       <c r="O61" s="11"/>
-      <c r="P61" s="41"/>
+      <c r="P61" s="40"/>
       <c r="Q61" s="159">
         <v>0.904461818181818</v>
       </c>
-      <c r="R61" s="86"/>
+      <c r="R61" s="84"/>
       <c r="S61" s="159">
         <v>0.081824651123521</v>
       </c>
@@ -9586,33 +9563,33 @@
         <v>-3</v>
       </c>
       <c r="C62" t="s" s="160">
-        <v>143</v>
-      </c>
-      <c r="D62" s="41"/>
+        <v>142</v>
+      </c>
+      <c r="D62" s="40"/>
       <c r="E62" t="s" s="156">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F62" t="s" s="156">
-        <v>214</v>
-      </c>
-      <c r="G62" s="40"/>
+        <v>213</v>
+      </c>
+      <c r="G62" s="39"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
-      <c r="J62" s="41"/>
+      <c r="J62" s="40"/>
       <c r="K62" s="157">
         <v>281993</v>
       </c>
-      <c r="L62" s="86"/>
+      <c r="L62" s="84"/>
       <c r="M62" s="157">
         <v>300000</v>
       </c>
       <c r="N62" s="158"/>
       <c r="O62" s="11"/>
-      <c r="P62" s="41"/>
+      <c r="P62" s="40"/>
       <c r="Q62" s="159">
         <v>0.939976666666667</v>
       </c>
-      <c r="R62" s="86"/>
+      <c r="R62" s="84"/>
       <c r="S62" s="159">
         <v>-0.122570418414641</v>
       </c>
@@ -9623,33 +9600,33 @@
         <v>-3</v>
       </c>
       <c r="C63" t="s" s="160">
-        <v>143</v>
-      </c>
-      <c r="D63" s="41"/>
+        <v>142</v>
+      </c>
+      <c r="D63" s="40"/>
       <c r="E63" t="s" s="156">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F63" t="s" s="156">
-        <v>215</v>
-      </c>
-      <c r="G63" s="40"/>
+        <v>214</v>
+      </c>
+      <c r="G63" s="39"/>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
-      <c r="J63" s="41"/>
+      <c r="J63" s="40"/>
       <c r="K63" s="157">
         <v>626706</v>
       </c>
-      <c r="L63" s="86"/>
+      <c r="L63" s="84"/>
       <c r="M63" s="157">
         <v>730000</v>
       </c>
       <c r="N63" s="158"/>
       <c r="O63" s="11"/>
-      <c r="P63" s="41"/>
+      <c r="P63" s="40"/>
       <c r="Q63" s="159">
         <v>0.858501369863014</v>
       </c>
-      <c r="R63" s="86"/>
+      <c r="R63" s="84"/>
       <c r="S63" s="159">
         <v>-0.0376556152326609</v>
       </c>
@@ -9660,33 +9637,33 @@
         <v>-2</v>
       </c>
       <c r="C64" t="s" s="160">
-        <v>143</v>
-      </c>
-      <c r="D64" s="41"/>
+        <v>142</v>
+      </c>
+      <c r="D64" s="40"/>
       <c r="E64" t="s" s="156">
+        <v>209</v>
+      </c>
+      <c r="F64" t="s" s="156">
         <v>210</v>
       </c>
-      <c r="F64" t="s" s="156">
-        <v>211</v>
-      </c>
-      <c r="G64" s="40"/>
+      <c r="G64" s="39"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
-      <c r="J64" s="41"/>
+      <c r="J64" s="40"/>
       <c r="K64" s="157">
         <v>828886</v>
       </c>
-      <c r="L64" s="86"/>
+      <c r="L64" s="84"/>
       <c r="M64" s="157">
         <v>860000</v>
       </c>
       <c r="N64" s="158"/>
       <c r="O64" s="11"/>
-      <c r="P64" s="41"/>
+      <c r="P64" s="40"/>
       <c r="Q64" s="159">
         <v>0.963820930232558</v>
       </c>
-      <c r="R64" s="86"/>
+      <c r="R64" s="84"/>
       <c r="S64" s="159">
         <v>0.0145048865715667</v>
       </c>
@@ -9697,33 +9674,33 @@
         <v>-2</v>
       </c>
       <c r="C65" t="s" s="160">
-        <v>143</v>
-      </c>
-      <c r="D65" s="41"/>
+        <v>142</v>
+      </c>
+      <c r="D65" s="40"/>
       <c r="E65" t="s" s="156">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F65" t="s" s="156">
-        <v>212</v>
-      </c>
-      <c r="G65" s="40"/>
+        <v>211</v>
+      </c>
+      <c r="G65" s="39"/>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
-      <c r="J65" s="41"/>
+      <c r="J65" s="40"/>
       <c r="K65" s="157">
         <v>1144357</v>
       </c>
-      <c r="L65" s="86"/>
+      <c r="L65" s="84"/>
       <c r="M65" s="157">
         <v>1250000</v>
       </c>
       <c r="N65" s="158"/>
       <c r="O65" s="11"/>
-      <c r="P65" s="41"/>
+      <c r="P65" s="40"/>
       <c r="Q65" s="159">
         <v>0.9154856</v>
       </c>
-      <c r="R65" s="86"/>
+      <c r="R65" s="84"/>
       <c r="S65" s="159">
         <v>-0.0576382426812698</v>
       </c>
@@ -9734,33 +9711,33 @@
         <v>-2</v>
       </c>
       <c r="C66" t="s" s="160">
-        <v>143</v>
-      </c>
-      <c r="D66" s="41"/>
+        <v>142</v>
+      </c>
+      <c r="D66" s="40"/>
       <c r="E66" t="s" s="156">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F66" t="s" s="156">
-        <v>213</v>
-      </c>
-      <c r="G66" s="40"/>
+        <v>212</v>
+      </c>
+      <c r="G66" s="39"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
-      <c r="J66" s="41"/>
+      <c r="J66" s="40"/>
       <c r="K66" s="157">
         <v>269079</v>
       </c>
-      <c r="L66" s="86"/>
+      <c r="L66" s="84"/>
       <c r="M66" s="157">
         <v>275000</v>
       </c>
       <c r="N66" s="158"/>
       <c r="O66" s="11"/>
-      <c r="P66" s="41"/>
+      <c r="P66" s="40"/>
       <c r="Q66" s="159">
         <v>0.978469090909091</v>
       </c>
-      <c r="R66" s="86"/>
+      <c r="R66" s="84"/>
       <c r="S66" s="159">
         <v>0.081824651123521</v>
       </c>
@@ -9771,33 +9748,33 @@
         <v>-2</v>
       </c>
       <c r="C67" t="s" s="160">
-        <v>143</v>
-      </c>
-      <c r="D67" s="41"/>
+        <v>142</v>
+      </c>
+      <c r="D67" s="40"/>
       <c r="E67" t="s" s="156">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F67" t="s" s="156">
-        <v>214</v>
-      </c>
-      <c r="G67" s="40"/>
+        <v>213</v>
+      </c>
+      <c r="G67" s="39"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
-      <c r="J67" s="41"/>
+      <c r="J67" s="40"/>
       <c r="K67" s="157">
         <v>247429</v>
       </c>
-      <c r="L67" s="86"/>
+      <c r="L67" s="84"/>
       <c r="M67" s="157">
         <v>270000</v>
       </c>
       <c r="N67" s="158"/>
       <c r="O67" s="11"/>
-      <c r="P67" s="41"/>
+      <c r="P67" s="40"/>
       <c r="Q67" s="159">
         <v>0.9164037037037041</v>
       </c>
-      <c r="R67" s="86"/>
+      <c r="R67" s="84"/>
       <c r="S67" s="159">
         <v>-0.122570418414641</v>
       </c>
@@ -9808,33 +9785,33 @@
         <v>-2</v>
       </c>
       <c r="C68" t="s" s="160">
-        <v>143</v>
-      </c>
-      <c r="D68" s="41"/>
+        <v>142</v>
+      </c>
+      <c r="D68" s="40"/>
       <c r="E68" t="s" s="156">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F68" t="s" s="156">
-        <v>215</v>
-      </c>
-      <c r="G68" s="40"/>
+        <v>214</v>
+      </c>
+      <c r="G68" s="39"/>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
-      <c r="J68" s="41"/>
+      <c r="J68" s="40"/>
       <c r="K68" s="157">
         <v>603107</v>
       </c>
-      <c r="L68" s="86"/>
+      <c r="L68" s="84"/>
       <c r="M68" s="157">
         <v>630000</v>
       </c>
       <c r="N68" s="158"/>
       <c r="O68" s="11"/>
-      <c r="P68" s="41"/>
+      <c r="P68" s="40"/>
       <c r="Q68" s="159">
         <v>0.9573126984126979</v>
       </c>
-      <c r="R68" s="86"/>
+      <c r="R68" s="84"/>
       <c r="S68" s="159">
         <v>-0.0376556152326609</v>
       </c>
@@ -9845,33 +9822,33 @@
         <v>-1</v>
       </c>
       <c r="C69" t="s" s="160">
-        <v>143</v>
-      </c>
-      <c r="D69" s="41"/>
+        <v>142</v>
+      </c>
+      <c r="D69" s="40"/>
       <c r="E69" t="s" s="156">
+        <v>209</v>
+      </c>
+      <c r="F69" t="s" s="156">
         <v>210</v>
       </c>
-      <c r="F69" t="s" s="156">
-        <v>211</v>
-      </c>
-      <c r="G69" s="40"/>
+      <c r="G69" s="39"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
-      <c r="J69" s="41"/>
+      <c r="J69" s="40"/>
       <c r="K69" s="157">
         <v>871069</v>
       </c>
-      <c r="L69" s="86"/>
+      <c r="L69" s="84"/>
       <c r="M69" s="157">
         <v>840000</v>
       </c>
       <c r="N69" s="158"/>
       <c r="O69" s="11"/>
-      <c r="P69" s="41"/>
+      <c r="P69" s="40"/>
       <c r="Q69" s="159">
         <v>1.0369869047619</v>
       </c>
-      <c r="R69" s="86"/>
+      <c r="R69" s="84"/>
       <c r="S69" s="116">
         <v>0.0508911961355361</v>
       </c>
@@ -9882,33 +9859,33 @@
         <v>-1</v>
       </c>
       <c r="C70" t="s" s="160">
-        <v>143</v>
-      </c>
-      <c r="D70" s="41"/>
+        <v>142</v>
+      </c>
+      <c r="D70" s="40"/>
       <c r="E70" t="s" s="156">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F70" t="s" s="156">
-        <v>212</v>
-      </c>
-      <c r="G70" s="40"/>
+        <v>211</v>
+      </c>
+      <c r="G70" s="39"/>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
-      <c r="J70" s="41"/>
+      <c r="J70" s="40"/>
       <c r="K70" s="157">
         <v>1259704</v>
       </c>
-      <c r="L70" s="86"/>
+      <c r="L70" s="84"/>
       <c r="M70" s="157">
         <v>1250000</v>
       </c>
       <c r="N70" s="158"/>
       <c r="O70" s="11"/>
-      <c r="P70" s="41"/>
+      <c r="P70" s="40"/>
       <c r="Q70" s="159">
         <v>1.0077632</v>
       </c>
-      <c r="R70" s="86"/>
+      <c r="R70" s="84"/>
       <c r="S70" s="116">
         <v>0.100796342400143</v>
       </c>
@@ -9919,33 +9896,33 @@
         <v>-1</v>
       </c>
       <c r="C71" t="s" s="160">
-        <v>143</v>
-      </c>
-      <c r="D71" s="41"/>
+        <v>142</v>
+      </c>
+      <c r="D71" s="40"/>
       <c r="E71" t="s" s="156">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F71" t="s" s="156">
-        <v>213</v>
-      </c>
-      <c r="G71" s="40"/>
+        <v>212</v>
+      </c>
+      <c r="G71" s="39"/>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
-      <c r="J71" s="41"/>
+      <c r="J71" s="40"/>
       <c r="K71" s="157">
         <v>305298</v>
       </c>
-      <c r="L71" s="86"/>
+      <c r="L71" s="84"/>
       <c r="M71" s="157">
         <v>275000</v>
       </c>
       <c r="N71" s="158"/>
       <c r="O71" s="11"/>
-      <c r="P71" s="41"/>
+      <c r="P71" s="40"/>
       <c r="Q71" s="159">
         <v>1.11017454545455</v>
       </c>
-      <c r="R71" s="86"/>
+      <c r="R71" s="84"/>
       <c r="S71" s="116">
         <v>0.134603592253576</v>
       </c>
@@ -9956,33 +9933,33 @@
         <v>-1</v>
       </c>
       <c r="C72" t="s" s="160">
-        <v>143</v>
-      </c>
-      <c r="D72" s="41"/>
+        <v>142</v>
+      </c>
+      <c r="D72" s="40"/>
       <c r="E72" t="s" s="156">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F72" t="s" s="156">
-        <v>214</v>
-      </c>
-      <c r="G72" s="40"/>
+        <v>213</v>
+      </c>
+      <c r="G72" s="39"/>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
-      <c r="J72" s="41"/>
+      <c r="J72" s="40"/>
       <c r="K72" s="157">
         <v>310748</v>
       </c>
-      <c r="L72" s="86"/>
+      <c r="L72" s="84"/>
       <c r="M72" s="157">
         <v>300000</v>
       </c>
       <c r="N72" s="158"/>
       <c r="O72" s="11"/>
-      <c r="P72" s="41"/>
+      <c r="P72" s="40"/>
       <c r="Q72" s="159">
         <v>1.03582666666667</v>
       </c>
-      <c r="R72" s="86"/>
+      <c r="R72" s="84"/>
       <c r="S72" s="116">
         <v>0.255907755356082</v>
       </c>
@@ -9993,33 +9970,33 @@
         <v>-1</v>
       </c>
       <c r="C73" t="s" s="161">
-        <v>143</v>
-      </c>
-      <c r="D73" s="41"/>
+        <v>142</v>
+      </c>
+      <c r="D73" s="40"/>
       <c r="E73" t="s" s="156">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F73" t="s" s="156">
-        <v>215</v>
-      </c>
-      <c r="G73" s="40"/>
+        <v>214</v>
+      </c>
+      <c r="G73" s="39"/>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
-      <c r="J73" s="41"/>
+      <c r="J73" s="40"/>
       <c r="K73" s="157">
         <v>806400</v>
       </c>
-      <c r="L73" s="86"/>
+      <c r="L73" s="84"/>
       <c r="M73" s="157">
         <v>685000</v>
       </c>
       <c r="N73" s="158"/>
       <c r="O73" s="11"/>
-      <c r="P73" s="41"/>
+      <c r="P73" s="40"/>
       <c r="Q73" s="159">
         <v>1.17722627737226</v>
       </c>
-      <c r="R73" s="86"/>
+      <c r="R73" s="84"/>
       <c r="S73" s="116">
         <v>0.337076173879594</v>
       </c>
@@ -10030,31 +10007,31 @@
         <v>-4</v>
       </c>
       <c r="C74" t="s" s="162">
-        <v>141</v>
-      </c>
-      <c r="D74" s="86"/>
+        <v>140</v>
+      </c>
+      <c r="D74" s="84"/>
       <c r="E74" t="s" s="163">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F74" s="164"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
-      <c r="J74" s="41"/>
+      <c r="J74" s="40"/>
       <c r="K74" s="165">
         <v>4098598</v>
       </c>
-      <c r="L74" s="86"/>
+      <c r="L74" s="84"/>
       <c r="M74" s="165">
         <v>3980000</v>
       </c>
       <c r="N74" s="166"/>
       <c r="O74" s="11"/>
-      <c r="P74" s="41"/>
+      <c r="P74" s="40"/>
       <c r="Q74" s="167">
         <v>1.02979849246231</v>
       </c>
-      <c r="R74" s="86"/>
+      <c r="R74" s="84"/>
       <c r="S74" s="165">
         <v>0.132072104234243</v>
       </c>
@@ -10065,31 +10042,31 @@
         <v>-4</v>
       </c>
       <c r="C75" t="s" s="162">
-        <v>141</v>
-      </c>
-      <c r="D75" s="86"/>
+        <v>140</v>
+      </c>
+      <c r="D75" s="84"/>
       <c r="E75" t="s" s="163">
-        <v>217</v>
-      </c>
-      <c r="F75" s="40"/>
+        <v>216</v>
+      </c>
+      <c r="F75" s="39"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
-      <c r="J75" s="41"/>
+      <c r="J75" s="40"/>
       <c r="K75" s="165">
         <v>728487</v>
       </c>
-      <c r="L75" s="86"/>
+      <c r="L75" s="84"/>
       <c r="M75" s="165">
         <v>655000</v>
       </c>
       <c r="N75" s="166"/>
       <c r="O75" s="11"/>
-      <c r="P75" s="41"/>
+      <c r="P75" s="40"/>
       <c r="Q75" s="167">
         <v>1.11219389312977</v>
       </c>
-      <c r="R75" s="86"/>
+      <c r="R75" s="84"/>
       <c r="S75" s="165">
         <v>0.277815753907202</v>
       </c>
@@ -10100,31 +10077,31 @@
         <v>-4</v>
       </c>
       <c r="C76" t="s" s="162">
-        <v>141</v>
-      </c>
-      <c r="D76" s="86"/>
+        <v>140</v>
+      </c>
+      <c r="D76" s="84"/>
       <c r="E76" t="s" s="163">
-        <v>218</v>
-      </c>
-      <c r="F76" s="40"/>
+        <v>217</v>
+      </c>
+      <c r="F76" s="39"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
-      <c r="J76" s="41"/>
+      <c r="J76" s="40"/>
       <c r="K76" s="165">
         <v>2576862</v>
       </c>
-      <c r="L76" s="86"/>
+      <c r="L76" s="84"/>
       <c r="M76" s="165">
         <v>2610000</v>
       </c>
       <c r="N76" s="166"/>
       <c r="O76" s="11"/>
-      <c r="P76" s="41"/>
+      <c r="P76" s="40"/>
       <c r="Q76" s="167">
         <v>0.987303448275862</v>
       </c>
-      <c r="R76" s="86"/>
+      <c r="R76" s="84"/>
       <c r="S76" s="165">
         <v>0.09925064051998669</v>
       </c>
@@ -10135,31 +10112,31 @@
         <v>-3</v>
       </c>
       <c r="C77" t="s" s="162">
-        <v>141</v>
-      </c>
-      <c r="D77" s="86"/>
+        <v>140</v>
+      </c>
+      <c r="D77" s="84"/>
       <c r="E77" t="s" s="163">
-        <v>216</v>
-      </c>
-      <c r="F77" s="40"/>
+        <v>215</v>
+      </c>
+      <c r="F77" s="39"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
-      <c r="J77" s="41"/>
+      <c r="J77" s="40"/>
       <c r="K77" s="165">
         <v>3188812</v>
       </c>
-      <c r="L77" s="86"/>
+      <c r="L77" s="84"/>
       <c r="M77" s="165">
         <v>3565000</v>
       </c>
       <c r="N77" s="166"/>
       <c r="O77" s="11"/>
-      <c r="P77" s="41"/>
+      <c r="P77" s="40"/>
       <c r="Q77" s="167">
         <v>0.894477419354839</v>
       </c>
-      <c r="R77" s="86"/>
+      <c r="R77" s="84"/>
       <c r="S77" s="165">
         <v>-0.221974928987912</v>
       </c>
@@ -10170,31 +10147,31 @@
         <v>-3</v>
       </c>
       <c r="C78" t="s" s="162">
-        <v>141</v>
-      </c>
-      <c r="D78" s="86"/>
+        <v>140</v>
+      </c>
+      <c r="D78" s="84"/>
       <c r="E78" t="s" s="163">
-        <v>217</v>
-      </c>
-      <c r="F78" s="40"/>
+        <v>216</v>
+      </c>
+      <c r="F78" s="39"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
-      <c r="J78" s="41"/>
+      <c r="J78" s="40"/>
       <c r="K78" s="165">
         <v>560064</v>
       </c>
-      <c r="L78" s="86"/>
+      <c r="L78" s="84"/>
       <c r="M78" s="165">
         <v>615000</v>
       </c>
       <c r="N78" s="166"/>
       <c r="O78" s="11"/>
-      <c r="P78" s="41"/>
+      <c r="P78" s="40"/>
       <c r="Q78" s="167">
         <v>0.9106731707317069</v>
       </c>
-      <c r="R78" s="86"/>
+      <c r="R78" s="84"/>
       <c r="S78" s="165">
         <v>-0.23119561502127</v>
       </c>
@@ -10205,31 +10182,31 @@
         <v>-3</v>
       </c>
       <c r="C79" t="s" s="162">
-        <v>141</v>
-      </c>
-      <c r="D79" s="86"/>
+        <v>140</v>
+      </c>
+      <c r="D79" s="84"/>
       <c r="E79" t="s" s="163">
-        <v>218</v>
-      </c>
-      <c r="F79" s="40"/>
+        <v>217</v>
+      </c>
+      <c r="F79" s="39"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
-      <c r="J79" s="41"/>
+      <c r="J79" s="40"/>
       <c r="K79" s="165">
         <v>2293022</v>
       </c>
-      <c r="L79" s="86"/>
+      <c r="L79" s="84"/>
       <c r="M79" s="165">
         <v>2365000</v>
       </c>
       <c r="N79" s="166"/>
       <c r="O79" s="11"/>
-      <c r="P79" s="41"/>
+      <c r="P79" s="40"/>
       <c r="Q79" s="167">
         <v>0.96956532769556</v>
       </c>
-      <c r="R79" s="86"/>
+      <c r="R79" s="84"/>
       <c r="S79" s="165">
         <v>-0.110149476378634</v>
       </c>
@@ -10240,31 +10217,31 @@
         <v>-2</v>
       </c>
       <c r="C80" t="s" s="162">
-        <v>141</v>
-      </c>
-      <c r="D80" s="86"/>
+        <v>140</v>
+      </c>
+      <c r="D80" s="84"/>
       <c r="E80" t="s" s="163">
-        <v>216</v>
-      </c>
-      <c r="F80" s="40"/>
+        <v>215</v>
+      </c>
+      <c r="F80" s="39"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
-      <c r="J80" s="41"/>
+      <c r="J80" s="40"/>
       <c r="K80" s="165">
         <v>3092857</v>
       </c>
-      <c r="L80" s="86"/>
+      <c r="L80" s="84"/>
       <c r="M80" s="165">
         <v>3285000</v>
       </c>
       <c r="N80" s="166"/>
       <c r="O80" s="11"/>
-      <c r="P80" s="41"/>
+      <c r="P80" s="40"/>
       <c r="Q80" s="167">
         <v>0.94150898021309</v>
       </c>
-      <c r="R80" s="86"/>
+      <c r="R80" s="84"/>
       <c r="S80" s="165">
         <v>-0.0300911436610248</v>
       </c>
@@ -10275,31 +10252,31 @@
         <v>-2</v>
       </c>
       <c r="C81" t="s" s="162">
-        <v>141</v>
-      </c>
-      <c r="D81" s="86"/>
+        <v>140</v>
+      </c>
+      <c r="D81" s="84"/>
       <c r="E81" t="s" s="163">
-        <v>217</v>
-      </c>
-      <c r="F81" s="40"/>
+        <v>216</v>
+      </c>
+      <c r="F81" s="39"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
-      <c r="J81" s="41"/>
+      <c r="J81" s="40"/>
       <c r="K81" s="165">
         <v>792494</v>
       </c>
-      <c r="L81" s="86"/>
+      <c r="L81" s="84"/>
       <c r="M81" s="165">
         <v>615000</v>
       </c>
       <c r="N81" s="166"/>
       <c r="O81" s="11"/>
-      <c r="P81" s="41"/>
+      <c r="P81" s="40"/>
       <c r="Q81" s="167">
         <v>1.2886081300813</v>
       </c>
-      <c r="R81" s="86"/>
+      <c r="R81" s="84"/>
       <c r="S81" s="165">
         <v>0.415006142155182</v>
       </c>
@@ -10310,31 +10287,31 @@
         <v>-2</v>
       </c>
       <c r="C82" t="s" s="162">
-        <v>141</v>
-      </c>
-      <c r="D82" s="86"/>
+        <v>140</v>
+      </c>
+      <c r="D82" s="84"/>
       <c r="E82" t="s" s="163">
-        <v>218</v>
-      </c>
-      <c r="F82" s="40"/>
+        <v>217</v>
+      </c>
+      <c r="F82" s="39"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
-      <c r="J82" s="41"/>
+      <c r="J82" s="40"/>
       <c r="K82" s="165">
         <v>2263056</v>
       </c>
-      <c r="L82" s="86"/>
+      <c r="L82" s="84"/>
       <c r="M82" s="165">
         <v>2345000</v>
       </c>
       <c r="N82" s="166"/>
       <c r="O82" s="11"/>
-      <c r="P82" s="41"/>
+      <c r="P82" s="40"/>
       <c r="Q82" s="167">
         <v>0.9650558635394459</v>
       </c>
-      <c r="R82" s="86"/>
+      <c r="R82" s="84"/>
       <c r="S82" s="165">
         <v>-0.0130683438711011</v>
       </c>
@@ -10345,31 +10322,31 @@
         <v>-1</v>
       </c>
       <c r="C83" t="s" s="162">
-        <v>141</v>
-      </c>
-      <c r="D83" s="86"/>
+        <v>140</v>
+      </c>
+      <c r="D83" s="84"/>
       <c r="E83" t="s" s="163">
-        <v>216</v>
-      </c>
-      <c r="F83" s="40"/>
+        <v>215</v>
+      </c>
+      <c r="F83" s="39"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
-      <c r="J83" s="41"/>
+      <c r="J83" s="40"/>
       <c r="K83" s="165">
         <v>3553219</v>
       </c>
-      <c r="L83" s="86"/>
+      <c r="L83" s="84"/>
       <c r="M83" s="165">
         <v>3350000</v>
       </c>
       <c r="N83" s="166"/>
       <c r="O83" s="11"/>
-      <c r="P83" s="41"/>
+      <c r="P83" s="40"/>
       <c r="Q83" s="167">
         <v>1.0606623880597</v>
       </c>
-      <c r="R83" s="86"/>
+      <c r="R83" s="84"/>
       <c r="S83" s="165">
         <v>0.148846842902856</v>
       </c>
@@ -10380,31 +10357,31 @@
         <v>-1</v>
       </c>
       <c r="C84" t="s" s="162">
-        <v>141</v>
-      </c>
-      <c r="D84" s="86"/>
+        <v>140</v>
+      </c>
+      <c r="D84" s="84"/>
       <c r="E84" t="s" s="163">
-        <v>217</v>
-      </c>
-      <c r="F84" s="40"/>
+        <v>216</v>
+      </c>
+      <c r="F84" s="39"/>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
-      <c r="J84" s="41"/>
+      <c r="J84" s="40"/>
       <c r="K84" s="165">
         <v>2475498</v>
       </c>
-      <c r="L84" s="86"/>
+      <c r="L84" s="84"/>
       <c r="M84" s="165">
         <v>2035000</v>
       </c>
       <c r="N84" s="166"/>
       <c r="O84" s="11"/>
-      <c r="P84" s="41"/>
+      <c r="P84" s="40"/>
       <c r="Q84" s="167">
         <v>1.21646093366093</v>
       </c>
-      <c r="R84" s="86"/>
+      <c r="R84" s="84"/>
       <c r="S84" s="165">
         <v>2.12368043164996</v>
       </c>
@@ -10415,16 +10392,16 @@
         <v>-1</v>
       </c>
       <c r="C85" t="s" s="162">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D85" s="169"/>
       <c r="E85" t="s" s="163">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F85" s="170"/>
-      <c r="G85" s="72"/>
-      <c r="H85" s="72"/>
-      <c r="I85" s="72"/>
+      <c r="G85" s="70"/>
+      <c r="H85" s="70"/>
+      <c r="I85" s="70"/>
       <c r="J85" s="171"/>
       <c r="K85" s="165">
         <v>860533</v>
@@ -10434,7 +10411,7 @@
         <v>1135000</v>
       </c>
       <c r="N85" s="172"/>
-      <c r="O85" s="72"/>
+      <c r="O85" s="70"/>
       <c r="P85" s="171"/>
       <c r="Q85" s="167">
         <v>0.758178854625551</v>
@@ -10479,73 +10456,73 @@
         <v>23</v>
       </c>
       <c r="C1" t="s" s="27">
+        <v>218</v>
+      </c>
+      <c r="D1" t="s" s="27">
         <v>219</v>
-      </c>
-      <c r="D1" t="s" s="27">
-        <v>220</v>
       </c>
     </row>
     <row r="2" ht="36" customHeight="1">
       <c r="A2" t="s" s="174">
+        <v>220</v>
+      </c>
+      <c r="B2" t="s" s="175">
         <v>221</v>
       </c>
-      <c r="B2" t="s" s="175">
+      <c r="C2" s="102">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="175">
         <v>222</v>
       </c>
-      <c r="C2" s="39">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="175">
-        <v>223</v>
-      </c>
     </row>
     <row r="3" ht="20.1" customHeight="1">
-      <c r="A3" s="110"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="A3" s="107"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
     </row>
     <row r="4" ht="20.1" customHeight="1">
-      <c r="A4" s="110"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
     </row>
     <row r="5" ht="20.1" customHeight="1">
-      <c r="A5" s="110"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
     </row>
     <row r="6" ht="20.1" customHeight="1">
-      <c r="A6" s="110"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="A6" s="107"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
     </row>
     <row r="7" ht="20.1" customHeight="1">
-      <c r="A7" s="110"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
     </row>
     <row r="8" ht="20.1" customHeight="1">
-      <c r="A8" s="110"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
     </row>
     <row r="9" ht="20.1" customHeight="1">
-      <c r="A9" s="110"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
     </row>
     <row r="10" ht="20.1" customHeight="1">
-      <c r="A10" s="110"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -10579,24 +10556,24 @@
         <v>29</v>
       </c>
       <c r="C1" t="s" s="27">
+        <v>223</v>
+      </c>
+      <c r="D1" t="s" s="27">
         <v>224</v>
       </c>
-      <c r="D1" t="s" s="27">
+      <c r="E1" t="s" s="27">
         <v>225</v>
       </c>
-      <c r="E1" t="s" s="27">
+      <c r="F1" t="s" s="27">
         <v>226</v>
-      </c>
-      <c r="F1" t="s" s="27">
-        <v>227</v>
       </c>
     </row>
     <row r="2" ht="14.65" customHeight="1">
       <c r="A2" t="s" s="177">
+        <v>227</v>
+      </c>
+      <c r="B2" t="s" s="178">
         <v>228</v>
-      </c>
-      <c r="B2" t="s" s="178">
-        <v>229</v>
       </c>
       <c r="C2" s="179"/>
       <c r="D2" s="179"/>
@@ -10605,10 +10582,10 @@
     </row>
     <row r="3" ht="14.65" customHeight="1">
       <c r="A3" t="s" s="177">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s" s="180">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C3" s="181"/>
       <c r="D3" s="181"/>
@@ -10617,10 +10594,10 @@
     </row>
     <row r="4" ht="14.65" customHeight="1">
       <c r="A4" t="s" s="178">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B4" t="s" s="180">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C4" s="181"/>
       <c r="D4" s="181"/>
@@ -10629,110 +10606,110 @@
     </row>
     <row r="5" ht="50.65" customHeight="1">
       <c r="A5" t="s" s="180">
+        <v>231</v>
+      </c>
+      <c r="B5" t="s" s="180">
         <v>232</v>
       </c>
-      <c r="B5" t="s" s="180">
+      <c r="C5" t="s" s="183">
         <v>233</v>
-      </c>
-      <c r="C5" t="s" s="183">
-        <v>234</v>
       </c>
       <c r="D5" s="184"/>
       <c r="E5" t="s" s="185">
+        <v>234</v>
+      </c>
+      <c r="F5" t="s" s="186">
         <v>235</v>
-      </c>
-      <c r="F5" t="s" s="186">
-        <v>236</v>
       </c>
     </row>
     <row r="6" ht="50.65" customHeight="1">
       <c r="A6" t="s" s="180">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B6" t="s" s="180">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C6" t="s" s="183">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="184"/>
       <c r="E6" t="s" s="185">
+        <v>237</v>
+      </c>
+      <c r="F6" t="s" s="186">
         <v>238</v>
-      </c>
-      <c r="F6" t="s" s="186">
-        <v>239</v>
       </c>
     </row>
     <row r="7" ht="50.65" customHeight="1">
       <c r="A7" t="s" s="180">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s" s="180">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C7" t="s" s="183">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D7" s="184"/>
       <c r="E7" t="s" s="185">
+        <v>240</v>
+      </c>
+      <c r="F7" t="s" s="186">
         <v>241</v>
-      </c>
-      <c r="F7" t="s" s="186">
-        <v>242</v>
       </c>
     </row>
     <row r="8" ht="50.65" customHeight="1">
       <c r="A8" t="s" s="180">
+        <v>242</v>
+      </c>
+      <c r="B8" t="s" s="180">
+        <v>232</v>
+      </c>
+      <c r="C8" t="s" s="183">
         <v>243</v>
-      </c>
-      <c r="B8" t="s" s="180">
-        <v>233</v>
-      </c>
-      <c r="C8" t="s" s="183">
-        <v>244</v>
       </c>
       <c r="D8" s="184"/>
       <c r="E8" t="s" s="185">
+        <v>244</v>
+      </c>
+      <c r="F8" t="s" s="187">
         <v>245</v>
-      </c>
-      <c r="F8" t="s" s="187">
-        <v>246</v>
       </c>
     </row>
     <row r="9" ht="50.65" customHeight="1">
       <c r="A9" t="s" s="180">
+        <v>242</v>
+      </c>
+      <c r="B9" t="s" s="180">
+        <v>236</v>
+      </c>
+      <c r="C9" t="s" s="183">
         <v>243</v>
-      </c>
-      <c r="B9" t="s" s="180">
-        <v>237</v>
-      </c>
-      <c r="C9" t="s" s="183">
-        <v>244</v>
       </c>
       <c r="D9" s="184"/>
       <c r="E9" t="s" s="185">
+        <v>246</v>
+      </c>
+      <c r="F9" t="s" s="188">
         <v>247</v>
-      </c>
-      <c r="F9" t="s" s="188">
-        <v>248</v>
       </c>
     </row>
     <row r="10" ht="50.65" customHeight="1">
       <c r="A10" t="s" s="180">
+        <v>242</v>
+      </c>
+      <c r="B10" t="s" s="180">
+        <v>239</v>
+      </c>
+      <c r="C10" t="s" s="183">
         <v>243</v>
-      </c>
-      <c r="B10" t="s" s="180">
-        <v>240</v>
-      </c>
-      <c r="C10" t="s" s="183">
-        <v>244</v>
       </c>
       <c r="D10" s="184"/>
       <c r="E10" t="s" s="185">
+        <v>248</v>
+      </c>
+      <c r="F10" t="s" s="188">
         <v>249</v>
-      </c>
-      <c r="F10" t="s" s="188">
-        <v>250</v>
       </c>
     </row>
     <row r="11" ht="38.65" customHeight="1">
@@ -10740,17 +10717,17 @@
         <v>12</v>
       </c>
       <c r="B11" t="s" s="180">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C11" t="s" s="183">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D11" s="184"/>
       <c r="E11" t="s" s="185">
+        <v>251</v>
+      </c>
+      <c r="F11" t="s" s="188">
         <v>252</v>
-      </c>
-      <c r="F11" t="s" s="188">
-        <v>253</v>
       </c>
     </row>
     <row r="12" ht="38.65" customHeight="1">
@@ -10758,17 +10735,17 @@
         <v>12</v>
       </c>
       <c r="B12" t="s" s="180">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C12" t="s" s="183">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D12" s="184"/>
       <c r="E12" t="s" s="185">
+        <v>253</v>
+      </c>
+      <c r="F12" t="s" s="188">
         <v>254</v>
-      </c>
-      <c r="F12" t="s" s="188">
-        <v>255</v>
       </c>
     </row>
     <row r="13" ht="38.65" customHeight="1">
@@ -10776,125 +10753,125 @@
         <v>12</v>
       </c>
       <c r="B13" t="s" s="180">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C13" t="s" s="183">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D13" s="184"/>
       <c r="E13" t="s" s="185">
+        <v>255</v>
+      </c>
+      <c r="F13" t="s" s="188">
         <v>256</v>
-      </c>
-      <c r="F13" t="s" s="188">
-        <v>257</v>
       </c>
     </row>
     <row r="14" ht="38.65" customHeight="1">
       <c r="A14" t="s" s="180">
+        <v>257</v>
+      </c>
+      <c r="B14" t="s" s="180">
+        <v>232</v>
+      </c>
+      <c r="C14" t="s" s="183">
         <v>258</v>
-      </c>
-      <c r="B14" t="s" s="180">
-        <v>233</v>
-      </c>
-      <c r="C14" t="s" s="183">
-        <v>259</v>
       </c>
       <c r="D14" s="184"/>
       <c r="E14" t="s" s="185">
+        <v>259</v>
+      </c>
+      <c r="F14" t="s" s="188">
         <v>260</v>
-      </c>
-      <c r="F14" t="s" s="188">
-        <v>261</v>
       </c>
     </row>
     <row r="15" ht="38.65" customHeight="1">
       <c r="A15" t="s" s="180">
+        <v>257</v>
+      </c>
+      <c r="B15" t="s" s="180">
+        <v>236</v>
+      </c>
+      <c r="C15" t="s" s="183">
         <v>258</v>
-      </c>
-      <c r="B15" t="s" s="180">
-        <v>237</v>
-      </c>
-      <c r="C15" t="s" s="183">
-        <v>259</v>
       </c>
       <c r="D15" s="184"/>
       <c r="E15" t="s" s="185">
+        <v>261</v>
+      </c>
+      <c r="F15" t="s" s="188">
         <v>262</v>
-      </c>
-      <c r="F15" t="s" s="188">
-        <v>263</v>
       </c>
     </row>
     <row r="16" ht="38.65" customHeight="1">
       <c r="A16" t="s" s="180">
+        <v>257</v>
+      </c>
+      <c r="B16" t="s" s="180">
+        <v>239</v>
+      </c>
+      <c r="C16" t="s" s="183">
         <v>258</v>
-      </c>
-      <c r="B16" t="s" s="180">
-        <v>240</v>
-      </c>
-      <c r="C16" t="s" s="183">
-        <v>259</v>
       </c>
       <c r="D16" s="184"/>
       <c r="E16" t="s" s="185">
+        <v>263</v>
+      </c>
+      <c r="F16" t="s" s="188">
         <v>264</v>
-      </c>
-      <c r="F16" t="s" s="188">
-        <v>265</v>
       </c>
     </row>
     <row r="17" ht="50.65" customHeight="1">
       <c r="A17" t="s" s="180">
+        <v>265</v>
+      </c>
+      <c r="B17" t="s" s="180">
+        <v>232</v>
+      </c>
+      <c r="C17" t="s" s="183">
         <v>266</v>
-      </c>
-      <c r="B17" t="s" s="180">
-        <v>233</v>
-      </c>
-      <c r="C17" t="s" s="183">
-        <v>267</v>
       </c>
       <c r="D17" s="184"/>
       <c r="E17" t="s" s="185">
+        <v>267</v>
+      </c>
+      <c r="F17" t="s" s="188">
         <v>268</v>
-      </c>
-      <c r="F17" t="s" s="188">
-        <v>269</v>
       </c>
     </row>
     <row r="18" ht="50.65" customHeight="1">
       <c r="A18" t="s" s="180">
+        <v>265</v>
+      </c>
+      <c r="B18" t="s" s="180">
+        <v>236</v>
+      </c>
+      <c r="C18" t="s" s="183">
         <v>266</v>
-      </c>
-      <c r="B18" t="s" s="180">
-        <v>237</v>
-      </c>
-      <c r="C18" t="s" s="183">
-        <v>267</v>
       </c>
       <c r="D18" s="184"/>
       <c r="E18" t="s" s="185">
+        <v>269</v>
+      </c>
+      <c r="F18" t="s" s="188">
         <v>270</v>
-      </c>
-      <c r="F18" t="s" s="188">
-        <v>271</v>
       </c>
     </row>
     <row r="19" ht="50.65" customHeight="1">
       <c r="A19" t="s" s="180">
+        <v>265</v>
+      </c>
+      <c r="B19" t="s" s="180">
+        <v>239</v>
+      </c>
+      <c r="C19" t="s" s="183">
         <v>266</v>
-      </c>
-      <c r="B19" t="s" s="180">
-        <v>240</v>
-      </c>
-      <c r="C19" t="s" s="183">
-        <v>267</v>
       </c>
       <c r="D19" s="184"/>
       <c r="E19" t="s" s="185">
+        <v>271</v>
+      </c>
+      <c r="F19" t="s" s="188">
         <v>272</v>
-      </c>
-      <c r="F19" t="s" s="188">
-        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/tm.xlsx
+++ b/test/data/tm.xlsx
@@ -68,6 +68,20 @@
     </r>
   </si>
   <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Resource</t>
+    </r>
+  </si>
+  <si>
     <t>Requirement</t>
   </si>
   <si>
@@ -79,20 +93,6 @@
         <rFont val="Helvetica Neue"/>
       </rPr>
       <t>Requirement</t>
-    </r>
-  </si>
-  <si>
-    <t>Resource</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="11"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>Resource</t>
     </r>
   </si>
   <si>
@@ -1422,7 +1422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="87">
+  <borders count="91">
     <border>
       <left/>
       <right/>
@@ -2109,6 +2109,19 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="13"/>
       </left>
       <right style="thin">
@@ -2414,6 +2427,43 @@
       <left/>
       <right style="thin">
         <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -2532,7 +2582,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2884,16 +2934,25 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="56" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="57" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="7" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2908,7 +2967,7 @@
     <xf numFmtId="49" fontId="11" fillId="8" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2929,52 +2988,49 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="58" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="59" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="61" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="62" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="63" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="59" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="63" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="65" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="68" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="69" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="70" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2983,22 +3039,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="71" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="59" fontId="0" fillId="9" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="72" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="73" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="73" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="74" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="74" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="75" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -3016,7 +3075,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="73" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -3025,7 +3084,7 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="75" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="76" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -3037,9 +3096,6 @@
     <xf numFmtId="9" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="76" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="77" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3049,43 +3105,55 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="79" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="78" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="80" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="79" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="81" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="82" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="83" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="80" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="84" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="85" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="81" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="82" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="86" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="83" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="87" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="84" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="88" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -3094,10 +3162,10 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="85" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="90" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4341,7 +4409,7 @@
     <row r="15" ht="13" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" t="s" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4354,14 +4422,14 @@
         <v>5</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16" s="12"/>
     </row>
     <row r="17" ht="13" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" t="s" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -4374,7 +4442,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="s" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E18" s="12"/>
     </row>
@@ -4468,8 +4536,8 @@
     <hyperlink ref="D10" location="'Hospital'!R1C1" tooltip="" display="Hospital"/>
     <hyperlink ref="D12" location="'Hospital'!R1C1" tooltip="" display="Hospital"/>
     <hyperlink ref="D14" location="'Product'!R1C1" tooltip="" display="Product"/>
-    <hyperlink ref="D16" location="'Requirement'!R1C1" tooltip="" display="Requirement"/>
-    <hyperlink ref="D18" location="'Resource'!R1C1" tooltip="" display="Resource"/>
+    <hyperlink ref="D16" location="'Resource'!R1C1" tooltip="" display="Resource"/>
+    <hyperlink ref="D18" location="'Requirement'!R1C1" tooltip="" display="Requirement"/>
     <hyperlink ref="D20" location="'Preset'!R1C1" tooltip="" display="Preset"/>
     <hyperlink ref="D22" location="'Report '!R1C1" tooltip="" display="Report "/>
     <hyperlink ref="D24" location="'Proposal'!R1C1" tooltip="" display="Proposal"/>
@@ -6191,7 +6259,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -6295,8 +6363,8 @@
       <c r="H2" s="112">
         <v>10560000</v>
       </c>
-      <c r="I2" s="112">
-        <v>0</v>
+      <c r="I2" s="117">
+        <v>0.27</v>
       </c>
       <c r="J2" s="112">
         <v>0</v>
@@ -6328,7 +6396,7 @@
       <c r="S2" s="112">
         <v>0</v>
       </c>
-      <c r="T2" s="117">
+      <c r="T2" s="118">
         <v>1</v>
       </c>
     </row>
@@ -6355,8 +6423,8 @@
       <c r="H3" s="112">
         <v>3700000</v>
       </c>
-      <c r="I3" s="112">
-        <v>0</v>
+      <c r="I3" s="119">
+        <v>0.24</v>
       </c>
       <c r="J3" s="112">
         <v>0</v>
@@ -6388,7 +6456,7 @@
       <c r="S3" s="112">
         <v>0</v>
       </c>
-      <c r="T3" s="117">
+      <c r="T3" s="118">
         <v>1</v>
       </c>
     </row>
@@ -6415,8 +6483,8 @@
       <c r="H4" s="112">
         <v>13041600</v>
       </c>
-      <c r="I4" s="112">
-        <v>0</v>
+      <c r="I4" s="119">
+        <v>0.26</v>
       </c>
       <c r="J4" s="112">
         <v>0</v>
@@ -6448,7 +6516,7 @@
       <c r="S4" s="112">
         <v>0</v>
       </c>
-      <c r="T4" s="117">
+      <c r="T4" s="118">
         <v>1</v>
       </c>
     </row>
@@ -6475,8 +6543,8 @@
       <c r="H5" s="112">
         <v>6200000</v>
       </c>
-      <c r="I5" s="112">
-        <v>0</v>
+      <c r="I5" s="119">
+        <v>0.26</v>
       </c>
       <c r="J5" s="112">
         <v>0</v>
@@ -6508,7 +6576,7 @@
       <c r="S5" s="112">
         <v>0</v>
       </c>
-      <c r="T5" s="117">
+      <c r="T5" s="118">
         <v>1</v>
       </c>
     </row>
@@ -6535,8 +6603,8 @@
       <c r="H6" s="112">
         <v>1400000</v>
       </c>
-      <c r="I6" s="112">
-        <v>0</v>
+      <c r="I6" s="119">
+        <v>0.26</v>
       </c>
       <c r="J6" s="112">
         <v>0</v>
@@ -6568,7 +6636,7 @@
       <c r="S6" s="112">
         <v>0</v>
       </c>
-      <c r="T6" s="117">
+      <c r="T6" s="118">
         <v>1</v>
       </c>
     </row>
@@ -6595,8 +6663,8 @@
       <c r="H7" s="112">
         <v>4067200</v>
       </c>
-      <c r="I7" s="112">
-        <v>0</v>
+      <c r="I7" s="119">
+        <v>0.27</v>
       </c>
       <c r="J7" s="112">
         <v>0</v>
@@ -6628,7 +6696,7 @@
       <c r="S7" s="112">
         <v>0</v>
       </c>
-      <c r="T7" s="117">
+      <c r="T7" s="118">
         <v>1</v>
       </c>
     </row>
@@ -6655,8 +6723,8 @@
       <c r="H8" s="112">
         <v>1419200</v>
       </c>
-      <c r="I8" s="112">
-        <v>0</v>
+      <c r="I8" s="119">
+        <v>0.25</v>
       </c>
       <c r="J8" s="112">
         <v>0</v>
@@ -6688,7 +6756,7 @@
       <c r="S8" s="112">
         <v>0</v>
       </c>
-      <c r="T8" s="117">
+      <c r="T8" s="118">
         <v>1</v>
       </c>
     </row>
@@ -6715,8 +6783,8 @@
       <c r="H9" s="112">
         <v>1014300</v>
       </c>
-      <c r="I9" s="112">
-        <v>0</v>
+      <c r="I9" s="119">
+        <v>0.11</v>
       </c>
       <c r="J9" s="112">
         <v>0</v>
@@ -6748,7 +6816,7 @@
       <c r="S9" s="112">
         <v>0</v>
       </c>
-      <c r="T9" s="117">
+      <c r="T9" s="118">
         <v>1</v>
       </c>
     </row>
@@ -6775,8 +6843,8 @@
       <c r="H10" s="112">
         <v>628320</v>
       </c>
-      <c r="I10" s="112">
-        <v>0</v>
+      <c r="I10" s="119">
+        <v>0.23</v>
       </c>
       <c r="J10" s="112">
         <v>0</v>
@@ -6808,7 +6876,7 @@
       <c r="S10" s="112">
         <v>0</v>
       </c>
-      <c r="T10" s="117">
+      <c r="T10" s="118">
         <v>1</v>
       </c>
     </row>
@@ -6835,8 +6903,8 @@
       <c r="H11" s="112">
         <v>12234288</v>
       </c>
-      <c r="I11" s="112">
-        <v>0</v>
+      <c r="I11" s="120">
+        <v>0.27</v>
       </c>
       <c r="J11" s="112">
         <v>0</v>
@@ -6868,7 +6936,7 @@
       <c r="S11" s="112">
         <v>0</v>
       </c>
-      <c r="T11" s="117">
+      <c r="T11" s="118">
         <v>1</v>
       </c>
     </row>
@@ -7216,8 +7284,108 @@
       <c r="S17" s="112">
         <v>0</v>
       </c>
-      <c r="T17" s="117">
+      <c r="T17" s="118">
         <v>4</v>
+      </c>
+    </row>
+    <row r="18" ht="19.9" customHeight="1">
+      <c r="A18" s="112">
+        <v>-1</v>
+      </c>
+      <c r="B18" t="s" s="72">
+        <v>96</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="112">
+        <v>0.18</v>
+      </c>
+      <c r="J18" s="112">
+        <v>0</v>
+      </c>
+      <c r="K18" s="112">
+        <v>0</v>
+      </c>
+      <c r="L18" s="112">
+        <v>0</v>
+      </c>
+      <c r="M18" s="112">
+        <v>0</v>
+      </c>
+      <c r="N18" s="112">
+        <v>0</v>
+      </c>
+      <c r="O18" s="112">
+        <v>0</v>
+      </c>
+      <c r="P18" s="112">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="112">
+        <v>0</v>
+      </c>
+      <c r="R18" s="112">
+        <v>0</v>
+      </c>
+      <c r="S18" s="112">
+        <v>0</v>
+      </c>
+      <c r="T18" s="118">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="19.9" customHeight="1">
+      <c r="A19" s="112">
+        <v>-1</v>
+      </c>
+      <c r="B19" t="s" s="72">
+        <v>100</v>
+      </c>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="112">
+        <v>0.06</v>
+      </c>
+      <c r="J19" s="112">
+        <v>0</v>
+      </c>
+      <c r="K19" s="112">
+        <v>0</v>
+      </c>
+      <c r="L19" s="112">
+        <v>0</v>
+      </c>
+      <c r="M19" s="112">
+        <v>0</v>
+      </c>
+      <c r="N19" s="112">
+        <v>0</v>
+      </c>
+      <c r="O19" s="112">
+        <v>0</v>
+      </c>
+      <c r="P19" s="112">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="112">
+        <v>0</v>
+      </c>
+      <c r="R19" s="112">
+        <v>0</v>
+      </c>
+      <c r="S19" s="112">
+        <v>0</v>
+      </c>
+      <c r="T19" s="118">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -7237,98 +7405,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="9.17188" style="118" customWidth="1"/>
-    <col min="3" max="7" width="13.5" style="118" customWidth="1"/>
-    <col min="8" max="8" width="13.6719" style="118" customWidth="1"/>
-    <col min="9" max="10" width="17.5" style="118" customWidth="1"/>
-    <col min="11" max="12" width="20.5" style="118" customWidth="1"/>
-    <col min="13" max="15" width="17.8516" style="118" customWidth="1"/>
-    <col min="16" max="16" width="19.1719" style="118" customWidth="1"/>
-    <col min="17" max="17" width="14.5" style="118" customWidth="1"/>
-    <col min="18" max="18" width="20.1719" style="118" customWidth="1"/>
-    <col min="19" max="19" width="17.6719" style="118" customWidth="1"/>
-    <col min="20" max="256" width="8.85156" style="118" customWidth="1"/>
+    <col min="1" max="2" width="9.17188" style="121" customWidth="1"/>
+    <col min="3" max="7" width="13.5" style="121" customWidth="1"/>
+    <col min="8" max="8" width="13.6719" style="121" customWidth="1"/>
+    <col min="9" max="10" width="17.5" style="121" customWidth="1"/>
+    <col min="11" max="12" width="20.5" style="121" customWidth="1"/>
+    <col min="13" max="15" width="17.8516" style="121" customWidth="1"/>
+    <col min="16" max="16" width="19.1719" style="121" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="121" customWidth="1"/>
+    <col min="18" max="18" width="20.1719" style="121" customWidth="1"/>
+    <col min="19" max="19" width="17.6719" style="121" customWidth="1"/>
+    <col min="20" max="256" width="8.85156" style="121" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="119">
+      <c r="A1" t="s" s="122">
         <v>168</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="120"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
     </row>
     <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" t="s" s="121">
+      <c r="A2" t="s" s="124">
         <v>169</v>
       </c>
-      <c r="B2" t="s" s="122">
+      <c r="B2" t="s" s="125">
         <v>170</v>
       </c>
-      <c r="C2" t="s" s="122">
+      <c r="C2" t="s" s="125">
         <v>171</v>
       </c>
-      <c r="D2" t="s" s="122">
+      <c r="D2" t="s" s="125">
         <v>172</v>
       </c>
-      <c r="E2" t="s" s="122">
+      <c r="E2" t="s" s="125">
         <v>173</v>
       </c>
-      <c r="F2" t="s" s="122">
+      <c r="F2" t="s" s="125">
         <v>174</v>
       </c>
-      <c r="G2" t="s" s="122">
+      <c r="G2" t="s" s="125">
         <v>175</v>
       </c>
-      <c r="H2" t="s" s="122">
+      <c r="H2" t="s" s="125">
         <v>176</v>
       </c>
-      <c r="I2" t="s" s="122">
+      <c r="I2" t="s" s="125">
         <v>177</v>
       </c>
-      <c r="J2" t="s" s="122">
+      <c r="J2" t="s" s="125">
         <v>178</v>
       </c>
-      <c r="K2" t="s" s="122">
+      <c r="K2" t="s" s="125">
         <v>179</v>
       </c>
-      <c r="L2" t="s" s="122">
+      <c r="L2" t="s" s="125">
         <v>180</v>
       </c>
-      <c r="M2" t="s" s="122">
+      <c r="M2" t="s" s="125">
         <v>181</v>
       </c>
-      <c r="N2" t="s" s="122">
+      <c r="N2" t="s" s="125">
         <v>182</v>
       </c>
-      <c r="O2" t="s" s="122">
+      <c r="O2" t="s" s="125">
         <v>183</v>
       </c>
-      <c r="P2" t="s" s="122">
+      <c r="P2" t="s" s="125">
         <v>184</v>
       </c>
-      <c r="Q2" t="s" s="122">
+      <c r="Q2" t="s" s="125">
         <v>185</v>
       </c>
-      <c r="R2" t="s" s="122">
+      <c r="R2" t="s" s="125">
         <v>186</v>
       </c>
-      <c r="S2" t="s" s="122">
+      <c r="S2" t="s" s="125">
         <v>187</v>
       </c>
     </row>
@@ -7336,407 +7504,407 @@
       <c r="A3" t="s" s="27">
         <v>188</v>
       </c>
-      <c r="B3" t="s" s="123">
+      <c r="B3" t="s" s="126">
         <v>139</v>
       </c>
-      <c r="C3" t="s" s="124">
+      <c r="C3" t="s" s="127">
         <v>28</v>
       </c>
-      <c r="D3" t="s" s="123">
+      <c r="D3" t="s" s="126">
         <v>141</v>
       </c>
-      <c r="E3" t="s" s="123">
+      <c r="E3" t="s" s="126">
         <v>140</v>
       </c>
-      <c r="F3" t="s" s="124">
+      <c r="F3" t="s" s="127">
         <v>142</v>
       </c>
-      <c r="G3" t="s" s="124">
+      <c r="G3" t="s" s="127">
         <v>189</v>
       </c>
-      <c r="H3" t="s" s="123">
+      <c r="H3" t="s" s="126">
         <v>146</v>
       </c>
-      <c r="I3" t="s" s="124">
+      <c r="I3" t="s" s="127">
         <v>36</v>
       </c>
-      <c r="J3" t="s" s="124">
+      <c r="J3" t="s" s="127">
         <v>190</v>
       </c>
-      <c r="K3" t="s" s="123">
+      <c r="K3" t="s" s="126">
         <v>144</v>
       </c>
-      <c r="L3" t="s" s="124">
+      <c r="L3" t="s" s="127">
         <v>191</v>
       </c>
-      <c r="M3" t="s" s="123">
+      <c r="M3" t="s" s="126">
         <v>192</v>
       </c>
-      <c r="N3" t="s" s="125">
+      <c r="N3" t="s" s="128">
         <v>193</v>
       </c>
-      <c r="O3" t="s" s="124">
+      <c r="O3" t="s" s="127">
         <v>194</v>
       </c>
-      <c r="P3" t="s" s="124">
+      <c r="P3" t="s" s="127">
         <v>147</v>
       </c>
-      <c r="Q3" t="s" s="123">
+      <c r="Q3" t="s" s="126">
         <v>195</v>
       </c>
-      <c r="R3" t="s" s="124">
+      <c r="R3" t="s" s="127">
         <v>196</v>
       </c>
-      <c r="S3" t="s" s="123">
+      <c r="S3" t="s" s="126">
         <v>197</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1">
       <c r="A4" s="59"/>
-      <c r="B4" s="126">
+      <c r="B4" s="129">
         <v>-5</v>
       </c>
-      <c r="C4" t="s" s="127">
+      <c r="C4" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D4" t="s" s="128">
+      <c r="D4" t="s" s="131">
         <v>198</v>
       </c>
-      <c r="E4" t="s" s="128">
+      <c r="E4" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F4" s="60"/>
       <c r="G4" s="59"/>
-      <c r="H4" s="129">
+      <c r="H4" s="132">
         <v>10560000</v>
       </c>
       <c r="I4" s="61"/>
       <c r="J4" s="59"/>
-      <c r="K4" s="130"/>
+      <c r="K4" s="133"/>
       <c r="L4" s="59"/>
-      <c r="M4" s="131"/>
-      <c r="N4" s="132"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="135"/>
       <c r="O4" s="61"/>
       <c r="P4" s="59"/>
       <c r="Q4" s="116"/>
-      <c r="R4" s="133"/>
-      <c r="S4" s="134"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="137"/>
     </row>
     <row r="5" ht="13.5" customHeight="1">
       <c r="A5" s="105"/>
-      <c r="B5" s="126">
+      <c r="B5" s="129">
         <v>-5</v>
       </c>
-      <c r="C5" t="s" s="127">
+      <c r="C5" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D5" t="s" s="128">
+      <c r="D5" t="s" s="131">
         <v>200</v>
       </c>
-      <c r="E5" t="s" s="128">
+      <c r="E5" t="s" s="131">
         <v>199</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="138"/>
       <c r="G5" s="105"/>
-      <c r="H5" s="129">
+      <c r="H5" s="132">
         <v>3700000</v>
       </c>
       <c r="I5" s="98"/>
       <c r="J5" s="105"/>
-      <c r="K5" s="130"/>
+      <c r="K5" s="133"/>
       <c r="L5" s="105"/>
-      <c r="M5" s="131"/>
-      <c r="N5" s="132"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="135"/>
       <c r="O5" s="98"/>
       <c r="P5" s="105"/>
       <c r="Q5" s="116"/>
-      <c r="R5" s="136"/>
-      <c r="S5" s="134"/>
+      <c r="R5" s="139"/>
+      <c r="S5" s="137"/>
     </row>
     <row r="6" ht="13.5" customHeight="1">
       <c r="A6" s="105"/>
-      <c r="B6" s="126">
+      <c r="B6" s="129">
         <v>-5</v>
       </c>
-      <c r="C6" t="s" s="127">
+      <c r="C6" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D6" t="s" s="128">
+      <c r="D6" t="s" s="131">
         <v>201</v>
       </c>
-      <c r="E6" t="s" s="128">
+      <c r="E6" t="s" s="131">
         <v>199</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="138"/>
       <c r="G6" s="105"/>
-      <c r="H6" s="129">
+      <c r="H6" s="132">
         <v>13041600</v>
       </c>
       <c r="I6" s="98"/>
       <c r="J6" s="105"/>
-      <c r="K6" s="130"/>
+      <c r="K6" s="133"/>
       <c r="L6" s="105"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="132"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="135"/>
       <c r="O6" s="98"/>
       <c r="P6" s="105"/>
       <c r="Q6" s="116"/>
-      <c r="R6" s="136"/>
-      <c r="S6" s="134"/>
+      <c r="R6" s="139"/>
+      <c r="S6" s="137"/>
     </row>
     <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="105"/>
-      <c r="B7" s="126">
+      <c r="B7" s="129">
         <v>-5</v>
       </c>
-      <c r="C7" t="s" s="127">
+      <c r="C7" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D7" t="s" s="128">
+      <c r="D7" t="s" s="131">
         <v>202</v>
       </c>
-      <c r="E7" t="s" s="128">
+      <c r="E7" t="s" s="131">
         <v>199</v>
       </c>
-      <c r="F7" s="135"/>
+      <c r="F7" s="138"/>
       <c r="G7" s="105"/>
-      <c r="H7" s="129">
+      <c r="H7" s="132">
         <v>6200000</v>
       </c>
       <c r="I7" s="98"/>
       <c r="J7" s="105"/>
-      <c r="K7" s="130"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="105"/>
-      <c r="M7" s="131"/>
-      <c r="N7" s="132"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="135"/>
       <c r="O7" s="98"/>
       <c r="P7" s="105"/>
       <c r="Q7" s="116"/>
-      <c r="R7" s="136"/>
-      <c r="S7" s="134"/>
+      <c r="R7" s="139"/>
+      <c r="S7" s="137"/>
     </row>
     <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="137"/>
-      <c r="B8" s="126">
+      <c r="A8" s="140"/>
+      <c r="B8" s="129">
         <v>-5</v>
       </c>
-      <c r="C8" t="s" s="127">
+      <c r="C8" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D8" t="s" s="128">
+      <c r="D8" t="s" s="131">
         <v>203</v>
       </c>
-      <c r="E8" t="s" s="128">
+      <c r="E8" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F8" s="76"/>
       <c r="G8" s="77"/>
-      <c r="H8" s="138">
+      <c r="H8" s="141">
         <v>1400000</v>
       </c>
       <c r="I8" s="76"/>
       <c r="J8" s="77"/>
-      <c r="K8" s="139"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="131"/>
-      <c r="N8" s="141"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="144"/>
       <c r="O8" s="66"/>
       <c r="P8" s="77"/>
       <c r="Q8" s="116"/>
-      <c r="R8" s="140"/>
-      <c r="S8" s="134"/>
+      <c r="R8" s="143"/>
+      <c r="S8" s="137"/>
     </row>
     <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="142"/>
-      <c r="B9" s="126">
+      <c r="A9" s="145"/>
+      <c r="B9" s="129">
         <v>-5</v>
       </c>
-      <c r="C9" t="s" s="127">
+      <c r="C9" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D9" t="s" s="128">
+      <c r="D9" t="s" s="131">
         <v>204</v>
       </c>
-      <c r="E9" t="s" s="128">
+      <c r="E9" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="40"/>
-      <c r="H9" s="138">
+      <c r="H9" s="141">
         <v>4067200</v>
       </c>
       <c r="I9" s="39"/>
       <c r="J9" s="40"/>
-      <c r="K9" s="139"/>
+      <c r="K9" s="142"/>
       <c r="L9" s="84"/>
-      <c r="M9" s="131"/>
-      <c r="N9" s="141"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="144"/>
       <c r="O9" s="11"/>
       <c r="P9" s="40"/>
       <c r="Q9" s="116"/>
       <c r="R9" s="84"/>
-      <c r="S9" s="134"/>
+      <c r="S9" s="137"/>
     </row>
     <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="142"/>
-      <c r="B10" s="126">
+      <c r="A10" s="145"/>
+      <c r="B10" s="129">
         <v>-5</v>
       </c>
-      <c r="C10" t="s" s="127">
+      <c r="C10" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D10" t="s" s="128">
+      <c r="D10" t="s" s="131">
         <v>205</v>
       </c>
-      <c r="E10" t="s" s="128">
+      <c r="E10" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F10" s="39"/>
       <c r="G10" s="40"/>
-      <c r="H10" s="138">
+      <c r="H10" s="141">
         <v>1419200</v>
       </c>
       <c r="I10" s="39"/>
       <c r="J10" s="40"/>
-      <c r="K10" s="139"/>
+      <c r="K10" s="142"/>
       <c r="L10" s="84"/>
-      <c r="M10" s="131"/>
-      <c r="N10" s="141"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="144"/>
       <c r="O10" s="11"/>
       <c r="P10" s="40"/>
       <c r="Q10" s="116"/>
       <c r="R10" s="84"/>
-      <c r="S10" s="134"/>
+      <c r="S10" s="137"/>
     </row>
     <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="142"/>
-      <c r="B11" s="126">
+      <c r="A11" s="145"/>
+      <c r="B11" s="129">
         <v>-5</v>
       </c>
-      <c r="C11" t="s" s="127">
+      <c r="C11" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D11" t="s" s="128">
+      <c r="D11" t="s" s="131">
         <v>206</v>
       </c>
-      <c r="E11" t="s" s="128">
+      <c r="E11" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="40"/>
-      <c r="H11" s="138">
+      <c r="H11" s="141">
         <v>1014300</v>
       </c>
       <c r="I11" s="39"/>
       <c r="J11" s="40"/>
-      <c r="K11" s="139"/>
+      <c r="K11" s="142"/>
       <c r="L11" s="84"/>
-      <c r="M11" s="131"/>
-      <c r="N11" s="141"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="144"/>
       <c r="O11" s="11"/>
       <c r="P11" s="40"/>
       <c r="Q11" s="116"/>
       <c r="R11" s="84"/>
-      <c r="S11" s="134"/>
+      <c r="S11" s="137"/>
     </row>
     <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="142"/>
-      <c r="B12" s="126">
+      <c r="A12" s="145"/>
+      <c r="B12" s="129">
         <v>-5</v>
       </c>
-      <c r="C12" t="s" s="127">
+      <c r="C12" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D12" t="s" s="128">
+      <c r="D12" t="s" s="131">
         <v>207</v>
       </c>
-      <c r="E12" t="s" s="128">
+      <c r="E12" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="40"/>
-      <c r="H12" s="138">
+      <c r="H12" s="141">
         <v>628320</v>
       </c>
       <c r="I12" s="39"/>
       <c r="J12" s="40"/>
-      <c r="K12" s="139"/>
+      <c r="K12" s="142"/>
       <c r="L12" s="84"/>
-      <c r="M12" s="131"/>
-      <c r="N12" s="141"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="144"/>
       <c r="O12" s="11"/>
       <c r="P12" s="40"/>
       <c r="Q12" s="116"/>
       <c r="R12" s="84"/>
-      <c r="S12" s="134"/>
+      <c r="S12" s="137"/>
     </row>
     <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="142"/>
-      <c r="B13" s="143">
+      <c r="A13" s="145"/>
+      <c r="B13" s="146">
         <v>-5</v>
       </c>
-      <c r="C13" t="s" s="144">
+      <c r="C13" t="s" s="147">
         <v>141</v>
       </c>
-      <c r="D13" t="s" s="128">
+      <c r="D13" t="s" s="131">
         <v>208</v>
       </c>
-      <c r="E13" t="s" s="128">
+      <c r="E13" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="40"/>
-      <c r="H13" s="138">
+      <c r="H13" s="141">
         <v>12234288</v>
       </c>
       <c r="I13" s="39"/>
       <c r="J13" s="40"/>
-      <c r="K13" s="139"/>
+      <c r="K13" s="142"/>
       <c r="L13" s="84"/>
-      <c r="M13" s="131"/>
-      <c r="N13" s="141"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="144"/>
       <c r="O13" s="11"/>
       <c r="P13" s="40"/>
       <c r="Q13" s="116"/>
       <c r="R13" s="84"/>
-      <c r="S13" s="134"/>
+      <c r="S13" s="137"/>
     </row>
     <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="145"/>
+      <c r="A14" s="148"/>
       <c r="B14" s="112">
         <v>-4</v>
       </c>
-      <c r="C14" t="s" s="146">
+      <c r="C14" t="s" s="149">
         <v>141</v>
       </c>
-      <c r="D14" t="s" s="128">
+      <c r="D14" t="s" s="131">
         <v>198</v>
       </c>
-      <c r="E14" t="s" s="128">
+      <c r="E14" t="s" s="131">
         <v>199</v>
       </c>
-      <c r="F14" s="147"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="129">
+      <c r="F14" s="150"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="132">
         <v>10560000</v>
       </c>
-      <c r="I14" s="148"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="130">
+      <c r="I14" s="151"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="133">
         <v>737747.64</v>
       </c>
-      <c r="L14" s="145"/>
-      <c r="M14" s="126">
+      <c r="L14" s="148"/>
+      <c r="M14" s="129">
         <v>700000</v>
       </c>
-      <c r="N14" s="132"/>
-      <c r="O14" s="148"/>
-      <c r="P14" s="145"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="148"/>
       <c r="Q14" s="116">
         <v>1.0539252</v>
       </c>
-      <c r="R14" s="149"/>
-      <c r="S14" s="134">
+      <c r="R14" s="152"/>
+      <c r="S14" s="137">
         <v>0.15</v>
       </c>
     </row>
@@ -7745,37 +7913,37 @@
       <c r="B15" s="112">
         <v>-4</v>
       </c>
-      <c r="C15" t="s" s="127">
+      <c r="C15" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D15" t="s" s="128">
+      <c r="D15" t="s" s="131">
         <v>200</v>
       </c>
-      <c r="E15" t="s" s="128">
+      <c r="E15" t="s" s="131">
         <v>199</v>
       </c>
-      <c r="F15" s="135"/>
+      <c r="F15" s="138"/>
       <c r="G15" s="105"/>
-      <c r="H15" s="129">
+      <c r="H15" s="132">
         <v>3700000</v>
       </c>
       <c r="I15" s="98"/>
       <c r="J15" s="105"/>
-      <c r="K15" s="130">
+      <c r="K15" s="133">
         <v>245915.88</v>
       </c>
       <c r="L15" s="105"/>
-      <c r="M15" s="126">
+      <c r="M15" s="129">
         <v>250000</v>
       </c>
-      <c r="N15" s="132"/>
+      <c r="N15" s="135"/>
       <c r="O15" s="98"/>
       <c r="P15" s="105"/>
       <c r="Q15" s="116">
         <v>0.98366352</v>
       </c>
-      <c r="R15" s="136"/>
-      <c r="S15" s="134">
+      <c r="R15" s="139"/>
+      <c r="S15" s="137">
         <v>0.11</v>
       </c>
     </row>
@@ -7784,37 +7952,37 @@
       <c r="B16" s="112">
         <v>-4</v>
       </c>
-      <c r="C16" t="s" s="127">
+      <c r="C16" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D16" t="s" s="128">
+      <c r="D16" t="s" s="131">
         <v>201</v>
       </c>
-      <c r="E16" t="s" s="128">
+      <c r="E16" t="s" s="131">
         <v>199</v>
       </c>
-      <c r="F16" s="135"/>
+      <c r="F16" s="138"/>
       <c r="G16" s="105"/>
-      <c r="H16" s="129">
+      <c r="H16" s="132">
         <v>13041600</v>
       </c>
       <c r="I16" s="98"/>
       <c r="J16" s="105"/>
-      <c r="K16" s="130">
+      <c r="K16" s="133">
         <v>901691.5600000001</v>
       </c>
       <c r="L16" s="105"/>
-      <c r="M16" s="126">
+      <c r="M16" s="129">
         <v>850000</v>
       </c>
-      <c r="N16" s="132"/>
+      <c r="N16" s="135"/>
       <c r="O16" s="98"/>
       <c r="P16" s="105"/>
       <c r="Q16" s="116">
         <v>1.0608136</v>
       </c>
-      <c r="R16" s="136"/>
-      <c r="S16" s="134">
+      <c r="R16" s="139"/>
+      <c r="S16" s="137">
         <v>0.18</v>
       </c>
     </row>
@@ -7823,2029 +7991,2029 @@
       <c r="B17" s="112">
         <v>-4</v>
       </c>
-      <c r="C17" t="s" s="127">
+      <c r="C17" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D17" t="s" s="128">
+      <c r="D17" t="s" s="131">
         <v>202</v>
       </c>
-      <c r="E17" t="s" s="128">
+      <c r="E17" t="s" s="131">
         <v>199</v>
       </c>
-      <c r="F17" s="135"/>
+      <c r="F17" s="138"/>
       <c r="G17" s="105"/>
-      <c r="H17" s="129">
+      <c r="H17" s="132">
         <v>6200000</v>
       </c>
       <c r="I17" s="98"/>
       <c r="J17" s="105"/>
-      <c r="K17" s="130">
+      <c r="K17" s="133">
         <v>614789.7</v>
       </c>
       <c r="L17" s="105"/>
-      <c r="M17" s="126">
+      <c r="M17" s="129">
         <v>600000</v>
       </c>
-      <c r="N17" s="132"/>
+      <c r="N17" s="135"/>
       <c r="O17" s="98"/>
       <c r="P17" s="105"/>
       <c r="Q17" s="116">
         <v>1.0246495</v>
       </c>
-      <c r="R17" s="136"/>
-      <c r="S17" s="134">
+      <c r="R17" s="139"/>
+      <c r="S17" s="137">
         <v>0.13</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="137"/>
+      <c r="A18" s="140"/>
       <c r="B18" s="112">
         <v>-4</v>
       </c>
-      <c r="C18" t="s" s="127">
+      <c r="C18" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D18" t="s" s="128">
+      <c r="D18" t="s" s="131">
         <v>203</v>
       </c>
-      <c r="E18" t="s" s="128">
+      <c r="E18" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F18" s="76"/>
       <c r="G18" s="77"/>
-      <c r="H18" s="138">
+      <c r="H18" s="141">
         <v>1400000</v>
       </c>
       <c r="I18" s="76"/>
       <c r="J18" s="77"/>
-      <c r="K18" s="139">
+      <c r="K18" s="142">
         <v>102464.95</v>
       </c>
-      <c r="L18" s="140"/>
-      <c r="M18" s="126">
+      <c r="L18" s="143"/>
+      <c r="M18" s="129">
         <v>100000</v>
       </c>
-      <c r="N18" s="141"/>
+      <c r="N18" s="144"/>
       <c r="O18" s="66"/>
       <c r="P18" s="77"/>
       <c r="Q18" s="116">
         <v>1.0246495</v>
       </c>
-      <c r="R18" s="140"/>
-      <c r="S18" s="134">
+      <c r="R18" s="143"/>
+      <c r="S18" s="137">
         <v>0.12</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="142"/>
+      <c r="A19" s="145"/>
       <c r="B19" s="112">
         <v>-4</v>
       </c>
-      <c r="C19" t="s" s="127">
+      <c r="C19" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D19" t="s" s="128">
+      <c r="D19" t="s" s="131">
         <v>204</v>
       </c>
-      <c r="E19" t="s" s="128">
+      <c r="E19" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="40"/>
-      <c r="H19" s="138">
+      <c r="H19" s="141">
         <v>4067200</v>
       </c>
       <c r="I19" s="39"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="139">
+      <c r="K19" s="142">
         <v>286901.86</v>
       </c>
       <c r="L19" s="84"/>
-      <c r="M19" s="126">
+      <c r="M19" s="129">
         <v>350000</v>
       </c>
-      <c r="N19" s="141"/>
+      <c r="N19" s="144"/>
       <c r="O19" s="11"/>
       <c r="P19" s="40"/>
       <c r="Q19" s="116">
         <v>0.8197196</v>
       </c>
       <c r="R19" s="84"/>
-      <c r="S19" s="134">
+      <c r="S19" s="137">
         <v>-0.11</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="142"/>
+      <c r="A20" s="145"/>
       <c r="B20" s="112">
         <v>-4</v>
       </c>
-      <c r="C20" t="s" s="127">
+      <c r="C20" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D20" t="s" s="128">
+      <c r="D20" t="s" s="131">
         <v>205</v>
       </c>
-      <c r="E20" t="s" s="128">
+      <c r="E20" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="40"/>
-      <c r="H20" s="138">
+      <c r="H20" s="141">
         <v>1419200</v>
       </c>
       <c r="I20" s="39"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="139">
+      <c r="K20" s="142">
         <v>122957.94</v>
       </c>
       <c r="L20" s="84"/>
-      <c r="M20" s="126">
+      <c r="M20" s="129">
         <v>120000</v>
       </c>
-      <c r="N20" s="141"/>
+      <c r="N20" s="144"/>
       <c r="O20" s="11"/>
       <c r="P20" s="40"/>
       <c r="Q20" s="116">
         <v>1.0246495</v>
       </c>
       <c r="R20" s="84"/>
-      <c r="S20" s="134">
+      <c r="S20" s="137">
         <v>0.16</v>
       </c>
     </row>
     <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="142"/>
+      <c r="A21" s="145"/>
       <c r="B21" s="112">
         <v>-4</v>
       </c>
-      <c r="C21" t="s" s="127">
+      <c r="C21" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D21" t="s" s="128">
+      <c r="D21" t="s" s="131">
         <v>206</v>
       </c>
-      <c r="E21" t="s" s="128">
+      <c r="E21" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="40"/>
-      <c r="H21" s="138">
+      <c r="H21" s="141">
         <v>1014300</v>
       </c>
       <c r="I21" s="39"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="139">
+      <c r="K21" s="142">
         <v>32788.784</v>
       </c>
       <c r="L21" s="84"/>
-      <c r="M21" s="126">
+      <c r="M21" s="129">
         <v>35000</v>
       </c>
-      <c r="N21" s="141"/>
+      <c r="N21" s="144"/>
       <c r="O21" s="11"/>
       <c r="P21" s="40"/>
       <c r="Q21" s="116">
         <v>0.9368224000000001</v>
       </c>
       <c r="R21" s="84"/>
-      <c r="S21" s="134">
+      <c r="S21" s="137">
         <v>-0.23</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="142"/>
+      <c r="A22" s="145"/>
       <c r="B22" s="112">
         <v>-4</v>
       </c>
-      <c r="C22" t="s" s="127">
+      <c r="C22" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D22" t="s" s="128">
+      <c r="D22" t="s" s="131">
         <v>207</v>
       </c>
-      <c r="E22" t="s" s="128">
+      <c r="E22" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="40"/>
-      <c r="H22" s="138">
+      <c r="H22" s="141">
         <v>628320</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="139">
+      <c r="K22" s="142">
         <v>81971.960000000006</v>
       </c>
       <c r="L22" s="84"/>
-      <c r="M22" s="126">
+      <c r="M22" s="129">
         <v>75000</v>
       </c>
-      <c r="N22" s="141"/>
+      <c r="N22" s="144"/>
       <c r="O22" s="11"/>
       <c r="P22" s="40"/>
       <c r="Q22" s="116">
         <v>1.09295946666667</v>
       </c>
       <c r="R22" s="84"/>
-      <c r="S22" s="134">
+      <c r="S22" s="137">
         <v>0.29</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1">
-      <c r="A23" s="142"/>
+      <c r="A23" s="145"/>
       <c r="B23" s="112">
         <v>-4</v>
       </c>
-      <c r="C23" t="s" s="127">
+      <c r="C23" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D23" t="s" s="128">
+      <c r="D23" t="s" s="131">
         <v>208</v>
       </c>
-      <c r="E23" t="s" s="128">
+      <c r="E23" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F23" s="39"/>
       <c r="G23" s="40"/>
-      <c r="H23" s="138">
+      <c r="H23" s="141">
         <v>12234288</v>
       </c>
       <c r="I23" s="39"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="139">
+      <c r="K23" s="142">
         <v>971367.726</v>
       </c>
       <c r="L23" s="84"/>
-      <c r="M23" s="126">
+      <c r="M23" s="129">
         <v>900000</v>
       </c>
-      <c r="N23" s="141"/>
+      <c r="N23" s="144"/>
       <c r="O23" s="11"/>
       <c r="P23" s="40"/>
       <c r="Q23" s="116">
         <v>1.07929747333333</v>
       </c>
       <c r="R23" s="84"/>
-      <c r="S23" s="134">
+      <c r="S23" s="137">
         <v>0.18</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="142"/>
+      <c r="A24" s="145"/>
       <c r="B24" s="112">
         <v>-3</v>
       </c>
-      <c r="C24" t="s" s="127">
+      <c r="C24" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D24" t="s" s="128">
+      <c r="D24" t="s" s="131">
         <v>198</v>
       </c>
-      <c r="E24" t="s" s="128">
+      <c r="E24" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F24" s="39"/>
       <c r="G24" s="40"/>
-      <c r="H24" s="138">
+      <c r="H24" s="141">
         <v>10560000</v>
       </c>
       <c r="I24" s="39"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="139">
+      <c r="K24" s="142">
         <v>556986.16</v>
       </c>
       <c r="L24" s="84"/>
-      <c r="M24" s="139">
+      <c r="M24" s="142">
         <v>650000</v>
       </c>
-      <c r="N24" s="150"/>
+      <c r="N24" s="153"/>
       <c r="O24" s="11"/>
-      <c r="P24" s="151"/>
+      <c r="P24" s="154"/>
       <c r="Q24" s="116">
         <v>0.856901784615385</v>
       </c>
       <c r="R24" s="84"/>
-      <c r="S24" s="134">
+      <c r="S24" s="137">
         <v>-0.245018038959772</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
-      <c r="A25" s="142"/>
+      <c r="A25" s="145"/>
       <c r="B25" s="112">
         <v>-3</v>
       </c>
-      <c r="C25" t="s" s="127">
+      <c r="C25" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D25" t="s" s="128">
+      <c r="D25" t="s" s="131">
         <v>200</v>
       </c>
-      <c r="E25" t="s" s="128">
+      <c r="E25" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F25" s="39"/>
       <c r="G25" s="40"/>
-      <c r="H25" s="138">
+      <c r="H25" s="141">
         <v>3700000</v>
       </c>
       <c r="I25" s="39"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="139">
+      <c r="K25" s="142">
         <v>191328.72</v>
       </c>
       <c r="L25" s="84"/>
-      <c r="M25" s="139">
+      <c r="M25" s="142">
         <v>200000</v>
       </c>
-      <c r="N25" s="150"/>
+      <c r="N25" s="153"/>
       <c r="O25" s="11"/>
-      <c r="P25" s="151"/>
+      <c r="P25" s="154"/>
       <c r="Q25" s="116">
         <v>0.9566436</v>
       </c>
       <c r="R25" s="84"/>
-      <c r="S25" s="134">
+      <c r="S25" s="137">
         <v>-0.221974928987912</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="142"/>
+      <c r="A26" s="145"/>
       <c r="B26" s="112">
         <v>-3</v>
       </c>
-      <c r="C26" t="s" s="127">
+      <c r="C26" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D26" t="s" s="128">
+      <c r="D26" t="s" s="131">
         <v>201</v>
       </c>
-      <c r="E26" t="s" s="128">
+      <c r="E26" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F26" s="39"/>
       <c r="G26" s="40"/>
-      <c r="H26" s="138">
+      <c r="H26" s="141">
         <v>13041600</v>
       </c>
       <c r="I26" s="39"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="139">
+      <c r="K26" s="142">
         <v>736028.144</v>
       </c>
       <c r="L26" s="84"/>
-      <c r="M26" s="139">
+      <c r="M26" s="142">
         <v>800000</v>
       </c>
-      <c r="N26" s="150"/>
+      <c r="N26" s="153"/>
       <c r="O26" s="11"/>
       <c r="P26" s="40"/>
       <c r="Q26" s="116">
         <v>0.92003518</v>
       </c>
       <c r="R26" s="84"/>
-      <c r="S26" s="134">
+      <c r="S26" s="137">
         <v>-0.18372514876373</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="142"/>
+      <c r="A27" s="145"/>
       <c r="B27" s="112">
         <v>-3</v>
       </c>
-      <c r="C27" t="s" s="127">
+      <c r="C27" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D27" t="s" s="128">
+      <c r="D27" t="s" s="131">
         <v>202</v>
       </c>
-      <c r="E27" t="s" s="128">
+      <c r="E27" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="40"/>
-      <c r="H27" s="138">
+      <c r="H27" s="141">
         <v>6200000</v>
       </c>
       <c r="I27" s="39"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="139">
+      <c r="K27" s="142">
         <v>478321.8</v>
       </c>
       <c r="L27" s="84"/>
-      <c r="M27" s="139">
+      <c r="M27" s="142">
         <v>550000</v>
       </c>
-      <c r="N27" s="150"/>
+      <c r="N27" s="153"/>
       <c r="O27" s="11"/>
       <c r="P27" s="40"/>
       <c r="Q27" s="116">
         <v>0.869676</v>
       </c>
       <c r="R27" s="84"/>
-      <c r="S27" s="134">
+      <c r="S27" s="137">
         <v>-0.221974928987912</v>
       </c>
     </row>
     <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="142"/>
+      <c r="A28" s="145"/>
       <c r="B28" s="112">
         <v>-3</v>
       </c>
-      <c r="C28" t="s" s="127">
+      <c r="C28" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D28" t="s" s="128">
+      <c r="D28" t="s" s="131">
         <v>203</v>
       </c>
-      <c r="E28" t="s" s="128">
+      <c r="E28" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F28" s="39"/>
       <c r="G28" s="40"/>
-      <c r="H28" s="138">
+      <c r="H28" s="141">
         <v>1400000</v>
       </c>
       <c r="I28" s="39"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="139">
+      <c r="K28" s="142">
         <v>69720.3</v>
       </c>
       <c r="L28" s="84"/>
-      <c r="M28" s="139">
+      <c r="M28" s="142">
         <v>80000</v>
       </c>
-      <c r="N28" s="150"/>
+      <c r="N28" s="153"/>
       <c r="O28" s="11"/>
       <c r="P28" s="40"/>
       <c r="Q28" s="116">
         <v>0.87150375</v>
       </c>
       <c r="R28" s="84"/>
-      <c r="S28" s="134">
+      <c r="S28" s="137">
         <v>-0.319569277104024</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" s="142"/>
+      <c r="A29" s="145"/>
       <c r="B29" s="112">
         <v>-3</v>
       </c>
-      <c r="C29" t="s" s="127">
+      <c r="C29" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D29" t="s" s="128">
+      <c r="D29" t="s" s="131">
         <v>204</v>
       </c>
-      <c r="E29" t="s" s="128">
+      <c r="E29" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="40"/>
-      <c r="H29" s="138">
+      <c r="H29" s="141">
         <v>4067200</v>
       </c>
       <c r="I29" s="39"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="139">
+      <c r="K29" s="142">
         <v>223216.84</v>
       </c>
       <c r="L29" s="84"/>
-      <c r="M29" s="139">
+      <c r="M29" s="142">
         <v>250000</v>
       </c>
-      <c r="N29" s="150"/>
+      <c r="N29" s="153"/>
       <c r="O29" s="11"/>
       <c r="P29" s="40"/>
       <c r="Q29" s="116">
         <v>0.89286736</v>
       </c>
       <c r="R29" s="84"/>
-      <c r="S29" s="134">
+      <c r="S29" s="137">
         <v>-0.221974928987912</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1">
-      <c r="A30" s="142"/>
+      <c r="A30" s="145"/>
       <c r="B30" s="112">
         <v>-3</v>
       </c>
-      <c r="C30" t="s" s="127">
+      <c r="C30" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D30" t="s" s="128">
+      <c r="D30" t="s" s="131">
         <v>205</v>
       </c>
-      <c r="E30" t="s" s="128">
+      <c r="E30" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="40"/>
-      <c r="H30" s="138">
+      <c r="H30" s="141">
         <v>1419200</v>
       </c>
       <c r="I30" s="39"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="139">
+      <c r="K30" s="142">
         <v>90664.36</v>
       </c>
       <c r="L30" s="84"/>
-      <c r="M30" s="139">
+      <c r="M30" s="142">
         <v>100000</v>
       </c>
-      <c r="N30" s="150"/>
+      <c r="N30" s="153"/>
       <c r="O30" s="11"/>
       <c r="P30" s="40"/>
       <c r="Q30" s="116">
         <v>0.9066436</v>
       </c>
       <c r="R30" s="84"/>
-      <c r="S30" s="134">
+      <c r="S30" s="137">
         <v>-0.262639240702959</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1">
-      <c r="A31" s="142"/>
+      <c r="A31" s="145"/>
       <c r="B31" s="112">
         <v>-3</v>
       </c>
-      <c r="C31" t="s" s="127">
+      <c r="C31" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D31" t="s" s="128">
+      <c r="D31" t="s" s="131">
         <v>206</v>
       </c>
-      <c r="E31" t="s" s="128">
+      <c r="E31" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F31" s="39"/>
       <c r="G31" s="40"/>
-      <c r="H31" s="138">
+      <c r="H31" s="141">
         <v>1014300</v>
       </c>
       <c r="I31" s="39"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="139">
+      <c r="K31" s="142">
         <v>25510.496</v>
       </c>
       <c r="L31" s="84"/>
-      <c r="M31" s="139">
+      <c r="M31" s="142">
         <v>25000</v>
       </c>
-      <c r="N31" s="150"/>
+      <c r="N31" s="153"/>
       <c r="O31" s="11"/>
       <c r="P31" s="40"/>
       <c r="Q31" s="116">
         <v>1.02041984</v>
       </c>
       <c r="R31" s="84"/>
-      <c r="S31" s="134">
+      <c r="S31" s="137">
         <v>-0.221974928987912</v>
       </c>
     </row>
     <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="142"/>
+      <c r="A32" s="145"/>
       <c r="B32" s="112">
         <v>-3</v>
       </c>
-      <c r="C32" t="s" s="127">
+      <c r="C32" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D32" t="s" s="128">
+      <c r="D32" t="s" s="131">
         <v>207</v>
       </c>
-      <c r="E32" t="s" s="128">
+      <c r="E32" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F32" s="39"/>
       <c r="G32" s="40"/>
-      <c r="H32" s="138">
+      <c r="H32" s="141">
         <v>628320</v>
       </c>
       <c r="I32" s="39"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="139">
+      <c r="K32" s="142">
         <v>59832.18</v>
       </c>
       <c r="L32" s="84"/>
-      <c r="M32" s="139">
+      <c r="M32" s="142">
         <v>60000</v>
       </c>
-      <c r="N32" s="150"/>
+      <c r="N32" s="153"/>
       <c r="O32" s="11"/>
       <c r="P32" s="40"/>
       <c r="Q32" s="116">
         <v>0.997203</v>
       </c>
       <c r="R32" s="84"/>
-      <c r="S32" s="134">
+      <c r="S32" s="137">
         <v>-0.270089674566767</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="142"/>
+      <c r="A33" s="145"/>
       <c r="B33" s="112">
         <v>-3</v>
       </c>
-      <c r="C33" t="s" s="127">
+      <c r="C33" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D33" t="s" s="128">
+      <c r="D33" t="s" s="131">
         <v>208</v>
       </c>
-      <c r="E33" t="s" s="128">
+      <c r="E33" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F33" s="39"/>
       <c r="G33" s="40"/>
-      <c r="H33" s="138">
+      <c r="H33" s="141">
         <v>12234288</v>
       </c>
       <c r="I33" s="39"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="139">
+      <c r="K33" s="142">
         <v>757203</v>
       </c>
       <c r="L33" s="84"/>
-      <c r="M33" s="139">
+      <c r="M33" s="142">
         <v>850000</v>
       </c>
-      <c r="N33" s="150"/>
+      <c r="N33" s="153"/>
       <c r="O33" s="11"/>
       <c r="P33" s="40"/>
       <c r="Q33" s="116">
         <v>0.890827058823529</v>
       </c>
       <c r="R33" s="84"/>
-      <c r="S33" s="134">
+      <c r="S33" s="137">
         <v>-0.220477498137507</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="142"/>
+      <c r="A34" s="145"/>
       <c r="B34" s="112">
         <v>-2</v>
       </c>
-      <c r="C34" t="s" s="127">
+      <c r="C34" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D34" t="s" s="128">
+      <c r="D34" t="s" s="131">
         <v>198</v>
       </c>
-      <c r="E34" t="s" s="128">
+      <c r="E34" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F34" s="39"/>
       <c r="G34" s="40"/>
-      <c r="H34" s="138">
+      <c r="H34" s="141">
         <v>10560000</v>
       </c>
       <c r="I34" s="39"/>
       <c r="J34" s="40"/>
-      <c r="K34" s="139">
+      <c r="K34" s="142">
         <v>525785.6899999999</v>
       </c>
       <c r="L34" s="84"/>
-      <c r="M34" s="126">
+      <c r="M34" s="129">
         <v>550000</v>
       </c>
-      <c r="N34" s="141"/>
+      <c r="N34" s="144"/>
       <c r="O34" s="11"/>
       <c r="P34" s="40"/>
       <c r="Q34" s="116">
         <v>0.9559739818181821</v>
       </c>
       <c r="R34" s="84"/>
-      <c r="S34" s="134">
+      <c r="S34" s="137">
         <v>-0.0560165983298402</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1">
-      <c r="A35" s="142"/>
+      <c r="A35" s="145"/>
       <c r="B35" s="112">
         <v>-2</v>
       </c>
-      <c r="C35" t="s" s="127">
+      <c r="C35" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D35" t="s" s="128">
+      <c r="D35" t="s" s="131">
         <v>200</v>
       </c>
-      <c r="E35" t="s" s="128">
+      <c r="E35" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F35" s="39"/>
       <c r="G35" s="40"/>
-      <c r="H35" s="138">
+      <c r="H35" s="141">
         <v>3700000</v>
       </c>
       <c r="I35" s="39"/>
       <c r="J35" s="40"/>
-      <c r="K35" s="139">
+      <c r="K35" s="142">
         <v>154642.85</v>
       </c>
       <c r="L35" s="84"/>
-      <c r="M35" s="126">
+      <c r="M35" s="129">
         <v>170000</v>
       </c>
-      <c r="N35" s="141"/>
+      <c r="N35" s="144"/>
       <c r="O35" s="11"/>
       <c r="P35" s="40"/>
       <c r="Q35" s="116">
         <v>0.909663823529412</v>
       </c>
       <c r="R35" s="84"/>
-      <c r="S35" s="134">
+      <c r="S35" s="137">
         <v>-0.191742619717521</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1">
-      <c r="A36" s="142"/>
+      <c r="A36" s="145"/>
       <c r="B36" s="112">
         <v>-2</v>
       </c>
-      <c r="C36" t="s" s="127">
+      <c r="C36" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D36" t="s" s="128">
+      <c r="D36" t="s" s="131">
         <v>201</v>
       </c>
-      <c r="E36" t="s" s="128">
+      <c r="E36" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F36" s="39"/>
       <c r="G36" s="40"/>
-      <c r="H36" s="138">
+      <c r="H36" s="141">
         <v>13041600</v>
       </c>
       <c r="I36" s="39"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="139">
+      <c r="K36" s="142">
         <v>711357.11</v>
       </c>
       <c r="L36" s="84"/>
-      <c r="M36" s="126">
+      <c r="M36" s="129">
         <v>750000</v>
       </c>
-      <c r="N36" s="141"/>
+      <c r="N36" s="144"/>
       <c r="O36" s="11"/>
       <c r="P36" s="40"/>
       <c r="Q36" s="116">
         <v>0.948476146666667</v>
       </c>
       <c r="R36" s="84"/>
-      <c r="S36" s="134">
+      <c r="S36" s="137">
         <v>-0.0335191448874813</v>
       </c>
     </row>
     <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" s="142"/>
+      <c r="A37" s="145"/>
       <c r="B37" s="112">
         <v>-2</v>
       </c>
-      <c r="C37" t="s" s="127">
+      <c r="C37" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D37" t="s" s="128">
+      <c r="D37" t="s" s="131">
         <v>202</v>
       </c>
-      <c r="E37" t="s" s="128">
+      <c r="E37" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F37" s="39"/>
       <c r="G37" s="40"/>
-      <c r="H37" s="138">
+      <c r="H37" s="141">
         <v>6200000</v>
       </c>
       <c r="I37" s="39"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="139">
+      <c r="K37" s="142">
         <v>432999.98</v>
       </c>
       <c r="L37" s="84"/>
-      <c r="M37" s="126">
+      <c r="M37" s="129">
         <v>500000</v>
       </c>
-      <c r="N37" s="141"/>
+      <c r="N37" s="144"/>
       <c r="O37" s="11"/>
       <c r="P37" s="40"/>
       <c r="Q37" s="116">
         <v>0.86599996</v>
       </c>
       <c r="R37" s="84"/>
-      <c r="S37" s="134">
+      <c r="S37" s="137">
         <v>-0.0947517340836231</v>
       </c>
     </row>
     <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" s="142"/>
+      <c r="A38" s="145"/>
       <c r="B38" s="112">
         <v>-2</v>
       </c>
-      <c r="C38" t="s" s="127">
+      <c r="C38" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D38" t="s" s="128">
+      <c r="D38" t="s" s="131">
         <v>203</v>
       </c>
-      <c r="E38" t="s" s="128">
+      <c r="E38" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F38" s="39"/>
       <c r="G38" s="40"/>
-      <c r="H38" s="138">
+      <c r="H38" s="141">
         <v>1400000</v>
       </c>
       <c r="I38" s="39"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="139">
+      <c r="K38" s="142">
         <v>77321.425</v>
       </c>
       <c r="L38" s="84"/>
-      <c r="M38" s="126">
+      <c r="M38" s="129">
         <v>80000</v>
       </c>
-      <c r="N38" s="141"/>
+      <c r="N38" s="144"/>
       <c r="O38" s="11"/>
       <c r="P38" s="40"/>
       <c r="Q38" s="116">
         <v>0.9665178125</v>
       </c>
       <c r="R38" s="84"/>
-      <c r="S38" s="134">
+      <c r="S38" s="137">
         <v>0.109023125259071</v>
       </c>
     </row>
     <row r="39" ht="13.5" customHeight="1">
-      <c r="A39" s="142"/>
+      <c r="A39" s="145"/>
       <c r="B39" s="112">
         <v>-2</v>
       </c>
-      <c r="C39" t="s" s="127">
+      <c r="C39" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D39" t="s" s="128">
+      <c r="D39" t="s" s="131">
         <v>204</v>
       </c>
-      <c r="E39" t="s" s="128">
+      <c r="E39" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F39" s="39"/>
       <c r="G39" s="40"/>
-      <c r="H39" s="138">
+      <c r="H39" s="141">
         <v>4067200</v>
       </c>
       <c r="I39" s="39"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="139">
+      <c r="K39" s="142">
         <v>247428.56</v>
       </c>
       <c r="L39" s="84"/>
-      <c r="M39" s="126">
+      <c r="M39" s="129">
         <v>250000</v>
       </c>
-      <c r="N39" s="141"/>
+      <c r="N39" s="144"/>
       <c r="O39" s="11"/>
       <c r="P39" s="40"/>
       <c r="Q39" s="116">
         <v>0.98971424</v>
       </c>
       <c r="R39" s="84"/>
-      <c r="S39" s="134">
+      <c r="S39" s="137">
         <v>0.1084672643874</v>
       </c>
     </row>
     <row r="40" ht="13.5" customHeight="1">
-      <c r="A40" s="142"/>
+      <c r="A40" s="145"/>
       <c r="B40" s="112">
         <v>-2</v>
       </c>
-      <c r="C40" t="s" s="127">
+      <c r="C40" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D40" t="s" s="128">
+      <c r="D40" t="s" s="131">
         <v>205</v>
       </c>
-      <c r="E40" t="s" s="128">
+      <c r="E40" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F40" s="39"/>
       <c r="G40" s="40"/>
-      <c r="H40" s="138">
+      <c r="H40" s="141">
         <v>1419200</v>
       </c>
       <c r="I40" s="39"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="139">
+      <c r="K40" s="142">
         <v>92785.710000000006</v>
       </c>
       <c r="L40" s="84"/>
-      <c r="M40" s="126">
+      <c r="M40" s="129">
         <v>100000</v>
       </c>
-      <c r="N40" s="141"/>
+      <c r="N40" s="144"/>
       <c r="O40" s="11"/>
       <c r="P40" s="40"/>
       <c r="Q40" s="116">
         <v>0.9278571</v>
       </c>
       <c r="R40" s="84"/>
-      <c r="S40" s="134">
+      <c r="S40" s="137">
         <v>0.0233978379155821</v>
       </c>
     </row>
     <row r="41" ht="13.5" customHeight="1">
-      <c r="A41" s="142"/>
+      <c r="A41" s="145"/>
       <c r="B41" s="112">
         <v>-2</v>
       </c>
-      <c r="C41" t="s" s="127">
+      <c r="C41" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D41" t="s" s="128">
+      <c r="D41" t="s" s="131">
         <v>206</v>
       </c>
-      <c r="E41" t="s" s="128">
+      <c r="E41" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F41" s="39"/>
       <c r="G41" s="40"/>
-      <c r="H41" s="138">
+      <c r="H41" s="141">
         <v>1014300</v>
       </c>
       <c r="I41" s="39"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="139">
+      <c r="K41" s="142">
         <v>21649.999</v>
       </c>
       <c r="L41" s="84"/>
-      <c r="M41" s="126">
+      <c r="M41" s="129">
         <v>25000</v>
       </c>
-      <c r="N41" s="141"/>
+      <c r="N41" s="144"/>
       <c r="O41" s="11"/>
       <c r="P41" s="40"/>
       <c r="Q41" s="116">
         <v>0.86599996</v>
       </c>
       <c r="R41" s="84"/>
-      <c r="S41" s="134">
+      <c r="S41" s="137">
         <v>-0.151329750703397</v>
       </c>
     </row>
     <row r="42" ht="13.5" customHeight="1">
-      <c r="A42" s="142"/>
+      <c r="A42" s="145"/>
       <c r="B42" s="112">
         <v>-2</v>
       </c>
-      <c r="C42" t="s" s="127">
+      <c r="C42" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D42" t="s" s="128">
+      <c r="D42" t="s" s="131">
         <v>207</v>
       </c>
-      <c r="E42" t="s" s="128">
+      <c r="E42" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F42" s="39"/>
       <c r="G42" s="40"/>
-      <c r="H42" s="138">
+      <c r="H42" s="141">
         <v>628320</v>
       </c>
       <c r="I42" s="39"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="139">
+      <c r="K42" s="142">
         <v>55671.426</v>
       </c>
       <c r="L42" s="84"/>
-      <c r="M42" s="126">
+      <c r="M42" s="129">
         <v>60000</v>
       </c>
-      <c r="N42" s="141"/>
+      <c r="N42" s="144"/>
       <c r="O42" s="11"/>
       <c r="P42" s="40"/>
       <c r="Q42" s="116">
         <v>0.9278571</v>
       </c>
       <c r="R42" s="84"/>
-      <c r="S42" s="134">
+      <c r="S42" s="137">
         <v>-0.0695404045114185</v>
       </c>
     </row>
     <row r="43" ht="13.5" customHeight="1">
-      <c r="A43" s="142"/>
+      <c r="A43" s="145"/>
       <c r="B43" s="112">
         <v>-2</v>
       </c>
-      <c r="C43" t="s" s="127">
+      <c r="C43" t="s" s="130">
         <v>141</v>
       </c>
-      <c r="D43" t="s" s="128">
+      <c r="D43" t="s" s="131">
         <v>208</v>
       </c>
-      <c r="E43" t="s" s="128">
+      <c r="E43" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F43" s="39"/>
       <c r="G43" s="40"/>
-      <c r="H43" s="138">
+      <c r="H43" s="141">
         <v>12234288</v>
       </c>
       <c r="I43" s="39"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="139">
+      <c r="K43" s="142">
         <v>773214.25</v>
       </c>
       <c r="L43" s="84"/>
-      <c r="M43" s="126">
+      <c r="M43" s="129">
         <v>800000</v>
       </c>
-      <c r="N43" s="141"/>
+      <c r="N43" s="144"/>
       <c r="O43" s="11"/>
       <c r="P43" s="40"/>
       <c r="Q43" s="116">
         <v>0.9665178125</v>
       </c>
       <c r="R43" s="84"/>
-      <c r="S43" s="134">
+      <c r="S43" s="137">
         <v>0.0211452543109312</v>
       </c>
     </row>
     <row r="44" ht="13.5" customHeight="1">
-      <c r="A44" s="142"/>
-      <c r="B44" s="143">
+      <c r="A44" s="145"/>
+      <c r="B44" s="146">
         <v>-1</v>
       </c>
-      <c r="C44" t="s" s="152">
+      <c r="C44" t="s" s="155">
         <v>141</v>
       </c>
-      <c r="D44" t="s" s="128">
+      <c r="D44" t="s" s="131">
         <v>198</v>
       </c>
-      <c r="E44" t="s" s="128">
+      <c r="E44" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F44" s="39"/>
       <c r="G44" s="40"/>
-      <c r="H44" s="138">
+      <c r="H44" s="141">
         <v>10560000</v>
       </c>
       <c r="I44" s="39"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="139">
+      <c r="K44" s="142">
         <v>716400</v>
       </c>
       <c r="L44" s="84"/>
-      <c r="M44" s="126">
+      <c r="M44" s="129">
         <v>600000</v>
       </c>
-      <c r="N44" s="141"/>
+      <c r="N44" s="144"/>
       <c r="O44" s="11"/>
       <c r="P44" s="40"/>
       <c r="Q44" s="116">
         <v>1.194</v>
       </c>
       <c r="R44" s="84"/>
-      <c r="S44" s="134">
+      <c r="S44" s="137">
         <v>0.362532327572475</v>
       </c>
     </row>
     <row r="45" ht="13.5" customHeight="1">
-      <c r="A45" s="142"/>
-      <c r="B45" s="143">
+      <c r="A45" s="145"/>
+      <c r="B45" s="146">
         <v>-1</v>
       </c>
-      <c r="C45" t="s" s="152">
+      <c r="C45" t="s" s="155">
         <v>141</v>
       </c>
-      <c r="D45" t="s" s="128">
+      <c r="D45" t="s" s="131">
         <v>200</v>
       </c>
-      <c r="E45" t="s" s="128">
+      <c r="E45" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F45" s="39"/>
       <c r="G45" s="40"/>
-      <c r="H45" s="138">
+      <c r="H45" s="141">
         <v>3700000</v>
       </c>
       <c r="I45" s="39"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="139">
+      <c r="K45" s="142">
         <v>220500</v>
       </c>
       <c r="L45" s="84"/>
-      <c r="M45" s="126">
+      <c r="M45" s="129">
         <v>200000</v>
       </c>
-      <c r="N45" s="141"/>
+      <c r="N45" s="144"/>
       <c r="O45" s="11"/>
       <c r="P45" s="40"/>
       <c r="Q45" s="116">
         <v>1.1025</v>
       </c>
       <c r="R45" s="84"/>
-      <c r="S45" s="134">
+      <c r="S45" s="137">
         <v>0.425866116668181</v>
       </c>
     </row>
     <row r="46" ht="13.5" customHeight="1">
-      <c r="A46" s="142"/>
-      <c r="B46" s="143">
+      <c r="A46" s="145"/>
+      <c r="B46" s="146">
         <v>-1</v>
       </c>
-      <c r="C46" t="s" s="152">
+      <c r="C46" t="s" s="155">
         <v>141</v>
       </c>
-      <c r="D46" t="s" s="128">
+      <c r="D46" t="s" s="131">
         <v>201</v>
       </c>
-      <c r="E46" t="s" s="128">
+      <c r="E46" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F46" s="39"/>
       <c r="G46" s="40"/>
-      <c r="H46" s="138">
+      <c r="H46" s="141">
         <v>13041600</v>
       </c>
       <c r="I46" s="39"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="139">
+      <c r="K46" s="142">
         <v>859704</v>
       </c>
       <c r="L46" s="84"/>
-      <c r="M46" s="126">
+      <c r="M46" s="129">
         <v>800000</v>
       </c>
-      <c r="N46" s="141"/>
+      <c r="N46" s="144"/>
       <c r="O46" s="11"/>
       <c r="P46" s="40"/>
       <c r="Q46" s="116">
         <v>1.07463</v>
       </c>
       <c r="R46" s="84"/>
-      <c r="S46" s="134">
+      <c r="S46" s="137">
         <v>0.208540672349504</v>
       </c>
     </row>
     <row r="47" ht="13.5" customHeight="1">
-      <c r="A47" s="142"/>
-      <c r="B47" s="143">
+      <c r="A47" s="145"/>
+      <c r="B47" s="146">
         <v>-1</v>
       </c>
-      <c r="C47" t="s" s="152">
+      <c r="C47" t="s" s="155">
         <v>141</v>
       </c>
-      <c r="D47" t="s" s="128">
+      <c r="D47" t="s" s="131">
         <v>202</v>
       </c>
-      <c r="E47" t="s" s="128">
+      <c r="E47" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F47" s="39"/>
       <c r="G47" s="40"/>
-      <c r="H47" s="138">
+      <c r="H47" s="141">
         <v>6200000</v>
       </c>
       <c r="I47" s="39"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="139">
+      <c r="K47" s="142">
         <v>400000</v>
       </c>
       <c r="L47" s="84"/>
-      <c r="M47" s="126">
+      <c r="M47" s="129">
         <v>450000</v>
       </c>
-      <c r="N47" s="141"/>
+      <c r="N47" s="144"/>
       <c r="O47" s="11"/>
       <c r="P47" s="40"/>
       <c r="Q47" s="116">
         <v>0.888888888888889</v>
       </c>
       <c r="R47" s="84"/>
-      <c r="S47" s="134">
+      <c r="S47" s="137">
         <v>-0.0762124284624679</v>
       </c>
     </row>
     <row r="48" ht="13.5" customHeight="1">
-      <c r="A48" s="142"/>
-      <c r="B48" s="143">
+      <c r="A48" s="145"/>
+      <c r="B48" s="146">
         <v>-1</v>
       </c>
-      <c r="C48" t="s" s="152">
+      <c r="C48" t="s" s="155">
         <v>141</v>
       </c>
-      <c r="D48" t="s" s="128">
+      <c r="D48" t="s" s="131">
         <v>203</v>
       </c>
-      <c r="E48" t="s" s="128">
+      <c r="E48" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F48" s="39"/>
       <c r="G48" s="40"/>
-      <c r="H48" s="138">
+      <c r="H48" s="141">
         <v>1400000</v>
       </c>
       <c r="I48" s="39"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="139">
+      <c r="K48" s="142">
         <v>90000</v>
       </c>
       <c r="L48" s="84"/>
-      <c r="M48" s="126">
+      <c r="M48" s="129">
         <v>85000</v>
       </c>
-      <c r="N48" s="141"/>
+      <c r="N48" s="144"/>
       <c r="O48" s="11"/>
       <c r="P48" s="40"/>
       <c r="Q48" s="116">
         <v>1.05882352941176</v>
       </c>
       <c r="R48" s="84"/>
-      <c r="S48" s="134">
+      <c r="S48" s="137">
         <v>0.163972340137291</v>
       </c>
     </row>
     <row r="49" ht="13.5" customHeight="1">
-      <c r="A49" s="142"/>
-      <c r="B49" s="143">
+      <c r="A49" s="145"/>
+      <c r="B49" s="146">
         <v>-1</v>
       </c>
-      <c r="C49" t="s" s="152">
+      <c r="C49" t="s" s="155">
         <v>141</v>
       </c>
-      <c r="D49" t="s" s="128">
+      <c r="D49" t="s" s="131">
         <v>204</v>
       </c>
-      <c r="E49" t="s" s="128">
+      <c r="E49" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F49" s="39"/>
       <c r="G49" s="40"/>
-      <c r="H49" s="138">
+      <c r="H49" s="141">
         <v>4067200</v>
       </c>
       <c r="I49" s="39"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="139">
+      <c r="K49" s="142">
         <v>276368</v>
       </c>
       <c r="L49" s="84"/>
-      <c r="M49" s="126">
+      <c r="M49" s="129">
         <v>250000</v>
       </c>
-      <c r="N49" s="141"/>
+      <c r="N49" s="144"/>
       <c r="O49" s="11"/>
       <c r="P49" s="40"/>
       <c r="Q49" s="116">
         <v>1.105472</v>
       </c>
       <c r="R49" s="84"/>
-      <c r="S49" s="134">
+      <c r="S49" s="137">
         <v>0.116960790621746</v>
       </c>
     </row>
     <row r="50" ht="13.5" customHeight="1">
-      <c r="A50" s="142"/>
-      <c r="B50" s="143">
+      <c r="A50" s="145"/>
+      <c r="B50" s="146">
         <v>-1</v>
       </c>
-      <c r="C50" t="s" s="152">
+      <c r="C50" t="s" s="155">
         <v>141</v>
       </c>
-      <c r="D50" t="s" s="128">
+      <c r="D50" t="s" s="131">
         <v>205</v>
       </c>
-      <c r="E50" t="s" s="128">
+      <c r="E50" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F50" s="39"/>
       <c r="G50" s="40"/>
-      <c r="H50" s="138">
+      <c r="H50" s="141">
         <v>1419200</v>
       </c>
       <c r="I50" s="39"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="139">
+      <c r="K50" s="142">
         <v>90248</v>
       </c>
       <c r="L50" s="84"/>
-      <c r="M50" s="126">
+      <c r="M50" s="129">
         <v>100000</v>
       </c>
-      <c r="N50" s="141"/>
+      <c r="N50" s="144"/>
       <c r="O50" s="11"/>
       <c r="P50" s="40"/>
       <c r="Q50" s="116">
         <v>0.9024799999999999</v>
       </c>
       <c r="R50" s="84"/>
-      <c r="S50" s="134">
+      <c r="S50" s="137">
         <v>-0.0273502245119426</v>
       </c>
     </row>
     <row r="51" ht="13.5" customHeight="1">
-      <c r="A51" s="142"/>
-      <c r="B51" s="143">
+      <c r="A51" s="145"/>
+      <c r="B51" s="146">
         <v>-1</v>
       </c>
-      <c r="C51" t="s" s="152">
+      <c r="C51" t="s" s="155">
         <v>141</v>
       </c>
-      <c r="D51" t="s" s="128">
+      <c r="D51" t="s" s="131">
         <v>206</v>
       </c>
-      <c r="E51" t="s" s="128">
+      <c r="E51" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F51" s="39"/>
       <c r="G51" s="40"/>
-      <c r="H51" s="138">
+      <c r="H51" s="141">
         <v>1014300</v>
       </c>
       <c r="I51" s="39"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="139">
+      <c r="K51" s="142">
         <v>28930</v>
       </c>
       <c r="L51" s="84"/>
-      <c r="M51" s="126">
+      <c r="M51" s="129">
         <v>25000</v>
       </c>
-      <c r="N51" s="141"/>
+      <c r="N51" s="144"/>
       <c r="O51" s="11"/>
       <c r="P51" s="40"/>
       <c r="Q51" s="116">
         <v>1.1572</v>
       </c>
       <c r="R51" s="84"/>
-      <c r="S51" s="134">
+      <c r="S51" s="137">
         <v>0.33625872222904</v>
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1">
-      <c r="A52" s="142"/>
-      <c r="B52" s="143">
+      <c r="A52" s="145"/>
+      <c r="B52" s="146">
         <v>-1</v>
       </c>
-      <c r="C52" t="s" s="152">
+      <c r="C52" t="s" s="155">
         <v>141</v>
       </c>
-      <c r="D52" t="s" s="128">
+      <c r="D52" t="s" s="131">
         <v>207</v>
       </c>
-      <c r="E52" t="s" s="128">
+      <c r="E52" t="s" s="131">
         <v>199</v>
       </c>
       <c r="F52" s="39"/>
       <c r="G52" s="40"/>
-      <c r="H52" s="138">
+      <c r="H52" s="141">
         <v>628320</v>
       </c>
       <c r="I52" s="39"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="139">
+      <c r="K52" s="142">
         <v>35840</v>
       </c>
       <c r="L52" s="84"/>
-      <c r="M52" s="126">
+      <c r="M52" s="129">
         <v>40000</v>
       </c>
-      <c r="N52" s="141"/>
+      <c r="N52" s="144"/>
       <c r="O52" s="11"/>
       <c r="P52" s="40"/>
       <c r="Q52" s="116">
         <v>0.896</v>
       </c>
       <c r="R52" s="84"/>
-      <c r="S52" s="134">
+      <c r="S52" s="137">
         <v>-0.356222705701844</v>
       </c>
     </row>
     <row r="53" ht="13.5" customHeight="1">
-      <c r="A53" s="142"/>
-      <c r="B53" s="143">
+      <c r="A53" s="145"/>
+      <c r="B53" s="146">
         <v>-1</v>
       </c>
-      <c r="C53" t="s" s="144">
+      <c r="C53" t="s" s="147">
         <v>141</v>
       </c>
-      <c r="D53" t="s" s="128">
+      <c r="D53" t="s" s="131">
         <v>208</v>
       </c>
-      <c r="E53" t="s" s="128">
+      <c r="E53" t="s" s="131">
         <v>199</v>
       </c>
-      <c r="F53" s="153"/>
+      <c r="F53" s="156"/>
       <c r="G53" s="40"/>
-      <c r="H53" s="138">
+      <c r="H53" s="141">
         <v>12234288</v>
       </c>
       <c r="I53" s="39"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="139">
+      <c r="K53" s="142">
         <v>835229</v>
       </c>
       <c r="L53" s="84"/>
-      <c r="M53" s="126">
+      <c r="M53" s="129">
         <v>800000</v>
       </c>
-      <c r="N53" s="141"/>
+      <c r="N53" s="144"/>
       <c r="O53" s="11"/>
       <c r="P53" s="40"/>
       <c r="Q53" s="116">
         <v>1.04403625</v>
       </c>
       <c r="R53" s="84"/>
-      <c r="S53" s="134">
+      <c r="S53" s="137">
         <v>0.08020383742281</v>
       </c>
     </row>
     <row r="54" ht="13.5" customHeight="1">
-      <c r="A54" s="142"/>
+      <c r="A54" s="145"/>
       <c r="B54" s="112">
         <v>-4</v>
       </c>
-      <c r="C54" t="s" s="154">
+      <c r="C54" t="s" s="157">
         <v>142</v>
       </c>
-      <c r="D54" s="155"/>
-      <c r="E54" t="s" s="156">
+      <c r="D54" s="158"/>
+      <c r="E54" t="s" s="159">
         <v>209</v>
       </c>
-      <c r="F54" t="s" s="156">
+      <c r="F54" t="s" s="159">
         <v>210</v>
       </c>
       <c r="G54" s="39"/>
       <c r="H54" s="67"/>
       <c r="I54" s="11"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="157">
+      <c r="K54" s="160">
         <v>1053340</v>
       </c>
       <c r="L54" s="84"/>
-      <c r="M54" s="157">
+      <c r="M54" s="160">
         <v>975000</v>
       </c>
-      <c r="N54" s="158"/>
+      <c r="N54" s="161"/>
       <c r="O54" s="11"/>
       <c r="P54" s="40"/>
-      <c r="Q54" s="159">
+      <c r="Q54" s="162">
         <v>1.08034871794872</v>
       </c>
       <c r="R54" s="84"/>
-      <c r="S54" s="159">
+      <c r="S54" s="162">
         <v>0.187882670877236</v>
       </c>
     </row>
     <row r="55" ht="13.5" customHeight="1">
-      <c r="A55" s="142"/>
+      <c r="A55" s="145"/>
       <c r="B55" s="112">
         <v>-4</v>
       </c>
-      <c r="C55" t="s" s="160">
+      <c r="C55" t="s" s="163">
         <v>142</v>
       </c>
       <c r="D55" s="40"/>
-      <c r="E55" t="s" s="156">
+      <c r="E55" t="s" s="159">
         <v>209</v>
       </c>
-      <c r="F55" t="s" s="156">
+      <c r="F55" t="s" s="159">
         <v>211</v>
       </c>
       <c r="G55" s="39"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="157">
+      <c r="K55" s="160">
         <v>1516481</v>
       </c>
       <c r="L55" s="84"/>
-      <c r="M55" s="157">
+      <c r="M55" s="160">
         <v>1450000</v>
       </c>
-      <c r="N55" s="158"/>
+      <c r="N55" s="161"/>
       <c r="O55" s="11"/>
       <c r="P55" s="40"/>
-      <c r="Q55" s="159">
+      <c r="Q55" s="162">
         <v>1.04584896551724</v>
       </c>
       <c r="R55" s="84"/>
-      <c r="S55" s="159">
+      <c r="S55" s="162">
         <v>0.159205827067669</v>
       </c>
     </row>
     <row r="56" ht="13.5" customHeight="1">
-      <c r="A56" s="142"/>
+      <c r="A56" s="145"/>
       <c r="B56" s="112">
         <v>-4</v>
       </c>
-      <c r="C56" t="s" s="160">
+      <c r="C56" t="s" s="163">
         <v>142</v>
       </c>
       <c r="D56" s="40"/>
-      <c r="E56" t="s" s="156">
+      <c r="E56" t="s" s="159">
         <v>209</v>
       </c>
-      <c r="F56" t="s" s="156">
+      <c r="F56" t="s" s="159">
         <v>212</v>
       </c>
       <c r="G56" s="39"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="157">
+      <c r="K56" s="160">
         <v>319691</v>
       </c>
       <c r="L56" s="84"/>
-      <c r="M56" s="157">
+      <c r="M56" s="160">
         <v>385000</v>
       </c>
-      <c r="N56" s="158"/>
+      <c r="N56" s="161"/>
       <c r="O56" s="11"/>
       <c r="P56" s="40"/>
-      <c r="Q56" s="159">
+      <c r="Q56" s="162">
         <v>0.830366233766234</v>
       </c>
       <c r="R56" s="84"/>
-      <c r="S56" s="159">
+      <c r="S56" s="162">
         <v>-0.124001966568338</v>
       </c>
     </row>
     <row r="57" ht="13.5" customHeight="1">
-      <c r="A57" s="142"/>
+      <c r="A57" s="145"/>
       <c r="B57" s="112">
         <v>-4</v>
       </c>
-      <c r="C57" t="s" s="160">
+      <c r="C57" t="s" s="163">
         <v>142</v>
       </c>
       <c r="D57" s="40"/>
-      <c r="E57" t="s" s="156">
+      <c r="E57" t="s" s="159">
         <v>209</v>
       </c>
-      <c r="F57" t="s" s="156">
+      <c r="F57" t="s" s="159">
         <v>213</v>
       </c>
       <c r="G57" s="39"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="157">
+      <c r="K57" s="160">
         <v>368874</v>
       </c>
       <c r="L57" s="84"/>
-      <c r="M57" s="157">
+      <c r="M57" s="160">
         <v>370000</v>
       </c>
-      <c r="N57" s="158"/>
+      <c r="N57" s="161"/>
       <c r="O57" s="11"/>
       <c r="P57" s="40"/>
-      <c r="Q57" s="159">
+      <c r="Q57" s="162">
         <v>0.996956756756757</v>
       </c>
       <c r="R57" s="84"/>
-      <c r="S57" s="159">
+      <c r="S57" s="162">
         <v>0.126180758017493</v>
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1">
-      <c r="A58" s="142"/>
+      <c r="A58" s="145"/>
       <c r="B58" s="112">
         <v>-4</v>
       </c>
-      <c r="C58" t="s" s="160">
+      <c r="C58" t="s" s="163">
         <v>142</v>
       </c>
       <c r="D58" s="40"/>
-      <c r="E58" t="s" s="156">
+      <c r="E58" t="s" s="159">
         <v>209</v>
       </c>
-      <c r="F58" t="s" s="156">
+      <c r="F58" t="s" s="159">
         <v>214</v>
       </c>
       <c r="G58" s="39"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="157">
+      <c r="K58" s="160">
         <v>840213</v>
       </c>
       <c r="L58" s="84"/>
-      <c r="M58" s="157">
+      <c r="M58" s="160">
         <v>800000</v>
       </c>
-      <c r="N58" s="158"/>
+      <c r="N58" s="161"/>
       <c r="O58" s="11"/>
       <c r="P58" s="40"/>
-      <c r="Q58" s="159">
+      <c r="Q58" s="162">
         <v>1.05026625</v>
       </c>
       <c r="R58" s="84"/>
-      <c r="S58" s="159">
+      <c r="S58" s="162">
         <v>0.146255697851096</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1">
-      <c r="A59" s="142"/>
+      <c r="A59" s="145"/>
       <c r="B59" s="112">
         <v>-3</v>
       </c>
-      <c r="C59" t="s" s="160">
+      <c r="C59" t="s" s="163">
         <v>142</v>
       </c>
       <c r="D59" s="40"/>
-      <c r="E59" t="s" s="156">
+      <c r="E59" t="s" s="159">
         <v>209</v>
       </c>
-      <c r="F59" t="s" s="156">
+      <c r="F59" t="s" s="159">
         <v>210</v>
       </c>
       <c r="G59" s="39"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="157">
+      <c r="K59" s="160">
         <v>817035</v>
       </c>
       <c r="L59" s="84"/>
-      <c r="M59" s="157">
+      <c r="M59" s="160">
         <v>910000</v>
       </c>
-      <c r="N59" s="158"/>
+      <c r="N59" s="161"/>
       <c r="O59" s="11"/>
       <c r="P59" s="40"/>
-      <c r="Q59" s="159">
+      <c r="Q59" s="162">
         <v>0.897840659340659</v>
       </c>
       <c r="R59" s="84"/>
-      <c r="S59" s="159">
+      <c r="S59" s="162">
         <v>0.0145048865715667</v>
       </c>
     </row>
     <row r="60" ht="13.5" customHeight="1">
-      <c r="A60" s="142"/>
+      <c r="A60" s="145"/>
       <c r="B60" s="112">
         <v>-3</v>
       </c>
-      <c r="C60" t="s" s="160">
+      <c r="C60" t="s" s="163">
         <v>142</v>
       </c>
       <c r="D60" s="40"/>
-      <c r="E60" t="s" s="156">
+      <c r="E60" t="s" s="159">
         <v>209</v>
       </c>
-      <c r="F60" t="s" s="156">
+      <c r="F60" t="s" s="159">
         <v>211</v>
       </c>
       <c r="G60" s="39"/>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="157">
+      <c r="K60" s="160">
         <v>1214350</v>
       </c>
       <c r="L60" s="84"/>
-      <c r="M60" s="157">
+      <c r="M60" s="160">
         <v>1350000</v>
       </c>
-      <c r="N60" s="158"/>
+      <c r="N60" s="161"/>
       <c r="O60" s="11"/>
       <c r="P60" s="40"/>
-      <c r="Q60" s="159">
+      <c r="Q60" s="162">
         <v>0.8995185185185181</v>
       </c>
       <c r="R60" s="84"/>
-      <c r="S60" s="159">
+      <c r="S60" s="162">
         <v>-0.0576382426812698</v>
       </c>
     </row>
     <row r="61" ht="13.5" customHeight="1">
-      <c r="A61" s="142"/>
+      <c r="A61" s="145"/>
       <c r="B61" s="112">
         <v>-3</v>
       </c>
-      <c r="C61" t="s" s="160">
+      <c r="C61" t="s" s="163">
         <v>142</v>
       </c>
       <c r="D61" s="40"/>
-      <c r="E61" t="s" s="156">
+      <c r="E61" t="s" s="159">
         <v>209</v>
       </c>
-      <c r="F61" t="s" s="156">
+      <c r="F61" t="s" s="159">
         <v>212</v>
       </c>
       <c r="G61" s="39"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="157">
+      <c r="K61" s="160">
         <v>248727</v>
       </c>
       <c r="L61" s="84"/>
-      <c r="M61" s="157">
+      <c r="M61" s="160">
         <v>275000</v>
       </c>
-      <c r="N61" s="158"/>
+      <c r="N61" s="161"/>
       <c r="O61" s="11"/>
       <c r="P61" s="40"/>
-      <c r="Q61" s="159">
+      <c r="Q61" s="162">
         <v>0.904461818181818</v>
       </c>
       <c r="R61" s="84"/>
-      <c r="S61" s="159">
+      <c r="S61" s="162">
         <v>0.081824651123521</v>
       </c>
     </row>
     <row r="62" ht="13.5" customHeight="1">
-      <c r="A62" s="142"/>
+      <c r="A62" s="145"/>
       <c r="B62" s="112">
         <v>-3</v>
       </c>
-      <c r="C62" t="s" s="160">
+      <c r="C62" t="s" s="163">
         <v>142</v>
       </c>
       <c r="D62" s="40"/>
-      <c r="E62" t="s" s="156">
+      <c r="E62" t="s" s="159">
         <v>209</v>
       </c>
-      <c r="F62" t="s" s="156">
+      <c r="F62" t="s" s="159">
         <v>213</v>
       </c>
       <c r="G62" s="39"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="157">
+      <c r="K62" s="160">
         <v>281993</v>
       </c>
       <c r="L62" s="84"/>
-      <c r="M62" s="157">
+      <c r="M62" s="160">
         <v>300000</v>
       </c>
-      <c r="N62" s="158"/>
+      <c r="N62" s="161"/>
       <c r="O62" s="11"/>
       <c r="P62" s="40"/>
-      <c r="Q62" s="159">
+      <c r="Q62" s="162">
         <v>0.939976666666667</v>
       </c>
       <c r="R62" s="84"/>
-      <c r="S62" s="159">
+      <c r="S62" s="162">
         <v>-0.122570418414641</v>
       </c>
     </row>
     <row r="63" ht="13.5" customHeight="1">
-      <c r="A63" s="142"/>
+      <c r="A63" s="145"/>
       <c r="B63" s="112">
         <v>-3</v>
       </c>
-      <c r="C63" t="s" s="160">
+      <c r="C63" t="s" s="163">
         <v>142</v>
       </c>
       <c r="D63" s="40"/>
-      <c r="E63" t="s" s="156">
+      <c r="E63" t="s" s="159">
         <v>209</v>
       </c>
-      <c r="F63" t="s" s="156">
+      <c r="F63" t="s" s="159">
         <v>214</v>
       </c>
       <c r="G63" s="39"/>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="157">
+      <c r="K63" s="160">
         <v>626706</v>
       </c>
       <c r="L63" s="84"/>
-      <c r="M63" s="157">
+      <c r="M63" s="160">
         <v>730000</v>
       </c>
-      <c r="N63" s="158"/>
+      <c r="N63" s="161"/>
       <c r="O63" s="11"/>
       <c r="P63" s="40"/>
-      <c r="Q63" s="159">
+      <c r="Q63" s="162">
         <v>0.858501369863014</v>
       </c>
       <c r="R63" s="84"/>
-      <c r="S63" s="159">
+      <c r="S63" s="162">
         <v>-0.0376556152326609</v>
       </c>
     </row>
     <row r="64" ht="13.5" customHeight="1">
-      <c r="A64" s="142"/>
+      <c r="A64" s="145"/>
       <c r="B64" s="112">
         <v>-2</v>
       </c>
-      <c r="C64" t="s" s="160">
+      <c r="C64" t="s" s="163">
         <v>142</v>
       </c>
       <c r="D64" s="40"/>
-      <c r="E64" t="s" s="156">
+      <c r="E64" t="s" s="159">
         <v>209</v>
       </c>
-      <c r="F64" t="s" s="156">
+      <c r="F64" t="s" s="159">
         <v>210</v>
       </c>
       <c r="G64" s="39"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="157">
+      <c r="K64" s="160">
         <v>828886</v>
       </c>
       <c r="L64" s="84"/>
-      <c r="M64" s="157">
+      <c r="M64" s="160">
         <v>860000</v>
       </c>
-      <c r="N64" s="158"/>
+      <c r="N64" s="161"/>
       <c r="O64" s="11"/>
       <c r="P64" s="40"/>
-      <c r="Q64" s="159">
+      <c r="Q64" s="162">
         <v>0.963820930232558</v>
       </c>
       <c r="R64" s="84"/>
-      <c r="S64" s="159">
+      <c r="S64" s="162">
         <v>0.0145048865715667</v>
       </c>
     </row>
     <row r="65" ht="13.5" customHeight="1">
-      <c r="A65" s="142"/>
+      <c r="A65" s="145"/>
       <c r="B65" s="112">
         <v>-2</v>
       </c>
-      <c r="C65" t="s" s="160">
+      <c r="C65" t="s" s="163">
         <v>142</v>
       </c>
       <c r="D65" s="40"/>
-      <c r="E65" t="s" s="156">
+      <c r="E65" t="s" s="159">
         <v>209</v>
       </c>
-      <c r="F65" t="s" s="156">
+      <c r="F65" t="s" s="159">
         <v>211</v>
       </c>
       <c r="G65" s="39"/>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="157">
+      <c r="K65" s="160">
         <v>1144357</v>
       </c>
       <c r="L65" s="84"/>
-      <c r="M65" s="157">
+      <c r="M65" s="160">
         <v>1250000</v>
       </c>
-      <c r="N65" s="158"/>
+      <c r="N65" s="161"/>
       <c r="O65" s="11"/>
       <c r="P65" s="40"/>
-      <c r="Q65" s="159">
+      <c r="Q65" s="162">
         <v>0.9154856</v>
       </c>
       <c r="R65" s="84"/>
-      <c r="S65" s="159">
+      <c r="S65" s="162">
         <v>-0.0576382426812698</v>
       </c>
     </row>
     <row r="66" ht="13.5" customHeight="1">
-      <c r="A66" s="142"/>
+      <c r="A66" s="145"/>
       <c r="B66" s="112">
         <v>-2</v>
       </c>
-      <c r="C66" t="s" s="160">
+      <c r="C66" t="s" s="163">
         <v>142</v>
       </c>
       <c r="D66" s="40"/>
-      <c r="E66" t="s" s="156">
+      <c r="E66" t="s" s="159">
         <v>209</v>
       </c>
-      <c r="F66" t="s" s="156">
+      <c r="F66" t="s" s="159">
         <v>212</v>
       </c>
       <c r="G66" s="39"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="157">
+      <c r="K66" s="160">
         <v>269079</v>
       </c>
       <c r="L66" s="84"/>
-      <c r="M66" s="157">
+      <c r="M66" s="160">
         <v>275000</v>
       </c>
-      <c r="N66" s="158"/>
+      <c r="N66" s="161"/>
       <c r="O66" s="11"/>
       <c r="P66" s="40"/>
-      <c r="Q66" s="159">
+      <c r="Q66" s="162">
         <v>0.978469090909091</v>
       </c>
       <c r="R66" s="84"/>
-      <c r="S66" s="159">
+      <c r="S66" s="162">
         <v>0.081824651123521</v>
       </c>
     </row>
     <row r="67" ht="13.5" customHeight="1">
-      <c r="A67" s="142"/>
+      <c r="A67" s="145"/>
       <c r="B67" s="112">
         <v>-2</v>
       </c>
-      <c r="C67" t="s" s="160">
+      <c r="C67" t="s" s="163">
         <v>142</v>
       </c>
       <c r="D67" s="40"/>
-      <c r="E67" t="s" s="156">
+      <c r="E67" t="s" s="159">
         <v>209</v>
       </c>
-      <c r="F67" t="s" s="156">
+      <c r="F67" t="s" s="159">
         <v>213</v>
       </c>
       <c r="G67" s="39"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="157">
+      <c r="K67" s="160">
         <v>247429</v>
       </c>
       <c r="L67" s="84"/>
-      <c r="M67" s="157">
+      <c r="M67" s="160">
         <v>270000</v>
       </c>
-      <c r="N67" s="158"/>
+      <c r="N67" s="161"/>
       <c r="O67" s="11"/>
       <c r="P67" s="40"/>
-      <c r="Q67" s="159">
+      <c r="Q67" s="162">
         <v>0.9164037037037041</v>
       </c>
       <c r="R67" s="84"/>
-      <c r="S67" s="159">
+      <c r="S67" s="162">
         <v>-0.122570418414641</v>
       </c>
     </row>
     <row r="68" ht="13.5" customHeight="1">
-      <c r="A68" s="142"/>
+      <c r="A68" s="145"/>
       <c r="B68" s="112">
         <v>-2</v>
       </c>
-      <c r="C68" t="s" s="160">
+      <c r="C68" t="s" s="163">
         <v>142</v>
       </c>
       <c r="D68" s="40"/>
-      <c r="E68" t="s" s="156">
+      <c r="E68" t="s" s="159">
         <v>209</v>
       </c>
-      <c r="F68" t="s" s="156">
+      <c r="F68" t="s" s="159">
         <v>214</v>
       </c>
       <c r="G68" s="39"/>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="157">
+      <c r="K68" s="160">
         <v>603107</v>
       </c>
       <c r="L68" s="84"/>
-      <c r="M68" s="157">
+      <c r="M68" s="160">
         <v>630000</v>
       </c>
-      <c r="N68" s="158"/>
+      <c r="N68" s="161"/>
       <c r="O68" s="11"/>
       <c r="P68" s="40"/>
-      <c r="Q68" s="159">
+      <c r="Q68" s="162">
         <v>0.9573126984126979</v>
       </c>
       <c r="R68" s="84"/>
-      <c r="S68" s="159">
+      <c r="S68" s="162">
         <v>-0.0376556152326609</v>
       </c>
     </row>
     <row r="69" ht="13.5" customHeight="1">
-      <c r="A69" s="142"/>
-      <c r="B69" s="126">
+      <c r="A69" s="145"/>
+      <c r="B69" s="129">
         <v>-1</v>
       </c>
-      <c r="C69" t="s" s="160">
+      <c r="C69" t="s" s="163">
         <v>142</v>
       </c>
       <c r="D69" s="40"/>
-      <c r="E69" t="s" s="156">
+      <c r="E69" t="s" s="159">
         <v>209</v>
       </c>
-      <c r="F69" t="s" s="156">
+      <c r="F69" t="s" s="159">
         <v>210</v>
       </c>
       <c r="G69" s="39"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="157">
+      <c r="K69" s="160">
         <v>871069</v>
       </c>
       <c r="L69" s="84"/>
-      <c r="M69" s="157">
+      <c r="M69" s="160">
         <v>840000</v>
       </c>
-      <c r="N69" s="158"/>
+      <c r="N69" s="161"/>
       <c r="O69" s="11"/>
       <c r="P69" s="40"/>
-      <c r="Q69" s="159">
+      <c r="Q69" s="162">
         <v>1.0369869047619</v>
       </c>
       <c r="R69" s="84"/>
@@ -9854,35 +10022,35 @@
       </c>
     </row>
     <row r="70" ht="13.5" customHeight="1">
-      <c r="A70" s="142"/>
-      <c r="B70" s="126">
+      <c r="A70" s="145"/>
+      <c r="B70" s="129">
         <v>-1</v>
       </c>
-      <c r="C70" t="s" s="160">
+      <c r="C70" t="s" s="163">
         <v>142</v>
       </c>
       <c r="D70" s="40"/>
-      <c r="E70" t="s" s="156">
+      <c r="E70" t="s" s="159">
         <v>209</v>
       </c>
-      <c r="F70" t="s" s="156">
+      <c r="F70" t="s" s="159">
         <v>211</v>
       </c>
       <c r="G70" s="39"/>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="157">
+      <c r="K70" s="160">
         <v>1259704</v>
       </c>
       <c r="L70" s="84"/>
-      <c r="M70" s="157">
+      <c r="M70" s="160">
         <v>1250000</v>
       </c>
-      <c r="N70" s="158"/>
+      <c r="N70" s="161"/>
       <c r="O70" s="11"/>
       <c r="P70" s="40"/>
-      <c r="Q70" s="159">
+      <c r="Q70" s="162">
         <v>1.0077632</v>
       </c>
       <c r="R70" s="84"/>
@@ -9891,35 +10059,35 @@
       </c>
     </row>
     <row r="71" ht="13.5" customHeight="1">
-      <c r="A71" s="142"/>
-      <c r="B71" s="126">
+      <c r="A71" s="145"/>
+      <c r="B71" s="129">
         <v>-1</v>
       </c>
-      <c r="C71" t="s" s="160">
+      <c r="C71" t="s" s="163">
         <v>142</v>
       </c>
       <c r="D71" s="40"/>
-      <c r="E71" t="s" s="156">
+      <c r="E71" t="s" s="159">
         <v>209</v>
       </c>
-      <c r="F71" t="s" s="156">
+      <c r="F71" t="s" s="159">
         <v>212</v>
       </c>
       <c r="G71" s="39"/>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="157">
+      <c r="K71" s="160">
         <v>305298</v>
       </c>
       <c r="L71" s="84"/>
-      <c r="M71" s="157">
+      <c r="M71" s="160">
         <v>275000</v>
       </c>
-      <c r="N71" s="158"/>
+      <c r="N71" s="161"/>
       <c r="O71" s="11"/>
       <c r="P71" s="40"/>
-      <c r="Q71" s="159">
+      <c r="Q71" s="162">
         <v>1.11017454545455</v>
       </c>
       <c r="R71" s="84"/>
@@ -9928,35 +10096,35 @@
       </c>
     </row>
     <row r="72" ht="13.5" customHeight="1">
-      <c r="A72" s="142"/>
-      <c r="B72" s="126">
+      <c r="A72" s="145"/>
+      <c r="B72" s="129">
         <v>-1</v>
       </c>
-      <c r="C72" t="s" s="160">
+      <c r="C72" t="s" s="163">
         <v>142</v>
       </c>
       <c r="D72" s="40"/>
-      <c r="E72" t="s" s="156">
+      <c r="E72" t="s" s="159">
         <v>209</v>
       </c>
-      <c r="F72" t="s" s="156">
+      <c r="F72" t="s" s="159">
         <v>213</v>
       </c>
       <c r="G72" s="39"/>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="157">
+      <c r="K72" s="160">
         <v>310748</v>
       </c>
       <c r="L72" s="84"/>
-      <c r="M72" s="157">
+      <c r="M72" s="160">
         <v>300000</v>
       </c>
-      <c r="N72" s="158"/>
+      <c r="N72" s="161"/>
       <c r="O72" s="11"/>
       <c r="P72" s="40"/>
-      <c r="Q72" s="159">
+      <c r="Q72" s="162">
         <v>1.03582666666667</v>
       </c>
       <c r="R72" s="84"/>
@@ -9965,35 +10133,35 @@
       </c>
     </row>
     <row r="73" ht="13.5" customHeight="1">
-      <c r="A73" s="142"/>
-      <c r="B73" s="126">
+      <c r="A73" s="145"/>
+      <c r="B73" s="129">
         <v>-1</v>
       </c>
-      <c r="C73" t="s" s="161">
+      <c r="C73" t="s" s="164">
         <v>142</v>
       </c>
       <c r="D73" s="40"/>
-      <c r="E73" t="s" s="156">
+      <c r="E73" t="s" s="159">
         <v>209</v>
       </c>
-      <c r="F73" t="s" s="156">
+      <c r="F73" t="s" s="159">
         <v>214</v>
       </c>
       <c r="G73" s="39"/>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="157">
+      <c r="K73" s="160">
         <v>806400</v>
       </c>
       <c r="L73" s="84"/>
-      <c r="M73" s="157">
+      <c r="M73" s="160">
         <v>685000</v>
       </c>
-      <c r="N73" s="158"/>
+      <c r="N73" s="161"/>
       <c r="O73" s="11"/>
       <c r="P73" s="40"/>
-      <c r="Q73" s="159">
+      <c r="Q73" s="162">
         <v>1.17722627737226</v>
       </c>
       <c r="R73" s="84"/>
@@ -10002,50 +10170,50 @@
       </c>
     </row>
     <row r="74" ht="13.5" customHeight="1">
-      <c r="A74" s="142"/>
+      <c r="A74" s="145"/>
       <c r="B74" s="112">
         <v>-4</v>
       </c>
-      <c r="C74" t="s" s="162">
+      <c r="C74" t="s" s="165">
         <v>140</v>
       </c>
       <c r="D74" s="84"/>
-      <c r="E74" t="s" s="163">
+      <c r="E74" t="s" s="166">
         <v>215</v>
       </c>
-      <c r="F74" s="164"/>
+      <c r="F74" s="167"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="165">
+      <c r="K74" s="168">
         <v>4098598</v>
       </c>
       <c r="L74" s="84"/>
-      <c r="M74" s="165">
+      <c r="M74" s="168">
         <v>3980000</v>
       </c>
-      <c r="N74" s="166"/>
+      <c r="N74" s="169"/>
       <c r="O74" s="11"/>
       <c r="P74" s="40"/>
-      <c r="Q74" s="167">
+      <c r="Q74" s="170">
         <v>1.02979849246231</v>
       </c>
       <c r="R74" s="84"/>
-      <c r="S74" s="165">
+      <c r="S74" s="168">
         <v>0.132072104234243</v>
       </c>
     </row>
     <row r="75" ht="13.5" customHeight="1">
-      <c r="A75" s="142"/>
+      <c r="A75" s="145"/>
       <c r="B75" s="112">
         <v>-4</v>
       </c>
-      <c r="C75" t="s" s="162">
+      <c r="C75" t="s" s="165">
         <v>140</v>
       </c>
       <c r="D75" s="84"/>
-      <c r="E75" t="s" s="163">
+      <c r="E75" t="s" s="166">
         <v>216</v>
       </c>
       <c r="F75" s="39"/>
@@ -10053,34 +10221,34 @@
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="165">
+      <c r="K75" s="168">
         <v>728487</v>
       </c>
       <c r="L75" s="84"/>
-      <c r="M75" s="165">
+      <c r="M75" s="168">
         <v>655000</v>
       </c>
-      <c r="N75" s="166"/>
+      <c r="N75" s="169"/>
       <c r="O75" s="11"/>
       <c r="P75" s="40"/>
-      <c r="Q75" s="167">
+      <c r="Q75" s="170">
         <v>1.11219389312977</v>
       </c>
       <c r="R75" s="84"/>
-      <c r="S75" s="165">
+      <c r="S75" s="168">
         <v>0.277815753907202</v>
       </c>
     </row>
     <row r="76" ht="13.5" customHeight="1">
-      <c r="A76" s="142"/>
+      <c r="A76" s="145"/>
       <c r="B76" s="112">
         <v>-4</v>
       </c>
-      <c r="C76" t="s" s="162">
+      <c r="C76" t="s" s="165">
         <v>140</v>
       </c>
       <c r="D76" s="84"/>
-      <c r="E76" t="s" s="163">
+      <c r="E76" t="s" s="166">
         <v>217</v>
       </c>
       <c r="F76" s="39"/>
@@ -10088,34 +10256,34 @@
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="165">
+      <c r="K76" s="168">
         <v>2576862</v>
       </c>
       <c r="L76" s="84"/>
-      <c r="M76" s="165">
+      <c r="M76" s="168">
         <v>2610000</v>
       </c>
-      <c r="N76" s="166"/>
+      <c r="N76" s="169"/>
       <c r="O76" s="11"/>
       <c r="P76" s="40"/>
-      <c r="Q76" s="167">
+      <c r="Q76" s="170">
         <v>0.987303448275862</v>
       </c>
       <c r="R76" s="84"/>
-      <c r="S76" s="165">
+      <c r="S76" s="168">
         <v>0.09925064051998669</v>
       </c>
     </row>
     <row r="77" ht="13.5" customHeight="1">
-      <c r="A77" s="142"/>
+      <c r="A77" s="145"/>
       <c r="B77" s="112">
         <v>-3</v>
       </c>
-      <c r="C77" t="s" s="162">
+      <c r="C77" t="s" s="165">
         <v>140</v>
       </c>
       <c r="D77" s="84"/>
-      <c r="E77" t="s" s="163">
+      <c r="E77" t="s" s="166">
         <v>215</v>
       </c>
       <c r="F77" s="39"/>
@@ -10123,34 +10291,34 @@
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="165">
+      <c r="K77" s="168">
         <v>3188812</v>
       </c>
       <c r="L77" s="84"/>
-      <c r="M77" s="165">
+      <c r="M77" s="168">
         <v>3565000</v>
       </c>
-      <c r="N77" s="166"/>
+      <c r="N77" s="169"/>
       <c r="O77" s="11"/>
       <c r="P77" s="40"/>
-      <c r="Q77" s="167">
+      <c r="Q77" s="170">
         <v>0.894477419354839</v>
       </c>
       <c r="R77" s="84"/>
-      <c r="S77" s="165">
+      <c r="S77" s="168">
         <v>-0.221974928987912</v>
       </c>
     </row>
     <row r="78" ht="13.5" customHeight="1">
-      <c r="A78" s="142"/>
+      <c r="A78" s="145"/>
       <c r="B78" s="112">
         <v>-3</v>
       </c>
-      <c r="C78" t="s" s="162">
+      <c r="C78" t="s" s="165">
         <v>140</v>
       </c>
       <c r="D78" s="84"/>
-      <c r="E78" t="s" s="163">
+      <c r="E78" t="s" s="166">
         <v>216</v>
       </c>
       <c r="F78" s="39"/>
@@ -10158,34 +10326,34 @@
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="165">
+      <c r="K78" s="168">
         <v>560064</v>
       </c>
       <c r="L78" s="84"/>
-      <c r="M78" s="165">
+      <c r="M78" s="168">
         <v>615000</v>
       </c>
-      <c r="N78" s="166"/>
+      <c r="N78" s="169"/>
       <c r="O78" s="11"/>
       <c r="P78" s="40"/>
-      <c r="Q78" s="167">
+      <c r="Q78" s="170">
         <v>0.9106731707317069</v>
       </c>
       <c r="R78" s="84"/>
-      <c r="S78" s="165">
+      <c r="S78" s="168">
         <v>-0.23119561502127</v>
       </c>
     </row>
     <row r="79" ht="13.5" customHeight="1">
-      <c r="A79" s="142"/>
+      <c r="A79" s="145"/>
       <c r="B79" s="112">
         <v>-3</v>
       </c>
-      <c r="C79" t="s" s="162">
+      <c r="C79" t="s" s="165">
         <v>140</v>
       </c>
       <c r="D79" s="84"/>
-      <c r="E79" t="s" s="163">
+      <c r="E79" t="s" s="166">
         <v>217</v>
       </c>
       <c r="F79" s="39"/>
@@ -10193,34 +10361,34 @@
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="165">
+      <c r="K79" s="168">
         <v>2293022</v>
       </c>
       <c r="L79" s="84"/>
-      <c r="M79" s="165">
+      <c r="M79" s="168">
         <v>2365000</v>
       </c>
-      <c r="N79" s="166"/>
+      <c r="N79" s="169"/>
       <c r="O79" s="11"/>
       <c r="P79" s="40"/>
-      <c r="Q79" s="167">
+      <c r="Q79" s="170">
         <v>0.96956532769556</v>
       </c>
       <c r="R79" s="84"/>
-      <c r="S79" s="165">
+      <c r="S79" s="168">
         <v>-0.110149476378634</v>
       </c>
     </row>
     <row r="80" ht="13.5" customHeight="1">
-      <c r="A80" s="142"/>
+      <c r="A80" s="145"/>
       <c r="B80" s="112">
         <v>-2</v>
       </c>
-      <c r="C80" t="s" s="162">
+      <c r="C80" t="s" s="165">
         <v>140</v>
       </c>
       <c r="D80" s="84"/>
-      <c r="E80" t="s" s="163">
+      <c r="E80" t="s" s="166">
         <v>215</v>
       </c>
       <c r="F80" s="39"/>
@@ -10228,34 +10396,34 @@
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="165">
+      <c r="K80" s="168">
         <v>3092857</v>
       </c>
       <c r="L80" s="84"/>
-      <c r="M80" s="165">
+      <c r="M80" s="168">
         <v>3285000</v>
       </c>
-      <c r="N80" s="166"/>
+      <c r="N80" s="169"/>
       <c r="O80" s="11"/>
       <c r="P80" s="40"/>
-      <c r="Q80" s="167">
+      <c r="Q80" s="170">
         <v>0.94150898021309</v>
       </c>
       <c r="R80" s="84"/>
-      <c r="S80" s="165">
+      <c r="S80" s="168">
         <v>-0.0300911436610248</v>
       </c>
     </row>
     <row r="81" ht="13.5" customHeight="1">
-      <c r="A81" s="142"/>
+      <c r="A81" s="145"/>
       <c r="B81" s="112">
         <v>-2</v>
       </c>
-      <c r="C81" t="s" s="162">
+      <c r="C81" t="s" s="165">
         <v>140</v>
       </c>
       <c r="D81" s="84"/>
-      <c r="E81" t="s" s="163">
+      <c r="E81" t="s" s="166">
         <v>216</v>
       </c>
       <c r="F81" s="39"/>
@@ -10263,34 +10431,34 @@
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="165">
+      <c r="K81" s="168">
         <v>792494</v>
       </c>
       <c r="L81" s="84"/>
-      <c r="M81" s="165">
+      <c r="M81" s="168">
         <v>615000</v>
       </c>
-      <c r="N81" s="166"/>
+      <c r="N81" s="169"/>
       <c r="O81" s="11"/>
       <c r="P81" s="40"/>
-      <c r="Q81" s="167">
+      <c r="Q81" s="170">
         <v>1.2886081300813</v>
       </c>
       <c r="R81" s="84"/>
-      <c r="S81" s="165">
+      <c r="S81" s="168">
         <v>0.415006142155182</v>
       </c>
     </row>
     <row r="82" ht="13.5" customHeight="1">
-      <c r="A82" s="142"/>
+      <c r="A82" s="145"/>
       <c r="B82" s="112">
         <v>-2</v>
       </c>
-      <c r="C82" t="s" s="162">
+      <c r="C82" t="s" s="165">
         <v>140</v>
       </c>
       <c r="D82" s="84"/>
-      <c r="E82" t="s" s="163">
+      <c r="E82" t="s" s="166">
         <v>217</v>
       </c>
       <c r="F82" s="39"/>
@@ -10298,34 +10466,34 @@
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="165">
+      <c r="K82" s="168">
         <v>2263056</v>
       </c>
       <c r="L82" s="84"/>
-      <c r="M82" s="165">
+      <c r="M82" s="168">
         <v>2345000</v>
       </c>
-      <c r="N82" s="166"/>
+      <c r="N82" s="169"/>
       <c r="O82" s="11"/>
       <c r="P82" s="40"/>
-      <c r="Q82" s="167">
+      <c r="Q82" s="170">
         <v>0.9650558635394459</v>
       </c>
       <c r="R82" s="84"/>
-      <c r="S82" s="165">
+      <c r="S82" s="168">
         <v>-0.0130683438711011</v>
       </c>
     </row>
     <row r="83" ht="13.5" customHeight="1">
-      <c r="A83" s="142"/>
-      <c r="B83" s="126">
+      <c r="A83" s="145"/>
+      <c r="B83" s="129">
         <v>-1</v>
       </c>
-      <c r="C83" t="s" s="162">
+      <c r="C83" t="s" s="165">
         <v>140</v>
       </c>
       <c r="D83" s="84"/>
-      <c r="E83" t="s" s="163">
+      <c r="E83" t="s" s="166">
         <v>215</v>
       </c>
       <c r="F83" s="39"/>
@@ -10333,34 +10501,34 @@
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="165">
+      <c r="K83" s="168">
         <v>3553219</v>
       </c>
       <c r="L83" s="84"/>
-      <c r="M83" s="165">
+      <c r="M83" s="168">
         <v>3350000</v>
       </c>
-      <c r="N83" s="166"/>
+      <c r="N83" s="169"/>
       <c r="O83" s="11"/>
       <c r="P83" s="40"/>
-      <c r="Q83" s="167">
+      <c r="Q83" s="170">
         <v>1.0606623880597</v>
       </c>
       <c r="R83" s="84"/>
-      <c r="S83" s="165">
+      <c r="S83" s="168">
         <v>0.148846842902856</v>
       </c>
     </row>
     <row r="84" ht="13.5" customHeight="1">
-      <c r="A84" s="142"/>
-      <c r="B84" s="126">
+      <c r="A84" s="145"/>
+      <c r="B84" s="129">
         <v>-1</v>
       </c>
-      <c r="C84" t="s" s="162">
+      <c r="C84" t="s" s="165">
         <v>140</v>
       </c>
       <c r="D84" s="84"/>
-      <c r="E84" t="s" s="163">
+      <c r="E84" t="s" s="166">
         <v>216</v>
       </c>
       <c r="F84" s="39"/>
@@ -10368,56 +10536,56 @@
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="165">
+      <c r="K84" s="168">
         <v>2475498</v>
       </c>
       <c r="L84" s="84"/>
-      <c r="M84" s="165">
+      <c r="M84" s="168">
         <v>2035000</v>
       </c>
-      <c r="N84" s="166"/>
+      <c r="N84" s="169"/>
       <c r="O84" s="11"/>
       <c r="P84" s="40"/>
-      <c r="Q84" s="167">
+      <c r="Q84" s="170">
         <v>1.21646093366093</v>
       </c>
       <c r="R84" s="84"/>
-      <c r="S84" s="165">
+      <c r="S84" s="168">
         <v>2.12368043164996</v>
       </c>
     </row>
     <row r="85" ht="13.5" customHeight="1">
-      <c r="A85" s="168"/>
-      <c r="B85" s="126">
+      <c r="A85" s="171"/>
+      <c r="B85" s="129">
         <v>-1</v>
       </c>
-      <c r="C85" t="s" s="162">
+      <c r="C85" t="s" s="165">
         <v>140</v>
       </c>
-      <c r="D85" s="169"/>
-      <c r="E85" t="s" s="163">
+      <c r="D85" s="172"/>
+      <c r="E85" t="s" s="166">
         <v>217</v>
       </c>
-      <c r="F85" s="170"/>
+      <c r="F85" s="173"/>
       <c r="G85" s="70"/>
       <c r="H85" s="70"/>
       <c r="I85" s="70"/>
-      <c r="J85" s="171"/>
-      <c r="K85" s="165">
+      <c r="J85" s="174"/>
+      <c r="K85" s="168">
         <v>860533</v>
       </c>
-      <c r="L85" s="169"/>
-      <c r="M85" s="165">
+      <c r="L85" s="172"/>
+      <c r="M85" s="168">
         <v>1135000</v>
       </c>
-      <c r="N85" s="172"/>
+      <c r="N85" s="175"/>
       <c r="O85" s="70"/>
-      <c r="P85" s="171"/>
-      <c r="Q85" s="167">
+      <c r="P85" s="174"/>
+      <c r="Q85" s="170">
         <v>0.758178854625551</v>
       </c>
-      <c r="R85" s="169"/>
-      <c r="S85" s="165">
+      <c r="R85" s="172"/>
+      <c r="S85" s="168">
         <v>-0.619747368160576</v>
       </c>
     </row>
@@ -10438,14 +10606,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="16.3516" style="173" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="173" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="176" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="176" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -10461,68 +10629,78 @@
       <c r="D1" t="s" s="27">
         <v>219</v>
       </c>
+      <c r="E1" s="177"/>
     </row>
     <row r="2" ht="36" customHeight="1">
-      <c r="A2" t="s" s="174">
+      <c r="A2" t="s" s="178">
         <v>220</v>
       </c>
-      <c r="B2" t="s" s="175">
+      <c r="B2" t="s" s="179">
         <v>221</v>
       </c>
       <c r="C2" s="102">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="175">
+      <c r="D2" t="s" s="179">
         <v>222</v>
       </c>
+      <c r="E2" s="180"/>
     </row>
     <row r="3" ht="20.1" customHeight="1">
       <c r="A3" s="107"/>
       <c r="B3" s="98"/>
       <c r="C3" s="98"/>
       <c r="D3" s="98"/>
+      <c r="E3" s="180"/>
     </row>
     <row r="4" ht="20.1" customHeight="1">
       <c r="A4" s="107"/>
       <c r="B4" s="98"/>
       <c r="C4" s="98"/>
       <c r="D4" s="98"/>
+      <c r="E4" s="180"/>
     </row>
     <row r="5" ht="20.1" customHeight="1">
       <c r="A5" s="107"/>
       <c r="B5" s="98"/>
       <c r="C5" s="98"/>
       <c r="D5" s="98"/>
+      <c r="E5" s="180"/>
     </row>
     <row r="6" ht="20.1" customHeight="1">
       <c r="A6" s="107"/>
       <c r="B6" s="98"/>
       <c r="C6" s="98"/>
       <c r="D6" s="98"/>
+      <c r="E6" s="180"/>
     </row>
     <row r="7" ht="20.1" customHeight="1">
       <c r="A7" s="107"/>
       <c r="B7" s="98"/>
       <c r="C7" s="98"/>
       <c r="D7" s="98"/>
+      <c r="E7" s="180"/>
     </row>
     <row r="8" ht="20.1" customHeight="1">
       <c r="A8" s="107"/>
       <c r="B8" s="98"/>
       <c r="C8" s="98"/>
       <c r="D8" s="98"/>
+      <c r="E8" s="180"/>
     </row>
     <row r="9" ht="20.1" customHeight="1">
       <c r="A9" s="107"/>
       <c r="B9" s="98"/>
       <c r="C9" s="98"/>
       <c r="D9" s="98"/>
+      <c r="E9" s="180"/>
     </row>
     <row r="10" ht="20.1" customHeight="1">
       <c r="A10" s="107"/>
       <c r="B10" s="98"/>
       <c r="C10" s="98"/>
       <c r="D10" s="98"/>
+      <c r="E10" s="181"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -10541,11 +10719,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13" style="176" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="176" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="176" customWidth="1"/>
-    <col min="4" max="6" width="8.85156" style="176" customWidth="1"/>
-    <col min="7" max="256" width="8.85156" style="176" customWidth="1"/>
+    <col min="1" max="1" width="13" style="182" customWidth="1"/>
+    <col min="2" max="2" width="8.85156" style="182" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="182" customWidth="1"/>
+    <col min="4" max="6" width="8.85156" style="182" customWidth="1"/>
+    <col min="7" max="256" width="8.85156" style="182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1">
@@ -10569,308 +10747,308 @@
       </c>
     </row>
     <row r="2" ht="14.65" customHeight="1">
-      <c r="A2" t="s" s="177">
+      <c r="A2" t="s" s="183">
         <v>227</v>
       </c>
-      <c r="B2" t="s" s="178">
+      <c r="B2" t="s" s="184">
         <v>228</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
     </row>
     <row r="3" ht="14.65" customHeight="1">
-      <c r="A3" t="s" s="177">
+      <c r="A3" t="s" s="183">
         <v>227</v>
       </c>
-      <c r="B3" t="s" s="180">
+      <c r="B3" t="s" s="186">
         <v>229</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
     </row>
     <row r="4" ht="14.65" customHeight="1">
-      <c r="A4" t="s" s="178">
+      <c r="A4" t="s" s="184">
         <v>227</v>
       </c>
-      <c r="B4" t="s" s="180">
+      <c r="B4" t="s" s="186">
         <v>230</v>
       </c>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="182"/>
-      <c r="F4" s="182"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
     </row>
     <row r="5" ht="50.65" customHeight="1">
-      <c r="A5" t="s" s="180">
+      <c r="A5" t="s" s="186">
         <v>231</v>
       </c>
-      <c r="B5" t="s" s="180">
+      <c r="B5" t="s" s="186">
         <v>232</v>
       </c>
-      <c r="C5" t="s" s="183">
+      <c r="C5" t="s" s="189">
         <v>233</v>
       </c>
-      <c r="D5" s="184"/>
-      <c r="E5" t="s" s="185">
+      <c r="D5" s="190"/>
+      <c r="E5" t="s" s="191">
         <v>234</v>
       </c>
-      <c r="F5" t="s" s="186">
+      <c r="F5" t="s" s="192">
         <v>235</v>
       </c>
     </row>
     <row r="6" ht="50.65" customHeight="1">
-      <c r="A6" t="s" s="180">
+      <c r="A6" t="s" s="186">
         <v>231</v>
       </c>
-      <c r="B6" t="s" s="180">
+      <c r="B6" t="s" s="186">
         <v>236</v>
       </c>
-      <c r="C6" t="s" s="183">
+      <c r="C6" t="s" s="189">
         <v>233</v>
       </c>
-      <c r="D6" s="184"/>
-      <c r="E6" t="s" s="185">
+      <c r="D6" s="190"/>
+      <c r="E6" t="s" s="191">
         <v>237</v>
       </c>
-      <c r="F6" t="s" s="186">
+      <c r="F6" t="s" s="192">
         <v>238</v>
       </c>
     </row>
     <row r="7" ht="50.65" customHeight="1">
-      <c r="A7" t="s" s="180">
+      <c r="A7" t="s" s="186">
         <v>231</v>
       </c>
-      <c r="B7" t="s" s="180">
+      <c r="B7" t="s" s="186">
         <v>239</v>
       </c>
-      <c r="C7" t="s" s="183">
+      <c r="C7" t="s" s="189">
         <v>233</v>
       </c>
-      <c r="D7" s="184"/>
-      <c r="E7" t="s" s="185">
+      <c r="D7" s="190"/>
+      <c r="E7" t="s" s="191">
         <v>240</v>
       </c>
-      <c r="F7" t="s" s="186">
+      <c r="F7" t="s" s="192">
         <v>241</v>
       </c>
     </row>
     <row r="8" ht="50.65" customHeight="1">
-      <c r="A8" t="s" s="180">
+      <c r="A8" t="s" s="186">
         <v>242</v>
       </c>
-      <c r="B8" t="s" s="180">
+      <c r="B8" t="s" s="186">
         <v>232</v>
       </c>
-      <c r="C8" t="s" s="183">
+      <c r="C8" t="s" s="189">
         <v>243</v>
       </c>
-      <c r="D8" s="184"/>
-      <c r="E8" t="s" s="185">
+      <c r="D8" s="190"/>
+      <c r="E8" t="s" s="191">
         <v>244</v>
       </c>
-      <c r="F8" t="s" s="187">
+      <c r="F8" t="s" s="193">
         <v>245</v>
       </c>
     </row>
     <row r="9" ht="50.65" customHeight="1">
-      <c r="A9" t="s" s="180">
+      <c r="A9" t="s" s="186">
         <v>242</v>
       </c>
-      <c r="B9" t="s" s="180">
+      <c r="B9" t="s" s="186">
         <v>236</v>
       </c>
-      <c r="C9" t="s" s="183">
+      <c r="C9" t="s" s="189">
         <v>243</v>
       </c>
-      <c r="D9" s="184"/>
-      <c r="E9" t="s" s="185">
+      <c r="D9" s="190"/>
+      <c r="E9" t="s" s="191">
         <v>246</v>
       </c>
-      <c r="F9" t="s" s="188">
+      <c r="F9" t="s" s="194">
         <v>247</v>
       </c>
     </row>
     <row r="10" ht="50.65" customHeight="1">
-      <c r="A10" t="s" s="180">
+      <c r="A10" t="s" s="186">
         <v>242</v>
       </c>
-      <c r="B10" t="s" s="180">
+      <c r="B10" t="s" s="186">
         <v>239</v>
       </c>
-      <c r="C10" t="s" s="183">
+      <c r="C10" t="s" s="189">
         <v>243</v>
       </c>
-      <c r="D10" s="184"/>
-      <c r="E10" t="s" s="185">
+      <c r="D10" s="190"/>
+      <c r="E10" t="s" s="191">
         <v>248</v>
       </c>
-      <c r="F10" t="s" s="188">
+      <c r="F10" t="s" s="194">
         <v>249</v>
       </c>
     </row>
     <row r="11" ht="38.65" customHeight="1">
-      <c r="A11" t="s" s="180">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s" s="180">
+      <c r="A11" t="s" s="186">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s" s="186">
         <v>232</v>
       </c>
-      <c r="C11" t="s" s="183">
+      <c r="C11" t="s" s="189">
         <v>250</v>
       </c>
-      <c r="D11" s="184"/>
-      <c r="E11" t="s" s="185">
+      <c r="D11" s="190"/>
+      <c r="E11" t="s" s="191">
         <v>251</v>
       </c>
-      <c r="F11" t="s" s="188">
+      <c r="F11" t="s" s="194">
         <v>252</v>
       </c>
     </row>
     <row r="12" ht="38.65" customHeight="1">
-      <c r="A12" t="s" s="180">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s" s="180">
+      <c r="A12" t="s" s="186">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s" s="186">
         <v>236</v>
       </c>
-      <c r="C12" t="s" s="183">
+      <c r="C12" t="s" s="189">
         <v>250</v>
       </c>
-      <c r="D12" s="184"/>
-      <c r="E12" t="s" s="185">
+      <c r="D12" s="190"/>
+      <c r="E12" t="s" s="191">
         <v>253</v>
       </c>
-      <c r="F12" t="s" s="188">
+      <c r="F12" t="s" s="194">
         <v>254</v>
       </c>
     </row>
     <row r="13" ht="38.65" customHeight="1">
-      <c r="A13" t="s" s="180">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s" s="180">
+      <c r="A13" t="s" s="186">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s" s="186">
         <v>239</v>
       </c>
-      <c r="C13" t="s" s="183">
+      <c r="C13" t="s" s="189">
         <v>250</v>
       </c>
-      <c r="D13" s="184"/>
-      <c r="E13" t="s" s="185">
+      <c r="D13" s="190"/>
+      <c r="E13" t="s" s="191">
         <v>255</v>
       </c>
-      <c r="F13" t="s" s="188">
+      <c r="F13" t="s" s="194">
         <v>256</v>
       </c>
     </row>
     <row r="14" ht="38.65" customHeight="1">
-      <c r="A14" t="s" s="180">
+      <c r="A14" t="s" s="186">
         <v>257</v>
       </c>
-      <c r="B14" t="s" s="180">
+      <c r="B14" t="s" s="186">
         <v>232</v>
       </c>
-      <c r="C14" t="s" s="183">
+      <c r="C14" t="s" s="189">
         <v>258</v>
       </c>
-      <c r="D14" s="184"/>
-      <c r="E14" t="s" s="185">
+      <c r="D14" s="190"/>
+      <c r="E14" t="s" s="191">
         <v>259</v>
       </c>
-      <c r="F14" t="s" s="188">
+      <c r="F14" t="s" s="194">
         <v>260</v>
       </c>
     </row>
     <row r="15" ht="38.65" customHeight="1">
-      <c r="A15" t="s" s="180">
+      <c r="A15" t="s" s="186">
         <v>257</v>
       </c>
-      <c r="B15" t="s" s="180">
+      <c r="B15" t="s" s="186">
         <v>236</v>
       </c>
-      <c r="C15" t="s" s="183">
+      <c r="C15" t="s" s="189">
         <v>258</v>
       </c>
-      <c r="D15" s="184"/>
-      <c r="E15" t="s" s="185">
+      <c r="D15" s="190"/>
+      <c r="E15" t="s" s="191">
         <v>261</v>
       </c>
-      <c r="F15" t="s" s="188">
+      <c r="F15" t="s" s="194">
         <v>262</v>
       </c>
     </row>
     <row r="16" ht="38.65" customHeight="1">
-      <c r="A16" t="s" s="180">
+      <c r="A16" t="s" s="186">
         <v>257</v>
       </c>
-      <c r="B16" t="s" s="180">
+      <c r="B16" t="s" s="186">
         <v>239</v>
       </c>
-      <c r="C16" t="s" s="183">
+      <c r="C16" t="s" s="189">
         <v>258</v>
       </c>
-      <c r="D16" s="184"/>
-      <c r="E16" t="s" s="185">
+      <c r="D16" s="190"/>
+      <c r="E16" t="s" s="191">
         <v>263</v>
       </c>
-      <c r="F16" t="s" s="188">
+      <c r="F16" t="s" s="194">
         <v>264</v>
       </c>
     </row>
     <row r="17" ht="50.65" customHeight="1">
-      <c r="A17" t="s" s="180">
+      <c r="A17" t="s" s="186">
         <v>265</v>
       </c>
-      <c r="B17" t="s" s="180">
+      <c r="B17" t="s" s="186">
         <v>232</v>
       </c>
-      <c r="C17" t="s" s="183">
+      <c r="C17" t="s" s="189">
         <v>266</v>
       </c>
-      <c r="D17" s="184"/>
-      <c r="E17" t="s" s="185">
+      <c r="D17" s="190"/>
+      <c r="E17" t="s" s="191">
         <v>267</v>
       </c>
-      <c r="F17" t="s" s="188">
+      <c r="F17" t="s" s="194">
         <v>268</v>
       </c>
     </row>
     <row r="18" ht="50.65" customHeight="1">
-      <c r="A18" t="s" s="180">
+      <c r="A18" t="s" s="186">
         <v>265</v>
       </c>
-      <c r="B18" t="s" s="180">
+      <c r="B18" t="s" s="186">
         <v>236</v>
       </c>
-      <c r="C18" t="s" s="183">
+      <c r="C18" t="s" s="189">
         <v>266</v>
       </c>
-      <c r="D18" s="184"/>
-      <c r="E18" t="s" s="185">
+      <c r="D18" s="190"/>
+      <c r="E18" t="s" s="191">
         <v>269</v>
       </c>
-      <c r="F18" t="s" s="188">
+      <c r="F18" t="s" s="194">
         <v>270</v>
       </c>
     </row>
     <row r="19" ht="50.65" customHeight="1">
-      <c r="A19" t="s" s="180">
+      <c r="A19" t="s" s="186">
         <v>265</v>
       </c>
-      <c r="B19" t="s" s="180">
+      <c r="B19" t="s" s="186">
         <v>239</v>
       </c>
-      <c r="C19" t="s" s="183">
+      <c r="C19" t="s" s="189">
         <v>266</v>
       </c>
-      <c r="D19" s="184"/>
-      <c r="E19" t="s" s="185">
+      <c r="D19" s="190"/>
+      <c r="E19" t="s" s="191">
         <v>271</v>
       </c>
-      <c r="F19" t="s" s="188">
+      <c r="F19" t="s" s="194">
         <v>272</v>
       </c>
     </row>

--- a/test/data/tm.xlsx
+++ b/test/data/tm.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -773,70 +773,7 @@
     <t>大学医院</t>
   </si>
   <si>
-    <t>Report</t>
-  </si>
-  <si>
-    <t>唯一标示</t>
-  </si>
-  <si>
-    <t>周期</t>
-  </si>
-  <si>
-    <t>报告类别</t>
-  </si>
-  <si>
-    <t>医院</t>
-  </si>
-  <si>
-    <t>产品</t>
-  </si>
-  <si>
-    <t>代表</t>
-  </si>
-  <si>
-    <t>城市</t>
-  </si>
-  <si>
-    <t>潜力</t>
-  </si>
-  <si>
-    <t>患者数量</t>
-  </si>
-  <si>
-    <t>药品准入情况</t>
-  </si>
-  <si>
-    <t>销售额</t>
-  </si>
-  <si>
-    <t>销售贡献率</t>
-  </si>
-  <si>
-    <t>销售指标</t>
-  </si>
-  <si>
-    <t>指标增长率</t>
-  </si>
-  <si>
-    <t>指标贡献率</t>
-  </si>
-  <si>
-    <t>份额</t>
-  </si>
-  <si>
-    <t>指标达成率</t>
-  </si>
-  <si>
-    <t>销售同比增长</t>
-  </si>
-  <si>
-    <t>销售环比增长</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>city</t>
+    <t>region</t>
   </si>
   <si>
     <t>drugEntrance</t>
@@ -1422,7 +1359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="91">
+  <borders count="83">
     <border>
       <left/>
       <right/>
@@ -2122,21 +2059,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="17"/>
       </left>
       <right style="thin">
@@ -2146,6 +2068,21 @@
         <color indexed="17"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2206,7 +2143,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -2222,37 +2159,28 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="18"/>
       </right>
       <top style="thin">
-        <color indexed="17"/>
+        <color indexed="8"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="18"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
+      <top style="thin">
         <color indexed="18"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="18"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2273,88 +2201,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="17"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="18"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="17"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="18"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="18"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="18"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="8"/>
       </left>
       <right/>
@@ -2384,19 +2230,6 @@
         <color indexed="8"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2582,7 +2415,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2949,89 +2782,122 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="57" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="8" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="8" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="9" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="59" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="9" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="59" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="61" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="62" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="63" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="65" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="9" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="68" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="68" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="69" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="70" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -3042,130 +2908,64 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="9" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="71" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="73" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="73" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="74" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="75" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="76" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="76" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="77" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="78" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="79" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="80" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="79" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="81" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="82" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="83" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="84" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="85" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="86" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="87" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="88" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="90" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7399,3200 +7199,2949 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S85"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="9.17188" style="121" customWidth="1"/>
-    <col min="3" max="7" width="13.5" style="121" customWidth="1"/>
-    <col min="8" max="8" width="13.6719" style="121" customWidth="1"/>
-    <col min="9" max="10" width="17.5" style="121" customWidth="1"/>
-    <col min="11" max="12" width="20.5" style="121" customWidth="1"/>
-    <col min="13" max="15" width="17.8516" style="121" customWidth="1"/>
-    <col min="16" max="16" width="19.1719" style="121" customWidth="1"/>
-    <col min="17" max="17" width="14.5" style="121" customWidth="1"/>
-    <col min="18" max="18" width="20.1719" style="121" customWidth="1"/>
-    <col min="19" max="19" width="17.6719" style="121" customWidth="1"/>
+    <col min="1" max="1" width="9.17188" style="121" customWidth="1"/>
+    <col min="2" max="6" width="13.5" style="121" customWidth="1"/>
+    <col min="7" max="7" width="13.6719" style="121" customWidth="1"/>
+    <col min="8" max="9" width="17.5" style="121" customWidth="1"/>
+    <col min="10" max="11" width="20.5" style="121" customWidth="1"/>
+    <col min="12" max="14" width="17.8516" style="121" customWidth="1"/>
+    <col min="15" max="15" width="19.1719" style="121" customWidth="1"/>
+    <col min="16" max="16" width="14.5" style="121" customWidth="1"/>
+    <col min="17" max="17" width="20.1719" style="121" customWidth="1"/>
+    <col min="18" max="19" width="17.6719" style="121" customWidth="1"/>
     <col min="20" max="256" width="8.85156" style="121" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" ht="34.5" customHeight="1">
       <c r="A1" t="s" s="122">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s" s="123">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s" s="122">
+        <v>141</v>
+      </c>
+      <c r="D1" t="s" s="122">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s" s="124">
+        <v>142</v>
+      </c>
+      <c r="F1" t="s" s="124">
         <v>168</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-    </row>
-    <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" t="s" s="124">
+      <c r="G1" t="s" s="122">
+        <v>146</v>
+      </c>
+      <c r="H1" t="s" s="124">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s" s="124">
         <v>169</v>
       </c>
-      <c r="B2" t="s" s="125">
+      <c r="J1" t="s" s="122">
+        <v>144</v>
+      </c>
+      <c r="K1" t="s" s="124">
         <v>170</v>
       </c>
-      <c r="C2" t="s" s="125">
+      <c r="L1" t="s" s="122">
         <v>171</v>
       </c>
-      <c r="D2" t="s" s="125">
+      <c r="M1" t="s" s="125">
         <v>172</v>
       </c>
-      <c r="E2" t="s" s="125">
+      <c r="N1" t="s" s="124">
         <v>173</v>
       </c>
-      <c r="F2" t="s" s="125">
+      <c r="O1" t="s" s="124">
+        <v>147</v>
+      </c>
+      <c r="P1" t="s" s="122">
         <v>174</v>
       </c>
-      <c r="G2" t="s" s="125">
+      <c r="Q1" t="s" s="124">
         <v>175</v>
       </c>
-      <c r="H2" t="s" s="125">
+      <c r="R1" t="s" s="122">
         <v>176</v>
       </c>
-      <c r="I2" t="s" s="125">
+      <c r="S1" t="s" s="122">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" ht="13.5" customHeight="1">
+      <c r="A2" s="112">
+        <v>-4</v>
+      </c>
+      <c r="B2" t="s" s="126">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s" s="127">
         <v>177</v>
       </c>
-      <c r="J2" t="s" s="125">
+      <c r="D2" t="s" s="127">
         <v>178</v>
       </c>
-      <c r="K2" t="s" s="125">
+      <c r="E2" s="60"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="128">
+        <v>10560000</v>
+      </c>
+      <c r="H2" s="61"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="129">
+        <v>737747.64</v>
+      </c>
+      <c r="K2" s="59"/>
+      <c r="L2" s="130">
+        <v>700000</v>
+      </c>
+      <c r="M2" s="131"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="116">
+        <v>1.0539252</v>
+      </c>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="133">
+        <v>0.15</v>
+      </c>
+      <c r="S2" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" customHeight="1">
+      <c r="A3" s="112">
+        <v>-4</v>
+      </c>
+      <c r="B3" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C3" t="s" s="127">
         <v>179</v>
       </c>
-      <c r="L2" t="s" s="125">
+      <c r="D3" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E3" s="135"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="128">
+        <v>3700000</v>
+      </c>
+      <c r="H3" s="98"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="129">
+        <v>245915.88</v>
+      </c>
+      <c r="K3" s="105"/>
+      <c r="L3" s="130">
+        <v>250000</v>
+      </c>
+      <c r="M3" s="131"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="116">
+        <v>0.98366352</v>
+      </c>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="133">
+        <v>0.11</v>
+      </c>
+      <c r="S3" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="13.5" customHeight="1">
+      <c r="A4" s="112">
+        <v>-4</v>
+      </c>
+      <c r="B4" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C4" t="s" s="127">
         <v>180</v>
       </c>
-      <c r="M2" t="s" s="125">
+      <c r="D4" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E4" s="135"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="128">
+        <v>13041600</v>
+      </c>
+      <c r="H4" s="98"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="129">
+        <v>901691.5600000001</v>
+      </c>
+      <c r="K4" s="105"/>
+      <c r="L4" s="130">
+        <v>850000</v>
+      </c>
+      <c r="M4" s="131"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="116">
+        <v>1.0608136</v>
+      </c>
+      <c r="Q4" s="136"/>
+      <c r="R4" s="133">
+        <v>0.18</v>
+      </c>
+      <c r="S4" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" ht="13.5" customHeight="1">
+      <c r="A5" s="112">
+        <v>-4</v>
+      </c>
+      <c r="B5" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s" s="127">
         <v>181</v>
       </c>
-      <c r="N2" t="s" s="125">
+      <c r="D5" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E5" s="135"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="128">
+        <v>6200000</v>
+      </c>
+      <c r="H5" s="98"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="129">
+        <v>614789.7</v>
+      </c>
+      <c r="K5" s="105"/>
+      <c r="L5" s="130">
+        <v>600000</v>
+      </c>
+      <c r="M5" s="131"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="116">
+        <v>1.0246495</v>
+      </c>
+      <c r="Q5" s="136"/>
+      <c r="R5" s="133">
+        <v>0.13</v>
+      </c>
+      <c r="S5" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" ht="13.5" customHeight="1">
+      <c r="A6" s="112">
+        <v>-4</v>
+      </c>
+      <c r="B6" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C6" t="s" s="127">
         <v>182</v>
       </c>
-      <c r="O2" t="s" s="125">
+      <c r="D6" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E6" s="76"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="137">
+        <v>1400000</v>
+      </c>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="138">
+        <v>102464.95</v>
+      </c>
+      <c r="K6" s="139"/>
+      <c r="L6" s="130">
+        <v>100000</v>
+      </c>
+      <c r="M6" s="140"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="116">
+        <v>1.0246495</v>
+      </c>
+      <c r="Q6" s="139"/>
+      <c r="R6" s="133">
+        <v>0.12</v>
+      </c>
+      <c r="S6" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5" customHeight="1">
+      <c r="A7" s="112">
+        <v>-4</v>
+      </c>
+      <c r="B7" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C7" t="s" s="127">
         <v>183</v>
       </c>
-      <c r="P2" t="s" s="125">
+      <c r="D7" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="137">
+        <v>4067200</v>
+      </c>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="138">
+        <v>286901.86</v>
+      </c>
+      <c r="K7" s="84"/>
+      <c r="L7" s="130">
+        <v>350000</v>
+      </c>
+      <c r="M7" s="140"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="116">
+        <v>0.8197196</v>
+      </c>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="133">
+        <v>-0.11</v>
+      </c>
+      <c r="S7" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" ht="13.5" customHeight="1">
+      <c r="A8" s="112">
+        <v>-4</v>
+      </c>
+      <c r="B8" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C8" t="s" s="127">
         <v>184</v>
       </c>
-      <c r="Q2" t="s" s="125">
+      <c r="D8" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="137">
+        <v>1419200</v>
+      </c>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="138">
+        <v>122957.94</v>
+      </c>
+      <c r="K8" s="84"/>
+      <c r="L8" s="130">
+        <v>120000</v>
+      </c>
+      <c r="M8" s="140"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="116">
+        <v>1.0246495</v>
+      </c>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="133">
+        <v>0.16</v>
+      </c>
+      <c r="S8" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" ht="13.5" customHeight="1">
+      <c r="A9" s="112">
+        <v>-4</v>
+      </c>
+      <c r="B9" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C9" t="s" s="127">
         <v>185</v>
       </c>
-      <c r="R2" t="s" s="125">
+      <c r="D9" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="137">
+        <v>1014300</v>
+      </c>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="138">
+        <v>32788.784</v>
+      </c>
+      <c r="K9" s="84"/>
+      <c r="L9" s="130">
+        <v>35000</v>
+      </c>
+      <c r="M9" s="140"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="116">
+        <v>0.9368224000000001</v>
+      </c>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="133">
+        <v>-0.23</v>
+      </c>
+      <c r="S9" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" ht="13.5" customHeight="1">
+      <c r="A10" s="112">
+        <v>-4</v>
+      </c>
+      <c r="B10" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C10" t="s" s="127">
         <v>186</v>
       </c>
-      <c r="S2" t="s" s="125">
+      <c r="D10" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="137">
+        <v>628320</v>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="138">
+        <v>81971.960000000006</v>
+      </c>
+      <c r="K10" s="84"/>
+      <c r="L10" s="130">
+        <v>75000</v>
+      </c>
+      <c r="M10" s="140"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="116">
+        <v>1.09295946666667</v>
+      </c>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="133">
+        <v>0.29</v>
+      </c>
+      <c r="S10" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" ht="13.5" customHeight="1">
+      <c r="A11" s="112">
+        <v>-4</v>
+      </c>
+      <c r="B11" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C11" t="s" s="127">
         <v>187</v>
       </c>
-    </row>
-    <row r="3" ht="34.5" customHeight="1">
-      <c r="A3" t="s" s="27">
+      <c r="D11" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="137">
+        <v>12234288</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="138">
+        <v>971367.726</v>
+      </c>
+      <c r="K11" s="84"/>
+      <c r="L11" s="130">
+        <v>900000</v>
+      </c>
+      <c r="M11" s="140"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="116">
+        <v>1.07929747333333</v>
+      </c>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="133">
+        <v>0.18</v>
+      </c>
+      <c r="S11" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" ht="13.5" customHeight="1">
+      <c r="A12" s="112">
+        <v>-3</v>
+      </c>
+      <c r="B12" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C12" t="s" s="127">
+        <v>177</v>
+      </c>
+      <c r="D12" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="137">
+        <v>10560000</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="138">
+        <v>556986.16</v>
+      </c>
+      <c r="K12" s="84"/>
+      <c r="L12" s="138">
+        <v>650000</v>
+      </c>
+      <c r="M12" s="141"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="142"/>
+      <c r="P12" s="116">
+        <v>0.856901784615385</v>
+      </c>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="133">
+        <v>-0.245018038959772</v>
+      </c>
+      <c r="S12" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" ht="13.5" customHeight="1">
+      <c r="A13" s="112">
+        <v>-3</v>
+      </c>
+      <c r="B13" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C13" t="s" s="127">
+        <v>179</v>
+      </c>
+      <c r="D13" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="137">
+        <v>3700000</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="138">
+        <v>191328.72</v>
+      </c>
+      <c r="K13" s="84"/>
+      <c r="L13" s="138">
+        <v>200000</v>
+      </c>
+      <c r="M13" s="141"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="142"/>
+      <c r="P13" s="116">
+        <v>0.9566436</v>
+      </c>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="133">
+        <v>-0.221974928987912</v>
+      </c>
+      <c r="S13" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" ht="13.5" customHeight="1">
+      <c r="A14" s="112">
+        <v>-3</v>
+      </c>
+      <c r="B14" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C14" t="s" s="127">
+        <v>180</v>
+      </c>
+      <c r="D14" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="137">
+        <v>13041600</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="138">
+        <v>736028.144</v>
+      </c>
+      <c r="K14" s="84"/>
+      <c r="L14" s="138">
+        <v>800000</v>
+      </c>
+      <c r="M14" s="141"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="116">
+        <v>0.92003518</v>
+      </c>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="133">
+        <v>-0.18372514876373</v>
+      </c>
+      <c r="S14" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" ht="13.5" customHeight="1">
+      <c r="A15" s="112">
+        <v>-3</v>
+      </c>
+      <c r="B15" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C15" t="s" s="127">
+        <v>181</v>
+      </c>
+      <c r="D15" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="137">
+        <v>6200000</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="138">
+        <v>478321.8</v>
+      </c>
+      <c r="K15" s="84"/>
+      <c r="L15" s="138">
+        <v>550000</v>
+      </c>
+      <c r="M15" s="141"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="116">
+        <v>0.869676</v>
+      </c>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="133">
+        <v>-0.221974928987912</v>
+      </c>
+      <c r="S15" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" ht="13.5" customHeight="1">
+      <c r="A16" s="112">
+        <v>-3</v>
+      </c>
+      <c r="B16" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C16" t="s" s="127">
+        <v>182</v>
+      </c>
+      <c r="D16" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="137">
+        <v>1400000</v>
+      </c>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="138">
+        <v>69720.3</v>
+      </c>
+      <c r="K16" s="84"/>
+      <c r="L16" s="138">
+        <v>80000</v>
+      </c>
+      <c r="M16" s="141"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="116">
+        <v>0.87150375</v>
+      </c>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="133">
+        <v>-0.319569277104024</v>
+      </c>
+      <c r="S16" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" ht="13.5" customHeight="1">
+      <c r="A17" s="112">
+        <v>-3</v>
+      </c>
+      <c r="B17" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C17" t="s" s="127">
+        <v>183</v>
+      </c>
+      <c r="D17" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="137">
+        <v>4067200</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="138">
+        <v>223216.84</v>
+      </c>
+      <c r="K17" s="84"/>
+      <c r="L17" s="138">
+        <v>250000</v>
+      </c>
+      <c r="M17" s="141"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="116">
+        <v>0.89286736</v>
+      </c>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="133">
+        <v>-0.221974928987912</v>
+      </c>
+      <c r="S17" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" ht="13.5" customHeight="1">
+      <c r="A18" s="112">
+        <v>-3</v>
+      </c>
+      <c r="B18" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C18" t="s" s="127">
+        <v>184</v>
+      </c>
+      <c r="D18" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="137">
+        <v>1419200</v>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="138">
+        <v>90664.36</v>
+      </c>
+      <c r="K18" s="84"/>
+      <c r="L18" s="138">
+        <v>100000</v>
+      </c>
+      <c r="M18" s="141"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="116">
+        <v>0.9066436</v>
+      </c>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="133">
+        <v>-0.262639240702959</v>
+      </c>
+      <c r="S18" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" ht="13.5" customHeight="1">
+      <c r="A19" s="112">
+        <v>-3</v>
+      </c>
+      <c r="B19" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C19" t="s" s="127">
+        <v>185</v>
+      </c>
+      <c r="D19" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="137">
+        <v>1014300</v>
+      </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="138">
+        <v>25510.496</v>
+      </c>
+      <c r="K19" s="84"/>
+      <c r="L19" s="138">
+        <v>25000</v>
+      </c>
+      <c r="M19" s="141"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="116">
+        <v>1.02041984</v>
+      </c>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="133">
+        <v>-0.221974928987912</v>
+      </c>
+      <c r="S19" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" ht="13.5" customHeight="1">
+      <c r="A20" s="112">
+        <v>-3</v>
+      </c>
+      <c r="B20" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C20" t="s" s="127">
+        <v>186</v>
+      </c>
+      <c r="D20" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="137">
+        <v>628320</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="138">
+        <v>59832.18</v>
+      </c>
+      <c r="K20" s="84"/>
+      <c r="L20" s="138">
+        <v>60000</v>
+      </c>
+      <c r="M20" s="141"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="116">
+        <v>0.997203</v>
+      </c>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="133">
+        <v>-0.270089674566767</v>
+      </c>
+      <c r="S20" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" ht="13.5" customHeight="1">
+      <c r="A21" s="112">
+        <v>-3</v>
+      </c>
+      <c r="B21" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C21" t="s" s="127">
+        <v>187</v>
+      </c>
+      <c r="D21" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="137">
+        <v>12234288</v>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="138">
+        <v>757203</v>
+      </c>
+      <c r="K21" s="84"/>
+      <c r="L21" s="138">
+        <v>850000</v>
+      </c>
+      <c r="M21" s="141"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="116">
+        <v>0.890827058823529</v>
+      </c>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="133">
+        <v>-0.220477498137507</v>
+      </c>
+      <c r="S21" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" ht="13.5" customHeight="1">
+      <c r="A22" s="112">
+        <v>-2</v>
+      </c>
+      <c r="B22" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C22" t="s" s="127">
+        <v>177</v>
+      </c>
+      <c r="D22" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="137">
+        <v>10560000</v>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="138">
+        <v>525785.6899999999</v>
+      </c>
+      <c r="K22" s="84"/>
+      <c r="L22" s="130">
+        <v>550000</v>
+      </c>
+      <c r="M22" s="140"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="116">
+        <v>0.9559739818181821</v>
+      </c>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="133">
+        <v>-0.0560165983298402</v>
+      </c>
+      <c r="S22" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" ht="13.5" customHeight="1">
+      <c r="A23" s="112">
+        <v>-2</v>
+      </c>
+      <c r="B23" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s" s="127">
+        <v>179</v>
+      </c>
+      <c r="D23" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="137">
+        <v>3700000</v>
+      </c>
+      <c r="H23" s="39"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="138">
+        <v>154642.85</v>
+      </c>
+      <c r="K23" s="84"/>
+      <c r="L23" s="130">
+        <v>170000</v>
+      </c>
+      <c r="M23" s="140"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="116">
+        <v>0.909663823529412</v>
+      </c>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="133">
+        <v>-0.191742619717521</v>
+      </c>
+      <c r="S23" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" ht="13.5" customHeight="1">
+      <c r="A24" s="112">
+        <v>-2</v>
+      </c>
+      <c r="B24" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C24" t="s" s="127">
+        <v>180</v>
+      </c>
+      <c r="D24" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="137">
+        <v>13041600</v>
+      </c>
+      <c r="H24" s="39"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="138">
+        <v>711357.11</v>
+      </c>
+      <c r="K24" s="84"/>
+      <c r="L24" s="130">
+        <v>750000</v>
+      </c>
+      <c r="M24" s="140"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="116">
+        <v>0.948476146666667</v>
+      </c>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="133">
+        <v>-0.0335191448874813</v>
+      </c>
+      <c r="S24" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" ht="13.5" customHeight="1">
+      <c r="A25" s="112">
+        <v>-2</v>
+      </c>
+      <c r="B25" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C25" t="s" s="127">
+        <v>181</v>
+      </c>
+      <c r="D25" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="137">
+        <v>6200000</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="138">
+        <v>432999.98</v>
+      </c>
+      <c r="K25" s="84"/>
+      <c r="L25" s="130">
+        <v>500000</v>
+      </c>
+      <c r="M25" s="140"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="116">
+        <v>0.86599996</v>
+      </c>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="133">
+        <v>-0.0947517340836231</v>
+      </c>
+      <c r="S25" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" ht="13.5" customHeight="1">
+      <c r="A26" s="112">
+        <v>-2</v>
+      </c>
+      <c r="B26" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C26" t="s" s="127">
+        <v>182</v>
+      </c>
+      <c r="D26" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="137">
+        <v>1400000</v>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="138">
+        <v>77321.425</v>
+      </c>
+      <c r="K26" s="84"/>
+      <c r="L26" s="130">
+        <v>80000</v>
+      </c>
+      <c r="M26" s="140"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="116">
+        <v>0.9665178125</v>
+      </c>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="133">
+        <v>0.109023125259071</v>
+      </c>
+      <c r="S26" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" ht="13.5" customHeight="1">
+      <c r="A27" s="112">
+        <v>-2</v>
+      </c>
+      <c r="B27" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s" s="127">
+        <v>183</v>
+      </c>
+      <c r="D27" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="137">
+        <v>4067200</v>
+      </c>
+      <c r="H27" s="39"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="138">
+        <v>247428.56</v>
+      </c>
+      <c r="K27" s="84"/>
+      <c r="L27" s="130">
+        <v>250000</v>
+      </c>
+      <c r="M27" s="140"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="116">
+        <v>0.98971424</v>
+      </c>
+      <c r="Q27" s="84"/>
+      <c r="R27" s="133">
+        <v>0.1084672643874</v>
+      </c>
+      <c r="S27" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" ht="13.5" customHeight="1">
+      <c r="A28" s="112">
+        <v>-2</v>
+      </c>
+      <c r="B28" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C28" t="s" s="127">
+        <v>184</v>
+      </c>
+      <c r="D28" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="137">
+        <v>1419200</v>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="138">
+        <v>92785.710000000006</v>
+      </c>
+      <c r="K28" s="84"/>
+      <c r="L28" s="130">
+        <v>100000</v>
+      </c>
+      <c r="M28" s="140"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="116">
+        <v>0.9278571</v>
+      </c>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="133">
+        <v>0.0233978379155821</v>
+      </c>
+      <c r="S28" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" ht="13.5" customHeight="1">
+      <c r="A29" s="112">
+        <v>-2</v>
+      </c>
+      <c r="B29" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C29" t="s" s="127">
+        <v>185</v>
+      </c>
+      <c r="D29" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="137">
+        <v>1014300</v>
+      </c>
+      <c r="H29" s="39"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="138">
+        <v>21649.999</v>
+      </c>
+      <c r="K29" s="84"/>
+      <c r="L29" s="130">
+        <v>25000</v>
+      </c>
+      <c r="M29" s="140"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="116">
+        <v>0.86599996</v>
+      </c>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="133">
+        <v>-0.151329750703397</v>
+      </c>
+      <c r="S29" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" ht="13.5" customHeight="1">
+      <c r="A30" s="112">
+        <v>-2</v>
+      </c>
+      <c r="B30" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C30" t="s" s="127">
+        <v>186</v>
+      </c>
+      <c r="D30" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="137">
+        <v>628320</v>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="138">
+        <v>55671.426</v>
+      </c>
+      <c r="K30" s="84"/>
+      <c r="L30" s="130">
+        <v>60000</v>
+      </c>
+      <c r="M30" s="140"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="116">
+        <v>0.9278571</v>
+      </c>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="133">
+        <v>-0.0695404045114185</v>
+      </c>
+      <c r="S30" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" ht="13.5" customHeight="1">
+      <c r="A31" s="112">
+        <v>-2</v>
+      </c>
+      <c r="B31" t="s" s="134">
+        <v>141</v>
+      </c>
+      <c r="C31" t="s" s="127">
+        <v>187</v>
+      </c>
+      <c r="D31" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E31" s="39"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="137">
+        <v>12234288</v>
+      </c>
+      <c r="H31" s="39"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="138">
+        <v>773214.25</v>
+      </c>
+      <c r="K31" s="84"/>
+      <c r="L31" s="130">
+        <v>800000</v>
+      </c>
+      <c r="M31" s="140"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="116">
+        <v>0.9665178125</v>
+      </c>
+      <c r="Q31" s="84"/>
+      <c r="R31" s="133">
+        <v>0.0211452543109312</v>
+      </c>
+      <c r="S31" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" ht="13.5" customHeight="1">
+      <c r="A32" s="143">
+        <v>-1</v>
+      </c>
+      <c r="B32" t="s" s="144">
+        <v>141</v>
+      </c>
+      <c r="C32" t="s" s="127">
+        <v>177</v>
+      </c>
+      <c r="D32" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="137">
+        <v>10560000</v>
+      </c>
+      <c r="H32" s="39"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="138">
+        <v>716400</v>
+      </c>
+      <c r="K32" s="84"/>
+      <c r="L32" s="130">
+        <v>600000</v>
+      </c>
+      <c r="M32" s="140"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="116">
+        <v>1.194</v>
+      </c>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="133">
+        <v>0.362532327572475</v>
+      </c>
+      <c r="S32" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" ht="13.5" customHeight="1">
+      <c r="A33" s="143">
+        <v>-1</v>
+      </c>
+      <c r="B33" t="s" s="144">
+        <v>141</v>
+      </c>
+      <c r="C33" t="s" s="127">
+        <v>179</v>
+      </c>
+      <c r="D33" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E33" s="39"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="137">
+        <v>3700000</v>
+      </c>
+      <c r="H33" s="39"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="138">
+        <v>220500</v>
+      </c>
+      <c r="K33" s="84"/>
+      <c r="L33" s="130">
+        <v>200000</v>
+      </c>
+      <c r="M33" s="140"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="116">
+        <v>1.1025</v>
+      </c>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="133">
+        <v>0.425866116668181</v>
+      </c>
+      <c r="S33" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" ht="13.5" customHeight="1">
+      <c r="A34" s="143">
+        <v>-1</v>
+      </c>
+      <c r="B34" t="s" s="144">
+        <v>141</v>
+      </c>
+      <c r="C34" t="s" s="127">
+        <v>180</v>
+      </c>
+      <c r="D34" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E34" s="39"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="137">
+        <v>13041600</v>
+      </c>
+      <c r="H34" s="39"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="138">
+        <v>859704</v>
+      </c>
+      <c r="K34" s="84"/>
+      <c r="L34" s="130">
+        <v>800000</v>
+      </c>
+      <c r="M34" s="140"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="116">
+        <v>1.07463</v>
+      </c>
+      <c r="Q34" s="84"/>
+      <c r="R34" s="133">
+        <v>0.208540672349504</v>
+      </c>
+      <c r="S34" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" ht="13.5" customHeight="1">
+      <c r="A35" s="143">
+        <v>-1</v>
+      </c>
+      <c r="B35" t="s" s="144">
+        <v>141</v>
+      </c>
+      <c r="C35" t="s" s="127">
+        <v>181</v>
+      </c>
+      <c r="D35" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E35" s="39"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="137">
+        <v>6200000</v>
+      </c>
+      <c r="H35" s="39"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="138">
+        <v>400000</v>
+      </c>
+      <c r="K35" s="84"/>
+      <c r="L35" s="130">
+        <v>450000</v>
+      </c>
+      <c r="M35" s="140"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="116">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="133">
+        <v>-0.0762124284624679</v>
+      </c>
+      <c r="S35" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" ht="13.5" customHeight="1">
+      <c r="A36" s="143">
+        <v>-1</v>
+      </c>
+      <c r="B36" t="s" s="144">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s" s="127">
+        <v>182</v>
+      </c>
+      <c r="D36" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E36" s="39"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="137">
+        <v>1400000</v>
+      </c>
+      <c r="H36" s="39"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="138">
+        <v>90000</v>
+      </c>
+      <c r="K36" s="84"/>
+      <c r="L36" s="130">
+        <v>85000</v>
+      </c>
+      <c r="M36" s="140"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="116">
+        <v>1.05882352941176</v>
+      </c>
+      <c r="Q36" s="84"/>
+      <c r="R36" s="133">
+        <v>0.163972340137291</v>
+      </c>
+      <c r="S36" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" ht="13.5" customHeight="1">
+      <c r="A37" s="143">
+        <v>-1</v>
+      </c>
+      <c r="B37" t="s" s="144">
+        <v>141</v>
+      </c>
+      <c r="C37" t="s" s="127">
+        <v>183</v>
+      </c>
+      <c r="D37" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E37" s="39"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="137">
+        <v>4067200</v>
+      </c>
+      <c r="H37" s="39"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="138">
+        <v>276368</v>
+      </c>
+      <c r="K37" s="84"/>
+      <c r="L37" s="130">
+        <v>250000</v>
+      </c>
+      <c r="M37" s="140"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="116">
+        <v>1.105472</v>
+      </c>
+      <c r="Q37" s="84"/>
+      <c r="R37" s="133">
+        <v>0.116960790621746</v>
+      </c>
+      <c r="S37" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" ht="13.5" customHeight="1">
+      <c r="A38" s="143">
+        <v>-1</v>
+      </c>
+      <c r="B38" t="s" s="144">
+        <v>141</v>
+      </c>
+      <c r="C38" t="s" s="127">
+        <v>184</v>
+      </c>
+      <c r="D38" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E38" s="39"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="137">
+        <v>1419200</v>
+      </c>
+      <c r="H38" s="39"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="138">
+        <v>90248</v>
+      </c>
+      <c r="K38" s="84"/>
+      <c r="L38" s="130">
+        <v>100000</v>
+      </c>
+      <c r="M38" s="140"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="116">
+        <v>0.9024799999999999</v>
+      </c>
+      <c r="Q38" s="84"/>
+      <c r="R38" s="133">
+        <v>-0.0273502245119426</v>
+      </c>
+      <c r="S38" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" ht="13.5" customHeight="1">
+      <c r="A39" s="143">
+        <v>-1</v>
+      </c>
+      <c r="B39" t="s" s="144">
+        <v>141</v>
+      </c>
+      <c r="C39" t="s" s="127">
+        <v>185</v>
+      </c>
+      <c r="D39" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E39" s="39"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="137">
+        <v>1014300</v>
+      </c>
+      <c r="H39" s="39"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="138">
+        <v>28930</v>
+      </c>
+      <c r="K39" s="84"/>
+      <c r="L39" s="130">
+        <v>25000</v>
+      </c>
+      <c r="M39" s="140"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="116">
+        <v>1.1572</v>
+      </c>
+      <c r="Q39" s="84"/>
+      <c r="R39" s="133">
+        <v>0.33625872222904</v>
+      </c>
+      <c r="S39" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" ht="13.5" customHeight="1">
+      <c r="A40" s="143">
+        <v>-1</v>
+      </c>
+      <c r="B40" t="s" s="144">
+        <v>141</v>
+      </c>
+      <c r="C40" t="s" s="127">
+        <v>186</v>
+      </c>
+      <c r="D40" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E40" s="39"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="137">
+        <v>628320</v>
+      </c>
+      <c r="H40" s="39"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="138">
+        <v>35840</v>
+      </c>
+      <c r="K40" s="84"/>
+      <c r="L40" s="130">
+        <v>40000</v>
+      </c>
+      <c r="M40" s="140"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="116">
+        <v>0.896</v>
+      </c>
+      <c r="Q40" s="84"/>
+      <c r="R40" s="133">
+        <v>-0.356222705701844</v>
+      </c>
+      <c r="S40" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" ht="13.5" customHeight="1">
+      <c r="A41" s="143">
+        <v>-1</v>
+      </c>
+      <c r="B41" t="s" s="145">
+        <v>141</v>
+      </c>
+      <c r="C41" t="s" s="127">
+        <v>187</v>
+      </c>
+      <c r="D41" t="s" s="127">
+        <v>178</v>
+      </c>
+      <c r="E41" s="146"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="137">
+        <v>12234288</v>
+      </c>
+      <c r="H41" s="39"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="138">
+        <v>835229</v>
+      </c>
+      <c r="K41" s="84"/>
+      <c r="L41" s="130">
+        <v>800000</v>
+      </c>
+      <c r="M41" s="140"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="116">
+        <v>1.04403625</v>
+      </c>
+      <c r="Q41" s="84"/>
+      <c r="R41" s="133">
+        <v>0.08020383742281</v>
+      </c>
+      <c r="S41" t="s" s="127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" ht="13.5" customHeight="1">
+      <c r="A42" s="112">
+        <v>-4</v>
+      </c>
+      <c r="B42" t="s" s="147">
+        <v>142</v>
+      </c>
+      <c r="C42" s="148"/>
+      <c r="D42" t="s" s="149">
         <v>188</v>
       </c>
-      <c r="B3" t="s" s="126">
-        <v>139</v>
-      </c>
-      <c r="C3" t="s" s="127">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s" s="126">
-        <v>141</v>
-      </c>
-      <c r="E3" t="s" s="126">
+      <c r="E42" t="s" s="149">
+        <v>189</v>
+      </c>
+      <c r="F42" s="39"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="150">
+        <v>1053340</v>
+      </c>
+      <c r="K42" s="84"/>
+      <c r="L42" s="150">
+        <v>975000</v>
+      </c>
+      <c r="M42" s="151"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="152">
+        <v>1.08034871794872</v>
+      </c>
+      <c r="Q42" s="84"/>
+      <c r="R42" s="152">
+        <v>0.187882670877236</v>
+      </c>
+      <c r="S42" t="s" s="149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" ht="13.5" customHeight="1">
+      <c r="A43" s="112">
+        <v>-4</v>
+      </c>
+      <c r="B43" t="s" s="153">
+        <v>142</v>
+      </c>
+      <c r="C43" s="40"/>
+      <c r="D43" t="s" s="149">
+        <v>188</v>
+      </c>
+      <c r="E43" t="s" s="149">
+        <v>190</v>
+      </c>
+      <c r="F43" s="39"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="150">
+        <v>1516481</v>
+      </c>
+      <c r="K43" s="84"/>
+      <c r="L43" s="150">
+        <v>1450000</v>
+      </c>
+      <c r="M43" s="151"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="152">
+        <v>1.04584896551724</v>
+      </c>
+      <c r="Q43" s="84"/>
+      <c r="R43" s="152">
+        <v>0.159205827067669</v>
+      </c>
+      <c r="S43" t="s" s="149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" ht="13.5" customHeight="1">
+      <c r="A44" s="112">
+        <v>-4</v>
+      </c>
+      <c r="B44" t="s" s="153">
+        <v>142</v>
+      </c>
+      <c r="C44" s="40"/>
+      <c r="D44" t="s" s="149">
+        <v>188</v>
+      </c>
+      <c r="E44" t="s" s="149">
+        <v>191</v>
+      </c>
+      <c r="F44" s="39"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="150">
+        <v>319691</v>
+      </c>
+      <c r="K44" s="84"/>
+      <c r="L44" s="150">
+        <v>385000</v>
+      </c>
+      <c r="M44" s="151"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="152">
+        <v>0.830366233766234</v>
+      </c>
+      <c r="Q44" s="84"/>
+      <c r="R44" s="152">
+        <v>-0.124001966568338</v>
+      </c>
+      <c r="S44" t="s" s="149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" ht="13.5" customHeight="1">
+      <c r="A45" s="112">
+        <v>-4</v>
+      </c>
+      <c r="B45" t="s" s="153">
+        <v>142</v>
+      </c>
+      <c r="C45" s="40"/>
+      <c r="D45" t="s" s="149">
+        <v>188</v>
+      </c>
+      <c r="E45" t="s" s="149">
+        <v>192</v>
+      </c>
+      <c r="F45" s="39"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="150">
+        <v>368874</v>
+      </c>
+      <c r="K45" s="84"/>
+      <c r="L45" s="150">
+        <v>370000</v>
+      </c>
+      <c r="M45" s="151"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="152">
+        <v>0.996956756756757</v>
+      </c>
+      <c r="Q45" s="84"/>
+      <c r="R45" s="152">
+        <v>0.126180758017493</v>
+      </c>
+      <c r="S45" t="s" s="149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" ht="13.5" customHeight="1">
+      <c r="A46" s="112">
+        <v>-4</v>
+      </c>
+      <c r="B46" t="s" s="153">
+        <v>142</v>
+      </c>
+      <c r="C46" s="40"/>
+      <c r="D46" t="s" s="149">
+        <v>188</v>
+      </c>
+      <c r="E46" t="s" s="149">
+        <v>193</v>
+      </c>
+      <c r="F46" s="39"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="150">
+        <v>840213</v>
+      </c>
+      <c r="K46" s="84"/>
+      <c r="L46" s="150">
+        <v>800000</v>
+      </c>
+      <c r="M46" s="151"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="152">
+        <v>1.05026625</v>
+      </c>
+      <c r="Q46" s="84"/>
+      <c r="R46" s="152">
+        <v>0.146255697851096</v>
+      </c>
+      <c r="S46" t="s" s="149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" ht="13.5" customHeight="1">
+      <c r="A47" s="112">
+        <v>-3</v>
+      </c>
+      <c r="B47" t="s" s="153">
+        <v>142</v>
+      </c>
+      <c r="C47" s="40"/>
+      <c r="D47" t="s" s="149">
+        <v>188</v>
+      </c>
+      <c r="E47" t="s" s="149">
+        <v>189</v>
+      </c>
+      <c r="F47" s="39"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="150">
+        <v>817035</v>
+      </c>
+      <c r="K47" s="84"/>
+      <c r="L47" s="150">
+        <v>910000</v>
+      </c>
+      <c r="M47" s="151"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="152">
+        <v>0.897840659340659</v>
+      </c>
+      <c r="Q47" s="84"/>
+      <c r="R47" s="152">
+        <v>0.0145048865715667</v>
+      </c>
+      <c r="S47" t="s" s="149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" ht="13.5" customHeight="1">
+      <c r="A48" s="112">
+        <v>-3</v>
+      </c>
+      <c r="B48" t="s" s="153">
+        <v>142</v>
+      </c>
+      <c r="C48" s="40"/>
+      <c r="D48" t="s" s="149">
+        <v>188</v>
+      </c>
+      <c r="E48" t="s" s="149">
+        <v>190</v>
+      </c>
+      <c r="F48" s="39"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="150">
+        <v>1214350</v>
+      </c>
+      <c r="K48" s="84"/>
+      <c r="L48" s="150">
+        <v>1350000</v>
+      </c>
+      <c r="M48" s="151"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="152">
+        <v>0.8995185185185181</v>
+      </c>
+      <c r="Q48" s="84"/>
+      <c r="R48" s="152">
+        <v>-0.0576382426812698</v>
+      </c>
+      <c r="S48" t="s" s="149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" ht="13.5" customHeight="1">
+      <c r="A49" s="112">
+        <v>-3</v>
+      </c>
+      <c r="B49" t="s" s="153">
+        <v>142</v>
+      </c>
+      <c r="C49" s="40"/>
+      <c r="D49" t="s" s="149">
+        <v>188</v>
+      </c>
+      <c r="E49" t="s" s="149">
+        <v>191</v>
+      </c>
+      <c r="F49" s="39"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="150">
+        <v>248727</v>
+      </c>
+      <c r="K49" s="84"/>
+      <c r="L49" s="150">
+        <v>275000</v>
+      </c>
+      <c r="M49" s="151"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="152">
+        <v>0.904461818181818</v>
+      </c>
+      <c r="Q49" s="84"/>
+      <c r="R49" s="152">
+        <v>0.081824651123521</v>
+      </c>
+      <c r="S49" t="s" s="149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" ht="13.5" customHeight="1">
+      <c r="A50" s="112">
+        <v>-3</v>
+      </c>
+      <c r="B50" t="s" s="153">
+        <v>142</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="D50" t="s" s="149">
+        <v>188</v>
+      </c>
+      <c r="E50" t="s" s="149">
+        <v>192</v>
+      </c>
+      <c r="F50" s="39"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="150">
+        <v>281993</v>
+      </c>
+      <c r="K50" s="84"/>
+      <c r="L50" s="150">
+        <v>300000</v>
+      </c>
+      <c r="M50" s="151"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="152">
+        <v>0.939976666666667</v>
+      </c>
+      <c r="Q50" s="84"/>
+      <c r="R50" s="152">
+        <v>-0.122570418414641</v>
+      </c>
+      <c r="S50" t="s" s="149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" ht="13.5" customHeight="1">
+      <c r="A51" s="112">
+        <v>-3</v>
+      </c>
+      <c r="B51" t="s" s="153">
+        <v>142</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" t="s" s="149">
+        <v>188</v>
+      </c>
+      <c r="E51" t="s" s="149">
+        <v>193</v>
+      </c>
+      <c r="F51" s="39"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="150">
+        <v>626706</v>
+      </c>
+      <c r="K51" s="84"/>
+      <c r="L51" s="150">
+        <v>730000</v>
+      </c>
+      <c r="M51" s="151"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="152">
+        <v>0.858501369863014</v>
+      </c>
+      <c r="Q51" s="84"/>
+      <c r="R51" s="152">
+        <v>-0.0376556152326609</v>
+      </c>
+      <c r="S51" t="s" s="149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" ht="13.5" customHeight="1">
+      <c r="A52" s="112">
+        <v>-2</v>
+      </c>
+      <c r="B52" t="s" s="153">
+        <v>142</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" t="s" s="149">
+        <v>188</v>
+      </c>
+      <c r="E52" t="s" s="149">
+        <v>189</v>
+      </c>
+      <c r="F52" s="39"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="150">
+        <v>828886</v>
+      </c>
+      <c r="K52" s="84"/>
+      <c r="L52" s="150">
+        <v>860000</v>
+      </c>
+      <c r="M52" s="151"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="152">
+        <v>0.963820930232558</v>
+      </c>
+      <c r="Q52" s="84"/>
+      <c r="R52" s="152">
+        <v>0.0145048865715667</v>
+      </c>
+      <c r="S52" t="s" s="149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" ht="13.5" customHeight="1">
+      <c r="A53" s="112">
+        <v>-2</v>
+      </c>
+      <c r="B53" t="s" s="153">
+        <v>142</v>
+      </c>
+      <c r="C53" s="40"/>
+      <c r="D53" t="s" s="149">
+        <v>188</v>
+      </c>
+      <c r="E53" t="s" s="149">
+        <v>190</v>
+      </c>
+      <c r="F53" s="39"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="150">
+        <v>1144357</v>
+      </c>
+      <c r="K53" s="84"/>
+      <c r="L53" s="150">
+        <v>1250000</v>
+      </c>
+      <c r="M53" s="151"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="152">
+        <v>0.9154856</v>
+      </c>
+      <c r="Q53" s="84"/>
+      <c r="R53" s="152">
+        <v>-0.0576382426812698</v>
+      </c>
+      <c r="S53" t="s" s="149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" ht="13.5" customHeight="1">
+      <c r="A54" s="112">
+        <v>-2</v>
+      </c>
+      <c r="B54" t="s" s="153">
+        <v>142</v>
+      </c>
+      <c r="C54" s="40"/>
+      <c r="D54" t="s" s="149">
+        <v>188</v>
+      </c>
+      <c r="E54" t="s" s="149">
+        <v>191</v>
+      </c>
+      <c r="F54" s="39"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="150">
+        <v>269079</v>
+      </c>
+      <c r="K54" s="84"/>
+      <c r="L54" s="150">
+        <v>275000</v>
+      </c>
+      <c r="M54" s="151"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="152">
+        <v>0.978469090909091</v>
+      </c>
+      <c r="Q54" s="84"/>
+      <c r="R54" s="152">
+        <v>0.081824651123521</v>
+      </c>
+      <c r="S54" t="s" s="149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" ht="13.5" customHeight="1">
+      <c r="A55" s="112">
+        <v>-2</v>
+      </c>
+      <c r="B55" t="s" s="153">
+        <v>142</v>
+      </c>
+      <c r="C55" s="40"/>
+      <c r="D55" t="s" s="149">
+        <v>188</v>
+      </c>
+      <c r="E55" t="s" s="149">
+        <v>192</v>
+      </c>
+      <c r="F55" s="39"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="150">
+        <v>247429</v>
+      </c>
+      <c r="K55" s="84"/>
+      <c r="L55" s="150">
+        <v>270000</v>
+      </c>
+      <c r="M55" s="151"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="152">
+        <v>0.9164037037037041</v>
+      </c>
+      <c r="Q55" s="84"/>
+      <c r="R55" s="152">
+        <v>-0.122570418414641</v>
+      </c>
+      <c r="S55" t="s" s="149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" ht="13.5" customHeight="1">
+      <c r="A56" s="112">
+        <v>-2</v>
+      </c>
+      <c r="B56" t="s" s="153">
+        <v>142</v>
+      </c>
+      <c r="C56" s="40"/>
+      <c r="D56" t="s" s="149">
+        <v>188</v>
+      </c>
+      <c r="E56" t="s" s="149">
+        <v>193</v>
+      </c>
+      <c r="F56" s="39"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="150">
+        <v>603107</v>
+      </c>
+      <c r="K56" s="84"/>
+      <c r="L56" s="150">
+        <v>630000</v>
+      </c>
+      <c r="M56" s="151"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="152">
+        <v>0.9573126984126979</v>
+      </c>
+      <c r="Q56" s="84"/>
+      <c r="R56" s="152">
+        <v>-0.0376556152326609</v>
+      </c>
+      <c r="S56" t="s" s="149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" ht="13.5" customHeight="1">
+      <c r="A57" s="130">
+        <v>-1</v>
+      </c>
+      <c r="B57" t="s" s="153">
+        <v>142</v>
+      </c>
+      <c r="C57" s="40"/>
+      <c r="D57" t="s" s="149">
+        <v>188</v>
+      </c>
+      <c r="E57" t="s" s="149">
+        <v>189</v>
+      </c>
+      <c r="F57" s="39"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="150">
+        <v>871069</v>
+      </c>
+      <c r="K57" s="84"/>
+      <c r="L57" s="150">
+        <v>840000</v>
+      </c>
+      <c r="M57" s="151"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="152">
+        <v>1.0369869047619</v>
+      </c>
+      <c r="Q57" s="84"/>
+      <c r="R57" s="116">
+        <v>0.0508911961355361</v>
+      </c>
+      <c r="S57" t="s" s="154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" ht="13.5" customHeight="1">
+      <c r="A58" s="130">
+        <v>-1</v>
+      </c>
+      <c r="B58" t="s" s="153">
+        <v>142</v>
+      </c>
+      <c r="C58" s="40"/>
+      <c r="D58" t="s" s="149">
+        <v>188</v>
+      </c>
+      <c r="E58" t="s" s="149">
+        <v>190</v>
+      </c>
+      <c r="F58" s="39"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="150">
+        <v>1259704</v>
+      </c>
+      <c r="K58" s="84"/>
+      <c r="L58" s="150">
+        <v>1250000</v>
+      </c>
+      <c r="M58" s="151"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="152">
+        <v>1.0077632</v>
+      </c>
+      <c r="Q58" s="84"/>
+      <c r="R58" s="116">
+        <v>0.100796342400143</v>
+      </c>
+      <c r="S58" t="s" s="154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" ht="13.5" customHeight="1">
+      <c r="A59" s="130">
+        <v>-1</v>
+      </c>
+      <c r="B59" t="s" s="153">
+        <v>142</v>
+      </c>
+      <c r="C59" s="40"/>
+      <c r="D59" t="s" s="149">
+        <v>188</v>
+      </c>
+      <c r="E59" t="s" s="149">
+        <v>191</v>
+      </c>
+      <c r="F59" s="39"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="150">
+        <v>305298</v>
+      </c>
+      <c r="K59" s="84"/>
+      <c r="L59" s="150">
+        <v>275000</v>
+      </c>
+      <c r="M59" s="151"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="152">
+        <v>1.11017454545455</v>
+      </c>
+      <c r="Q59" s="84"/>
+      <c r="R59" s="116">
+        <v>0.134603592253576</v>
+      </c>
+      <c r="S59" t="s" s="154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" ht="13.5" customHeight="1">
+      <c r="A60" s="130">
+        <v>-1</v>
+      </c>
+      <c r="B60" t="s" s="153">
+        <v>142</v>
+      </c>
+      <c r="C60" s="40"/>
+      <c r="D60" t="s" s="149">
+        <v>188</v>
+      </c>
+      <c r="E60" t="s" s="149">
+        <v>192</v>
+      </c>
+      <c r="F60" s="39"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="150">
+        <v>310748</v>
+      </c>
+      <c r="K60" s="84"/>
+      <c r="L60" s="150">
+        <v>300000</v>
+      </c>
+      <c r="M60" s="151"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="152">
+        <v>1.03582666666667</v>
+      </c>
+      <c r="Q60" s="84"/>
+      <c r="R60" s="116">
+        <v>0.255907755356082</v>
+      </c>
+      <c r="S60" t="s" s="154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" ht="13.5" customHeight="1">
+      <c r="A61" s="130">
+        <v>-1</v>
+      </c>
+      <c r="B61" t="s" s="155">
+        <v>142</v>
+      </c>
+      <c r="C61" s="40"/>
+      <c r="D61" t="s" s="149">
+        <v>188</v>
+      </c>
+      <c r="E61" t="s" s="149">
+        <v>193</v>
+      </c>
+      <c r="F61" s="39"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="150">
+        <v>806400</v>
+      </c>
+      <c r="K61" s="84"/>
+      <c r="L61" s="150">
+        <v>685000</v>
+      </c>
+      <c r="M61" s="151"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="152">
+        <v>1.17722627737226</v>
+      </c>
+      <c r="Q61" s="84"/>
+      <c r="R61" s="116">
+        <v>0.337076173879594</v>
+      </c>
+      <c r="S61" t="s" s="154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" ht="13.5" customHeight="1">
+      <c r="A62" s="112">
+        <v>-4</v>
+      </c>
+      <c r="B62" t="s" s="154">
         <v>140</v>
       </c>
-      <c r="F3" t="s" s="127">
-        <v>142</v>
-      </c>
-      <c r="G3" t="s" s="127">
-        <v>189</v>
-      </c>
-      <c r="H3" t="s" s="126">
-        <v>146</v>
-      </c>
-      <c r="I3" t="s" s="127">
-        <v>36</v>
-      </c>
-      <c r="J3" t="s" s="127">
-        <v>190</v>
-      </c>
-      <c r="K3" t="s" s="126">
-        <v>144</v>
-      </c>
-      <c r="L3" t="s" s="127">
-        <v>191</v>
-      </c>
-      <c r="M3" t="s" s="126">
-        <v>192</v>
-      </c>
-      <c r="N3" t="s" s="128">
-        <v>193</v>
-      </c>
-      <c r="O3" t="s" s="127">
+      <c r="C62" s="84"/>
+      <c r="D62" t="s" s="156">
         <v>194</v>
       </c>
-      <c r="P3" t="s" s="127">
-        <v>147</v>
-      </c>
-      <c r="Q3" t="s" s="126">
+      <c r="E62" s="157"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="158">
+        <v>4098598</v>
+      </c>
+      <c r="K62" s="84"/>
+      <c r="L62" s="158">
+        <v>3980000</v>
+      </c>
+      <c r="M62" s="159"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="40"/>
+      <c r="P62" s="160">
+        <v>1.02979849246231</v>
+      </c>
+      <c r="Q62" s="84"/>
+      <c r="R62" s="158">
+        <v>0.132072104234243</v>
+      </c>
+      <c r="S62" t="s" s="156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" ht="13.5" customHeight="1">
+      <c r="A63" s="112">
+        <v>-4</v>
+      </c>
+      <c r="B63" t="s" s="154">
+        <v>140</v>
+      </c>
+      <c r="C63" s="84"/>
+      <c r="D63" t="s" s="156">
         <v>195</v>
       </c>
-      <c r="R3" t="s" s="127">
+      <c r="E63" s="39"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="158">
+        <v>728487</v>
+      </c>
+      <c r="K63" s="84"/>
+      <c r="L63" s="158">
+        <v>655000</v>
+      </c>
+      <c r="M63" s="159"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="160">
+        <v>1.11219389312977</v>
+      </c>
+      <c r="Q63" s="84"/>
+      <c r="R63" s="158">
+        <v>0.277815753907202</v>
+      </c>
+      <c r="S63" t="s" s="156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" ht="13.5" customHeight="1">
+      <c r="A64" s="112">
+        <v>-4</v>
+      </c>
+      <c r="B64" t="s" s="154">
+        <v>140</v>
+      </c>
+      <c r="C64" s="84"/>
+      <c r="D64" t="s" s="156">
         <v>196</v>
       </c>
-      <c r="S3" t="s" s="126">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="59"/>
-      <c r="B4" s="129">
-        <v>-5</v>
-      </c>
-      <c r="C4" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D4" t="s" s="131">
-        <v>198</v>
-      </c>
-      <c r="E4" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="132">
-        <v>10560000</v>
-      </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="137"/>
-    </row>
-    <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" s="105"/>
-      <c r="B5" s="129">
-        <v>-5</v>
-      </c>
-      <c r="C5" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D5" t="s" s="131">
-        <v>200</v>
-      </c>
-      <c r="E5" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F5" s="138"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="132">
-        <v>3700000</v>
-      </c>
-      <c r="I5" s="98"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="135"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="139"/>
-      <c r="S5" s="137"/>
-    </row>
-    <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="105"/>
-      <c r="B6" s="129">
-        <v>-5</v>
-      </c>
-      <c r="C6" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D6" t="s" s="131">
-        <v>201</v>
-      </c>
-      <c r="E6" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F6" s="138"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="132">
-        <v>13041600</v>
-      </c>
-      <c r="I6" s="98"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="105"/>
-      <c r="Q6" s="116"/>
-      <c r="R6" s="139"/>
-      <c r="S6" s="137"/>
-    </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="105"/>
-      <c r="B7" s="129">
-        <v>-5</v>
-      </c>
-      <c r="C7" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D7" t="s" s="131">
-        <v>202</v>
-      </c>
-      <c r="E7" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F7" s="138"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="132">
-        <v>6200000</v>
-      </c>
-      <c r="I7" s="98"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="134"/>
-      <c r="N7" s="135"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="116"/>
-      <c r="R7" s="139"/>
-      <c r="S7" s="137"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="140"/>
-      <c r="B8" s="129">
-        <v>-5</v>
-      </c>
-      <c r="C8" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D8" t="s" s="131">
-        <v>203</v>
-      </c>
-      <c r="E8" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="141">
-        <v>1400000</v>
-      </c>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="142"/>
-      <c r="L8" s="143"/>
-      <c r="M8" s="134"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="143"/>
-      <c r="S8" s="137"/>
-    </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="145"/>
-      <c r="B9" s="129">
-        <v>-5</v>
-      </c>
-      <c r="C9" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D9" t="s" s="131">
-        <v>204</v>
-      </c>
-      <c r="E9" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="141">
-        <v>4067200</v>
-      </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="134"/>
-      <c r="N9" s="144"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="137"/>
-    </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="145"/>
-      <c r="B10" s="129">
-        <v>-5</v>
-      </c>
-      <c r="C10" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D10" t="s" s="131">
-        <v>205</v>
-      </c>
-      <c r="E10" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="141">
-        <v>1419200</v>
-      </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="134"/>
-      <c r="N10" s="144"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="137"/>
-    </row>
-    <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="145"/>
-      <c r="B11" s="129">
-        <v>-5</v>
-      </c>
-      <c r="C11" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D11" t="s" s="131">
-        <v>206</v>
-      </c>
-      <c r="E11" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="141">
-        <v>1014300</v>
-      </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="142"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="134"/>
-      <c r="N11" s="144"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="137"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="145"/>
-      <c r="B12" s="129">
-        <v>-5</v>
-      </c>
-      <c r="C12" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D12" t="s" s="131">
-        <v>207</v>
-      </c>
-      <c r="E12" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="141">
-        <v>628320</v>
-      </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="142"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="134"/>
-      <c r="N12" s="144"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="116"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="137"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="145"/>
-      <c r="B13" s="146">
-        <v>-5</v>
-      </c>
-      <c r="C13" t="s" s="147">
-        <v>141</v>
-      </c>
-      <c r="D13" t="s" s="131">
-        <v>208</v>
-      </c>
-      <c r="E13" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="141">
-        <v>12234288</v>
-      </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="142"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="144"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="116"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="137"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="148"/>
-      <c r="B14" s="112">
-        <v>-4</v>
-      </c>
-      <c r="C14" t="s" s="149">
-        <v>141</v>
-      </c>
-      <c r="D14" t="s" s="131">
-        <v>198</v>
-      </c>
-      <c r="E14" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F14" s="150"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="132">
-        <v>10560000</v>
-      </c>
-      <c r="I14" s="151"/>
-      <c r="J14" s="148"/>
-      <c r="K14" s="133">
-        <v>737747.64</v>
-      </c>
-      <c r="L14" s="148"/>
-      <c r="M14" s="129">
-        <v>700000</v>
-      </c>
-      <c r="N14" s="135"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="148"/>
-      <c r="Q14" s="116">
-        <v>1.0539252</v>
-      </c>
-      <c r="R14" s="152"/>
-      <c r="S14" s="137">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="105"/>
-      <c r="B15" s="112">
-        <v>-4</v>
-      </c>
-      <c r="C15" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D15" t="s" s="131">
-        <v>200</v>
-      </c>
-      <c r="E15" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F15" s="138"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="132">
-        <v>3700000</v>
-      </c>
-      <c r="I15" s="98"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="133">
-        <v>245915.88</v>
-      </c>
-      <c r="L15" s="105"/>
-      <c r="M15" s="129">
-        <v>250000</v>
-      </c>
-      <c r="N15" s="135"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="116">
-        <v>0.98366352</v>
-      </c>
-      <c r="R15" s="139"/>
-      <c r="S15" s="137">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="105"/>
-      <c r="B16" s="112">
-        <v>-4</v>
-      </c>
-      <c r="C16" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D16" t="s" s="131">
-        <v>201</v>
-      </c>
-      <c r="E16" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F16" s="138"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="132">
-        <v>13041600</v>
-      </c>
-      <c r="I16" s="98"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="133">
-        <v>901691.5600000001</v>
-      </c>
-      <c r="L16" s="105"/>
-      <c r="M16" s="129">
-        <v>850000</v>
-      </c>
-      <c r="N16" s="135"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="105"/>
-      <c r="Q16" s="116">
-        <v>1.0608136</v>
-      </c>
-      <c r="R16" s="139"/>
-      <c r="S16" s="137">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="105"/>
-      <c r="B17" s="112">
-        <v>-4</v>
-      </c>
-      <c r="C17" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D17" t="s" s="131">
-        <v>202</v>
-      </c>
-      <c r="E17" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F17" s="138"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="132">
-        <v>6200000</v>
-      </c>
-      <c r="I17" s="98"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="133">
-        <v>614789.7</v>
-      </c>
-      <c r="L17" s="105"/>
-      <c r="M17" s="129">
-        <v>600000</v>
-      </c>
-      <c r="N17" s="135"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="105"/>
-      <c r="Q17" s="116">
-        <v>1.0246495</v>
-      </c>
-      <c r="R17" s="139"/>
-      <c r="S17" s="137">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="140"/>
-      <c r="B18" s="112">
-        <v>-4</v>
-      </c>
-      <c r="C18" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D18" t="s" s="131">
-        <v>203</v>
-      </c>
-      <c r="E18" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F18" s="76"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="141">
-        <v>1400000</v>
-      </c>
-      <c r="I18" s="76"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="142">
-        <v>102464.95</v>
-      </c>
-      <c r="L18" s="143"/>
-      <c r="M18" s="129">
-        <v>100000</v>
-      </c>
-      <c r="N18" s="144"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="116">
-        <v>1.0246495</v>
-      </c>
-      <c r="R18" s="143"/>
-      <c r="S18" s="137">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="145"/>
-      <c r="B19" s="112">
-        <v>-4</v>
-      </c>
-      <c r="C19" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D19" t="s" s="131">
-        <v>204</v>
-      </c>
-      <c r="E19" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="141">
-        <v>4067200</v>
-      </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="142">
-        <v>286901.86</v>
-      </c>
-      <c r="L19" s="84"/>
-      <c r="M19" s="129">
-        <v>350000</v>
-      </c>
-      <c r="N19" s="144"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="116">
-        <v>0.8197196</v>
-      </c>
-      <c r="R19" s="84"/>
-      <c r="S19" s="137">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="145"/>
-      <c r="B20" s="112">
-        <v>-4</v>
-      </c>
-      <c r="C20" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D20" t="s" s="131">
-        <v>205</v>
-      </c>
-      <c r="E20" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="141">
-        <v>1419200</v>
-      </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="142">
-        <v>122957.94</v>
-      </c>
-      <c r="L20" s="84"/>
-      <c r="M20" s="129">
-        <v>120000</v>
-      </c>
-      <c r="N20" s="144"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="116">
-        <v>1.0246495</v>
-      </c>
-      <c r="R20" s="84"/>
-      <c r="S20" s="137">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="145"/>
-      <c r="B21" s="112">
-        <v>-4</v>
-      </c>
-      <c r="C21" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D21" t="s" s="131">
-        <v>206</v>
-      </c>
-      <c r="E21" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="141">
-        <v>1014300</v>
-      </c>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="142">
-        <v>32788.784</v>
-      </c>
-      <c r="L21" s="84"/>
-      <c r="M21" s="129">
-        <v>35000</v>
-      </c>
-      <c r="N21" s="144"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="116">
-        <v>0.9368224000000001</v>
-      </c>
-      <c r="R21" s="84"/>
-      <c r="S21" s="137">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="145"/>
-      <c r="B22" s="112">
-        <v>-4</v>
-      </c>
-      <c r="C22" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D22" t="s" s="131">
-        <v>207</v>
-      </c>
-      <c r="E22" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="141">
-        <v>628320</v>
-      </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="142">
-        <v>81971.960000000006</v>
-      </c>
-      <c r="L22" s="84"/>
-      <c r="M22" s="129">
-        <v>75000</v>
-      </c>
-      <c r="N22" s="144"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="116">
-        <v>1.09295946666667</v>
-      </c>
-      <c r="R22" s="84"/>
-      <c r="S22" s="137">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="23" ht="13.5" customHeight="1">
-      <c r="A23" s="145"/>
-      <c r="B23" s="112">
-        <v>-4</v>
-      </c>
-      <c r="C23" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D23" t="s" s="131">
-        <v>208</v>
-      </c>
-      <c r="E23" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="141">
-        <v>12234288</v>
-      </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="142">
-        <v>971367.726</v>
-      </c>
-      <c r="L23" s="84"/>
-      <c r="M23" s="129">
-        <v>900000</v>
-      </c>
-      <c r="N23" s="144"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="116">
-        <v>1.07929747333333</v>
-      </c>
-      <c r="R23" s="84"/>
-      <c r="S23" s="137">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="145"/>
-      <c r="B24" s="112">
+      <c r="E64" s="39"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="158">
+        <v>2576862</v>
+      </c>
+      <c r="K64" s="84"/>
+      <c r="L64" s="158">
+        <v>2610000</v>
+      </c>
+      <c r="M64" s="159"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="40"/>
+      <c r="P64" s="160">
+        <v>0.987303448275862</v>
+      </c>
+      <c r="Q64" s="84"/>
+      <c r="R64" s="158">
+        <v>0.09925064051998669</v>
+      </c>
+      <c r="S64" t="s" s="156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" ht="13.5" customHeight="1">
+      <c r="A65" s="112">
         <v>-3</v>
       </c>
-      <c r="C24" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D24" t="s" s="131">
-        <v>198</v>
-      </c>
-      <c r="E24" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="141">
-        <v>10560000</v>
-      </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="142">
-        <v>556986.16</v>
-      </c>
-      <c r="L24" s="84"/>
-      <c r="M24" s="142">
-        <v>650000</v>
-      </c>
-      <c r="N24" s="153"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="154"/>
-      <c r="Q24" s="116">
-        <v>0.856901784615385</v>
-      </c>
-      <c r="R24" s="84"/>
-      <c r="S24" s="137">
-        <v>-0.245018038959772</v>
-      </c>
-    </row>
-    <row r="25" ht="13.5" customHeight="1">
-      <c r="A25" s="145"/>
-      <c r="B25" s="112">
+      <c r="B65" t="s" s="154">
+        <v>140</v>
+      </c>
+      <c r="C65" s="84"/>
+      <c r="D65" t="s" s="156">
+        <v>194</v>
+      </c>
+      <c r="E65" s="39"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="158">
+        <v>3188812</v>
+      </c>
+      <c r="K65" s="84"/>
+      <c r="L65" s="158">
+        <v>3565000</v>
+      </c>
+      <c r="M65" s="159"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="160">
+        <v>0.894477419354839</v>
+      </c>
+      <c r="Q65" s="84"/>
+      <c r="R65" s="158">
+        <v>-0.221974928987912</v>
+      </c>
+      <c r="S65" t="s" s="156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" ht="13.5" customHeight="1">
+      <c r="A66" s="112">
         <v>-3</v>
       </c>
-      <c r="C25" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D25" t="s" s="131">
-        <v>200</v>
-      </c>
-      <c r="E25" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="141">
-        <v>3700000</v>
-      </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="142">
-        <v>191328.72</v>
-      </c>
-      <c r="L25" s="84"/>
-      <c r="M25" s="142">
-        <v>200000</v>
-      </c>
-      <c r="N25" s="153"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="154"/>
-      <c r="Q25" s="116">
-        <v>0.9566436</v>
-      </c>
-      <c r="R25" s="84"/>
-      <c r="S25" s="137">
-        <v>-0.221974928987912</v>
-      </c>
-    </row>
-    <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="145"/>
-      <c r="B26" s="112">
+      <c r="B66" t="s" s="154">
+        <v>140</v>
+      </c>
+      <c r="C66" s="84"/>
+      <c r="D66" t="s" s="156">
+        <v>195</v>
+      </c>
+      <c r="E66" s="39"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="158">
+        <v>560064</v>
+      </c>
+      <c r="K66" s="84"/>
+      <c r="L66" s="158">
+        <v>615000</v>
+      </c>
+      <c r="M66" s="159"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="160">
+        <v>0.9106731707317069</v>
+      </c>
+      <c r="Q66" s="84"/>
+      <c r="R66" s="158">
+        <v>-0.23119561502127</v>
+      </c>
+      <c r="S66" t="s" s="156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" ht="13.5" customHeight="1">
+      <c r="A67" s="112">
         <v>-3</v>
       </c>
-      <c r="C26" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D26" t="s" s="131">
-        <v>201</v>
-      </c>
-      <c r="E26" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="141">
-        <v>13041600</v>
-      </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="142">
-        <v>736028.144</v>
-      </c>
-      <c r="L26" s="84"/>
-      <c r="M26" s="142">
-        <v>800000</v>
-      </c>
-      <c r="N26" s="153"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="116">
-        <v>0.92003518</v>
-      </c>
-      <c r="R26" s="84"/>
-      <c r="S26" s="137">
-        <v>-0.18372514876373</v>
-      </c>
-    </row>
-    <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="145"/>
-      <c r="B27" s="112">
-        <v>-3</v>
-      </c>
-      <c r="C27" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D27" t="s" s="131">
-        <v>202</v>
-      </c>
-      <c r="E27" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="141">
-        <v>6200000</v>
-      </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="142">
-        <v>478321.8</v>
-      </c>
-      <c r="L27" s="84"/>
-      <c r="M27" s="142">
-        <v>550000</v>
-      </c>
-      <c r="N27" s="153"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="116">
-        <v>0.869676</v>
-      </c>
-      <c r="R27" s="84"/>
-      <c r="S27" s="137">
-        <v>-0.221974928987912</v>
-      </c>
-    </row>
-    <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="145"/>
-      <c r="B28" s="112">
-        <v>-3</v>
-      </c>
-      <c r="C28" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D28" t="s" s="131">
-        <v>203</v>
-      </c>
-      <c r="E28" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F28" s="39"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="141">
-        <v>1400000</v>
-      </c>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="142">
-        <v>69720.3</v>
-      </c>
-      <c r="L28" s="84"/>
-      <c r="M28" s="142">
-        <v>80000</v>
-      </c>
-      <c r="N28" s="153"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="116">
-        <v>0.87150375</v>
-      </c>
-      <c r="R28" s="84"/>
-      <c r="S28" s="137">
-        <v>-0.319569277104024</v>
-      </c>
-    </row>
-    <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" s="145"/>
-      <c r="B29" s="112">
-        <v>-3</v>
-      </c>
-      <c r="C29" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D29" t="s" s="131">
-        <v>204</v>
-      </c>
-      <c r="E29" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="141">
-        <v>4067200</v>
-      </c>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="142">
-        <v>223216.84</v>
-      </c>
-      <c r="L29" s="84"/>
-      <c r="M29" s="142">
-        <v>250000</v>
-      </c>
-      <c r="N29" s="153"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="116">
-        <v>0.89286736</v>
-      </c>
-      <c r="R29" s="84"/>
-      <c r="S29" s="137">
-        <v>-0.221974928987912</v>
-      </c>
-    </row>
-    <row r="30" ht="13.5" customHeight="1">
-      <c r="A30" s="145"/>
-      <c r="B30" s="112">
-        <v>-3</v>
-      </c>
-      <c r="C30" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D30" t="s" s="131">
-        <v>205</v>
-      </c>
-      <c r="E30" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="141">
-        <v>1419200</v>
-      </c>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="142">
-        <v>90664.36</v>
-      </c>
-      <c r="L30" s="84"/>
-      <c r="M30" s="142">
-        <v>100000</v>
-      </c>
-      <c r="N30" s="153"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="116">
-        <v>0.9066436</v>
-      </c>
-      <c r="R30" s="84"/>
-      <c r="S30" s="137">
-        <v>-0.262639240702959</v>
-      </c>
-    </row>
-    <row r="31" ht="13.5" customHeight="1">
-      <c r="A31" s="145"/>
-      <c r="B31" s="112">
-        <v>-3</v>
-      </c>
-      <c r="C31" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D31" t="s" s="131">
-        <v>206</v>
-      </c>
-      <c r="E31" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F31" s="39"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="141">
-        <v>1014300</v>
-      </c>
-      <c r="I31" s="39"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="142">
-        <v>25510.496</v>
-      </c>
-      <c r="L31" s="84"/>
-      <c r="M31" s="142">
-        <v>25000</v>
-      </c>
-      <c r="N31" s="153"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="116">
-        <v>1.02041984</v>
-      </c>
-      <c r="R31" s="84"/>
-      <c r="S31" s="137">
-        <v>-0.221974928987912</v>
-      </c>
-    </row>
-    <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="145"/>
-      <c r="B32" s="112">
-        <v>-3</v>
-      </c>
-      <c r="C32" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D32" t="s" s="131">
-        <v>207</v>
-      </c>
-      <c r="E32" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F32" s="39"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="141">
-        <v>628320</v>
-      </c>
-      <c r="I32" s="39"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="142">
-        <v>59832.18</v>
-      </c>
-      <c r="L32" s="84"/>
-      <c r="M32" s="142">
-        <v>60000</v>
-      </c>
-      <c r="N32" s="153"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="116">
-        <v>0.997203</v>
-      </c>
-      <c r="R32" s="84"/>
-      <c r="S32" s="137">
-        <v>-0.270089674566767</v>
-      </c>
-    </row>
-    <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="145"/>
-      <c r="B33" s="112">
-        <v>-3</v>
-      </c>
-      <c r="C33" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D33" t="s" s="131">
-        <v>208</v>
-      </c>
-      <c r="E33" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F33" s="39"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="141">
-        <v>12234288</v>
-      </c>
-      <c r="I33" s="39"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="142">
-        <v>757203</v>
-      </c>
-      <c r="L33" s="84"/>
-      <c r="M33" s="142">
-        <v>850000</v>
-      </c>
-      <c r="N33" s="153"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="116">
-        <v>0.890827058823529</v>
-      </c>
-      <c r="R33" s="84"/>
-      <c r="S33" s="137">
-        <v>-0.220477498137507</v>
-      </c>
-    </row>
-    <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="145"/>
-      <c r="B34" s="112">
+      <c r="B67" t="s" s="154">
+        <v>140</v>
+      </c>
+      <c r="C67" s="84"/>
+      <c r="D67" t="s" s="156">
+        <v>196</v>
+      </c>
+      <c r="E67" s="39"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="158">
+        <v>2293022</v>
+      </c>
+      <c r="K67" s="84"/>
+      <c r="L67" s="158">
+        <v>2365000</v>
+      </c>
+      <c r="M67" s="159"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="40"/>
+      <c r="P67" s="160">
+        <v>0.96956532769556</v>
+      </c>
+      <c r="Q67" s="84"/>
+      <c r="R67" s="158">
+        <v>-0.110149476378634</v>
+      </c>
+      <c r="S67" t="s" s="156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" ht="13.5" customHeight="1">
+      <c r="A68" s="112">
         <v>-2</v>
       </c>
-      <c r="C34" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D34" t="s" s="131">
-        <v>198</v>
-      </c>
-      <c r="E34" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="141">
-        <v>10560000</v>
-      </c>
-      <c r="I34" s="39"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="142">
-        <v>525785.6899999999</v>
-      </c>
-      <c r="L34" s="84"/>
-      <c r="M34" s="129">
-        <v>550000</v>
-      </c>
-      <c r="N34" s="144"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="116">
-        <v>0.9559739818181821</v>
-      </c>
-      <c r="R34" s="84"/>
-      <c r="S34" s="137">
-        <v>-0.0560165983298402</v>
-      </c>
-    </row>
-    <row r="35" ht="13.5" customHeight="1">
-      <c r="A35" s="145"/>
-      <c r="B35" s="112">
+      <c r="B68" t="s" s="154">
+        <v>140</v>
+      </c>
+      <c r="C68" s="84"/>
+      <c r="D68" t="s" s="156">
+        <v>194</v>
+      </c>
+      <c r="E68" s="39"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="158">
+        <v>3092857</v>
+      </c>
+      <c r="K68" s="84"/>
+      <c r="L68" s="158">
+        <v>3285000</v>
+      </c>
+      <c r="M68" s="159"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="160">
+        <v>0.94150898021309</v>
+      </c>
+      <c r="Q68" s="84"/>
+      <c r="R68" s="158">
+        <v>-0.0300911436610248</v>
+      </c>
+      <c r="S68" t="s" s="156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" ht="13.5" customHeight="1">
+      <c r="A69" s="112">
         <v>-2</v>
       </c>
-      <c r="C35" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D35" t="s" s="131">
-        <v>200</v>
-      </c>
-      <c r="E35" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F35" s="39"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="141">
-        <v>3700000</v>
-      </c>
-      <c r="I35" s="39"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="142">
-        <v>154642.85</v>
-      </c>
-      <c r="L35" s="84"/>
-      <c r="M35" s="129">
-        <v>170000</v>
-      </c>
-      <c r="N35" s="144"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="116">
-        <v>0.909663823529412</v>
-      </c>
-      <c r="R35" s="84"/>
-      <c r="S35" s="137">
-        <v>-0.191742619717521</v>
-      </c>
-    </row>
-    <row r="36" ht="13.5" customHeight="1">
-      <c r="A36" s="145"/>
-      <c r="B36" s="112">
+      <c r="B69" t="s" s="154">
+        <v>140</v>
+      </c>
+      <c r="C69" s="84"/>
+      <c r="D69" t="s" s="156">
+        <v>195</v>
+      </c>
+      <c r="E69" s="39"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="158">
+        <v>792494</v>
+      </c>
+      <c r="K69" s="84"/>
+      <c r="L69" s="158">
+        <v>615000</v>
+      </c>
+      <c r="M69" s="159"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="160">
+        <v>1.2886081300813</v>
+      </c>
+      <c r="Q69" s="84"/>
+      <c r="R69" s="158">
+        <v>0.415006142155182</v>
+      </c>
+      <c r="S69" t="s" s="156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" ht="13.5" customHeight="1">
+      <c r="A70" s="112">
         <v>-2</v>
       </c>
-      <c r="C36" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D36" t="s" s="131">
-        <v>201</v>
-      </c>
-      <c r="E36" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F36" s="39"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="141">
-        <v>13041600</v>
-      </c>
-      <c r="I36" s="39"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="142">
-        <v>711357.11</v>
-      </c>
-      <c r="L36" s="84"/>
-      <c r="M36" s="129">
-        <v>750000</v>
-      </c>
-      <c r="N36" s="144"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="116">
-        <v>0.948476146666667</v>
-      </c>
-      <c r="R36" s="84"/>
-      <c r="S36" s="137">
-        <v>-0.0335191448874813</v>
-      </c>
-    </row>
-    <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" s="145"/>
-      <c r="B37" s="112">
-        <v>-2</v>
-      </c>
-      <c r="C37" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D37" t="s" s="131">
-        <v>202</v>
-      </c>
-      <c r="E37" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F37" s="39"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="141">
-        <v>6200000</v>
-      </c>
-      <c r="I37" s="39"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="142">
-        <v>432999.98</v>
-      </c>
-      <c r="L37" s="84"/>
-      <c r="M37" s="129">
-        <v>500000</v>
-      </c>
-      <c r="N37" s="144"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="116">
-        <v>0.86599996</v>
-      </c>
-      <c r="R37" s="84"/>
-      <c r="S37" s="137">
-        <v>-0.0947517340836231</v>
-      </c>
-    </row>
-    <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" s="145"/>
-      <c r="B38" s="112">
-        <v>-2</v>
-      </c>
-      <c r="C38" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D38" t="s" s="131">
-        <v>203</v>
-      </c>
-      <c r="E38" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F38" s="39"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="141">
-        <v>1400000</v>
-      </c>
-      <c r="I38" s="39"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="142">
-        <v>77321.425</v>
-      </c>
-      <c r="L38" s="84"/>
-      <c r="M38" s="129">
-        <v>80000</v>
-      </c>
-      <c r="N38" s="144"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="116">
-        <v>0.9665178125</v>
-      </c>
-      <c r="R38" s="84"/>
-      <c r="S38" s="137">
-        <v>0.109023125259071</v>
-      </c>
-    </row>
-    <row r="39" ht="13.5" customHeight="1">
-      <c r="A39" s="145"/>
-      <c r="B39" s="112">
-        <v>-2</v>
-      </c>
-      <c r="C39" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D39" t="s" s="131">
-        <v>204</v>
-      </c>
-      <c r="E39" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F39" s="39"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="141">
-        <v>4067200</v>
-      </c>
-      <c r="I39" s="39"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="142">
-        <v>247428.56</v>
-      </c>
-      <c r="L39" s="84"/>
-      <c r="M39" s="129">
-        <v>250000</v>
-      </c>
-      <c r="N39" s="144"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="116">
-        <v>0.98971424</v>
-      </c>
-      <c r="R39" s="84"/>
-      <c r="S39" s="137">
-        <v>0.1084672643874</v>
-      </c>
-    </row>
-    <row r="40" ht="13.5" customHeight="1">
-      <c r="A40" s="145"/>
-      <c r="B40" s="112">
-        <v>-2</v>
-      </c>
-      <c r="C40" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D40" t="s" s="131">
-        <v>205</v>
-      </c>
-      <c r="E40" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F40" s="39"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="141">
-        <v>1419200</v>
-      </c>
-      <c r="I40" s="39"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="142">
-        <v>92785.710000000006</v>
-      </c>
-      <c r="L40" s="84"/>
-      <c r="M40" s="129">
-        <v>100000</v>
-      </c>
-      <c r="N40" s="144"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="116">
-        <v>0.9278571</v>
-      </c>
-      <c r="R40" s="84"/>
-      <c r="S40" s="137">
-        <v>0.0233978379155821</v>
-      </c>
-    </row>
-    <row r="41" ht="13.5" customHeight="1">
-      <c r="A41" s="145"/>
-      <c r="B41" s="112">
-        <v>-2</v>
-      </c>
-      <c r="C41" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D41" t="s" s="131">
-        <v>206</v>
-      </c>
-      <c r="E41" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F41" s="39"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="141">
-        <v>1014300</v>
-      </c>
-      <c r="I41" s="39"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="142">
-        <v>21649.999</v>
-      </c>
-      <c r="L41" s="84"/>
-      <c r="M41" s="129">
-        <v>25000</v>
-      </c>
-      <c r="N41" s="144"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="116">
-        <v>0.86599996</v>
-      </c>
-      <c r="R41" s="84"/>
-      <c r="S41" s="137">
-        <v>-0.151329750703397</v>
-      </c>
-    </row>
-    <row r="42" ht="13.5" customHeight="1">
-      <c r="A42" s="145"/>
-      <c r="B42" s="112">
-        <v>-2</v>
-      </c>
-      <c r="C42" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D42" t="s" s="131">
-        <v>207</v>
-      </c>
-      <c r="E42" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F42" s="39"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="141">
-        <v>628320</v>
-      </c>
-      <c r="I42" s="39"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="142">
-        <v>55671.426</v>
-      </c>
-      <c r="L42" s="84"/>
-      <c r="M42" s="129">
-        <v>60000</v>
-      </c>
-      <c r="N42" s="144"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="116">
-        <v>0.9278571</v>
-      </c>
-      <c r="R42" s="84"/>
-      <c r="S42" s="137">
-        <v>-0.0695404045114185</v>
-      </c>
-    </row>
-    <row r="43" ht="13.5" customHeight="1">
-      <c r="A43" s="145"/>
-      <c r="B43" s="112">
-        <v>-2</v>
-      </c>
-      <c r="C43" t="s" s="130">
-        <v>141</v>
-      </c>
-      <c r="D43" t="s" s="131">
-        <v>208</v>
-      </c>
-      <c r="E43" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F43" s="39"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="141">
-        <v>12234288</v>
-      </c>
-      <c r="I43" s="39"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="142">
-        <v>773214.25</v>
-      </c>
-      <c r="L43" s="84"/>
-      <c r="M43" s="129">
-        <v>800000</v>
-      </c>
-      <c r="N43" s="144"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="116">
-        <v>0.9665178125</v>
-      </c>
-      <c r="R43" s="84"/>
-      <c r="S43" s="137">
-        <v>0.0211452543109312</v>
-      </c>
-    </row>
-    <row r="44" ht="13.5" customHeight="1">
-      <c r="A44" s="145"/>
-      <c r="B44" s="146">
+      <c r="B70" t="s" s="154">
+        <v>140</v>
+      </c>
+      <c r="C70" s="84"/>
+      <c r="D70" t="s" s="156">
+        <v>196</v>
+      </c>
+      <c r="E70" s="39"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="158">
+        <v>2263056</v>
+      </c>
+      <c r="K70" s="84"/>
+      <c r="L70" s="158">
+        <v>2345000</v>
+      </c>
+      <c r="M70" s="159"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="40"/>
+      <c r="P70" s="160">
+        <v>0.9650558635394459</v>
+      </c>
+      <c r="Q70" s="84"/>
+      <c r="R70" s="158">
+        <v>-0.0130683438711011</v>
+      </c>
+      <c r="S70" t="s" s="156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" ht="13.5" customHeight="1">
+      <c r="A71" s="130">
         <v>-1</v>
       </c>
-      <c r="C44" t="s" s="155">
-        <v>141</v>
-      </c>
-      <c r="D44" t="s" s="131">
-        <v>198</v>
-      </c>
-      <c r="E44" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F44" s="39"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="141">
-        <v>10560000</v>
-      </c>
-      <c r="I44" s="39"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="142">
-        <v>716400</v>
-      </c>
-      <c r="L44" s="84"/>
-      <c r="M44" s="129">
-        <v>600000</v>
-      </c>
-      <c r="N44" s="144"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="116">
-        <v>1.194</v>
-      </c>
-      <c r="R44" s="84"/>
-      <c r="S44" s="137">
-        <v>0.362532327572475</v>
-      </c>
-    </row>
-    <row r="45" ht="13.5" customHeight="1">
-      <c r="A45" s="145"/>
-      <c r="B45" s="146">
+      <c r="B71" t="s" s="154">
+        <v>140</v>
+      </c>
+      <c r="C71" s="84"/>
+      <c r="D71" t="s" s="156">
+        <v>194</v>
+      </c>
+      <c r="E71" s="39"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="158">
+        <v>3553219</v>
+      </c>
+      <c r="K71" s="84"/>
+      <c r="L71" s="158">
+        <v>3350000</v>
+      </c>
+      <c r="M71" s="159"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="40"/>
+      <c r="P71" s="160">
+        <v>1.0606623880597</v>
+      </c>
+      <c r="Q71" s="84"/>
+      <c r="R71" s="158">
+        <v>0.148846842902856</v>
+      </c>
+      <c r="S71" t="s" s="156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" ht="13.5" customHeight="1">
+      <c r="A72" s="130">
         <v>-1</v>
       </c>
-      <c r="C45" t="s" s="155">
-        <v>141</v>
-      </c>
-      <c r="D45" t="s" s="131">
-        <v>200</v>
-      </c>
-      <c r="E45" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F45" s="39"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="141">
-        <v>3700000</v>
-      </c>
-      <c r="I45" s="39"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="142">
-        <v>220500</v>
-      </c>
-      <c r="L45" s="84"/>
-      <c r="M45" s="129">
-        <v>200000</v>
-      </c>
-      <c r="N45" s="144"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="116">
-        <v>1.1025</v>
-      </c>
-      <c r="R45" s="84"/>
-      <c r="S45" s="137">
-        <v>0.425866116668181</v>
-      </c>
-    </row>
-    <row r="46" ht="13.5" customHeight="1">
-      <c r="A46" s="145"/>
-      <c r="B46" s="146">
+      <c r="B72" t="s" s="154">
+        <v>140</v>
+      </c>
+      <c r="C72" s="84"/>
+      <c r="D72" t="s" s="156">
+        <v>195</v>
+      </c>
+      <c r="E72" s="39"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="158">
+        <v>2475498</v>
+      </c>
+      <c r="K72" s="84"/>
+      <c r="L72" s="158">
+        <v>2035000</v>
+      </c>
+      <c r="M72" s="159"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="40"/>
+      <c r="P72" s="160">
+        <v>1.21646093366093</v>
+      </c>
+      <c r="Q72" s="84"/>
+      <c r="R72" s="158">
+        <v>2.12368043164996</v>
+      </c>
+      <c r="S72" t="s" s="156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" ht="13.5" customHeight="1">
+      <c r="A73" s="130">
         <v>-1</v>
       </c>
-      <c r="C46" t="s" s="155">
-        <v>141</v>
-      </c>
-      <c r="D46" t="s" s="131">
-        <v>201</v>
-      </c>
-      <c r="E46" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F46" s="39"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="141">
-        <v>13041600</v>
-      </c>
-      <c r="I46" s="39"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="142">
-        <v>859704</v>
-      </c>
-      <c r="L46" s="84"/>
-      <c r="M46" s="129">
-        <v>800000</v>
-      </c>
-      <c r="N46" s="144"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="116">
-        <v>1.07463</v>
-      </c>
-      <c r="R46" s="84"/>
-      <c r="S46" s="137">
-        <v>0.208540672349504</v>
-      </c>
-    </row>
-    <row r="47" ht="13.5" customHeight="1">
-      <c r="A47" s="145"/>
-      <c r="B47" s="146">
-        <v>-1</v>
-      </c>
-      <c r="C47" t="s" s="155">
-        <v>141</v>
-      </c>
-      <c r="D47" t="s" s="131">
-        <v>202</v>
-      </c>
-      <c r="E47" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F47" s="39"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="141">
-        <v>6200000</v>
-      </c>
-      <c r="I47" s="39"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="142">
-        <v>400000</v>
-      </c>
-      <c r="L47" s="84"/>
-      <c r="M47" s="129">
-        <v>450000</v>
-      </c>
-      <c r="N47" s="144"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="116">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="R47" s="84"/>
-      <c r="S47" s="137">
-        <v>-0.0762124284624679</v>
-      </c>
-    </row>
-    <row r="48" ht="13.5" customHeight="1">
-      <c r="A48" s="145"/>
-      <c r="B48" s="146">
-        <v>-1</v>
-      </c>
-      <c r="C48" t="s" s="155">
-        <v>141</v>
-      </c>
-      <c r="D48" t="s" s="131">
-        <v>203</v>
-      </c>
-      <c r="E48" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F48" s="39"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="141">
-        <v>1400000</v>
-      </c>
-      <c r="I48" s="39"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="142">
-        <v>90000</v>
-      </c>
-      <c r="L48" s="84"/>
-      <c r="M48" s="129">
-        <v>85000</v>
-      </c>
-      <c r="N48" s="144"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="116">
-        <v>1.05882352941176</v>
-      </c>
-      <c r="R48" s="84"/>
-      <c r="S48" s="137">
-        <v>0.163972340137291</v>
-      </c>
-    </row>
-    <row r="49" ht="13.5" customHeight="1">
-      <c r="A49" s="145"/>
-      <c r="B49" s="146">
-        <v>-1</v>
-      </c>
-      <c r="C49" t="s" s="155">
-        <v>141</v>
-      </c>
-      <c r="D49" t="s" s="131">
-        <v>204</v>
-      </c>
-      <c r="E49" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F49" s="39"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="141">
-        <v>4067200</v>
-      </c>
-      <c r="I49" s="39"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="142">
-        <v>276368</v>
-      </c>
-      <c r="L49" s="84"/>
-      <c r="M49" s="129">
-        <v>250000</v>
-      </c>
-      <c r="N49" s="144"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="116">
-        <v>1.105472</v>
-      </c>
-      <c r="R49" s="84"/>
-      <c r="S49" s="137">
-        <v>0.116960790621746</v>
-      </c>
-    </row>
-    <row r="50" ht="13.5" customHeight="1">
-      <c r="A50" s="145"/>
-      <c r="B50" s="146">
-        <v>-1</v>
-      </c>
-      <c r="C50" t="s" s="155">
-        <v>141</v>
-      </c>
-      <c r="D50" t="s" s="131">
-        <v>205</v>
-      </c>
-      <c r="E50" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F50" s="39"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="141">
-        <v>1419200</v>
-      </c>
-      <c r="I50" s="39"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="142">
-        <v>90248</v>
-      </c>
-      <c r="L50" s="84"/>
-      <c r="M50" s="129">
-        <v>100000</v>
-      </c>
-      <c r="N50" s="144"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="116">
-        <v>0.9024799999999999</v>
-      </c>
-      <c r="R50" s="84"/>
-      <c r="S50" s="137">
-        <v>-0.0273502245119426</v>
-      </c>
-    </row>
-    <row r="51" ht="13.5" customHeight="1">
-      <c r="A51" s="145"/>
-      <c r="B51" s="146">
-        <v>-1</v>
-      </c>
-      <c r="C51" t="s" s="155">
-        <v>141</v>
-      </c>
-      <c r="D51" t="s" s="131">
-        <v>206</v>
-      </c>
-      <c r="E51" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F51" s="39"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="141">
-        <v>1014300</v>
-      </c>
-      <c r="I51" s="39"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="142">
-        <v>28930</v>
-      </c>
-      <c r="L51" s="84"/>
-      <c r="M51" s="129">
-        <v>25000</v>
-      </c>
-      <c r="N51" s="144"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="116">
-        <v>1.1572</v>
-      </c>
-      <c r="R51" s="84"/>
-      <c r="S51" s="137">
-        <v>0.33625872222904</v>
-      </c>
-    </row>
-    <row r="52" ht="13.5" customHeight="1">
-      <c r="A52" s="145"/>
-      <c r="B52" s="146">
-        <v>-1</v>
-      </c>
-      <c r="C52" t="s" s="155">
-        <v>141</v>
-      </c>
-      <c r="D52" t="s" s="131">
-        <v>207</v>
-      </c>
-      <c r="E52" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F52" s="39"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="141">
-        <v>628320</v>
-      </c>
-      <c r="I52" s="39"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="142">
-        <v>35840</v>
-      </c>
-      <c r="L52" s="84"/>
-      <c r="M52" s="129">
-        <v>40000</v>
-      </c>
-      <c r="N52" s="144"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="116">
-        <v>0.896</v>
-      </c>
-      <c r="R52" s="84"/>
-      <c r="S52" s="137">
-        <v>-0.356222705701844</v>
-      </c>
-    </row>
-    <row r="53" ht="13.5" customHeight="1">
-      <c r="A53" s="145"/>
-      <c r="B53" s="146">
-        <v>-1</v>
-      </c>
-      <c r="C53" t="s" s="147">
-        <v>141</v>
-      </c>
-      <c r="D53" t="s" s="131">
-        <v>208</v>
-      </c>
-      <c r="E53" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="F53" s="156"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="141">
-        <v>12234288</v>
-      </c>
-      <c r="I53" s="39"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="142">
-        <v>835229</v>
-      </c>
-      <c r="L53" s="84"/>
-      <c r="M53" s="129">
-        <v>800000</v>
-      </c>
-      <c r="N53" s="144"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="116">
-        <v>1.04403625</v>
-      </c>
-      <c r="R53" s="84"/>
-      <c r="S53" s="137">
-        <v>0.08020383742281</v>
-      </c>
-    </row>
-    <row r="54" ht="13.5" customHeight="1">
-      <c r="A54" s="145"/>
-      <c r="B54" s="112">
-        <v>-4</v>
-      </c>
-      <c r="C54" t="s" s="157">
-        <v>142</v>
-      </c>
-      <c r="D54" s="158"/>
-      <c r="E54" t="s" s="159">
-        <v>209</v>
-      </c>
-      <c r="F54" t="s" s="159">
-        <v>210</v>
-      </c>
-      <c r="G54" s="39"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="160">
-        <v>1053340</v>
-      </c>
-      <c r="L54" s="84"/>
-      <c r="M54" s="160">
-        <v>975000</v>
-      </c>
-      <c r="N54" s="161"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="162">
-        <v>1.08034871794872</v>
-      </c>
-      <c r="R54" s="84"/>
-      <c r="S54" s="162">
-        <v>0.187882670877236</v>
-      </c>
-    </row>
-    <row r="55" ht="13.5" customHeight="1">
-      <c r="A55" s="145"/>
-      <c r="B55" s="112">
-        <v>-4</v>
-      </c>
-      <c r="C55" t="s" s="163">
-        <v>142</v>
-      </c>
-      <c r="D55" s="40"/>
-      <c r="E55" t="s" s="159">
-        <v>209</v>
-      </c>
-      <c r="F55" t="s" s="159">
-        <v>211</v>
-      </c>
-      <c r="G55" s="39"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="160">
-        <v>1516481</v>
-      </c>
-      <c r="L55" s="84"/>
-      <c r="M55" s="160">
-        <v>1450000</v>
-      </c>
-      <c r="N55" s="161"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="162">
-        <v>1.04584896551724</v>
-      </c>
-      <c r="R55" s="84"/>
-      <c r="S55" s="162">
-        <v>0.159205827067669</v>
-      </c>
-    </row>
-    <row r="56" ht="13.5" customHeight="1">
-      <c r="A56" s="145"/>
-      <c r="B56" s="112">
-        <v>-4</v>
-      </c>
-      <c r="C56" t="s" s="163">
-        <v>142</v>
-      </c>
-      <c r="D56" s="40"/>
-      <c r="E56" t="s" s="159">
-        <v>209</v>
-      </c>
-      <c r="F56" t="s" s="159">
-        <v>212</v>
-      </c>
-      <c r="G56" s="39"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="160">
-        <v>319691</v>
-      </c>
-      <c r="L56" s="84"/>
-      <c r="M56" s="160">
-        <v>385000</v>
-      </c>
-      <c r="N56" s="161"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="162">
-        <v>0.830366233766234</v>
-      </c>
-      <c r="R56" s="84"/>
-      <c r="S56" s="162">
-        <v>-0.124001966568338</v>
-      </c>
-    </row>
-    <row r="57" ht="13.5" customHeight="1">
-      <c r="A57" s="145"/>
-      <c r="B57" s="112">
-        <v>-4</v>
-      </c>
-      <c r="C57" t="s" s="163">
-        <v>142</v>
-      </c>
-      <c r="D57" s="40"/>
-      <c r="E57" t="s" s="159">
-        <v>209</v>
-      </c>
-      <c r="F57" t="s" s="159">
-        <v>213</v>
-      </c>
-      <c r="G57" s="39"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="160">
-        <v>368874</v>
-      </c>
-      <c r="L57" s="84"/>
-      <c r="M57" s="160">
-        <v>370000</v>
-      </c>
-      <c r="N57" s="161"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="162">
-        <v>0.996956756756757</v>
-      </c>
-      <c r="R57" s="84"/>
-      <c r="S57" s="162">
-        <v>0.126180758017493</v>
-      </c>
-    </row>
-    <row r="58" ht="13.5" customHeight="1">
-      <c r="A58" s="145"/>
-      <c r="B58" s="112">
-        <v>-4</v>
-      </c>
-      <c r="C58" t="s" s="163">
-        <v>142</v>
-      </c>
-      <c r="D58" s="40"/>
-      <c r="E58" t="s" s="159">
-        <v>209</v>
-      </c>
-      <c r="F58" t="s" s="159">
-        <v>214</v>
-      </c>
-      <c r="G58" s="39"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="160">
-        <v>840213</v>
-      </c>
-      <c r="L58" s="84"/>
-      <c r="M58" s="160">
-        <v>800000</v>
-      </c>
-      <c r="N58" s="161"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="162">
-        <v>1.05026625</v>
-      </c>
-      <c r="R58" s="84"/>
-      <c r="S58" s="162">
-        <v>0.146255697851096</v>
-      </c>
-    </row>
-    <row r="59" ht="13.5" customHeight="1">
-      <c r="A59" s="145"/>
-      <c r="B59" s="112">
-        <v>-3</v>
-      </c>
-      <c r="C59" t="s" s="163">
-        <v>142</v>
-      </c>
-      <c r="D59" s="40"/>
-      <c r="E59" t="s" s="159">
-        <v>209</v>
-      </c>
-      <c r="F59" t="s" s="159">
-        <v>210</v>
-      </c>
-      <c r="G59" s="39"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="40"/>
-      <c r="K59" s="160">
-        <v>817035</v>
-      </c>
-      <c r="L59" s="84"/>
-      <c r="M59" s="160">
-        <v>910000</v>
-      </c>
-      <c r="N59" s="161"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="162">
-        <v>0.897840659340659</v>
-      </c>
-      <c r="R59" s="84"/>
-      <c r="S59" s="162">
-        <v>0.0145048865715667</v>
-      </c>
-    </row>
-    <row r="60" ht="13.5" customHeight="1">
-      <c r="A60" s="145"/>
-      <c r="B60" s="112">
-        <v>-3</v>
-      </c>
-      <c r="C60" t="s" s="163">
-        <v>142</v>
-      </c>
-      <c r="D60" s="40"/>
-      <c r="E60" t="s" s="159">
-        <v>209</v>
-      </c>
-      <c r="F60" t="s" s="159">
-        <v>211</v>
-      </c>
-      <c r="G60" s="39"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="160">
-        <v>1214350</v>
-      </c>
-      <c r="L60" s="84"/>
-      <c r="M60" s="160">
-        <v>1350000</v>
-      </c>
-      <c r="N60" s="161"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="162">
-        <v>0.8995185185185181</v>
-      </c>
-      <c r="R60" s="84"/>
-      <c r="S60" s="162">
-        <v>-0.0576382426812698</v>
-      </c>
-    </row>
-    <row r="61" ht="13.5" customHeight="1">
-      <c r="A61" s="145"/>
-      <c r="B61" s="112">
-        <v>-3</v>
-      </c>
-      <c r="C61" t="s" s="163">
-        <v>142</v>
-      </c>
-      <c r="D61" s="40"/>
-      <c r="E61" t="s" s="159">
-        <v>209</v>
-      </c>
-      <c r="F61" t="s" s="159">
-        <v>212</v>
-      </c>
-      <c r="G61" s="39"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="40"/>
-      <c r="K61" s="160">
-        <v>248727</v>
-      </c>
-      <c r="L61" s="84"/>
-      <c r="M61" s="160">
-        <v>275000</v>
-      </c>
-      <c r="N61" s="161"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="162">
-        <v>0.904461818181818</v>
-      </c>
-      <c r="R61" s="84"/>
-      <c r="S61" s="162">
-        <v>0.081824651123521</v>
-      </c>
-    </row>
-    <row r="62" ht="13.5" customHeight="1">
-      <c r="A62" s="145"/>
-      <c r="B62" s="112">
-        <v>-3</v>
-      </c>
-      <c r="C62" t="s" s="163">
-        <v>142</v>
-      </c>
-      <c r="D62" s="40"/>
-      <c r="E62" t="s" s="159">
-        <v>209</v>
-      </c>
-      <c r="F62" t="s" s="159">
-        <v>213</v>
-      </c>
-      <c r="G62" s="39"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="40"/>
-      <c r="K62" s="160">
-        <v>281993</v>
-      </c>
-      <c r="L62" s="84"/>
-      <c r="M62" s="160">
-        <v>300000</v>
-      </c>
-      <c r="N62" s="161"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="162">
-        <v>0.939976666666667</v>
-      </c>
-      <c r="R62" s="84"/>
-      <c r="S62" s="162">
-        <v>-0.122570418414641</v>
-      </c>
-    </row>
-    <row r="63" ht="13.5" customHeight="1">
-      <c r="A63" s="145"/>
-      <c r="B63" s="112">
-        <v>-3</v>
-      </c>
-      <c r="C63" t="s" s="163">
-        <v>142</v>
-      </c>
-      <c r="D63" s="40"/>
-      <c r="E63" t="s" s="159">
-        <v>209</v>
-      </c>
-      <c r="F63" t="s" s="159">
-        <v>214</v>
-      </c>
-      <c r="G63" s="39"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="40"/>
-      <c r="K63" s="160">
-        <v>626706</v>
-      </c>
-      <c r="L63" s="84"/>
-      <c r="M63" s="160">
-        <v>730000</v>
-      </c>
-      <c r="N63" s="161"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="162">
-        <v>0.858501369863014</v>
-      </c>
-      <c r="R63" s="84"/>
-      <c r="S63" s="162">
-        <v>-0.0376556152326609</v>
-      </c>
-    </row>
-    <row r="64" ht="13.5" customHeight="1">
-      <c r="A64" s="145"/>
-      <c r="B64" s="112">
-        <v>-2</v>
-      </c>
-      <c r="C64" t="s" s="163">
-        <v>142</v>
-      </c>
-      <c r="D64" s="40"/>
-      <c r="E64" t="s" s="159">
-        <v>209</v>
-      </c>
-      <c r="F64" t="s" s="159">
-        <v>210</v>
-      </c>
-      <c r="G64" s="39"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="40"/>
-      <c r="K64" s="160">
-        <v>828886</v>
-      </c>
-      <c r="L64" s="84"/>
-      <c r="M64" s="160">
-        <v>860000</v>
-      </c>
-      <c r="N64" s="161"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="40"/>
-      <c r="Q64" s="162">
-        <v>0.963820930232558</v>
-      </c>
-      <c r="R64" s="84"/>
-      <c r="S64" s="162">
-        <v>0.0145048865715667</v>
-      </c>
-    </row>
-    <row r="65" ht="13.5" customHeight="1">
-      <c r="A65" s="145"/>
-      <c r="B65" s="112">
-        <v>-2</v>
-      </c>
-      <c r="C65" t="s" s="163">
-        <v>142</v>
-      </c>
-      <c r="D65" s="40"/>
-      <c r="E65" t="s" s="159">
-        <v>209</v>
-      </c>
-      <c r="F65" t="s" s="159">
-        <v>211</v>
-      </c>
-      <c r="G65" s="39"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="40"/>
-      <c r="K65" s="160">
-        <v>1144357</v>
-      </c>
-      <c r="L65" s="84"/>
-      <c r="M65" s="160">
-        <v>1250000</v>
-      </c>
-      <c r="N65" s="161"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="40"/>
-      <c r="Q65" s="162">
-        <v>0.9154856</v>
-      </c>
-      <c r="R65" s="84"/>
-      <c r="S65" s="162">
-        <v>-0.0576382426812698</v>
-      </c>
-    </row>
-    <row r="66" ht="13.5" customHeight="1">
-      <c r="A66" s="145"/>
-      <c r="B66" s="112">
-        <v>-2</v>
-      </c>
-      <c r="C66" t="s" s="163">
-        <v>142</v>
-      </c>
-      <c r="D66" s="40"/>
-      <c r="E66" t="s" s="159">
-        <v>209</v>
-      </c>
-      <c r="F66" t="s" s="159">
-        <v>212</v>
-      </c>
-      <c r="G66" s="39"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="40"/>
-      <c r="K66" s="160">
-        <v>269079</v>
-      </c>
-      <c r="L66" s="84"/>
-      <c r="M66" s="160">
-        <v>275000</v>
-      </c>
-      <c r="N66" s="161"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="162">
-        <v>0.978469090909091</v>
-      </c>
-      <c r="R66" s="84"/>
-      <c r="S66" s="162">
-        <v>0.081824651123521</v>
-      </c>
-    </row>
-    <row r="67" ht="13.5" customHeight="1">
-      <c r="A67" s="145"/>
-      <c r="B67" s="112">
-        <v>-2</v>
-      </c>
-      <c r="C67" t="s" s="163">
-        <v>142</v>
-      </c>
-      <c r="D67" s="40"/>
-      <c r="E67" t="s" s="159">
-        <v>209</v>
-      </c>
-      <c r="F67" t="s" s="159">
-        <v>213</v>
-      </c>
-      <c r="G67" s="39"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="40"/>
-      <c r="K67" s="160">
-        <v>247429</v>
-      </c>
-      <c r="L67" s="84"/>
-      <c r="M67" s="160">
-        <v>270000</v>
-      </c>
-      <c r="N67" s="161"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="162">
-        <v>0.9164037037037041</v>
-      </c>
-      <c r="R67" s="84"/>
-      <c r="S67" s="162">
-        <v>-0.122570418414641</v>
-      </c>
-    </row>
-    <row r="68" ht="13.5" customHeight="1">
-      <c r="A68" s="145"/>
-      <c r="B68" s="112">
-        <v>-2</v>
-      </c>
-      <c r="C68" t="s" s="163">
-        <v>142</v>
-      </c>
-      <c r="D68" s="40"/>
-      <c r="E68" t="s" s="159">
-        <v>209</v>
-      </c>
-      <c r="F68" t="s" s="159">
-        <v>214</v>
-      </c>
-      <c r="G68" s="39"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="40"/>
-      <c r="K68" s="160">
-        <v>603107</v>
-      </c>
-      <c r="L68" s="84"/>
-      <c r="M68" s="160">
-        <v>630000</v>
-      </c>
-      <c r="N68" s="161"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="40"/>
-      <c r="Q68" s="162">
-        <v>0.9573126984126979</v>
-      </c>
-      <c r="R68" s="84"/>
-      <c r="S68" s="162">
-        <v>-0.0376556152326609</v>
-      </c>
-    </row>
-    <row r="69" ht="13.5" customHeight="1">
-      <c r="A69" s="145"/>
-      <c r="B69" s="129">
-        <v>-1</v>
-      </c>
-      <c r="C69" t="s" s="163">
-        <v>142</v>
-      </c>
-      <c r="D69" s="40"/>
-      <c r="E69" t="s" s="159">
-        <v>209</v>
-      </c>
-      <c r="F69" t="s" s="159">
-        <v>210</v>
-      </c>
-      <c r="G69" s="39"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="40"/>
-      <c r="K69" s="160">
-        <v>871069</v>
-      </c>
-      <c r="L69" s="84"/>
-      <c r="M69" s="160">
-        <v>840000</v>
-      </c>
-      <c r="N69" s="161"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="40"/>
-      <c r="Q69" s="162">
-        <v>1.0369869047619</v>
-      </c>
-      <c r="R69" s="84"/>
-      <c r="S69" s="116">
-        <v>0.0508911961355361</v>
-      </c>
-    </row>
-    <row r="70" ht="13.5" customHeight="1">
-      <c r="A70" s="145"/>
-      <c r="B70" s="129">
-        <v>-1</v>
-      </c>
-      <c r="C70" t="s" s="163">
-        <v>142</v>
-      </c>
-      <c r="D70" s="40"/>
-      <c r="E70" t="s" s="159">
-        <v>209</v>
-      </c>
-      <c r="F70" t="s" s="159">
-        <v>211</v>
-      </c>
-      <c r="G70" s="39"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="40"/>
-      <c r="K70" s="160">
-        <v>1259704</v>
-      </c>
-      <c r="L70" s="84"/>
-      <c r="M70" s="160">
-        <v>1250000</v>
-      </c>
-      <c r="N70" s="161"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="40"/>
-      <c r="Q70" s="162">
-        <v>1.0077632</v>
-      </c>
-      <c r="R70" s="84"/>
-      <c r="S70" s="116">
-        <v>0.100796342400143</v>
-      </c>
-    </row>
-    <row r="71" ht="13.5" customHeight="1">
-      <c r="A71" s="145"/>
-      <c r="B71" s="129">
-        <v>-1</v>
-      </c>
-      <c r="C71" t="s" s="163">
-        <v>142</v>
-      </c>
-      <c r="D71" s="40"/>
-      <c r="E71" t="s" s="159">
-        <v>209</v>
-      </c>
-      <c r="F71" t="s" s="159">
-        <v>212</v>
-      </c>
-      <c r="G71" s="39"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="40"/>
-      <c r="K71" s="160">
-        <v>305298</v>
-      </c>
-      <c r="L71" s="84"/>
-      <c r="M71" s="160">
-        <v>275000</v>
-      </c>
-      <c r="N71" s="161"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="40"/>
-      <c r="Q71" s="162">
-        <v>1.11017454545455</v>
-      </c>
-      <c r="R71" s="84"/>
-      <c r="S71" s="116">
-        <v>0.134603592253576</v>
-      </c>
-    </row>
-    <row r="72" ht="13.5" customHeight="1">
-      <c r="A72" s="145"/>
-      <c r="B72" s="129">
-        <v>-1</v>
-      </c>
-      <c r="C72" t="s" s="163">
-        <v>142</v>
-      </c>
-      <c r="D72" s="40"/>
-      <c r="E72" t="s" s="159">
-        <v>209</v>
-      </c>
-      <c r="F72" t="s" s="159">
-        <v>213</v>
-      </c>
-      <c r="G72" s="39"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="40"/>
-      <c r="K72" s="160">
-        <v>310748</v>
-      </c>
-      <c r="L72" s="84"/>
-      <c r="M72" s="160">
-        <v>300000</v>
-      </c>
-      <c r="N72" s="161"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="40"/>
-      <c r="Q72" s="162">
-        <v>1.03582666666667</v>
-      </c>
-      <c r="R72" s="84"/>
-      <c r="S72" s="116">
-        <v>0.255907755356082</v>
-      </c>
-    </row>
-    <row r="73" ht="13.5" customHeight="1">
-      <c r="A73" s="145"/>
-      <c r="B73" s="129">
-        <v>-1</v>
-      </c>
-      <c r="C73" t="s" s="164">
-        <v>142</v>
-      </c>
-      <c r="D73" s="40"/>
-      <c r="E73" t="s" s="159">
-        <v>209</v>
-      </c>
-      <c r="F73" t="s" s="159">
-        <v>214</v>
-      </c>
-      <c r="G73" s="39"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="40"/>
-      <c r="K73" s="160">
-        <v>806400</v>
-      </c>
-      <c r="L73" s="84"/>
-      <c r="M73" s="160">
-        <v>685000</v>
-      </c>
-      <c r="N73" s="161"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="40"/>
-      <c r="Q73" s="162">
-        <v>1.17722627737226</v>
-      </c>
-      <c r="R73" s="84"/>
-      <c r="S73" s="116">
-        <v>0.337076173879594</v>
-      </c>
-    </row>
-    <row r="74" ht="13.5" customHeight="1">
-      <c r="A74" s="145"/>
-      <c r="B74" s="112">
-        <v>-4</v>
-      </c>
-      <c r="C74" t="s" s="165">
+      <c r="B73" t="s" s="154">
         <v>140</v>
       </c>
-      <c r="D74" s="84"/>
-      <c r="E74" t="s" s="166">
-        <v>215</v>
-      </c>
-      <c r="F74" s="167"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="40"/>
-      <c r="K74" s="168">
-        <v>4098598</v>
-      </c>
-      <c r="L74" s="84"/>
-      <c r="M74" s="168">
-        <v>3980000</v>
-      </c>
-      <c r="N74" s="169"/>
-      <c r="O74" s="11"/>
-      <c r="P74" s="40"/>
-      <c r="Q74" s="170">
-        <v>1.02979849246231</v>
-      </c>
-      <c r="R74" s="84"/>
-      <c r="S74" s="168">
-        <v>0.132072104234243</v>
-      </c>
-    </row>
-    <row r="75" ht="13.5" customHeight="1">
-      <c r="A75" s="145"/>
-      <c r="B75" s="112">
-        <v>-4</v>
-      </c>
-      <c r="C75" t="s" s="165">
-        <v>140</v>
-      </c>
-      <c r="D75" s="84"/>
-      <c r="E75" t="s" s="166">
-        <v>216</v>
-      </c>
-      <c r="F75" s="39"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="168">
-        <v>728487</v>
-      </c>
-      <c r="L75" s="84"/>
-      <c r="M75" s="168">
-        <v>655000</v>
-      </c>
-      <c r="N75" s="169"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="40"/>
-      <c r="Q75" s="170">
-        <v>1.11219389312977</v>
-      </c>
-      <c r="R75" s="84"/>
-      <c r="S75" s="168">
-        <v>0.277815753907202</v>
-      </c>
-    </row>
-    <row r="76" ht="13.5" customHeight="1">
-      <c r="A76" s="145"/>
-      <c r="B76" s="112">
-        <v>-4</v>
-      </c>
-      <c r="C76" t="s" s="165">
-        <v>140</v>
-      </c>
-      <c r="D76" s="84"/>
-      <c r="E76" t="s" s="166">
-        <v>217</v>
-      </c>
-      <c r="F76" s="39"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="168">
-        <v>2576862</v>
-      </c>
-      <c r="L76" s="84"/>
-      <c r="M76" s="168">
-        <v>2610000</v>
-      </c>
-      <c r="N76" s="169"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="170">
-        <v>0.987303448275862</v>
-      </c>
-      <c r="R76" s="84"/>
-      <c r="S76" s="168">
-        <v>0.09925064051998669</v>
-      </c>
-    </row>
-    <row r="77" ht="13.5" customHeight="1">
-      <c r="A77" s="145"/>
-      <c r="B77" s="112">
-        <v>-3</v>
-      </c>
-      <c r="C77" t="s" s="165">
-        <v>140</v>
-      </c>
-      <c r="D77" s="84"/>
-      <c r="E77" t="s" s="166">
-        <v>215</v>
-      </c>
-      <c r="F77" s="39"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="40"/>
-      <c r="K77" s="168">
-        <v>3188812</v>
-      </c>
-      <c r="L77" s="84"/>
-      <c r="M77" s="168">
-        <v>3565000</v>
-      </c>
-      <c r="N77" s="169"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="40"/>
-      <c r="Q77" s="170">
-        <v>0.894477419354839</v>
-      </c>
-      <c r="R77" s="84"/>
-      <c r="S77" s="168">
-        <v>-0.221974928987912</v>
-      </c>
-    </row>
-    <row r="78" ht="13.5" customHeight="1">
-      <c r="A78" s="145"/>
-      <c r="B78" s="112">
-        <v>-3</v>
-      </c>
-      <c r="C78" t="s" s="165">
-        <v>140</v>
-      </c>
-      <c r="D78" s="84"/>
-      <c r="E78" t="s" s="166">
-        <v>216</v>
-      </c>
-      <c r="F78" s="39"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="40"/>
-      <c r="K78" s="168">
-        <v>560064</v>
-      </c>
-      <c r="L78" s="84"/>
-      <c r="M78" s="168">
-        <v>615000</v>
-      </c>
-      <c r="N78" s="169"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="40"/>
-      <c r="Q78" s="170">
-        <v>0.9106731707317069</v>
-      </c>
-      <c r="R78" s="84"/>
-      <c r="S78" s="168">
-        <v>-0.23119561502127</v>
-      </c>
-    </row>
-    <row r="79" ht="13.5" customHeight="1">
-      <c r="A79" s="145"/>
-      <c r="B79" s="112">
-        <v>-3</v>
-      </c>
-      <c r="C79" t="s" s="165">
-        <v>140</v>
-      </c>
-      <c r="D79" s="84"/>
-      <c r="E79" t="s" s="166">
-        <v>217</v>
-      </c>
-      <c r="F79" s="39"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="40"/>
-      <c r="K79" s="168">
-        <v>2293022</v>
-      </c>
-      <c r="L79" s="84"/>
-      <c r="M79" s="168">
-        <v>2365000</v>
-      </c>
-      <c r="N79" s="169"/>
-      <c r="O79" s="11"/>
-      <c r="P79" s="40"/>
-      <c r="Q79" s="170">
-        <v>0.96956532769556</v>
-      </c>
-      <c r="R79" s="84"/>
-      <c r="S79" s="168">
-        <v>-0.110149476378634</v>
-      </c>
-    </row>
-    <row r="80" ht="13.5" customHeight="1">
-      <c r="A80" s="145"/>
-      <c r="B80" s="112">
-        <v>-2</v>
-      </c>
-      <c r="C80" t="s" s="165">
-        <v>140</v>
-      </c>
-      <c r="D80" s="84"/>
-      <c r="E80" t="s" s="166">
-        <v>215</v>
-      </c>
-      <c r="F80" s="39"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="40"/>
-      <c r="K80" s="168">
-        <v>3092857</v>
-      </c>
-      <c r="L80" s="84"/>
-      <c r="M80" s="168">
-        <v>3285000</v>
-      </c>
-      <c r="N80" s="169"/>
-      <c r="O80" s="11"/>
-      <c r="P80" s="40"/>
-      <c r="Q80" s="170">
-        <v>0.94150898021309</v>
-      </c>
-      <c r="R80" s="84"/>
-      <c r="S80" s="168">
-        <v>-0.0300911436610248</v>
-      </c>
-    </row>
-    <row r="81" ht="13.5" customHeight="1">
-      <c r="A81" s="145"/>
-      <c r="B81" s="112">
-        <v>-2</v>
-      </c>
-      <c r="C81" t="s" s="165">
-        <v>140</v>
-      </c>
-      <c r="D81" s="84"/>
-      <c r="E81" t="s" s="166">
-        <v>216</v>
-      </c>
-      <c r="F81" s="39"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="40"/>
-      <c r="K81" s="168">
-        <v>792494</v>
-      </c>
-      <c r="L81" s="84"/>
-      <c r="M81" s="168">
-        <v>615000</v>
-      </c>
-      <c r="N81" s="169"/>
-      <c r="O81" s="11"/>
-      <c r="P81" s="40"/>
-      <c r="Q81" s="170">
-        <v>1.2886081300813</v>
-      </c>
-      <c r="R81" s="84"/>
-      <c r="S81" s="168">
-        <v>0.415006142155182</v>
-      </c>
-    </row>
-    <row r="82" ht="13.5" customHeight="1">
-      <c r="A82" s="145"/>
-      <c r="B82" s="112">
-        <v>-2</v>
-      </c>
-      <c r="C82" t="s" s="165">
-        <v>140</v>
-      </c>
-      <c r="D82" s="84"/>
-      <c r="E82" t="s" s="166">
-        <v>217</v>
-      </c>
-      <c r="F82" s="39"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="40"/>
-      <c r="K82" s="168">
-        <v>2263056</v>
-      </c>
-      <c r="L82" s="84"/>
-      <c r="M82" s="168">
-        <v>2345000</v>
-      </c>
-      <c r="N82" s="169"/>
-      <c r="O82" s="11"/>
-      <c r="P82" s="40"/>
-      <c r="Q82" s="170">
-        <v>0.9650558635394459</v>
-      </c>
-      <c r="R82" s="84"/>
-      <c r="S82" s="168">
-        <v>-0.0130683438711011</v>
-      </c>
-    </row>
-    <row r="83" ht="13.5" customHeight="1">
-      <c r="A83" s="145"/>
-      <c r="B83" s="129">
-        <v>-1</v>
-      </c>
-      <c r="C83" t="s" s="165">
-        <v>140</v>
-      </c>
-      <c r="D83" s="84"/>
-      <c r="E83" t="s" s="166">
-        <v>215</v>
-      </c>
-      <c r="F83" s="39"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="40"/>
-      <c r="K83" s="168">
-        <v>3553219</v>
-      </c>
-      <c r="L83" s="84"/>
-      <c r="M83" s="168">
-        <v>3350000</v>
-      </c>
-      <c r="N83" s="169"/>
-      <c r="O83" s="11"/>
-      <c r="P83" s="40"/>
-      <c r="Q83" s="170">
-        <v>1.0606623880597</v>
-      </c>
-      <c r="R83" s="84"/>
-      <c r="S83" s="168">
-        <v>0.148846842902856</v>
-      </c>
-    </row>
-    <row r="84" ht="13.5" customHeight="1">
-      <c r="A84" s="145"/>
-      <c r="B84" s="129">
-        <v>-1</v>
-      </c>
-      <c r="C84" t="s" s="165">
-        <v>140</v>
-      </c>
-      <c r="D84" s="84"/>
-      <c r="E84" t="s" s="166">
-        <v>216</v>
-      </c>
-      <c r="F84" s="39"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="40"/>
-      <c r="K84" s="168">
-        <v>2475498</v>
-      </c>
-      <c r="L84" s="84"/>
-      <c r="M84" s="168">
-        <v>2035000</v>
-      </c>
-      <c r="N84" s="169"/>
-      <c r="O84" s="11"/>
-      <c r="P84" s="40"/>
-      <c r="Q84" s="170">
-        <v>1.21646093366093</v>
-      </c>
-      <c r="R84" s="84"/>
-      <c r="S84" s="168">
-        <v>2.12368043164996</v>
-      </c>
-    </row>
-    <row r="85" ht="13.5" customHeight="1">
-      <c r="A85" s="171"/>
-      <c r="B85" s="129">
-        <v>-1</v>
-      </c>
-      <c r="C85" t="s" s="165">
-        <v>140</v>
-      </c>
-      <c r="D85" s="172"/>
-      <c r="E85" t="s" s="166">
-        <v>217</v>
-      </c>
-      <c r="F85" s="173"/>
-      <c r="G85" s="70"/>
-      <c r="H85" s="70"/>
-      <c r="I85" s="70"/>
-      <c r="J85" s="174"/>
-      <c r="K85" s="168">
+      <c r="C73" s="161"/>
+      <c r="D73" t="s" s="156">
+        <v>196</v>
+      </c>
+      <c r="E73" s="162"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="70"/>
+      <c r="H73" s="70"/>
+      <c r="I73" s="163"/>
+      <c r="J73" s="158">
         <v>860533</v>
       </c>
-      <c r="L85" s="172"/>
-      <c r="M85" s="168">
+      <c r="K73" s="161"/>
+      <c r="L73" s="158">
         <v>1135000</v>
       </c>
-      <c r="N85" s="175"/>
-      <c r="O85" s="70"/>
-      <c r="P85" s="174"/>
-      <c r="Q85" s="170">
+      <c r="M73" s="164"/>
+      <c r="N73" s="70"/>
+      <c r="O73" s="163"/>
+      <c r="P73" s="160">
         <v>0.758178854625551</v>
       </c>
-      <c r="R85" s="172"/>
-      <c r="S85" s="168">
+      <c r="Q73" s="161"/>
+      <c r="R73" s="158">
         <v>-0.619747368160576</v>
       </c>
+      <c r="S73" t="s" s="156">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:S1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
@@ -10612,8 +10161,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="176" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="176" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="165" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="165" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -10624,83 +10173,83 @@
         <v>23</v>
       </c>
       <c r="C1" t="s" s="27">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="D1" t="s" s="27">
-        <v>219</v>
-      </c>
-      <c r="E1" s="177"/>
+        <v>198</v>
+      </c>
+      <c r="E1" s="166"/>
     </row>
     <row r="2" ht="36" customHeight="1">
-      <c r="A2" t="s" s="178">
-        <v>220</v>
-      </c>
-      <c r="B2" t="s" s="179">
-        <v>221</v>
+      <c r="A2" t="s" s="167">
+        <v>199</v>
+      </c>
+      <c r="B2" t="s" s="168">
+        <v>200</v>
       </c>
       <c r="C2" s="102">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="179">
-        <v>222</v>
-      </c>
-      <c r="E2" s="180"/>
+      <c r="D2" t="s" s="168">
+        <v>201</v>
+      </c>
+      <c r="E2" s="169"/>
     </row>
     <row r="3" ht="20.1" customHeight="1">
       <c r="A3" s="107"/>
       <c r="B3" s="98"/>
       <c r="C3" s="98"/>
       <c r="D3" s="98"/>
-      <c r="E3" s="180"/>
+      <c r="E3" s="169"/>
     </row>
     <row r="4" ht="20.1" customHeight="1">
       <c r="A4" s="107"/>
       <c r="B4" s="98"/>
       <c r="C4" s="98"/>
       <c r="D4" s="98"/>
-      <c r="E4" s="180"/>
+      <c r="E4" s="169"/>
     </row>
     <row r="5" ht="20.1" customHeight="1">
       <c r="A5" s="107"/>
       <c r="B5" s="98"/>
       <c r="C5" s="98"/>
       <c r="D5" s="98"/>
-      <c r="E5" s="180"/>
+      <c r="E5" s="169"/>
     </row>
     <row r="6" ht="20.1" customHeight="1">
       <c r="A6" s="107"/>
       <c r="B6" s="98"/>
       <c r="C6" s="98"/>
       <c r="D6" s="98"/>
-      <c r="E6" s="180"/>
+      <c r="E6" s="169"/>
     </row>
     <row r="7" ht="20.1" customHeight="1">
       <c r="A7" s="107"/>
       <c r="B7" s="98"/>
       <c r="C7" s="98"/>
       <c r="D7" s="98"/>
-      <c r="E7" s="180"/>
+      <c r="E7" s="169"/>
     </row>
     <row r="8" ht="20.1" customHeight="1">
       <c r="A8" s="107"/>
       <c r="B8" s="98"/>
       <c r="C8" s="98"/>
       <c r="D8" s="98"/>
-      <c r="E8" s="180"/>
+      <c r="E8" s="169"/>
     </row>
     <row r="9" ht="20.1" customHeight="1">
       <c r="A9" s="107"/>
       <c r="B9" s="98"/>
       <c r="C9" s="98"/>
       <c r="D9" s="98"/>
-      <c r="E9" s="180"/>
+      <c r="E9" s="169"/>
     </row>
     <row r="10" ht="20.1" customHeight="1">
       <c r="A10" s="107"/>
       <c r="B10" s="98"/>
       <c r="C10" s="98"/>
       <c r="D10" s="98"/>
-      <c r="E10" s="181"/>
+      <c r="E10" s="170"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -10719,11 +10268,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13" style="182" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="182" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="182" customWidth="1"/>
-    <col min="4" max="6" width="8.85156" style="182" customWidth="1"/>
-    <col min="7" max="256" width="8.85156" style="182" customWidth="1"/>
+    <col min="1" max="1" width="13" style="171" customWidth="1"/>
+    <col min="2" max="2" width="8.85156" style="171" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="171" customWidth="1"/>
+    <col min="4" max="6" width="8.85156" style="171" customWidth="1"/>
+    <col min="7" max="256" width="8.85156" style="171" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1">
@@ -10734,322 +10283,322 @@
         <v>29</v>
       </c>
       <c r="C1" t="s" s="27">
+        <v>202</v>
+      </c>
+      <c r="D1" t="s" s="27">
+        <v>203</v>
+      </c>
+      <c r="E1" t="s" s="27">
+        <v>204</v>
+      </c>
+      <c r="F1" t="s" s="27">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" ht="14.65" customHeight="1">
+      <c r="A2" t="s" s="172">
+        <v>206</v>
+      </c>
+      <c r="B2" t="s" s="173">
+        <v>207</v>
+      </c>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+    </row>
+    <row r="3" ht="14.65" customHeight="1">
+      <c r="A3" t="s" s="172">
+        <v>206</v>
+      </c>
+      <c r="B3" t="s" s="175">
+        <v>208</v>
+      </c>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+    </row>
+    <row r="4" ht="14.65" customHeight="1">
+      <c r="A4" t="s" s="173">
+        <v>206</v>
+      </c>
+      <c r="B4" t="s" s="175">
+        <v>209</v>
+      </c>
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+    </row>
+    <row r="5" ht="50.65" customHeight="1">
+      <c r="A5" t="s" s="175">
+        <v>210</v>
+      </c>
+      <c r="B5" t="s" s="175">
+        <v>211</v>
+      </c>
+      <c r="C5" t="s" s="178">
+        <v>212</v>
+      </c>
+      <c r="D5" s="179"/>
+      <c r="E5" t="s" s="180">
+        <v>213</v>
+      </c>
+      <c r="F5" t="s" s="181">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" ht="50.65" customHeight="1">
+      <c r="A6" t="s" s="175">
+        <v>210</v>
+      </c>
+      <c r="B6" t="s" s="175">
+        <v>215</v>
+      </c>
+      <c r="C6" t="s" s="178">
+        <v>212</v>
+      </c>
+      <c r="D6" s="179"/>
+      <c r="E6" t="s" s="180">
+        <v>216</v>
+      </c>
+      <c r="F6" t="s" s="181">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" ht="50.65" customHeight="1">
+      <c r="A7" t="s" s="175">
+        <v>210</v>
+      </c>
+      <c r="B7" t="s" s="175">
+        <v>218</v>
+      </c>
+      <c r="C7" t="s" s="178">
+        <v>212</v>
+      </c>
+      <c r="D7" s="179"/>
+      <c r="E7" t="s" s="180">
+        <v>219</v>
+      </c>
+      <c r="F7" t="s" s="181">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" ht="50.65" customHeight="1">
+      <c r="A8" t="s" s="175">
+        <v>221</v>
+      </c>
+      <c r="B8" t="s" s="175">
+        <v>211</v>
+      </c>
+      <c r="C8" t="s" s="178">
+        <v>222</v>
+      </c>
+      <c r="D8" s="179"/>
+      <c r="E8" t="s" s="180">
         <v>223</v>
       </c>
-      <c r="D1" t="s" s="27">
+      <c r="F8" t="s" s="182">
         <v>224</v>
       </c>
-      <c r="E1" t="s" s="27">
+    </row>
+    <row r="9" ht="50.65" customHeight="1">
+      <c r="A9" t="s" s="175">
+        <v>221</v>
+      </c>
+      <c r="B9" t="s" s="175">
+        <v>215</v>
+      </c>
+      <c r="C9" t="s" s="178">
+        <v>222</v>
+      </c>
+      <c r="D9" s="179"/>
+      <c r="E9" t="s" s="180">
         <v>225</v>
       </c>
-      <c r="F1" t="s" s="27">
+      <c r="F9" t="s" s="183">
         <v>226</v>
       </c>
     </row>
-    <row r="2" ht="14.65" customHeight="1">
-      <c r="A2" t="s" s="183">
+    <row r="10" ht="50.65" customHeight="1">
+      <c r="A10" t="s" s="175">
+        <v>221</v>
+      </c>
+      <c r="B10" t="s" s="175">
+        <v>218</v>
+      </c>
+      <c r="C10" t="s" s="178">
+        <v>222</v>
+      </c>
+      <c r="D10" s="179"/>
+      <c r="E10" t="s" s="180">
         <v>227</v>
       </c>
-      <c r="B2" t="s" s="184">
+      <c r="F10" t="s" s="183">
         <v>228</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-    </row>
-    <row r="3" ht="14.65" customHeight="1">
-      <c r="A3" t="s" s="183">
-        <v>227</v>
-      </c>
-      <c r="B3" t="s" s="186">
+    </row>
+    <row r="11" ht="38.65" customHeight="1">
+      <c r="A11" t="s" s="175">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s" s="175">
+        <v>211</v>
+      </c>
+      <c r="C11" t="s" s="178">
         <v>229</v>
       </c>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-    </row>
-    <row r="4" ht="14.65" customHeight="1">
-      <c r="A4" t="s" s="184">
-        <v>227</v>
-      </c>
-      <c r="B4" t="s" s="186">
+      <c r="D11" s="179"/>
+      <c r="E11" t="s" s="180">
         <v>230</v>
       </c>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-    </row>
-    <row r="5" ht="50.65" customHeight="1">
-      <c r="A5" t="s" s="186">
+      <c r="F11" t="s" s="183">
         <v>231</v>
       </c>
-      <c r="B5" t="s" s="186">
+    </row>
+    <row r="12" ht="38.65" customHeight="1">
+      <c r="A12" t="s" s="175">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s" s="175">
+        <v>215</v>
+      </c>
+      <c r="C12" t="s" s="178">
+        <v>229</v>
+      </c>
+      <c r="D12" s="179"/>
+      <c r="E12" t="s" s="180">
         <v>232</v>
       </c>
-      <c r="C5" t="s" s="189">
+      <c r="F12" t="s" s="183">
         <v>233</v>
       </c>
-      <c r="D5" s="190"/>
-      <c r="E5" t="s" s="191">
+    </row>
+    <row r="13" ht="38.65" customHeight="1">
+      <c r="A13" t="s" s="175">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s" s="175">
+        <v>218</v>
+      </c>
+      <c r="C13" t="s" s="178">
+        <v>229</v>
+      </c>
+      <c r="D13" s="179"/>
+      <c r="E13" t="s" s="180">
         <v>234</v>
       </c>
-      <c r="F5" t="s" s="192">
+      <c r="F13" t="s" s="183">
         <v>235</v>
       </c>
     </row>
-    <row r="6" ht="50.65" customHeight="1">
-      <c r="A6" t="s" s="186">
-        <v>231</v>
-      </c>
-      <c r="B6" t="s" s="186">
+    <row r="14" ht="38.65" customHeight="1">
+      <c r="A14" t="s" s="175">
         <v>236</v>
       </c>
-      <c r="C6" t="s" s="189">
-        <v>233</v>
-      </c>
-      <c r="D6" s="190"/>
-      <c r="E6" t="s" s="191">
+      <c r="B14" t="s" s="175">
+        <v>211</v>
+      </c>
+      <c r="C14" t="s" s="178">
         <v>237</v>
       </c>
-      <c r="F6" t="s" s="192">
+      <c r="D14" s="179"/>
+      <c r="E14" t="s" s="180">
         <v>238</v>
       </c>
-    </row>
-    <row r="7" ht="50.65" customHeight="1">
-      <c r="A7" t="s" s="186">
-        <v>231</v>
-      </c>
-      <c r="B7" t="s" s="186">
+      <c r="F14" t="s" s="183">
         <v>239</v>
       </c>
-      <c r="C7" t="s" s="189">
-        <v>233</v>
-      </c>
-      <c r="D7" s="190"/>
-      <c r="E7" t="s" s="191">
+    </row>
+    <row r="15" ht="38.65" customHeight="1">
+      <c r="A15" t="s" s="175">
+        <v>236</v>
+      </c>
+      <c r="B15" t="s" s="175">
+        <v>215</v>
+      </c>
+      <c r="C15" t="s" s="178">
+        <v>237</v>
+      </c>
+      <c r="D15" s="179"/>
+      <c r="E15" t="s" s="180">
         <v>240</v>
       </c>
-      <c r="F7" t="s" s="192">
+      <c r="F15" t="s" s="183">
         <v>241</v>
       </c>
     </row>
-    <row r="8" ht="50.65" customHeight="1">
-      <c r="A8" t="s" s="186">
+    <row r="16" ht="38.65" customHeight="1">
+      <c r="A16" t="s" s="175">
+        <v>236</v>
+      </c>
+      <c r="B16" t="s" s="175">
+        <v>218</v>
+      </c>
+      <c r="C16" t="s" s="178">
+        <v>237</v>
+      </c>
+      <c r="D16" s="179"/>
+      <c r="E16" t="s" s="180">
         <v>242</v>
       </c>
-      <c r="B8" t="s" s="186">
-        <v>232</v>
-      </c>
-      <c r="C8" t="s" s="189">
+      <c r="F16" t="s" s="183">
         <v>243</v>
       </c>
-      <c r="D8" s="190"/>
-      <c r="E8" t="s" s="191">
+    </row>
+    <row r="17" ht="50.65" customHeight="1">
+      <c r="A17" t="s" s="175">
         <v>244</v>
       </c>
-      <c r="F8" t="s" s="193">
+      <c r="B17" t="s" s="175">
+        <v>211</v>
+      </c>
+      <c r="C17" t="s" s="178">
         <v>245</v>
       </c>
-    </row>
-    <row r="9" ht="50.65" customHeight="1">
-      <c r="A9" t="s" s="186">
-        <v>242</v>
-      </c>
-      <c r="B9" t="s" s="186">
-        <v>236</v>
-      </c>
-      <c r="C9" t="s" s="189">
-        <v>243</v>
-      </c>
-      <c r="D9" s="190"/>
-      <c r="E9" t="s" s="191">
+      <c r="D17" s="179"/>
+      <c r="E17" t="s" s="180">
         <v>246</v>
       </c>
-      <c r="F9" t="s" s="194">
+      <c r="F17" t="s" s="183">
         <v>247</v>
       </c>
     </row>
-    <row r="10" ht="50.65" customHeight="1">
-      <c r="A10" t="s" s="186">
-        <v>242</v>
-      </c>
-      <c r="B10" t="s" s="186">
-        <v>239</v>
-      </c>
-      <c r="C10" t="s" s="189">
-        <v>243</v>
-      </c>
-      <c r="D10" s="190"/>
-      <c r="E10" t="s" s="191">
+    <row r="18" ht="50.65" customHeight="1">
+      <c r="A18" t="s" s="175">
+        <v>244</v>
+      </c>
+      <c r="B18" t="s" s="175">
+        <v>215</v>
+      </c>
+      <c r="C18" t="s" s="178">
+        <v>245</v>
+      </c>
+      <c r="D18" s="179"/>
+      <c r="E18" t="s" s="180">
         <v>248</v>
       </c>
-      <c r="F10" t="s" s="194">
+      <c r="F18" t="s" s="183">
         <v>249</v>
       </c>
     </row>
-    <row r="11" ht="38.65" customHeight="1">
-      <c r="A11" t="s" s="186">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s" s="186">
-        <v>232</v>
-      </c>
-      <c r="C11" t="s" s="189">
+    <row r="19" ht="50.65" customHeight="1">
+      <c r="A19" t="s" s="175">
+        <v>244</v>
+      </c>
+      <c r="B19" t="s" s="175">
+        <v>218</v>
+      </c>
+      <c r="C19" t="s" s="178">
+        <v>245</v>
+      </c>
+      <c r="D19" s="179"/>
+      <c r="E19" t="s" s="180">
         <v>250</v>
       </c>
-      <c r="D11" s="190"/>
-      <c r="E11" t="s" s="191">
+      <c r="F19" t="s" s="183">
         <v>251</v>
-      </c>
-      <c r="F11" t="s" s="194">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="12" ht="38.65" customHeight="1">
-      <c r="A12" t="s" s="186">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s" s="186">
-        <v>236</v>
-      </c>
-      <c r="C12" t="s" s="189">
-        <v>250</v>
-      </c>
-      <c r="D12" s="190"/>
-      <c r="E12" t="s" s="191">
-        <v>253</v>
-      </c>
-      <c r="F12" t="s" s="194">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13" ht="38.65" customHeight="1">
-      <c r="A13" t="s" s="186">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s" s="186">
-        <v>239</v>
-      </c>
-      <c r="C13" t="s" s="189">
-        <v>250</v>
-      </c>
-      <c r="D13" s="190"/>
-      <c r="E13" t="s" s="191">
-        <v>255</v>
-      </c>
-      <c r="F13" t="s" s="194">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="14" ht="38.65" customHeight="1">
-      <c r="A14" t="s" s="186">
-        <v>257</v>
-      </c>
-      <c r="B14" t="s" s="186">
-        <v>232</v>
-      </c>
-      <c r="C14" t="s" s="189">
-        <v>258</v>
-      </c>
-      <c r="D14" s="190"/>
-      <c r="E14" t="s" s="191">
-        <v>259</v>
-      </c>
-      <c r="F14" t="s" s="194">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15" ht="38.65" customHeight="1">
-      <c r="A15" t="s" s="186">
-        <v>257</v>
-      </c>
-      <c r="B15" t="s" s="186">
-        <v>236</v>
-      </c>
-      <c r="C15" t="s" s="189">
-        <v>258</v>
-      </c>
-      <c r="D15" s="190"/>
-      <c r="E15" t="s" s="191">
-        <v>261</v>
-      </c>
-      <c r="F15" t="s" s="194">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="16" ht="38.65" customHeight="1">
-      <c r="A16" t="s" s="186">
-        <v>257</v>
-      </c>
-      <c r="B16" t="s" s="186">
-        <v>239</v>
-      </c>
-      <c r="C16" t="s" s="189">
-        <v>258</v>
-      </c>
-      <c r="D16" s="190"/>
-      <c r="E16" t="s" s="191">
-        <v>263</v>
-      </c>
-      <c r="F16" t="s" s="194">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="17" ht="50.65" customHeight="1">
-      <c r="A17" t="s" s="186">
-        <v>265</v>
-      </c>
-      <c r="B17" t="s" s="186">
-        <v>232</v>
-      </c>
-      <c r="C17" t="s" s="189">
-        <v>266</v>
-      </c>
-      <c r="D17" s="190"/>
-      <c r="E17" t="s" s="191">
-        <v>267</v>
-      </c>
-      <c r="F17" t="s" s="194">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="18" ht="50.65" customHeight="1">
-      <c r="A18" t="s" s="186">
-        <v>265</v>
-      </c>
-      <c r="B18" t="s" s="186">
-        <v>236</v>
-      </c>
-      <c r="C18" t="s" s="189">
-        <v>266</v>
-      </c>
-      <c r="D18" s="190"/>
-      <c r="E18" t="s" s="191">
-        <v>269</v>
-      </c>
-      <c r="F18" t="s" s="194">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" ht="50.65" customHeight="1">
-      <c r="A19" t="s" s="186">
-        <v>265</v>
-      </c>
-      <c r="B19" t="s" s="186">
-        <v>239</v>
-      </c>
-      <c r="C19" t="s" s="189">
-        <v>266</v>
-      </c>
-      <c r="D19" s="190"/>
-      <c r="E19" t="s" s="191">
-        <v>271</v>
-      </c>
-      <c r="F19" t="s" s="194">
-        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/tm.xlsx
+++ b/test/data/tm.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Resource" sheetId="4" r:id="rId7"/>
     <sheet name="Requirement" sheetId="5" r:id="rId8"/>
     <sheet name="Preset" sheetId="6" r:id="rId9"/>
-    <sheet name="Report " sheetId="7" r:id="rId10"/>
+    <sheet name="Report" sheetId="7" r:id="rId10"/>
     <sheet name="Proposal" sheetId="8" r:id="rId11"/>
     <sheet name="Evaluation" sheetId="9" r:id="rId12"/>
   </sheets>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="253">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -771,6 +771,9 @@
   </si>
   <si>
     <t>大学医院</t>
+  </si>
+  <si>
+    <t>Report</t>
   </si>
   <si>
     <t>region</t>
@@ -1359,7 +1362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="83">
+  <borders count="78">
     <border>
       <left/>
       <right/>
@@ -2075,21 +2078,6 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="18"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
         <color indexed="17"/>
       </right>
       <top/>
@@ -2158,67 +2146,11 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin">
-        <color indexed="18"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="18"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="18"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="18"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="18"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="18"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2415,7 +2347,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2785,18 +2717,12 @@
     <xf numFmtId="49" fontId="11" fillId="8" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="8" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="8" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -2809,163 +2735,139 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="59" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="58" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="60" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="61" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="62" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="9" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="63" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="9" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="65" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="66" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="66" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="68" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="69" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="70" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="71" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="72" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="71" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="73" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="73" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="74" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="73" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="75" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="76" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="77" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="78" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="79" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="80" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4269,7 +4171,7 @@
     <row r="21" ht="13" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" t="s" s="3">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -4282,7 +4184,7 @@
         <v>5</v>
       </c>
       <c r="D22" t="s" s="5">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="E22" s="12"/>
     </row>
@@ -4339,7 +4241,7 @@
     <hyperlink ref="D16" location="'Resource'!R1C1" tooltip="" display="Resource"/>
     <hyperlink ref="D18" location="'Requirement'!R1C1" tooltip="" display="Requirement"/>
     <hyperlink ref="D20" location="'Preset'!R1C1" tooltip="" display="Preset"/>
-    <hyperlink ref="D22" location="'Report '!R1C1" tooltip="" display="Report "/>
+    <hyperlink ref="D22" location="'Report'!R1C1" tooltip="" display="Report "/>
     <hyperlink ref="D24" location="'Proposal'!R1C1" tooltip="" display="Proposal"/>
     <hyperlink ref="D26" location="'Evaluation'!R1C1" tooltip="" display="Evaluation"/>
     <hyperlink ref="D12" location="'Hospital'!R1C1" tooltip="" display="Hospital"/>
@@ -4347,7 +4249,7 @@
     <hyperlink ref="D16" location="'Resource'!R1C1" tooltip="" display="Resource"/>
     <hyperlink ref="D18" location="'Requirement'!R1C1" tooltip="" display="Requirement"/>
     <hyperlink ref="D20" location="'Preset'!R1C1" tooltip="" display="Preset"/>
-    <hyperlink ref="D22" location="'Report '!R1C1" tooltip="" display="Report "/>
+    <hyperlink ref="D22" location="'Report'!R1C1" tooltip="" display="Report"/>
     <hyperlink ref="D24" location="'Proposal'!R1C1" tooltip="" display="Proposal"/>
     <hyperlink ref="D26" location="'Evaluation'!R1C1" tooltip="" display="Evaluation"/>
   </hyperlinks>
@@ -7199,81 +7101,78 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S73"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.17188" style="121" customWidth="1"/>
-    <col min="2" max="6" width="13.5" style="121" customWidth="1"/>
-    <col min="7" max="7" width="13.6719" style="121" customWidth="1"/>
-    <col min="8" max="9" width="17.5" style="121" customWidth="1"/>
-    <col min="10" max="11" width="20.5" style="121" customWidth="1"/>
-    <col min="12" max="14" width="17.8516" style="121" customWidth="1"/>
-    <col min="15" max="15" width="19.1719" style="121" customWidth="1"/>
-    <col min="16" max="16" width="14.5" style="121" customWidth="1"/>
-    <col min="17" max="17" width="20.1719" style="121" customWidth="1"/>
-    <col min="18" max="19" width="17.6719" style="121" customWidth="1"/>
-    <col min="20" max="256" width="8.85156" style="121" customWidth="1"/>
+    <col min="2" max="5" width="13.5" style="121" customWidth="1"/>
+    <col min="6" max="6" width="13.6719" style="121" customWidth="1"/>
+    <col min="7" max="8" width="17.5" style="121" customWidth="1"/>
+    <col min="9" max="10" width="20.5" style="121" customWidth="1"/>
+    <col min="11" max="13" width="17.8516" style="121" customWidth="1"/>
+    <col min="14" max="14" width="19.1719" style="121" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="121" customWidth="1"/>
+    <col min="16" max="16" width="20.1719" style="121" customWidth="1"/>
+    <col min="17" max="18" width="17.6719" style="121" customWidth="1"/>
+    <col min="19" max="256" width="8.85156" style="121" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="34.5" customHeight="1">
       <c r="A1" t="s" s="122">
         <v>139</v>
       </c>
-      <c r="B1" t="s" s="123">
-        <v>28</v>
+      <c r="B1" t="s" s="122">
+        <v>141</v>
       </c>
       <c r="C1" t="s" s="122">
-        <v>141</v>
-      </c>
-      <c r="D1" t="s" s="122">
         <v>140</v>
       </c>
-      <c r="E1" t="s" s="124">
+      <c r="D1" t="s" s="123">
         <v>142</v>
       </c>
-      <c r="F1" t="s" s="124">
-        <v>168</v>
-      </c>
-      <c r="G1" t="s" s="122">
+      <c r="E1" t="s" s="123">
+        <v>169</v>
+      </c>
+      <c r="F1" t="s" s="122">
         <v>146</v>
       </c>
-      <c r="H1" t="s" s="124">
+      <c r="G1" t="s" s="123">
         <v>36</v>
       </c>
-      <c r="I1" t="s" s="124">
-        <v>169</v>
-      </c>
-      <c r="J1" t="s" s="122">
+      <c r="H1" t="s" s="123">
+        <v>170</v>
+      </c>
+      <c r="I1" t="s" s="122">
         <v>144</v>
       </c>
-      <c r="K1" t="s" s="124">
-        <v>170</v>
-      </c>
-      <c r="L1" t="s" s="122">
+      <c r="J1" t="s" s="123">
         <v>171</v>
       </c>
-      <c r="M1" t="s" s="125">
+      <c r="K1" t="s" s="122">
         <v>172</v>
       </c>
-      <c r="N1" t="s" s="124">
+      <c r="L1" t="s" s="124">
         <v>173</v>
       </c>
-      <c r="O1" t="s" s="124">
+      <c r="M1" t="s" s="123">
+        <v>174</v>
+      </c>
+      <c r="N1" t="s" s="123">
         <v>147</v>
       </c>
-      <c r="P1" t="s" s="122">
-        <v>174</v>
-      </c>
-      <c r="Q1" t="s" s="124">
+      <c r="O1" t="s" s="122">
         <v>175</v>
       </c>
+      <c r="P1" t="s" s="123">
+        <v>176</v>
+      </c>
+      <c r="Q1" t="s" s="122">
+        <v>177</v>
+      </c>
       <c r="R1" t="s" s="122">
-        <v>176</v>
-      </c>
-      <c r="S1" t="s" s="122">
         <v>28</v>
       </c>
     </row>
@@ -7281,40 +7180,37 @@
       <c r="A2" s="112">
         <v>-4</v>
       </c>
-      <c r="B2" t="s" s="126">
-        <v>141</v>
-      </c>
-      <c r="C2" t="s" s="127">
-        <v>177</v>
-      </c>
-      <c r="D2" t="s" s="127">
+      <c r="B2" t="s" s="125">
         <v>178</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="128">
+      <c r="C2" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="126">
         <v>10560000</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="129">
+      <c r="G2" s="61"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="127">
         <v>737747.64</v>
       </c>
-      <c r="K2" s="59"/>
-      <c r="L2" s="130">
+      <c r="J2" s="59"/>
+      <c r="K2" s="128">
         <v>700000</v>
       </c>
-      <c r="M2" s="131"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="116">
+      <c r="L2" s="129"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="116">
         <v>1.0539252</v>
       </c>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="133">
+      <c r="P2" s="130"/>
+      <c r="Q2" s="131">
         <v>0.15</v>
       </c>
-      <c r="S2" t="s" s="127">
+      <c r="R2" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -7322,40 +7218,37 @@
       <c r="A3" s="112">
         <v>-4</v>
       </c>
-      <c r="B3" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C3" t="s" s="127">
+      <c r="B3" t="s" s="125">
+        <v>180</v>
+      </c>
+      <c r="C3" t="s" s="125">
         <v>179</v>
       </c>
-      <c r="D3" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E3" s="135"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="128">
+      <c r="D3" s="132"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="126">
         <v>3700000</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="129">
+      <c r="G3" s="98"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="127">
         <v>245915.88</v>
       </c>
-      <c r="K3" s="105"/>
-      <c r="L3" s="130">
+      <c r="J3" s="105"/>
+      <c r="K3" s="128">
         <v>250000</v>
       </c>
-      <c r="M3" s="131"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="116">
+      <c r="L3" s="129"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="116">
         <v>0.98366352</v>
       </c>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="133">
+      <c r="P3" s="133"/>
+      <c r="Q3" s="131">
         <v>0.11</v>
       </c>
-      <c r="S3" t="s" s="127">
+      <c r="R3" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -7363,40 +7256,37 @@
       <c r="A4" s="112">
         <v>-4</v>
       </c>
-      <c r="B4" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C4" t="s" s="127">
-        <v>180</v>
-      </c>
-      <c r="D4" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E4" s="135"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="128">
+      <c r="B4" t="s" s="125">
+        <v>181</v>
+      </c>
+      <c r="C4" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D4" s="132"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="126">
         <v>13041600</v>
       </c>
-      <c r="H4" s="98"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="129">
+      <c r="G4" s="98"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="127">
         <v>901691.5600000001</v>
       </c>
-      <c r="K4" s="105"/>
-      <c r="L4" s="130">
+      <c r="J4" s="105"/>
+      <c r="K4" s="128">
         <v>850000</v>
       </c>
-      <c r="M4" s="131"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="116">
+      <c r="L4" s="129"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="116">
         <v>1.0608136</v>
       </c>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="133">
+      <c r="P4" s="133"/>
+      <c r="Q4" s="131">
         <v>0.18</v>
       </c>
-      <c r="S4" t="s" s="127">
+      <c r="R4" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -7404,40 +7294,37 @@
       <c r="A5" s="112">
         <v>-4</v>
       </c>
-      <c r="B5" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C5" t="s" s="127">
-        <v>181</v>
-      </c>
-      <c r="D5" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E5" s="135"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="128">
+      <c r="B5" t="s" s="125">
+        <v>182</v>
+      </c>
+      <c r="C5" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D5" s="132"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="126">
         <v>6200000</v>
       </c>
-      <c r="H5" s="98"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="129">
+      <c r="G5" s="98"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="127">
         <v>614789.7</v>
       </c>
-      <c r="K5" s="105"/>
-      <c r="L5" s="130">
+      <c r="J5" s="105"/>
+      <c r="K5" s="128">
         <v>600000</v>
       </c>
-      <c r="M5" s="131"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="116">
+      <c r="L5" s="129"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="116">
         <v>1.0246495</v>
       </c>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="133">
+      <c r="P5" s="133"/>
+      <c r="Q5" s="131">
         <v>0.13</v>
       </c>
-      <c r="S5" t="s" s="127">
+      <c r="R5" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -7445,40 +7332,37 @@
       <c r="A6" s="112">
         <v>-4</v>
       </c>
-      <c r="B6" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C6" t="s" s="127">
-        <v>182</v>
-      </c>
-      <c r="D6" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="137">
+      <c r="B6" t="s" s="125">
+        <v>183</v>
+      </c>
+      <c r="C6" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="134">
         <v>1400000</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="138">
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="135">
         <v>102464.95</v>
       </c>
-      <c r="K6" s="139"/>
-      <c r="L6" s="130">
+      <c r="J6" s="136"/>
+      <c r="K6" s="128">
         <v>100000</v>
       </c>
-      <c r="M6" s="140"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="116">
+      <c r="L6" s="137"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="116">
         <v>1.0246495</v>
       </c>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="133">
+      <c r="P6" s="136"/>
+      <c r="Q6" s="131">
         <v>0.12</v>
       </c>
-      <c r="S6" t="s" s="127">
+      <c r="R6" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -7486,40 +7370,37 @@
       <c r="A7" s="112">
         <v>-4</v>
       </c>
-      <c r="B7" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C7" t="s" s="127">
-        <v>183</v>
-      </c>
-      <c r="D7" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="137">
+      <c r="B7" t="s" s="125">
+        <v>184</v>
+      </c>
+      <c r="C7" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="134">
         <v>4067200</v>
       </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="138">
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="135">
         <v>286901.86</v>
       </c>
-      <c r="K7" s="84"/>
-      <c r="L7" s="130">
+      <c r="J7" s="84"/>
+      <c r="K7" s="128">
         <v>350000</v>
       </c>
-      <c r="M7" s="140"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="116">
+      <c r="L7" s="137"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="116">
         <v>0.8197196</v>
       </c>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="133">
+      <c r="P7" s="84"/>
+      <c r="Q7" s="131">
         <v>-0.11</v>
       </c>
-      <c r="S7" t="s" s="127">
+      <c r="R7" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -7527,40 +7408,37 @@
       <c r="A8" s="112">
         <v>-4</v>
       </c>
-      <c r="B8" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C8" t="s" s="127">
-        <v>184</v>
-      </c>
-      <c r="D8" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="137">
+      <c r="B8" t="s" s="125">
+        <v>185</v>
+      </c>
+      <c r="C8" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="134">
         <v>1419200</v>
       </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="138">
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="135">
         <v>122957.94</v>
       </c>
-      <c r="K8" s="84"/>
-      <c r="L8" s="130">
+      <c r="J8" s="84"/>
+      <c r="K8" s="128">
         <v>120000</v>
       </c>
-      <c r="M8" s="140"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="116">
+      <c r="L8" s="137"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="116">
         <v>1.0246495</v>
       </c>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="133">
+      <c r="P8" s="84"/>
+      <c r="Q8" s="131">
         <v>0.16</v>
       </c>
-      <c r="S8" t="s" s="127">
+      <c r="R8" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -7568,40 +7446,37 @@
       <c r="A9" s="112">
         <v>-4</v>
       </c>
-      <c r="B9" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C9" t="s" s="127">
-        <v>185</v>
-      </c>
-      <c r="D9" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="137">
+      <c r="B9" t="s" s="125">
+        <v>186</v>
+      </c>
+      <c r="C9" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="134">
         <v>1014300</v>
       </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="138">
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="135">
         <v>32788.784</v>
       </c>
-      <c r="K9" s="84"/>
-      <c r="L9" s="130">
+      <c r="J9" s="84"/>
+      <c r="K9" s="128">
         <v>35000</v>
       </c>
-      <c r="M9" s="140"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="116">
+      <c r="L9" s="137"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="116">
         <v>0.9368224000000001</v>
       </c>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="133">
+      <c r="P9" s="84"/>
+      <c r="Q9" s="131">
         <v>-0.23</v>
       </c>
-      <c r="S9" t="s" s="127">
+      <c r="R9" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -7609,40 +7484,37 @@
       <c r="A10" s="112">
         <v>-4</v>
       </c>
-      <c r="B10" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C10" t="s" s="127">
-        <v>186</v>
-      </c>
-      <c r="D10" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="137">
+      <c r="B10" t="s" s="125">
+        <v>187</v>
+      </c>
+      <c r="C10" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="134">
         <v>628320</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="138">
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="135">
         <v>81971.960000000006</v>
       </c>
-      <c r="K10" s="84"/>
-      <c r="L10" s="130">
+      <c r="J10" s="84"/>
+      <c r="K10" s="128">
         <v>75000</v>
       </c>
-      <c r="M10" s="140"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="116">
+      <c r="L10" s="137"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="116">
         <v>1.09295946666667</v>
       </c>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="133">
+      <c r="P10" s="84"/>
+      <c r="Q10" s="131">
         <v>0.29</v>
       </c>
-      <c r="S10" t="s" s="127">
+      <c r="R10" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -7650,40 +7522,37 @@
       <c r="A11" s="112">
         <v>-4</v>
       </c>
-      <c r="B11" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C11" t="s" s="127">
-        <v>187</v>
-      </c>
-      <c r="D11" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="137">
+      <c r="B11" t="s" s="125">
+        <v>188</v>
+      </c>
+      <c r="C11" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="134">
         <v>12234288</v>
       </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="138">
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="135">
         <v>971367.726</v>
       </c>
-      <c r="K11" s="84"/>
-      <c r="L11" s="130">
+      <c r="J11" s="84"/>
+      <c r="K11" s="128">
         <v>900000</v>
       </c>
-      <c r="M11" s="140"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="116">
+      <c r="L11" s="137"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="116">
         <v>1.07929747333333</v>
       </c>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="133">
+      <c r="P11" s="84"/>
+      <c r="Q11" s="131">
         <v>0.18</v>
       </c>
-      <c r="S11" t="s" s="127">
+      <c r="R11" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -7691,40 +7560,37 @@
       <c r="A12" s="112">
         <v>-3</v>
       </c>
-      <c r="B12" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C12" t="s" s="127">
-        <v>177</v>
-      </c>
-      <c r="D12" t="s" s="127">
+      <c r="B12" t="s" s="125">
         <v>178</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="137">
+      <c r="C12" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="134">
         <v>10560000</v>
       </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="138">
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="135">
         <v>556986.16</v>
       </c>
-      <c r="K12" s="84"/>
-      <c r="L12" s="138">
+      <c r="J12" s="84"/>
+      <c r="K12" s="135">
         <v>650000</v>
       </c>
-      <c r="M12" s="141"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="142"/>
-      <c r="P12" s="116">
+      <c r="L12" s="138"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="139"/>
+      <c r="O12" s="116">
         <v>0.856901784615385</v>
       </c>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="133">
+      <c r="P12" s="84"/>
+      <c r="Q12" s="131">
         <v>-0.245018038959772</v>
       </c>
-      <c r="S12" t="s" s="127">
+      <c r="R12" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -7732,40 +7598,37 @@
       <c r="A13" s="112">
         <v>-3</v>
       </c>
-      <c r="B13" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C13" t="s" s="127">
+      <c r="B13" t="s" s="125">
+        <v>180</v>
+      </c>
+      <c r="C13" t="s" s="125">
         <v>179</v>
       </c>
-      <c r="D13" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="137">
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="134">
         <v>3700000</v>
       </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="138">
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="135">
         <v>191328.72</v>
       </c>
-      <c r="K13" s="84"/>
-      <c r="L13" s="138">
+      <c r="J13" s="84"/>
+      <c r="K13" s="135">
         <v>200000</v>
       </c>
-      <c r="M13" s="141"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="142"/>
-      <c r="P13" s="116">
+      <c r="L13" s="138"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="139"/>
+      <c r="O13" s="116">
         <v>0.9566436</v>
       </c>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="133">
+      <c r="P13" s="84"/>
+      <c r="Q13" s="131">
         <v>-0.221974928987912</v>
       </c>
-      <c r="S13" t="s" s="127">
+      <c r="R13" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -7773,40 +7636,37 @@
       <c r="A14" s="112">
         <v>-3</v>
       </c>
-      <c r="B14" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C14" t="s" s="127">
-        <v>180</v>
-      </c>
-      <c r="D14" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="137">
+      <c r="B14" t="s" s="125">
+        <v>181</v>
+      </c>
+      <c r="C14" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="134">
         <v>13041600</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="138">
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="135">
         <v>736028.144</v>
       </c>
-      <c r="K14" s="84"/>
-      <c r="L14" s="138">
+      <c r="J14" s="84"/>
+      <c r="K14" s="135">
         <v>800000</v>
       </c>
-      <c r="M14" s="141"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="116">
+      <c r="L14" s="138"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="116">
         <v>0.92003518</v>
       </c>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="133">
+      <c r="P14" s="84"/>
+      <c r="Q14" s="131">
         <v>-0.18372514876373</v>
       </c>
-      <c r="S14" t="s" s="127">
+      <c r="R14" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -7814,40 +7674,37 @@
       <c r="A15" s="112">
         <v>-3</v>
       </c>
-      <c r="B15" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C15" t="s" s="127">
-        <v>181</v>
-      </c>
-      <c r="D15" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="137">
+      <c r="B15" t="s" s="125">
+        <v>182</v>
+      </c>
+      <c r="C15" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="134">
         <v>6200000</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="138">
+      <c r="G15" s="39"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="135">
         <v>478321.8</v>
       </c>
-      <c r="K15" s="84"/>
-      <c r="L15" s="138">
+      <c r="J15" s="84"/>
+      <c r="K15" s="135">
         <v>550000</v>
       </c>
-      <c r="M15" s="141"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="116">
+      <c r="L15" s="138"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="116">
         <v>0.869676</v>
       </c>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="133">
+      <c r="P15" s="84"/>
+      <c r="Q15" s="131">
         <v>-0.221974928987912</v>
       </c>
-      <c r="S15" t="s" s="127">
+      <c r="R15" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -7855,40 +7712,37 @@
       <c r="A16" s="112">
         <v>-3</v>
       </c>
-      <c r="B16" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C16" t="s" s="127">
-        <v>182</v>
-      </c>
-      <c r="D16" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="137">
+      <c r="B16" t="s" s="125">
+        <v>183</v>
+      </c>
+      <c r="C16" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="134">
         <v>1400000</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="138">
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="135">
         <v>69720.3</v>
       </c>
-      <c r="K16" s="84"/>
-      <c r="L16" s="138">
+      <c r="J16" s="84"/>
+      <c r="K16" s="135">
         <v>80000</v>
       </c>
-      <c r="M16" s="141"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="116">
+      <c r="L16" s="138"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="116">
         <v>0.87150375</v>
       </c>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="133">
+      <c r="P16" s="84"/>
+      <c r="Q16" s="131">
         <v>-0.319569277104024</v>
       </c>
-      <c r="S16" t="s" s="127">
+      <c r="R16" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -7896,40 +7750,37 @@
       <c r="A17" s="112">
         <v>-3</v>
       </c>
-      <c r="B17" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C17" t="s" s="127">
-        <v>183</v>
-      </c>
-      <c r="D17" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="137">
+      <c r="B17" t="s" s="125">
+        <v>184</v>
+      </c>
+      <c r="C17" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="134">
         <v>4067200</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="138">
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="135">
         <v>223216.84</v>
       </c>
-      <c r="K17" s="84"/>
-      <c r="L17" s="138">
+      <c r="J17" s="84"/>
+      <c r="K17" s="135">
         <v>250000</v>
       </c>
-      <c r="M17" s="141"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="116">
+      <c r="L17" s="138"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="116">
         <v>0.89286736</v>
       </c>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="133">
+      <c r="P17" s="84"/>
+      <c r="Q17" s="131">
         <v>-0.221974928987912</v>
       </c>
-      <c r="S17" t="s" s="127">
+      <c r="R17" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -7937,40 +7788,37 @@
       <c r="A18" s="112">
         <v>-3</v>
       </c>
-      <c r="B18" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C18" t="s" s="127">
-        <v>184</v>
-      </c>
-      <c r="D18" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="137">
+      <c r="B18" t="s" s="125">
+        <v>185</v>
+      </c>
+      <c r="C18" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="134">
         <v>1419200</v>
       </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="138">
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="135">
         <v>90664.36</v>
       </c>
-      <c r="K18" s="84"/>
-      <c r="L18" s="138">
+      <c r="J18" s="84"/>
+      <c r="K18" s="135">
         <v>100000</v>
       </c>
-      <c r="M18" s="141"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="116">
+      <c r="L18" s="138"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="116">
         <v>0.9066436</v>
       </c>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="133">
+      <c r="P18" s="84"/>
+      <c r="Q18" s="131">
         <v>-0.262639240702959</v>
       </c>
-      <c r="S18" t="s" s="127">
+      <c r="R18" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -7978,40 +7826,37 @@
       <c r="A19" s="112">
         <v>-3</v>
       </c>
-      <c r="B19" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C19" t="s" s="127">
-        <v>185</v>
-      </c>
-      <c r="D19" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="137">
+      <c r="B19" t="s" s="125">
+        <v>186</v>
+      </c>
+      <c r="C19" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="134">
         <v>1014300</v>
       </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="138">
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="135">
         <v>25510.496</v>
       </c>
-      <c r="K19" s="84"/>
-      <c r="L19" s="138">
+      <c r="J19" s="84"/>
+      <c r="K19" s="135">
         <v>25000</v>
       </c>
-      <c r="M19" s="141"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="116">
+      <c r="L19" s="138"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="116">
         <v>1.02041984</v>
       </c>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="133">
+      <c r="P19" s="84"/>
+      <c r="Q19" s="131">
         <v>-0.221974928987912</v>
       </c>
-      <c r="S19" t="s" s="127">
+      <c r="R19" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -8019,40 +7864,37 @@
       <c r="A20" s="112">
         <v>-3</v>
       </c>
-      <c r="B20" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C20" t="s" s="127">
-        <v>186</v>
-      </c>
-      <c r="D20" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="137">
+      <c r="B20" t="s" s="125">
+        <v>187</v>
+      </c>
+      <c r="C20" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="134">
         <v>628320</v>
       </c>
-      <c r="H20" s="39"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="138">
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="135">
         <v>59832.18</v>
       </c>
-      <c r="K20" s="84"/>
-      <c r="L20" s="138">
+      <c r="J20" s="84"/>
+      <c r="K20" s="135">
         <v>60000</v>
       </c>
-      <c r="M20" s="141"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="116">
+      <c r="L20" s="138"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="116">
         <v>0.997203</v>
       </c>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="133">
+      <c r="P20" s="84"/>
+      <c r="Q20" s="131">
         <v>-0.270089674566767</v>
       </c>
-      <c r="S20" t="s" s="127">
+      <c r="R20" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -8060,40 +7902,37 @@
       <c r="A21" s="112">
         <v>-3</v>
       </c>
-      <c r="B21" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C21" t="s" s="127">
-        <v>187</v>
-      </c>
-      <c r="D21" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="137">
+      <c r="B21" t="s" s="125">
+        <v>188</v>
+      </c>
+      <c r="C21" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="134">
         <v>12234288</v>
       </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="138">
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="135">
         <v>757203</v>
       </c>
-      <c r="K21" s="84"/>
-      <c r="L21" s="138">
+      <c r="J21" s="84"/>
+      <c r="K21" s="135">
         <v>850000</v>
       </c>
-      <c r="M21" s="141"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="116">
+      <c r="L21" s="138"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="116">
         <v>0.890827058823529</v>
       </c>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="133">
+      <c r="P21" s="84"/>
+      <c r="Q21" s="131">
         <v>-0.220477498137507</v>
       </c>
-      <c r="S21" t="s" s="127">
+      <c r="R21" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -8101,40 +7940,37 @@
       <c r="A22" s="112">
         <v>-2</v>
       </c>
-      <c r="B22" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C22" t="s" s="127">
-        <v>177</v>
-      </c>
-      <c r="D22" t="s" s="127">
+      <c r="B22" t="s" s="125">
         <v>178</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="137">
+      <c r="C22" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="134">
         <v>10560000</v>
       </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="138">
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="135">
         <v>525785.6899999999</v>
       </c>
-      <c r="K22" s="84"/>
-      <c r="L22" s="130">
+      <c r="J22" s="84"/>
+      <c r="K22" s="128">
         <v>550000</v>
       </c>
-      <c r="M22" s="140"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="116">
+      <c r="L22" s="137"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="116">
         <v>0.9559739818181821</v>
       </c>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="133">
+      <c r="P22" s="84"/>
+      <c r="Q22" s="131">
         <v>-0.0560165983298402</v>
       </c>
-      <c r="S22" t="s" s="127">
+      <c r="R22" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -8142,40 +7978,37 @@
       <c r="A23" s="112">
         <v>-2</v>
       </c>
-      <c r="B23" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C23" t="s" s="127">
+      <c r="B23" t="s" s="125">
+        <v>180</v>
+      </c>
+      <c r="C23" t="s" s="125">
         <v>179</v>
       </c>
-      <c r="D23" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="137">
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="134">
         <v>3700000</v>
       </c>
-      <c r="H23" s="39"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="138">
+      <c r="G23" s="39"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="135">
         <v>154642.85</v>
       </c>
-      <c r="K23" s="84"/>
-      <c r="L23" s="130">
+      <c r="J23" s="84"/>
+      <c r="K23" s="128">
         <v>170000</v>
       </c>
-      <c r="M23" s="140"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="116">
+      <c r="L23" s="137"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="116">
         <v>0.909663823529412</v>
       </c>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="133">
+      <c r="P23" s="84"/>
+      <c r="Q23" s="131">
         <v>-0.191742619717521</v>
       </c>
-      <c r="S23" t="s" s="127">
+      <c r="R23" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -8183,40 +8016,37 @@
       <c r="A24" s="112">
         <v>-2</v>
       </c>
-      <c r="B24" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C24" t="s" s="127">
-        <v>180</v>
-      </c>
-      <c r="D24" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="137">
+      <c r="B24" t="s" s="125">
+        <v>181</v>
+      </c>
+      <c r="C24" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="134">
         <v>13041600</v>
       </c>
-      <c r="H24" s="39"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="138">
+      <c r="G24" s="39"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="135">
         <v>711357.11</v>
       </c>
-      <c r="K24" s="84"/>
-      <c r="L24" s="130">
+      <c r="J24" s="84"/>
+      <c r="K24" s="128">
         <v>750000</v>
       </c>
-      <c r="M24" s="140"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="116">
+      <c r="L24" s="137"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="116">
         <v>0.948476146666667</v>
       </c>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="133">
+      <c r="P24" s="84"/>
+      <c r="Q24" s="131">
         <v>-0.0335191448874813</v>
       </c>
-      <c r="S24" t="s" s="127">
+      <c r="R24" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -8224,40 +8054,37 @@
       <c r="A25" s="112">
         <v>-2</v>
       </c>
-      <c r="B25" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C25" t="s" s="127">
-        <v>181</v>
-      </c>
-      <c r="D25" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="137">
+      <c r="B25" t="s" s="125">
+        <v>182</v>
+      </c>
+      <c r="C25" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="134">
         <v>6200000</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="138">
+      <c r="G25" s="39"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="135">
         <v>432999.98</v>
       </c>
-      <c r="K25" s="84"/>
-      <c r="L25" s="130">
+      <c r="J25" s="84"/>
+      <c r="K25" s="128">
         <v>500000</v>
       </c>
-      <c r="M25" s="140"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="116">
+      <c r="L25" s="137"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="116">
         <v>0.86599996</v>
       </c>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="133">
+      <c r="P25" s="84"/>
+      <c r="Q25" s="131">
         <v>-0.0947517340836231</v>
       </c>
-      <c r="S25" t="s" s="127">
+      <c r="R25" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -8265,40 +8092,37 @@
       <c r="A26" s="112">
         <v>-2</v>
       </c>
-      <c r="B26" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C26" t="s" s="127">
-        <v>182</v>
-      </c>
-      <c r="D26" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="137">
+      <c r="B26" t="s" s="125">
+        <v>183</v>
+      </c>
+      <c r="C26" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="134">
         <v>1400000</v>
       </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="138">
+      <c r="G26" s="39"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="135">
         <v>77321.425</v>
       </c>
-      <c r="K26" s="84"/>
-      <c r="L26" s="130">
+      <c r="J26" s="84"/>
+      <c r="K26" s="128">
         <v>80000</v>
       </c>
-      <c r="M26" s="140"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="116">
+      <c r="L26" s="137"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="116">
         <v>0.9665178125</v>
       </c>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="133">
+      <c r="P26" s="84"/>
+      <c r="Q26" s="131">
         <v>0.109023125259071</v>
       </c>
-      <c r="S26" t="s" s="127">
+      <c r="R26" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -8306,40 +8130,37 @@
       <c r="A27" s="112">
         <v>-2</v>
       </c>
-      <c r="B27" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C27" t="s" s="127">
-        <v>183</v>
-      </c>
-      <c r="D27" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="137">
+      <c r="B27" t="s" s="125">
+        <v>184</v>
+      </c>
+      <c r="C27" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="134">
         <v>4067200</v>
       </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="138">
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="135">
         <v>247428.56</v>
       </c>
-      <c r="K27" s="84"/>
-      <c r="L27" s="130">
+      <c r="J27" s="84"/>
+      <c r="K27" s="128">
         <v>250000</v>
       </c>
-      <c r="M27" s="140"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="116">
+      <c r="L27" s="137"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="116">
         <v>0.98971424</v>
       </c>
-      <c r="Q27" s="84"/>
-      <c r="R27" s="133">
+      <c r="P27" s="84"/>
+      <c r="Q27" s="131">
         <v>0.1084672643874</v>
       </c>
-      <c r="S27" t="s" s="127">
+      <c r="R27" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -8347,40 +8168,37 @@
       <c r="A28" s="112">
         <v>-2</v>
       </c>
-      <c r="B28" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C28" t="s" s="127">
-        <v>184</v>
-      </c>
-      <c r="D28" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="137">
+      <c r="B28" t="s" s="125">
+        <v>185</v>
+      </c>
+      <c r="C28" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="134">
         <v>1419200</v>
       </c>
-      <c r="H28" s="39"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="138">
+      <c r="G28" s="39"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="135">
         <v>92785.710000000006</v>
       </c>
-      <c r="K28" s="84"/>
-      <c r="L28" s="130">
+      <c r="J28" s="84"/>
+      <c r="K28" s="128">
         <v>100000</v>
       </c>
-      <c r="M28" s="140"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="116">
+      <c r="L28" s="137"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="116">
         <v>0.9278571</v>
       </c>
-      <c r="Q28" s="84"/>
-      <c r="R28" s="133">
+      <c r="P28" s="84"/>
+      <c r="Q28" s="131">
         <v>0.0233978379155821</v>
       </c>
-      <c r="S28" t="s" s="127">
+      <c r="R28" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -8388,40 +8206,37 @@
       <c r="A29" s="112">
         <v>-2</v>
       </c>
-      <c r="B29" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C29" t="s" s="127">
-        <v>185</v>
-      </c>
-      <c r="D29" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="137">
+      <c r="B29" t="s" s="125">
+        <v>186</v>
+      </c>
+      <c r="C29" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="134">
         <v>1014300</v>
       </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="138">
+      <c r="G29" s="39"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="135">
         <v>21649.999</v>
       </c>
-      <c r="K29" s="84"/>
-      <c r="L29" s="130">
+      <c r="J29" s="84"/>
+      <c r="K29" s="128">
         <v>25000</v>
       </c>
-      <c r="M29" s="140"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="116">
+      <c r="L29" s="137"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="116">
         <v>0.86599996</v>
       </c>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="133">
+      <c r="P29" s="84"/>
+      <c r="Q29" s="131">
         <v>-0.151329750703397</v>
       </c>
-      <c r="S29" t="s" s="127">
+      <c r="R29" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -8429,40 +8244,37 @@
       <c r="A30" s="112">
         <v>-2</v>
       </c>
-      <c r="B30" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C30" t="s" s="127">
-        <v>186</v>
-      </c>
-      <c r="D30" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="137">
+      <c r="B30" t="s" s="125">
+        <v>187</v>
+      </c>
+      <c r="C30" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="134">
         <v>628320</v>
       </c>
-      <c r="H30" s="39"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="138">
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="135">
         <v>55671.426</v>
       </c>
-      <c r="K30" s="84"/>
-      <c r="L30" s="130">
+      <c r="J30" s="84"/>
+      <c r="K30" s="128">
         <v>60000</v>
       </c>
-      <c r="M30" s="140"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="116">
+      <c r="L30" s="137"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="116">
         <v>0.9278571</v>
       </c>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="133">
+      <c r="P30" s="84"/>
+      <c r="Q30" s="131">
         <v>-0.0695404045114185</v>
       </c>
-      <c r="S30" t="s" s="127">
+      <c r="R30" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -8470,450 +8282,417 @@
       <c r="A31" s="112">
         <v>-2</v>
       </c>
-      <c r="B31" t="s" s="134">
-        <v>141</v>
-      </c>
-      <c r="C31" t="s" s="127">
+      <c r="B31" t="s" s="125">
+        <v>188</v>
+      </c>
+      <c r="C31" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D31" s="39"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="134">
+        <v>12234288</v>
+      </c>
+      <c r="G31" s="39"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="135">
+        <v>773214.25</v>
+      </c>
+      <c r="J31" s="84"/>
+      <c r="K31" s="128">
+        <v>800000</v>
+      </c>
+      <c r="L31" s="137"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="116">
+        <v>0.9665178125</v>
+      </c>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="131">
+        <v>0.0211452543109312</v>
+      </c>
+      <c r="R31" t="s" s="125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" ht="13.5" customHeight="1">
+      <c r="A32" s="128">
+        <v>-1</v>
+      </c>
+      <c r="B32" t="s" s="125">
+        <v>178</v>
+      </c>
+      <c r="C32" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="134">
+        <v>10560000</v>
+      </c>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="135">
+        <v>716400</v>
+      </c>
+      <c r="J32" s="84"/>
+      <c r="K32" s="128">
+        <v>600000</v>
+      </c>
+      <c r="L32" s="137"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="116">
+        <v>1.194</v>
+      </c>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="131">
+        <v>0.362532327572475</v>
+      </c>
+      <c r="R32" t="s" s="125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" ht="13.5" customHeight="1">
+      <c r="A33" s="128">
+        <v>-1</v>
+      </c>
+      <c r="B33" t="s" s="125">
+        <v>180</v>
+      </c>
+      <c r="C33" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="134">
+        <v>3700000</v>
+      </c>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="135">
+        <v>220500</v>
+      </c>
+      <c r="J33" s="84"/>
+      <c r="K33" s="128">
+        <v>200000</v>
+      </c>
+      <c r="L33" s="137"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="116">
+        <v>1.1025</v>
+      </c>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="131">
+        <v>0.425866116668181</v>
+      </c>
+      <c r="R33" t="s" s="125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" ht="13.5" customHeight="1">
+      <c r="A34" s="128">
+        <v>-1</v>
+      </c>
+      <c r="B34" t="s" s="125">
+        <v>181</v>
+      </c>
+      <c r="C34" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="134">
+        <v>13041600</v>
+      </c>
+      <c r="G34" s="39"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="135">
+        <v>859704</v>
+      </c>
+      <c r="J34" s="84"/>
+      <c r="K34" s="128">
+        <v>800000</v>
+      </c>
+      <c r="L34" s="137"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="116">
+        <v>1.07463</v>
+      </c>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="131">
+        <v>0.208540672349504</v>
+      </c>
+      <c r="R34" t="s" s="125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" ht="13.5" customHeight="1">
+      <c r="A35" s="128">
+        <v>-1</v>
+      </c>
+      <c r="B35" t="s" s="125">
+        <v>182</v>
+      </c>
+      <c r="C35" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D35" s="39"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="134">
+        <v>6200000</v>
+      </c>
+      <c r="G35" s="39"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="135">
+        <v>400000</v>
+      </c>
+      <c r="J35" s="84"/>
+      <c r="K35" s="128">
+        <v>450000</v>
+      </c>
+      <c r="L35" s="137"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="116">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="131">
+        <v>-0.0762124284624679</v>
+      </c>
+      <c r="R35" t="s" s="125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" ht="13.5" customHeight="1">
+      <c r="A36" s="128">
+        <v>-1</v>
+      </c>
+      <c r="B36" t="s" s="125">
+        <v>183</v>
+      </c>
+      <c r="C36" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D36" s="39"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="134">
+        <v>1400000</v>
+      </c>
+      <c r="G36" s="39"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="135">
+        <v>90000</v>
+      </c>
+      <c r="J36" s="84"/>
+      <c r="K36" s="128">
+        <v>85000</v>
+      </c>
+      <c r="L36" s="137"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="116">
+        <v>1.05882352941176</v>
+      </c>
+      <c r="P36" s="84"/>
+      <c r="Q36" s="131">
+        <v>0.163972340137291</v>
+      </c>
+      <c r="R36" t="s" s="125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" ht="13.5" customHeight="1">
+      <c r="A37" s="128">
+        <v>-1</v>
+      </c>
+      <c r="B37" t="s" s="125">
+        <v>184</v>
+      </c>
+      <c r="C37" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D37" s="39"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="134">
+        <v>4067200</v>
+      </c>
+      <c r="G37" s="39"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="135">
+        <v>276368</v>
+      </c>
+      <c r="J37" s="84"/>
+      <c r="K37" s="128">
+        <v>250000</v>
+      </c>
+      <c r="L37" s="137"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="116">
+        <v>1.105472</v>
+      </c>
+      <c r="P37" s="84"/>
+      <c r="Q37" s="131">
+        <v>0.116960790621746</v>
+      </c>
+      <c r="R37" t="s" s="125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" ht="13.5" customHeight="1">
+      <c r="A38" s="128">
+        <v>-1</v>
+      </c>
+      <c r="B38" t="s" s="125">
+        <v>185</v>
+      </c>
+      <c r="C38" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D38" s="39"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="134">
+        <v>1419200</v>
+      </c>
+      <c r="G38" s="39"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="135">
+        <v>90248</v>
+      </c>
+      <c r="J38" s="84"/>
+      <c r="K38" s="128">
+        <v>100000</v>
+      </c>
+      <c r="L38" s="137"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="116">
+        <v>0.9024799999999999</v>
+      </c>
+      <c r="P38" s="84"/>
+      <c r="Q38" s="131">
+        <v>-0.0273502245119426</v>
+      </c>
+      <c r="R38" t="s" s="125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" ht="13.5" customHeight="1">
+      <c r="A39" s="128">
+        <v>-1</v>
+      </c>
+      <c r="B39" t="s" s="125">
+        <v>186</v>
+      </c>
+      <c r="C39" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D39" s="39"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="134">
+        <v>1014300</v>
+      </c>
+      <c r="G39" s="39"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="135">
+        <v>28930</v>
+      </c>
+      <c r="J39" s="84"/>
+      <c r="K39" s="128">
+        <v>25000</v>
+      </c>
+      <c r="L39" s="137"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="116">
+        <v>1.1572</v>
+      </c>
+      <c r="P39" s="84"/>
+      <c r="Q39" s="131">
+        <v>0.33625872222904</v>
+      </c>
+      <c r="R39" t="s" s="125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" ht="13.5" customHeight="1">
+      <c r="A40" s="128">
+        <v>-1</v>
+      </c>
+      <c r="B40" t="s" s="125">
         <v>187</v>
       </c>
-      <c r="D31" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="137">
+      <c r="C40" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D40" s="39"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="134">
+        <v>628320</v>
+      </c>
+      <c r="G40" s="39"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="135">
+        <v>35840</v>
+      </c>
+      <c r="J40" s="84"/>
+      <c r="K40" s="128">
+        <v>40000</v>
+      </c>
+      <c r="L40" s="137"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="116">
+        <v>0.896</v>
+      </c>
+      <c r="P40" s="84"/>
+      <c r="Q40" s="131">
+        <v>-0.356222705701844</v>
+      </c>
+      <c r="R40" t="s" s="125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" ht="13.5" customHeight="1">
+      <c r="A41" s="128">
+        <v>-1</v>
+      </c>
+      <c r="B41" t="s" s="125">
+        <v>188</v>
+      </c>
+      <c r="C41" t="s" s="125">
+        <v>179</v>
+      </c>
+      <c r="D41" s="140"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="134">
         <v>12234288</v>
       </c>
-      <c r="H31" s="39"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="138">
-        <v>773214.25</v>
-      </c>
-      <c r="K31" s="84"/>
-      <c r="L31" s="130">
+      <c r="G41" s="39"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="135">
+        <v>835229</v>
+      </c>
+      <c r="J41" s="84"/>
+      <c r="K41" s="128">
         <v>800000</v>
       </c>
-      <c r="M31" s="140"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="116">
-        <v>0.9665178125</v>
-      </c>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="133">
-        <v>0.0211452543109312</v>
-      </c>
-      <c r="S31" t="s" s="127">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="143">
-        <v>-1</v>
-      </c>
-      <c r="B32" t="s" s="144">
-        <v>141</v>
-      </c>
-      <c r="C32" t="s" s="127">
-        <v>177</v>
-      </c>
-      <c r="D32" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="137">
-        <v>10560000</v>
-      </c>
-      <c r="H32" s="39"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="138">
-        <v>716400</v>
-      </c>
-      <c r="K32" s="84"/>
-      <c r="L32" s="130">
-        <v>600000</v>
-      </c>
-      <c r="M32" s="140"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="116">
-        <v>1.194</v>
-      </c>
-      <c r="Q32" s="84"/>
-      <c r="R32" s="133">
-        <v>0.362532327572475</v>
-      </c>
-      <c r="S32" t="s" s="127">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="143">
-        <v>-1</v>
-      </c>
-      <c r="B33" t="s" s="144">
-        <v>141</v>
-      </c>
-      <c r="C33" t="s" s="127">
-        <v>179</v>
-      </c>
-      <c r="D33" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="137">
-        <v>3700000</v>
-      </c>
-      <c r="H33" s="39"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="138">
-        <v>220500</v>
-      </c>
-      <c r="K33" s="84"/>
-      <c r="L33" s="130">
-        <v>200000</v>
-      </c>
-      <c r="M33" s="140"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="116">
-        <v>1.1025</v>
-      </c>
-      <c r="Q33" s="84"/>
-      <c r="R33" s="133">
-        <v>0.425866116668181</v>
-      </c>
-      <c r="S33" t="s" s="127">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="143">
-        <v>-1</v>
-      </c>
-      <c r="B34" t="s" s="144">
-        <v>141</v>
-      </c>
-      <c r="C34" t="s" s="127">
-        <v>180</v>
-      </c>
-      <c r="D34" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="137">
-        <v>13041600</v>
-      </c>
-      <c r="H34" s="39"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="138">
-        <v>859704</v>
-      </c>
-      <c r="K34" s="84"/>
-      <c r="L34" s="130">
-        <v>800000</v>
-      </c>
-      <c r="M34" s="140"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="116">
-        <v>1.07463</v>
-      </c>
-      <c r="Q34" s="84"/>
-      <c r="R34" s="133">
-        <v>0.208540672349504</v>
-      </c>
-      <c r="S34" t="s" s="127">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" ht="13.5" customHeight="1">
-      <c r="A35" s="143">
-        <v>-1</v>
-      </c>
-      <c r="B35" t="s" s="144">
-        <v>141</v>
-      </c>
-      <c r="C35" t="s" s="127">
-        <v>181</v>
-      </c>
-      <c r="D35" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E35" s="39"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="137">
-        <v>6200000</v>
-      </c>
-      <c r="H35" s="39"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="138">
-        <v>400000</v>
-      </c>
-      <c r="K35" s="84"/>
-      <c r="L35" s="130">
-        <v>450000</v>
-      </c>
-      <c r="M35" s="140"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="116">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="Q35" s="84"/>
-      <c r="R35" s="133">
-        <v>-0.0762124284624679</v>
-      </c>
-      <c r="S35" t="s" s="127">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" ht="13.5" customHeight="1">
-      <c r="A36" s="143">
-        <v>-1</v>
-      </c>
-      <c r="B36" t="s" s="144">
-        <v>141</v>
-      </c>
-      <c r="C36" t="s" s="127">
-        <v>182</v>
-      </c>
-      <c r="D36" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="137">
-        <v>1400000</v>
-      </c>
-      <c r="H36" s="39"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="138">
-        <v>90000</v>
-      </c>
-      <c r="K36" s="84"/>
-      <c r="L36" s="130">
-        <v>85000</v>
-      </c>
-      <c r="M36" s="140"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="116">
-        <v>1.05882352941176</v>
-      </c>
-      <c r="Q36" s="84"/>
-      <c r="R36" s="133">
-        <v>0.163972340137291</v>
-      </c>
-      <c r="S36" t="s" s="127">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" s="143">
-        <v>-1</v>
-      </c>
-      <c r="B37" t="s" s="144">
-        <v>141</v>
-      </c>
-      <c r="C37" t="s" s="127">
-        <v>183</v>
-      </c>
-      <c r="D37" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="137">
-        <v>4067200</v>
-      </c>
-      <c r="H37" s="39"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="138">
-        <v>276368</v>
-      </c>
-      <c r="K37" s="84"/>
-      <c r="L37" s="130">
-        <v>250000</v>
-      </c>
-      <c r="M37" s="140"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="116">
-        <v>1.105472</v>
-      </c>
-      <c r="Q37" s="84"/>
-      <c r="R37" s="133">
-        <v>0.116960790621746</v>
-      </c>
-      <c r="S37" t="s" s="127">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" s="143">
-        <v>-1</v>
-      </c>
-      <c r="B38" t="s" s="144">
-        <v>141</v>
-      </c>
-      <c r="C38" t="s" s="127">
-        <v>184</v>
-      </c>
-      <c r="D38" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E38" s="39"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="137">
-        <v>1419200</v>
-      </c>
-      <c r="H38" s="39"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="138">
-        <v>90248</v>
-      </c>
-      <c r="K38" s="84"/>
-      <c r="L38" s="130">
-        <v>100000</v>
-      </c>
-      <c r="M38" s="140"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="116">
-        <v>0.9024799999999999</v>
-      </c>
-      <c r="Q38" s="84"/>
-      <c r="R38" s="133">
-        <v>-0.0273502245119426</v>
-      </c>
-      <c r="S38" t="s" s="127">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" ht="13.5" customHeight="1">
-      <c r="A39" s="143">
-        <v>-1</v>
-      </c>
-      <c r="B39" t="s" s="144">
-        <v>141</v>
-      </c>
-      <c r="C39" t="s" s="127">
-        <v>185</v>
-      </c>
-      <c r="D39" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E39" s="39"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="137">
-        <v>1014300</v>
-      </c>
-      <c r="H39" s="39"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="138">
-        <v>28930</v>
-      </c>
-      <c r="K39" s="84"/>
-      <c r="L39" s="130">
-        <v>25000</v>
-      </c>
-      <c r="M39" s="140"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="116">
-        <v>1.1572</v>
-      </c>
-      <c r="Q39" s="84"/>
-      <c r="R39" s="133">
-        <v>0.33625872222904</v>
-      </c>
-      <c r="S39" t="s" s="127">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" ht="13.5" customHeight="1">
-      <c r="A40" s="143">
-        <v>-1</v>
-      </c>
-      <c r="B40" t="s" s="144">
-        <v>141</v>
-      </c>
-      <c r="C40" t="s" s="127">
-        <v>186</v>
-      </c>
-      <c r="D40" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E40" s="39"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="137">
-        <v>628320</v>
-      </c>
-      <c r="H40" s="39"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="138">
-        <v>35840</v>
-      </c>
-      <c r="K40" s="84"/>
-      <c r="L40" s="130">
-        <v>40000</v>
-      </c>
-      <c r="M40" s="140"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="116">
-        <v>0.896</v>
-      </c>
-      <c r="Q40" s="84"/>
-      <c r="R40" s="133">
-        <v>-0.356222705701844</v>
-      </c>
-      <c r="S40" t="s" s="127">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" ht="13.5" customHeight="1">
-      <c r="A41" s="143">
-        <v>-1</v>
-      </c>
-      <c r="B41" t="s" s="145">
-        <v>141</v>
-      </c>
-      <c r="C41" t="s" s="127">
-        <v>187</v>
-      </c>
-      <c r="D41" t="s" s="127">
-        <v>178</v>
-      </c>
-      <c r="E41" s="146"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="137">
-        <v>12234288</v>
-      </c>
-      <c r="H41" s="39"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="138">
-        <v>835229</v>
-      </c>
-      <c r="K41" s="84"/>
-      <c r="L41" s="130">
-        <v>800000</v>
-      </c>
-      <c r="M41" s="140"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="116">
+      <c r="L41" s="137"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="116">
         <v>1.04403625</v>
       </c>
-      <c r="Q41" s="84"/>
-      <c r="R41" s="133">
+      <c r="P41" s="84"/>
+      <c r="Q41" s="131">
         <v>0.08020383742281</v>
       </c>
-      <c r="S41" t="s" s="127">
+      <c r="R41" t="s" s="125">
         <v>6</v>
       </c>
     </row>
@@ -8921,38 +8700,35 @@
       <c r="A42" s="112">
         <v>-4</v>
       </c>
-      <c r="B42" t="s" s="147">
-        <v>142</v>
-      </c>
-      <c r="C42" s="148"/>
-      <c r="D42" t="s" s="149">
-        <v>188</v>
-      </c>
-      <c r="E42" t="s" s="149">
+      <c r="B42" s="81"/>
+      <c r="C42" t="s" s="141">
         <v>189</v>
       </c>
-      <c r="F42" s="39"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="150">
+      <c r="D42" t="s" s="141">
+        <v>190</v>
+      </c>
+      <c r="E42" s="39"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="142">
         <v>1053340</v>
       </c>
-      <c r="K42" s="84"/>
-      <c r="L42" s="150">
+      <c r="J42" s="84"/>
+      <c r="K42" s="142">
         <v>975000</v>
       </c>
-      <c r="M42" s="151"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="152">
+      <c r="L42" s="143"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="144">
         <v>1.08034871794872</v>
       </c>
-      <c r="Q42" s="84"/>
-      <c r="R42" s="152">
+      <c r="P42" s="84"/>
+      <c r="Q42" s="144">
         <v>0.187882670877236</v>
       </c>
-      <c r="S42" t="s" s="149">
+      <c r="R42" t="s" s="141">
         <v>10</v>
       </c>
     </row>
@@ -8960,38 +8736,35 @@
       <c r="A43" s="112">
         <v>-4</v>
       </c>
-      <c r="B43" t="s" s="153">
-        <v>142</v>
-      </c>
-      <c r="C43" s="40"/>
-      <c r="D43" t="s" s="149">
-        <v>188</v>
-      </c>
-      <c r="E43" t="s" s="149">
-        <v>190</v>
-      </c>
-      <c r="F43" s="39"/>
+      <c r="B43" s="84"/>
+      <c r="C43" t="s" s="141">
+        <v>189</v>
+      </c>
+      <c r="D43" t="s" s="141">
+        <v>191</v>
+      </c>
+      <c r="E43" s="39"/>
+      <c r="F43" s="11"/>
       <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="150">
+      <c r="H43" s="40"/>
+      <c r="I43" s="142">
         <v>1516481</v>
       </c>
-      <c r="K43" s="84"/>
-      <c r="L43" s="150">
+      <c r="J43" s="84"/>
+      <c r="K43" s="142">
         <v>1450000</v>
       </c>
-      <c r="M43" s="151"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="152">
+      <c r="L43" s="143"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="144">
         <v>1.04584896551724</v>
       </c>
-      <c r="Q43" s="84"/>
-      <c r="R43" s="152">
+      <c r="P43" s="84"/>
+      <c r="Q43" s="144">
         <v>0.159205827067669</v>
       </c>
-      <c r="S43" t="s" s="149">
+      <c r="R43" t="s" s="141">
         <v>10</v>
       </c>
     </row>
@@ -8999,38 +8772,35 @@
       <c r="A44" s="112">
         <v>-4</v>
       </c>
-      <c r="B44" t="s" s="153">
-        <v>142</v>
-      </c>
-      <c r="C44" s="40"/>
-      <c r="D44" t="s" s="149">
-        <v>188</v>
-      </c>
-      <c r="E44" t="s" s="149">
-        <v>191</v>
-      </c>
-      <c r="F44" s="39"/>
+      <c r="B44" s="84"/>
+      <c r="C44" t="s" s="141">
+        <v>189</v>
+      </c>
+      <c r="D44" t="s" s="141">
+        <v>192</v>
+      </c>
+      <c r="E44" s="39"/>
+      <c r="F44" s="11"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="150">
+      <c r="H44" s="40"/>
+      <c r="I44" s="142">
         <v>319691</v>
       </c>
-      <c r="K44" s="84"/>
-      <c r="L44" s="150">
+      <c r="J44" s="84"/>
+      <c r="K44" s="142">
         <v>385000</v>
       </c>
-      <c r="M44" s="151"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="152">
+      <c r="L44" s="143"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="144">
         <v>0.830366233766234</v>
       </c>
-      <c r="Q44" s="84"/>
-      <c r="R44" s="152">
+      <c r="P44" s="84"/>
+      <c r="Q44" s="144">
         <v>-0.124001966568338</v>
       </c>
-      <c r="S44" t="s" s="149">
+      <c r="R44" t="s" s="141">
         <v>10</v>
       </c>
     </row>
@@ -9038,38 +8808,35 @@
       <c r="A45" s="112">
         <v>-4</v>
       </c>
-      <c r="B45" t="s" s="153">
-        <v>142</v>
-      </c>
-      <c r="C45" s="40"/>
-      <c r="D45" t="s" s="149">
-        <v>188</v>
-      </c>
-      <c r="E45" t="s" s="149">
-        <v>192</v>
-      </c>
-      <c r="F45" s="39"/>
+      <c r="B45" s="84"/>
+      <c r="C45" t="s" s="141">
+        <v>189</v>
+      </c>
+      <c r="D45" t="s" s="141">
+        <v>193</v>
+      </c>
+      <c r="E45" s="39"/>
+      <c r="F45" s="11"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="150">
+      <c r="H45" s="40"/>
+      <c r="I45" s="142">
         <v>368874</v>
       </c>
-      <c r="K45" s="84"/>
-      <c r="L45" s="150">
+      <c r="J45" s="84"/>
+      <c r="K45" s="142">
         <v>370000</v>
       </c>
-      <c r="M45" s="151"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="152">
+      <c r="L45" s="143"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="144">
         <v>0.996956756756757</v>
       </c>
-      <c r="Q45" s="84"/>
-      <c r="R45" s="152">
+      <c r="P45" s="84"/>
+      <c r="Q45" s="144">
         <v>0.126180758017493</v>
       </c>
-      <c r="S45" t="s" s="149">
+      <c r="R45" t="s" s="141">
         <v>10</v>
       </c>
     </row>
@@ -9077,38 +8844,35 @@
       <c r="A46" s="112">
         <v>-4</v>
       </c>
-      <c r="B46" t="s" s="153">
-        <v>142</v>
-      </c>
-      <c r="C46" s="40"/>
-      <c r="D46" t="s" s="149">
-        <v>188</v>
-      </c>
-      <c r="E46" t="s" s="149">
-        <v>193</v>
-      </c>
-      <c r="F46" s="39"/>
+      <c r="B46" s="84"/>
+      <c r="C46" t="s" s="141">
+        <v>189</v>
+      </c>
+      <c r="D46" t="s" s="141">
+        <v>194</v>
+      </c>
+      <c r="E46" s="39"/>
+      <c r="F46" s="11"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="150">
+      <c r="H46" s="40"/>
+      <c r="I46" s="142">
         <v>840213</v>
       </c>
-      <c r="K46" s="84"/>
-      <c r="L46" s="150">
+      <c r="J46" s="84"/>
+      <c r="K46" s="142">
         <v>800000</v>
       </c>
-      <c r="M46" s="151"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="152">
+      <c r="L46" s="143"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="144">
         <v>1.05026625</v>
       </c>
-      <c r="Q46" s="84"/>
-      <c r="R46" s="152">
+      <c r="P46" s="84"/>
+      <c r="Q46" s="144">
         <v>0.146255697851096</v>
       </c>
-      <c r="S46" t="s" s="149">
+      <c r="R46" t="s" s="141">
         <v>10</v>
       </c>
     </row>
@@ -9116,38 +8880,35 @@
       <c r="A47" s="112">
         <v>-3</v>
       </c>
-      <c r="B47" t="s" s="153">
-        <v>142</v>
-      </c>
-      <c r="C47" s="40"/>
-      <c r="D47" t="s" s="149">
-        <v>188</v>
-      </c>
-      <c r="E47" t="s" s="149">
+      <c r="B47" s="84"/>
+      <c r="C47" t="s" s="141">
         <v>189</v>
       </c>
-      <c r="F47" s="39"/>
+      <c r="D47" t="s" s="141">
+        <v>190</v>
+      </c>
+      <c r="E47" s="39"/>
+      <c r="F47" s="11"/>
       <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="150">
+      <c r="H47" s="40"/>
+      <c r="I47" s="142">
         <v>817035</v>
       </c>
-      <c r="K47" s="84"/>
-      <c r="L47" s="150">
+      <c r="J47" s="84"/>
+      <c r="K47" s="142">
         <v>910000</v>
       </c>
-      <c r="M47" s="151"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="152">
+      <c r="L47" s="143"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="144">
         <v>0.897840659340659</v>
       </c>
-      <c r="Q47" s="84"/>
-      <c r="R47" s="152">
+      <c r="P47" s="84"/>
+      <c r="Q47" s="144">
         <v>0.0145048865715667</v>
       </c>
-      <c r="S47" t="s" s="149">
+      <c r="R47" t="s" s="141">
         <v>10</v>
       </c>
     </row>
@@ -9155,38 +8916,35 @@
       <c r="A48" s="112">
         <v>-3</v>
       </c>
-      <c r="B48" t="s" s="153">
-        <v>142</v>
-      </c>
-      <c r="C48" s="40"/>
-      <c r="D48" t="s" s="149">
-        <v>188</v>
-      </c>
-      <c r="E48" t="s" s="149">
-        <v>190</v>
-      </c>
-      <c r="F48" s="39"/>
+      <c r="B48" s="84"/>
+      <c r="C48" t="s" s="141">
+        <v>189</v>
+      </c>
+      <c r="D48" t="s" s="141">
+        <v>191</v>
+      </c>
+      <c r="E48" s="39"/>
+      <c r="F48" s="11"/>
       <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="150">
+      <c r="H48" s="40"/>
+      <c r="I48" s="142">
         <v>1214350</v>
       </c>
-      <c r="K48" s="84"/>
-      <c r="L48" s="150">
+      <c r="J48" s="84"/>
+      <c r="K48" s="142">
         <v>1350000</v>
       </c>
-      <c r="M48" s="151"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="152">
+      <c r="L48" s="143"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="144">
         <v>0.8995185185185181</v>
       </c>
-      <c r="Q48" s="84"/>
-      <c r="R48" s="152">
+      <c r="P48" s="84"/>
+      <c r="Q48" s="144">
         <v>-0.0576382426812698</v>
       </c>
-      <c r="S48" t="s" s="149">
+      <c r="R48" t="s" s="141">
         <v>10</v>
       </c>
     </row>
@@ -9194,38 +8952,35 @@
       <c r="A49" s="112">
         <v>-3</v>
       </c>
-      <c r="B49" t="s" s="153">
-        <v>142</v>
-      </c>
-      <c r="C49" s="40"/>
-      <c r="D49" t="s" s="149">
-        <v>188</v>
-      </c>
-      <c r="E49" t="s" s="149">
-        <v>191</v>
-      </c>
-      <c r="F49" s="39"/>
+      <c r="B49" s="84"/>
+      <c r="C49" t="s" s="141">
+        <v>189</v>
+      </c>
+      <c r="D49" t="s" s="141">
+        <v>192</v>
+      </c>
+      <c r="E49" s="39"/>
+      <c r="F49" s="11"/>
       <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="150">
+      <c r="H49" s="40"/>
+      <c r="I49" s="142">
         <v>248727</v>
       </c>
-      <c r="K49" s="84"/>
-      <c r="L49" s="150">
+      <c r="J49" s="84"/>
+      <c r="K49" s="142">
         <v>275000</v>
       </c>
-      <c r="M49" s="151"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="152">
+      <c r="L49" s="143"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="144">
         <v>0.904461818181818</v>
       </c>
-      <c r="Q49" s="84"/>
-      <c r="R49" s="152">
+      <c r="P49" s="84"/>
+      <c r="Q49" s="144">
         <v>0.081824651123521</v>
       </c>
-      <c r="S49" t="s" s="149">
+      <c r="R49" t="s" s="141">
         <v>10</v>
       </c>
     </row>
@@ -9233,38 +8988,35 @@
       <c r="A50" s="112">
         <v>-3</v>
       </c>
-      <c r="B50" t="s" s="153">
-        <v>142</v>
-      </c>
-      <c r="C50" s="40"/>
-      <c r="D50" t="s" s="149">
-        <v>188</v>
-      </c>
-      <c r="E50" t="s" s="149">
-        <v>192</v>
-      </c>
-      <c r="F50" s="39"/>
+      <c r="B50" s="84"/>
+      <c r="C50" t="s" s="141">
+        <v>189</v>
+      </c>
+      <c r="D50" t="s" s="141">
+        <v>193</v>
+      </c>
+      <c r="E50" s="39"/>
+      <c r="F50" s="11"/>
       <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="150">
+      <c r="H50" s="40"/>
+      <c r="I50" s="142">
         <v>281993</v>
       </c>
-      <c r="K50" s="84"/>
-      <c r="L50" s="150">
+      <c r="J50" s="84"/>
+      <c r="K50" s="142">
         <v>300000</v>
       </c>
-      <c r="M50" s="151"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="152">
+      <c r="L50" s="143"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="144">
         <v>0.939976666666667</v>
       </c>
-      <c r="Q50" s="84"/>
-      <c r="R50" s="152">
+      <c r="P50" s="84"/>
+      <c r="Q50" s="144">
         <v>-0.122570418414641</v>
       </c>
-      <c r="S50" t="s" s="149">
+      <c r="R50" t="s" s="141">
         <v>10</v>
       </c>
     </row>
@@ -9272,38 +9024,35 @@
       <c r="A51" s="112">
         <v>-3</v>
       </c>
-      <c r="B51" t="s" s="153">
-        <v>142</v>
-      </c>
-      <c r="C51" s="40"/>
-      <c r="D51" t="s" s="149">
-        <v>188</v>
-      </c>
-      <c r="E51" t="s" s="149">
-        <v>193</v>
-      </c>
-      <c r="F51" s="39"/>
+      <c r="B51" s="84"/>
+      <c r="C51" t="s" s="141">
+        <v>189</v>
+      </c>
+      <c r="D51" t="s" s="141">
+        <v>194</v>
+      </c>
+      <c r="E51" s="39"/>
+      <c r="F51" s="11"/>
       <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="150">
+      <c r="H51" s="40"/>
+      <c r="I51" s="142">
         <v>626706</v>
       </c>
-      <c r="K51" s="84"/>
-      <c r="L51" s="150">
+      <c r="J51" s="84"/>
+      <c r="K51" s="142">
         <v>730000</v>
       </c>
-      <c r="M51" s="151"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="152">
+      <c r="L51" s="143"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="144">
         <v>0.858501369863014</v>
       </c>
-      <c r="Q51" s="84"/>
-      <c r="R51" s="152">
+      <c r="P51" s="84"/>
+      <c r="Q51" s="144">
         <v>-0.0376556152326609</v>
       </c>
-      <c r="S51" t="s" s="149">
+      <c r="R51" t="s" s="141">
         <v>10</v>
       </c>
     </row>
@@ -9311,38 +9060,35 @@
       <c r="A52" s="112">
         <v>-2</v>
       </c>
-      <c r="B52" t="s" s="153">
-        <v>142</v>
-      </c>
-      <c r="C52" s="40"/>
-      <c r="D52" t="s" s="149">
-        <v>188</v>
-      </c>
-      <c r="E52" t="s" s="149">
+      <c r="B52" s="84"/>
+      <c r="C52" t="s" s="141">
         <v>189</v>
       </c>
-      <c r="F52" s="39"/>
+      <c r="D52" t="s" s="141">
+        <v>190</v>
+      </c>
+      <c r="E52" s="39"/>
+      <c r="F52" s="11"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="150">
+      <c r="H52" s="40"/>
+      <c r="I52" s="142">
         <v>828886</v>
       </c>
-      <c r="K52" s="84"/>
-      <c r="L52" s="150">
+      <c r="J52" s="84"/>
+      <c r="K52" s="142">
         <v>860000</v>
       </c>
-      <c r="M52" s="151"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="152">
+      <c r="L52" s="143"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="144">
         <v>0.963820930232558</v>
       </c>
-      <c r="Q52" s="84"/>
-      <c r="R52" s="152">
+      <c r="P52" s="84"/>
+      <c r="Q52" s="144">
         <v>0.0145048865715667</v>
       </c>
-      <c r="S52" t="s" s="149">
+      <c r="R52" t="s" s="141">
         <v>10</v>
       </c>
     </row>
@@ -9350,38 +9096,35 @@
       <c r="A53" s="112">
         <v>-2</v>
       </c>
-      <c r="B53" t="s" s="153">
-        <v>142</v>
-      </c>
-      <c r="C53" s="40"/>
-      <c r="D53" t="s" s="149">
-        <v>188</v>
-      </c>
-      <c r="E53" t="s" s="149">
-        <v>190</v>
-      </c>
-      <c r="F53" s="39"/>
+      <c r="B53" s="84"/>
+      <c r="C53" t="s" s="141">
+        <v>189</v>
+      </c>
+      <c r="D53" t="s" s="141">
+        <v>191</v>
+      </c>
+      <c r="E53" s="39"/>
+      <c r="F53" s="11"/>
       <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="150">
+      <c r="H53" s="40"/>
+      <c r="I53" s="142">
         <v>1144357</v>
       </c>
-      <c r="K53" s="84"/>
-      <c r="L53" s="150">
+      <c r="J53" s="84"/>
+      <c r="K53" s="142">
         <v>1250000</v>
       </c>
-      <c r="M53" s="151"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="152">
+      <c r="L53" s="143"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="144">
         <v>0.9154856</v>
       </c>
-      <c r="Q53" s="84"/>
-      <c r="R53" s="152">
+      <c r="P53" s="84"/>
+      <c r="Q53" s="144">
         <v>-0.0576382426812698</v>
       </c>
-      <c r="S53" t="s" s="149">
+      <c r="R53" t="s" s="141">
         <v>10</v>
       </c>
     </row>
@@ -9389,38 +9132,35 @@
       <c r="A54" s="112">
         <v>-2</v>
       </c>
-      <c r="B54" t="s" s="153">
-        <v>142</v>
-      </c>
-      <c r="C54" s="40"/>
-      <c r="D54" t="s" s="149">
-        <v>188</v>
-      </c>
-      <c r="E54" t="s" s="149">
-        <v>191</v>
-      </c>
-      <c r="F54" s="39"/>
+      <c r="B54" s="84"/>
+      <c r="C54" t="s" s="141">
+        <v>189</v>
+      </c>
+      <c r="D54" t="s" s="141">
+        <v>192</v>
+      </c>
+      <c r="E54" s="39"/>
+      <c r="F54" s="11"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="150">
+      <c r="H54" s="40"/>
+      <c r="I54" s="142">
         <v>269079</v>
       </c>
-      <c r="K54" s="84"/>
-      <c r="L54" s="150">
+      <c r="J54" s="84"/>
+      <c r="K54" s="142">
         <v>275000</v>
       </c>
-      <c r="M54" s="151"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="152">
+      <c r="L54" s="143"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="144">
         <v>0.978469090909091</v>
       </c>
-      <c r="Q54" s="84"/>
-      <c r="R54" s="152">
+      <c r="P54" s="84"/>
+      <c r="Q54" s="144">
         <v>0.081824651123521</v>
       </c>
-      <c r="S54" t="s" s="149">
+      <c r="R54" t="s" s="141">
         <v>10</v>
       </c>
     </row>
@@ -9428,38 +9168,35 @@
       <c r="A55" s="112">
         <v>-2</v>
       </c>
-      <c r="B55" t="s" s="153">
-        <v>142</v>
-      </c>
-      <c r="C55" s="40"/>
-      <c r="D55" t="s" s="149">
-        <v>188</v>
-      </c>
-      <c r="E55" t="s" s="149">
-        <v>192</v>
-      </c>
-      <c r="F55" s="39"/>
+      <c r="B55" s="84"/>
+      <c r="C55" t="s" s="141">
+        <v>189</v>
+      </c>
+      <c r="D55" t="s" s="141">
+        <v>193</v>
+      </c>
+      <c r="E55" s="39"/>
+      <c r="F55" s="11"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="150">
+      <c r="H55" s="40"/>
+      <c r="I55" s="142">
         <v>247429</v>
       </c>
-      <c r="K55" s="84"/>
-      <c r="L55" s="150">
+      <c r="J55" s="84"/>
+      <c r="K55" s="142">
         <v>270000</v>
       </c>
-      <c r="M55" s="151"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="152">
+      <c r="L55" s="143"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="144">
         <v>0.9164037037037041</v>
       </c>
-      <c r="Q55" s="84"/>
-      <c r="R55" s="152">
+      <c r="P55" s="84"/>
+      <c r="Q55" s="144">
         <v>-0.122570418414641</v>
       </c>
-      <c r="S55" t="s" s="149">
+      <c r="R55" t="s" s="141">
         <v>10</v>
       </c>
     </row>
@@ -9467,233 +9204,215 @@
       <c r="A56" s="112">
         <v>-2</v>
       </c>
-      <c r="B56" t="s" s="153">
-        <v>142</v>
-      </c>
-      <c r="C56" s="40"/>
-      <c r="D56" t="s" s="149">
-        <v>188</v>
-      </c>
-      <c r="E56" t="s" s="149">
+      <c r="B56" s="84"/>
+      <c r="C56" t="s" s="141">
+        <v>189</v>
+      </c>
+      <c r="D56" t="s" s="141">
+        <v>194</v>
+      </c>
+      <c r="E56" s="39"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="142">
+        <v>603107</v>
+      </c>
+      <c r="J56" s="84"/>
+      <c r="K56" s="142">
+        <v>630000</v>
+      </c>
+      <c r="L56" s="143"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="144">
+        <v>0.9573126984126979</v>
+      </c>
+      <c r="P56" s="84"/>
+      <c r="Q56" s="144">
+        <v>-0.0376556152326609</v>
+      </c>
+      <c r="R56" t="s" s="141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" ht="13.5" customHeight="1">
+      <c r="A57" s="128">
+        <v>-1</v>
+      </c>
+      <c r="B57" s="84"/>
+      <c r="C57" t="s" s="141">
+        <v>189</v>
+      </c>
+      <c r="D57" t="s" s="141">
+        <v>190</v>
+      </c>
+      <c r="E57" s="39"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="142">
+        <v>871069</v>
+      </c>
+      <c r="J57" s="84"/>
+      <c r="K57" s="142">
+        <v>840000</v>
+      </c>
+      <c r="L57" s="143"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="144">
+        <v>1.0369869047619</v>
+      </c>
+      <c r="P57" s="84"/>
+      <c r="Q57" s="116">
+        <v>0.0508911961355361</v>
+      </c>
+      <c r="R57" t="s" s="145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" ht="13.5" customHeight="1">
+      <c r="A58" s="128">
+        <v>-1</v>
+      </c>
+      <c r="B58" s="84"/>
+      <c r="C58" t="s" s="141">
+        <v>189</v>
+      </c>
+      <c r="D58" t="s" s="141">
+        <v>191</v>
+      </c>
+      <c r="E58" s="39"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="142">
+        <v>1259704</v>
+      </c>
+      <c r="J58" s="84"/>
+      <c r="K58" s="142">
+        <v>1250000</v>
+      </c>
+      <c r="L58" s="143"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="144">
+        <v>1.0077632</v>
+      </c>
+      <c r="P58" s="84"/>
+      <c r="Q58" s="116">
+        <v>0.100796342400143</v>
+      </c>
+      <c r="R58" t="s" s="145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" ht="13.5" customHeight="1">
+      <c r="A59" s="128">
+        <v>-1</v>
+      </c>
+      <c r="B59" s="84"/>
+      <c r="C59" t="s" s="141">
+        <v>189</v>
+      </c>
+      <c r="D59" t="s" s="141">
+        <v>192</v>
+      </c>
+      <c r="E59" s="39"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="142">
+        <v>305298</v>
+      </c>
+      <c r="J59" s="84"/>
+      <c r="K59" s="142">
+        <v>275000</v>
+      </c>
+      <c r="L59" s="143"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="144">
+        <v>1.11017454545455</v>
+      </c>
+      <c r="P59" s="84"/>
+      <c r="Q59" s="116">
+        <v>0.134603592253576</v>
+      </c>
+      <c r="R59" t="s" s="145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" ht="13.5" customHeight="1">
+      <c r="A60" s="128">
+        <v>-1</v>
+      </c>
+      <c r="B60" s="84"/>
+      <c r="C60" t="s" s="141">
+        <v>189</v>
+      </c>
+      <c r="D60" t="s" s="141">
         <v>193</v>
       </c>
-      <c r="F56" s="39"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="150">
-        <v>603107</v>
-      </c>
-      <c r="K56" s="84"/>
-      <c r="L56" s="150">
-        <v>630000</v>
-      </c>
-      <c r="M56" s="151"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="152">
-        <v>0.9573126984126979</v>
-      </c>
-      <c r="Q56" s="84"/>
-      <c r="R56" s="152">
-        <v>-0.0376556152326609</v>
-      </c>
-      <c r="S56" t="s" s="149">
+      <c r="E60" s="39"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="142">
+        <v>310748</v>
+      </c>
+      <c r="J60" s="84"/>
+      <c r="K60" s="142">
+        <v>300000</v>
+      </c>
+      <c r="L60" s="143"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="144">
+        <v>1.03582666666667</v>
+      </c>
+      <c r="P60" s="84"/>
+      <c r="Q60" s="116">
+        <v>0.255907755356082</v>
+      </c>
+      <c r="R60" t="s" s="145">
         <v>10</v>
       </c>
     </row>
-    <row r="57" ht="13.5" customHeight="1">
-      <c r="A57" s="130">
+    <row r="61" ht="13.5" customHeight="1">
+      <c r="A61" s="128">
         <v>-1</v>
       </c>
-      <c r="B57" t="s" s="153">
-        <v>142</v>
-      </c>
-      <c r="C57" s="40"/>
-      <c r="D57" t="s" s="149">
-        <v>188</v>
-      </c>
-      <c r="E57" t="s" s="149">
+      <c r="B61" s="84"/>
+      <c r="C61" t="s" s="141">
         <v>189</v>
       </c>
-      <c r="F57" s="39"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="150">
-        <v>871069</v>
-      </c>
-      <c r="K57" s="84"/>
-      <c r="L57" s="150">
-        <v>840000</v>
-      </c>
-      <c r="M57" s="151"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="152">
-        <v>1.0369869047619</v>
-      </c>
-      <c r="Q57" s="84"/>
-      <c r="R57" s="116">
-        <v>0.0508911961355361</v>
-      </c>
-      <c r="S57" t="s" s="154">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" ht="13.5" customHeight="1">
-      <c r="A58" s="130">
-        <v>-1</v>
-      </c>
-      <c r="B58" t="s" s="153">
-        <v>142</v>
-      </c>
-      <c r="C58" s="40"/>
-      <c r="D58" t="s" s="149">
-        <v>188</v>
-      </c>
-      <c r="E58" t="s" s="149">
-        <v>190</v>
-      </c>
-      <c r="F58" s="39"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="150">
-        <v>1259704</v>
-      </c>
-      <c r="K58" s="84"/>
-      <c r="L58" s="150">
-        <v>1250000</v>
-      </c>
-      <c r="M58" s="151"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="152">
-        <v>1.0077632</v>
-      </c>
-      <c r="Q58" s="84"/>
-      <c r="R58" s="116">
-        <v>0.100796342400143</v>
-      </c>
-      <c r="S58" t="s" s="154">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" ht="13.5" customHeight="1">
-      <c r="A59" s="130">
-        <v>-1</v>
-      </c>
-      <c r="B59" t="s" s="153">
-        <v>142</v>
-      </c>
-      <c r="C59" s="40"/>
-      <c r="D59" t="s" s="149">
-        <v>188</v>
-      </c>
-      <c r="E59" t="s" s="149">
-        <v>191</v>
-      </c>
-      <c r="F59" s="39"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="150">
-        <v>305298</v>
-      </c>
-      <c r="K59" s="84"/>
-      <c r="L59" s="150">
-        <v>275000</v>
-      </c>
-      <c r="M59" s="151"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="152">
-        <v>1.11017454545455</v>
-      </c>
-      <c r="Q59" s="84"/>
-      <c r="R59" s="116">
-        <v>0.134603592253576</v>
-      </c>
-      <c r="S59" t="s" s="154">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" ht="13.5" customHeight="1">
-      <c r="A60" s="130">
-        <v>-1</v>
-      </c>
-      <c r="B60" t="s" s="153">
-        <v>142</v>
-      </c>
-      <c r="C60" s="40"/>
-      <c r="D60" t="s" s="149">
-        <v>188</v>
-      </c>
-      <c r="E60" t="s" s="149">
-        <v>192</v>
-      </c>
-      <c r="F60" s="39"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="150">
-        <v>310748</v>
-      </c>
-      <c r="K60" s="84"/>
-      <c r="L60" s="150">
-        <v>300000</v>
-      </c>
-      <c r="M60" s="151"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="152">
-        <v>1.03582666666667</v>
-      </c>
-      <c r="Q60" s="84"/>
-      <c r="R60" s="116">
-        <v>0.255907755356082</v>
-      </c>
-      <c r="S60" t="s" s="154">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" ht="13.5" customHeight="1">
-      <c r="A61" s="130">
-        <v>-1</v>
-      </c>
-      <c r="B61" t="s" s="155">
-        <v>142</v>
-      </c>
-      <c r="C61" s="40"/>
-      <c r="D61" t="s" s="149">
-        <v>188</v>
-      </c>
-      <c r="E61" t="s" s="149">
-        <v>193</v>
-      </c>
-      <c r="F61" s="39"/>
+      <c r="D61" t="s" s="141">
+        <v>194</v>
+      </c>
+      <c r="E61" s="39"/>
+      <c r="F61" s="11"/>
       <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="150">
+      <c r="H61" s="40"/>
+      <c r="I61" s="142">
         <v>806400</v>
       </c>
-      <c r="K61" s="84"/>
-      <c r="L61" s="150">
+      <c r="J61" s="84"/>
+      <c r="K61" s="142">
         <v>685000</v>
       </c>
-      <c r="M61" s="151"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="152">
+      <c r="L61" s="143"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="144">
         <v>1.17722627737226</v>
       </c>
-      <c r="Q61" s="84"/>
-      <c r="R61" s="116">
+      <c r="P61" s="84"/>
+      <c r="Q61" s="116">
         <v>0.337076173879594</v>
       </c>
-      <c r="S61" t="s" s="154">
+      <c r="R61" t="s" s="145">
         <v>10</v>
       </c>
     </row>
@@ -9701,36 +9420,33 @@
       <c r="A62" s="112">
         <v>-4</v>
       </c>
-      <c r="B62" t="s" s="154">
-        <v>140</v>
-      </c>
-      <c r="C62" s="84"/>
-      <c r="D62" t="s" s="156">
-        <v>194</v>
-      </c>
-      <c r="E62" s="157"/>
+      <c r="B62" s="84"/>
+      <c r="C62" t="s" s="146">
+        <v>195</v>
+      </c>
+      <c r="D62" s="147"/>
+      <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="158">
+      <c r="H62" s="40"/>
+      <c r="I62" s="148">
         <v>4098598</v>
       </c>
-      <c r="K62" s="84"/>
-      <c r="L62" s="158">
+      <c r="J62" s="84"/>
+      <c r="K62" s="148">
         <v>3980000</v>
       </c>
-      <c r="M62" s="159"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="160">
+      <c r="L62" s="149"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="40"/>
+      <c r="O62" s="150">
         <v>1.02979849246231</v>
       </c>
-      <c r="Q62" s="84"/>
-      <c r="R62" s="158">
+      <c r="P62" s="84"/>
+      <c r="Q62" s="148">
         <v>0.132072104234243</v>
       </c>
-      <c r="S62" t="s" s="156">
+      <c r="R62" t="s" s="146">
         <v>8</v>
       </c>
     </row>
@@ -9738,36 +9454,33 @@
       <c r="A63" s="112">
         <v>-4</v>
       </c>
-      <c r="B63" t="s" s="154">
-        <v>140</v>
-      </c>
-      <c r="C63" s="84"/>
-      <c r="D63" t="s" s="156">
-        <v>195</v>
-      </c>
-      <c r="E63" s="39"/>
+      <c r="B63" s="84"/>
+      <c r="C63" t="s" s="146">
+        <v>196</v>
+      </c>
+      <c r="D63" s="39"/>
+      <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="158">
+      <c r="H63" s="40"/>
+      <c r="I63" s="148">
         <v>728487</v>
       </c>
-      <c r="K63" s="84"/>
-      <c r="L63" s="158">
+      <c r="J63" s="84"/>
+      <c r="K63" s="148">
         <v>655000</v>
       </c>
-      <c r="M63" s="159"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="160">
+      <c r="L63" s="149"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="150">
         <v>1.11219389312977</v>
       </c>
-      <c r="Q63" s="84"/>
-      <c r="R63" s="158">
+      <c r="P63" s="84"/>
+      <c r="Q63" s="148">
         <v>0.277815753907202</v>
       </c>
-      <c r="S63" t="s" s="156">
+      <c r="R63" t="s" s="146">
         <v>8</v>
       </c>
     </row>
@@ -9775,36 +9488,33 @@
       <c r="A64" s="112">
         <v>-4</v>
       </c>
-      <c r="B64" t="s" s="154">
-        <v>140</v>
-      </c>
-      <c r="C64" s="84"/>
-      <c r="D64" t="s" s="156">
-        <v>196</v>
-      </c>
-      <c r="E64" s="39"/>
+      <c r="B64" s="84"/>
+      <c r="C64" t="s" s="146">
+        <v>197</v>
+      </c>
+      <c r="D64" s="39"/>
+      <c r="E64" s="11"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="158">
+      <c r="H64" s="40"/>
+      <c r="I64" s="148">
         <v>2576862</v>
       </c>
-      <c r="K64" s="84"/>
-      <c r="L64" s="158">
+      <c r="J64" s="84"/>
+      <c r="K64" s="148">
         <v>2610000</v>
       </c>
-      <c r="M64" s="159"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="40"/>
-      <c r="P64" s="160">
+      <c r="L64" s="149"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="40"/>
+      <c r="O64" s="150">
         <v>0.987303448275862</v>
       </c>
-      <c r="Q64" s="84"/>
-      <c r="R64" s="158">
+      <c r="P64" s="84"/>
+      <c r="Q64" s="148">
         <v>0.09925064051998669</v>
       </c>
-      <c r="S64" t="s" s="156">
+      <c r="R64" t="s" s="146">
         <v>8</v>
       </c>
     </row>
@@ -9812,36 +9522,33 @@
       <c r="A65" s="112">
         <v>-3</v>
       </c>
-      <c r="B65" t="s" s="154">
-        <v>140</v>
-      </c>
-      <c r="C65" s="84"/>
-      <c r="D65" t="s" s="156">
-        <v>194</v>
-      </c>
-      <c r="E65" s="39"/>
+      <c r="B65" s="84"/>
+      <c r="C65" t="s" s="146">
+        <v>195</v>
+      </c>
+      <c r="D65" s="39"/>
+      <c r="E65" s="11"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="158">
+      <c r="H65" s="40"/>
+      <c r="I65" s="148">
         <v>3188812</v>
       </c>
-      <c r="K65" s="84"/>
-      <c r="L65" s="158">
+      <c r="J65" s="84"/>
+      <c r="K65" s="148">
         <v>3565000</v>
       </c>
-      <c r="M65" s="159"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="40"/>
-      <c r="P65" s="160">
+      <c r="L65" s="149"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="150">
         <v>0.894477419354839</v>
       </c>
-      <c r="Q65" s="84"/>
-      <c r="R65" s="158">
+      <c r="P65" s="84"/>
+      <c r="Q65" s="148">
         <v>-0.221974928987912</v>
       </c>
-      <c r="S65" t="s" s="156">
+      <c r="R65" t="s" s="146">
         <v>8</v>
       </c>
     </row>
@@ -9849,36 +9556,33 @@
       <c r="A66" s="112">
         <v>-3</v>
       </c>
-      <c r="B66" t="s" s="154">
-        <v>140</v>
-      </c>
-      <c r="C66" s="84"/>
-      <c r="D66" t="s" s="156">
-        <v>195</v>
-      </c>
-      <c r="E66" s="39"/>
+      <c r="B66" s="84"/>
+      <c r="C66" t="s" s="146">
+        <v>196</v>
+      </c>
+      <c r="D66" s="39"/>
+      <c r="E66" s="11"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="158">
+      <c r="H66" s="40"/>
+      <c r="I66" s="148">
         <v>560064</v>
       </c>
-      <c r="K66" s="84"/>
-      <c r="L66" s="158">
+      <c r="J66" s="84"/>
+      <c r="K66" s="148">
         <v>615000</v>
       </c>
-      <c r="M66" s="159"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="40"/>
-      <c r="P66" s="160">
+      <c r="L66" s="149"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="40"/>
+      <c r="O66" s="150">
         <v>0.9106731707317069</v>
       </c>
-      <c r="Q66" s="84"/>
-      <c r="R66" s="158">
+      <c r="P66" s="84"/>
+      <c r="Q66" s="148">
         <v>-0.23119561502127</v>
       </c>
-      <c r="S66" t="s" s="156">
+      <c r="R66" t="s" s="146">
         <v>8</v>
       </c>
     </row>
@@ -9886,36 +9590,33 @@
       <c r="A67" s="112">
         <v>-3</v>
       </c>
-      <c r="B67" t="s" s="154">
-        <v>140</v>
-      </c>
-      <c r="C67" s="84"/>
-      <c r="D67" t="s" s="156">
-        <v>196</v>
-      </c>
-      <c r="E67" s="39"/>
+      <c r="B67" s="84"/>
+      <c r="C67" t="s" s="146">
+        <v>197</v>
+      </c>
+      <c r="D67" s="39"/>
+      <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="158">
+      <c r="H67" s="40"/>
+      <c r="I67" s="148">
         <v>2293022</v>
       </c>
-      <c r="K67" s="84"/>
-      <c r="L67" s="158">
+      <c r="J67" s="84"/>
+      <c r="K67" s="148">
         <v>2365000</v>
       </c>
-      <c r="M67" s="159"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="40"/>
-      <c r="P67" s="160">
+      <c r="L67" s="149"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="40"/>
+      <c r="O67" s="150">
         <v>0.96956532769556</v>
       </c>
-      <c r="Q67" s="84"/>
-      <c r="R67" s="158">
+      <c r="P67" s="84"/>
+      <c r="Q67" s="148">
         <v>-0.110149476378634</v>
       </c>
-      <c r="S67" t="s" s="156">
+      <c r="R67" t="s" s="146">
         <v>8</v>
       </c>
     </row>
@@ -9923,36 +9624,33 @@
       <c r="A68" s="112">
         <v>-2</v>
       </c>
-      <c r="B68" t="s" s="154">
-        <v>140</v>
-      </c>
-      <c r="C68" s="84"/>
-      <c r="D68" t="s" s="156">
-        <v>194</v>
-      </c>
-      <c r="E68" s="39"/>
+      <c r="B68" s="84"/>
+      <c r="C68" t="s" s="146">
+        <v>195</v>
+      </c>
+      <c r="D68" s="39"/>
+      <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="158">
+      <c r="H68" s="40"/>
+      <c r="I68" s="148">
         <v>3092857</v>
       </c>
-      <c r="K68" s="84"/>
-      <c r="L68" s="158">
+      <c r="J68" s="84"/>
+      <c r="K68" s="148">
         <v>3285000</v>
       </c>
-      <c r="M68" s="159"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="40"/>
-      <c r="P68" s="160">
+      <c r="L68" s="149"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="150">
         <v>0.94150898021309</v>
       </c>
-      <c r="Q68" s="84"/>
-      <c r="R68" s="158">
+      <c r="P68" s="84"/>
+      <c r="Q68" s="148">
         <v>-0.0300911436610248</v>
       </c>
-      <c r="S68" t="s" s="156">
+      <c r="R68" t="s" s="146">
         <v>8</v>
       </c>
     </row>
@@ -9960,36 +9658,33 @@
       <c r="A69" s="112">
         <v>-2</v>
       </c>
-      <c r="B69" t="s" s="154">
-        <v>140</v>
-      </c>
-      <c r="C69" s="84"/>
-      <c r="D69" t="s" s="156">
-        <v>195</v>
-      </c>
-      <c r="E69" s="39"/>
+      <c r="B69" s="84"/>
+      <c r="C69" t="s" s="146">
+        <v>196</v>
+      </c>
+      <c r="D69" s="39"/>
+      <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="158">
+      <c r="H69" s="40"/>
+      <c r="I69" s="148">
         <v>792494</v>
       </c>
-      <c r="K69" s="84"/>
-      <c r="L69" s="158">
+      <c r="J69" s="84"/>
+      <c r="K69" s="148">
         <v>615000</v>
       </c>
-      <c r="M69" s="159"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="40"/>
-      <c r="P69" s="160">
+      <c r="L69" s="149"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="150">
         <v>1.2886081300813</v>
       </c>
-      <c r="Q69" s="84"/>
-      <c r="R69" s="158">
+      <c r="P69" s="84"/>
+      <c r="Q69" s="148">
         <v>0.415006142155182</v>
       </c>
-      <c r="S69" t="s" s="156">
+      <c r="R69" t="s" s="146">
         <v>8</v>
       </c>
     </row>
@@ -9997,147 +9692,135 @@
       <c r="A70" s="112">
         <v>-2</v>
       </c>
-      <c r="B70" t="s" s="154">
-        <v>140</v>
-      </c>
-      <c r="C70" s="84"/>
-      <c r="D70" t="s" s="156">
-        <v>196</v>
-      </c>
-      <c r="E70" s="39"/>
+      <c r="B70" s="84"/>
+      <c r="C70" t="s" s="146">
+        <v>197</v>
+      </c>
+      <c r="D70" s="39"/>
+      <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="158">
+      <c r="H70" s="40"/>
+      <c r="I70" s="148">
         <v>2263056</v>
       </c>
-      <c r="K70" s="84"/>
-      <c r="L70" s="158">
+      <c r="J70" s="84"/>
+      <c r="K70" s="148">
         <v>2345000</v>
       </c>
-      <c r="M70" s="159"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="40"/>
-      <c r="P70" s="160">
+      <c r="L70" s="149"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="40"/>
+      <c r="O70" s="150">
         <v>0.9650558635394459</v>
       </c>
-      <c r="Q70" s="84"/>
-      <c r="R70" s="158">
+      <c r="P70" s="84"/>
+      <c r="Q70" s="148">
         <v>-0.0130683438711011</v>
       </c>
-      <c r="S70" t="s" s="156">
+      <c r="R70" t="s" s="146">
         <v>8</v>
       </c>
     </row>
     <row r="71" ht="13.5" customHeight="1">
-      <c r="A71" s="130">
+      <c r="A71" s="128">
         <v>-1</v>
       </c>
-      <c r="B71" t="s" s="154">
-        <v>140</v>
-      </c>
-      <c r="C71" s="84"/>
-      <c r="D71" t="s" s="156">
-        <v>194</v>
-      </c>
-      <c r="E71" s="39"/>
+      <c r="B71" s="84"/>
+      <c r="C71" t="s" s="146">
+        <v>195</v>
+      </c>
+      <c r="D71" s="39"/>
+      <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="158">
+      <c r="H71" s="40"/>
+      <c r="I71" s="148">
         <v>3553219</v>
       </c>
-      <c r="K71" s="84"/>
-      <c r="L71" s="158">
+      <c r="J71" s="84"/>
+      <c r="K71" s="148">
         <v>3350000</v>
       </c>
-      <c r="M71" s="159"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="40"/>
-      <c r="P71" s="160">
+      <c r="L71" s="149"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="40"/>
+      <c r="O71" s="150">
         <v>1.0606623880597</v>
       </c>
-      <c r="Q71" s="84"/>
-      <c r="R71" s="158">
+      <c r="P71" s="84"/>
+      <c r="Q71" s="148">
         <v>0.148846842902856</v>
       </c>
-      <c r="S71" t="s" s="156">
+      <c r="R71" t="s" s="146">
         <v>8</v>
       </c>
     </row>
     <row r="72" ht="13.5" customHeight="1">
-      <c r="A72" s="130">
+      <c r="A72" s="128">
         <v>-1</v>
       </c>
-      <c r="B72" t="s" s="154">
-        <v>140</v>
-      </c>
-      <c r="C72" s="84"/>
-      <c r="D72" t="s" s="156">
-        <v>195</v>
-      </c>
-      <c r="E72" s="39"/>
+      <c r="B72" s="84"/>
+      <c r="C72" t="s" s="146">
+        <v>196</v>
+      </c>
+      <c r="D72" s="39"/>
+      <c r="E72" s="11"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="158">
+      <c r="H72" s="40"/>
+      <c r="I72" s="148">
         <v>2475498</v>
       </c>
-      <c r="K72" s="84"/>
-      <c r="L72" s="158">
+      <c r="J72" s="84"/>
+      <c r="K72" s="148">
         <v>2035000</v>
       </c>
-      <c r="M72" s="159"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="40"/>
-      <c r="P72" s="160">
+      <c r="L72" s="149"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="40"/>
+      <c r="O72" s="150">
         <v>1.21646093366093</v>
       </c>
-      <c r="Q72" s="84"/>
-      <c r="R72" s="158">
+      <c r="P72" s="84"/>
+      <c r="Q72" s="148">
         <v>2.12368043164996</v>
       </c>
-      <c r="S72" t="s" s="156">
+      <c r="R72" t="s" s="146">
         <v>8</v>
       </c>
     </row>
     <row r="73" ht="13.5" customHeight="1">
-      <c r="A73" s="130">
+      <c r="A73" s="128">
         <v>-1</v>
       </c>
-      <c r="B73" t="s" s="154">
-        <v>140</v>
-      </c>
-      <c r="C73" s="161"/>
-      <c r="D73" t="s" s="156">
-        <v>196</v>
-      </c>
-      <c r="E73" s="162"/>
+      <c r="B73" s="151"/>
+      <c r="C73" t="s" s="146">
+        <v>197</v>
+      </c>
+      <c r="D73" s="152"/>
+      <c r="E73" s="70"/>
       <c r="F73" s="70"/>
       <c r="G73" s="70"/>
-      <c r="H73" s="70"/>
-      <c r="I73" s="163"/>
-      <c r="J73" s="158">
+      <c r="H73" s="153"/>
+      <c r="I73" s="148">
         <v>860533</v>
       </c>
-      <c r="K73" s="161"/>
-      <c r="L73" s="158">
+      <c r="J73" s="151"/>
+      <c r="K73" s="148">
         <v>1135000</v>
       </c>
-      <c r="M73" s="164"/>
-      <c r="N73" s="70"/>
-      <c r="O73" s="163"/>
-      <c r="P73" s="160">
+      <c r="L73" s="154"/>
+      <c r="M73" s="70"/>
+      <c r="N73" s="153"/>
+      <c r="O73" s="150">
         <v>0.758178854625551</v>
       </c>
-      <c r="Q73" s="161"/>
-      <c r="R73" s="158">
+      <c r="P73" s="151"/>
+      <c r="Q73" s="148">
         <v>-0.619747368160576</v>
       </c>
-      <c r="S73" t="s" s="156">
+      <c r="R73" t="s" s="146">
         <v>8</v>
       </c>
     </row>
@@ -10161,8 +9844,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="165" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="165" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="155" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="155" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -10173,83 +9856,83 @@
         <v>23</v>
       </c>
       <c r="C1" t="s" s="27">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D1" t="s" s="27">
-        <v>198</v>
-      </c>
-      <c r="E1" s="166"/>
+        <v>199</v>
+      </c>
+      <c r="E1" s="156"/>
     </row>
     <row r="2" ht="36" customHeight="1">
-      <c r="A2" t="s" s="167">
-        <v>199</v>
-      </c>
-      <c r="B2" t="s" s="168">
+      <c r="A2" t="s" s="157">
         <v>200</v>
+      </c>
+      <c r="B2" t="s" s="158">
+        <v>201</v>
       </c>
       <c r="C2" s="102">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="168">
-        <v>201</v>
-      </c>
-      <c r="E2" s="169"/>
+      <c r="D2" t="s" s="158">
+        <v>202</v>
+      </c>
+      <c r="E2" s="159"/>
     </row>
     <row r="3" ht="20.1" customHeight="1">
       <c r="A3" s="107"/>
       <c r="B3" s="98"/>
       <c r="C3" s="98"/>
       <c r="D3" s="98"/>
-      <c r="E3" s="169"/>
+      <c r="E3" s="159"/>
     </row>
     <row r="4" ht="20.1" customHeight="1">
       <c r="A4" s="107"/>
       <c r="B4" s="98"/>
       <c r="C4" s="98"/>
       <c r="D4" s="98"/>
-      <c r="E4" s="169"/>
+      <c r="E4" s="159"/>
     </row>
     <row r="5" ht="20.1" customHeight="1">
       <c r="A5" s="107"/>
       <c r="B5" s="98"/>
       <c r="C5" s="98"/>
       <c r="D5" s="98"/>
-      <c r="E5" s="169"/>
+      <c r="E5" s="159"/>
     </row>
     <row r="6" ht="20.1" customHeight="1">
       <c r="A6" s="107"/>
       <c r="B6" s="98"/>
       <c r="C6" s="98"/>
       <c r="D6" s="98"/>
-      <c r="E6" s="169"/>
+      <c r="E6" s="159"/>
     </row>
     <row r="7" ht="20.1" customHeight="1">
       <c r="A7" s="107"/>
       <c r="B7" s="98"/>
       <c r="C7" s="98"/>
       <c r="D7" s="98"/>
-      <c r="E7" s="169"/>
+      <c r="E7" s="159"/>
     </row>
     <row r="8" ht="20.1" customHeight="1">
       <c r="A8" s="107"/>
       <c r="B8" s="98"/>
       <c r="C8" s="98"/>
       <c r="D8" s="98"/>
-      <c r="E8" s="169"/>
+      <c r="E8" s="159"/>
     </row>
     <row r="9" ht="20.1" customHeight="1">
       <c r="A9" s="107"/>
       <c r="B9" s="98"/>
       <c r="C9" s="98"/>
       <c r="D9" s="98"/>
-      <c r="E9" s="169"/>
+      <c r="E9" s="159"/>
     </row>
     <row r="10" ht="20.1" customHeight="1">
       <c r="A10" s="107"/>
       <c r="B10" s="98"/>
       <c r="C10" s="98"/>
       <c r="D10" s="98"/>
-      <c r="E10" s="170"/>
+      <c r="E10" s="160"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -10268,11 +9951,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13" style="171" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="171" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="171" customWidth="1"/>
-    <col min="4" max="6" width="8.85156" style="171" customWidth="1"/>
-    <col min="7" max="256" width="8.85156" style="171" customWidth="1"/>
+    <col min="1" max="1" width="13" style="161" customWidth="1"/>
+    <col min="2" max="2" width="8.85156" style="161" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="161" customWidth="1"/>
+    <col min="4" max="6" width="8.85156" style="161" customWidth="1"/>
+    <col min="7" max="256" width="8.85156" style="161" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1">
@@ -10283,322 +9966,322 @@
         <v>29</v>
       </c>
       <c r="C1" t="s" s="27">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D1" t="s" s="27">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E1" t="s" s="27">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F1" t="s" s="27">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" ht="14.65" customHeight="1">
-      <c r="A2" t="s" s="172">
-        <v>206</v>
-      </c>
-      <c r="B2" t="s" s="173">
+      <c r="A2" t="s" s="162">
         <v>207</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
+      <c r="B2" t="s" s="163">
+        <v>208</v>
+      </c>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
     </row>
     <row r="3" ht="14.65" customHeight="1">
-      <c r="A3" t="s" s="172">
-        <v>206</v>
-      </c>
-      <c r="B3" t="s" s="175">
-        <v>208</v>
-      </c>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
+      <c r="A3" t="s" s="162">
+        <v>207</v>
+      </c>
+      <c r="B3" t="s" s="165">
+        <v>209</v>
+      </c>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
     </row>
     <row r="4" ht="14.65" customHeight="1">
-      <c r="A4" t="s" s="173">
-        <v>206</v>
-      </c>
-      <c r="B4" t="s" s="175">
-        <v>209</v>
-      </c>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
+      <c r="A4" t="s" s="163">
+        <v>207</v>
+      </c>
+      <c r="B4" t="s" s="165">
+        <v>210</v>
+      </c>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
     </row>
     <row r="5" ht="50.65" customHeight="1">
-      <c r="A5" t="s" s="175">
-        <v>210</v>
-      </c>
-      <c r="B5" t="s" s="175">
+      <c r="A5" t="s" s="165">
         <v>211</v>
       </c>
-      <c r="C5" t="s" s="178">
+      <c r="B5" t="s" s="165">
         <v>212</v>
       </c>
-      <c r="D5" s="179"/>
-      <c r="E5" t="s" s="180">
+      <c r="C5" t="s" s="168">
         <v>213</v>
       </c>
-      <c r="F5" t="s" s="181">
+      <c r="D5" s="169"/>
+      <c r="E5" t="s" s="170">
         <v>214</v>
       </c>
+      <c r="F5" t="s" s="171">
+        <v>215</v>
+      </c>
     </row>
     <row r="6" ht="50.65" customHeight="1">
-      <c r="A6" t="s" s="175">
-        <v>210</v>
-      </c>
-      <c r="B6" t="s" s="175">
-        <v>215</v>
-      </c>
-      <c r="C6" t="s" s="178">
+      <c r="A6" t="s" s="165">
+        <v>211</v>
+      </c>
+      <c r="B6" t="s" s="165">
+        <v>216</v>
+      </c>
+      <c r="C6" t="s" s="168">
+        <v>213</v>
+      </c>
+      <c r="D6" s="169"/>
+      <c r="E6" t="s" s="170">
+        <v>217</v>
+      </c>
+      <c r="F6" t="s" s="171">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" ht="50.65" customHeight="1">
+      <c r="A7" t="s" s="165">
+        <v>211</v>
+      </c>
+      <c r="B7" t="s" s="165">
+        <v>219</v>
+      </c>
+      <c r="C7" t="s" s="168">
+        <v>213</v>
+      </c>
+      <c r="D7" s="169"/>
+      <c r="E7" t="s" s="170">
+        <v>220</v>
+      </c>
+      <c r="F7" t="s" s="171">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" ht="50.65" customHeight="1">
+      <c r="A8" t="s" s="165">
+        <v>222</v>
+      </c>
+      <c r="B8" t="s" s="165">
         <v>212</v>
       </c>
-      <c r="D6" s="179"/>
-      <c r="E6" t="s" s="180">
+      <c r="C8" t="s" s="168">
+        <v>223</v>
+      </c>
+      <c r="D8" s="169"/>
+      <c r="E8" t="s" s="170">
+        <v>224</v>
+      </c>
+      <c r="F8" t="s" s="172">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" ht="50.65" customHeight="1">
+      <c r="A9" t="s" s="165">
+        <v>222</v>
+      </c>
+      <c r="B9" t="s" s="165">
         <v>216</v>
       </c>
-      <c r="F6" t="s" s="181">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" ht="50.65" customHeight="1">
-      <c r="A7" t="s" s="175">
-        <v>210</v>
-      </c>
-      <c r="B7" t="s" s="175">
-        <v>218</v>
-      </c>
-      <c r="C7" t="s" s="178">
+      <c r="C9" t="s" s="168">
+        <v>223</v>
+      </c>
+      <c r="D9" s="169"/>
+      <c r="E9" t="s" s="170">
+        <v>226</v>
+      </c>
+      <c r="F9" t="s" s="173">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" ht="50.65" customHeight="1">
+      <c r="A10" t="s" s="165">
+        <v>222</v>
+      </c>
+      <c r="B10" t="s" s="165">
+        <v>219</v>
+      </c>
+      <c r="C10" t="s" s="168">
+        <v>223</v>
+      </c>
+      <c r="D10" s="169"/>
+      <c r="E10" t="s" s="170">
+        <v>228</v>
+      </c>
+      <c r="F10" t="s" s="173">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" ht="38.65" customHeight="1">
+      <c r="A11" t="s" s="165">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s" s="165">
         <v>212</v>
       </c>
-      <c r="D7" s="179"/>
-      <c r="E7" t="s" s="180">
+      <c r="C11" t="s" s="168">
+        <v>230</v>
+      </c>
+      <c r="D11" s="169"/>
+      <c r="E11" t="s" s="170">
+        <v>231</v>
+      </c>
+      <c r="F11" t="s" s="173">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" ht="38.65" customHeight="1">
+      <c r="A12" t="s" s="165">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s" s="165">
+        <v>216</v>
+      </c>
+      <c r="C12" t="s" s="168">
+        <v>230</v>
+      </c>
+      <c r="D12" s="169"/>
+      <c r="E12" t="s" s="170">
+        <v>233</v>
+      </c>
+      <c r="F12" t="s" s="173">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" ht="38.65" customHeight="1">
+      <c r="A13" t="s" s="165">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s" s="165">
         <v>219</v>
       </c>
-      <c r="F7" t="s" s="181">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" ht="50.65" customHeight="1">
-      <c r="A8" t="s" s="175">
-        <v>221</v>
-      </c>
-      <c r="B8" t="s" s="175">
-        <v>211</v>
-      </c>
-      <c r="C8" t="s" s="178">
-        <v>222</v>
-      </c>
-      <c r="D8" s="179"/>
-      <c r="E8" t="s" s="180">
-        <v>223</v>
-      </c>
-      <c r="F8" t="s" s="182">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" ht="50.65" customHeight="1">
-      <c r="A9" t="s" s="175">
-        <v>221</v>
-      </c>
-      <c r="B9" t="s" s="175">
-        <v>215</v>
-      </c>
-      <c r="C9" t="s" s="178">
-        <v>222</v>
-      </c>
-      <c r="D9" s="179"/>
-      <c r="E9" t="s" s="180">
-        <v>225</v>
-      </c>
-      <c r="F9" t="s" s="183">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10" ht="50.65" customHeight="1">
-      <c r="A10" t="s" s="175">
-        <v>221</v>
-      </c>
-      <c r="B10" t="s" s="175">
-        <v>218</v>
-      </c>
-      <c r="C10" t="s" s="178">
-        <v>222</v>
-      </c>
-      <c r="D10" s="179"/>
-      <c r="E10" t="s" s="180">
-        <v>227</v>
-      </c>
-      <c r="F10" t="s" s="183">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" ht="38.65" customHeight="1">
-      <c r="A11" t="s" s="175">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s" s="175">
-        <v>211</v>
-      </c>
-      <c r="C11" t="s" s="178">
-        <v>229</v>
-      </c>
-      <c r="D11" s="179"/>
-      <c r="E11" t="s" s="180">
+      <c r="C13" t="s" s="168">
         <v>230</v>
       </c>
-      <c r="F11" t="s" s="183">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" ht="38.65" customHeight="1">
-      <c r="A12" t="s" s="175">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s" s="175">
-        <v>215</v>
-      </c>
-      <c r="C12" t="s" s="178">
-        <v>229</v>
-      </c>
-      <c r="D12" s="179"/>
-      <c r="E12" t="s" s="180">
-        <v>232</v>
-      </c>
-      <c r="F12" t="s" s="183">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="13" ht="38.65" customHeight="1">
-      <c r="A13" t="s" s="175">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s" s="175">
-        <v>218</v>
-      </c>
-      <c r="C13" t="s" s="178">
-        <v>229</v>
-      </c>
-      <c r="D13" s="179"/>
-      <c r="E13" t="s" s="180">
-        <v>234</v>
-      </c>
-      <c r="F13" t="s" s="183">
+      <c r="D13" s="169"/>
+      <c r="E13" t="s" s="170">
         <v>235</v>
       </c>
+      <c r="F13" t="s" s="173">
+        <v>236</v>
+      </c>
     </row>
     <row r="14" ht="38.65" customHeight="1">
-      <c r="A14" t="s" s="175">
-        <v>236</v>
-      </c>
-      <c r="B14" t="s" s="175">
-        <v>211</v>
-      </c>
-      <c r="C14" t="s" s="178">
+      <c r="A14" t="s" s="165">
         <v>237</v>
       </c>
-      <c r="D14" s="179"/>
-      <c r="E14" t="s" s="180">
+      <c r="B14" t="s" s="165">
+        <v>212</v>
+      </c>
+      <c r="C14" t="s" s="168">
         <v>238</v>
       </c>
-      <c r="F14" t="s" s="183">
+      <c r="D14" s="169"/>
+      <c r="E14" t="s" s="170">
         <v>239</v>
       </c>
+      <c r="F14" t="s" s="173">
+        <v>240</v>
+      </c>
     </row>
     <row r="15" ht="38.65" customHeight="1">
-      <c r="A15" t="s" s="175">
-        <v>236</v>
-      </c>
-      <c r="B15" t="s" s="175">
-        <v>215</v>
-      </c>
-      <c r="C15" t="s" s="178">
+      <c r="A15" t="s" s="165">
         <v>237</v>
       </c>
-      <c r="D15" s="179"/>
-      <c r="E15" t="s" s="180">
-        <v>240</v>
-      </c>
-      <c r="F15" t="s" s="183">
+      <c r="B15" t="s" s="165">
+        <v>216</v>
+      </c>
+      <c r="C15" t="s" s="168">
+        <v>238</v>
+      </c>
+      <c r="D15" s="169"/>
+      <c r="E15" t="s" s="170">
         <v>241</v>
       </c>
+      <c r="F15" t="s" s="173">
+        <v>242</v>
+      </c>
     </row>
     <row r="16" ht="38.65" customHeight="1">
-      <c r="A16" t="s" s="175">
-        <v>236</v>
-      </c>
-      <c r="B16" t="s" s="175">
-        <v>218</v>
-      </c>
-      <c r="C16" t="s" s="178">
+      <c r="A16" t="s" s="165">
         <v>237</v>
       </c>
-      <c r="D16" s="179"/>
-      <c r="E16" t="s" s="180">
-        <v>242</v>
-      </c>
-      <c r="F16" t="s" s="183">
+      <c r="B16" t="s" s="165">
+        <v>219</v>
+      </c>
+      <c r="C16" t="s" s="168">
+        <v>238</v>
+      </c>
+      <c r="D16" s="169"/>
+      <c r="E16" t="s" s="170">
         <v>243</v>
       </c>
+      <c r="F16" t="s" s="173">
+        <v>244</v>
+      </c>
     </row>
     <row r="17" ht="50.65" customHeight="1">
-      <c r="A17" t="s" s="175">
-        <v>244</v>
-      </c>
-      <c r="B17" t="s" s="175">
-        <v>211</v>
-      </c>
-      <c r="C17" t="s" s="178">
+      <c r="A17" t="s" s="165">
         <v>245</v>
       </c>
-      <c r="D17" s="179"/>
-      <c r="E17" t="s" s="180">
+      <c r="B17" t="s" s="165">
+        <v>212</v>
+      </c>
+      <c r="C17" t="s" s="168">
         <v>246</v>
       </c>
-      <c r="F17" t="s" s="183">
+      <c r="D17" s="169"/>
+      <c r="E17" t="s" s="170">
         <v>247</v>
       </c>
+      <c r="F17" t="s" s="173">
+        <v>248</v>
+      </c>
     </row>
     <row r="18" ht="50.65" customHeight="1">
-      <c r="A18" t="s" s="175">
-        <v>244</v>
-      </c>
-      <c r="B18" t="s" s="175">
-        <v>215</v>
-      </c>
-      <c r="C18" t="s" s="178">
+      <c r="A18" t="s" s="165">
         <v>245</v>
       </c>
-      <c r="D18" s="179"/>
-      <c r="E18" t="s" s="180">
-        <v>248</v>
-      </c>
-      <c r="F18" t="s" s="183">
+      <c r="B18" t="s" s="165">
+        <v>216</v>
+      </c>
+      <c r="C18" t="s" s="168">
+        <v>246</v>
+      </c>
+      <c r="D18" s="169"/>
+      <c r="E18" t="s" s="170">
         <v>249</v>
       </c>
+      <c r="F18" t="s" s="173">
+        <v>250</v>
+      </c>
     </row>
     <row r="19" ht="50.65" customHeight="1">
-      <c r="A19" t="s" s="175">
-        <v>244</v>
-      </c>
-      <c r="B19" t="s" s="175">
-        <v>218</v>
-      </c>
-      <c r="C19" t="s" s="178">
+      <c r="A19" t="s" s="165">
         <v>245</v>
       </c>
-      <c r="D19" s="179"/>
-      <c r="E19" t="s" s="180">
-        <v>250</v>
-      </c>
-      <c r="F19" t="s" s="183">
+      <c r="B19" t="s" s="165">
+        <v>219</v>
+      </c>
+      <c r="C19" t="s" s="168">
+        <v>246</v>
+      </c>
+      <c r="D19" s="169"/>
+      <c r="E19" t="s" s="170">
         <v>251</v>
+      </c>
+      <c r="F19" t="s" s="173">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/tm.xlsx
+++ b/test/data/tm.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -110,7 +110,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Report </t>
+    <t>Report</t>
   </si>
   <si>
     <r>
@@ -120,7 +120,7 @@
         <color indexed="11"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve">Report </t>
+      <t>Report</t>
     </r>
   </si>
   <si>
@@ -771,9 +771,6 @@
   </si>
   <si>
     <t>大学医院</t>
-  </si>
-  <si>
-    <t>Report</t>
   </si>
   <si>
     <t>region</t>
@@ -2347,7 +2344,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2710,6 +2707,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -4171,7 +4171,7 @@
     <row r="21" ht="13" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" t="s" s="3">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -4184,7 +4184,7 @@
         <v>5</v>
       </c>
       <c r="D22" t="s" s="5">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="E22" s="12"/>
     </row>
@@ -4241,7 +4241,7 @@
     <hyperlink ref="D16" location="'Resource'!R1C1" tooltip="" display="Resource"/>
     <hyperlink ref="D18" location="'Requirement'!R1C1" tooltip="" display="Requirement"/>
     <hyperlink ref="D20" location="'Preset'!R1C1" tooltip="" display="Preset"/>
-    <hyperlink ref="D22" location="'Report'!R1C1" tooltip="" display="Report "/>
+    <hyperlink ref="D22" location="'Report'!R1C1" tooltip="" display="Report"/>
     <hyperlink ref="D24" location="'Proposal'!R1C1" tooltip="" display="Proposal"/>
     <hyperlink ref="D26" location="'Evaluation'!R1C1" tooltip="" display="Evaluation"/>
     <hyperlink ref="D12" location="'Hospital'!R1C1" tooltip="" display="Hospital"/>
@@ -5961,7 +5961,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -7090,6 +7090,566 @@
         <v>16</v>
       </c>
     </row>
+    <row r="20" ht="19.9" customHeight="1">
+      <c r="A20" s="112">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s" s="113">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s" s="113">
+        <v>158</v>
+      </c>
+      <c r="D20" s="48"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="115">
+        <v>716400</v>
+      </c>
+      <c r="G20" s="116"/>
+      <c r="H20" s="112">
+        <v>10560000</v>
+      </c>
+      <c r="I20" s="112">
+        <v>0</v>
+      </c>
+      <c r="J20" s="112">
+        <v>0</v>
+      </c>
+      <c r="K20" s="112">
+        <v>0</v>
+      </c>
+      <c r="L20" s="112">
+        <v>0</v>
+      </c>
+      <c r="M20" s="112">
+        <v>0</v>
+      </c>
+      <c r="N20" s="112">
+        <v>0</v>
+      </c>
+      <c r="O20" s="112">
+        <v>0</v>
+      </c>
+      <c r="P20" s="112">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="112">
+        <v>0</v>
+      </c>
+      <c r="R20" s="112">
+        <v>0</v>
+      </c>
+      <c r="S20" s="112">
+        <v>0</v>
+      </c>
+      <c r="T20" s="118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" ht="19.9" customHeight="1">
+      <c r="A21" s="112">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s" s="113">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s" s="113">
+        <v>159</v>
+      </c>
+      <c r="D21" s="48"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="115">
+        <v>220500</v>
+      </c>
+      <c r="G21" s="116"/>
+      <c r="H21" s="112">
+        <v>3700000</v>
+      </c>
+      <c r="I21" s="112">
+        <v>0</v>
+      </c>
+      <c r="J21" s="112">
+        <v>0</v>
+      </c>
+      <c r="K21" s="112">
+        <v>0</v>
+      </c>
+      <c r="L21" s="112">
+        <v>0</v>
+      </c>
+      <c r="M21" s="112">
+        <v>0</v>
+      </c>
+      <c r="N21" s="112">
+        <v>0</v>
+      </c>
+      <c r="O21" s="112">
+        <v>0</v>
+      </c>
+      <c r="P21" s="112">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="112">
+        <v>0</v>
+      </c>
+      <c r="R21" s="112">
+        <v>0</v>
+      </c>
+      <c r="S21" s="112">
+        <v>0</v>
+      </c>
+      <c r="T21" s="118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" ht="19.9" customHeight="1">
+      <c r="A22" s="112">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s" s="113">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s" s="113">
+        <v>160</v>
+      </c>
+      <c r="D22" s="48"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="115">
+        <v>859704</v>
+      </c>
+      <c r="G22" s="116"/>
+      <c r="H22" s="112">
+        <v>13041600</v>
+      </c>
+      <c r="I22" s="112">
+        <v>0</v>
+      </c>
+      <c r="J22" s="112">
+        <v>0</v>
+      </c>
+      <c r="K22" s="112">
+        <v>0</v>
+      </c>
+      <c r="L22" s="112">
+        <v>0</v>
+      </c>
+      <c r="M22" s="112">
+        <v>0</v>
+      </c>
+      <c r="N22" s="112">
+        <v>0</v>
+      </c>
+      <c r="O22" s="112">
+        <v>0</v>
+      </c>
+      <c r="P22" s="112">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="112">
+        <v>0</v>
+      </c>
+      <c r="R22" s="112">
+        <v>0</v>
+      </c>
+      <c r="S22" s="112">
+        <v>0</v>
+      </c>
+      <c r="T22" s="118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" ht="19.9" customHeight="1">
+      <c r="A23" s="112">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s" s="113">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s" s="113">
+        <v>161</v>
+      </c>
+      <c r="D23" s="48"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="115">
+        <v>400000</v>
+      </c>
+      <c r="G23" s="116"/>
+      <c r="H23" s="112">
+        <v>6200000</v>
+      </c>
+      <c r="I23" s="112">
+        <v>0</v>
+      </c>
+      <c r="J23" s="112">
+        <v>0</v>
+      </c>
+      <c r="K23" s="112">
+        <v>0</v>
+      </c>
+      <c r="L23" s="112">
+        <v>0</v>
+      </c>
+      <c r="M23" s="112">
+        <v>0</v>
+      </c>
+      <c r="N23" s="112">
+        <v>0</v>
+      </c>
+      <c r="O23" s="112">
+        <v>0</v>
+      </c>
+      <c r="P23" s="112">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="112">
+        <v>0</v>
+      </c>
+      <c r="R23" s="112">
+        <v>0</v>
+      </c>
+      <c r="S23" s="112">
+        <v>0</v>
+      </c>
+      <c r="T23" s="118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" ht="19.9" customHeight="1">
+      <c r="A24" s="112">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s" s="113">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s" s="113">
+        <v>162</v>
+      </c>
+      <c r="D24" s="48"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="115">
+        <v>90000</v>
+      </c>
+      <c r="G24" s="116"/>
+      <c r="H24" s="112">
+        <v>1400000</v>
+      </c>
+      <c r="I24" s="112">
+        <v>0</v>
+      </c>
+      <c r="J24" s="112">
+        <v>0</v>
+      </c>
+      <c r="K24" s="112">
+        <v>0</v>
+      </c>
+      <c r="L24" s="112">
+        <v>0</v>
+      </c>
+      <c r="M24" s="112">
+        <v>0</v>
+      </c>
+      <c r="N24" s="112">
+        <v>0</v>
+      </c>
+      <c r="O24" s="112">
+        <v>0</v>
+      </c>
+      <c r="P24" s="112">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="112">
+        <v>0</v>
+      </c>
+      <c r="R24" s="112">
+        <v>0</v>
+      </c>
+      <c r="S24" s="112">
+        <v>0</v>
+      </c>
+      <c r="T24" s="118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" ht="19.9" customHeight="1">
+      <c r="A25" s="112">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s" s="113">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s" s="113">
+        <v>163</v>
+      </c>
+      <c r="D25" s="48"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="115">
+        <v>276368</v>
+      </c>
+      <c r="G25" s="116"/>
+      <c r="H25" s="112">
+        <v>4067200</v>
+      </c>
+      <c r="I25" s="112">
+        <v>0</v>
+      </c>
+      <c r="J25" s="112">
+        <v>0</v>
+      </c>
+      <c r="K25" s="112">
+        <v>0</v>
+      </c>
+      <c r="L25" s="112">
+        <v>0</v>
+      </c>
+      <c r="M25" s="112">
+        <v>0</v>
+      </c>
+      <c r="N25" s="112">
+        <v>0</v>
+      </c>
+      <c r="O25" s="112">
+        <v>0</v>
+      </c>
+      <c r="P25" s="112">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="112">
+        <v>0</v>
+      </c>
+      <c r="R25" s="112">
+        <v>0</v>
+      </c>
+      <c r="S25" s="112">
+        <v>0</v>
+      </c>
+      <c r="T25" s="118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" ht="19.9" customHeight="1">
+      <c r="A26" s="112">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s" s="113">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s" s="113">
+        <v>164</v>
+      </c>
+      <c r="D26" s="48"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="115">
+        <v>90248</v>
+      </c>
+      <c r="G26" s="116"/>
+      <c r="H26" s="112">
+        <v>1419200</v>
+      </c>
+      <c r="I26" s="112">
+        <v>0</v>
+      </c>
+      <c r="J26" s="112">
+        <v>0</v>
+      </c>
+      <c r="K26" s="112">
+        <v>0</v>
+      </c>
+      <c r="L26" s="112">
+        <v>0</v>
+      </c>
+      <c r="M26" s="112">
+        <v>0</v>
+      </c>
+      <c r="N26" s="112">
+        <v>0</v>
+      </c>
+      <c r="O26" s="112">
+        <v>0</v>
+      </c>
+      <c r="P26" s="112">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="112">
+        <v>0</v>
+      </c>
+      <c r="R26" s="112">
+        <v>0</v>
+      </c>
+      <c r="S26" s="112">
+        <v>0</v>
+      </c>
+      <c r="T26" s="118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" ht="19.9" customHeight="1">
+      <c r="A27" s="112">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s" s="113">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s" s="113">
+        <v>165</v>
+      </c>
+      <c r="D27" s="48"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="115">
+        <v>28930</v>
+      </c>
+      <c r="G27" s="116"/>
+      <c r="H27" s="112">
+        <v>1014300</v>
+      </c>
+      <c r="I27" s="112">
+        <v>0</v>
+      </c>
+      <c r="J27" s="112">
+        <v>0</v>
+      </c>
+      <c r="K27" s="112">
+        <v>0</v>
+      </c>
+      <c r="L27" s="112">
+        <v>0</v>
+      </c>
+      <c r="M27" s="112">
+        <v>0</v>
+      </c>
+      <c r="N27" s="112">
+        <v>0</v>
+      </c>
+      <c r="O27" s="112">
+        <v>0</v>
+      </c>
+      <c r="P27" s="112">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="112">
+        <v>0</v>
+      </c>
+      <c r="R27" s="112">
+        <v>0</v>
+      </c>
+      <c r="S27" s="112">
+        <v>0</v>
+      </c>
+      <c r="T27" s="118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" ht="19.9" customHeight="1">
+      <c r="A28" s="112">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s" s="113">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s" s="113">
+        <v>166</v>
+      </c>
+      <c r="D28" s="48"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="115">
+        <v>35840</v>
+      </c>
+      <c r="G28" s="116"/>
+      <c r="H28" s="112">
+        <v>628320</v>
+      </c>
+      <c r="I28" s="112">
+        <v>0</v>
+      </c>
+      <c r="J28" s="112">
+        <v>0</v>
+      </c>
+      <c r="K28" s="112">
+        <v>0</v>
+      </c>
+      <c r="L28" s="112">
+        <v>0</v>
+      </c>
+      <c r="M28" s="112">
+        <v>0</v>
+      </c>
+      <c r="N28" s="112">
+        <v>0</v>
+      </c>
+      <c r="O28" s="112">
+        <v>0</v>
+      </c>
+      <c r="P28" s="112">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="112">
+        <v>0</v>
+      </c>
+      <c r="R28" s="112">
+        <v>0</v>
+      </c>
+      <c r="S28" s="112">
+        <v>0</v>
+      </c>
+      <c r="T28" s="118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" ht="19.9" customHeight="1">
+      <c r="A29" s="112">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s" s="113">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s" s="113">
+        <v>167</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="115">
+        <v>835229</v>
+      </c>
+      <c r="G29" s="116"/>
+      <c r="H29" s="112">
+        <v>12234288</v>
+      </c>
+      <c r="I29" s="112">
+        <v>0</v>
+      </c>
+      <c r="J29" s="112">
+        <v>0</v>
+      </c>
+      <c r="K29" s="112">
+        <v>0</v>
+      </c>
+      <c r="L29" s="112">
+        <v>0</v>
+      </c>
+      <c r="M29" s="112">
+        <v>0</v>
+      </c>
+      <c r="N29" s="112">
+        <v>0</v>
+      </c>
+      <c r="O29" s="112">
+        <v>0</v>
+      </c>
+      <c r="P29" s="112">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="112">
+        <v>0</v>
+      </c>
+      <c r="R29" s="112">
+        <v>0</v>
+      </c>
+      <c r="S29" s="112">
+        <v>0</v>
+      </c>
+      <c r="T29" s="118">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -7101,1635 +7661,1865 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R73"/>
+  <dimension ref="A1:W73"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.17188" style="121" customWidth="1"/>
-    <col min="2" max="5" width="13.5" style="121" customWidth="1"/>
-    <col min="6" max="6" width="13.6719" style="121" customWidth="1"/>
-    <col min="7" max="8" width="17.5" style="121" customWidth="1"/>
-    <col min="9" max="10" width="20.5" style="121" customWidth="1"/>
-    <col min="11" max="13" width="17.8516" style="121" customWidth="1"/>
-    <col min="14" max="14" width="19.1719" style="121" customWidth="1"/>
-    <col min="15" max="15" width="14.5" style="121" customWidth="1"/>
-    <col min="16" max="16" width="20.1719" style="121" customWidth="1"/>
-    <col min="17" max="18" width="17.6719" style="121" customWidth="1"/>
-    <col min="19" max="256" width="8.85156" style="121" customWidth="1"/>
+    <col min="1" max="1" width="9.17188" style="122" customWidth="1"/>
+    <col min="2" max="5" width="13.5" style="122" customWidth="1"/>
+    <col min="6" max="6" width="13.6719" style="122" customWidth="1"/>
+    <col min="7" max="8" width="17.5" style="122" customWidth="1"/>
+    <col min="9" max="10" width="20.5" style="122" customWidth="1"/>
+    <col min="11" max="13" width="17.8516" style="122" customWidth="1"/>
+    <col min="14" max="14" width="19.1719" style="122" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="122" customWidth="1"/>
+    <col min="16" max="16" width="20.1719" style="122" customWidth="1"/>
+    <col min="17" max="23" width="17.6719" style="122" customWidth="1"/>
+    <col min="24" max="256" width="8.85156" style="122" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="34.5" customHeight="1">
-      <c r="A1" t="s" s="122">
+      <c r="A1" t="s" s="123">
         <v>139</v>
       </c>
-      <c r="B1" t="s" s="122">
+      <c r="B1" t="s" s="123">
         <v>141</v>
       </c>
-      <c r="C1" t="s" s="122">
+      <c r="C1" t="s" s="123">
         <v>140</v>
       </c>
-      <c r="D1" t="s" s="123">
+      <c r="D1" t="s" s="124">
         <v>142</v>
       </c>
-      <c r="E1" t="s" s="123">
+      <c r="E1" t="s" s="124">
+        <v>168</v>
+      </c>
+      <c r="F1" t="s" s="123">
+        <v>146</v>
+      </c>
+      <c r="G1" t="s" s="124">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s" s="124">
         <v>169</v>
       </c>
-      <c r="F1" t="s" s="122">
-        <v>146</v>
-      </c>
-      <c r="G1" t="s" s="123">
-        <v>36</v>
-      </c>
-      <c r="H1" t="s" s="123">
+      <c r="I1" t="s" s="123">
+        <v>144</v>
+      </c>
+      <c r="J1" t="s" s="124">
         <v>170</v>
       </c>
-      <c r="I1" t="s" s="122">
-        <v>144</v>
-      </c>
-      <c r="J1" t="s" s="123">
+      <c r="K1" t="s" s="123">
         <v>171</v>
       </c>
-      <c r="K1" t="s" s="122">
+      <c r="L1" t="s" s="125">
         <v>172</v>
       </c>
-      <c r="L1" t="s" s="124">
+      <c r="M1" t="s" s="124">
         <v>173</v>
       </c>
-      <c r="M1" t="s" s="123">
+      <c r="N1" t="s" s="124">
+        <v>147</v>
+      </c>
+      <c r="O1" t="s" s="123">
         <v>174</v>
       </c>
-      <c r="N1" t="s" s="123">
-        <v>147</v>
-      </c>
-      <c r="O1" t="s" s="122">
+      <c r="P1" t="s" s="124">
         <v>175</v>
       </c>
-      <c r="P1" t="s" s="123">
+      <c r="Q1" t="s" s="123">
         <v>176</v>
       </c>
-      <c r="Q1" t="s" s="122">
-        <v>177</v>
-      </c>
-      <c r="R1" t="s" s="122">
+      <c r="R1" t="s" s="123">
         <v>28</v>
+      </c>
+      <c r="S1" t="s" s="26">
+        <v>148</v>
+      </c>
+      <c r="T1" t="s" s="26">
+        <v>149</v>
+      </c>
+      <c r="U1" t="s" s="26">
+        <v>150</v>
+      </c>
+      <c r="V1" t="s" s="26">
+        <v>151</v>
+      </c>
+      <c r="W1" t="s" s="26">
+        <v>152</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="112">
         <v>-4</v>
       </c>
-      <c r="B2" t="s" s="125">
+      <c r="B2" t="s" s="126">
+        <v>177</v>
+      </c>
+      <c r="C2" t="s" s="126">
         <v>178</v>
-      </c>
-      <c r="C2" t="s" s="125">
-        <v>179</v>
       </c>
       <c r="D2" s="60"/>
       <c r="E2" s="59"/>
-      <c r="F2" s="126">
+      <c r="F2" s="127">
         <v>10560000</v>
       </c>
       <c r="G2" s="61"/>
       <c r="H2" s="59"/>
-      <c r="I2" s="127">
+      <c r="I2" s="128">
         <v>737747.64</v>
       </c>
       <c r="J2" s="59"/>
-      <c r="K2" s="128">
+      <c r="K2" s="129">
         <v>700000</v>
       </c>
-      <c r="L2" s="129"/>
+      <c r="L2" s="130"/>
       <c r="M2" s="61"/>
       <c r="N2" s="59"/>
       <c r="O2" s="116">
         <v>1.0539252</v>
       </c>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="131">
+      <c r="P2" s="131"/>
+      <c r="Q2" s="132">
         <v>0.15</v>
       </c>
-      <c r="R2" t="s" s="125">
+      <c r="R2" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
       <c r="A3" s="112">
         <v>-4</v>
       </c>
-      <c r="B3" t="s" s="125">
-        <v>180</v>
-      </c>
-      <c r="C3" t="s" s="125">
+      <c r="B3" t="s" s="126">
         <v>179</v>
       </c>
-      <c r="D3" s="132"/>
+      <c r="C3" t="s" s="126">
+        <v>178</v>
+      </c>
+      <c r="D3" s="133"/>
       <c r="E3" s="105"/>
-      <c r="F3" s="126">
+      <c r="F3" s="127">
         <v>3700000</v>
       </c>
       <c r="G3" s="98"/>
       <c r="H3" s="105"/>
-      <c r="I3" s="127">
+      <c r="I3" s="128">
         <v>245915.88</v>
       </c>
       <c r="J3" s="105"/>
-      <c r="K3" s="128">
+      <c r="K3" s="129">
         <v>250000</v>
       </c>
-      <c r="L3" s="129"/>
+      <c r="L3" s="130"/>
       <c r="M3" s="98"/>
       <c r="N3" s="105"/>
       <c r="O3" s="116">
         <v>0.98366352</v>
       </c>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="131">
+      <c r="P3" s="134"/>
+      <c r="Q3" s="132">
         <v>0.11</v>
       </c>
-      <c r="R3" t="s" s="125">
+      <c r="R3" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
       <c r="A4" s="112">
         <v>-4</v>
       </c>
-      <c r="B4" t="s" s="125">
-        <v>181</v>
-      </c>
-      <c r="C4" t="s" s="125">
-        <v>179</v>
-      </c>
-      <c r="D4" s="132"/>
+      <c r="B4" t="s" s="126">
+        <v>180</v>
+      </c>
+      <c r="C4" t="s" s="126">
+        <v>178</v>
+      </c>
+      <c r="D4" s="133"/>
       <c r="E4" s="105"/>
-      <c r="F4" s="126">
+      <c r="F4" s="127">
         <v>13041600</v>
       </c>
       <c r="G4" s="98"/>
       <c r="H4" s="105"/>
-      <c r="I4" s="127">
+      <c r="I4" s="128">
         <v>901691.5600000001</v>
       </c>
       <c r="J4" s="105"/>
-      <c r="K4" s="128">
+      <c r="K4" s="129">
         <v>850000</v>
       </c>
-      <c r="L4" s="129"/>
+      <c r="L4" s="130"/>
       <c r="M4" s="98"/>
       <c r="N4" s="105"/>
       <c r="O4" s="116">
         <v>1.0608136</v>
       </c>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="131">
+      <c r="P4" s="134"/>
+      <c r="Q4" s="132">
         <v>0.18</v>
       </c>
-      <c r="R4" t="s" s="125">
+      <c r="R4" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S4" s="126"/>
+      <c r="T4" s="126"/>
+      <c r="U4" s="126"/>
+      <c r="V4" s="126"/>
+      <c r="W4" s="126"/>
     </row>
     <row r="5" ht="13.5" customHeight="1">
       <c r="A5" s="112">
         <v>-4</v>
       </c>
-      <c r="B5" t="s" s="125">
-        <v>182</v>
-      </c>
-      <c r="C5" t="s" s="125">
-        <v>179</v>
-      </c>
-      <c r="D5" s="132"/>
+      <c r="B5" t="s" s="126">
+        <v>181</v>
+      </c>
+      <c r="C5" t="s" s="126">
+        <v>178</v>
+      </c>
+      <c r="D5" s="133"/>
       <c r="E5" s="105"/>
-      <c r="F5" s="126">
+      <c r="F5" s="127">
         <v>6200000</v>
       </c>
       <c r="G5" s="98"/>
       <c r="H5" s="105"/>
-      <c r="I5" s="127">
+      <c r="I5" s="128">
         <v>614789.7</v>
       </c>
       <c r="J5" s="105"/>
-      <c r="K5" s="128">
+      <c r="K5" s="129">
         <v>600000</v>
       </c>
-      <c r="L5" s="129"/>
+      <c r="L5" s="130"/>
       <c r="M5" s="98"/>
       <c r="N5" s="105"/>
       <c r="O5" s="116">
         <v>1.0246495</v>
       </c>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="131">
+      <c r="P5" s="134"/>
+      <c r="Q5" s="132">
         <v>0.13</v>
       </c>
-      <c r="R5" t="s" s="125">
+      <c r="R5" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S5" s="126"/>
+      <c r="T5" s="126"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="126"/>
+      <c r="W5" s="126"/>
     </row>
     <row r="6" ht="13.5" customHeight="1">
       <c r="A6" s="112">
         <v>-4</v>
       </c>
-      <c r="B6" t="s" s="125">
-        <v>183</v>
-      </c>
-      <c r="C6" t="s" s="125">
-        <v>179</v>
+      <c r="B6" t="s" s="126">
+        <v>182</v>
+      </c>
+      <c r="C6" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D6" s="76"/>
       <c r="E6" s="77"/>
-      <c r="F6" s="134">
+      <c r="F6" s="135">
         <v>1400000</v>
       </c>
       <c r="G6" s="76"/>
       <c r="H6" s="77"/>
-      <c r="I6" s="135">
+      <c r="I6" s="136">
         <v>102464.95</v>
       </c>
-      <c r="J6" s="136"/>
-      <c r="K6" s="128">
+      <c r="J6" s="137"/>
+      <c r="K6" s="129">
         <v>100000</v>
       </c>
-      <c r="L6" s="137"/>
+      <c r="L6" s="138"/>
       <c r="M6" s="66"/>
       <c r="N6" s="77"/>
       <c r="O6" s="116">
         <v>1.0246495</v>
       </c>
-      <c r="P6" s="136"/>
-      <c r="Q6" s="131">
+      <c r="P6" s="137"/>
+      <c r="Q6" s="132">
         <v>0.12</v>
       </c>
-      <c r="R6" t="s" s="125">
+      <c r="R6" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
     </row>
     <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="112">
         <v>-4</v>
       </c>
-      <c r="B7" t="s" s="125">
-        <v>184</v>
-      </c>
-      <c r="C7" t="s" s="125">
-        <v>179</v>
+      <c r="B7" t="s" s="126">
+        <v>183</v>
+      </c>
+      <c r="C7" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="40"/>
-      <c r="F7" s="134">
+      <c r="F7" s="135">
         <v>4067200</v>
       </c>
       <c r="G7" s="39"/>
       <c r="H7" s="40"/>
-      <c r="I7" s="135">
+      <c r="I7" s="136">
         <v>286901.86</v>
       </c>
       <c r="J7" s="84"/>
-      <c r="K7" s="128">
+      <c r="K7" s="129">
         <v>350000</v>
       </c>
-      <c r="L7" s="137"/>
+      <c r="L7" s="138"/>
       <c r="M7" s="11"/>
       <c r="N7" s="40"/>
       <c r="O7" s="116">
         <v>0.8197196</v>
       </c>
       <c r="P7" s="84"/>
-      <c r="Q7" s="131">
+      <c r="Q7" s="132">
         <v>-0.11</v>
       </c>
-      <c r="R7" t="s" s="125">
+      <c r="R7" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
     </row>
     <row r="8" ht="13.5" customHeight="1">
       <c r="A8" s="112">
         <v>-4</v>
       </c>
-      <c r="B8" t="s" s="125">
-        <v>185</v>
-      </c>
-      <c r="C8" t="s" s="125">
-        <v>179</v>
+      <c r="B8" t="s" s="126">
+        <v>184</v>
+      </c>
+      <c r="C8" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
-      <c r="F8" s="134">
+      <c r="F8" s="135">
         <v>1419200</v>
       </c>
       <c r="G8" s="39"/>
       <c r="H8" s="40"/>
-      <c r="I8" s="135">
+      <c r="I8" s="136">
         <v>122957.94</v>
       </c>
       <c r="J8" s="84"/>
-      <c r="K8" s="128">
+      <c r="K8" s="129">
         <v>120000</v>
       </c>
-      <c r="L8" s="137"/>
+      <c r="L8" s="138"/>
       <c r="M8" s="11"/>
       <c r="N8" s="40"/>
       <c r="O8" s="116">
         <v>1.0246495</v>
       </c>
       <c r="P8" s="84"/>
-      <c r="Q8" s="131">
+      <c r="Q8" s="132">
         <v>0.16</v>
       </c>
-      <c r="R8" t="s" s="125">
+      <c r="R8" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S8" s="126"/>
+      <c r="T8" s="126"/>
+      <c r="U8" s="126"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="126"/>
     </row>
     <row r="9" ht="13.5" customHeight="1">
       <c r="A9" s="112">
         <v>-4</v>
       </c>
-      <c r="B9" t="s" s="125">
-        <v>186</v>
-      </c>
-      <c r="C9" t="s" s="125">
-        <v>179</v>
+      <c r="B9" t="s" s="126">
+        <v>185</v>
+      </c>
+      <c r="C9" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D9" s="39"/>
       <c r="E9" s="40"/>
-      <c r="F9" s="134">
+      <c r="F9" s="135">
         <v>1014300</v>
       </c>
       <c r="G9" s="39"/>
       <c r="H9" s="40"/>
-      <c r="I9" s="135">
+      <c r="I9" s="136">
         <v>32788.784</v>
       </c>
       <c r="J9" s="84"/>
-      <c r="K9" s="128">
+      <c r="K9" s="129">
         <v>35000</v>
       </c>
-      <c r="L9" s="137"/>
+      <c r="L9" s="138"/>
       <c r="M9" s="11"/>
       <c r="N9" s="40"/>
       <c r="O9" s="116">
         <v>0.9368224000000001</v>
       </c>
       <c r="P9" s="84"/>
-      <c r="Q9" s="131">
+      <c r="Q9" s="132">
         <v>-0.23</v>
       </c>
-      <c r="R9" t="s" s="125">
+      <c r="R9" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S9" s="126"/>
+      <c r="T9" s="126"/>
+      <c r="U9" s="126"/>
+      <c r="V9" s="126"/>
+      <c r="W9" s="126"/>
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="112">
         <v>-4</v>
       </c>
-      <c r="B10" t="s" s="125">
-        <v>187</v>
-      </c>
-      <c r="C10" t="s" s="125">
-        <v>179</v>
+      <c r="B10" t="s" s="126">
+        <v>186</v>
+      </c>
+      <c r="C10" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="40"/>
-      <c r="F10" s="134">
+      <c r="F10" s="135">
         <v>628320</v>
       </c>
       <c r="G10" s="39"/>
       <c r="H10" s="40"/>
-      <c r="I10" s="135">
+      <c r="I10" s="136">
         <v>81971.960000000006</v>
       </c>
       <c r="J10" s="84"/>
-      <c r="K10" s="128">
+      <c r="K10" s="129">
         <v>75000</v>
       </c>
-      <c r="L10" s="137"/>
+      <c r="L10" s="138"/>
       <c r="M10" s="11"/>
       <c r="N10" s="40"/>
       <c r="O10" s="116">
         <v>1.09295946666667</v>
       </c>
       <c r="P10" s="84"/>
-      <c r="Q10" s="131">
+      <c r="Q10" s="132">
         <v>0.29</v>
       </c>
-      <c r="R10" t="s" s="125">
+      <c r="R10" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S10" s="126"/>
+      <c r="T10" s="126"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
     </row>
     <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="112">
         <v>-4</v>
       </c>
-      <c r="B11" t="s" s="125">
-        <v>188</v>
-      </c>
-      <c r="C11" t="s" s="125">
-        <v>179</v>
+      <c r="B11" t="s" s="126">
+        <v>187</v>
+      </c>
+      <c r="C11" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="40"/>
-      <c r="F11" s="134">
+      <c r="F11" s="135">
         <v>12234288</v>
       </c>
       <c r="G11" s="39"/>
       <c r="H11" s="40"/>
-      <c r="I11" s="135">
+      <c r="I11" s="136">
         <v>971367.726</v>
       </c>
       <c r="J11" s="84"/>
-      <c r="K11" s="128">
+      <c r="K11" s="129">
         <v>900000</v>
       </c>
-      <c r="L11" s="137"/>
+      <c r="L11" s="138"/>
       <c r="M11" s="11"/>
       <c r="N11" s="40"/>
       <c r="O11" s="116">
         <v>1.07929747333333</v>
       </c>
       <c r="P11" s="84"/>
-      <c r="Q11" s="131">
+      <c r="Q11" s="132">
         <v>0.18</v>
       </c>
-      <c r="R11" t="s" s="125">
+      <c r="R11" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S11" s="126"/>
+      <c r="T11" s="126"/>
+      <c r="U11" s="126"/>
+      <c r="V11" s="126"/>
+      <c r="W11" s="126"/>
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="112">
         <v>-3</v>
       </c>
-      <c r="B12" t="s" s="125">
+      <c r="B12" t="s" s="126">
+        <v>177</v>
+      </c>
+      <c r="C12" t="s" s="126">
         <v>178</v>
-      </c>
-      <c r="C12" t="s" s="125">
-        <v>179</v>
       </c>
       <c r="D12" s="39"/>
       <c r="E12" s="40"/>
-      <c r="F12" s="134">
+      <c r="F12" s="135">
         <v>10560000</v>
       </c>
       <c r="G12" s="39"/>
       <c r="H12" s="40"/>
-      <c r="I12" s="135">
+      <c r="I12" s="136">
         <v>556986.16</v>
       </c>
       <c r="J12" s="84"/>
-      <c r="K12" s="135">
+      <c r="K12" s="136">
         <v>650000</v>
       </c>
-      <c r="L12" s="138"/>
+      <c r="L12" s="139"/>
       <c r="M12" s="11"/>
-      <c r="N12" s="139"/>
+      <c r="N12" s="140"/>
       <c r="O12" s="116">
         <v>0.856901784615385</v>
       </c>
       <c r="P12" s="84"/>
-      <c r="Q12" s="131">
+      <c r="Q12" s="132">
         <v>-0.245018038959772</v>
       </c>
-      <c r="R12" t="s" s="125">
+      <c r="R12" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S12" s="126"/>
+      <c r="T12" s="126"/>
+      <c r="U12" s="126"/>
+      <c r="V12" s="126"/>
+      <c r="W12" s="126"/>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="112">
         <v>-3</v>
       </c>
-      <c r="B13" t="s" s="125">
-        <v>180</v>
-      </c>
-      <c r="C13" t="s" s="125">
+      <c r="B13" t="s" s="126">
         <v>179</v>
+      </c>
+      <c r="C13" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D13" s="39"/>
       <c r="E13" s="40"/>
-      <c r="F13" s="134">
+      <c r="F13" s="135">
         <v>3700000</v>
       </c>
       <c r="G13" s="39"/>
       <c r="H13" s="40"/>
-      <c r="I13" s="135">
+      <c r="I13" s="136">
         <v>191328.72</v>
       </c>
       <c r="J13" s="84"/>
-      <c r="K13" s="135">
+      <c r="K13" s="136">
         <v>200000</v>
       </c>
-      <c r="L13" s="138"/>
+      <c r="L13" s="139"/>
       <c r="M13" s="11"/>
-      <c r="N13" s="139"/>
+      <c r="N13" s="140"/>
       <c r="O13" s="116">
         <v>0.9566436</v>
       </c>
       <c r="P13" s="84"/>
-      <c r="Q13" s="131">
+      <c r="Q13" s="132">
         <v>-0.221974928987912</v>
       </c>
-      <c r="R13" t="s" s="125">
+      <c r="R13" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S13" s="126"/>
+      <c r="T13" s="126"/>
+      <c r="U13" s="126"/>
+      <c r="V13" s="126"/>
+      <c r="W13" s="126"/>
     </row>
     <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="112">
         <v>-3</v>
       </c>
-      <c r="B14" t="s" s="125">
-        <v>181</v>
-      </c>
-      <c r="C14" t="s" s="125">
-        <v>179</v>
+      <c r="B14" t="s" s="126">
+        <v>180</v>
+      </c>
+      <c r="C14" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D14" s="39"/>
       <c r="E14" s="40"/>
-      <c r="F14" s="134">
+      <c r="F14" s="135">
         <v>13041600</v>
       </c>
       <c r="G14" s="39"/>
       <c r="H14" s="40"/>
-      <c r="I14" s="135">
+      <c r="I14" s="136">
         <v>736028.144</v>
       </c>
       <c r="J14" s="84"/>
-      <c r="K14" s="135">
+      <c r="K14" s="136">
         <v>800000</v>
       </c>
-      <c r="L14" s="138"/>
+      <c r="L14" s="139"/>
       <c r="M14" s="11"/>
       <c r="N14" s="40"/>
       <c r="O14" s="116">
         <v>0.92003518</v>
       </c>
       <c r="P14" s="84"/>
-      <c r="Q14" s="131">
+      <c r="Q14" s="132">
         <v>-0.18372514876373</v>
       </c>
-      <c r="R14" t="s" s="125">
+      <c r="R14" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S14" s="126"/>
+      <c r="T14" s="126"/>
+      <c r="U14" s="126"/>
+      <c r="V14" s="126"/>
+      <c r="W14" s="126"/>
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="112">
         <v>-3</v>
       </c>
-      <c r="B15" t="s" s="125">
-        <v>182</v>
-      </c>
-      <c r="C15" t="s" s="125">
-        <v>179</v>
+      <c r="B15" t="s" s="126">
+        <v>181</v>
+      </c>
+      <c r="C15" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D15" s="39"/>
       <c r="E15" s="40"/>
-      <c r="F15" s="134">
+      <c r="F15" s="135">
         <v>6200000</v>
       </c>
       <c r="G15" s="39"/>
       <c r="H15" s="40"/>
-      <c r="I15" s="135">
+      <c r="I15" s="136">
         <v>478321.8</v>
       </c>
       <c r="J15" s="84"/>
-      <c r="K15" s="135">
+      <c r="K15" s="136">
         <v>550000</v>
       </c>
-      <c r="L15" s="138"/>
+      <c r="L15" s="139"/>
       <c r="M15" s="11"/>
       <c r="N15" s="40"/>
       <c r="O15" s="116">
         <v>0.869676</v>
       </c>
       <c r="P15" s="84"/>
-      <c r="Q15" s="131">
+      <c r="Q15" s="132">
         <v>-0.221974928987912</v>
       </c>
-      <c r="R15" t="s" s="125">
+      <c r="R15" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S15" s="126"/>
+      <c r="T15" s="126"/>
+      <c r="U15" s="126"/>
+      <c r="V15" s="126"/>
+      <c r="W15" s="126"/>
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="112">
         <v>-3</v>
       </c>
-      <c r="B16" t="s" s="125">
-        <v>183</v>
-      </c>
-      <c r="C16" t="s" s="125">
-        <v>179</v>
+      <c r="B16" t="s" s="126">
+        <v>182</v>
+      </c>
+      <c r="C16" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D16" s="39"/>
       <c r="E16" s="40"/>
-      <c r="F16" s="134">
+      <c r="F16" s="135">
         <v>1400000</v>
       </c>
       <c r="G16" s="39"/>
       <c r="H16" s="40"/>
-      <c r="I16" s="135">
+      <c r="I16" s="136">
         <v>69720.3</v>
       </c>
       <c r="J16" s="84"/>
-      <c r="K16" s="135">
+      <c r="K16" s="136">
         <v>80000</v>
       </c>
-      <c r="L16" s="138"/>
+      <c r="L16" s="139"/>
       <c r="M16" s="11"/>
       <c r="N16" s="40"/>
       <c r="O16" s="116">
         <v>0.87150375</v>
       </c>
       <c r="P16" s="84"/>
-      <c r="Q16" s="131">
+      <c r="Q16" s="132">
         <v>-0.319569277104024</v>
       </c>
-      <c r="R16" t="s" s="125">
+      <c r="R16" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S16" s="126"/>
+      <c r="T16" s="126"/>
+      <c r="U16" s="126"/>
+      <c r="V16" s="126"/>
+      <c r="W16" s="126"/>
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="112">
         <v>-3</v>
       </c>
-      <c r="B17" t="s" s="125">
-        <v>184</v>
-      </c>
-      <c r="C17" t="s" s="125">
-        <v>179</v>
+      <c r="B17" t="s" s="126">
+        <v>183</v>
+      </c>
+      <c r="C17" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D17" s="39"/>
       <c r="E17" s="40"/>
-      <c r="F17" s="134">
+      <c r="F17" s="135">
         <v>4067200</v>
       </c>
       <c r="G17" s="39"/>
       <c r="H17" s="40"/>
-      <c r="I17" s="135">
+      <c r="I17" s="136">
         <v>223216.84</v>
       </c>
       <c r="J17" s="84"/>
-      <c r="K17" s="135">
+      <c r="K17" s="136">
         <v>250000</v>
       </c>
-      <c r="L17" s="138"/>
+      <c r="L17" s="139"/>
       <c r="M17" s="11"/>
       <c r="N17" s="40"/>
       <c r="O17" s="116">
         <v>0.89286736</v>
       </c>
       <c r="P17" s="84"/>
-      <c r="Q17" s="131">
+      <c r="Q17" s="132">
         <v>-0.221974928987912</v>
       </c>
-      <c r="R17" t="s" s="125">
+      <c r="R17" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S17" s="126"/>
+      <c r="T17" s="126"/>
+      <c r="U17" s="126"/>
+      <c r="V17" s="126"/>
+      <c r="W17" s="126"/>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="112">
         <v>-3</v>
       </c>
-      <c r="B18" t="s" s="125">
-        <v>185</v>
-      </c>
-      <c r="C18" t="s" s="125">
-        <v>179</v>
+      <c r="B18" t="s" s="126">
+        <v>184</v>
+      </c>
+      <c r="C18" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D18" s="39"/>
       <c r="E18" s="40"/>
-      <c r="F18" s="134">
+      <c r="F18" s="135">
         <v>1419200</v>
       </c>
       <c r="G18" s="39"/>
       <c r="H18" s="40"/>
-      <c r="I18" s="135">
+      <c r="I18" s="136">
         <v>90664.36</v>
       </c>
       <c r="J18" s="84"/>
-      <c r="K18" s="135">
+      <c r="K18" s="136">
         <v>100000</v>
       </c>
-      <c r="L18" s="138"/>
+      <c r="L18" s="139"/>
       <c r="M18" s="11"/>
       <c r="N18" s="40"/>
       <c r="O18" s="116">
         <v>0.9066436</v>
       </c>
       <c r="P18" s="84"/>
-      <c r="Q18" s="131">
+      <c r="Q18" s="132">
         <v>-0.262639240702959</v>
       </c>
-      <c r="R18" t="s" s="125">
+      <c r="R18" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S18" s="126"/>
+      <c r="T18" s="126"/>
+      <c r="U18" s="126"/>
+      <c r="V18" s="126"/>
+      <c r="W18" s="126"/>
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="112">
         <v>-3</v>
       </c>
-      <c r="B19" t="s" s="125">
-        <v>186</v>
-      </c>
-      <c r="C19" t="s" s="125">
-        <v>179</v>
+      <c r="B19" t="s" s="126">
+        <v>185</v>
+      </c>
+      <c r="C19" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D19" s="39"/>
       <c r="E19" s="40"/>
-      <c r="F19" s="134">
+      <c r="F19" s="135">
         <v>1014300</v>
       </c>
       <c r="G19" s="39"/>
       <c r="H19" s="40"/>
-      <c r="I19" s="135">
+      <c r="I19" s="136">
         <v>25510.496</v>
       </c>
       <c r="J19" s="84"/>
-      <c r="K19" s="135">
+      <c r="K19" s="136">
         <v>25000</v>
       </c>
-      <c r="L19" s="138"/>
+      <c r="L19" s="139"/>
       <c r="M19" s="11"/>
       <c r="N19" s="40"/>
       <c r="O19" s="116">
         <v>1.02041984</v>
       </c>
       <c r="P19" s="84"/>
-      <c r="Q19" s="131">
+      <c r="Q19" s="132">
         <v>-0.221974928987912</v>
       </c>
-      <c r="R19" t="s" s="125">
+      <c r="R19" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S19" s="126"/>
+      <c r="T19" s="126"/>
+      <c r="U19" s="126"/>
+      <c r="V19" s="126"/>
+      <c r="W19" s="126"/>
     </row>
     <row r="20" ht="13.5" customHeight="1">
       <c r="A20" s="112">
         <v>-3</v>
       </c>
-      <c r="B20" t="s" s="125">
-        <v>187</v>
-      </c>
-      <c r="C20" t="s" s="125">
-        <v>179</v>
+      <c r="B20" t="s" s="126">
+        <v>186</v>
+      </c>
+      <c r="C20" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D20" s="39"/>
       <c r="E20" s="40"/>
-      <c r="F20" s="134">
+      <c r="F20" s="135">
         <v>628320</v>
       </c>
       <c r="G20" s="39"/>
       <c r="H20" s="40"/>
-      <c r="I20" s="135">
+      <c r="I20" s="136">
         <v>59832.18</v>
       </c>
       <c r="J20" s="84"/>
-      <c r="K20" s="135">
+      <c r="K20" s="136">
         <v>60000</v>
       </c>
-      <c r="L20" s="138"/>
+      <c r="L20" s="139"/>
       <c r="M20" s="11"/>
       <c r="N20" s="40"/>
       <c r="O20" s="116">
         <v>0.997203</v>
       </c>
       <c r="P20" s="84"/>
-      <c r="Q20" s="131">
+      <c r="Q20" s="132">
         <v>-0.270089674566767</v>
       </c>
-      <c r="R20" t="s" s="125">
+      <c r="R20" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S20" s="126"/>
+      <c r="T20" s="126"/>
+      <c r="U20" s="126"/>
+      <c r="V20" s="126"/>
+      <c r="W20" s="126"/>
     </row>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="112">
         <v>-3</v>
       </c>
-      <c r="B21" t="s" s="125">
-        <v>188</v>
-      </c>
-      <c r="C21" t="s" s="125">
-        <v>179</v>
+      <c r="B21" t="s" s="126">
+        <v>187</v>
+      </c>
+      <c r="C21" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D21" s="39"/>
       <c r="E21" s="40"/>
-      <c r="F21" s="134">
+      <c r="F21" s="135">
         <v>12234288</v>
       </c>
       <c r="G21" s="39"/>
       <c r="H21" s="40"/>
-      <c r="I21" s="135">
+      <c r="I21" s="136">
         <v>757203</v>
       </c>
       <c r="J21" s="84"/>
-      <c r="K21" s="135">
+      <c r="K21" s="136">
         <v>850000</v>
       </c>
-      <c r="L21" s="138"/>
+      <c r="L21" s="139"/>
       <c r="M21" s="11"/>
       <c r="N21" s="40"/>
       <c r="O21" s="116">
         <v>0.890827058823529</v>
       </c>
       <c r="P21" s="84"/>
-      <c r="Q21" s="131">
+      <c r="Q21" s="132">
         <v>-0.220477498137507</v>
       </c>
-      <c r="R21" t="s" s="125">
+      <c r="R21" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S21" s="126"/>
+      <c r="T21" s="126"/>
+      <c r="U21" s="126"/>
+      <c r="V21" s="126"/>
+      <c r="W21" s="126"/>
     </row>
     <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="112">
         <v>-2</v>
       </c>
-      <c r="B22" t="s" s="125">
+      <c r="B22" t="s" s="126">
+        <v>177</v>
+      </c>
+      <c r="C22" t="s" s="126">
         <v>178</v>
-      </c>
-      <c r="C22" t="s" s="125">
-        <v>179</v>
       </c>
       <c r="D22" s="39"/>
       <c r="E22" s="40"/>
-      <c r="F22" s="134">
+      <c r="F22" s="135">
         <v>10560000</v>
       </c>
       <c r="G22" s="39"/>
       <c r="H22" s="40"/>
-      <c r="I22" s="135">
+      <c r="I22" s="136">
         <v>525785.6899999999</v>
       </c>
       <c r="J22" s="84"/>
-      <c r="K22" s="128">
+      <c r="K22" s="129">
         <v>550000</v>
       </c>
-      <c r="L22" s="137"/>
+      <c r="L22" s="138"/>
       <c r="M22" s="11"/>
       <c r="N22" s="40"/>
       <c r="O22" s="116">
         <v>0.9559739818181821</v>
       </c>
       <c r="P22" s="84"/>
-      <c r="Q22" s="131">
+      <c r="Q22" s="132">
         <v>-0.0560165983298402</v>
       </c>
-      <c r="R22" t="s" s="125">
+      <c r="R22" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S22" s="126"/>
+      <c r="T22" s="126"/>
+      <c r="U22" s="126"/>
+      <c r="V22" s="126"/>
+      <c r="W22" s="126"/>
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="112">
         <v>-2</v>
       </c>
-      <c r="B23" t="s" s="125">
-        <v>180</v>
-      </c>
-      <c r="C23" t="s" s="125">
+      <c r="B23" t="s" s="126">
         <v>179</v>
+      </c>
+      <c r="C23" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="40"/>
-      <c r="F23" s="134">
+      <c r="F23" s="135">
         <v>3700000</v>
       </c>
       <c r="G23" s="39"/>
       <c r="H23" s="40"/>
-      <c r="I23" s="135">
+      <c r="I23" s="136">
         <v>154642.85</v>
       </c>
       <c r="J23" s="84"/>
-      <c r="K23" s="128">
+      <c r="K23" s="129">
         <v>170000</v>
       </c>
-      <c r="L23" s="137"/>
+      <c r="L23" s="138"/>
       <c r="M23" s="11"/>
       <c r="N23" s="40"/>
       <c r="O23" s="116">
         <v>0.909663823529412</v>
       </c>
       <c r="P23" s="84"/>
-      <c r="Q23" s="131">
+      <c r="Q23" s="132">
         <v>-0.191742619717521</v>
       </c>
-      <c r="R23" t="s" s="125">
+      <c r="R23" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S23" s="126"/>
+      <c r="T23" s="126"/>
+      <c r="U23" s="126"/>
+      <c r="V23" s="126"/>
+      <c r="W23" s="126"/>
     </row>
     <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="112">
         <v>-2</v>
       </c>
-      <c r="B24" t="s" s="125">
-        <v>181</v>
-      </c>
-      <c r="C24" t="s" s="125">
-        <v>179</v>
+      <c r="B24" t="s" s="126">
+        <v>180</v>
+      </c>
+      <c r="C24" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="40"/>
-      <c r="F24" s="134">
+      <c r="F24" s="135">
         <v>13041600</v>
       </c>
       <c r="G24" s="39"/>
       <c r="H24" s="40"/>
-      <c r="I24" s="135">
+      <c r="I24" s="136">
         <v>711357.11</v>
       </c>
       <c r="J24" s="84"/>
-      <c r="K24" s="128">
+      <c r="K24" s="129">
         <v>750000</v>
       </c>
-      <c r="L24" s="137"/>
+      <c r="L24" s="138"/>
       <c r="M24" s="11"/>
       <c r="N24" s="40"/>
       <c r="O24" s="116">
         <v>0.948476146666667</v>
       </c>
       <c r="P24" s="84"/>
-      <c r="Q24" s="131">
+      <c r="Q24" s="132">
         <v>-0.0335191448874813</v>
       </c>
-      <c r="R24" t="s" s="125">
+      <c r="R24" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S24" s="126"/>
+      <c r="T24" s="126"/>
+      <c r="U24" s="126"/>
+      <c r="V24" s="126"/>
+      <c r="W24" s="126"/>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="112">
         <v>-2</v>
       </c>
-      <c r="B25" t="s" s="125">
-        <v>182</v>
-      </c>
-      <c r="C25" t="s" s="125">
-        <v>179</v>
+      <c r="B25" t="s" s="126">
+        <v>181</v>
+      </c>
+      <c r="C25" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D25" s="39"/>
       <c r="E25" s="40"/>
-      <c r="F25" s="134">
+      <c r="F25" s="135">
         <v>6200000</v>
       </c>
       <c r="G25" s="39"/>
       <c r="H25" s="40"/>
-      <c r="I25" s="135">
+      <c r="I25" s="136">
         <v>432999.98</v>
       </c>
       <c r="J25" s="84"/>
-      <c r="K25" s="128">
+      <c r="K25" s="129">
         <v>500000</v>
       </c>
-      <c r="L25" s="137"/>
+      <c r="L25" s="138"/>
       <c r="M25" s="11"/>
       <c r="N25" s="40"/>
       <c r="O25" s="116">
         <v>0.86599996</v>
       </c>
       <c r="P25" s="84"/>
-      <c r="Q25" s="131">
+      <c r="Q25" s="132">
         <v>-0.0947517340836231</v>
       </c>
-      <c r="R25" t="s" s="125">
+      <c r="R25" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S25" s="126"/>
+      <c r="T25" s="126"/>
+      <c r="U25" s="126"/>
+      <c r="V25" s="126"/>
+      <c r="W25" s="126"/>
     </row>
     <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="112">
         <v>-2</v>
       </c>
-      <c r="B26" t="s" s="125">
-        <v>183</v>
-      </c>
-      <c r="C26" t="s" s="125">
-        <v>179</v>
+      <c r="B26" t="s" s="126">
+        <v>182</v>
+      </c>
+      <c r="C26" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D26" s="39"/>
       <c r="E26" s="40"/>
-      <c r="F26" s="134">
+      <c r="F26" s="135">
         <v>1400000</v>
       </c>
       <c r="G26" s="39"/>
       <c r="H26" s="40"/>
-      <c r="I26" s="135">
+      <c r="I26" s="136">
         <v>77321.425</v>
       </c>
       <c r="J26" s="84"/>
-      <c r="K26" s="128">
+      <c r="K26" s="129">
         <v>80000</v>
       </c>
-      <c r="L26" s="137"/>
+      <c r="L26" s="138"/>
       <c r="M26" s="11"/>
       <c r="N26" s="40"/>
       <c r="O26" s="116">
         <v>0.9665178125</v>
       </c>
       <c r="P26" s="84"/>
-      <c r="Q26" s="131">
+      <c r="Q26" s="132">
         <v>0.109023125259071</v>
       </c>
-      <c r="R26" t="s" s="125">
+      <c r="R26" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S26" s="126"/>
+      <c r="T26" s="126"/>
+      <c r="U26" s="126"/>
+      <c r="V26" s="126"/>
+      <c r="W26" s="126"/>
     </row>
     <row r="27" ht="13.5" customHeight="1">
       <c r="A27" s="112">
         <v>-2</v>
       </c>
-      <c r="B27" t="s" s="125">
-        <v>184</v>
-      </c>
-      <c r="C27" t="s" s="125">
-        <v>179</v>
+      <c r="B27" t="s" s="126">
+        <v>183</v>
+      </c>
+      <c r="C27" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D27" s="39"/>
       <c r="E27" s="40"/>
-      <c r="F27" s="134">
+      <c r="F27" s="135">
         <v>4067200</v>
       </c>
       <c r="G27" s="39"/>
       <c r="H27" s="40"/>
-      <c r="I27" s="135">
+      <c r="I27" s="136">
         <v>247428.56</v>
       </c>
       <c r="J27" s="84"/>
-      <c r="K27" s="128">
+      <c r="K27" s="129">
         <v>250000</v>
       </c>
-      <c r="L27" s="137"/>
+      <c r="L27" s="138"/>
       <c r="M27" s="11"/>
       <c r="N27" s="40"/>
       <c r="O27" s="116">
         <v>0.98971424</v>
       </c>
       <c r="P27" s="84"/>
-      <c r="Q27" s="131">
+      <c r="Q27" s="132">
         <v>0.1084672643874</v>
       </c>
-      <c r="R27" t="s" s="125">
+      <c r="R27" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S27" s="126"/>
+      <c r="T27" s="126"/>
+      <c r="U27" s="126"/>
+      <c r="V27" s="126"/>
+      <c r="W27" s="126"/>
     </row>
     <row r="28" ht="13.5" customHeight="1">
       <c r="A28" s="112">
         <v>-2</v>
       </c>
-      <c r="B28" t="s" s="125">
-        <v>185</v>
-      </c>
-      <c r="C28" t="s" s="125">
-        <v>179</v>
+      <c r="B28" t="s" s="126">
+        <v>184</v>
+      </c>
+      <c r="C28" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D28" s="39"/>
       <c r="E28" s="40"/>
-      <c r="F28" s="134">
+      <c r="F28" s="135">
         <v>1419200</v>
       </c>
       <c r="G28" s="39"/>
       <c r="H28" s="40"/>
-      <c r="I28" s="135">
+      <c r="I28" s="136">
         <v>92785.710000000006</v>
       </c>
       <c r="J28" s="84"/>
-      <c r="K28" s="128">
+      <c r="K28" s="129">
         <v>100000</v>
       </c>
-      <c r="L28" s="137"/>
+      <c r="L28" s="138"/>
       <c r="M28" s="11"/>
       <c r="N28" s="40"/>
       <c r="O28" s="116">
         <v>0.9278571</v>
       </c>
       <c r="P28" s="84"/>
-      <c r="Q28" s="131">
+      <c r="Q28" s="132">
         <v>0.0233978379155821</v>
       </c>
-      <c r="R28" t="s" s="125">
+      <c r="R28" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S28" s="126"/>
+      <c r="T28" s="126"/>
+      <c r="U28" s="126"/>
+      <c r="V28" s="126"/>
+      <c r="W28" s="126"/>
     </row>
     <row r="29" ht="13.5" customHeight="1">
       <c r="A29" s="112">
         <v>-2</v>
       </c>
-      <c r="B29" t="s" s="125">
-        <v>186</v>
-      </c>
-      <c r="C29" t="s" s="125">
-        <v>179</v>
+      <c r="B29" t="s" s="126">
+        <v>185</v>
+      </c>
+      <c r="C29" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D29" s="39"/>
       <c r="E29" s="40"/>
-      <c r="F29" s="134">
+      <c r="F29" s="135">
         <v>1014300</v>
       </c>
       <c r="G29" s="39"/>
       <c r="H29" s="40"/>
-      <c r="I29" s="135">
+      <c r="I29" s="136">
         <v>21649.999</v>
       </c>
       <c r="J29" s="84"/>
-      <c r="K29" s="128">
+      <c r="K29" s="129">
         <v>25000</v>
       </c>
-      <c r="L29" s="137"/>
+      <c r="L29" s="138"/>
       <c r="M29" s="11"/>
       <c r="N29" s="40"/>
       <c r="O29" s="116">
         <v>0.86599996</v>
       </c>
       <c r="P29" s="84"/>
-      <c r="Q29" s="131">
+      <c r="Q29" s="132">
         <v>-0.151329750703397</v>
       </c>
-      <c r="R29" t="s" s="125">
+      <c r="R29" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S29" s="126"/>
+      <c r="T29" s="126"/>
+      <c r="U29" s="126"/>
+      <c r="V29" s="126"/>
+      <c r="W29" s="126"/>
     </row>
     <row r="30" ht="13.5" customHeight="1">
       <c r="A30" s="112">
         <v>-2</v>
       </c>
-      <c r="B30" t="s" s="125">
-        <v>187</v>
-      </c>
-      <c r="C30" t="s" s="125">
-        <v>179</v>
+      <c r="B30" t="s" s="126">
+        <v>186</v>
+      </c>
+      <c r="C30" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30" s="40"/>
-      <c r="F30" s="134">
+      <c r="F30" s="135">
         <v>628320</v>
       </c>
       <c r="G30" s="39"/>
       <c r="H30" s="40"/>
-      <c r="I30" s="135">
+      <c r="I30" s="136">
         <v>55671.426</v>
       </c>
       <c r="J30" s="84"/>
-      <c r="K30" s="128">
+      <c r="K30" s="129">
         <v>60000</v>
       </c>
-      <c r="L30" s="137"/>
+      <c r="L30" s="138"/>
       <c r="M30" s="11"/>
       <c r="N30" s="40"/>
       <c r="O30" s="116">
         <v>0.9278571</v>
       </c>
       <c r="P30" s="84"/>
-      <c r="Q30" s="131">
+      <c r="Q30" s="132">
         <v>-0.0695404045114185</v>
       </c>
-      <c r="R30" t="s" s="125">
+      <c r="R30" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S30" s="126"/>
+      <c r="T30" s="126"/>
+      <c r="U30" s="126"/>
+      <c r="V30" s="126"/>
+      <c r="W30" s="126"/>
     </row>
     <row r="31" ht="13.5" customHeight="1">
       <c r="A31" s="112">
         <v>-2</v>
       </c>
-      <c r="B31" t="s" s="125">
-        <v>188</v>
-      </c>
-      <c r="C31" t="s" s="125">
-        <v>179</v>
+      <c r="B31" t="s" s="126">
+        <v>187</v>
+      </c>
+      <c r="C31" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="40"/>
-      <c r="F31" s="134">
+      <c r="F31" s="135">
         <v>12234288</v>
       </c>
       <c r="G31" s="39"/>
       <c r="H31" s="40"/>
-      <c r="I31" s="135">
+      <c r="I31" s="136">
         <v>773214.25</v>
       </c>
       <c r="J31" s="84"/>
-      <c r="K31" s="128">
+      <c r="K31" s="129">
         <v>800000</v>
       </c>
-      <c r="L31" s="137"/>
+      <c r="L31" s="138"/>
       <c r="M31" s="11"/>
       <c r="N31" s="40"/>
       <c r="O31" s="116">
         <v>0.9665178125</v>
       </c>
       <c r="P31" s="84"/>
-      <c r="Q31" s="131">
+      <c r="Q31" s="132">
         <v>0.0211452543109312</v>
       </c>
-      <c r="R31" t="s" s="125">
+      <c r="R31" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S31" s="126"/>
+      <c r="T31" s="126"/>
+      <c r="U31" s="126"/>
+      <c r="V31" s="126"/>
+      <c r="W31" s="126"/>
     </row>
     <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="128">
+      <c r="A32" s="129">
         <v>-1</v>
       </c>
-      <c r="B32" t="s" s="125">
+      <c r="B32" t="s" s="126">
+        <v>177</v>
+      </c>
+      <c r="C32" t="s" s="126">
         <v>178</v>
-      </c>
-      <c r="C32" t="s" s="125">
-        <v>179</v>
       </c>
       <c r="D32" s="39"/>
       <c r="E32" s="40"/>
-      <c r="F32" s="134">
+      <c r="F32" s="135">
         <v>10560000</v>
       </c>
       <c r="G32" s="39"/>
       <c r="H32" s="40"/>
-      <c r="I32" s="135">
+      <c r="I32" s="136">
         <v>716400</v>
       </c>
       <c r="J32" s="84"/>
-      <c r="K32" s="128">
+      <c r="K32" s="129">
         <v>600000</v>
       </c>
-      <c r="L32" s="137"/>
+      <c r="L32" s="138"/>
       <c r="M32" s="11"/>
       <c r="N32" s="40"/>
       <c r="O32" s="116">
         <v>1.194</v>
       </c>
       <c r="P32" s="84"/>
-      <c r="Q32" s="131">
+      <c r="Q32" s="132">
         <v>0.362532327572475</v>
       </c>
-      <c r="R32" t="s" s="125">
+      <c r="R32" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S32" s="126"/>
+      <c r="T32" s="126"/>
+      <c r="U32" s="126"/>
+      <c r="V32" s="126"/>
+      <c r="W32" s="126"/>
     </row>
     <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="128">
+      <c r="A33" s="129">
         <v>-1</v>
       </c>
-      <c r="B33" t="s" s="125">
-        <v>180</v>
-      </c>
-      <c r="C33" t="s" s="125">
+      <c r="B33" t="s" s="126">
         <v>179</v>
+      </c>
+      <c r="C33" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D33" s="39"/>
       <c r="E33" s="40"/>
-      <c r="F33" s="134">
+      <c r="F33" s="135">
         <v>3700000</v>
       </c>
       <c r="G33" s="39"/>
       <c r="H33" s="40"/>
-      <c r="I33" s="135">
+      <c r="I33" s="136">
         <v>220500</v>
       </c>
       <c r="J33" s="84"/>
-      <c r="K33" s="128">
+      <c r="K33" s="129">
         <v>200000</v>
       </c>
-      <c r="L33" s="137"/>
+      <c r="L33" s="138"/>
       <c r="M33" s="11"/>
       <c r="N33" s="40"/>
       <c r="O33" s="116">
         <v>1.1025</v>
       </c>
       <c r="P33" s="84"/>
-      <c r="Q33" s="131">
+      <c r="Q33" s="132">
         <v>0.425866116668181</v>
       </c>
-      <c r="R33" t="s" s="125">
+      <c r="R33" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S33" s="126"/>
+      <c r="T33" s="126"/>
+      <c r="U33" s="126"/>
+      <c r="V33" s="126"/>
+      <c r="W33" s="126"/>
     </row>
     <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="128">
+      <c r="A34" s="129">
         <v>-1</v>
       </c>
-      <c r="B34" t="s" s="125">
-        <v>181</v>
-      </c>
-      <c r="C34" t="s" s="125">
-        <v>179</v>
+      <c r="B34" t="s" s="126">
+        <v>180</v>
+      </c>
+      <c r="C34" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D34" s="39"/>
       <c r="E34" s="40"/>
-      <c r="F34" s="134">
+      <c r="F34" s="135">
         <v>13041600</v>
       </c>
       <c r="G34" s="39"/>
       <c r="H34" s="40"/>
-      <c r="I34" s="135">
+      <c r="I34" s="136">
         <v>859704</v>
       </c>
       <c r="J34" s="84"/>
-      <c r="K34" s="128">
+      <c r="K34" s="129">
         <v>800000</v>
       </c>
-      <c r="L34" s="137"/>
+      <c r="L34" s="138"/>
       <c r="M34" s="11"/>
       <c r="N34" s="40"/>
       <c r="O34" s="116">
         <v>1.07463</v>
       </c>
       <c r="P34" s="84"/>
-      <c r="Q34" s="131">
+      <c r="Q34" s="132">
         <v>0.208540672349504</v>
       </c>
-      <c r="R34" t="s" s="125">
+      <c r="R34" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S34" s="126"/>
+      <c r="T34" s="126"/>
+      <c r="U34" s="126"/>
+      <c r="V34" s="126"/>
+      <c r="W34" s="126"/>
     </row>
     <row r="35" ht="13.5" customHeight="1">
-      <c r="A35" s="128">
+      <c r="A35" s="129">
         <v>-1</v>
       </c>
-      <c r="B35" t="s" s="125">
-        <v>182</v>
-      </c>
-      <c r="C35" t="s" s="125">
-        <v>179</v>
+      <c r="B35" t="s" s="126">
+        <v>181</v>
+      </c>
+      <c r="C35" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D35" s="39"/>
       <c r="E35" s="40"/>
-      <c r="F35" s="134">
+      <c r="F35" s="135">
         <v>6200000</v>
       </c>
       <c r="G35" s="39"/>
       <c r="H35" s="40"/>
-      <c r="I35" s="135">
+      <c r="I35" s="136">
         <v>400000</v>
       </c>
       <c r="J35" s="84"/>
-      <c r="K35" s="128">
+      <c r="K35" s="129">
         <v>450000</v>
       </c>
-      <c r="L35" s="137"/>
+      <c r="L35" s="138"/>
       <c r="M35" s="11"/>
       <c r="N35" s="40"/>
       <c r="O35" s="116">
         <v>0.888888888888889</v>
       </c>
       <c r="P35" s="84"/>
-      <c r="Q35" s="131">
+      <c r="Q35" s="132">
         <v>-0.0762124284624679</v>
       </c>
-      <c r="R35" t="s" s="125">
+      <c r="R35" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S35" s="126"/>
+      <c r="T35" s="126"/>
+      <c r="U35" s="126"/>
+      <c r="V35" s="126"/>
+      <c r="W35" s="126"/>
     </row>
     <row r="36" ht="13.5" customHeight="1">
-      <c r="A36" s="128">
+      <c r="A36" s="129">
         <v>-1</v>
       </c>
-      <c r="B36" t="s" s="125">
-        <v>183</v>
-      </c>
-      <c r="C36" t="s" s="125">
-        <v>179</v>
+      <c r="B36" t="s" s="126">
+        <v>182</v>
+      </c>
+      <c r="C36" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D36" s="39"/>
       <c r="E36" s="40"/>
-      <c r="F36" s="134">
+      <c r="F36" s="135">
         <v>1400000</v>
       </c>
       <c r="G36" s="39"/>
       <c r="H36" s="40"/>
-      <c r="I36" s="135">
+      <c r="I36" s="136">
         <v>90000</v>
       </c>
       <c r="J36" s="84"/>
-      <c r="K36" s="128">
+      <c r="K36" s="129">
         <v>85000</v>
       </c>
-      <c r="L36" s="137"/>
+      <c r="L36" s="138"/>
       <c r="M36" s="11"/>
       <c r="N36" s="40"/>
       <c r="O36" s="116">
         <v>1.05882352941176</v>
       </c>
       <c r="P36" s="84"/>
-      <c r="Q36" s="131">
+      <c r="Q36" s="132">
         <v>0.163972340137291</v>
       </c>
-      <c r="R36" t="s" s="125">
+      <c r="R36" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S36" s="126"/>
+      <c r="T36" s="126"/>
+      <c r="U36" s="126"/>
+      <c r="V36" s="126"/>
+      <c r="W36" s="126"/>
     </row>
     <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" s="128">
+      <c r="A37" s="129">
         <v>-1</v>
       </c>
-      <c r="B37" t="s" s="125">
-        <v>184</v>
-      </c>
-      <c r="C37" t="s" s="125">
-        <v>179</v>
+      <c r="B37" t="s" s="126">
+        <v>183</v>
+      </c>
+      <c r="C37" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D37" s="39"/>
       <c r="E37" s="40"/>
-      <c r="F37" s="134">
+      <c r="F37" s="135">
         <v>4067200</v>
       </c>
       <c r="G37" s="39"/>
       <c r="H37" s="40"/>
-      <c r="I37" s="135">
+      <c r="I37" s="136">
         <v>276368</v>
       </c>
       <c r="J37" s="84"/>
-      <c r="K37" s="128">
+      <c r="K37" s="129">
         <v>250000</v>
       </c>
-      <c r="L37" s="137"/>
+      <c r="L37" s="138"/>
       <c r="M37" s="11"/>
       <c r="N37" s="40"/>
       <c r="O37" s="116">
         <v>1.105472</v>
       </c>
       <c r="P37" s="84"/>
-      <c r="Q37" s="131">
+      <c r="Q37" s="132">
         <v>0.116960790621746</v>
       </c>
-      <c r="R37" t="s" s="125">
+      <c r="R37" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S37" s="126"/>
+      <c r="T37" s="126"/>
+      <c r="U37" s="126"/>
+      <c r="V37" s="126"/>
+      <c r="W37" s="126"/>
     </row>
     <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" s="128">
+      <c r="A38" s="129">
         <v>-1</v>
       </c>
-      <c r="B38" t="s" s="125">
-        <v>185</v>
-      </c>
-      <c r="C38" t="s" s="125">
-        <v>179</v>
+      <c r="B38" t="s" s="126">
+        <v>184</v>
+      </c>
+      <c r="C38" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D38" s="39"/>
       <c r="E38" s="40"/>
-      <c r="F38" s="134">
+      <c r="F38" s="135">
         <v>1419200</v>
       </c>
       <c r="G38" s="39"/>
       <c r="H38" s="40"/>
-      <c r="I38" s="135">
+      <c r="I38" s="136">
         <v>90248</v>
       </c>
       <c r="J38" s="84"/>
-      <c r="K38" s="128">
+      <c r="K38" s="129">
         <v>100000</v>
       </c>
-      <c r="L38" s="137"/>
+      <c r="L38" s="138"/>
       <c r="M38" s="11"/>
       <c r="N38" s="40"/>
       <c r="O38" s="116">
         <v>0.9024799999999999</v>
       </c>
       <c r="P38" s="84"/>
-      <c r="Q38" s="131">
+      <c r="Q38" s="132">
         <v>-0.0273502245119426</v>
       </c>
-      <c r="R38" t="s" s="125">
+      <c r="R38" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S38" s="126"/>
+      <c r="T38" s="126"/>
+      <c r="U38" s="126"/>
+      <c r="V38" s="126"/>
+      <c r="W38" s="126"/>
     </row>
     <row r="39" ht="13.5" customHeight="1">
-      <c r="A39" s="128">
+      <c r="A39" s="129">
         <v>-1</v>
       </c>
-      <c r="B39" t="s" s="125">
-        <v>186</v>
-      </c>
-      <c r="C39" t="s" s="125">
-        <v>179</v>
+      <c r="B39" t="s" s="126">
+        <v>185</v>
+      </c>
+      <c r="C39" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D39" s="39"/>
       <c r="E39" s="40"/>
-      <c r="F39" s="134">
+      <c r="F39" s="135">
         <v>1014300</v>
       </c>
       <c r="G39" s="39"/>
       <c r="H39" s="40"/>
-      <c r="I39" s="135">
+      <c r="I39" s="136">
         <v>28930</v>
       </c>
       <c r="J39" s="84"/>
-      <c r="K39" s="128">
+      <c r="K39" s="129">
         <v>25000</v>
       </c>
-      <c r="L39" s="137"/>
+      <c r="L39" s="138"/>
       <c r="M39" s="11"/>
       <c r="N39" s="40"/>
       <c r="O39" s="116">
         <v>1.1572</v>
       </c>
       <c r="P39" s="84"/>
-      <c r="Q39" s="131">
+      <c r="Q39" s="132">
         <v>0.33625872222904</v>
       </c>
-      <c r="R39" t="s" s="125">
+      <c r="R39" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S39" s="126"/>
+      <c r="T39" s="126"/>
+      <c r="U39" s="126"/>
+      <c r="V39" s="126"/>
+      <c r="W39" s="126"/>
     </row>
     <row r="40" ht="13.5" customHeight="1">
-      <c r="A40" s="128">
+      <c r="A40" s="129">
         <v>-1</v>
       </c>
-      <c r="B40" t="s" s="125">
-        <v>187</v>
-      </c>
-      <c r="C40" t="s" s="125">
-        <v>179</v>
+      <c r="B40" t="s" s="126">
+        <v>186</v>
+      </c>
+      <c r="C40" t="s" s="126">
+        <v>178</v>
       </c>
       <c r="D40" s="39"/>
       <c r="E40" s="40"/>
-      <c r="F40" s="134">
+      <c r="F40" s="135">
         <v>628320</v>
       </c>
       <c r="G40" s="39"/>
       <c r="H40" s="40"/>
-      <c r="I40" s="135">
+      <c r="I40" s="136">
         <v>35840</v>
       </c>
       <c r="J40" s="84"/>
-      <c r="K40" s="128">
+      <c r="K40" s="129">
         <v>40000</v>
       </c>
-      <c r="L40" s="137"/>
+      <c r="L40" s="138"/>
       <c r="M40" s="11"/>
       <c r="N40" s="40"/>
       <c r="O40" s="116">
         <v>0.896</v>
       </c>
       <c r="P40" s="84"/>
-      <c r="Q40" s="131">
+      <c r="Q40" s="132">
         <v>-0.356222705701844</v>
       </c>
-      <c r="R40" t="s" s="125">
+      <c r="R40" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S40" s="126"/>
+      <c r="T40" s="126"/>
+      <c r="U40" s="126"/>
+      <c r="V40" s="126"/>
+      <c r="W40" s="126"/>
     </row>
     <row r="41" ht="13.5" customHeight="1">
-      <c r="A41" s="128">
+      <c r="A41" s="129">
         <v>-1</v>
       </c>
-      <c r="B41" t="s" s="125">
-        <v>188</v>
-      </c>
-      <c r="C41" t="s" s="125">
-        <v>179</v>
-      </c>
-      <c r="D41" s="140"/>
+      <c r="B41" t="s" s="126">
+        <v>187</v>
+      </c>
+      <c r="C41" t="s" s="126">
+        <v>178</v>
+      </c>
+      <c r="D41" s="141"/>
       <c r="E41" s="40"/>
-      <c r="F41" s="134">
+      <c r="F41" s="135">
         <v>12234288</v>
       </c>
       <c r="G41" s="39"/>
       <c r="H41" s="40"/>
-      <c r="I41" s="135">
+      <c r="I41" s="136">
         <v>835229</v>
       </c>
       <c r="J41" s="84"/>
-      <c r="K41" s="128">
+      <c r="K41" s="129">
         <v>800000</v>
       </c>
-      <c r="L41" s="137"/>
+      <c r="L41" s="138"/>
       <c r="M41" s="11"/>
       <c r="N41" s="40"/>
       <c r="O41" s="116">
         <v>1.04403625</v>
       </c>
       <c r="P41" s="84"/>
-      <c r="Q41" s="131">
+      <c r="Q41" s="132">
         <v>0.08020383742281</v>
       </c>
-      <c r="R41" t="s" s="125">
+      <c r="R41" t="s" s="126">
         <v>6</v>
       </c>
+      <c r="S41" s="126"/>
+      <c r="T41" s="126"/>
+      <c r="U41" s="126"/>
+      <c r="V41" s="126"/>
+      <c r="W41" s="126"/>
     </row>
     <row r="42" ht="13.5" customHeight="1">
       <c r="A42" s="112">
         <v>-4</v>
       </c>
       <c r="B42" s="81"/>
-      <c r="C42" t="s" s="141">
+      <c r="C42" t="s" s="142">
+        <v>188</v>
+      </c>
+      <c r="D42" t="s" s="142">
         <v>189</v>
-      </c>
-      <c r="D42" t="s" s="141">
-        <v>190</v>
       </c>
       <c r="E42" s="39"/>
       <c r="F42" s="67"/>
       <c r="G42" s="11"/>
       <c r="H42" s="40"/>
-      <c r="I42" s="142">
+      <c r="I42" s="143">
         <v>1053340</v>
       </c>
       <c r="J42" s="84"/>
-      <c r="K42" s="142">
+      <c r="K42" s="143">
         <v>975000</v>
       </c>
-      <c r="L42" s="143"/>
+      <c r="L42" s="144"/>
       <c r="M42" s="11"/>
       <c r="N42" s="40"/>
-      <c r="O42" s="144">
+      <c r="O42" s="145">
         <v>1.08034871794872</v>
       </c>
       <c r="P42" s="84"/>
-      <c r="Q42" s="144">
+      <c r="Q42" s="145">
         <v>0.187882670877236</v>
       </c>
-      <c r="R42" t="s" s="141">
+      <c r="R42" t="s" s="142">
         <v>10</v>
+      </c>
+      <c r="S42" s="91">
+        <v>7</v>
+      </c>
+      <c r="T42" s="91">
+        <v>8</v>
+      </c>
+      <c r="U42" s="91">
+        <v>7</v>
+      </c>
+      <c r="V42" s="91">
+        <v>9</v>
+      </c>
+      <c r="W42" s="91">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.5" customHeight="1">
@@ -8737,35 +9527,50 @@
         <v>-4</v>
       </c>
       <c r="B43" s="84"/>
-      <c r="C43" t="s" s="141">
-        <v>189</v>
-      </c>
-      <c r="D43" t="s" s="141">
-        <v>191</v>
+      <c r="C43" t="s" s="142">
+        <v>188</v>
+      </c>
+      <c r="D43" t="s" s="142">
+        <v>190</v>
       </c>
       <c r="E43" s="39"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="40"/>
-      <c r="I43" s="142">
+      <c r="I43" s="143">
         <v>1516481</v>
       </c>
       <c r="J43" s="84"/>
-      <c r="K43" s="142">
+      <c r="K43" s="143">
         <v>1450000</v>
       </c>
-      <c r="L43" s="143"/>
+      <c r="L43" s="144"/>
       <c r="M43" s="11"/>
       <c r="N43" s="40"/>
-      <c r="O43" s="144">
+      <c r="O43" s="145">
         <v>1.04584896551724</v>
       </c>
       <c r="P43" s="84"/>
-      <c r="Q43" s="144">
+      <c r="Q43" s="145">
         <v>0.159205827067669</v>
       </c>
-      <c r="R43" t="s" s="141">
+      <c r="R43" t="s" s="142">
         <v>10</v>
+      </c>
+      <c r="S43" s="91">
+        <v>9</v>
+      </c>
+      <c r="T43" s="91">
+        <v>8</v>
+      </c>
+      <c r="U43" s="91">
+        <v>8</v>
+      </c>
+      <c r="V43" s="91">
+        <v>8</v>
+      </c>
+      <c r="W43" s="91">
+        <v>7</v>
       </c>
     </row>
     <row r="44" ht="13.5" customHeight="1">
@@ -8773,35 +9578,50 @@
         <v>-4</v>
       </c>
       <c r="B44" s="84"/>
-      <c r="C44" t="s" s="141">
-        <v>189</v>
-      </c>
-      <c r="D44" t="s" s="141">
-        <v>192</v>
+      <c r="C44" t="s" s="142">
+        <v>188</v>
+      </c>
+      <c r="D44" t="s" s="142">
+        <v>191</v>
       </c>
       <c r="E44" s="39"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="40"/>
-      <c r="I44" s="142">
+      <c r="I44" s="143">
         <v>319691</v>
       </c>
       <c r="J44" s="84"/>
-      <c r="K44" s="142">
+      <c r="K44" s="143">
         <v>385000</v>
       </c>
-      <c r="L44" s="143"/>
+      <c r="L44" s="144"/>
       <c r="M44" s="11"/>
       <c r="N44" s="40"/>
-      <c r="O44" s="144">
+      <c r="O44" s="145">
         <v>0.830366233766234</v>
       </c>
       <c r="P44" s="84"/>
-      <c r="Q44" s="144">
+      <c r="Q44" s="145">
         <v>-0.124001966568338</v>
       </c>
-      <c r="R44" t="s" s="141">
+      <c r="R44" t="s" s="142">
         <v>10</v>
+      </c>
+      <c r="S44" s="91">
+        <v>4</v>
+      </c>
+      <c r="T44" s="91">
+        <v>5</v>
+      </c>
+      <c r="U44" s="91">
+        <v>7</v>
+      </c>
+      <c r="V44" s="91">
+        <v>7</v>
+      </c>
+      <c r="W44" s="91">
+        <v>8</v>
       </c>
     </row>
     <row r="45" ht="13.5" customHeight="1">
@@ -8809,35 +9629,50 @@
         <v>-4</v>
       </c>
       <c r="B45" s="84"/>
-      <c r="C45" t="s" s="141">
-        <v>189</v>
-      </c>
-      <c r="D45" t="s" s="141">
-        <v>193</v>
+      <c r="C45" t="s" s="142">
+        <v>188</v>
+      </c>
+      <c r="D45" t="s" s="142">
+        <v>192</v>
       </c>
       <c r="E45" s="39"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="40"/>
-      <c r="I45" s="142">
+      <c r="I45" s="143">
         <v>368874</v>
       </c>
       <c r="J45" s="84"/>
-      <c r="K45" s="142">
+      <c r="K45" s="143">
         <v>370000</v>
       </c>
-      <c r="L45" s="143"/>
+      <c r="L45" s="144"/>
       <c r="M45" s="11"/>
       <c r="N45" s="40"/>
-      <c r="O45" s="144">
+      <c r="O45" s="145">
         <v>0.996956756756757</v>
       </c>
       <c r="P45" s="84"/>
-      <c r="Q45" s="144">
+      <c r="Q45" s="145">
         <v>0.126180758017493</v>
       </c>
-      <c r="R45" t="s" s="141">
+      <c r="R45" t="s" s="142">
         <v>10</v>
+      </c>
+      <c r="S45" s="91">
+        <v>5</v>
+      </c>
+      <c r="T45" s="91">
+        <v>6</v>
+      </c>
+      <c r="U45" s="91">
+        <v>4</v>
+      </c>
+      <c r="V45" s="91">
+        <v>6</v>
+      </c>
+      <c r="W45" s="91">
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="13.5" customHeight="1">
@@ -8845,35 +9680,50 @@
         <v>-4</v>
       </c>
       <c r="B46" s="84"/>
-      <c r="C46" t="s" s="141">
-        <v>189</v>
-      </c>
-      <c r="D46" t="s" s="141">
-        <v>194</v>
+      <c r="C46" t="s" s="142">
+        <v>188</v>
+      </c>
+      <c r="D46" t="s" s="142">
+        <v>193</v>
       </c>
       <c r="E46" s="39"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="40"/>
-      <c r="I46" s="142">
+      <c r="I46" s="143">
         <v>840213</v>
       </c>
       <c r="J46" s="84"/>
-      <c r="K46" s="142">
+      <c r="K46" s="143">
         <v>800000</v>
       </c>
-      <c r="L46" s="143"/>
+      <c r="L46" s="144"/>
       <c r="M46" s="11"/>
       <c r="N46" s="40"/>
-      <c r="O46" s="144">
+      <c r="O46" s="145">
         <v>1.05026625</v>
       </c>
       <c r="P46" s="84"/>
-      <c r="Q46" s="144">
+      <c r="Q46" s="145">
         <v>0.146255697851096</v>
       </c>
-      <c r="R46" t="s" s="141">
+      <c r="R46" t="s" s="142">
         <v>10</v>
+      </c>
+      <c r="S46" s="91">
+        <v>7</v>
+      </c>
+      <c r="T46" s="91">
+        <v>9</v>
+      </c>
+      <c r="U46" s="91">
+        <v>5</v>
+      </c>
+      <c r="V46" s="91">
+        <v>8</v>
+      </c>
+      <c r="W46" s="91">
+        <v>7</v>
       </c>
     </row>
     <row r="47" ht="13.5" customHeight="1">
@@ -8881,35 +9731,50 @@
         <v>-3</v>
       </c>
       <c r="B47" s="84"/>
-      <c r="C47" t="s" s="141">
+      <c r="C47" t="s" s="142">
+        <v>188</v>
+      </c>
+      <c r="D47" t="s" s="142">
         <v>189</v>
-      </c>
-      <c r="D47" t="s" s="141">
-        <v>190</v>
       </c>
       <c r="E47" s="39"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="40"/>
-      <c r="I47" s="142">
+      <c r="I47" s="143">
         <v>817035</v>
       </c>
       <c r="J47" s="84"/>
-      <c r="K47" s="142">
+      <c r="K47" s="143">
         <v>910000</v>
       </c>
-      <c r="L47" s="143"/>
+      <c r="L47" s="144"/>
       <c r="M47" s="11"/>
       <c r="N47" s="40"/>
-      <c r="O47" s="144">
+      <c r="O47" s="145">
         <v>0.897840659340659</v>
       </c>
       <c r="P47" s="84"/>
-      <c r="Q47" s="144">
+      <c r="Q47" s="145">
         <v>0.0145048865715667</v>
       </c>
-      <c r="R47" t="s" s="141">
+      <c r="R47" t="s" s="142">
         <v>10</v>
+      </c>
+      <c r="S47" s="91">
+        <v>7</v>
+      </c>
+      <c r="T47" s="91">
+        <v>8</v>
+      </c>
+      <c r="U47" s="91">
+        <v>7</v>
+      </c>
+      <c r="V47" s="91">
+        <v>9</v>
+      </c>
+      <c r="W47" s="91">
+        <v>4</v>
       </c>
     </row>
     <row r="48" ht="13.5" customHeight="1">
@@ -8917,35 +9782,50 @@
         <v>-3</v>
       </c>
       <c r="B48" s="84"/>
-      <c r="C48" t="s" s="141">
-        <v>189</v>
-      </c>
-      <c r="D48" t="s" s="141">
-        <v>191</v>
+      <c r="C48" t="s" s="142">
+        <v>188</v>
+      </c>
+      <c r="D48" t="s" s="142">
+        <v>190</v>
       </c>
       <c r="E48" s="39"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="40"/>
-      <c r="I48" s="142">
+      <c r="I48" s="143">
         <v>1214350</v>
       </c>
       <c r="J48" s="84"/>
-      <c r="K48" s="142">
+      <c r="K48" s="143">
         <v>1350000</v>
       </c>
-      <c r="L48" s="143"/>
+      <c r="L48" s="144"/>
       <c r="M48" s="11"/>
       <c r="N48" s="40"/>
-      <c r="O48" s="144">
+      <c r="O48" s="145">
         <v>0.8995185185185181</v>
       </c>
       <c r="P48" s="84"/>
-      <c r="Q48" s="144">
+      <c r="Q48" s="145">
         <v>-0.0576382426812698</v>
       </c>
-      <c r="R48" t="s" s="141">
+      <c r="R48" t="s" s="142">
         <v>10</v>
+      </c>
+      <c r="S48" s="91">
+        <v>9</v>
+      </c>
+      <c r="T48" s="91">
+        <v>8</v>
+      </c>
+      <c r="U48" s="91">
+        <v>8</v>
+      </c>
+      <c r="V48" s="91">
+        <v>8</v>
+      </c>
+      <c r="W48" s="91">
+        <v>7</v>
       </c>
     </row>
     <row r="49" ht="13.5" customHeight="1">
@@ -8953,35 +9833,50 @@
         <v>-3</v>
       </c>
       <c r="B49" s="84"/>
-      <c r="C49" t="s" s="141">
-        <v>189</v>
-      </c>
-      <c r="D49" t="s" s="141">
-        <v>192</v>
+      <c r="C49" t="s" s="142">
+        <v>188</v>
+      </c>
+      <c r="D49" t="s" s="142">
+        <v>191</v>
       </c>
       <c r="E49" s="39"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="40"/>
-      <c r="I49" s="142">
+      <c r="I49" s="143">
         <v>248727</v>
       </c>
       <c r="J49" s="84"/>
-      <c r="K49" s="142">
+      <c r="K49" s="143">
         <v>275000</v>
       </c>
-      <c r="L49" s="143"/>
+      <c r="L49" s="144"/>
       <c r="M49" s="11"/>
       <c r="N49" s="40"/>
-      <c r="O49" s="144">
+      <c r="O49" s="145">
         <v>0.904461818181818</v>
       </c>
       <c r="P49" s="84"/>
-      <c r="Q49" s="144">
+      <c r="Q49" s="145">
         <v>0.081824651123521</v>
       </c>
-      <c r="R49" t="s" s="141">
+      <c r="R49" t="s" s="142">
         <v>10</v>
+      </c>
+      <c r="S49" s="91">
+        <v>4</v>
+      </c>
+      <c r="T49" s="91">
+        <v>5</v>
+      </c>
+      <c r="U49" s="91">
+        <v>7</v>
+      </c>
+      <c r="V49" s="91">
+        <v>7</v>
+      </c>
+      <c r="W49" s="91">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.5" customHeight="1">
@@ -8989,35 +9884,50 @@
         <v>-3</v>
       </c>
       <c r="B50" s="84"/>
-      <c r="C50" t="s" s="141">
-        <v>189</v>
-      </c>
-      <c r="D50" t="s" s="141">
-        <v>193</v>
+      <c r="C50" t="s" s="142">
+        <v>188</v>
+      </c>
+      <c r="D50" t="s" s="142">
+        <v>192</v>
       </c>
       <c r="E50" s="39"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
       <c r="H50" s="40"/>
-      <c r="I50" s="142">
+      <c r="I50" s="143">
         <v>281993</v>
       </c>
       <c r="J50" s="84"/>
-      <c r="K50" s="142">
+      <c r="K50" s="143">
         <v>300000</v>
       </c>
-      <c r="L50" s="143"/>
+      <c r="L50" s="144"/>
       <c r="M50" s="11"/>
       <c r="N50" s="40"/>
-      <c r="O50" s="144">
+      <c r="O50" s="145">
         <v>0.939976666666667</v>
       </c>
       <c r="P50" s="84"/>
-      <c r="Q50" s="144">
+      <c r="Q50" s="145">
         <v>-0.122570418414641</v>
       </c>
-      <c r="R50" t="s" s="141">
+      <c r="R50" t="s" s="142">
         <v>10</v>
+      </c>
+      <c r="S50" s="91">
+        <v>5</v>
+      </c>
+      <c r="T50" s="91">
+        <v>6</v>
+      </c>
+      <c r="U50" s="91">
+        <v>4</v>
+      </c>
+      <c r="V50" s="91">
+        <v>6</v>
+      </c>
+      <c r="W50" s="91">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.5" customHeight="1">
@@ -9025,35 +9935,50 @@
         <v>-3</v>
       </c>
       <c r="B51" s="84"/>
-      <c r="C51" t="s" s="141">
-        <v>189</v>
-      </c>
-      <c r="D51" t="s" s="141">
-        <v>194</v>
+      <c r="C51" t="s" s="142">
+        <v>188</v>
+      </c>
+      <c r="D51" t="s" s="142">
+        <v>193</v>
       </c>
       <c r="E51" s="39"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="40"/>
-      <c r="I51" s="142">
+      <c r="I51" s="143">
         <v>626706</v>
       </c>
       <c r="J51" s="84"/>
-      <c r="K51" s="142">
+      <c r="K51" s="143">
         <v>730000</v>
       </c>
-      <c r="L51" s="143"/>
+      <c r="L51" s="144"/>
       <c r="M51" s="11"/>
       <c r="N51" s="40"/>
-      <c r="O51" s="144">
+      <c r="O51" s="145">
         <v>0.858501369863014</v>
       </c>
       <c r="P51" s="84"/>
-      <c r="Q51" s="144">
+      <c r="Q51" s="145">
         <v>-0.0376556152326609</v>
       </c>
-      <c r="R51" t="s" s="141">
+      <c r="R51" t="s" s="142">
         <v>10</v>
+      </c>
+      <c r="S51" s="91">
+        <v>7</v>
+      </c>
+      <c r="T51" s="91">
+        <v>9</v>
+      </c>
+      <c r="U51" s="91">
+        <v>5</v>
+      </c>
+      <c r="V51" s="91">
+        <v>8</v>
+      </c>
+      <c r="W51" s="91">
+        <v>7</v>
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1">
@@ -9061,35 +9986,50 @@
         <v>-2</v>
       </c>
       <c r="B52" s="84"/>
-      <c r="C52" t="s" s="141">
+      <c r="C52" t="s" s="142">
+        <v>188</v>
+      </c>
+      <c r="D52" t="s" s="142">
         <v>189</v>
-      </c>
-      <c r="D52" t="s" s="141">
-        <v>190</v>
       </c>
       <c r="E52" s="39"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="40"/>
-      <c r="I52" s="142">
+      <c r="I52" s="143">
         <v>828886</v>
       </c>
       <c r="J52" s="84"/>
-      <c r="K52" s="142">
+      <c r="K52" s="143">
         <v>860000</v>
       </c>
-      <c r="L52" s="143"/>
+      <c r="L52" s="144"/>
       <c r="M52" s="11"/>
       <c r="N52" s="40"/>
-      <c r="O52" s="144">
+      <c r="O52" s="145">
         <v>0.963820930232558</v>
       </c>
       <c r="P52" s="84"/>
-      <c r="Q52" s="144">
+      <c r="Q52" s="145">
         <v>0.0145048865715667</v>
       </c>
-      <c r="R52" t="s" s="141">
+      <c r="R52" t="s" s="142">
         <v>10</v>
+      </c>
+      <c r="S52" s="91">
+        <v>7</v>
+      </c>
+      <c r="T52" s="91">
+        <v>8</v>
+      </c>
+      <c r="U52" s="91">
+        <v>7</v>
+      </c>
+      <c r="V52" s="91">
+        <v>9</v>
+      </c>
+      <c r="W52" s="91">
+        <v>4</v>
       </c>
     </row>
     <row r="53" ht="13.5" customHeight="1">
@@ -9097,35 +10037,50 @@
         <v>-2</v>
       </c>
       <c r="B53" s="84"/>
-      <c r="C53" t="s" s="141">
-        <v>189</v>
-      </c>
-      <c r="D53" t="s" s="141">
-        <v>191</v>
+      <c r="C53" t="s" s="142">
+        <v>188</v>
+      </c>
+      <c r="D53" t="s" s="142">
+        <v>190</v>
       </c>
       <c r="E53" s="39"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="H53" s="40"/>
-      <c r="I53" s="142">
+      <c r="I53" s="143">
         <v>1144357</v>
       </c>
       <c r="J53" s="84"/>
-      <c r="K53" s="142">
+      <c r="K53" s="143">
         <v>1250000</v>
       </c>
-      <c r="L53" s="143"/>
+      <c r="L53" s="144"/>
       <c r="M53" s="11"/>
       <c r="N53" s="40"/>
-      <c r="O53" s="144">
+      <c r="O53" s="145">
         <v>0.9154856</v>
       </c>
       <c r="P53" s="84"/>
-      <c r="Q53" s="144">
+      <c r="Q53" s="145">
         <v>-0.0576382426812698</v>
       </c>
-      <c r="R53" t="s" s="141">
+      <c r="R53" t="s" s="142">
         <v>10</v>
+      </c>
+      <c r="S53" s="91">
+        <v>9</v>
+      </c>
+      <c r="T53" s="91">
+        <v>8</v>
+      </c>
+      <c r="U53" s="91">
+        <v>8</v>
+      </c>
+      <c r="V53" s="91">
+        <v>8</v>
+      </c>
+      <c r="W53" s="91">
+        <v>7</v>
       </c>
     </row>
     <row r="54" ht="13.5" customHeight="1">
@@ -9133,35 +10088,50 @@
         <v>-2</v>
       </c>
       <c r="B54" s="84"/>
-      <c r="C54" t="s" s="141">
-        <v>189</v>
-      </c>
-      <c r="D54" t="s" s="141">
-        <v>192</v>
+      <c r="C54" t="s" s="142">
+        <v>188</v>
+      </c>
+      <c r="D54" t="s" s="142">
+        <v>191</v>
       </c>
       <c r="E54" s="39"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="40"/>
-      <c r="I54" s="142">
+      <c r="I54" s="143">
         <v>269079</v>
       </c>
       <c r="J54" s="84"/>
-      <c r="K54" s="142">
+      <c r="K54" s="143">
         <v>275000</v>
       </c>
-      <c r="L54" s="143"/>
+      <c r="L54" s="144"/>
       <c r="M54" s="11"/>
       <c r="N54" s="40"/>
-      <c r="O54" s="144">
+      <c r="O54" s="145">
         <v>0.978469090909091</v>
       </c>
       <c r="P54" s="84"/>
-      <c r="Q54" s="144">
+      <c r="Q54" s="145">
         <v>0.081824651123521</v>
       </c>
-      <c r="R54" t="s" s="141">
+      <c r="R54" t="s" s="142">
         <v>10</v>
+      </c>
+      <c r="S54" s="91">
+        <v>4</v>
+      </c>
+      <c r="T54" s="91">
+        <v>5</v>
+      </c>
+      <c r="U54" s="91">
+        <v>7</v>
+      </c>
+      <c r="V54" s="91">
+        <v>7</v>
+      </c>
+      <c r="W54" s="91">
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="13.5" customHeight="1">
@@ -9169,35 +10139,50 @@
         <v>-2</v>
       </c>
       <c r="B55" s="84"/>
-      <c r="C55" t="s" s="141">
-        <v>189</v>
-      </c>
-      <c r="D55" t="s" s="141">
-        <v>193</v>
+      <c r="C55" t="s" s="142">
+        <v>188</v>
+      </c>
+      <c r="D55" t="s" s="142">
+        <v>192</v>
       </c>
       <c r="E55" s="39"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="40"/>
-      <c r="I55" s="142">
+      <c r="I55" s="143">
         <v>247429</v>
       </c>
       <c r="J55" s="84"/>
-      <c r="K55" s="142">
+      <c r="K55" s="143">
         <v>270000</v>
       </c>
-      <c r="L55" s="143"/>
+      <c r="L55" s="144"/>
       <c r="M55" s="11"/>
       <c r="N55" s="40"/>
-      <c r="O55" s="144">
+      <c r="O55" s="145">
         <v>0.9164037037037041</v>
       </c>
       <c r="P55" s="84"/>
-      <c r="Q55" s="144">
+      <c r="Q55" s="145">
         <v>-0.122570418414641</v>
       </c>
-      <c r="R55" t="s" s="141">
+      <c r="R55" t="s" s="142">
         <v>10</v>
+      </c>
+      <c r="S55" s="91">
+        <v>5</v>
+      </c>
+      <c r="T55" s="91">
+        <v>6</v>
+      </c>
+      <c r="U55" s="91">
+        <v>4</v>
+      </c>
+      <c r="V55" s="91">
+        <v>6</v>
+      </c>
+      <c r="W55" s="91">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.5" customHeight="1">
@@ -9205,624 +10190,724 @@
         <v>-2</v>
       </c>
       <c r="B56" s="84"/>
-      <c r="C56" t="s" s="141">
-        <v>189</v>
-      </c>
-      <c r="D56" t="s" s="141">
-        <v>194</v>
+      <c r="C56" t="s" s="142">
+        <v>188</v>
+      </c>
+      <c r="D56" t="s" s="142">
+        <v>193</v>
       </c>
       <c r="E56" s="39"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="40"/>
-      <c r="I56" s="142">
+      <c r="I56" s="143">
         <v>603107</v>
       </c>
       <c r="J56" s="84"/>
-      <c r="K56" s="142">
+      <c r="K56" s="143">
         <v>630000</v>
       </c>
-      <c r="L56" s="143"/>
+      <c r="L56" s="144"/>
       <c r="M56" s="11"/>
       <c r="N56" s="40"/>
-      <c r="O56" s="144">
+      <c r="O56" s="145">
         <v>0.9573126984126979</v>
       </c>
       <c r="P56" s="84"/>
-      <c r="Q56" s="144">
+      <c r="Q56" s="145">
         <v>-0.0376556152326609</v>
       </c>
-      <c r="R56" t="s" s="141">
+      <c r="R56" t="s" s="142">
         <v>10</v>
       </c>
+      <c r="S56" s="91">
+        <v>7</v>
+      </c>
+      <c r="T56" s="91">
+        <v>9</v>
+      </c>
+      <c r="U56" s="91">
+        <v>5</v>
+      </c>
+      <c r="V56" s="91">
+        <v>8</v>
+      </c>
+      <c r="W56" s="91">
+        <v>7</v>
+      </c>
     </row>
     <row r="57" ht="13.5" customHeight="1">
-      <c r="A57" s="128">
+      <c r="A57" s="129">
         <v>-1</v>
       </c>
       <c r="B57" s="84"/>
-      <c r="C57" t="s" s="141">
+      <c r="C57" t="s" s="142">
+        <v>188</v>
+      </c>
+      <c r="D57" t="s" s="142">
         <v>189</v>
-      </c>
-      <c r="D57" t="s" s="141">
-        <v>190</v>
       </c>
       <c r="E57" s="39"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="40"/>
-      <c r="I57" s="142">
+      <c r="I57" s="143">
         <v>871069</v>
       </c>
       <c r="J57" s="84"/>
-      <c r="K57" s="142">
+      <c r="K57" s="143">
         <v>840000</v>
       </c>
-      <c r="L57" s="143"/>
+      <c r="L57" s="144"/>
       <c r="M57" s="11"/>
       <c r="N57" s="40"/>
-      <c r="O57" s="144">
+      <c r="O57" s="145">
         <v>1.0369869047619</v>
       </c>
       <c r="P57" s="84"/>
       <c r="Q57" s="116">
         <v>0.0508911961355361</v>
       </c>
-      <c r="R57" t="s" s="145">
+      <c r="R57" t="s" s="146">
         <v>10</v>
       </c>
+      <c r="S57" s="146"/>
+      <c r="T57" s="146"/>
+      <c r="U57" s="146"/>
+      <c r="V57" s="146"/>
+      <c r="W57" s="146"/>
     </row>
     <row r="58" ht="13.5" customHeight="1">
-      <c r="A58" s="128">
+      <c r="A58" s="129">
         <v>-1</v>
       </c>
       <c r="B58" s="84"/>
-      <c r="C58" t="s" s="141">
-        <v>189</v>
-      </c>
-      <c r="D58" t="s" s="141">
-        <v>191</v>
+      <c r="C58" t="s" s="142">
+        <v>188</v>
+      </c>
+      <c r="D58" t="s" s="142">
+        <v>190</v>
       </c>
       <c r="E58" s="39"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="40"/>
-      <c r="I58" s="142">
+      <c r="I58" s="143">
         <v>1259704</v>
       </c>
       <c r="J58" s="84"/>
-      <c r="K58" s="142">
+      <c r="K58" s="143">
         <v>1250000</v>
       </c>
-      <c r="L58" s="143"/>
+      <c r="L58" s="144"/>
       <c r="M58" s="11"/>
       <c r="N58" s="40"/>
-      <c r="O58" s="144">
+      <c r="O58" s="145">
         <v>1.0077632</v>
       </c>
       <c r="P58" s="84"/>
       <c r="Q58" s="116">
         <v>0.100796342400143</v>
       </c>
-      <c r="R58" t="s" s="145">
+      <c r="R58" t="s" s="146">
         <v>10</v>
       </c>
+      <c r="S58" s="146"/>
+      <c r="T58" s="146"/>
+      <c r="U58" s="146"/>
+      <c r="V58" s="146"/>
+      <c r="W58" s="146"/>
     </row>
     <row r="59" ht="13.5" customHeight="1">
-      <c r="A59" s="128">
+      <c r="A59" s="129">
         <v>-1</v>
       </c>
       <c r="B59" s="84"/>
-      <c r="C59" t="s" s="141">
-        <v>189</v>
-      </c>
-      <c r="D59" t="s" s="141">
-        <v>192</v>
+      <c r="C59" t="s" s="142">
+        <v>188</v>
+      </c>
+      <c r="D59" t="s" s="142">
+        <v>191</v>
       </c>
       <c r="E59" s="39"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="40"/>
-      <c r="I59" s="142">
+      <c r="I59" s="143">
         <v>305298</v>
       </c>
       <c r="J59" s="84"/>
-      <c r="K59" s="142">
+      <c r="K59" s="143">
         <v>275000</v>
       </c>
-      <c r="L59" s="143"/>
+      <c r="L59" s="144"/>
       <c r="M59" s="11"/>
       <c r="N59" s="40"/>
-      <c r="O59" s="144">
+      <c r="O59" s="145">
         <v>1.11017454545455</v>
       </c>
       <c r="P59" s="84"/>
       <c r="Q59" s="116">
         <v>0.134603592253576</v>
       </c>
-      <c r="R59" t="s" s="145">
+      <c r="R59" t="s" s="146">
         <v>10</v>
       </c>
+      <c r="S59" s="146"/>
+      <c r="T59" s="146"/>
+      <c r="U59" s="146"/>
+      <c r="V59" s="146"/>
+      <c r="W59" s="146"/>
     </row>
     <row r="60" ht="13.5" customHeight="1">
-      <c r="A60" s="128">
+      <c r="A60" s="129">
         <v>-1</v>
       </c>
       <c r="B60" s="84"/>
-      <c r="C60" t="s" s="141">
-        <v>189</v>
-      </c>
-      <c r="D60" t="s" s="141">
-        <v>193</v>
+      <c r="C60" t="s" s="142">
+        <v>188</v>
+      </c>
+      <c r="D60" t="s" s="142">
+        <v>192</v>
       </c>
       <c r="E60" s="39"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="40"/>
-      <c r="I60" s="142">
+      <c r="I60" s="143">
         <v>310748</v>
       </c>
       <c r="J60" s="84"/>
-      <c r="K60" s="142">
+      <c r="K60" s="143">
         <v>300000</v>
       </c>
-      <c r="L60" s="143"/>
+      <c r="L60" s="144"/>
       <c r="M60" s="11"/>
       <c r="N60" s="40"/>
-      <c r="O60" s="144">
+      <c r="O60" s="145">
         <v>1.03582666666667</v>
       </c>
       <c r="P60" s="84"/>
       <c r="Q60" s="116">
         <v>0.255907755356082</v>
       </c>
-      <c r="R60" t="s" s="145">
+      <c r="R60" t="s" s="146">
         <v>10</v>
       </c>
+      <c r="S60" s="146"/>
+      <c r="T60" s="146"/>
+      <c r="U60" s="146"/>
+      <c r="V60" s="146"/>
+      <c r="W60" s="146"/>
     </row>
     <row r="61" ht="13.5" customHeight="1">
-      <c r="A61" s="128">
+      <c r="A61" s="129">
         <v>-1</v>
       </c>
       <c r="B61" s="84"/>
-      <c r="C61" t="s" s="141">
-        <v>189</v>
-      </c>
-      <c r="D61" t="s" s="141">
-        <v>194</v>
+      <c r="C61" t="s" s="142">
+        <v>188</v>
+      </c>
+      <c r="D61" t="s" s="142">
+        <v>193</v>
       </c>
       <c r="E61" s="39"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="40"/>
-      <c r="I61" s="142">
+      <c r="I61" s="143">
         <v>806400</v>
       </c>
       <c r="J61" s="84"/>
-      <c r="K61" s="142">
+      <c r="K61" s="143">
         <v>685000</v>
       </c>
-      <c r="L61" s="143"/>
+      <c r="L61" s="144"/>
       <c r="M61" s="11"/>
       <c r="N61" s="40"/>
-      <c r="O61" s="144">
+      <c r="O61" s="145">
         <v>1.17722627737226</v>
       </c>
       <c r="P61" s="84"/>
       <c r="Q61" s="116">
         <v>0.337076173879594</v>
       </c>
-      <c r="R61" t="s" s="145">
+      <c r="R61" t="s" s="146">
         <v>10</v>
       </c>
+      <c r="S61" s="146"/>
+      <c r="T61" s="146"/>
+      <c r="U61" s="146"/>
+      <c r="V61" s="146"/>
+      <c r="W61" s="146"/>
     </row>
     <row r="62" ht="13.5" customHeight="1">
       <c r="A62" s="112">
         <v>-4</v>
       </c>
       <c r="B62" s="84"/>
-      <c r="C62" t="s" s="146">
-        <v>195</v>
-      </c>
-      <c r="D62" s="147"/>
+      <c r="C62" t="s" s="147">
+        <v>194</v>
+      </c>
+      <c r="D62" s="148"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="40"/>
-      <c r="I62" s="148">
+      <c r="I62" s="149">
         <v>4098598</v>
       </c>
       <c r="J62" s="84"/>
-      <c r="K62" s="148">
+      <c r="K62" s="149">
         <v>3980000</v>
       </c>
-      <c r="L62" s="149"/>
+      <c r="L62" s="150"/>
       <c r="M62" s="11"/>
       <c r="N62" s="40"/>
-      <c r="O62" s="150">
+      <c r="O62" s="151">
         <v>1.02979849246231</v>
       </c>
       <c r="P62" s="84"/>
-      <c r="Q62" s="148">
+      <c r="Q62" s="149">
         <v>0.132072104234243</v>
       </c>
-      <c r="R62" t="s" s="146">
+      <c r="R62" t="s" s="147">
         <v>8</v>
       </c>
+      <c r="S62" s="147"/>
+      <c r="T62" s="147"/>
+      <c r="U62" s="147"/>
+      <c r="V62" s="147"/>
+      <c r="W62" s="147"/>
     </row>
     <row r="63" ht="13.5" customHeight="1">
       <c r="A63" s="112">
         <v>-4</v>
       </c>
       <c r="B63" s="84"/>
-      <c r="C63" t="s" s="146">
-        <v>196</v>
+      <c r="C63" t="s" s="147">
+        <v>195</v>
       </c>
       <c r="D63" s="39"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="40"/>
-      <c r="I63" s="148">
+      <c r="I63" s="149">
         <v>728487</v>
       </c>
       <c r="J63" s="84"/>
-      <c r="K63" s="148">
+      <c r="K63" s="149">
         <v>655000</v>
       </c>
-      <c r="L63" s="149"/>
+      <c r="L63" s="150"/>
       <c r="M63" s="11"/>
       <c r="N63" s="40"/>
-      <c r="O63" s="150">
+      <c r="O63" s="151">
         <v>1.11219389312977</v>
       </c>
       <c r="P63" s="84"/>
-      <c r="Q63" s="148">
+      <c r="Q63" s="149">
         <v>0.277815753907202</v>
       </c>
-      <c r="R63" t="s" s="146">
+      <c r="R63" t="s" s="147">
         <v>8</v>
       </c>
+      <c r="S63" s="147"/>
+      <c r="T63" s="147"/>
+      <c r="U63" s="147"/>
+      <c r="V63" s="147"/>
+      <c r="W63" s="147"/>
     </row>
     <row r="64" ht="13.5" customHeight="1">
       <c r="A64" s="112">
         <v>-4</v>
       </c>
       <c r="B64" s="84"/>
-      <c r="C64" t="s" s="146">
-        <v>197</v>
+      <c r="C64" t="s" s="147">
+        <v>196</v>
       </c>
       <c r="D64" s="39"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
       <c r="H64" s="40"/>
-      <c r="I64" s="148">
+      <c r="I64" s="149">
         <v>2576862</v>
       </c>
       <c r="J64" s="84"/>
-      <c r="K64" s="148">
+      <c r="K64" s="149">
         <v>2610000</v>
       </c>
-      <c r="L64" s="149"/>
+      <c r="L64" s="150"/>
       <c r="M64" s="11"/>
       <c r="N64" s="40"/>
-      <c r="O64" s="150">
+      <c r="O64" s="151">
         <v>0.987303448275862</v>
       </c>
       <c r="P64" s="84"/>
-      <c r="Q64" s="148">
+      <c r="Q64" s="149">
         <v>0.09925064051998669</v>
       </c>
-      <c r="R64" t="s" s="146">
+      <c r="R64" t="s" s="147">
         <v>8</v>
       </c>
+      <c r="S64" s="147"/>
+      <c r="T64" s="147"/>
+      <c r="U64" s="147"/>
+      <c r="V64" s="147"/>
+      <c r="W64" s="147"/>
     </row>
     <row r="65" ht="13.5" customHeight="1">
       <c r="A65" s="112">
         <v>-3</v>
       </c>
       <c r="B65" s="84"/>
-      <c r="C65" t="s" s="146">
-        <v>195</v>
+      <c r="C65" t="s" s="147">
+        <v>194</v>
       </c>
       <c r="D65" s="39"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="40"/>
-      <c r="I65" s="148">
+      <c r="I65" s="149">
         <v>3188812</v>
       </c>
       <c r="J65" s="84"/>
-      <c r="K65" s="148">
+      <c r="K65" s="149">
         <v>3565000</v>
       </c>
-      <c r="L65" s="149"/>
+      <c r="L65" s="150"/>
       <c r="M65" s="11"/>
       <c r="N65" s="40"/>
-      <c r="O65" s="150">
+      <c r="O65" s="151">
         <v>0.894477419354839</v>
       </c>
       <c r="P65" s="84"/>
-      <c r="Q65" s="148">
+      <c r="Q65" s="149">
         <v>-0.221974928987912</v>
       </c>
-      <c r="R65" t="s" s="146">
+      <c r="R65" t="s" s="147">
         <v>8</v>
       </c>
+      <c r="S65" s="147"/>
+      <c r="T65" s="147"/>
+      <c r="U65" s="147"/>
+      <c r="V65" s="147"/>
+      <c r="W65" s="147"/>
     </row>
     <row r="66" ht="13.5" customHeight="1">
       <c r="A66" s="112">
         <v>-3</v>
       </c>
       <c r="B66" s="84"/>
-      <c r="C66" t="s" s="146">
-        <v>196</v>
+      <c r="C66" t="s" s="147">
+        <v>195</v>
       </c>
       <c r="D66" s="39"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="40"/>
-      <c r="I66" s="148">
+      <c r="I66" s="149">
         <v>560064</v>
       </c>
       <c r="J66" s="84"/>
-      <c r="K66" s="148">
+      <c r="K66" s="149">
         <v>615000</v>
       </c>
-      <c r="L66" s="149"/>
+      <c r="L66" s="150"/>
       <c r="M66" s="11"/>
       <c r="N66" s="40"/>
-      <c r="O66" s="150">
+      <c r="O66" s="151">
         <v>0.9106731707317069</v>
       </c>
       <c r="P66" s="84"/>
-      <c r="Q66" s="148">
+      <c r="Q66" s="149">
         <v>-0.23119561502127</v>
       </c>
-      <c r="R66" t="s" s="146">
+      <c r="R66" t="s" s="147">
         <v>8</v>
       </c>
+      <c r="S66" s="147"/>
+      <c r="T66" s="147"/>
+      <c r="U66" s="147"/>
+      <c r="V66" s="147"/>
+      <c r="W66" s="147"/>
     </row>
     <row r="67" ht="13.5" customHeight="1">
       <c r="A67" s="112">
         <v>-3</v>
       </c>
       <c r="B67" s="84"/>
-      <c r="C67" t="s" s="146">
-        <v>197</v>
+      <c r="C67" t="s" s="147">
+        <v>196</v>
       </c>
       <c r="D67" s="39"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="40"/>
-      <c r="I67" s="148">
+      <c r="I67" s="149">
         <v>2293022</v>
       </c>
       <c r="J67" s="84"/>
-      <c r="K67" s="148">
+      <c r="K67" s="149">
         <v>2365000</v>
       </c>
-      <c r="L67" s="149"/>
+      <c r="L67" s="150"/>
       <c r="M67" s="11"/>
       <c r="N67" s="40"/>
-      <c r="O67" s="150">
+      <c r="O67" s="151">
         <v>0.96956532769556</v>
       </c>
       <c r="P67" s="84"/>
-      <c r="Q67" s="148">
+      <c r="Q67" s="149">
         <v>-0.110149476378634</v>
       </c>
-      <c r="R67" t="s" s="146">
+      <c r="R67" t="s" s="147">
         <v>8</v>
       </c>
+      <c r="S67" s="147"/>
+      <c r="T67" s="147"/>
+      <c r="U67" s="147"/>
+      <c r="V67" s="147"/>
+      <c r="W67" s="147"/>
     </row>
     <row r="68" ht="13.5" customHeight="1">
       <c r="A68" s="112">
         <v>-2</v>
       </c>
       <c r="B68" s="84"/>
-      <c r="C68" t="s" s="146">
-        <v>195</v>
+      <c r="C68" t="s" s="147">
+        <v>194</v>
       </c>
       <c r="D68" s="39"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
       <c r="H68" s="40"/>
-      <c r="I68" s="148">
+      <c r="I68" s="149">
         <v>3092857</v>
       </c>
       <c r="J68" s="84"/>
-      <c r="K68" s="148">
+      <c r="K68" s="149">
         <v>3285000</v>
       </c>
-      <c r="L68" s="149"/>
+      <c r="L68" s="150"/>
       <c r="M68" s="11"/>
       <c r="N68" s="40"/>
-      <c r="O68" s="150">
+      <c r="O68" s="151">
         <v>0.94150898021309</v>
       </c>
       <c r="P68" s="84"/>
-      <c r="Q68" s="148">
+      <c r="Q68" s="149">
         <v>-0.0300911436610248</v>
       </c>
-      <c r="R68" t="s" s="146">
+      <c r="R68" t="s" s="147">
         <v>8</v>
       </c>
+      <c r="S68" s="147"/>
+      <c r="T68" s="147"/>
+      <c r="U68" s="147"/>
+      <c r="V68" s="147"/>
+      <c r="W68" s="147"/>
     </row>
     <row r="69" ht="13.5" customHeight="1">
       <c r="A69" s="112">
         <v>-2</v>
       </c>
       <c r="B69" s="84"/>
-      <c r="C69" t="s" s="146">
-        <v>196</v>
+      <c r="C69" t="s" s="147">
+        <v>195</v>
       </c>
       <c r="D69" s="39"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="40"/>
-      <c r="I69" s="148">
+      <c r="I69" s="149">
         <v>792494</v>
       </c>
       <c r="J69" s="84"/>
-      <c r="K69" s="148">
+      <c r="K69" s="149">
         <v>615000</v>
       </c>
-      <c r="L69" s="149"/>
+      <c r="L69" s="150"/>
       <c r="M69" s="11"/>
       <c r="N69" s="40"/>
-      <c r="O69" s="150">
+      <c r="O69" s="151">
         <v>1.2886081300813</v>
       </c>
       <c r="P69" s="84"/>
-      <c r="Q69" s="148">
+      <c r="Q69" s="149">
         <v>0.415006142155182</v>
       </c>
-      <c r="R69" t="s" s="146">
+      <c r="R69" t="s" s="147">
         <v>8</v>
       </c>
+      <c r="S69" s="147"/>
+      <c r="T69" s="147"/>
+      <c r="U69" s="147"/>
+      <c r="V69" s="147"/>
+      <c r="W69" s="147"/>
     </row>
     <row r="70" ht="13.5" customHeight="1">
       <c r="A70" s="112">
         <v>-2</v>
       </c>
       <c r="B70" s="84"/>
-      <c r="C70" t="s" s="146">
-        <v>197</v>
+      <c r="C70" t="s" s="147">
+        <v>196</v>
       </c>
       <c r="D70" s="39"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="40"/>
-      <c r="I70" s="148">
+      <c r="I70" s="149">
         <v>2263056</v>
       </c>
       <c r="J70" s="84"/>
-      <c r="K70" s="148">
+      <c r="K70" s="149">
         <v>2345000</v>
       </c>
-      <c r="L70" s="149"/>
+      <c r="L70" s="150"/>
       <c r="M70" s="11"/>
       <c r="N70" s="40"/>
-      <c r="O70" s="150">
+      <c r="O70" s="151">
         <v>0.9650558635394459</v>
       </c>
       <c r="P70" s="84"/>
-      <c r="Q70" s="148">
+      <c r="Q70" s="149">
         <v>-0.0130683438711011</v>
       </c>
-      <c r="R70" t="s" s="146">
+      <c r="R70" t="s" s="147">
         <v>8</v>
       </c>
+      <c r="S70" s="147"/>
+      <c r="T70" s="147"/>
+      <c r="U70" s="147"/>
+      <c r="V70" s="147"/>
+      <c r="W70" s="147"/>
     </row>
     <row r="71" ht="13.5" customHeight="1">
-      <c r="A71" s="128">
+      <c r="A71" s="129">
         <v>-1</v>
       </c>
       <c r="B71" s="84"/>
-      <c r="C71" t="s" s="146">
-        <v>195</v>
+      <c r="C71" t="s" s="147">
+        <v>194</v>
       </c>
       <c r="D71" s="39"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="40"/>
-      <c r="I71" s="148">
+      <c r="I71" s="149">
         <v>3553219</v>
       </c>
       <c r="J71" s="84"/>
-      <c r="K71" s="148">
+      <c r="K71" s="149">
         <v>3350000</v>
       </c>
-      <c r="L71" s="149"/>
+      <c r="L71" s="150"/>
       <c r="M71" s="11"/>
       <c r="N71" s="40"/>
-      <c r="O71" s="150">
+      <c r="O71" s="151">
         <v>1.0606623880597</v>
       </c>
       <c r="P71" s="84"/>
-      <c r="Q71" s="148">
+      <c r="Q71" s="149">
         <v>0.148846842902856</v>
       </c>
-      <c r="R71" t="s" s="146">
+      <c r="R71" t="s" s="147">
         <v>8</v>
       </c>
+      <c r="S71" s="147"/>
+      <c r="T71" s="147"/>
+      <c r="U71" s="147"/>
+      <c r="V71" s="147"/>
+      <c r="W71" s="147"/>
     </row>
     <row r="72" ht="13.5" customHeight="1">
-      <c r="A72" s="128">
+      <c r="A72" s="129">
         <v>-1</v>
       </c>
       <c r="B72" s="84"/>
-      <c r="C72" t="s" s="146">
-        <v>196</v>
+      <c r="C72" t="s" s="147">
+        <v>195</v>
       </c>
       <c r="D72" s="39"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
       <c r="H72" s="40"/>
-      <c r="I72" s="148">
+      <c r="I72" s="149">
         <v>2475498</v>
       </c>
       <c r="J72" s="84"/>
-      <c r="K72" s="148">
+      <c r="K72" s="149">
         <v>2035000</v>
       </c>
-      <c r="L72" s="149"/>
+      <c r="L72" s="150"/>
       <c r="M72" s="11"/>
       <c r="N72" s="40"/>
-      <c r="O72" s="150">
+      <c r="O72" s="151">
         <v>1.21646093366093</v>
       </c>
       <c r="P72" s="84"/>
-      <c r="Q72" s="148">
+      <c r="Q72" s="149">
         <v>2.12368043164996</v>
       </c>
-      <c r="R72" t="s" s="146">
+      <c r="R72" t="s" s="147">
         <v>8</v>
       </c>
+      <c r="S72" s="147"/>
+      <c r="T72" s="147"/>
+      <c r="U72" s="147"/>
+      <c r="V72" s="147"/>
+      <c r="W72" s="147"/>
     </row>
     <row r="73" ht="13.5" customHeight="1">
-      <c r="A73" s="128">
+      <c r="A73" s="129">
         <v>-1</v>
       </c>
-      <c r="B73" s="151"/>
-      <c r="C73" t="s" s="146">
-        <v>197</v>
-      </c>
-      <c r="D73" s="152"/>
+      <c r="B73" s="152"/>
+      <c r="C73" t="s" s="147">
+        <v>196</v>
+      </c>
+      <c r="D73" s="153"/>
       <c r="E73" s="70"/>
       <c r="F73" s="70"/>
       <c r="G73" s="70"/>
-      <c r="H73" s="153"/>
-      <c r="I73" s="148">
+      <c r="H73" s="154"/>
+      <c r="I73" s="149">
         <v>860533</v>
       </c>
-      <c r="J73" s="151"/>
-      <c r="K73" s="148">
+      <c r="J73" s="152"/>
+      <c r="K73" s="149">
         <v>1135000</v>
       </c>
-      <c r="L73" s="154"/>
+      <c r="L73" s="155"/>
       <c r="M73" s="70"/>
-      <c r="N73" s="153"/>
-      <c r="O73" s="150">
+      <c r="N73" s="154"/>
+      <c r="O73" s="151">
         <v>0.758178854625551</v>
       </c>
-      <c r="P73" s="151"/>
-      <c r="Q73" s="148">
+      <c r="P73" s="152"/>
+      <c r="Q73" s="149">
         <v>-0.619747368160576</v>
       </c>
-      <c r="R73" t="s" s="146">
+      <c r="R73" t="s" s="147">
         <v>8</v>
       </c>
+      <c r="S73" s="147"/>
+      <c r="T73" s="147"/>
+      <c r="U73" s="147"/>
+      <c r="V73" s="147"/>
+      <c r="W73" s="147"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9844,8 +10929,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="155" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="155" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="156" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="156" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -9856,83 +10941,83 @@
         <v>23</v>
       </c>
       <c r="C1" t="s" s="27">
+        <v>197</v>
+      </c>
+      <c r="D1" t="s" s="27">
         <v>198</v>
       </c>
-      <c r="D1" t="s" s="27">
+      <c r="E1" s="157"/>
+    </row>
+    <row r="2" ht="36" customHeight="1">
+      <c r="A2" t="s" s="158">
         <v>199</v>
       </c>
-      <c r="E1" s="156"/>
-    </row>
-    <row r="2" ht="36" customHeight="1">
-      <c r="A2" t="s" s="157">
+      <c r="B2" t="s" s="159">
         <v>200</v>
-      </c>
-      <c r="B2" t="s" s="158">
-        <v>201</v>
       </c>
       <c r="C2" s="102">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="158">
-        <v>202</v>
-      </c>
-      <c r="E2" s="159"/>
+      <c r="D2" t="s" s="159">
+        <v>201</v>
+      </c>
+      <c r="E2" s="160"/>
     </row>
     <row r="3" ht="20.1" customHeight="1">
       <c r="A3" s="107"/>
       <c r="B3" s="98"/>
       <c r="C3" s="98"/>
       <c r="D3" s="98"/>
-      <c r="E3" s="159"/>
+      <c r="E3" s="160"/>
     </row>
     <row r="4" ht="20.1" customHeight="1">
       <c r="A4" s="107"/>
       <c r="B4" s="98"/>
       <c r="C4" s="98"/>
       <c r="D4" s="98"/>
-      <c r="E4" s="159"/>
+      <c r="E4" s="160"/>
     </row>
     <row r="5" ht="20.1" customHeight="1">
       <c r="A5" s="107"/>
       <c r="B5" s="98"/>
       <c r="C5" s="98"/>
       <c r="D5" s="98"/>
-      <c r="E5" s="159"/>
+      <c r="E5" s="160"/>
     </row>
     <row r="6" ht="20.1" customHeight="1">
       <c r="A6" s="107"/>
       <c r="B6" s="98"/>
       <c r="C6" s="98"/>
       <c r="D6" s="98"/>
-      <c r="E6" s="159"/>
+      <c r="E6" s="160"/>
     </row>
     <row r="7" ht="20.1" customHeight="1">
       <c r="A7" s="107"/>
       <c r="B7" s="98"/>
       <c r="C7" s="98"/>
       <c r="D7" s="98"/>
-      <c r="E7" s="159"/>
+      <c r="E7" s="160"/>
     </row>
     <row r="8" ht="20.1" customHeight="1">
       <c r="A8" s="107"/>
       <c r="B8" s="98"/>
       <c r="C8" s="98"/>
       <c r="D8" s="98"/>
-      <c r="E8" s="159"/>
+      <c r="E8" s="160"/>
     </row>
     <row r="9" ht="20.1" customHeight="1">
       <c r="A9" s="107"/>
       <c r="B9" s="98"/>
       <c r="C9" s="98"/>
       <c r="D9" s="98"/>
-      <c r="E9" s="159"/>
+      <c r="E9" s="160"/>
     </row>
     <row r="10" ht="20.1" customHeight="1">
       <c r="A10" s="107"/>
       <c r="B10" s="98"/>
       <c r="C10" s="98"/>
       <c r="D10" s="98"/>
-      <c r="E10" s="160"/>
+      <c r="E10" s="161"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -9951,11 +11036,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13" style="161" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="161" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="161" customWidth="1"/>
-    <col min="4" max="6" width="8.85156" style="161" customWidth="1"/>
-    <col min="7" max="256" width="8.85156" style="161" customWidth="1"/>
+    <col min="1" max="1" width="13" style="162" customWidth="1"/>
+    <col min="2" max="2" width="8.85156" style="162" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="162" customWidth="1"/>
+    <col min="4" max="6" width="8.85156" style="162" customWidth="1"/>
+    <col min="7" max="256" width="8.85156" style="162" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1">
@@ -9966,322 +11051,322 @@
         <v>29</v>
       </c>
       <c r="C1" t="s" s="27">
+        <v>202</v>
+      </c>
+      <c r="D1" t="s" s="27">
         <v>203</v>
       </c>
-      <c r="D1" t="s" s="27">
+      <c r="E1" t="s" s="27">
         <v>204</v>
       </c>
-      <c r="E1" t="s" s="27">
+      <c r="F1" t="s" s="27">
         <v>205</v>
       </c>
-      <c r="F1" t="s" s="27">
+    </row>
+    <row r="2" ht="14.65" customHeight="1">
+      <c r="A2" t="s" s="163">
         <v>206</v>
       </c>
-    </row>
-    <row r="2" ht="14.65" customHeight="1">
-      <c r="A2" t="s" s="162">
+      <c r="B2" t="s" s="164">
         <v>207</v>
       </c>
-      <c r="B2" t="s" s="163">
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+    </row>
+    <row r="3" ht="14.65" customHeight="1">
+      <c r="A3" t="s" s="163">
+        <v>206</v>
+      </c>
+      <c r="B3" t="s" s="166">
         <v>208</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-    </row>
-    <row r="3" ht="14.65" customHeight="1">
-      <c r="A3" t="s" s="162">
-        <v>207</v>
-      </c>
-      <c r="B3" t="s" s="165">
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+    </row>
+    <row r="4" ht="14.65" customHeight="1">
+      <c r="A4" t="s" s="164">
+        <v>206</v>
+      </c>
+      <c r="B4" t="s" s="166">
         <v>209</v>
       </c>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-    </row>
-    <row r="4" ht="14.65" customHeight="1">
-      <c r="A4" t="s" s="163">
-        <v>207</v>
-      </c>
-      <c r="B4" t="s" s="165">
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+    </row>
+    <row r="5" ht="50.65" customHeight="1">
+      <c r="A5" t="s" s="166">
         <v>210</v>
       </c>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-    </row>
-    <row r="5" ht="50.65" customHeight="1">
-      <c r="A5" t="s" s="165">
+      <c r="B5" t="s" s="166">
         <v>211</v>
       </c>
-      <c r="B5" t="s" s="165">
+      <c r="C5" t="s" s="169">
         <v>212</v>
       </c>
-      <c r="C5" t="s" s="168">
+      <c r="D5" s="170"/>
+      <c r="E5" t="s" s="171">
         <v>213</v>
       </c>
-      <c r="D5" s="169"/>
-      <c r="E5" t="s" s="170">
+      <c r="F5" t="s" s="172">
         <v>214</v>
       </c>
-      <c r="F5" t="s" s="171">
+    </row>
+    <row r="6" ht="50.65" customHeight="1">
+      <c r="A6" t="s" s="166">
+        <v>210</v>
+      </c>
+      <c r="B6" t="s" s="166">
         <v>215</v>
       </c>
-    </row>
-    <row r="6" ht="50.65" customHeight="1">
-      <c r="A6" t="s" s="165">
+      <c r="C6" t="s" s="169">
+        <v>212</v>
+      </c>
+      <c r="D6" s="170"/>
+      <c r="E6" t="s" s="171">
+        <v>216</v>
+      </c>
+      <c r="F6" t="s" s="172">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" ht="50.65" customHeight="1">
+      <c r="A7" t="s" s="166">
+        <v>210</v>
+      </c>
+      <c r="B7" t="s" s="166">
+        <v>218</v>
+      </c>
+      <c r="C7" t="s" s="169">
+        <v>212</v>
+      </c>
+      <c r="D7" s="170"/>
+      <c r="E7" t="s" s="171">
+        <v>219</v>
+      </c>
+      <c r="F7" t="s" s="172">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" ht="50.65" customHeight="1">
+      <c r="A8" t="s" s="166">
+        <v>221</v>
+      </c>
+      <c r="B8" t="s" s="166">
         <v>211</v>
       </c>
-      <c r="B6" t="s" s="165">
-        <v>216</v>
-      </c>
-      <c r="C6" t="s" s="168">
-        <v>213</v>
-      </c>
-      <c r="D6" s="169"/>
-      <c r="E6" t="s" s="170">
-        <v>217</v>
-      </c>
-      <c r="F6" t="s" s="171">
+      <c r="C8" t="s" s="169">
+        <v>222</v>
+      </c>
+      <c r="D8" s="170"/>
+      <c r="E8" t="s" s="171">
+        <v>223</v>
+      </c>
+      <c r="F8" t="s" s="173">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" ht="50.65" customHeight="1">
+      <c r="A9" t="s" s="166">
+        <v>221</v>
+      </c>
+      <c r="B9" t="s" s="166">
+        <v>215</v>
+      </c>
+      <c r="C9" t="s" s="169">
+        <v>222</v>
+      </c>
+      <c r="D9" s="170"/>
+      <c r="E9" t="s" s="171">
+        <v>225</v>
+      </c>
+      <c r="F9" t="s" s="174">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" ht="50.65" customHeight="1">
+      <c r="A10" t="s" s="166">
+        <v>221</v>
+      </c>
+      <c r="B10" t="s" s="166">
         <v>218</v>
       </c>
-    </row>
-    <row r="7" ht="50.65" customHeight="1">
-      <c r="A7" t="s" s="165">
+      <c r="C10" t="s" s="169">
+        <v>222</v>
+      </c>
+      <c r="D10" s="170"/>
+      <c r="E10" t="s" s="171">
+        <v>227</v>
+      </c>
+      <c r="F10" t="s" s="174">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" ht="38.65" customHeight="1">
+      <c r="A11" t="s" s="166">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s" s="166">
         <v>211</v>
       </c>
-      <c r="B7" t="s" s="165">
-        <v>219</v>
-      </c>
-      <c r="C7" t="s" s="168">
-        <v>213</v>
-      </c>
-      <c r="D7" s="169"/>
-      <c r="E7" t="s" s="170">
-        <v>220</v>
-      </c>
-      <c r="F7" t="s" s="171">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" ht="50.65" customHeight="1">
-      <c r="A8" t="s" s="165">
-        <v>222</v>
-      </c>
-      <c r="B8" t="s" s="165">
-        <v>212</v>
-      </c>
-      <c r="C8" t="s" s="168">
-        <v>223</v>
-      </c>
-      <c r="D8" s="169"/>
-      <c r="E8" t="s" s="170">
-        <v>224</v>
-      </c>
-      <c r="F8" t="s" s="172">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="9" ht="50.65" customHeight="1">
-      <c r="A9" t="s" s="165">
-        <v>222</v>
-      </c>
-      <c r="B9" t="s" s="165">
-        <v>216</v>
-      </c>
-      <c r="C9" t="s" s="168">
-        <v>223</v>
-      </c>
-      <c r="D9" s="169"/>
-      <c r="E9" t="s" s="170">
-        <v>226</v>
-      </c>
-      <c r="F9" t="s" s="173">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" ht="50.65" customHeight="1">
-      <c r="A10" t="s" s="165">
-        <v>222</v>
-      </c>
-      <c r="B10" t="s" s="165">
-        <v>219</v>
-      </c>
-      <c r="C10" t="s" s="168">
-        <v>223</v>
-      </c>
-      <c r="D10" s="169"/>
-      <c r="E10" t="s" s="170">
-        <v>228</v>
-      </c>
-      <c r="F10" t="s" s="173">
+      <c r="C11" t="s" s="169">
         <v>229</v>
       </c>
-    </row>
-    <row r="11" ht="38.65" customHeight="1">
-      <c r="A11" t="s" s="165">
+      <c r="D11" s="170"/>
+      <c r="E11" t="s" s="171">
+        <v>230</v>
+      </c>
+      <c r="F11" t="s" s="174">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" ht="38.65" customHeight="1">
+      <c r="A12" t="s" s="166">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="165">
-        <v>212</v>
-      </c>
-      <c r="C11" t="s" s="168">
-        <v>230</v>
-      </c>
-      <c r="D11" s="169"/>
-      <c r="E11" t="s" s="170">
-        <v>231</v>
-      </c>
-      <c r="F11" t="s" s="173">
+      <c r="B12" t="s" s="166">
+        <v>215</v>
+      </c>
+      <c r="C12" t="s" s="169">
+        <v>229</v>
+      </c>
+      <c r="D12" s="170"/>
+      <c r="E12" t="s" s="171">
         <v>232</v>
       </c>
-    </row>
-    <row r="12" ht="38.65" customHeight="1">
-      <c r="A12" t="s" s="165">
+      <c r="F12" t="s" s="174">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" ht="38.65" customHeight="1">
+      <c r="A13" t="s" s="166">
         <v>10</v>
       </c>
-      <c r="B12" t="s" s="165">
-        <v>216</v>
-      </c>
-      <c r="C12" t="s" s="168">
-        <v>230</v>
-      </c>
-      <c r="D12" s="169"/>
-      <c r="E12" t="s" s="170">
-        <v>233</v>
-      </c>
-      <c r="F12" t="s" s="173">
+      <c r="B13" t="s" s="166">
+        <v>218</v>
+      </c>
+      <c r="C13" t="s" s="169">
+        <v>229</v>
+      </c>
+      <c r="D13" s="170"/>
+      <c r="E13" t="s" s="171">
         <v>234</v>
       </c>
-    </row>
-    <row r="13" ht="38.65" customHeight="1">
-      <c r="A13" t="s" s="165">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s" s="165">
-        <v>219</v>
-      </c>
-      <c r="C13" t="s" s="168">
-        <v>230</v>
-      </c>
-      <c r="D13" s="169"/>
-      <c r="E13" t="s" s="170">
+      <c r="F13" t="s" s="174">
         <v>235</v>
       </c>
-      <c r="F13" t="s" s="173">
+    </row>
+    <row r="14" ht="38.65" customHeight="1">
+      <c r="A14" t="s" s="166">
         <v>236</v>
       </c>
-    </row>
-    <row r="14" ht="38.65" customHeight="1">
-      <c r="A14" t="s" s="165">
+      <c r="B14" t="s" s="166">
+        <v>211</v>
+      </c>
+      <c r="C14" t="s" s="169">
         <v>237</v>
       </c>
-      <c r="B14" t="s" s="165">
-        <v>212</v>
-      </c>
-      <c r="C14" t="s" s="168">
+      <c r="D14" s="170"/>
+      <c r="E14" t="s" s="171">
         <v>238</v>
       </c>
-      <c r="D14" s="169"/>
-      <c r="E14" t="s" s="170">
+      <c r="F14" t="s" s="174">
         <v>239</v>
       </c>
-      <c r="F14" t="s" s="173">
+    </row>
+    <row r="15" ht="38.65" customHeight="1">
+      <c r="A15" t="s" s="166">
+        <v>236</v>
+      </c>
+      <c r="B15" t="s" s="166">
+        <v>215</v>
+      </c>
+      <c r="C15" t="s" s="169">
+        <v>237</v>
+      </c>
+      <c r="D15" s="170"/>
+      <c r="E15" t="s" s="171">
         <v>240</v>
       </c>
-    </row>
-    <row r="15" ht="38.65" customHeight="1">
-      <c r="A15" t="s" s="165">
+      <c r="F15" t="s" s="174">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" ht="38.65" customHeight="1">
+      <c r="A16" t="s" s="166">
+        <v>236</v>
+      </c>
+      <c r="B16" t="s" s="166">
+        <v>218</v>
+      </c>
+      <c r="C16" t="s" s="169">
         <v>237</v>
       </c>
-      <c r="B15" t="s" s="165">
-        <v>216</v>
-      </c>
-      <c r="C15" t="s" s="168">
-        <v>238</v>
-      </c>
-      <c r="D15" s="169"/>
-      <c r="E15" t="s" s="170">
-        <v>241</v>
-      </c>
-      <c r="F15" t="s" s="173">
+      <c r="D16" s="170"/>
+      <c r="E16" t="s" s="171">
         <v>242</v>
       </c>
-    </row>
-    <row r="16" ht="38.65" customHeight="1">
-      <c r="A16" t="s" s="165">
-        <v>237</v>
-      </c>
-      <c r="B16" t="s" s="165">
-        <v>219</v>
-      </c>
-      <c r="C16" t="s" s="168">
-        <v>238</v>
-      </c>
-      <c r="D16" s="169"/>
-      <c r="E16" t="s" s="170">
+      <c r="F16" t="s" s="174">
         <v>243</v>
       </c>
-      <c r="F16" t="s" s="173">
+    </row>
+    <row r="17" ht="50.65" customHeight="1">
+      <c r="A17" t="s" s="166">
         <v>244</v>
       </c>
-    </row>
-    <row r="17" ht="50.65" customHeight="1">
-      <c r="A17" t="s" s="165">
+      <c r="B17" t="s" s="166">
+        <v>211</v>
+      </c>
+      <c r="C17" t="s" s="169">
         <v>245</v>
       </c>
-      <c r="B17" t="s" s="165">
-        <v>212</v>
-      </c>
-      <c r="C17" t="s" s="168">
+      <c r="D17" s="170"/>
+      <c r="E17" t="s" s="171">
         <v>246</v>
       </c>
-      <c r="D17" s="169"/>
-      <c r="E17" t="s" s="170">
+      <c r="F17" t="s" s="174">
         <v>247</v>
       </c>
-      <c r="F17" t="s" s="173">
+    </row>
+    <row r="18" ht="50.65" customHeight="1">
+      <c r="A18" t="s" s="166">
+        <v>244</v>
+      </c>
+      <c r="B18" t="s" s="166">
+        <v>215</v>
+      </c>
+      <c r="C18" t="s" s="169">
+        <v>245</v>
+      </c>
+      <c r="D18" s="170"/>
+      <c r="E18" t="s" s="171">
         <v>248</v>
       </c>
-    </row>
-    <row r="18" ht="50.65" customHeight="1">
-      <c r="A18" t="s" s="165">
+      <c r="F18" t="s" s="174">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" ht="50.65" customHeight="1">
+      <c r="A19" t="s" s="166">
+        <v>244</v>
+      </c>
+      <c r="B19" t="s" s="166">
+        <v>218</v>
+      </c>
+      <c r="C19" t="s" s="169">
         <v>245</v>
       </c>
-      <c r="B18" t="s" s="165">
-        <v>216</v>
-      </c>
-      <c r="C18" t="s" s="168">
-        <v>246</v>
-      </c>
-      <c r="D18" s="169"/>
-      <c r="E18" t="s" s="170">
-        <v>249</v>
-      </c>
-      <c r="F18" t="s" s="173">
+      <c r="D19" s="170"/>
+      <c r="E19" t="s" s="171">
         <v>250</v>
       </c>
-    </row>
-    <row r="19" ht="50.65" customHeight="1">
-      <c r="A19" t="s" s="165">
-        <v>245</v>
-      </c>
-      <c r="B19" t="s" s="165">
-        <v>219</v>
-      </c>
-      <c r="C19" t="s" s="168">
-        <v>246</v>
-      </c>
-      <c r="D19" s="169"/>
-      <c r="E19" t="s" s="170">
+      <c r="F19" t="s" s="174">
         <v>251</v>
-      </c>
-      <c r="F19" t="s" s="173">
-        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/tm.xlsx
+++ b/test/data/tm.xlsx
@@ -1359,7 +1359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="78">
+  <borders count="80">
     <border>
       <left/>
       <right/>
@@ -2049,11 +2049,76 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top/>
       <bottom style="thin">
         <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2067,17 +2132,6 @@
       <top style="thin">
         <color indexed="17"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2130,19 +2184,6 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -2159,19 +2200,6 @@
         <color indexed="8"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2344,7 +2372,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2681,6 +2709,9 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2696,31 +2727,40 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="8" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2738,16 +2778,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="58" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="63" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="65" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2756,9 +2796,6 @@
     <xf numFmtId="59" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -2768,7 +2805,7 @@
     <xf numFmtId="49" fontId="12" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="63" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="66" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2789,7 +2826,7 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2801,22 +2838,19 @@
     <xf numFmtId="9" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="65" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="68" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="66" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="69" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="66" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="68" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="68" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="70" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2825,49 +2859,49 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="69" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="71" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="70" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="72" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="73" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="73" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="74" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="73" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="75" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="76" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="77" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="76" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="79" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5961,7 +5995,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -5971,13 +6005,13 @@
     <col min="2" max="2" width="19" style="111" customWidth="1"/>
     <col min="3" max="7" width="16.3516" style="111" customWidth="1"/>
     <col min="8" max="8" width="31.8516" style="111" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="111" customWidth="1"/>
-    <col min="10" max="10" width="23.5" style="111" customWidth="1"/>
-    <col min="11" max="11" width="22.1719" style="111" customWidth="1"/>
-    <col min="12" max="14" width="16.3516" style="111" customWidth="1"/>
-    <col min="15" max="15" width="20" style="111" customWidth="1"/>
-    <col min="16" max="20" width="16.3516" style="111" customWidth="1"/>
-    <col min="21" max="256" width="16.3516" style="111" customWidth="1"/>
+    <col min="9" max="10" width="16.3516" style="111" customWidth="1"/>
+    <col min="11" max="11" width="23.5" style="111" customWidth="1"/>
+    <col min="12" max="12" width="22.1719" style="111" customWidth="1"/>
+    <col min="13" max="15" width="16.3516" style="111" customWidth="1"/>
+    <col min="16" max="16" width="20" style="111" customWidth="1"/>
+    <col min="17" max="21" width="16.3516" style="111" customWidth="1"/>
+    <col min="22" max="256" width="16.3516" style="111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -6008,642 +6042,655 @@
       <c r="I1" t="s" s="26">
         <v>147</v>
       </c>
-      <c r="J1" t="s" s="26">
+      <c r="J1" t="s" s="112">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s" s="26">
         <v>148</v>
       </c>
-      <c r="K1" t="s" s="26">
+      <c r="L1" t="s" s="26">
         <v>149</v>
       </c>
-      <c r="L1" t="s" s="26">
+      <c r="M1" t="s" s="26">
         <v>150</v>
       </c>
-      <c r="M1" t="s" s="26">
+      <c r="N1" t="s" s="26">
         <v>151</v>
       </c>
-      <c r="N1" t="s" s="26">
+      <c r="O1" t="s" s="26">
         <v>152</v>
       </c>
-      <c r="O1" t="s" s="26">
+      <c r="P1" t="s" s="26">
         <v>153</v>
       </c>
-      <c r="P1" t="s" s="26">
+      <c r="Q1" t="s" s="26">
         <v>154</v>
       </c>
-      <c r="Q1" t="s" s="26">
+      <c r="R1" t="s" s="26">
         <v>155</v>
       </c>
-      <c r="R1" t="s" s="26">
+      <c r="S1" t="s" s="26">
         <v>156</v>
       </c>
-      <c r="S1" t="s" s="26">
+      <c r="T1" t="s" s="26">
         <v>157</v>
       </c>
-      <c r="T1" t="s" s="26">
+      <c r="U1" t="s" s="26">
         <v>28</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="112">
+      <c r="A2" s="113">
         <v>-1</v>
       </c>
-      <c r="B2" t="s" s="113">
+      <c r="B2" t="s" s="114">
         <v>88</v>
       </c>
-      <c r="C2" t="s" s="113">
+      <c r="C2" t="s" s="114">
         <v>158</v>
       </c>
       <c r="D2" s="48"/>
-      <c r="E2" s="114">
+      <c r="E2" s="115">
         <v>600000</v>
       </c>
-      <c r="F2" s="115">
+      <c r="F2" s="116">
         <v>716400</v>
       </c>
-      <c r="G2" s="116">
+      <c r="G2" s="117">
         <v>1.194</v>
       </c>
-      <c r="H2" s="112">
+      <c r="H2" s="113">
         <v>10560000</v>
       </c>
-      <c r="I2" s="117">
+      <c r="I2" s="118">
         <v>0.27</v>
       </c>
-      <c r="J2" s="112">
-        <v>0</v>
-      </c>
-      <c r="K2" s="112">
-        <v>0</v>
-      </c>
-      <c r="L2" s="112">
-        <v>0</v>
-      </c>
-      <c r="M2" s="112">
-        <v>0</v>
-      </c>
-      <c r="N2" s="112">
-        <v>0</v>
-      </c>
-      <c r="O2" s="112">
-        <v>0</v>
-      </c>
-      <c r="P2" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="112">
-        <v>0</v>
-      </c>
-      <c r="R2" s="112">
-        <v>0</v>
-      </c>
-      <c r="S2" s="112">
-        <v>0</v>
-      </c>
-      <c r="T2" s="118">
+      <c r="J2" s="61"/>
+      <c r="K2" s="119">
+        <v>0</v>
+      </c>
+      <c r="L2" s="113">
+        <v>0</v>
+      </c>
+      <c r="M2" s="113">
+        <v>0</v>
+      </c>
+      <c r="N2" s="113">
+        <v>0</v>
+      </c>
+      <c r="O2" s="113">
+        <v>0</v>
+      </c>
+      <c r="P2" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="113">
+        <v>0</v>
+      </c>
+      <c r="R2" s="113">
+        <v>0</v>
+      </c>
+      <c r="S2" s="113">
+        <v>0</v>
+      </c>
+      <c r="T2" s="113">
+        <v>0</v>
+      </c>
+      <c r="U2" s="120">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="20.1" customHeight="1">
-      <c r="A3" s="112">
+      <c r="A3" s="113">
         <v>-1</v>
       </c>
-      <c r="B3" t="s" s="113">
+      <c r="B3" t="s" s="114">
         <v>88</v>
       </c>
-      <c r="C3" t="s" s="113">
+      <c r="C3" t="s" s="114">
         <v>159</v>
       </c>
       <c r="D3" s="48"/>
-      <c r="E3" s="114">
+      <c r="E3" s="115">
         <v>200000</v>
       </c>
-      <c r="F3" s="115">
+      <c r="F3" s="116">
         <v>220500</v>
       </c>
-      <c r="G3" s="116">
+      <c r="G3" s="117">
         <v>1.1025</v>
       </c>
-      <c r="H3" s="112">
+      <c r="H3" s="113">
         <v>3700000</v>
       </c>
-      <c r="I3" s="119">
+      <c r="I3" s="121">
         <v>0.24</v>
       </c>
-      <c r="J3" s="112">
-        <v>0</v>
-      </c>
-      <c r="K3" s="112">
-        <v>0</v>
-      </c>
-      <c r="L3" s="112">
-        <v>0</v>
-      </c>
-      <c r="M3" s="112">
-        <v>0</v>
-      </c>
-      <c r="N3" s="112">
-        <v>0</v>
-      </c>
-      <c r="O3" s="112">
-        <v>0</v>
-      </c>
-      <c r="P3" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="112">
-        <v>0</v>
-      </c>
-      <c r="R3" s="112">
-        <v>0</v>
-      </c>
-      <c r="S3" s="112">
-        <v>0</v>
-      </c>
-      <c r="T3" s="118">
+      <c r="J3" s="98"/>
+      <c r="K3" s="119">
+        <v>0</v>
+      </c>
+      <c r="L3" s="113">
+        <v>0</v>
+      </c>
+      <c r="M3" s="113">
+        <v>0</v>
+      </c>
+      <c r="N3" s="113">
+        <v>0</v>
+      </c>
+      <c r="O3" s="113">
+        <v>0</v>
+      </c>
+      <c r="P3" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="113">
+        <v>0</v>
+      </c>
+      <c r="R3" s="113">
+        <v>0</v>
+      </c>
+      <c r="S3" s="113">
+        <v>0</v>
+      </c>
+      <c r="T3" s="113">
+        <v>0</v>
+      </c>
+      <c r="U3" s="120">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="20.1" customHeight="1">
-      <c r="A4" s="112">
+      <c r="A4" s="113">
         <v>-1</v>
       </c>
-      <c r="B4" t="s" s="113">
+      <c r="B4" t="s" s="114">
         <v>88</v>
       </c>
-      <c r="C4" t="s" s="113">
+      <c r="C4" t="s" s="114">
         <v>160</v>
       </c>
       <c r="D4" s="48"/>
-      <c r="E4" s="114">
+      <c r="E4" s="115">
         <v>800000</v>
       </c>
-      <c r="F4" s="115">
+      <c r="F4" s="116">
         <v>859704</v>
       </c>
-      <c r="G4" s="116">
+      <c r="G4" s="117">
         <v>1.07463</v>
       </c>
-      <c r="H4" s="112">
+      <c r="H4" s="113">
         <v>13041600</v>
       </c>
-      <c r="I4" s="119">
+      <c r="I4" s="121">
         <v>0.26</v>
       </c>
-      <c r="J4" s="112">
-        <v>0</v>
-      </c>
-      <c r="K4" s="112">
-        <v>0</v>
-      </c>
-      <c r="L4" s="112">
-        <v>0</v>
-      </c>
-      <c r="M4" s="112">
-        <v>0</v>
-      </c>
-      <c r="N4" s="112">
-        <v>0</v>
-      </c>
-      <c r="O4" s="112">
-        <v>0</v>
-      </c>
-      <c r="P4" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="112">
-        <v>0</v>
-      </c>
-      <c r="R4" s="112">
-        <v>0</v>
-      </c>
-      <c r="S4" s="112">
-        <v>0</v>
-      </c>
-      <c r="T4" s="118">
+      <c r="J4" s="98"/>
+      <c r="K4" s="119">
+        <v>0</v>
+      </c>
+      <c r="L4" s="113">
+        <v>0</v>
+      </c>
+      <c r="M4" s="113">
+        <v>0</v>
+      </c>
+      <c r="N4" s="113">
+        <v>0</v>
+      </c>
+      <c r="O4" s="113">
+        <v>0</v>
+      </c>
+      <c r="P4" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="113">
+        <v>0</v>
+      </c>
+      <c r="R4" s="113">
+        <v>0</v>
+      </c>
+      <c r="S4" s="113">
+        <v>0</v>
+      </c>
+      <c r="T4" s="113">
+        <v>0</v>
+      </c>
+      <c r="U4" s="120">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="20.1" customHeight="1">
-      <c r="A5" s="112">
+      <c r="A5" s="113">
         <v>-1</v>
       </c>
-      <c r="B5" t="s" s="113">
+      <c r="B5" t="s" s="114">
         <v>88</v>
       </c>
-      <c r="C5" t="s" s="113">
+      <c r="C5" t="s" s="114">
         <v>161</v>
       </c>
       <c r="D5" s="48"/>
-      <c r="E5" s="114">
+      <c r="E5" s="115">
         <v>450000</v>
       </c>
-      <c r="F5" s="115">
+      <c r="F5" s="116">
         <v>400000</v>
       </c>
-      <c r="G5" s="116">
+      <c r="G5" s="117">
         <v>0.888888888888889</v>
       </c>
-      <c r="H5" s="112">
+      <c r="H5" s="113">
         <v>6200000</v>
       </c>
-      <c r="I5" s="119">
+      <c r="I5" s="121">
         <v>0.26</v>
       </c>
-      <c r="J5" s="112">
-        <v>0</v>
-      </c>
-      <c r="K5" s="112">
-        <v>0</v>
-      </c>
-      <c r="L5" s="112">
-        <v>0</v>
-      </c>
-      <c r="M5" s="112">
-        <v>0</v>
-      </c>
-      <c r="N5" s="112">
-        <v>0</v>
-      </c>
-      <c r="O5" s="112">
-        <v>0</v>
-      </c>
-      <c r="P5" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="112">
-        <v>0</v>
-      </c>
-      <c r="R5" s="112">
-        <v>0</v>
-      </c>
-      <c r="S5" s="112">
-        <v>0</v>
-      </c>
-      <c r="T5" s="118">
+      <c r="J5" s="98"/>
+      <c r="K5" s="119">
+        <v>0</v>
+      </c>
+      <c r="L5" s="113">
+        <v>0</v>
+      </c>
+      <c r="M5" s="113">
+        <v>0</v>
+      </c>
+      <c r="N5" s="113">
+        <v>0</v>
+      </c>
+      <c r="O5" s="113">
+        <v>0</v>
+      </c>
+      <c r="P5" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="113">
+        <v>0</v>
+      </c>
+      <c r="R5" s="113">
+        <v>0</v>
+      </c>
+      <c r="S5" s="113">
+        <v>0</v>
+      </c>
+      <c r="T5" s="113">
+        <v>0</v>
+      </c>
+      <c r="U5" s="120">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="20.1" customHeight="1">
-      <c r="A6" s="112">
+      <c r="A6" s="113">
         <v>-1</v>
       </c>
-      <c r="B6" t="s" s="113">
+      <c r="B6" t="s" s="114">
         <v>88</v>
       </c>
-      <c r="C6" t="s" s="113">
+      <c r="C6" t="s" s="114">
         <v>162</v>
       </c>
       <c r="D6" s="48"/>
-      <c r="E6" s="114">
+      <c r="E6" s="115">
         <v>85000</v>
       </c>
-      <c r="F6" s="115">
+      <c r="F6" s="116">
         <v>90000</v>
       </c>
-      <c r="G6" s="116">
+      <c r="G6" s="117">
         <v>1.05882352941176</v>
       </c>
-      <c r="H6" s="112">
+      <c r="H6" s="113">
         <v>1400000</v>
       </c>
-      <c r="I6" s="119">
+      <c r="I6" s="122">
         <v>0.26</v>
       </c>
-      <c r="J6" s="112">
-        <v>0</v>
-      </c>
-      <c r="K6" s="112">
-        <v>0</v>
-      </c>
-      <c r="L6" s="112">
-        <v>0</v>
-      </c>
-      <c r="M6" s="112">
-        <v>0</v>
-      </c>
-      <c r="N6" s="112">
-        <v>0</v>
-      </c>
-      <c r="O6" s="112">
-        <v>0</v>
-      </c>
-      <c r="P6" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="112">
-        <v>0</v>
-      </c>
-      <c r="R6" s="112">
-        <v>0</v>
-      </c>
-      <c r="S6" s="112">
-        <v>0</v>
-      </c>
-      <c r="T6" s="118">
+      <c r="J6" s="123"/>
+      <c r="K6" s="113">
+        <v>0</v>
+      </c>
+      <c r="L6" s="113">
+        <v>0</v>
+      </c>
+      <c r="M6" s="113">
+        <v>0</v>
+      </c>
+      <c r="N6" s="113">
+        <v>0</v>
+      </c>
+      <c r="O6" s="113">
+        <v>0</v>
+      </c>
+      <c r="P6" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="113">
+        <v>0</v>
+      </c>
+      <c r="R6" s="113">
+        <v>0</v>
+      </c>
+      <c r="S6" s="113">
+        <v>0</v>
+      </c>
+      <c r="T6" s="113">
+        <v>0</v>
+      </c>
+      <c r="U6" s="120">
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="20.1" customHeight="1">
-      <c r="A7" s="112">
+      <c r="A7" s="113">
         <v>-1</v>
       </c>
-      <c r="B7" t="s" s="113">
+      <c r="B7" t="s" s="114">
         <v>88</v>
       </c>
-      <c r="C7" t="s" s="113">
+      <c r="C7" t="s" s="114">
         <v>163</v>
       </c>
       <c r="D7" s="48"/>
-      <c r="E7" s="114">
+      <c r="E7" s="115">
         <v>250000</v>
       </c>
-      <c r="F7" s="115">
+      <c r="F7" s="116">
         <v>276368</v>
       </c>
-      <c r="G7" s="116">
+      <c r="G7" s="117">
         <v>1.105472</v>
       </c>
-      <c r="H7" s="112">
+      <c r="H7" s="113">
         <v>4067200</v>
       </c>
-      <c r="I7" s="119">
+      <c r="I7" s="122">
         <v>0.27</v>
       </c>
-      <c r="J7" s="112">
-        <v>0</v>
-      </c>
-      <c r="K7" s="112">
-        <v>0</v>
-      </c>
-      <c r="L7" s="112">
-        <v>0</v>
-      </c>
-      <c r="M7" s="112">
-        <v>0</v>
-      </c>
-      <c r="N7" s="112">
-        <v>0</v>
-      </c>
-      <c r="O7" s="112">
-        <v>0</v>
-      </c>
-      <c r="P7" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="112">
-        <v>0</v>
-      </c>
-      <c r="R7" s="112">
-        <v>0</v>
-      </c>
-      <c r="S7" s="112">
-        <v>0</v>
-      </c>
-      <c r="T7" s="118">
+      <c r="J7" s="84"/>
+      <c r="K7" s="113">
+        <v>0</v>
+      </c>
+      <c r="L7" s="113">
+        <v>0</v>
+      </c>
+      <c r="M7" s="113">
+        <v>0</v>
+      </c>
+      <c r="N7" s="113">
+        <v>0</v>
+      </c>
+      <c r="O7" s="113">
+        <v>0</v>
+      </c>
+      <c r="P7" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="113">
+        <v>0</v>
+      </c>
+      <c r="R7" s="113">
+        <v>0</v>
+      </c>
+      <c r="S7" s="113">
+        <v>0</v>
+      </c>
+      <c r="T7" s="113">
+        <v>0</v>
+      </c>
+      <c r="U7" s="120">
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="20.1" customHeight="1">
-      <c r="A8" s="112">
+      <c r="A8" s="113">
         <v>-1</v>
       </c>
-      <c r="B8" t="s" s="113">
+      <c r="B8" t="s" s="114">
         <v>88</v>
       </c>
-      <c r="C8" t="s" s="113">
+      <c r="C8" t="s" s="114">
         <v>164</v>
       </c>
       <c r="D8" s="48"/>
-      <c r="E8" s="114">
+      <c r="E8" s="115">
         <v>100000</v>
       </c>
-      <c r="F8" s="115">
+      <c r="F8" s="116">
         <v>90248</v>
       </c>
-      <c r="G8" s="116">
+      <c r="G8" s="117">
         <v>0.9024799999999999</v>
       </c>
-      <c r="H8" s="112">
+      <c r="H8" s="113">
         <v>1419200</v>
       </c>
-      <c r="I8" s="119">
+      <c r="I8" s="122">
         <v>0.25</v>
       </c>
-      <c r="J8" s="112">
-        <v>0</v>
-      </c>
-      <c r="K8" s="112">
-        <v>0</v>
-      </c>
-      <c r="L8" s="112">
-        <v>0</v>
-      </c>
-      <c r="M8" s="112">
-        <v>0</v>
-      </c>
-      <c r="N8" s="112">
-        <v>0</v>
-      </c>
-      <c r="O8" s="112">
-        <v>0</v>
-      </c>
-      <c r="P8" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="112">
-        <v>0</v>
-      </c>
-      <c r="R8" s="112">
-        <v>0</v>
-      </c>
-      <c r="S8" s="112">
-        <v>0</v>
-      </c>
-      <c r="T8" s="118">
+      <c r="J8" s="84"/>
+      <c r="K8" s="113">
+        <v>0</v>
+      </c>
+      <c r="L8" s="113">
+        <v>0</v>
+      </c>
+      <c r="M8" s="113">
+        <v>0</v>
+      </c>
+      <c r="N8" s="113">
+        <v>0</v>
+      </c>
+      <c r="O8" s="113">
+        <v>0</v>
+      </c>
+      <c r="P8" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="113">
+        <v>0</v>
+      </c>
+      <c r="R8" s="113">
+        <v>0</v>
+      </c>
+      <c r="S8" s="113">
+        <v>0</v>
+      </c>
+      <c r="T8" s="113">
+        <v>0</v>
+      </c>
+      <c r="U8" s="120">
         <v>1</v>
       </c>
     </row>
     <row r="9" ht="20.1" customHeight="1">
-      <c r="A9" s="112">
+      <c r="A9" s="113">
         <v>-1</v>
       </c>
-      <c r="B9" t="s" s="113">
+      <c r="B9" t="s" s="114">
         <v>88</v>
       </c>
-      <c r="C9" t="s" s="113">
+      <c r="C9" t="s" s="114">
         <v>165</v>
       </c>
       <c r="D9" s="48"/>
-      <c r="E9" s="114">
+      <c r="E9" s="115">
         <v>25000</v>
       </c>
-      <c r="F9" s="115">
+      <c r="F9" s="116">
         <v>28930</v>
       </c>
-      <c r="G9" s="116">
+      <c r="G9" s="117">
         <v>1.1572</v>
       </c>
-      <c r="H9" s="112">
+      <c r="H9" s="113">
         <v>1014300</v>
       </c>
-      <c r="I9" s="119">
+      <c r="I9" s="122">
         <v>0.11</v>
       </c>
-      <c r="J9" s="112">
-        <v>0</v>
-      </c>
-      <c r="K9" s="112">
-        <v>0</v>
-      </c>
-      <c r="L9" s="112">
-        <v>0</v>
-      </c>
-      <c r="M9" s="112">
-        <v>0</v>
-      </c>
-      <c r="N9" s="112">
-        <v>0</v>
-      </c>
-      <c r="O9" s="112">
-        <v>0</v>
-      </c>
-      <c r="P9" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="112">
-        <v>0</v>
-      </c>
-      <c r="R9" s="112">
-        <v>0</v>
-      </c>
-      <c r="S9" s="112">
-        <v>0</v>
-      </c>
-      <c r="T9" s="118">
+      <c r="J9" s="84"/>
+      <c r="K9" s="113">
+        <v>0</v>
+      </c>
+      <c r="L9" s="113">
+        <v>0</v>
+      </c>
+      <c r="M9" s="113">
+        <v>0</v>
+      </c>
+      <c r="N9" s="113">
+        <v>0</v>
+      </c>
+      <c r="O9" s="113">
+        <v>0</v>
+      </c>
+      <c r="P9" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="113">
+        <v>0</v>
+      </c>
+      <c r="R9" s="113">
+        <v>0</v>
+      </c>
+      <c r="S9" s="113">
+        <v>0</v>
+      </c>
+      <c r="T9" s="113">
+        <v>0</v>
+      </c>
+      <c r="U9" s="120">
         <v>1</v>
       </c>
     </row>
     <row r="10" ht="20.1" customHeight="1">
-      <c r="A10" s="112">
+      <c r="A10" s="113">
         <v>-1</v>
       </c>
-      <c r="B10" t="s" s="113">
+      <c r="B10" t="s" s="114">
         <v>88</v>
       </c>
-      <c r="C10" t="s" s="113">
+      <c r="C10" t="s" s="114">
         <v>166</v>
       </c>
       <c r="D10" s="48"/>
-      <c r="E10" s="114">
+      <c r="E10" s="115">
         <v>40000</v>
       </c>
-      <c r="F10" s="115">
+      <c r="F10" s="116">
         <v>35840</v>
       </c>
-      <c r="G10" s="116">
+      <c r="G10" s="117">
         <v>0.896</v>
       </c>
-      <c r="H10" s="112">
+      <c r="H10" s="113">
         <v>628320</v>
       </c>
-      <c r="I10" s="119">
+      <c r="I10" s="122">
         <v>0.23</v>
       </c>
-      <c r="J10" s="112">
-        <v>0</v>
-      </c>
-      <c r="K10" s="112">
-        <v>0</v>
-      </c>
-      <c r="L10" s="112">
-        <v>0</v>
-      </c>
-      <c r="M10" s="112">
-        <v>0</v>
-      </c>
-      <c r="N10" s="112">
-        <v>0</v>
-      </c>
-      <c r="O10" s="112">
-        <v>0</v>
-      </c>
-      <c r="P10" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="112">
-        <v>0</v>
-      </c>
-      <c r="R10" s="112">
-        <v>0</v>
-      </c>
-      <c r="S10" s="112">
-        <v>0</v>
-      </c>
-      <c r="T10" s="118">
+      <c r="J10" s="84"/>
+      <c r="K10" s="113">
+        <v>0</v>
+      </c>
+      <c r="L10" s="113">
+        <v>0</v>
+      </c>
+      <c r="M10" s="113">
+        <v>0</v>
+      </c>
+      <c r="N10" s="113">
+        <v>0</v>
+      </c>
+      <c r="O10" s="113">
+        <v>0</v>
+      </c>
+      <c r="P10" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="113">
+        <v>0</v>
+      </c>
+      <c r="R10" s="113">
+        <v>0</v>
+      </c>
+      <c r="S10" s="113">
+        <v>0</v>
+      </c>
+      <c r="T10" s="113">
+        <v>0</v>
+      </c>
+      <c r="U10" s="120">
         <v>1</v>
       </c>
     </row>
     <row r="11" ht="19.9" customHeight="1">
-      <c r="A11" s="112">
+      <c r="A11" s="113">
         <v>-1</v>
       </c>
-      <c r="B11" t="s" s="113">
+      <c r="B11" t="s" s="114">
         <v>88</v>
       </c>
-      <c r="C11" t="s" s="113">
+      <c r="C11" t="s" s="114">
         <v>167</v>
       </c>
       <c r="D11" s="48"/>
-      <c r="E11" s="114">
+      <c r="E11" s="115">
         <v>800000</v>
       </c>
-      <c r="F11" s="115">
+      <c r="F11" s="116">
         <v>835229</v>
       </c>
-      <c r="G11" s="116">
+      <c r="G11" s="117">
         <v>1.04403625</v>
       </c>
-      <c r="H11" s="112">
+      <c r="H11" s="113">
         <v>12234288</v>
       </c>
-      <c r="I11" s="120">
+      <c r="I11" s="124">
         <v>0.27</v>
       </c>
-      <c r="J11" s="112">
-        <v>0</v>
-      </c>
-      <c r="K11" s="112">
-        <v>0</v>
-      </c>
-      <c r="L11" s="112">
-        <v>0</v>
-      </c>
-      <c r="M11" s="112">
-        <v>0</v>
-      </c>
-      <c r="N11" s="112">
-        <v>0</v>
-      </c>
-      <c r="O11" s="112">
-        <v>0</v>
-      </c>
-      <c r="P11" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="112">
-        <v>0</v>
-      </c>
-      <c r="R11" s="112">
-        <v>0</v>
-      </c>
-      <c r="S11" s="112">
-        <v>0</v>
-      </c>
-      <c r="T11" s="118">
+      <c r="J11" s="84"/>
+      <c r="K11" s="113">
+        <v>0</v>
+      </c>
+      <c r="L11" s="113">
+        <v>0</v>
+      </c>
+      <c r="M11" s="113">
+        <v>0</v>
+      </c>
+      <c r="N11" s="113">
+        <v>0</v>
+      </c>
+      <c r="O11" s="113">
+        <v>0</v>
+      </c>
+      <c r="P11" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="113">
+        <v>0</v>
+      </c>
+      <c r="R11" s="113">
+        <v>0</v>
+      </c>
+      <c r="S11" s="113">
+        <v>0</v>
+      </c>
+      <c r="T11" s="113">
+        <v>0</v>
+      </c>
+      <c r="U11" s="120">
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="19.9" customHeight="1">
-      <c r="A12" s="112">
+      <c r="A12" s="113">
         <v>-1</v>
       </c>
       <c r="B12" s="48"/>
@@ -6651,57 +6698,58 @@
       <c r="D12" t="s" s="90">
         <v>114</v>
       </c>
-      <c r="E12" s="114">
+      <c r="E12" s="115">
         <v>840000</v>
       </c>
-      <c r="F12" s="114">
+      <c r="F12" s="115">
         <v>871069</v>
       </c>
-      <c r="G12" s="112">
-        <v>0</v>
-      </c>
-      <c r="H12" s="112">
-        <v>0</v>
-      </c>
-      <c r="I12" s="112">
-        <v>0</v>
-      </c>
-      <c r="J12" s="91">
+      <c r="G12" s="113">
+        <v>0</v>
+      </c>
+      <c r="H12" s="113">
+        <v>0</v>
+      </c>
+      <c r="I12" s="113">
+        <v>0</v>
+      </c>
+      <c r="J12" s="84"/>
+      <c r="K12" s="91">
         <v>7</v>
       </c>
-      <c r="K12" s="91">
+      <c r="L12" s="91">
         <v>8</v>
       </c>
-      <c r="L12" s="91">
+      <c r="M12" s="91">
         <v>7</v>
       </c>
-      <c r="M12" s="91">
+      <c r="N12" s="91">
         <v>9</v>
       </c>
-      <c r="N12" s="91">
+      <c r="O12" s="91">
         <v>4</v>
       </c>
-      <c r="O12" s="91">
+      <c r="P12" s="91">
         <v>160</v>
       </c>
-      <c r="P12" s="91">
+      <c r="Q12" s="91">
         <v>60</v>
       </c>
-      <c r="Q12" s="91">
+      <c r="R12" s="91">
         <v>18</v>
       </c>
-      <c r="R12" s="91">
+      <c r="S12" s="91">
         <v>8</v>
       </c>
-      <c r="S12" s="91">
+      <c r="T12" s="91">
         <v>5</v>
       </c>
-      <c r="T12" s="91">
+      <c r="U12" s="91">
         <v>2</v>
       </c>
     </row>
     <row r="13" ht="19.9" customHeight="1">
-      <c r="A13" s="112">
+      <c r="A13" s="113">
         <v>-1</v>
       </c>
       <c r="B13" s="48"/>
@@ -6709,26 +6757,24 @@
       <c r="D13" t="s" s="90">
         <v>118</v>
       </c>
-      <c r="E13" s="114">
+      <c r="E13" s="115">
         <v>1250000</v>
       </c>
-      <c r="F13" s="114">
+      <c r="F13" s="115">
         <v>1259704</v>
       </c>
-      <c r="G13" s="112">
-        <v>0</v>
-      </c>
-      <c r="H13" s="112">
-        <v>0</v>
-      </c>
-      <c r="I13" s="112">
-        <v>0</v>
-      </c>
-      <c r="J13" s="91">
+      <c r="G13" s="113">
+        <v>0</v>
+      </c>
+      <c r="H13" s="113">
+        <v>0</v>
+      </c>
+      <c r="I13" s="113">
+        <v>0</v>
+      </c>
+      <c r="J13" s="84"/>
+      <c r="K13" s="91">
         <v>9</v>
-      </c>
-      <c r="K13" s="91">
-        <v>8</v>
       </c>
       <c r="L13" s="91">
         <v>8</v>
@@ -6737,29 +6783,32 @@
         <v>8</v>
       </c>
       <c r="N13" s="91">
+        <v>8</v>
+      </c>
+      <c r="O13" s="91">
         <v>7</v>
       </c>
-      <c r="O13" s="91">
+      <c r="P13" s="91">
         <v>155</v>
       </c>
-      <c r="P13" s="91">
+      <c r="Q13" s="91">
         <v>60</v>
       </c>
-      <c r="Q13" s="91">
+      <c r="R13" s="91">
         <v>23</v>
       </c>
-      <c r="R13" s="91">
+      <c r="S13" s="91">
         <v>12</v>
       </c>
-      <c r="S13" s="91">
+      <c r="T13" s="91">
         <v>10</v>
       </c>
-      <c r="T13" s="91">
+      <c r="U13" s="91">
         <v>2</v>
       </c>
     </row>
     <row r="14" ht="19.9" customHeight="1">
-      <c r="A14" s="112">
+      <c r="A14" s="113">
         <v>-1</v>
       </c>
       <c r="B14" s="48"/>
@@ -6767,57 +6816,58 @@
       <c r="D14" t="s" s="90">
         <v>122</v>
       </c>
-      <c r="E14" s="114">
+      <c r="E14" s="115">
         <v>275000</v>
       </c>
-      <c r="F14" s="114">
+      <c r="F14" s="115">
         <v>305298</v>
       </c>
-      <c r="G14" s="112">
-        <v>0</v>
-      </c>
-      <c r="H14" s="112">
-        <v>0</v>
-      </c>
-      <c r="I14" s="112">
-        <v>0</v>
-      </c>
-      <c r="J14" s="91">
+      <c r="G14" s="113">
+        <v>0</v>
+      </c>
+      <c r="H14" s="113">
+        <v>0</v>
+      </c>
+      <c r="I14" s="113">
+        <v>0</v>
+      </c>
+      <c r="J14" s="84"/>
+      <c r="K14" s="91">
         <v>4</v>
       </c>
-      <c r="K14" s="91">
+      <c r="L14" s="91">
         <v>5</v>
-      </c>
-      <c r="L14" s="91">
-        <v>7</v>
       </c>
       <c r="M14" s="91">
         <v>7</v>
       </c>
       <c r="N14" s="91">
+        <v>7</v>
+      </c>
+      <c r="O14" s="91">
         <v>8</v>
       </c>
-      <c r="O14" s="91">
+      <c r="P14" s="91">
         <v>130</v>
       </c>
-      <c r="P14" s="91">
+      <c r="Q14" s="91">
         <v>50</v>
       </c>
-      <c r="Q14" s="91">
+      <c r="R14" s="91">
         <v>18</v>
-      </c>
-      <c r="R14" s="91">
-        <v>10</v>
       </c>
       <c r="S14" s="91">
         <v>10</v>
       </c>
       <c r="T14" s="91">
+        <v>10</v>
+      </c>
+      <c r="U14" s="91">
         <v>2</v>
       </c>
     </row>
     <row r="15" ht="19.9" customHeight="1">
-      <c r="A15" s="112">
+      <c r="A15" s="113">
         <v>-1</v>
       </c>
       <c r="B15" s="48"/>
@@ -6825,57 +6875,58 @@
       <c r="D15" t="s" s="90">
         <v>125</v>
       </c>
-      <c r="E15" s="114">
+      <c r="E15" s="115">
         <v>300000</v>
       </c>
-      <c r="F15" s="114">
+      <c r="F15" s="115">
         <v>310748</v>
       </c>
-      <c r="G15" s="112">
-        <v>0</v>
-      </c>
-      <c r="H15" s="112">
-        <v>0</v>
-      </c>
-      <c r="I15" s="112">
-        <v>0</v>
-      </c>
-      <c r="J15" s="91">
+      <c r="G15" s="113">
+        <v>0</v>
+      </c>
+      <c r="H15" s="113">
+        <v>0</v>
+      </c>
+      <c r="I15" s="113">
+        <v>0</v>
+      </c>
+      <c r="J15" s="84"/>
+      <c r="K15" s="91">
         <v>5</v>
       </c>
-      <c r="K15" s="91">
+      <c r="L15" s="91">
         <v>6</v>
       </c>
-      <c r="L15" s="91">
+      <c r="M15" s="91">
         <v>4</v>
       </c>
-      <c r="M15" s="91">
+      <c r="N15" s="91">
         <v>6</v>
       </c>
-      <c r="N15" s="91">
+      <c r="O15" s="91">
         <v>9</v>
       </c>
-      <c r="O15" s="91">
+      <c r="P15" s="91">
         <v>120</v>
       </c>
-      <c r="P15" s="91">
+      <c r="Q15" s="91">
         <v>45</v>
       </c>
-      <c r="Q15" s="91">
+      <c r="R15" s="91">
         <v>16</v>
       </c>
-      <c r="R15" s="91">
+      <c r="S15" s="91">
         <v>15</v>
       </c>
-      <c r="S15" s="91">
+      <c r="T15" s="91">
         <v>13</v>
       </c>
-      <c r="T15" s="91">
+      <c r="U15" s="91">
         <v>2</v>
       </c>
     </row>
     <row r="16" ht="19.9" customHeight="1">
-      <c r="A16" s="112">
+      <c r="A16" s="113">
         <v>-1</v>
       </c>
       <c r="B16" s="48"/>
@@ -6883,115 +6934,117 @@
       <c r="D16" t="s" s="90">
         <v>128</v>
       </c>
-      <c r="E16" s="114">
+      <c r="E16" s="115">
         <v>685000</v>
       </c>
-      <c r="F16" s="114">
+      <c r="F16" s="115">
         <v>806400</v>
       </c>
-      <c r="G16" s="112">
-        <v>0</v>
-      </c>
-      <c r="H16" s="112">
-        <v>0</v>
-      </c>
-      <c r="I16" s="112">
-        <v>0</v>
-      </c>
-      <c r="J16" s="91">
+      <c r="G16" s="113">
+        <v>0</v>
+      </c>
+      <c r="H16" s="113">
+        <v>0</v>
+      </c>
+      <c r="I16" s="113">
+        <v>0</v>
+      </c>
+      <c r="J16" s="84"/>
+      <c r="K16" s="91">
         <v>7</v>
       </c>
-      <c r="K16" s="91">
+      <c r="L16" s="91">
         <v>9</v>
       </c>
-      <c r="L16" s="91">
+      <c r="M16" s="91">
         <v>5</v>
       </c>
-      <c r="M16" s="91">
+      <c r="N16" s="91">
         <v>8</v>
       </c>
-      <c r="N16" s="91">
+      <c r="O16" s="91">
         <v>7</v>
       </c>
-      <c r="O16" s="91">
+      <c r="P16" s="91">
         <v>150</v>
       </c>
-      <c r="P16" s="91">
+      <c r="Q16" s="91">
         <v>55</v>
       </c>
-      <c r="Q16" s="91">
+      <c r="R16" s="91">
         <v>20</v>
       </c>
-      <c r="R16" s="91">
+      <c r="S16" s="91">
         <v>13</v>
       </c>
-      <c r="S16" s="91">
+      <c r="T16" s="91">
         <v>12</v>
       </c>
-      <c r="T16" s="91">
+      <c r="U16" s="91">
         <v>2</v>
       </c>
     </row>
     <row r="17" ht="19.9" customHeight="1">
-      <c r="A17" s="112">
-        <v>-1</v>
-      </c>
-      <c r="B17" t="s" s="113">
+      <c r="A17" s="113">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s" s="114">
         <v>88</v>
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="48"/>
-      <c r="E17" s="112">
+      <c r="E17" s="113">
         <v>3700000</v>
       </c>
-      <c r="F17" s="112">
-        <v>0</v>
-      </c>
-      <c r="G17" s="112">
-        <v>0</v>
-      </c>
-      <c r="H17" s="112">
-        <v>0</v>
-      </c>
-      <c r="I17" s="112">
-        <v>0</v>
-      </c>
-      <c r="J17" s="112">
-        <v>0</v>
-      </c>
-      <c r="K17" s="112">
-        <v>0</v>
-      </c>
-      <c r="L17" s="112">
-        <v>0</v>
-      </c>
-      <c r="M17" s="112">
-        <v>0</v>
-      </c>
-      <c r="N17" s="112">
-        <v>0</v>
-      </c>
-      <c r="O17" s="112">
-        <v>0</v>
-      </c>
-      <c r="P17" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="112">
-        <v>0</v>
-      </c>
-      <c r="R17" s="112">
-        <v>0</v>
-      </c>
-      <c r="S17" s="112">
-        <v>0</v>
-      </c>
-      <c r="T17" s="118">
+      <c r="F17" s="113">
+        <v>0</v>
+      </c>
+      <c r="G17" s="113">
+        <v>0</v>
+      </c>
+      <c r="H17" s="113">
+        <v>0</v>
+      </c>
+      <c r="I17" s="113">
+        <v>0</v>
+      </c>
+      <c r="J17" s="84"/>
+      <c r="K17" s="113">
+        <v>0</v>
+      </c>
+      <c r="L17" s="113">
+        <v>0</v>
+      </c>
+      <c r="M17" s="113">
+        <v>0</v>
+      </c>
+      <c r="N17" s="113">
+        <v>0</v>
+      </c>
+      <c r="O17" s="113">
+        <v>0</v>
+      </c>
+      <c r="P17" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="113">
+        <v>0</v>
+      </c>
+      <c r="R17" s="113">
+        <v>0</v>
+      </c>
+      <c r="S17" s="113">
+        <v>0</v>
+      </c>
+      <c r="T17" s="113">
+        <v>0</v>
+      </c>
+      <c r="U17" s="120">
         <v>4</v>
       </c>
     </row>
     <row r="18" ht="19.9" customHeight="1">
-      <c r="A18" s="112">
+      <c r="A18" s="113">
         <v>-1</v>
       </c>
       <c r="B18" t="s" s="72">
@@ -7003,45 +7056,46 @@
       <c r="F18" s="48"/>
       <c r="G18" s="48"/>
       <c r="H18" s="48"/>
-      <c r="I18" s="112">
+      <c r="I18" s="113">
         <v>0.18</v>
       </c>
-      <c r="J18" s="112">
-        <v>0</v>
-      </c>
-      <c r="K18" s="112">
-        <v>0</v>
-      </c>
-      <c r="L18" s="112">
-        <v>0</v>
-      </c>
-      <c r="M18" s="112">
-        <v>0</v>
-      </c>
-      <c r="N18" s="112">
-        <v>0</v>
-      </c>
-      <c r="O18" s="112">
-        <v>0</v>
-      </c>
-      <c r="P18" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="112">
-        <v>0</v>
-      </c>
-      <c r="R18" s="112">
-        <v>0</v>
-      </c>
-      <c r="S18" s="112">
-        <v>0</v>
-      </c>
-      <c r="T18" s="118">
+      <c r="J18" s="84"/>
+      <c r="K18" s="113">
+        <v>0</v>
+      </c>
+      <c r="L18" s="113">
+        <v>0</v>
+      </c>
+      <c r="M18" s="113">
+        <v>0</v>
+      </c>
+      <c r="N18" s="113">
+        <v>0</v>
+      </c>
+      <c r="O18" s="113">
+        <v>0</v>
+      </c>
+      <c r="P18" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="113">
+        <v>0</v>
+      </c>
+      <c r="R18" s="113">
+        <v>0</v>
+      </c>
+      <c r="S18" s="113">
+        <v>0</v>
+      </c>
+      <c r="T18" s="113">
+        <v>0</v>
+      </c>
+      <c r="U18" s="120">
         <v>16</v>
       </c>
     </row>
     <row r="19" ht="19.9" customHeight="1">
-      <c r="A19" s="112">
+      <c r="A19" s="113">
         <v>-1</v>
       </c>
       <c r="B19" t="s" s="72">
@@ -7053,600 +7107,611 @@
       <c r="F19" s="48"/>
       <c r="G19" s="48"/>
       <c r="H19" s="48"/>
-      <c r="I19" s="112">
+      <c r="I19" s="113">
         <v>0.06</v>
       </c>
-      <c r="J19" s="112">
-        <v>0</v>
-      </c>
-      <c r="K19" s="112">
-        <v>0</v>
-      </c>
-      <c r="L19" s="112">
-        <v>0</v>
-      </c>
-      <c r="M19" s="112">
-        <v>0</v>
-      </c>
-      <c r="N19" s="112">
-        <v>0</v>
-      </c>
-      <c r="O19" s="112">
-        <v>0</v>
-      </c>
-      <c r="P19" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="112">
-        <v>0</v>
-      </c>
-      <c r="R19" s="112">
-        <v>0</v>
-      </c>
-      <c r="S19" s="112">
-        <v>0</v>
-      </c>
-      <c r="T19" s="118">
+      <c r="J19" s="84"/>
+      <c r="K19" s="113">
+        <v>0</v>
+      </c>
+      <c r="L19" s="113">
+        <v>0</v>
+      </c>
+      <c r="M19" s="113">
+        <v>0</v>
+      </c>
+      <c r="N19" s="113">
+        <v>0</v>
+      </c>
+      <c r="O19" s="113">
+        <v>0</v>
+      </c>
+      <c r="P19" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="113">
+        <v>0</v>
+      </c>
+      <c r="R19" s="113">
+        <v>0</v>
+      </c>
+      <c r="S19" s="113">
+        <v>0</v>
+      </c>
+      <c r="T19" s="113">
+        <v>0</v>
+      </c>
+      <c r="U19" s="120">
         <v>16</v>
       </c>
     </row>
     <row r="20" ht="19.9" customHeight="1">
-      <c r="A20" s="112">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s" s="113">
+      <c r="A20" s="113">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s" s="114">
         <v>88</v>
       </c>
-      <c r="C20" t="s" s="113">
+      <c r="C20" t="s" s="114">
         <v>158</v>
       </c>
       <c r="D20" s="48"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="115">
+      <c r="E20" s="125"/>
+      <c r="F20" s="116">
         <v>716400</v>
       </c>
-      <c r="G20" s="116"/>
-      <c r="H20" s="112">
+      <c r="G20" s="117"/>
+      <c r="H20" s="113">
         <v>10560000</v>
       </c>
-      <c r="I20" s="112">
-        <v>0</v>
-      </c>
-      <c r="J20" s="112">
-        <v>0</v>
-      </c>
-      <c r="K20" s="112">
-        <v>0</v>
-      </c>
-      <c r="L20" s="112">
-        <v>0</v>
-      </c>
-      <c r="M20" s="112">
-        <v>0</v>
-      </c>
-      <c r="N20" s="112">
-        <v>0</v>
-      </c>
-      <c r="O20" s="112">
-        <v>0</v>
-      </c>
-      <c r="P20" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="112">
-        <v>0</v>
-      </c>
-      <c r="R20" s="112">
-        <v>0</v>
-      </c>
-      <c r="S20" s="112">
-        <v>0</v>
-      </c>
-      <c r="T20" s="118">
+      <c r="I20" s="113">
+        <v>0</v>
+      </c>
+      <c r="J20" s="84"/>
+      <c r="K20" s="113">
+        <v>0</v>
+      </c>
+      <c r="L20" s="113">
+        <v>0</v>
+      </c>
+      <c r="M20" s="113">
+        <v>0</v>
+      </c>
+      <c r="N20" s="113">
+        <v>0</v>
+      </c>
+      <c r="O20" s="113">
+        <v>0</v>
+      </c>
+      <c r="P20" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="113">
+        <v>0</v>
+      </c>
+      <c r="R20" s="113">
+        <v>0</v>
+      </c>
+      <c r="S20" s="113">
+        <v>0</v>
+      </c>
+      <c r="T20" s="113">
+        <v>0</v>
+      </c>
+      <c r="U20" s="120">
         <v>8</v>
       </c>
     </row>
     <row r="21" ht="19.9" customHeight="1">
-      <c r="A21" s="112">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s" s="113">
+      <c r="A21" s="113">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s" s="114">
         <v>88</v>
       </c>
-      <c r="C21" t="s" s="113">
+      <c r="C21" t="s" s="114">
         <v>159</v>
       </c>
       <c r="D21" s="48"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="115">
+      <c r="E21" s="125"/>
+      <c r="F21" s="116">
         <v>220500</v>
       </c>
-      <c r="G21" s="116"/>
-      <c r="H21" s="112">
+      <c r="G21" s="117"/>
+      <c r="H21" s="113">
         <v>3700000</v>
       </c>
-      <c r="I21" s="112">
-        <v>0</v>
-      </c>
-      <c r="J21" s="112">
-        <v>0</v>
-      </c>
-      <c r="K21" s="112">
-        <v>0</v>
-      </c>
-      <c r="L21" s="112">
-        <v>0</v>
-      </c>
-      <c r="M21" s="112">
-        <v>0</v>
-      </c>
-      <c r="N21" s="112">
-        <v>0</v>
-      </c>
-      <c r="O21" s="112">
-        <v>0</v>
-      </c>
-      <c r="P21" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="112">
-        <v>0</v>
-      </c>
-      <c r="R21" s="112">
-        <v>0</v>
-      </c>
-      <c r="S21" s="112">
-        <v>0</v>
-      </c>
-      <c r="T21" s="118">
+      <c r="I21" s="113">
+        <v>0</v>
+      </c>
+      <c r="J21" s="84"/>
+      <c r="K21" s="113">
+        <v>0</v>
+      </c>
+      <c r="L21" s="113">
+        <v>0</v>
+      </c>
+      <c r="M21" s="113">
+        <v>0</v>
+      </c>
+      <c r="N21" s="113">
+        <v>0</v>
+      </c>
+      <c r="O21" s="113">
+        <v>0</v>
+      </c>
+      <c r="P21" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="113">
+        <v>0</v>
+      </c>
+      <c r="R21" s="113">
+        <v>0</v>
+      </c>
+      <c r="S21" s="113">
+        <v>0</v>
+      </c>
+      <c r="T21" s="113">
+        <v>0</v>
+      </c>
+      <c r="U21" s="120">
         <v>8</v>
       </c>
     </row>
     <row r="22" ht="19.9" customHeight="1">
-      <c r="A22" s="112">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s" s="113">
+      <c r="A22" s="113">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s" s="114">
         <v>88</v>
       </c>
-      <c r="C22" t="s" s="113">
+      <c r="C22" t="s" s="114">
         <v>160</v>
       </c>
       <c r="D22" s="48"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="115">
+      <c r="E22" s="125"/>
+      <c r="F22" s="116">
         <v>859704</v>
       </c>
-      <c r="G22" s="116"/>
-      <c r="H22" s="112">
+      <c r="G22" s="117"/>
+      <c r="H22" s="113">
         <v>13041600</v>
       </c>
-      <c r="I22" s="112">
-        <v>0</v>
-      </c>
-      <c r="J22" s="112">
-        <v>0</v>
-      </c>
-      <c r="K22" s="112">
-        <v>0</v>
-      </c>
-      <c r="L22" s="112">
-        <v>0</v>
-      </c>
-      <c r="M22" s="112">
-        <v>0</v>
-      </c>
-      <c r="N22" s="112">
-        <v>0</v>
-      </c>
-      <c r="O22" s="112">
-        <v>0</v>
-      </c>
-      <c r="P22" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="112">
-        <v>0</v>
-      </c>
-      <c r="R22" s="112">
-        <v>0</v>
-      </c>
-      <c r="S22" s="112">
-        <v>0</v>
-      </c>
-      <c r="T22" s="118">
+      <c r="I22" s="113">
+        <v>0</v>
+      </c>
+      <c r="J22" s="84"/>
+      <c r="K22" s="113">
+        <v>0</v>
+      </c>
+      <c r="L22" s="113">
+        <v>0</v>
+      </c>
+      <c r="M22" s="113">
+        <v>0</v>
+      </c>
+      <c r="N22" s="113">
+        <v>0</v>
+      </c>
+      <c r="O22" s="113">
+        <v>0</v>
+      </c>
+      <c r="P22" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="113">
+        <v>0</v>
+      </c>
+      <c r="R22" s="113">
+        <v>0</v>
+      </c>
+      <c r="S22" s="113">
+        <v>0</v>
+      </c>
+      <c r="T22" s="113">
+        <v>0</v>
+      </c>
+      <c r="U22" s="120">
         <v>8</v>
       </c>
     </row>
     <row r="23" ht="19.9" customHeight="1">
-      <c r="A23" s="112">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s" s="113">
+      <c r="A23" s="113">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s" s="114">
         <v>88</v>
       </c>
-      <c r="C23" t="s" s="113">
+      <c r="C23" t="s" s="114">
         <v>161</v>
       </c>
       <c r="D23" s="48"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="115">
+      <c r="E23" s="125"/>
+      <c r="F23" s="116">
         <v>400000</v>
       </c>
-      <c r="G23" s="116"/>
-      <c r="H23" s="112">
+      <c r="G23" s="117"/>
+      <c r="H23" s="113">
         <v>6200000</v>
       </c>
-      <c r="I23" s="112">
-        <v>0</v>
-      </c>
-      <c r="J23" s="112">
-        <v>0</v>
-      </c>
-      <c r="K23" s="112">
-        <v>0</v>
-      </c>
-      <c r="L23" s="112">
-        <v>0</v>
-      </c>
-      <c r="M23" s="112">
-        <v>0</v>
-      </c>
-      <c r="N23" s="112">
-        <v>0</v>
-      </c>
-      <c r="O23" s="112">
-        <v>0</v>
-      </c>
-      <c r="P23" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="112">
-        <v>0</v>
-      </c>
-      <c r="R23" s="112">
-        <v>0</v>
-      </c>
-      <c r="S23" s="112">
-        <v>0</v>
-      </c>
-      <c r="T23" s="118">
+      <c r="I23" s="113">
+        <v>0</v>
+      </c>
+      <c r="J23" s="84"/>
+      <c r="K23" s="113">
+        <v>0</v>
+      </c>
+      <c r="L23" s="113">
+        <v>0</v>
+      </c>
+      <c r="M23" s="113">
+        <v>0</v>
+      </c>
+      <c r="N23" s="113">
+        <v>0</v>
+      </c>
+      <c r="O23" s="113">
+        <v>0</v>
+      </c>
+      <c r="P23" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="113">
+        <v>0</v>
+      </c>
+      <c r="R23" s="113">
+        <v>0</v>
+      </c>
+      <c r="S23" s="113">
+        <v>0</v>
+      </c>
+      <c r="T23" s="113">
+        <v>0</v>
+      </c>
+      <c r="U23" s="120">
         <v>8</v>
       </c>
     </row>
     <row r="24" ht="19.9" customHeight="1">
-      <c r="A24" s="112">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s" s="113">
+      <c r="A24" s="113">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s" s="114">
         <v>88</v>
       </c>
-      <c r="C24" t="s" s="113">
+      <c r="C24" t="s" s="114">
         <v>162</v>
       </c>
       <c r="D24" s="48"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="115">
+      <c r="E24" s="125"/>
+      <c r="F24" s="116">
         <v>90000</v>
       </c>
-      <c r="G24" s="116"/>
-      <c r="H24" s="112">
+      <c r="G24" s="117"/>
+      <c r="H24" s="113">
         <v>1400000</v>
       </c>
-      <c r="I24" s="112">
-        <v>0</v>
-      </c>
-      <c r="J24" s="112">
-        <v>0</v>
-      </c>
-      <c r="K24" s="112">
-        <v>0</v>
-      </c>
-      <c r="L24" s="112">
-        <v>0</v>
-      </c>
-      <c r="M24" s="112">
-        <v>0</v>
-      </c>
-      <c r="N24" s="112">
-        <v>0</v>
-      </c>
-      <c r="O24" s="112">
-        <v>0</v>
-      </c>
-      <c r="P24" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="112">
-        <v>0</v>
-      </c>
-      <c r="R24" s="112">
-        <v>0</v>
-      </c>
-      <c r="S24" s="112">
-        <v>0</v>
-      </c>
-      <c r="T24" s="118">
+      <c r="I24" s="113">
+        <v>0</v>
+      </c>
+      <c r="J24" s="84"/>
+      <c r="K24" s="113">
+        <v>0</v>
+      </c>
+      <c r="L24" s="113">
+        <v>0</v>
+      </c>
+      <c r="M24" s="113">
+        <v>0</v>
+      </c>
+      <c r="N24" s="113">
+        <v>0</v>
+      </c>
+      <c r="O24" s="113">
+        <v>0</v>
+      </c>
+      <c r="P24" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="113">
+        <v>0</v>
+      </c>
+      <c r="R24" s="113">
+        <v>0</v>
+      </c>
+      <c r="S24" s="113">
+        <v>0</v>
+      </c>
+      <c r="T24" s="113">
+        <v>0</v>
+      </c>
+      <c r="U24" s="120">
         <v>8</v>
       </c>
     </row>
     <row r="25" ht="19.9" customHeight="1">
-      <c r="A25" s="112">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s" s="113">
+      <c r="A25" s="113">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s" s="114">
         <v>88</v>
       </c>
-      <c r="C25" t="s" s="113">
+      <c r="C25" t="s" s="114">
         <v>163</v>
       </c>
       <c r="D25" s="48"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="115">
+      <c r="E25" s="125"/>
+      <c r="F25" s="116">
         <v>276368</v>
       </c>
-      <c r="G25" s="116"/>
-      <c r="H25" s="112">
+      <c r="G25" s="117"/>
+      <c r="H25" s="113">
         <v>4067200</v>
       </c>
-      <c r="I25" s="112">
-        <v>0</v>
-      </c>
-      <c r="J25" s="112">
-        <v>0</v>
-      </c>
-      <c r="K25" s="112">
-        <v>0</v>
-      </c>
-      <c r="L25" s="112">
-        <v>0</v>
-      </c>
-      <c r="M25" s="112">
-        <v>0</v>
-      </c>
-      <c r="N25" s="112">
-        <v>0</v>
-      </c>
-      <c r="O25" s="112">
-        <v>0</v>
-      </c>
-      <c r="P25" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="112">
-        <v>0</v>
-      </c>
-      <c r="R25" s="112">
-        <v>0</v>
-      </c>
-      <c r="S25" s="112">
-        <v>0</v>
-      </c>
-      <c r="T25" s="118">
+      <c r="I25" s="113">
+        <v>0</v>
+      </c>
+      <c r="J25" s="84"/>
+      <c r="K25" s="113">
+        <v>0</v>
+      </c>
+      <c r="L25" s="113">
+        <v>0</v>
+      </c>
+      <c r="M25" s="113">
+        <v>0</v>
+      </c>
+      <c r="N25" s="113">
+        <v>0</v>
+      </c>
+      <c r="O25" s="113">
+        <v>0</v>
+      </c>
+      <c r="P25" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="113">
+        <v>0</v>
+      </c>
+      <c r="R25" s="113">
+        <v>0</v>
+      </c>
+      <c r="S25" s="113">
+        <v>0</v>
+      </c>
+      <c r="T25" s="113">
+        <v>0</v>
+      </c>
+      <c r="U25" s="120">
         <v>8</v>
       </c>
     </row>
     <row r="26" ht="19.9" customHeight="1">
-      <c r="A26" s="112">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s" s="113">
+      <c r="A26" s="113">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s" s="114">
         <v>88</v>
       </c>
-      <c r="C26" t="s" s="113">
+      <c r="C26" t="s" s="114">
         <v>164</v>
       </c>
       <c r="D26" s="48"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="115">
+      <c r="E26" s="125"/>
+      <c r="F26" s="116">
         <v>90248</v>
       </c>
-      <c r="G26" s="116"/>
-      <c r="H26" s="112">
+      <c r="G26" s="117"/>
+      <c r="H26" s="113">
         <v>1419200</v>
       </c>
-      <c r="I26" s="112">
-        <v>0</v>
-      </c>
-      <c r="J26" s="112">
-        <v>0</v>
-      </c>
-      <c r="K26" s="112">
-        <v>0</v>
-      </c>
-      <c r="L26" s="112">
-        <v>0</v>
-      </c>
-      <c r="M26" s="112">
-        <v>0</v>
-      </c>
-      <c r="N26" s="112">
-        <v>0</v>
-      </c>
-      <c r="O26" s="112">
-        <v>0</v>
-      </c>
-      <c r="P26" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="112">
-        <v>0</v>
-      </c>
-      <c r="R26" s="112">
-        <v>0</v>
-      </c>
-      <c r="S26" s="112">
-        <v>0</v>
-      </c>
-      <c r="T26" s="118">
+      <c r="I26" s="113">
+        <v>0</v>
+      </c>
+      <c r="J26" s="84"/>
+      <c r="K26" s="113">
+        <v>0</v>
+      </c>
+      <c r="L26" s="113">
+        <v>0</v>
+      </c>
+      <c r="M26" s="113">
+        <v>0</v>
+      </c>
+      <c r="N26" s="113">
+        <v>0</v>
+      </c>
+      <c r="O26" s="113">
+        <v>0</v>
+      </c>
+      <c r="P26" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="113">
+        <v>0</v>
+      </c>
+      <c r="R26" s="113">
+        <v>0</v>
+      </c>
+      <c r="S26" s="113">
+        <v>0</v>
+      </c>
+      <c r="T26" s="113">
+        <v>0</v>
+      </c>
+      <c r="U26" s="120">
         <v>8</v>
       </c>
     </row>
     <row r="27" ht="19.9" customHeight="1">
-      <c r="A27" s="112">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s" s="113">
+      <c r="A27" s="113">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s" s="114">
         <v>88</v>
       </c>
-      <c r="C27" t="s" s="113">
+      <c r="C27" t="s" s="114">
         <v>165</v>
       </c>
       <c r="D27" s="48"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="115">
+      <c r="E27" s="125"/>
+      <c r="F27" s="116">
         <v>28930</v>
       </c>
-      <c r="G27" s="116"/>
-      <c r="H27" s="112">
+      <c r="G27" s="117"/>
+      <c r="H27" s="113">
         <v>1014300</v>
       </c>
-      <c r="I27" s="112">
-        <v>0</v>
-      </c>
-      <c r="J27" s="112">
-        <v>0</v>
-      </c>
-      <c r="K27" s="112">
-        <v>0</v>
-      </c>
-      <c r="L27" s="112">
-        <v>0</v>
-      </c>
-      <c r="M27" s="112">
-        <v>0</v>
-      </c>
-      <c r="N27" s="112">
-        <v>0</v>
-      </c>
-      <c r="O27" s="112">
-        <v>0</v>
-      </c>
-      <c r="P27" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="112">
-        <v>0</v>
-      </c>
-      <c r="R27" s="112">
-        <v>0</v>
-      </c>
-      <c r="S27" s="112">
-        <v>0</v>
-      </c>
-      <c r="T27" s="118">
+      <c r="I27" s="113">
+        <v>0</v>
+      </c>
+      <c r="J27" s="84"/>
+      <c r="K27" s="113">
+        <v>0</v>
+      </c>
+      <c r="L27" s="113">
+        <v>0</v>
+      </c>
+      <c r="M27" s="113">
+        <v>0</v>
+      </c>
+      <c r="N27" s="113">
+        <v>0</v>
+      </c>
+      <c r="O27" s="113">
+        <v>0</v>
+      </c>
+      <c r="P27" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="113">
+        <v>0</v>
+      </c>
+      <c r="R27" s="113">
+        <v>0</v>
+      </c>
+      <c r="S27" s="113">
+        <v>0</v>
+      </c>
+      <c r="T27" s="113">
+        <v>0</v>
+      </c>
+      <c r="U27" s="120">
         <v>8</v>
       </c>
     </row>
     <row r="28" ht="19.9" customHeight="1">
-      <c r="A28" s="112">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s" s="113">
+      <c r="A28" s="113">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s" s="114">
         <v>88</v>
       </c>
-      <c r="C28" t="s" s="113">
+      <c r="C28" t="s" s="114">
         <v>166</v>
       </c>
       <c r="D28" s="48"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="115">
+      <c r="E28" s="125"/>
+      <c r="F28" s="116">
         <v>35840</v>
       </c>
-      <c r="G28" s="116"/>
-      <c r="H28" s="112">
+      <c r="G28" s="117"/>
+      <c r="H28" s="113">
         <v>628320</v>
       </c>
-      <c r="I28" s="112">
-        <v>0</v>
-      </c>
-      <c r="J28" s="112">
-        <v>0</v>
-      </c>
-      <c r="K28" s="112">
-        <v>0</v>
-      </c>
-      <c r="L28" s="112">
-        <v>0</v>
-      </c>
-      <c r="M28" s="112">
-        <v>0</v>
-      </c>
-      <c r="N28" s="112">
-        <v>0</v>
-      </c>
-      <c r="O28" s="112">
-        <v>0</v>
-      </c>
-      <c r="P28" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="112">
-        <v>0</v>
-      </c>
-      <c r="R28" s="112">
-        <v>0</v>
-      </c>
-      <c r="S28" s="112">
-        <v>0</v>
-      </c>
-      <c r="T28" s="118">
+      <c r="I28" s="113">
+        <v>0</v>
+      </c>
+      <c r="J28" s="84"/>
+      <c r="K28" s="113">
+        <v>0</v>
+      </c>
+      <c r="L28" s="113">
+        <v>0</v>
+      </c>
+      <c r="M28" s="113">
+        <v>0</v>
+      </c>
+      <c r="N28" s="113">
+        <v>0</v>
+      </c>
+      <c r="O28" s="113">
+        <v>0</v>
+      </c>
+      <c r="P28" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="113">
+        <v>0</v>
+      </c>
+      <c r="R28" s="113">
+        <v>0</v>
+      </c>
+      <c r="S28" s="113">
+        <v>0</v>
+      </c>
+      <c r="T28" s="113">
+        <v>0</v>
+      </c>
+      <c r="U28" s="120">
         <v>8</v>
       </c>
     </row>
     <row r="29" ht="19.9" customHeight="1">
-      <c r="A29" s="112">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s" s="113">
+      <c r="A29" s="113">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s" s="114">
         <v>88</v>
       </c>
-      <c r="C29" t="s" s="113">
+      <c r="C29" t="s" s="114">
         <v>167</v>
       </c>
       <c r="D29" s="48"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="115">
+      <c r="E29" s="125"/>
+      <c r="F29" s="116">
         <v>835229</v>
       </c>
-      <c r="G29" s="116"/>
-      <c r="H29" s="112">
+      <c r="G29" s="117"/>
+      <c r="H29" s="113">
         <v>12234288</v>
       </c>
-      <c r="I29" s="112">
-        <v>0</v>
-      </c>
-      <c r="J29" s="112">
-        <v>0</v>
-      </c>
-      <c r="K29" s="112">
-        <v>0</v>
-      </c>
-      <c r="L29" s="112">
-        <v>0</v>
-      </c>
-      <c r="M29" s="112">
-        <v>0</v>
-      </c>
-      <c r="N29" s="112">
-        <v>0</v>
-      </c>
-      <c r="O29" s="112">
-        <v>0</v>
-      </c>
-      <c r="P29" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="112">
-        <v>0</v>
-      </c>
-      <c r="R29" s="112">
-        <v>0</v>
-      </c>
-      <c r="S29" s="112">
-        <v>0</v>
-      </c>
-      <c r="T29" s="118">
+      <c r="I29" s="113">
+        <v>0</v>
+      </c>
+      <c r="J29" s="126"/>
+      <c r="K29" s="113">
+        <v>0</v>
+      </c>
+      <c r="L29" s="113">
+        <v>0</v>
+      </c>
+      <c r="M29" s="113">
+        <v>0</v>
+      </c>
+      <c r="N29" s="113">
+        <v>0</v>
+      </c>
+      <c r="O29" s="113">
+        <v>0</v>
+      </c>
+      <c r="P29" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="113">
+        <v>0</v>
+      </c>
+      <c r="R29" s="113">
+        <v>0</v>
+      </c>
+      <c r="S29" s="113">
+        <v>0</v>
+      </c>
+      <c r="T29" s="113">
+        <v>0</v>
+      </c>
+      <c r="U29" s="120">
         <v>8</v>
       </c>
     </row>
@@ -7667,72 +7732,72 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.17188" style="122" customWidth="1"/>
-    <col min="2" max="5" width="13.5" style="122" customWidth="1"/>
-    <col min="6" max="6" width="13.6719" style="122" customWidth="1"/>
-    <col min="7" max="8" width="17.5" style="122" customWidth="1"/>
-    <col min="9" max="10" width="20.5" style="122" customWidth="1"/>
-    <col min="11" max="13" width="17.8516" style="122" customWidth="1"/>
-    <col min="14" max="14" width="19.1719" style="122" customWidth="1"/>
-    <col min="15" max="15" width="14.5" style="122" customWidth="1"/>
-    <col min="16" max="16" width="20.1719" style="122" customWidth="1"/>
-    <col min="17" max="23" width="17.6719" style="122" customWidth="1"/>
-    <col min="24" max="256" width="8.85156" style="122" customWidth="1"/>
+    <col min="1" max="1" width="9.17188" style="127" customWidth="1"/>
+    <col min="2" max="5" width="13.5" style="127" customWidth="1"/>
+    <col min="6" max="6" width="13.6719" style="127" customWidth="1"/>
+    <col min="7" max="8" width="17.5" style="127" customWidth="1"/>
+    <col min="9" max="10" width="20.5" style="127" customWidth="1"/>
+    <col min="11" max="13" width="17.8516" style="127" customWidth="1"/>
+    <col min="14" max="14" width="19.1719" style="127" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="127" customWidth="1"/>
+    <col min="16" max="16" width="20.1719" style="127" customWidth="1"/>
+    <col min="17" max="23" width="17.6719" style="127" customWidth="1"/>
+    <col min="24" max="256" width="8.85156" style="127" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="34.5" customHeight="1">
-      <c r="A1" t="s" s="123">
+      <c r="A1" t="s" s="128">
         <v>139</v>
       </c>
-      <c r="B1" t="s" s="123">
+      <c r="B1" t="s" s="128">
         <v>141</v>
       </c>
-      <c r="C1" t="s" s="123">
+      <c r="C1" t="s" s="128">
         <v>140</v>
       </c>
-      <c r="D1" t="s" s="124">
+      <c r="D1" t="s" s="112">
         <v>142</v>
       </c>
-      <c r="E1" t="s" s="124">
+      <c r="E1" t="s" s="112">
         <v>168</v>
       </c>
-      <c r="F1" t="s" s="123">
+      <c r="F1" t="s" s="128">
         <v>146</v>
       </c>
-      <c r="G1" t="s" s="124">
+      <c r="G1" t="s" s="112">
         <v>36</v>
       </c>
-      <c r="H1" t="s" s="124">
+      <c r="H1" t="s" s="112">
         <v>169</v>
       </c>
-      <c r="I1" t="s" s="123">
+      <c r="I1" t="s" s="128">
         <v>144</v>
       </c>
-      <c r="J1" t="s" s="124">
+      <c r="J1" t="s" s="112">
         <v>170</v>
       </c>
-      <c r="K1" t="s" s="123">
+      <c r="K1" t="s" s="128">
         <v>171</v>
       </c>
-      <c r="L1" t="s" s="125">
+      <c r="L1" t="s" s="129">
         <v>172</v>
       </c>
-      <c r="M1" t="s" s="124">
+      <c r="M1" t="s" s="112">
         <v>173</v>
       </c>
-      <c r="N1" t="s" s="124">
+      <c r="N1" t="s" s="112">
         <v>147</v>
       </c>
-      <c r="O1" t="s" s="123">
+      <c r="O1" t="s" s="128">
         <v>174</v>
       </c>
-      <c r="P1" t="s" s="124">
+      <c r="P1" t="s" s="112">
         <v>175</v>
       </c>
-      <c r="Q1" t="s" s="123">
+      <c r="Q1" t="s" s="128">
         <v>176</v>
       </c>
-      <c r="R1" t="s" s="123">
+      <c r="R1" t="s" s="128">
         <v>28</v>
       </c>
       <c r="S1" t="s" s="26">
@@ -7752,1758 +7817,1758 @@
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" s="112">
+      <c r="A2" s="113">
         <v>-4</v>
       </c>
-      <c r="B2" t="s" s="126">
+      <c r="B2" t="s" s="130">
         <v>177</v>
       </c>
-      <c r="C2" t="s" s="126">
+      <c r="C2" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D2" s="60"/>
       <c r="E2" s="59"/>
-      <c r="F2" s="127">
+      <c r="F2" s="131">
         <v>10560000</v>
       </c>
       <c r="G2" s="61"/>
       <c r="H2" s="59"/>
-      <c r="I2" s="128">
+      <c r="I2" s="132">
         <v>737747.64</v>
       </c>
       <c r="J2" s="59"/>
-      <c r="K2" s="129">
+      <c r="K2" s="133">
         <v>700000</v>
       </c>
-      <c r="L2" s="130"/>
+      <c r="L2" s="134"/>
       <c r="M2" s="61"/>
       <c r="N2" s="59"/>
-      <c r="O2" s="116">
+      <c r="O2" s="117">
         <v>1.0539252</v>
       </c>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="132">
+      <c r="P2" s="135"/>
+      <c r="Q2" s="136">
         <v>0.15</v>
       </c>
-      <c r="R2" t="s" s="126">
+      <c r="R2" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="112">
+      <c r="A3" s="113">
         <v>-4</v>
       </c>
-      <c r="B3" t="s" s="126">
+      <c r="B3" t="s" s="130">
         <v>179</v>
       </c>
-      <c r="C3" t="s" s="126">
+      <c r="C3" t="s" s="130">
         <v>178</v>
       </c>
-      <c r="D3" s="133"/>
+      <c r="D3" s="137"/>
       <c r="E3" s="105"/>
-      <c r="F3" s="127">
+      <c r="F3" s="131">
         <v>3700000</v>
       </c>
       <c r="G3" s="98"/>
       <c r="H3" s="105"/>
-      <c r="I3" s="128">
+      <c r="I3" s="132">
         <v>245915.88</v>
       </c>
       <c r="J3" s="105"/>
-      <c r="K3" s="129">
+      <c r="K3" s="133">
         <v>250000</v>
       </c>
-      <c r="L3" s="130"/>
+      <c r="L3" s="134"/>
       <c r="M3" s="98"/>
       <c r="N3" s="105"/>
-      <c r="O3" s="116">
+      <c r="O3" s="117">
         <v>0.98366352</v>
       </c>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="132">
+      <c r="P3" s="138"/>
+      <c r="Q3" s="136">
         <v>0.11</v>
       </c>
-      <c r="R3" t="s" s="126">
+      <c r="R3" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="126"/>
-      <c r="V3" s="126"/>
-      <c r="W3" s="126"/>
+      <c r="S3" s="130"/>
+      <c r="T3" s="130"/>
+      <c r="U3" s="130"/>
+      <c r="V3" s="130"/>
+      <c r="W3" s="130"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="112">
+      <c r="A4" s="113">
         <v>-4</v>
       </c>
-      <c r="B4" t="s" s="126">
+      <c r="B4" t="s" s="130">
         <v>180</v>
       </c>
-      <c r="C4" t="s" s="126">
+      <c r="C4" t="s" s="130">
         <v>178</v>
       </c>
-      <c r="D4" s="133"/>
+      <c r="D4" s="137"/>
       <c r="E4" s="105"/>
-      <c r="F4" s="127">
+      <c r="F4" s="131">
         <v>13041600</v>
       </c>
       <c r="G4" s="98"/>
       <c r="H4" s="105"/>
-      <c r="I4" s="128">
+      <c r="I4" s="132">
         <v>901691.5600000001</v>
       </c>
       <c r="J4" s="105"/>
-      <c r="K4" s="129">
+      <c r="K4" s="133">
         <v>850000</v>
       </c>
-      <c r="L4" s="130"/>
+      <c r="L4" s="134"/>
       <c r="M4" s="98"/>
       <c r="N4" s="105"/>
-      <c r="O4" s="116">
+      <c r="O4" s="117">
         <v>1.0608136</v>
       </c>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="132">
+      <c r="P4" s="138"/>
+      <c r="Q4" s="136">
         <v>0.18</v>
       </c>
-      <c r="R4" t="s" s="126">
+      <c r="R4" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="126"/>
-      <c r="W4" s="126"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="130"/>
+      <c r="U4" s="130"/>
+      <c r="V4" s="130"/>
+      <c r="W4" s="130"/>
     </row>
     <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" s="112">
+      <c r="A5" s="113">
         <v>-4</v>
       </c>
-      <c r="B5" t="s" s="126">
+      <c r="B5" t="s" s="130">
         <v>181</v>
       </c>
-      <c r="C5" t="s" s="126">
+      <c r="C5" t="s" s="130">
         <v>178</v>
       </c>
-      <c r="D5" s="133"/>
+      <c r="D5" s="137"/>
       <c r="E5" s="105"/>
-      <c r="F5" s="127">
+      <c r="F5" s="131">
         <v>6200000</v>
       </c>
       <c r="G5" s="98"/>
       <c r="H5" s="105"/>
-      <c r="I5" s="128">
+      <c r="I5" s="132">
         <v>614789.7</v>
       </c>
       <c r="J5" s="105"/>
-      <c r="K5" s="129">
+      <c r="K5" s="133">
         <v>600000</v>
       </c>
-      <c r="L5" s="130"/>
+      <c r="L5" s="134"/>
       <c r="M5" s="98"/>
       <c r="N5" s="105"/>
-      <c r="O5" s="116">
+      <c r="O5" s="117">
         <v>1.0246495</v>
       </c>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="132">
+      <c r="P5" s="138"/>
+      <c r="Q5" s="136">
         <v>0.13</v>
       </c>
-      <c r="R5" t="s" s="126">
+      <c r="R5" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S5" s="126"/>
-      <c r="T5" s="126"/>
-      <c r="U5" s="126"/>
-      <c r="V5" s="126"/>
-      <c r="W5" s="126"/>
+      <c r="S5" s="130"/>
+      <c r="T5" s="130"/>
+      <c r="U5" s="130"/>
+      <c r="V5" s="130"/>
+      <c r="W5" s="130"/>
     </row>
     <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="112">
+      <c r="A6" s="113">
         <v>-4</v>
       </c>
-      <c r="B6" t="s" s="126">
+      <c r="B6" t="s" s="130">
         <v>182</v>
       </c>
-      <c r="C6" t="s" s="126">
+      <c r="C6" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D6" s="76"/>
       <c r="E6" s="77"/>
-      <c r="F6" s="135">
+      <c r="F6" s="139">
         <v>1400000</v>
       </c>
       <c r="G6" s="76"/>
       <c r="H6" s="77"/>
-      <c r="I6" s="136">
+      <c r="I6" s="140">
         <v>102464.95</v>
       </c>
-      <c r="J6" s="137"/>
-      <c r="K6" s="129">
+      <c r="J6" s="123"/>
+      <c r="K6" s="133">
         <v>100000</v>
       </c>
-      <c r="L6" s="138"/>
+      <c r="L6" s="141"/>
       <c r="M6" s="66"/>
       <c r="N6" s="77"/>
-      <c r="O6" s="116">
+      <c r="O6" s="117">
         <v>1.0246495</v>
       </c>
-      <c r="P6" s="137"/>
-      <c r="Q6" s="132">
+      <c r="P6" s="123"/>
+      <c r="Q6" s="136">
         <v>0.12</v>
       </c>
-      <c r="R6" t="s" s="126">
+      <c r="R6" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S6" s="126"/>
-      <c r="T6" s="126"/>
-      <c r="U6" s="126"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="130"/>
+      <c r="V6" s="130"/>
+      <c r="W6" s="130"/>
     </row>
     <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="112">
+      <c r="A7" s="113">
         <v>-4</v>
       </c>
-      <c r="B7" t="s" s="126">
+      <c r="B7" t="s" s="130">
         <v>183</v>
       </c>
-      <c r="C7" t="s" s="126">
+      <c r="C7" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="40"/>
-      <c r="F7" s="135">
+      <c r="F7" s="139">
         <v>4067200</v>
       </c>
       <c r="G7" s="39"/>
       <c r="H7" s="40"/>
-      <c r="I7" s="136">
+      <c r="I7" s="140">
         <v>286901.86</v>
       </c>
       <c r="J7" s="84"/>
-      <c r="K7" s="129">
+      <c r="K7" s="133">
         <v>350000</v>
       </c>
-      <c r="L7" s="138"/>
+      <c r="L7" s="141"/>
       <c r="M7" s="11"/>
       <c r="N7" s="40"/>
-      <c r="O7" s="116">
+      <c r="O7" s="117">
         <v>0.8197196</v>
       </c>
       <c r="P7" s="84"/>
-      <c r="Q7" s="132">
+      <c r="Q7" s="136">
         <v>-0.11</v>
       </c>
-      <c r="R7" t="s" s="126">
+      <c r="R7" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S7" s="126"/>
-      <c r="T7" s="126"/>
-      <c r="U7" s="126"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
+      <c r="S7" s="130"/>
+      <c r="T7" s="130"/>
+      <c r="U7" s="130"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="130"/>
     </row>
     <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="112">
+      <c r="A8" s="113">
         <v>-4</v>
       </c>
-      <c r="B8" t="s" s="126">
+      <c r="B8" t="s" s="130">
         <v>184</v>
       </c>
-      <c r="C8" t="s" s="126">
+      <c r="C8" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
-      <c r="F8" s="135">
+      <c r="F8" s="139">
         <v>1419200</v>
       </c>
       <c r="G8" s="39"/>
       <c r="H8" s="40"/>
-      <c r="I8" s="136">
+      <c r="I8" s="140">
         <v>122957.94</v>
       </c>
       <c r="J8" s="84"/>
-      <c r="K8" s="129">
+      <c r="K8" s="133">
         <v>120000</v>
       </c>
-      <c r="L8" s="138"/>
+      <c r="L8" s="141"/>
       <c r="M8" s="11"/>
       <c r="N8" s="40"/>
-      <c r="O8" s="116">
+      <c r="O8" s="117">
         <v>1.0246495</v>
       </c>
       <c r="P8" s="84"/>
-      <c r="Q8" s="132">
+      <c r="Q8" s="136">
         <v>0.16</v>
       </c>
-      <c r="R8" t="s" s="126">
+      <c r="R8" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S8" s="126"/>
-      <c r="T8" s="126"/>
-      <c r="U8" s="126"/>
-      <c r="V8" s="126"/>
-      <c r="W8" s="126"/>
+      <c r="S8" s="130"/>
+      <c r="T8" s="130"/>
+      <c r="U8" s="130"/>
+      <c r="V8" s="130"/>
+      <c r="W8" s="130"/>
     </row>
     <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="112">
+      <c r="A9" s="113">
         <v>-4</v>
       </c>
-      <c r="B9" t="s" s="126">
+      <c r="B9" t="s" s="130">
         <v>185</v>
       </c>
-      <c r="C9" t="s" s="126">
+      <c r="C9" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D9" s="39"/>
       <c r="E9" s="40"/>
-      <c r="F9" s="135">
+      <c r="F9" s="139">
         <v>1014300</v>
       </c>
       <c r="G9" s="39"/>
       <c r="H9" s="40"/>
-      <c r="I9" s="136">
+      <c r="I9" s="140">
         <v>32788.784</v>
       </c>
       <c r="J9" s="84"/>
-      <c r="K9" s="129">
+      <c r="K9" s="133">
         <v>35000</v>
       </c>
-      <c r="L9" s="138"/>
+      <c r="L9" s="141"/>
       <c r="M9" s="11"/>
       <c r="N9" s="40"/>
-      <c r="O9" s="116">
+      <c r="O9" s="117">
         <v>0.9368224000000001</v>
       </c>
       <c r="P9" s="84"/>
-      <c r="Q9" s="132">
+      <c r="Q9" s="136">
         <v>-0.23</v>
       </c>
-      <c r="R9" t="s" s="126">
+      <c r="R9" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S9" s="126"/>
-      <c r="T9" s="126"/>
-      <c r="U9" s="126"/>
-      <c r="V9" s="126"/>
-      <c r="W9" s="126"/>
+      <c r="S9" s="130"/>
+      <c r="T9" s="130"/>
+      <c r="U9" s="130"/>
+      <c r="V9" s="130"/>
+      <c r="W9" s="130"/>
     </row>
     <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="112">
+      <c r="A10" s="113">
         <v>-4</v>
       </c>
-      <c r="B10" t="s" s="126">
+      <c r="B10" t="s" s="130">
         <v>186</v>
       </c>
-      <c r="C10" t="s" s="126">
+      <c r="C10" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="40"/>
-      <c r="F10" s="135">
+      <c r="F10" s="139">
         <v>628320</v>
       </c>
       <c r="G10" s="39"/>
       <c r="H10" s="40"/>
-      <c r="I10" s="136">
+      <c r="I10" s="140">
         <v>81971.960000000006</v>
       </c>
       <c r="J10" s="84"/>
-      <c r="K10" s="129">
+      <c r="K10" s="133">
         <v>75000</v>
       </c>
-      <c r="L10" s="138"/>
+      <c r="L10" s="141"/>
       <c r="M10" s="11"/>
       <c r="N10" s="40"/>
-      <c r="O10" s="116">
+      <c r="O10" s="117">
         <v>1.09295946666667</v>
       </c>
       <c r="P10" s="84"/>
-      <c r="Q10" s="132">
+      <c r="Q10" s="136">
         <v>0.29</v>
       </c>
-      <c r="R10" t="s" s="126">
+      <c r="R10" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S10" s="126"/>
-      <c r="T10" s="126"/>
-      <c r="U10" s="126"/>
-      <c r="V10" s="126"/>
-      <c r="W10" s="126"/>
+      <c r="S10" s="130"/>
+      <c r="T10" s="130"/>
+      <c r="U10" s="130"/>
+      <c r="V10" s="130"/>
+      <c r="W10" s="130"/>
     </row>
     <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="112">
+      <c r="A11" s="113">
         <v>-4</v>
       </c>
-      <c r="B11" t="s" s="126">
+      <c r="B11" t="s" s="130">
         <v>187</v>
       </c>
-      <c r="C11" t="s" s="126">
+      <c r="C11" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="40"/>
-      <c r="F11" s="135">
+      <c r="F11" s="139">
         <v>12234288</v>
       </c>
       <c r="G11" s="39"/>
       <c r="H11" s="40"/>
-      <c r="I11" s="136">
+      <c r="I11" s="140">
         <v>971367.726</v>
       </c>
       <c r="J11" s="84"/>
-      <c r="K11" s="129">
+      <c r="K11" s="133">
         <v>900000</v>
       </c>
-      <c r="L11" s="138"/>
+      <c r="L11" s="141"/>
       <c r="M11" s="11"/>
       <c r="N11" s="40"/>
-      <c r="O11" s="116">
+      <c r="O11" s="117">
         <v>1.07929747333333</v>
       </c>
       <c r="P11" s="84"/>
-      <c r="Q11" s="132">
+      <c r="Q11" s="136">
         <v>0.18</v>
       </c>
-      <c r="R11" t="s" s="126">
+      <c r="R11" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S11" s="126"/>
-      <c r="T11" s="126"/>
-      <c r="U11" s="126"/>
-      <c r="V11" s="126"/>
-      <c r="W11" s="126"/>
+      <c r="S11" s="130"/>
+      <c r="T11" s="130"/>
+      <c r="U11" s="130"/>
+      <c r="V11" s="130"/>
+      <c r="W11" s="130"/>
     </row>
     <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="112">
+      <c r="A12" s="113">
         <v>-3</v>
       </c>
-      <c r="B12" t="s" s="126">
+      <c r="B12" t="s" s="130">
         <v>177</v>
       </c>
-      <c r="C12" t="s" s="126">
+      <c r="C12" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D12" s="39"/>
       <c r="E12" s="40"/>
-      <c r="F12" s="135">
+      <c r="F12" s="139">
         <v>10560000</v>
       </c>
       <c r="G12" s="39"/>
       <c r="H12" s="40"/>
-      <c r="I12" s="136">
+      <c r="I12" s="140">
         <v>556986.16</v>
       </c>
       <c r="J12" s="84"/>
-      <c r="K12" s="136">
+      <c r="K12" s="140">
         <v>650000</v>
       </c>
-      <c r="L12" s="139"/>
+      <c r="L12" s="142"/>
       <c r="M12" s="11"/>
-      <c r="N12" s="140"/>
-      <c r="O12" s="116">
+      <c r="N12" s="143"/>
+      <c r="O12" s="117">
         <v>0.856901784615385</v>
       </c>
       <c r="P12" s="84"/>
-      <c r="Q12" s="132">
+      <c r="Q12" s="136">
         <v>-0.245018038959772</v>
       </c>
-      <c r="R12" t="s" s="126">
+      <c r="R12" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S12" s="126"/>
-      <c r="T12" s="126"/>
-      <c r="U12" s="126"/>
-      <c r="V12" s="126"/>
-      <c r="W12" s="126"/>
+      <c r="S12" s="130"/>
+      <c r="T12" s="130"/>
+      <c r="U12" s="130"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="130"/>
     </row>
     <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="112">
+      <c r="A13" s="113">
         <v>-3</v>
       </c>
-      <c r="B13" t="s" s="126">
+      <c r="B13" t="s" s="130">
         <v>179</v>
       </c>
-      <c r="C13" t="s" s="126">
+      <c r="C13" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D13" s="39"/>
       <c r="E13" s="40"/>
-      <c r="F13" s="135">
+      <c r="F13" s="139">
         <v>3700000</v>
       </c>
       <c r="G13" s="39"/>
       <c r="H13" s="40"/>
-      <c r="I13" s="136">
+      <c r="I13" s="140">
         <v>191328.72</v>
       </c>
       <c r="J13" s="84"/>
-      <c r="K13" s="136">
+      <c r="K13" s="140">
         <v>200000</v>
       </c>
-      <c r="L13" s="139"/>
+      <c r="L13" s="142"/>
       <c r="M13" s="11"/>
-      <c r="N13" s="140"/>
-      <c r="O13" s="116">
+      <c r="N13" s="143"/>
+      <c r="O13" s="117">
         <v>0.9566436</v>
       </c>
       <c r="P13" s="84"/>
-      <c r="Q13" s="132">
+      <c r="Q13" s="136">
         <v>-0.221974928987912</v>
       </c>
-      <c r="R13" t="s" s="126">
+      <c r="R13" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S13" s="126"/>
-      <c r="T13" s="126"/>
-      <c r="U13" s="126"/>
-      <c r="V13" s="126"/>
-      <c r="W13" s="126"/>
+      <c r="S13" s="130"/>
+      <c r="T13" s="130"/>
+      <c r="U13" s="130"/>
+      <c r="V13" s="130"/>
+      <c r="W13" s="130"/>
     </row>
     <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="112">
+      <c r="A14" s="113">
         <v>-3</v>
       </c>
-      <c r="B14" t="s" s="126">
+      <c r="B14" t="s" s="130">
         <v>180</v>
       </c>
-      <c r="C14" t="s" s="126">
+      <c r="C14" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D14" s="39"/>
       <c r="E14" s="40"/>
-      <c r="F14" s="135">
+      <c r="F14" s="139">
         <v>13041600</v>
       </c>
       <c r="G14" s="39"/>
       <c r="H14" s="40"/>
-      <c r="I14" s="136">
+      <c r="I14" s="140">
         <v>736028.144</v>
       </c>
       <c r="J14" s="84"/>
-      <c r="K14" s="136">
+      <c r="K14" s="140">
         <v>800000</v>
       </c>
-      <c r="L14" s="139"/>
+      <c r="L14" s="142"/>
       <c r="M14" s="11"/>
       <c r="N14" s="40"/>
-      <c r="O14" s="116">
+      <c r="O14" s="117">
         <v>0.92003518</v>
       </c>
       <c r="P14" s="84"/>
-      <c r="Q14" s="132">
+      <c r="Q14" s="136">
         <v>-0.18372514876373</v>
       </c>
-      <c r="R14" t="s" s="126">
+      <c r="R14" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S14" s="126"/>
-      <c r="T14" s="126"/>
-      <c r="U14" s="126"/>
-      <c r="V14" s="126"/>
-      <c r="W14" s="126"/>
+      <c r="S14" s="130"/>
+      <c r="T14" s="130"/>
+      <c r="U14" s="130"/>
+      <c r="V14" s="130"/>
+      <c r="W14" s="130"/>
     </row>
     <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="112">
+      <c r="A15" s="113">
         <v>-3</v>
       </c>
-      <c r="B15" t="s" s="126">
+      <c r="B15" t="s" s="130">
         <v>181</v>
       </c>
-      <c r="C15" t="s" s="126">
+      <c r="C15" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D15" s="39"/>
       <c r="E15" s="40"/>
-      <c r="F15" s="135">
+      <c r="F15" s="139">
         <v>6200000</v>
       </c>
       <c r="G15" s="39"/>
       <c r="H15" s="40"/>
-      <c r="I15" s="136">
+      <c r="I15" s="140">
         <v>478321.8</v>
       </c>
       <c r="J15" s="84"/>
-      <c r="K15" s="136">
+      <c r="K15" s="140">
         <v>550000</v>
       </c>
-      <c r="L15" s="139"/>
+      <c r="L15" s="142"/>
       <c r="M15" s="11"/>
       <c r="N15" s="40"/>
-      <c r="O15" s="116">
+      <c r="O15" s="117">
         <v>0.869676</v>
       </c>
       <c r="P15" s="84"/>
-      <c r="Q15" s="132">
+      <c r="Q15" s="136">
         <v>-0.221974928987912</v>
       </c>
-      <c r="R15" t="s" s="126">
+      <c r="R15" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S15" s="126"/>
-      <c r="T15" s="126"/>
-      <c r="U15" s="126"/>
-      <c r="V15" s="126"/>
-      <c r="W15" s="126"/>
+      <c r="S15" s="130"/>
+      <c r="T15" s="130"/>
+      <c r="U15" s="130"/>
+      <c r="V15" s="130"/>
+      <c r="W15" s="130"/>
     </row>
     <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="112">
+      <c r="A16" s="113">
         <v>-3</v>
       </c>
-      <c r="B16" t="s" s="126">
+      <c r="B16" t="s" s="130">
         <v>182</v>
       </c>
-      <c r="C16" t="s" s="126">
+      <c r="C16" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D16" s="39"/>
       <c r="E16" s="40"/>
-      <c r="F16" s="135">
+      <c r="F16" s="139">
         <v>1400000</v>
       </c>
       <c r="G16" s="39"/>
       <c r="H16" s="40"/>
-      <c r="I16" s="136">
+      <c r="I16" s="140">
         <v>69720.3</v>
       </c>
       <c r="J16" s="84"/>
-      <c r="K16" s="136">
+      <c r="K16" s="140">
         <v>80000</v>
       </c>
-      <c r="L16" s="139"/>
+      <c r="L16" s="142"/>
       <c r="M16" s="11"/>
       <c r="N16" s="40"/>
-      <c r="O16" s="116">
+      <c r="O16" s="117">
         <v>0.87150375</v>
       </c>
       <c r="P16" s="84"/>
-      <c r="Q16" s="132">
+      <c r="Q16" s="136">
         <v>-0.319569277104024</v>
       </c>
-      <c r="R16" t="s" s="126">
+      <c r="R16" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S16" s="126"/>
-      <c r="T16" s="126"/>
-      <c r="U16" s="126"/>
-      <c r="V16" s="126"/>
-      <c r="W16" s="126"/>
+      <c r="S16" s="130"/>
+      <c r="T16" s="130"/>
+      <c r="U16" s="130"/>
+      <c r="V16" s="130"/>
+      <c r="W16" s="130"/>
     </row>
     <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="112">
+      <c r="A17" s="113">
         <v>-3</v>
       </c>
-      <c r="B17" t="s" s="126">
+      <c r="B17" t="s" s="130">
         <v>183</v>
       </c>
-      <c r="C17" t="s" s="126">
+      <c r="C17" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D17" s="39"/>
       <c r="E17" s="40"/>
-      <c r="F17" s="135">
+      <c r="F17" s="139">
         <v>4067200</v>
       </c>
       <c r="G17" s="39"/>
       <c r="H17" s="40"/>
-      <c r="I17" s="136">
+      <c r="I17" s="140">
         <v>223216.84</v>
       </c>
       <c r="J17" s="84"/>
-      <c r="K17" s="136">
+      <c r="K17" s="140">
         <v>250000</v>
       </c>
-      <c r="L17" s="139"/>
+      <c r="L17" s="142"/>
       <c r="M17" s="11"/>
       <c r="N17" s="40"/>
-      <c r="O17" s="116">
+      <c r="O17" s="117">
         <v>0.89286736</v>
       </c>
       <c r="P17" s="84"/>
-      <c r="Q17" s="132">
+      <c r="Q17" s="136">
         <v>-0.221974928987912</v>
       </c>
-      <c r="R17" t="s" s="126">
+      <c r="R17" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S17" s="126"/>
-      <c r="T17" s="126"/>
-      <c r="U17" s="126"/>
-      <c r="V17" s="126"/>
-      <c r="W17" s="126"/>
+      <c r="S17" s="130"/>
+      <c r="T17" s="130"/>
+      <c r="U17" s="130"/>
+      <c r="V17" s="130"/>
+      <c r="W17" s="130"/>
     </row>
     <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="112">
+      <c r="A18" s="113">
         <v>-3</v>
       </c>
-      <c r="B18" t="s" s="126">
+      <c r="B18" t="s" s="130">
         <v>184</v>
       </c>
-      <c r="C18" t="s" s="126">
+      <c r="C18" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D18" s="39"/>
       <c r="E18" s="40"/>
-      <c r="F18" s="135">
+      <c r="F18" s="139">
         <v>1419200</v>
       </c>
       <c r="G18" s="39"/>
       <c r="H18" s="40"/>
-      <c r="I18" s="136">
+      <c r="I18" s="140">
         <v>90664.36</v>
       </c>
       <c r="J18" s="84"/>
-      <c r="K18" s="136">
+      <c r="K18" s="140">
         <v>100000</v>
       </c>
-      <c r="L18" s="139"/>
+      <c r="L18" s="142"/>
       <c r="M18" s="11"/>
       <c r="N18" s="40"/>
-      <c r="O18" s="116">
+      <c r="O18" s="117">
         <v>0.9066436</v>
       </c>
       <c r="P18" s="84"/>
-      <c r="Q18" s="132">
+      <c r="Q18" s="136">
         <v>-0.262639240702959</v>
       </c>
-      <c r="R18" t="s" s="126">
+      <c r="R18" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S18" s="126"/>
-      <c r="T18" s="126"/>
-      <c r="U18" s="126"/>
-      <c r="V18" s="126"/>
-      <c r="W18" s="126"/>
+      <c r="S18" s="130"/>
+      <c r="T18" s="130"/>
+      <c r="U18" s="130"/>
+      <c r="V18" s="130"/>
+      <c r="W18" s="130"/>
     </row>
     <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="112">
+      <c r="A19" s="113">
         <v>-3</v>
       </c>
-      <c r="B19" t="s" s="126">
+      <c r="B19" t="s" s="130">
         <v>185</v>
       </c>
-      <c r="C19" t="s" s="126">
+      <c r="C19" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D19" s="39"/>
       <c r="E19" s="40"/>
-      <c r="F19" s="135">
+      <c r="F19" s="139">
         <v>1014300</v>
       </c>
       <c r="G19" s="39"/>
       <c r="H19" s="40"/>
-      <c r="I19" s="136">
+      <c r="I19" s="140">
         <v>25510.496</v>
       </c>
       <c r="J19" s="84"/>
-      <c r="K19" s="136">
+      <c r="K19" s="140">
         <v>25000</v>
       </c>
-      <c r="L19" s="139"/>
+      <c r="L19" s="142"/>
       <c r="M19" s="11"/>
       <c r="N19" s="40"/>
-      <c r="O19" s="116">
+      <c r="O19" s="117">
         <v>1.02041984</v>
       </c>
       <c r="P19" s="84"/>
-      <c r="Q19" s="132">
+      <c r="Q19" s="136">
         <v>-0.221974928987912</v>
       </c>
-      <c r="R19" t="s" s="126">
+      <c r="R19" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S19" s="126"/>
-      <c r="T19" s="126"/>
-      <c r="U19" s="126"/>
-      <c r="V19" s="126"/>
-      <c r="W19" s="126"/>
+      <c r="S19" s="130"/>
+      <c r="T19" s="130"/>
+      <c r="U19" s="130"/>
+      <c r="V19" s="130"/>
+      <c r="W19" s="130"/>
     </row>
     <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="112">
+      <c r="A20" s="113">
         <v>-3</v>
       </c>
-      <c r="B20" t="s" s="126">
+      <c r="B20" t="s" s="130">
         <v>186</v>
       </c>
-      <c r="C20" t="s" s="126">
+      <c r="C20" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D20" s="39"/>
       <c r="E20" s="40"/>
-      <c r="F20" s="135">
+      <c r="F20" s="139">
         <v>628320</v>
       </c>
       <c r="G20" s="39"/>
       <c r="H20" s="40"/>
-      <c r="I20" s="136">
+      <c r="I20" s="140">
         <v>59832.18</v>
       </c>
       <c r="J20" s="84"/>
-      <c r="K20" s="136">
+      <c r="K20" s="140">
         <v>60000</v>
       </c>
-      <c r="L20" s="139"/>
+      <c r="L20" s="142"/>
       <c r="M20" s="11"/>
       <c r="N20" s="40"/>
-      <c r="O20" s="116">
+      <c r="O20" s="117">
         <v>0.997203</v>
       </c>
       <c r="P20" s="84"/>
-      <c r="Q20" s="132">
+      <c r="Q20" s="136">
         <v>-0.270089674566767</v>
       </c>
-      <c r="R20" t="s" s="126">
+      <c r="R20" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S20" s="126"/>
-      <c r="T20" s="126"/>
-      <c r="U20" s="126"/>
-      <c r="V20" s="126"/>
-      <c r="W20" s="126"/>
+      <c r="S20" s="130"/>
+      <c r="T20" s="130"/>
+      <c r="U20" s="130"/>
+      <c r="V20" s="130"/>
+      <c r="W20" s="130"/>
     </row>
     <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="112">
+      <c r="A21" s="113">
         <v>-3</v>
       </c>
-      <c r="B21" t="s" s="126">
+      <c r="B21" t="s" s="130">
         <v>187</v>
       </c>
-      <c r="C21" t="s" s="126">
+      <c r="C21" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D21" s="39"/>
       <c r="E21" s="40"/>
-      <c r="F21" s="135">
+      <c r="F21" s="139">
         <v>12234288</v>
       </c>
       <c r="G21" s="39"/>
       <c r="H21" s="40"/>
-      <c r="I21" s="136">
+      <c r="I21" s="140">
         <v>757203</v>
       </c>
       <c r="J21" s="84"/>
-      <c r="K21" s="136">
+      <c r="K21" s="140">
         <v>850000</v>
       </c>
-      <c r="L21" s="139"/>
+      <c r="L21" s="142"/>
       <c r="M21" s="11"/>
       <c r="N21" s="40"/>
-      <c r="O21" s="116">
+      <c r="O21" s="117">
         <v>0.890827058823529</v>
       </c>
       <c r="P21" s="84"/>
-      <c r="Q21" s="132">
+      <c r="Q21" s="136">
         <v>-0.220477498137507</v>
       </c>
-      <c r="R21" t="s" s="126">
+      <c r="R21" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S21" s="126"/>
-      <c r="T21" s="126"/>
-      <c r="U21" s="126"/>
-      <c r="V21" s="126"/>
-      <c r="W21" s="126"/>
+      <c r="S21" s="130"/>
+      <c r="T21" s="130"/>
+      <c r="U21" s="130"/>
+      <c r="V21" s="130"/>
+      <c r="W21" s="130"/>
     </row>
     <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="112">
+      <c r="A22" s="113">
         <v>-2</v>
       </c>
-      <c r="B22" t="s" s="126">
+      <c r="B22" t="s" s="130">
         <v>177</v>
       </c>
-      <c r="C22" t="s" s="126">
+      <c r="C22" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D22" s="39"/>
       <c r="E22" s="40"/>
-      <c r="F22" s="135">
+      <c r="F22" s="139">
         <v>10560000</v>
       </c>
       <c r="G22" s="39"/>
       <c r="H22" s="40"/>
-      <c r="I22" s="136">
+      <c r="I22" s="140">
         <v>525785.6899999999</v>
       </c>
       <c r="J22" s="84"/>
-      <c r="K22" s="129">
+      <c r="K22" s="133">
         <v>550000</v>
       </c>
-      <c r="L22" s="138"/>
+      <c r="L22" s="141"/>
       <c r="M22" s="11"/>
       <c r="N22" s="40"/>
-      <c r="O22" s="116">
+      <c r="O22" s="117">
         <v>0.9559739818181821</v>
       </c>
       <c r="P22" s="84"/>
-      <c r="Q22" s="132">
+      <c r="Q22" s="136">
         <v>-0.0560165983298402</v>
       </c>
-      <c r="R22" t="s" s="126">
+      <c r="R22" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S22" s="126"/>
-      <c r="T22" s="126"/>
-      <c r="U22" s="126"/>
-      <c r="V22" s="126"/>
-      <c r="W22" s="126"/>
+      <c r="S22" s="130"/>
+      <c r="T22" s="130"/>
+      <c r="U22" s="130"/>
+      <c r="V22" s="130"/>
+      <c r="W22" s="130"/>
     </row>
     <row r="23" ht="13.5" customHeight="1">
-      <c r="A23" s="112">
+      <c r="A23" s="113">
         <v>-2</v>
       </c>
-      <c r="B23" t="s" s="126">
+      <c r="B23" t="s" s="130">
         <v>179</v>
       </c>
-      <c r="C23" t="s" s="126">
+      <c r="C23" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="40"/>
-      <c r="F23" s="135">
+      <c r="F23" s="139">
         <v>3700000</v>
       </c>
       <c r="G23" s="39"/>
       <c r="H23" s="40"/>
-      <c r="I23" s="136">
+      <c r="I23" s="140">
         <v>154642.85</v>
       </c>
       <c r="J23" s="84"/>
-      <c r="K23" s="129">
+      <c r="K23" s="133">
         <v>170000</v>
       </c>
-      <c r="L23" s="138"/>
+      <c r="L23" s="141"/>
       <c r="M23" s="11"/>
       <c r="N23" s="40"/>
-      <c r="O23" s="116">
+      <c r="O23" s="117">
         <v>0.909663823529412</v>
       </c>
       <c r="P23" s="84"/>
-      <c r="Q23" s="132">
+      <c r="Q23" s="136">
         <v>-0.191742619717521</v>
       </c>
-      <c r="R23" t="s" s="126">
+      <c r="R23" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S23" s="126"/>
-      <c r="T23" s="126"/>
-      <c r="U23" s="126"/>
-      <c r="V23" s="126"/>
-      <c r="W23" s="126"/>
+      <c r="S23" s="130"/>
+      <c r="T23" s="130"/>
+      <c r="U23" s="130"/>
+      <c r="V23" s="130"/>
+      <c r="W23" s="130"/>
     </row>
     <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="112">
+      <c r="A24" s="113">
         <v>-2</v>
       </c>
-      <c r="B24" t="s" s="126">
+      <c r="B24" t="s" s="130">
         <v>180</v>
       </c>
-      <c r="C24" t="s" s="126">
+      <c r="C24" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="40"/>
-      <c r="F24" s="135">
+      <c r="F24" s="139">
         <v>13041600</v>
       </c>
       <c r="G24" s="39"/>
       <c r="H24" s="40"/>
-      <c r="I24" s="136">
+      <c r="I24" s="140">
         <v>711357.11</v>
       </c>
       <c r="J24" s="84"/>
-      <c r="K24" s="129">
+      <c r="K24" s="133">
         <v>750000</v>
       </c>
-      <c r="L24" s="138"/>
+      <c r="L24" s="141"/>
       <c r="M24" s="11"/>
       <c r="N24" s="40"/>
-      <c r="O24" s="116">
+      <c r="O24" s="117">
         <v>0.948476146666667</v>
       </c>
       <c r="P24" s="84"/>
-      <c r="Q24" s="132">
+      <c r="Q24" s="136">
         <v>-0.0335191448874813</v>
       </c>
-      <c r="R24" t="s" s="126">
+      <c r="R24" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S24" s="126"/>
-      <c r="T24" s="126"/>
-      <c r="U24" s="126"/>
-      <c r="V24" s="126"/>
-      <c r="W24" s="126"/>
+      <c r="S24" s="130"/>
+      <c r="T24" s="130"/>
+      <c r="U24" s="130"/>
+      <c r="V24" s="130"/>
+      <c r="W24" s="130"/>
     </row>
     <row r="25" ht="13.5" customHeight="1">
-      <c r="A25" s="112">
+      <c r="A25" s="113">
         <v>-2</v>
       </c>
-      <c r="B25" t="s" s="126">
+      <c r="B25" t="s" s="130">
         <v>181</v>
       </c>
-      <c r="C25" t="s" s="126">
+      <c r="C25" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D25" s="39"/>
       <c r="E25" s="40"/>
-      <c r="F25" s="135">
+      <c r="F25" s="139">
         <v>6200000</v>
       </c>
       <c r="G25" s="39"/>
       <c r="H25" s="40"/>
-      <c r="I25" s="136">
+      <c r="I25" s="140">
         <v>432999.98</v>
       </c>
       <c r="J25" s="84"/>
-      <c r="K25" s="129">
+      <c r="K25" s="133">
         <v>500000</v>
       </c>
-      <c r="L25" s="138"/>
+      <c r="L25" s="141"/>
       <c r="M25" s="11"/>
       <c r="N25" s="40"/>
-      <c r="O25" s="116">
+      <c r="O25" s="117">
         <v>0.86599996</v>
       </c>
       <c r="P25" s="84"/>
-      <c r="Q25" s="132">
+      <c r="Q25" s="136">
         <v>-0.0947517340836231</v>
       </c>
-      <c r="R25" t="s" s="126">
+      <c r="R25" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S25" s="126"/>
-      <c r="T25" s="126"/>
-      <c r="U25" s="126"/>
-      <c r="V25" s="126"/>
-      <c r="W25" s="126"/>
+      <c r="S25" s="130"/>
+      <c r="T25" s="130"/>
+      <c r="U25" s="130"/>
+      <c r="V25" s="130"/>
+      <c r="W25" s="130"/>
     </row>
     <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="112">
+      <c r="A26" s="113">
         <v>-2</v>
       </c>
-      <c r="B26" t="s" s="126">
+      <c r="B26" t="s" s="130">
         <v>182</v>
       </c>
-      <c r="C26" t="s" s="126">
+      <c r="C26" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D26" s="39"/>
       <c r="E26" s="40"/>
-      <c r="F26" s="135">
+      <c r="F26" s="139">
         <v>1400000</v>
       </c>
       <c r="G26" s="39"/>
       <c r="H26" s="40"/>
-      <c r="I26" s="136">
+      <c r="I26" s="140">
         <v>77321.425</v>
       </c>
       <c r="J26" s="84"/>
-      <c r="K26" s="129">
+      <c r="K26" s="133">
         <v>80000</v>
       </c>
-      <c r="L26" s="138"/>
+      <c r="L26" s="141"/>
       <c r="M26" s="11"/>
       <c r="N26" s="40"/>
-      <c r="O26" s="116">
+      <c r="O26" s="117">
         <v>0.9665178125</v>
       </c>
       <c r="P26" s="84"/>
-      <c r="Q26" s="132">
+      <c r="Q26" s="136">
         <v>0.109023125259071</v>
       </c>
-      <c r="R26" t="s" s="126">
+      <c r="R26" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S26" s="126"/>
-      <c r="T26" s="126"/>
-      <c r="U26" s="126"/>
-      <c r="V26" s="126"/>
-      <c r="W26" s="126"/>
+      <c r="S26" s="130"/>
+      <c r="T26" s="130"/>
+      <c r="U26" s="130"/>
+      <c r="V26" s="130"/>
+      <c r="W26" s="130"/>
     </row>
     <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="112">
+      <c r="A27" s="113">
         <v>-2</v>
       </c>
-      <c r="B27" t="s" s="126">
+      <c r="B27" t="s" s="130">
         <v>183</v>
       </c>
-      <c r="C27" t="s" s="126">
+      <c r="C27" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D27" s="39"/>
       <c r="E27" s="40"/>
-      <c r="F27" s="135">
+      <c r="F27" s="139">
         <v>4067200</v>
       </c>
       <c r="G27" s="39"/>
       <c r="H27" s="40"/>
-      <c r="I27" s="136">
+      <c r="I27" s="140">
         <v>247428.56</v>
       </c>
       <c r="J27" s="84"/>
-      <c r="K27" s="129">
+      <c r="K27" s="133">
         <v>250000</v>
       </c>
-      <c r="L27" s="138"/>
+      <c r="L27" s="141"/>
       <c r="M27" s="11"/>
       <c r="N27" s="40"/>
-      <c r="O27" s="116">
+      <c r="O27" s="117">
         <v>0.98971424</v>
       </c>
       <c r="P27" s="84"/>
-      <c r="Q27" s="132">
+      <c r="Q27" s="136">
         <v>0.1084672643874</v>
       </c>
-      <c r="R27" t="s" s="126">
+      <c r="R27" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S27" s="126"/>
-      <c r="T27" s="126"/>
-      <c r="U27" s="126"/>
-      <c r="V27" s="126"/>
-      <c r="W27" s="126"/>
+      <c r="S27" s="130"/>
+      <c r="T27" s="130"/>
+      <c r="U27" s="130"/>
+      <c r="V27" s="130"/>
+      <c r="W27" s="130"/>
     </row>
     <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="112">
+      <c r="A28" s="113">
         <v>-2</v>
       </c>
-      <c r="B28" t="s" s="126">
+      <c r="B28" t="s" s="130">
         <v>184</v>
       </c>
-      <c r="C28" t="s" s="126">
+      <c r="C28" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D28" s="39"/>
       <c r="E28" s="40"/>
-      <c r="F28" s="135">
+      <c r="F28" s="139">
         <v>1419200</v>
       </c>
       <c r="G28" s="39"/>
       <c r="H28" s="40"/>
-      <c r="I28" s="136">
+      <c r="I28" s="140">
         <v>92785.710000000006</v>
       </c>
       <c r="J28" s="84"/>
-      <c r="K28" s="129">
+      <c r="K28" s="133">
         <v>100000</v>
       </c>
-      <c r="L28" s="138"/>
+      <c r="L28" s="141"/>
       <c r="M28" s="11"/>
       <c r="N28" s="40"/>
-      <c r="O28" s="116">
+      <c r="O28" s="117">
         <v>0.9278571</v>
       </c>
       <c r="P28" s="84"/>
-      <c r="Q28" s="132">
+      <c r="Q28" s="136">
         <v>0.0233978379155821</v>
       </c>
-      <c r="R28" t="s" s="126">
+      <c r="R28" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S28" s="126"/>
-      <c r="T28" s="126"/>
-      <c r="U28" s="126"/>
-      <c r="V28" s="126"/>
-      <c r="W28" s="126"/>
+      <c r="S28" s="130"/>
+      <c r="T28" s="130"/>
+      <c r="U28" s="130"/>
+      <c r="V28" s="130"/>
+      <c r="W28" s="130"/>
     </row>
     <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" s="112">
+      <c r="A29" s="113">
         <v>-2</v>
       </c>
-      <c r="B29" t="s" s="126">
+      <c r="B29" t="s" s="130">
         <v>185</v>
       </c>
-      <c r="C29" t="s" s="126">
+      <c r="C29" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D29" s="39"/>
       <c r="E29" s="40"/>
-      <c r="F29" s="135">
+      <c r="F29" s="139">
         <v>1014300</v>
       </c>
       <c r="G29" s="39"/>
       <c r="H29" s="40"/>
-      <c r="I29" s="136">
+      <c r="I29" s="140">
         <v>21649.999</v>
       </c>
       <c r="J29" s="84"/>
-      <c r="K29" s="129">
+      <c r="K29" s="133">
         <v>25000</v>
       </c>
-      <c r="L29" s="138"/>
+      <c r="L29" s="141"/>
       <c r="M29" s="11"/>
       <c r="N29" s="40"/>
-      <c r="O29" s="116">
+      <c r="O29" s="117">
         <v>0.86599996</v>
       </c>
       <c r="P29" s="84"/>
-      <c r="Q29" s="132">
+      <c r="Q29" s="136">
         <v>-0.151329750703397</v>
       </c>
-      <c r="R29" t="s" s="126">
+      <c r="R29" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S29" s="126"/>
-      <c r="T29" s="126"/>
-      <c r="U29" s="126"/>
-      <c r="V29" s="126"/>
-      <c r="W29" s="126"/>
+      <c r="S29" s="130"/>
+      <c r="T29" s="130"/>
+      <c r="U29" s="130"/>
+      <c r="V29" s="130"/>
+      <c r="W29" s="130"/>
     </row>
     <row r="30" ht="13.5" customHeight="1">
-      <c r="A30" s="112">
+      <c r="A30" s="113">
         <v>-2</v>
       </c>
-      <c r="B30" t="s" s="126">
+      <c r="B30" t="s" s="130">
         <v>186</v>
       </c>
-      <c r="C30" t="s" s="126">
+      <c r="C30" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30" s="40"/>
-      <c r="F30" s="135">
+      <c r="F30" s="139">
         <v>628320</v>
       </c>
       <c r="G30" s="39"/>
       <c r="H30" s="40"/>
-      <c r="I30" s="136">
+      <c r="I30" s="140">
         <v>55671.426</v>
       </c>
       <c r="J30" s="84"/>
-      <c r="K30" s="129">
+      <c r="K30" s="133">
         <v>60000</v>
       </c>
-      <c r="L30" s="138"/>
+      <c r="L30" s="141"/>
       <c r="M30" s="11"/>
       <c r="N30" s="40"/>
-      <c r="O30" s="116">
+      <c r="O30" s="117">
         <v>0.9278571</v>
       </c>
       <c r="P30" s="84"/>
-      <c r="Q30" s="132">
+      <c r="Q30" s="136">
         <v>-0.0695404045114185</v>
       </c>
-      <c r="R30" t="s" s="126">
+      <c r="R30" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S30" s="126"/>
-      <c r="T30" s="126"/>
-      <c r="U30" s="126"/>
-      <c r="V30" s="126"/>
-      <c r="W30" s="126"/>
+      <c r="S30" s="130"/>
+      <c r="T30" s="130"/>
+      <c r="U30" s="130"/>
+      <c r="V30" s="130"/>
+      <c r="W30" s="130"/>
     </row>
     <row r="31" ht="13.5" customHeight="1">
-      <c r="A31" s="112">
+      <c r="A31" s="113">
         <v>-2</v>
       </c>
-      <c r="B31" t="s" s="126">
+      <c r="B31" t="s" s="130">
         <v>187</v>
       </c>
-      <c r="C31" t="s" s="126">
+      <c r="C31" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="40"/>
-      <c r="F31" s="135">
+      <c r="F31" s="139">
         <v>12234288</v>
       </c>
       <c r="G31" s="39"/>
       <c r="H31" s="40"/>
-      <c r="I31" s="136">
+      <c r="I31" s="140">
         <v>773214.25</v>
       </c>
       <c r="J31" s="84"/>
-      <c r="K31" s="129">
+      <c r="K31" s="133">
         <v>800000</v>
       </c>
-      <c r="L31" s="138"/>
+      <c r="L31" s="141"/>
       <c r="M31" s="11"/>
       <c r="N31" s="40"/>
-      <c r="O31" s="116">
+      <c r="O31" s="117">
         <v>0.9665178125</v>
       </c>
       <c r="P31" s="84"/>
-      <c r="Q31" s="132">
+      <c r="Q31" s="136">
         <v>0.0211452543109312</v>
       </c>
-      <c r="R31" t="s" s="126">
+      <c r="R31" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S31" s="126"/>
-      <c r="T31" s="126"/>
-      <c r="U31" s="126"/>
-      <c r="V31" s="126"/>
-      <c r="W31" s="126"/>
+      <c r="S31" s="130"/>
+      <c r="T31" s="130"/>
+      <c r="U31" s="130"/>
+      <c r="V31" s="130"/>
+      <c r="W31" s="130"/>
     </row>
     <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="129">
+      <c r="A32" s="133">
         <v>-1</v>
       </c>
-      <c r="B32" t="s" s="126">
+      <c r="B32" t="s" s="130">
         <v>177</v>
       </c>
-      <c r="C32" t="s" s="126">
+      <c r="C32" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D32" s="39"/>
       <c r="E32" s="40"/>
-      <c r="F32" s="135">
+      <c r="F32" s="139">
         <v>10560000</v>
       </c>
       <c r="G32" s="39"/>
       <c r="H32" s="40"/>
-      <c r="I32" s="136">
+      <c r="I32" s="140">
         <v>716400</v>
       </c>
       <c r="J32" s="84"/>
-      <c r="K32" s="129">
+      <c r="K32" s="133">
         <v>600000</v>
       </c>
-      <c r="L32" s="138"/>
+      <c r="L32" s="141"/>
       <c r="M32" s="11"/>
       <c r="N32" s="40"/>
-      <c r="O32" s="116">
+      <c r="O32" s="117">
         <v>1.194</v>
       </c>
       <c r="P32" s="84"/>
-      <c r="Q32" s="132">
+      <c r="Q32" s="136">
         <v>0.362532327572475</v>
       </c>
-      <c r="R32" t="s" s="126">
+      <c r="R32" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S32" s="126"/>
-      <c r="T32" s="126"/>
-      <c r="U32" s="126"/>
-      <c r="V32" s="126"/>
-      <c r="W32" s="126"/>
+      <c r="S32" s="130"/>
+      <c r="T32" s="130"/>
+      <c r="U32" s="130"/>
+      <c r="V32" s="130"/>
+      <c r="W32" s="130"/>
     </row>
     <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="129">
+      <c r="A33" s="133">
         <v>-1</v>
       </c>
-      <c r="B33" t="s" s="126">
+      <c r="B33" t="s" s="130">
         <v>179</v>
       </c>
-      <c r="C33" t="s" s="126">
+      <c r="C33" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D33" s="39"/>
       <c r="E33" s="40"/>
-      <c r="F33" s="135">
+      <c r="F33" s="139">
         <v>3700000</v>
       </c>
       <c r="G33" s="39"/>
       <c r="H33" s="40"/>
-      <c r="I33" s="136">
+      <c r="I33" s="140">
         <v>220500</v>
       </c>
       <c r="J33" s="84"/>
-      <c r="K33" s="129">
+      <c r="K33" s="133">
         <v>200000</v>
       </c>
-      <c r="L33" s="138"/>
+      <c r="L33" s="141"/>
       <c r="M33" s="11"/>
       <c r="N33" s="40"/>
-      <c r="O33" s="116">
+      <c r="O33" s="117">
         <v>1.1025</v>
       </c>
       <c r="P33" s="84"/>
-      <c r="Q33" s="132">
+      <c r="Q33" s="136">
         <v>0.425866116668181</v>
       </c>
-      <c r="R33" t="s" s="126">
+      <c r="R33" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S33" s="126"/>
-      <c r="T33" s="126"/>
-      <c r="U33" s="126"/>
-      <c r="V33" s="126"/>
-      <c r="W33" s="126"/>
+      <c r="S33" s="130"/>
+      <c r="T33" s="130"/>
+      <c r="U33" s="130"/>
+      <c r="V33" s="130"/>
+      <c r="W33" s="130"/>
     </row>
     <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="129">
+      <c r="A34" s="133">
         <v>-1</v>
       </c>
-      <c r="B34" t="s" s="126">
+      <c r="B34" t="s" s="130">
         <v>180</v>
       </c>
-      <c r="C34" t="s" s="126">
+      <c r="C34" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D34" s="39"/>
       <c r="E34" s="40"/>
-      <c r="F34" s="135">
+      <c r="F34" s="139">
         <v>13041600</v>
       </c>
       <c r="G34" s="39"/>
       <c r="H34" s="40"/>
-      <c r="I34" s="136">
+      <c r="I34" s="140">
         <v>859704</v>
       </c>
       <c r="J34" s="84"/>
-      <c r="K34" s="129">
+      <c r="K34" s="133">
         <v>800000</v>
       </c>
-      <c r="L34" s="138"/>
+      <c r="L34" s="141"/>
       <c r="M34" s="11"/>
       <c r="N34" s="40"/>
-      <c r="O34" s="116">
+      <c r="O34" s="117">
         <v>1.07463</v>
       </c>
       <c r="P34" s="84"/>
-      <c r="Q34" s="132">
+      <c r="Q34" s="136">
         <v>0.208540672349504</v>
       </c>
-      <c r="R34" t="s" s="126">
+      <c r="R34" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S34" s="126"/>
-      <c r="T34" s="126"/>
-      <c r="U34" s="126"/>
-      <c r="V34" s="126"/>
-      <c r="W34" s="126"/>
+      <c r="S34" s="130"/>
+      <c r="T34" s="130"/>
+      <c r="U34" s="130"/>
+      <c r="V34" s="130"/>
+      <c r="W34" s="130"/>
     </row>
     <row r="35" ht="13.5" customHeight="1">
-      <c r="A35" s="129">
+      <c r="A35" s="133">
         <v>-1</v>
       </c>
-      <c r="B35" t="s" s="126">
+      <c r="B35" t="s" s="130">
         <v>181</v>
       </c>
-      <c r="C35" t="s" s="126">
+      <c r="C35" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D35" s="39"/>
       <c r="E35" s="40"/>
-      <c r="F35" s="135">
+      <c r="F35" s="139">
         <v>6200000</v>
       </c>
       <c r="G35" s="39"/>
       <c r="H35" s="40"/>
-      <c r="I35" s="136">
+      <c r="I35" s="140">
         <v>400000</v>
       </c>
       <c r="J35" s="84"/>
-      <c r="K35" s="129">
+      <c r="K35" s="133">
         <v>450000</v>
       </c>
-      <c r="L35" s="138"/>
+      <c r="L35" s="141"/>
       <c r="M35" s="11"/>
       <c r="N35" s="40"/>
-      <c r="O35" s="116">
+      <c r="O35" s="117">
         <v>0.888888888888889</v>
       </c>
       <c r="P35" s="84"/>
-      <c r="Q35" s="132">
+      <c r="Q35" s="136">
         <v>-0.0762124284624679</v>
       </c>
-      <c r="R35" t="s" s="126">
+      <c r="R35" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S35" s="126"/>
-      <c r="T35" s="126"/>
-      <c r="U35" s="126"/>
-      <c r="V35" s="126"/>
-      <c r="W35" s="126"/>
+      <c r="S35" s="130"/>
+      <c r="T35" s="130"/>
+      <c r="U35" s="130"/>
+      <c r="V35" s="130"/>
+      <c r="W35" s="130"/>
     </row>
     <row r="36" ht="13.5" customHeight="1">
-      <c r="A36" s="129">
+      <c r="A36" s="133">
         <v>-1</v>
       </c>
-      <c r="B36" t="s" s="126">
+      <c r="B36" t="s" s="130">
         <v>182</v>
       </c>
-      <c r="C36" t="s" s="126">
+      <c r="C36" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D36" s="39"/>
       <c r="E36" s="40"/>
-      <c r="F36" s="135">
+      <c r="F36" s="139">
         <v>1400000</v>
       </c>
       <c r="G36" s="39"/>
       <c r="H36" s="40"/>
-      <c r="I36" s="136">
+      <c r="I36" s="140">
         <v>90000</v>
       </c>
       <c r="J36" s="84"/>
-      <c r="K36" s="129">
+      <c r="K36" s="133">
         <v>85000</v>
       </c>
-      <c r="L36" s="138"/>
+      <c r="L36" s="141"/>
       <c r="M36" s="11"/>
       <c r="N36" s="40"/>
-      <c r="O36" s="116">
+      <c r="O36" s="117">
         <v>1.05882352941176</v>
       </c>
       <c r="P36" s="84"/>
-      <c r="Q36" s="132">
+      <c r="Q36" s="136">
         <v>0.163972340137291</v>
       </c>
-      <c r="R36" t="s" s="126">
+      <c r="R36" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S36" s="126"/>
-      <c r="T36" s="126"/>
-      <c r="U36" s="126"/>
-      <c r="V36" s="126"/>
-      <c r="W36" s="126"/>
+      <c r="S36" s="130"/>
+      <c r="T36" s="130"/>
+      <c r="U36" s="130"/>
+      <c r="V36" s="130"/>
+      <c r="W36" s="130"/>
     </row>
     <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" s="129">
+      <c r="A37" s="133">
         <v>-1</v>
       </c>
-      <c r="B37" t="s" s="126">
+      <c r="B37" t="s" s="130">
         <v>183</v>
       </c>
-      <c r="C37" t="s" s="126">
+      <c r="C37" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D37" s="39"/>
       <c r="E37" s="40"/>
-      <c r="F37" s="135">
+      <c r="F37" s="139">
         <v>4067200</v>
       </c>
       <c r="G37" s="39"/>
       <c r="H37" s="40"/>
-      <c r="I37" s="136">
+      <c r="I37" s="140">
         <v>276368</v>
       </c>
       <c r="J37" s="84"/>
-      <c r="K37" s="129">
+      <c r="K37" s="133">
         <v>250000</v>
       </c>
-      <c r="L37" s="138"/>
+      <c r="L37" s="141"/>
       <c r="M37" s="11"/>
       <c r="N37" s="40"/>
-      <c r="O37" s="116">
+      <c r="O37" s="117">
         <v>1.105472</v>
       </c>
       <c r="P37" s="84"/>
-      <c r="Q37" s="132">
+      <c r="Q37" s="136">
         <v>0.116960790621746</v>
       </c>
-      <c r="R37" t="s" s="126">
+      <c r="R37" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S37" s="126"/>
-      <c r="T37" s="126"/>
-      <c r="U37" s="126"/>
-      <c r="V37" s="126"/>
-      <c r="W37" s="126"/>
+      <c r="S37" s="130"/>
+      <c r="T37" s="130"/>
+      <c r="U37" s="130"/>
+      <c r="V37" s="130"/>
+      <c r="W37" s="130"/>
     </row>
     <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" s="129">
+      <c r="A38" s="133">
         <v>-1</v>
       </c>
-      <c r="B38" t="s" s="126">
+      <c r="B38" t="s" s="130">
         <v>184</v>
       </c>
-      <c r="C38" t="s" s="126">
+      <c r="C38" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D38" s="39"/>
       <c r="E38" s="40"/>
-      <c r="F38" s="135">
+      <c r="F38" s="139">
         <v>1419200</v>
       </c>
       <c r="G38" s="39"/>
       <c r="H38" s="40"/>
-      <c r="I38" s="136">
+      <c r="I38" s="140">
         <v>90248</v>
       </c>
       <c r="J38" s="84"/>
-      <c r="K38" s="129">
+      <c r="K38" s="133">
         <v>100000</v>
       </c>
-      <c r="L38" s="138"/>
+      <c r="L38" s="141"/>
       <c r="M38" s="11"/>
       <c r="N38" s="40"/>
-      <c r="O38" s="116">
+      <c r="O38" s="117">
         <v>0.9024799999999999</v>
       </c>
       <c r="P38" s="84"/>
-      <c r="Q38" s="132">
+      <c r="Q38" s="136">
         <v>-0.0273502245119426</v>
       </c>
-      <c r="R38" t="s" s="126">
+      <c r="R38" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S38" s="126"/>
-      <c r="T38" s="126"/>
-      <c r="U38" s="126"/>
-      <c r="V38" s="126"/>
-      <c r="W38" s="126"/>
+      <c r="S38" s="130"/>
+      <c r="T38" s="130"/>
+      <c r="U38" s="130"/>
+      <c r="V38" s="130"/>
+      <c r="W38" s="130"/>
     </row>
     <row r="39" ht="13.5" customHeight="1">
-      <c r="A39" s="129">
+      <c r="A39" s="133">
         <v>-1</v>
       </c>
-      <c r="B39" t="s" s="126">
+      <c r="B39" t="s" s="130">
         <v>185</v>
       </c>
-      <c r="C39" t="s" s="126">
+      <c r="C39" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D39" s="39"/>
       <c r="E39" s="40"/>
-      <c r="F39" s="135">
+      <c r="F39" s="139">
         <v>1014300</v>
       </c>
       <c r="G39" s="39"/>
       <c r="H39" s="40"/>
-      <c r="I39" s="136">
+      <c r="I39" s="140">
         <v>28930</v>
       </c>
       <c r="J39" s="84"/>
-      <c r="K39" s="129">
+      <c r="K39" s="133">
         <v>25000</v>
       </c>
-      <c r="L39" s="138"/>
+      <c r="L39" s="141"/>
       <c r="M39" s="11"/>
       <c r="N39" s="40"/>
-      <c r="O39" s="116">
+      <c r="O39" s="117">
         <v>1.1572</v>
       </c>
       <c r="P39" s="84"/>
-      <c r="Q39" s="132">
+      <c r="Q39" s="136">
         <v>0.33625872222904</v>
       </c>
-      <c r="R39" t="s" s="126">
+      <c r="R39" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S39" s="126"/>
-      <c r="T39" s="126"/>
-      <c r="U39" s="126"/>
-      <c r="V39" s="126"/>
-      <c r="W39" s="126"/>
+      <c r="S39" s="130"/>
+      <c r="T39" s="130"/>
+      <c r="U39" s="130"/>
+      <c r="V39" s="130"/>
+      <c r="W39" s="130"/>
     </row>
     <row r="40" ht="13.5" customHeight="1">
-      <c r="A40" s="129">
+      <c r="A40" s="133">
         <v>-1</v>
       </c>
-      <c r="B40" t="s" s="126">
+      <c r="B40" t="s" s="130">
         <v>186</v>
       </c>
-      <c r="C40" t="s" s="126">
+      <c r="C40" t="s" s="130">
         <v>178</v>
       </c>
       <c r="D40" s="39"/>
       <c r="E40" s="40"/>
-      <c r="F40" s="135">
+      <c r="F40" s="139">
         <v>628320</v>
       </c>
       <c r="G40" s="39"/>
       <c r="H40" s="40"/>
-      <c r="I40" s="136">
+      <c r="I40" s="140">
         <v>35840</v>
       </c>
       <c r="J40" s="84"/>
-      <c r="K40" s="129">
+      <c r="K40" s="133">
         <v>40000</v>
       </c>
-      <c r="L40" s="138"/>
+      <c r="L40" s="141"/>
       <c r="M40" s="11"/>
       <c r="N40" s="40"/>
-      <c r="O40" s="116">
+      <c r="O40" s="117">
         <v>0.896</v>
       </c>
       <c r="P40" s="84"/>
-      <c r="Q40" s="132">
+      <c r="Q40" s="136">
         <v>-0.356222705701844</v>
       </c>
-      <c r="R40" t="s" s="126">
+      <c r="R40" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S40" s="126"/>
-      <c r="T40" s="126"/>
-      <c r="U40" s="126"/>
-      <c r="V40" s="126"/>
-      <c r="W40" s="126"/>
+      <c r="S40" s="130"/>
+      <c r="T40" s="130"/>
+      <c r="U40" s="130"/>
+      <c r="V40" s="130"/>
+      <c r="W40" s="130"/>
     </row>
     <row r="41" ht="13.5" customHeight="1">
-      <c r="A41" s="129">
+      <c r="A41" s="133">
         <v>-1</v>
       </c>
-      <c r="B41" t="s" s="126">
+      <c r="B41" t="s" s="130">
         <v>187</v>
       </c>
-      <c r="C41" t="s" s="126">
+      <c r="C41" t="s" s="130">
         <v>178</v>
       </c>
-      <c r="D41" s="141"/>
+      <c r="D41" s="144"/>
       <c r="E41" s="40"/>
-      <c r="F41" s="135">
+      <c r="F41" s="139">
         <v>12234288</v>
       </c>
       <c r="G41" s="39"/>
       <c r="H41" s="40"/>
-      <c r="I41" s="136">
+      <c r="I41" s="140">
         <v>835229</v>
       </c>
       <c r="J41" s="84"/>
-      <c r="K41" s="129">
+      <c r="K41" s="133">
         <v>800000</v>
       </c>
-      <c r="L41" s="138"/>
+      <c r="L41" s="141"/>
       <c r="M41" s="11"/>
       <c r="N41" s="40"/>
-      <c r="O41" s="116">
+      <c r="O41" s="117">
         <v>1.04403625</v>
       </c>
       <c r="P41" s="84"/>
-      <c r="Q41" s="132">
+      <c r="Q41" s="136">
         <v>0.08020383742281</v>
       </c>
-      <c r="R41" t="s" s="126">
+      <c r="R41" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="S41" s="126"/>
-      <c r="T41" s="126"/>
-      <c r="U41" s="126"/>
-      <c r="V41" s="126"/>
-      <c r="W41" s="126"/>
+      <c r="S41" s="130"/>
+      <c r="T41" s="130"/>
+      <c r="U41" s="130"/>
+      <c r="V41" s="130"/>
+      <c r="W41" s="130"/>
     </row>
     <row r="42" ht="13.5" customHeight="1">
-      <c r="A42" s="112">
+      <c r="A42" s="113">
         <v>-4</v>
       </c>
       <c r="B42" s="81"/>
-      <c r="C42" t="s" s="142">
+      <c r="C42" t="s" s="145">
         <v>188</v>
       </c>
-      <c r="D42" t="s" s="142">
+      <c r="D42" t="s" s="145">
         <v>189</v>
       </c>
       <c r="E42" s="39"/>
       <c r="F42" s="67"/>
       <c r="G42" s="11"/>
       <c r="H42" s="40"/>
-      <c r="I42" s="143">
+      <c r="I42" s="146">
         <v>1053340</v>
       </c>
       <c r="J42" s="84"/>
-      <c r="K42" s="143">
+      <c r="K42" s="146">
         <v>975000</v>
       </c>
-      <c r="L42" s="144"/>
+      <c r="L42" s="147"/>
       <c r="M42" s="11"/>
       <c r="N42" s="40"/>
-      <c r="O42" s="145">
+      <c r="O42" s="148">
         <v>1.08034871794872</v>
       </c>
       <c r="P42" s="84"/>
-      <c r="Q42" s="145">
+      <c r="Q42" s="148">
         <v>0.187882670877236</v>
       </c>
-      <c r="R42" t="s" s="142">
+      <c r="R42" t="s" s="145">
         <v>10</v>
       </c>
       <c r="S42" s="91">
@@ -9523,38 +9588,38 @@
       </c>
     </row>
     <row r="43" ht="13.5" customHeight="1">
-      <c r="A43" s="112">
+      <c r="A43" s="113">
         <v>-4</v>
       </c>
       <c r="B43" s="84"/>
-      <c r="C43" t="s" s="142">
+      <c r="C43" t="s" s="145">
         <v>188</v>
       </c>
-      <c r="D43" t="s" s="142">
+      <c r="D43" t="s" s="145">
         <v>190</v>
       </c>
       <c r="E43" s="39"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="40"/>
-      <c r="I43" s="143">
+      <c r="I43" s="146">
         <v>1516481</v>
       </c>
       <c r="J43" s="84"/>
-      <c r="K43" s="143">
+      <c r="K43" s="146">
         <v>1450000</v>
       </c>
-      <c r="L43" s="144"/>
+      <c r="L43" s="147"/>
       <c r="M43" s="11"/>
       <c r="N43" s="40"/>
-      <c r="O43" s="145">
+      <c r="O43" s="148">
         <v>1.04584896551724</v>
       </c>
       <c r="P43" s="84"/>
-      <c r="Q43" s="145">
+      <c r="Q43" s="148">
         <v>0.159205827067669</v>
       </c>
-      <c r="R43" t="s" s="142">
+      <c r="R43" t="s" s="145">
         <v>10</v>
       </c>
       <c r="S43" s="91">
@@ -9574,38 +9639,38 @@
       </c>
     </row>
     <row r="44" ht="13.5" customHeight="1">
-      <c r="A44" s="112">
+      <c r="A44" s="113">
         <v>-4</v>
       </c>
       <c r="B44" s="84"/>
-      <c r="C44" t="s" s="142">
+      <c r="C44" t="s" s="145">
         <v>188</v>
       </c>
-      <c r="D44" t="s" s="142">
+      <c r="D44" t="s" s="145">
         <v>191</v>
       </c>
       <c r="E44" s="39"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="40"/>
-      <c r="I44" s="143">
+      <c r="I44" s="146">
         <v>319691</v>
       </c>
       <c r="J44" s="84"/>
-      <c r="K44" s="143">
+      <c r="K44" s="146">
         <v>385000</v>
       </c>
-      <c r="L44" s="144"/>
+      <c r="L44" s="147"/>
       <c r="M44" s="11"/>
       <c r="N44" s="40"/>
-      <c r="O44" s="145">
+      <c r="O44" s="148">
         <v>0.830366233766234</v>
       </c>
       <c r="P44" s="84"/>
-      <c r="Q44" s="145">
+      <c r="Q44" s="148">
         <v>-0.124001966568338</v>
       </c>
-      <c r="R44" t="s" s="142">
+      <c r="R44" t="s" s="145">
         <v>10</v>
       </c>
       <c r="S44" s="91">
@@ -9625,38 +9690,38 @@
       </c>
     </row>
     <row r="45" ht="13.5" customHeight="1">
-      <c r="A45" s="112">
+      <c r="A45" s="113">
         <v>-4</v>
       </c>
       <c r="B45" s="84"/>
-      <c r="C45" t="s" s="142">
+      <c r="C45" t="s" s="145">
         <v>188</v>
       </c>
-      <c r="D45" t="s" s="142">
+      <c r="D45" t="s" s="145">
         <v>192</v>
       </c>
       <c r="E45" s="39"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="40"/>
-      <c r="I45" s="143">
+      <c r="I45" s="146">
         <v>368874</v>
       </c>
       <c r="J45" s="84"/>
-      <c r="K45" s="143">
+      <c r="K45" s="146">
         <v>370000</v>
       </c>
-      <c r="L45" s="144"/>
+      <c r="L45" s="147"/>
       <c r="M45" s="11"/>
       <c r="N45" s="40"/>
-      <c r="O45" s="145">
+      <c r="O45" s="148">
         <v>0.996956756756757</v>
       </c>
       <c r="P45" s="84"/>
-      <c r="Q45" s="145">
+      <c r="Q45" s="148">
         <v>0.126180758017493</v>
       </c>
-      <c r="R45" t="s" s="142">
+      <c r="R45" t="s" s="145">
         <v>10</v>
       </c>
       <c r="S45" s="91">
@@ -9676,38 +9741,38 @@
       </c>
     </row>
     <row r="46" ht="13.5" customHeight="1">
-      <c r="A46" s="112">
+      <c r="A46" s="113">
         <v>-4</v>
       </c>
       <c r="B46" s="84"/>
-      <c r="C46" t="s" s="142">
+      <c r="C46" t="s" s="145">
         <v>188</v>
       </c>
-      <c r="D46" t="s" s="142">
+      <c r="D46" t="s" s="145">
         <v>193</v>
       </c>
       <c r="E46" s="39"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="40"/>
-      <c r="I46" s="143">
+      <c r="I46" s="146">
         <v>840213</v>
       </c>
       <c r="J46" s="84"/>
-      <c r="K46" s="143">
+      <c r="K46" s="146">
         <v>800000</v>
       </c>
-      <c r="L46" s="144"/>
+      <c r="L46" s="147"/>
       <c r="M46" s="11"/>
       <c r="N46" s="40"/>
-      <c r="O46" s="145">
+      <c r="O46" s="148">
         <v>1.05026625</v>
       </c>
       <c r="P46" s="84"/>
-      <c r="Q46" s="145">
+      <c r="Q46" s="148">
         <v>0.146255697851096</v>
       </c>
-      <c r="R46" t="s" s="142">
+      <c r="R46" t="s" s="145">
         <v>10</v>
       </c>
       <c r="S46" s="91">
@@ -9727,38 +9792,38 @@
       </c>
     </row>
     <row r="47" ht="13.5" customHeight="1">
-      <c r="A47" s="112">
+      <c r="A47" s="113">
         <v>-3</v>
       </c>
       <c r="B47" s="84"/>
-      <c r="C47" t="s" s="142">
+      <c r="C47" t="s" s="145">
         <v>188</v>
       </c>
-      <c r="D47" t="s" s="142">
+      <c r="D47" t="s" s="145">
         <v>189</v>
       </c>
       <c r="E47" s="39"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="40"/>
-      <c r="I47" s="143">
+      <c r="I47" s="146">
         <v>817035</v>
       </c>
       <c r="J47" s="84"/>
-      <c r="K47" s="143">
+      <c r="K47" s="146">
         <v>910000</v>
       </c>
-      <c r="L47" s="144"/>
+      <c r="L47" s="147"/>
       <c r="M47" s="11"/>
       <c r="N47" s="40"/>
-      <c r="O47" s="145">
+      <c r="O47" s="148">
         <v>0.897840659340659</v>
       </c>
       <c r="P47" s="84"/>
-      <c r="Q47" s="145">
+      <c r="Q47" s="148">
         <v>0.0145048865715667</v>
       </c>
-      <c r="R47" t="s" s="142">
+      <c r="R47" t="s" s="145">
         <v>10</v>
       </c>
       <c r="S47" s="91">
@@ -9778,38 +9843,38 @@
       </c>
     </row>
     <row r="48" ht="13.5" customHeight="1">
-      <c r="A48" s="112">
+      <c r="A48" s="113">
         <v>-3</v>
       </c>
       <c r="B48" s="84"/>
-      <c r="C48" t="s" s="142">
+      <c r="C48" t="s" s="145">
         <v>188</v>
       </c>
-      <c r="D48" t="s" s="142">
+      <c r="D48" t="s" s="145">
         <v>190</v>
       </c>
       <c r="E48" s="39"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="40"/>
-      <c r="I48" s="143">
+      <c r="I48" s="146">
         <v>1214350</v>
       </c>
       <c r="J48" s="84"/>
-      <c r="K48" s="143">
+      <c r="K48" s="146">
         <v>1350000</v>
       </c>
-      <c r="L48" s="144"/>
+      <c r="L48" s="147"/>
       <c r="M48" s="11"/>
       <c r="N48" s="40"/>
-      <c r="O48" s="145">
+      <c r="O48" s="148">
         <v>0.8995185185185181</v>
       </c>
       <c r="P48" s="84"/>
-      <c r="Q48" s="145">
+      <c r="Q48" s="148">
         <v>-0.0576382426812698</v>
       </c>
-      <c r="R48" t="s" s="142">
+      <c r="R48" t="s" s="145">
         <v>10</v>
       </c>
       <c r="S48" s="91">
@@ -9829,38 +9894,38 @@
       </c>
     </row>
     <row r="49" ht="13.5" customHeight="1">
-      <c r="A49" s="112">
+      <c r="A49" s="113">
         <v>-3</v>
       </c>
       <c r="B49" s="84"/>
-      <c r="C49" t="s" s="142">
+      <c r="C49" t="s" s="145">
         <v>188</v>
       </c>
-      <c r="D49" t="s" s="142">
+      <c r="D49" t="s" s="145">
         <v>191</v>
       </c>
       <c r="E49" s="39"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="40"/>
-      <c r="I49" s="143">
+      <c r="I49" s="146">
         <v>248727</v>
       </c>
       <c r="J49" s="84"/>
-      <c r="K49" s="143">
+      <c r="K49" s="146">
         <v>275000</v>
       </c>
-      <c r="L49" s="144"/>
+      <c r="L49" s="147"/>
       <c r="M49" s="11"/>
       <c r="N49" s="40"/>
-      <c r="O49" s="145">
+      <c r="O49" s="148">
         <v>0.904461818181818</v>
       </c>
       <c r="P49" s="84"/>
-      <c r="Q49" s="145">
+      <c r="Q49" s="148">
         <v>0.081824651123521</v>
       </c>
-      <c r="R49" t="s" s="142">
+      <c r="R49" t="s" s="145">
         <v>10</v>
       </c>
       <c r="S49" s="91">
@@ -9880,38 +9945,38 @@
       </c>
     </row>
     <row r="50" ht="13.5" customHeight="1">
-      <c r="A50" s="112">
+      <c r="A50" s="113">
         <v>-3</v>
       </c>
       <c r="B50" s="84"/>
-      <c r="C50" t="s" s="142">
+      <c r="C50" t="s" s="145">
         <v>188</v>
       </c>
-      <c r="D50" t="s" s="142">
+      <c r="D50" t="s" s="145">
         <v>192</v>
       </c>
       <c r="E50" s="39"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
       <c r="H50" s="40"/>
-      <c r="I50" s="143">
+      <c r="I50" s="146">
         <v>281993</v>
       </c>
       <c r="J50" s="84"/>
-      <c r="K50" s="143">
+      <c r="K50" s="146">
         <v>300000</v>
       </c>
-      <c r="L50" s="144"/>
+      <c r="L50" s="147"/>
       <c r="M50" s="11"/>
       <c r="N50" s="40"/>
-      <c r="O50" s="145">
+      <c r="O50" s="148">
         <v>0.939976666666667</v>
       </c>
       <c r="P50" s="84"/>
-      <c r="Q50" s="145">
+      <c r="Q50" s="148">
         <v>-0.122570418414641</v>
       </c>
-      <c r="R50" t="s" s="142">
+      <c r="R50" t="s" s="145">
         <v>10</v>
       </c>
       <c r="S50" s="91">
@@ -9931,38 +9996,38 @@
       </c>
     </row>
     <row r="51" ht="13.5" customHeight="1">
-      <c r="A51" s="112">
+      <c r="A51" s="113">
         <v>-3</v>
       </c>
       <c r="B51" s="84"/>
-      <c r="C51" t="s" s="142">
+      <c r="C51" t="s" s="145">
         <v>188</v>
       </c>
-      <c r="D51" t="s" s="142">
+      <c r="D51" t="s" s="145">
         <v>193</v>
       </c>
       <c r="E51" s="39"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="40"/>
-      <c r="I51" s="143">
+      <c r="I51" s="146">
         <v>626706</v>
       </c>
       <c r="J51" s="84"/>
-      <c r="K51" s="143">
+      <c r="K51" s="146">
         <v>730000</v>
       </c>
-      <c r="L51" s="144"/>
+      <c r="L51" s="147"/>
       <c r="M51" s="11"/>
       <c r="N51" s="40"/>
-      <c r="O51" s="145">
+      <c r="O51" s="148">
         <v>0.858501369863014</v>
       </c>
       <c r="P51" s="84"/>
-      <c r="Q51" s="145">
+      <c r="Q51" s="148">
         <v>-0.0376556152326609</v>
       </c>
-      <c r="R51" t="s" s="142">
+      <c r="R51" t="s" s="145">
         <v>10</v>
       </c>
       <c r="S51" s="91">
@@ -9982,38 +10047,38 @@
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1">
-      <c r="A52" s="112">
+      <c r="A52" s="113">
         <v>-2</v>
       </c>
       <c r="B52" s="84"/>
-      <c r="C52" t="s" s="142">
+      <c r="C52" t="s" s="145">
         <v>188</v>
       </c>
-      <c r="D52" t="s" s="142">
+      <c r="D52" t="s" s="145">
         <v>189</v>
       </c>
       <c r="E52" s="39"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="40"/>
-      <c r="I52" s="143">
+      <c r="I52" s="146">
         <v>828886</v>
       </c>
       <c r="J52" s="84"/>
-      <c r="K52" s="143">
+      <c r="K52" s="146">
         <v>860000</v>
       </c>
-      <c r="L52" s="144"/>
+      <c r="L52" s="147"/>
       <c r="M52" s="11"/>
       <c r="N52" s="40"/>
-      <c r="O52" s="145">
+      <c r="O52" s="148">
         <v>0.963820930232558</v>
       </c>
       <c r="P52" s="84"/>
-      <c r="Q52" s="145">
+      <c r="Q52" s="148">
         <v>0.0145048865715667</v>
       </c>
-      <c r="R52" t="s" s="142">
+      <c r="R52" t="s" s="145">
         <v>10</v>
       </c>
       <c r="S52" s="91">
@@ -10033,38 +10098,38 @@
       </c>
     </row>
     <row r="53" ht="13.5" customHeight="1">
-      <c r="A53" s="112">
+      <c r="A53" s="113">
         <v>-2</v>
       </c>
       <c r="B53" s="84"/>
-      <c r="C53" t="s" s="142">
+      <c r="C53" t="s" s="145">
         <v>188</v>
       </c>
-      <c r="D53" t="s" s="142">
+      <c r="D53" t="s" s="145">
         <v>190</v>
       </c>
       <c r="E53" s="39"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="H53" s="40"/>
-      <c r="I53" s="143">
+      <c r="I53" s="146">
         <v>1144357</v>
       </c>
       <c r="J53" s="84"/>
-      <c r="K53" s="143">
+      <c r="K53" s="146">
         <v>1250000</v>
       </c>
-      <c r="L53" s="144"/>
+      <c r="L53" s="147"/>
       <c r="M53" s="11"/>
       <c r="N53" s="40"/>
-      <c r="O53" s="145">
+      <c r="O53" s="148">
         <v>0.9154856</v>
       </c>
       <c r="P53" s="84"/>
-      <c r="Q53" s="145">
+      <c r="Q53" s="148">
         <v>-0.0576382426812698</v>
       </c>
-      <c r="R53" t="s" s="142">
+      <c r="R53" t="s" s="145">
         <v>10</v>
       </c>
       <c r="S53" s="91">
@@ -10084,38 +10149,38 @@
       </c>
     </row>
     <row r="54" ht="13.5" customHeight="1">
-      <c r="A54" s="112">
+      <c r="A54" s="113">
         <v>-2</v>
       </c>
       <c r="B54" s="84"/>
-      <c r="C54" t="s" s="142">
+      <c r="C54" t="s" s="145">
         <v>188</v>
       </c>
-      <c r="D54" t="s" s="142">
+      <c r="D54" t="s" s="145">
         <v>191</v>
       </c>
       <c r="E54" s="39"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="40"/>
-      <c r="I54" s="143">
+      <c r="I54" s="146">
         <v>269079</v>
       </c>
       <c r="J54" s="84"/>
-      <c r="K54" s="143">
+      <c r="K54" s="146">
         <v>275000</v>
       </c>
-      <c r="L54" s="144"/>
+      <c r="L54" s="147"/>
       <c r="M54" s="11"/>
       <c r="N54" s="40"/>
-      <c r="O54" s="145">
+      <c r="O54" s="148">
         <v>0.978469090909091</v>
       </c>
       <c r="P54" s="84"/>
-      <c r="Q54" s="145">
+      <c r="Q54" s="148">
         <v>0.081824651123521</v>
       </c>
-      <c r="R54" t="s" s="142">
+      <c r="R54" t="s" s="145">
         <v>10</v>
       </c>
       <c r="S54" s="91">
@@ -10135,38 +10200,38 @@
       </c>
     </row>
     <row r="55" ht="13.5" customHeight="1">
-      <c r="A55" s="112">
+      <c r="A55" s="113">
         <v>-2</v>
       </c>
       <c r="B55" s="84"/>
-      <c r="C55" t="s" s="142">
+      <c r="C55" t="s" s="145">
         <v>188</v>
       </c>
-      <c r="D55" t="s" s="142">
+      <c r="D55" t="s" s="145">
         <v>192</v>
       </c>
       <c r="E55" s="39"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="40"/>
-      <c r="I55" s="143">
+      <c r="I55" s="146">
         <v>247429</v>
       </c>
       <c r="J55" s="84"/>
-      <c r="K55" s="143">
+      <c r="K55" s="146">
         <v>270000</v>
       </c>
-      <c r="L55" s="144"/>
+      <c r="L55" s="147"/>
       <c r="M55" s="11"/>
       <c r="N55" s="40"/>
-      <c r="O55" s="145">
+      <c r="O55" s="148">
         <v>0.9164037037037041</v>
       </c>
       <c r="P55" s="84"/>
-      <c r="Q55" s="145">
+      <c r="Q55" s="148">
         <v>-0.122570418414641</v>
       </c>
-      <c r="R55" t="s" s="142">
+      <c r="R55" t="s" s="145">
         <v>10</v>
       </c>
       <c r="S55" s="91">
@@ -10186,38 +10251,38 @@
       </c>
     </row>
     <row r="56" ht="13.5" customHeight="1">
-      <c r="A56" s="112">
+      <c r="A56" s="113">
         <v>-2</v>
       </c>
       <c r="B56" s="84"/>
-      <c r="C56" t="s" s="142">
+      <c r="C56" t="s" s="145">
         <v>188</v>
       </c>
-      <c r="D56" t="s" s="142">
+      <c r="D56" t="s" s="145">
         <v>193</v>
       </c>
       <c r="E56" s="39"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="40"/>
-      <c r="I56" s="143">
+      <c r="I56" s="146">
         <v>603107</v>
       </c>
       <c r="J56" s="84"/>
-      <c r="K56" s="143">
+      <c r="K56" s="146">
         <v>630000</v>
       </c>
-      <c r="L56" s="144"/>
+      <c r="L56" s="147"/>
       <c r="M56" s="11"/>
       <c r="N56" s="40"/>
-      <c r="O56" s="145">
+      <c r="O56" s="148">
         <v>0.9573126984126979</v>
       </c>
       <c r="P56" s="84"/>
-      <c r="Q56" s="145">
+      <c r="Q56" s="148">
         <v>-0.0376556152326609</v>
       </c>
-      <c r="R56" t="s" s="142">
+      <c r="R56" t="s" s="145">
         <v>10</v>
       </c>
       <c r="S56" s="91">
@@ -10237,255 +10302,255 @@
       </c>
     </row>
     <row r="57" ht="13.5" customHeight="1">
-      <c r="A57" s="129">
+      <c r="A57" s="133">
         <v>-1</v>
       </c>
       <c r="B57" s="84"/>
-      <c r="C57" t="s" s="142">
+      <c r="C57" t="s" s="145">
         <v>188</v>
       </c>
-      <c r="D57" t="s" s="142">
+      <c r="D57" t="s" s="145">
         <v>189</v>
       </c>
       <c r="E57" s="39"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="40"/>
-      <c r="I57" s="143">
+      <c r="I57" s="146">
         <v>871069</v>
       </c>
       <c r="J57" s="84"/>
-      <c r="K57" s="143">
+      <c r="K57" s="146">
         <v>840000</v>
       </c>
-      <c r="L57" s="144"/>
+      <c r="L57" s="147"/>
       <c r="M57" s="11"/>
       <c r="N57" s="40"/>
-      <c r="O57" s="145">
+      <c r="O57" s="148">
         <v>1.0369869047619</v>
       </c>
       <c r="P57" s="84"/>
-      <c r="Q57" s="116">
+      <c r="Q57" s="117">
         <v>0.0508911961355361</v>
       </c>
-      <c r="R57" t="s" s="146">
+      <c r="R57" t="s" s="149">
         <v>10</v>
       </c>
-      <c r="S57" s="146"/>
-      <c r="T57" s="146"/>
-      <c r="U57" s="146"/>
-      <c r="V57" s="146"/>
-      <c r="W57" s="146"/>
+      <c r="S57" s="149"/>
+      <c r="T57" s="149"/>
+      <c r="U57" s="149"/>
+      <c r="V57" s="149"/>
+      <c r="W57" s="149"/>
     </row>
     <row r="58" ht="13.5" customHeight="1">
-      <c r="A58" s="129">
+      <c r="A58" s="133">
         <v>-1</v>
       </c>
       <c r="B58" s="84"/>
-      <c r="C58" t="s" s="142">
+      <c r="C58" t="s" s="145">
         <v>188</v>
       </c>
-      <c r="D58" t="s" s="142">
+      <c r="D58" t="s" s="145">
         <v>190</v>
       </c>
       <c r="E58" s="39"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="40"/>
-      <c r="I58" s="143">
+      <c r="I58" s="146">
         <v>1259704</v>
       </c>
       <c r="J58" s="84"/>
-      <c r="K58" s="143">
+      <c r="K58" s="146">
         <v>1250000</v>
       </c>
-      <c r="L58" s="144"/>
+      <c r="L58" s="147"/>
       <c r="M58" s="11"/>
       <c r="N58" s="40"/>
-      <c r="O58" s="145">
+      <c r="O58" s="148">
         <v>1.0077632</v>
       </c>
       <c r="P58" s="84"/>
-      <c r="Q58" s="116">
+      <c r="Q58" s="117">
         <v>0.100796342400143</v>
       </c>
-      <c r="R58" t="s" s="146">
+      <c r="R58" t="s" s="149">
         <v>10</v>
       </c>
-      <c r="S58" s="146"/>
-      <c r="T58" s="146"/>
-      <c r="U58" s="146"/>
-      <c r="V58" s="146"/>
-      <c r="W58" s="146"/>
+      <c r="S58" s="149"/>
+      <c r="T58" s="149"/>
+      <c r="U58" s="149"/>
+      <c r="V58" s="149"/>
+      <c r="W58" s="149"/>
     </row>
     <row r="59" ht="13.5" customHeight="1">
-      <c r="A59" s="129">
+      <c r="A59" s="133">
         <v>-1</v>
       </c>
       <c r="B59" s="84"/>
-      <c r="C59" t="s" s="142">
+      <c r="C59" t="s" s="145">
         <v>188</v>
       </c>
-      <c r="D59" t="s" s="142">
+      <c r="D59" t="s" s="145">
         <v>191</v>
       </c>
       <c r="E59" s="39"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="40"/>
-      <c r="I59" s="143">
+      <c r="I59" s="146">
         <v>305298</v>
       </c>
       <c r="J59" s="84"/>
-      <c r="K59" s="143">
+      <c r="K59" s="146">
         <v>275000</v>
       </c>
-      <c r="L59" s="144"/>
+      <c r="L59" s="147"/>
       <c r="M59" s="11"/>
       <c r="N59" s="40"/>
-      <c r="O59" s="145">
+      <c r="O59" s="148">
         <v>1.11017454545455</v>
       </c>
       <c r="P59" s="84"/>
-      <c r="Q59" s="116">
+      <c r="Q59" s="117">
         <v>0.134603592253576</v>
       </c>
-      <c r="R59" t="s" s="146">
+      <c r="R59" t="s" s="149">
         <v>10</v>
       </c>
-      <c r="S59" s="146"/>
-      <c r="T59" s="146"/>
-      <c r="U59" s="146"/>
-      <c r="V59" s="146"/>
-      <c r="W59" s="146"/>
+      <c r="S59" s="149"/>
+      <c r="T59" s="149"/>
+      <c r="U59" s="149"/>
+      <c r="V59" s="149"/>
+      <c r="W59" s="149"/>
     </row>
     <row r="60" ht="13.5" customHeight="1">
-      <c r="A60" s="129">
+      <c r="A60" s="133">
         <v>-1</v>
       </c>
       <c r="B60" s="84"/>
-      <c r="C60" t="s" s="142">
+      <c r="C60" t="s" s="145">
         <v>188</v>
       </c>
-      <c r="D60" t="s" s="142">
+      <c r="D60" t="s" s="145">
         <v>192</v>
       </c>
       <c r="E60" s="39"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="40"/>
-      <c r="I60" s="143">
+      <c r="I60" s="146">
         <v>310748</v>
       </c>
       <c r="J60" s="84"/>
-      <c r="K60" s="143">
+      <c r="K60" s="146">
         <v>300000</v>
       </c>
-      <c r="L60" s="144"/>
+      <c r="L60" s="147"/>
       <c r="M60" s="11"/>
       <c r="N60" s="40"/>
-      <c r="O60" s="145">
+      <c r="O60" s="148">
         <v>1.03582666666667</v>
       </c>
       <c r="P60" s="84"/>
-      <c r="Q60" s="116">
+      <c r="Q60" s="117">
         <v>0.255907755356082</v>
       </c>
-      <c r="R60" t="s" s="146">
+      <c r="R60" t="s" s="149">
         <v>10</v>
       </c>
-      <c r="S60" s="146"/>
-      <c r="T60" s="146"/>
-      <c r="U60" s="146"/>
-      <c r="V60" s="146"/>
-      <c r="W60" s="146"/>
+      <c r="S60" s="149"/>
+      <c r="T60" s="149"/>
+      <c r="U60" s="149"/>
+      <c r="V60" s="149"/>
+      <c r="W60" s="149"/>
     </row>
     <row r="61" ht="13.5" customHeight="1">
-      <c r="A61" s="129">
+      <c r="A61" s="133">
         <v>-1</v>
       </c>
       <c r="B61" s="84"/>
-      <c r="C61" t="s" s="142">
+      <c r="C61" t="s" s="145">
         <v>188</v>
       </c>
-      <c r="D61" t="s" s="142">
+      <c r="D61" t="s" s="145">
         <v>193</v>
       </c>
       <c r="E61" s="39"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="40"/>
-      <c r="I61" s="143">
+      <c r="I61" s="146">
         <v>806400</v>
       </c>
       <c r="J61" s="84"/>
-      <c r="K61" s="143">
+      <c r="K61" s="146">
         <v>685000</v>
       </c>
-      <c r="L61" s="144"/>
+      <c r="L61" s="147"/>
       <c r="M61" s="11"/>
       <c r="N61" s="40"/>
-      <c r="O61" s="145">
+      <c r="O61" s="148">
         <v>1.17722627737226</v>
       </c>
       <c r="P61" s="84"/>
-      <c r="Q61" s="116">
+      <c r="Q61" s="117">
         <v>0.337076173879594</v>
       </c>
-      <c r="R61" t="s" s="146">
+      <c r="R61" t="s" s="149">
         <v>10</v>
       </c>
-      <c r="S61" s="146"/>
-      <c r="T61" s="146"/>
-      <c r="U61" s="146"/>
-      <c r="V61" s="146"/>
-      <c r="W61" s="146"/>
+      <c r="S61" s="149"/>
+      <c r="T61" s="149"/>
+      <c r="U61" s="149"/>
+      <c r="V61" s="149"/>
+      <c r="W61" s="149"/>
     </row>
     <row r="62" ht="13.5" customHeight="1">
-      <c r="A62" s="112">
+      <c r="A62" s="113">
         <v>-4</v>
       </c>
       <c r="B62" s="84"/>
-      <c r="C62" t="s" s="147">
+      <c r="C62" t="s" s="150">
         <v>194</v>
       </c>
-      <c r="D62" s="148"/>
+      <c r="D62" s="151"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="40"/>
-      <c r="I62" s="149">
+      <c r="I62" s="152">
         <v>4098598</v>
       </c>
       <c r="J62" s="84"/>
-      <c r="K62" s="149">
+      <c r="K62" s="152">
         <v>3980000</v>
       </c>
-      <c r="L62" s="150"/>
+      <c r="L62" s="153"/>
       <c r="M62" s="11"/>
       <c r="N62" s="40"/>
-      <c r="O62" s="151">
+      <c r="O62" s="154">
         <v>1.02979849246231</v>
       </c>
       <c r="P62" s="84"/>
-      <c r="Q62" s="149">
+      <c r="Q62" s="152">
         <v>0.132072104234243</v>
       </c>
-      <c r="R62" t="s" s="147">
+      <c r="R62" t="s" s="150">
         <v>8</v>
       </c>
-      <c r="S62" s="147"/>
-      <c r="T62" s="147"/>
-      <c r="U62" s="147"/>
-      <c r="V62" s="147"/>
-      <c r="W62" s="147"/>
+      <c r="S62" s="150"/>
+      <c r="T62" s="150"/>
+      <c r="U62" s="150"/>
+      <c r="V62" s="150"/>
+      <c r="W62" s="150"/>
     </row>
     <row r="63" ht="13.5" customHeight="1">
-      <c r="A63" s="112">
+      <c r="A63" s="113">
         <v>-4</v>
       </c>
       <c r="B63" s="84"/>
-      <c r="C63" t="s" s="147">
+      <c r="C63" t="s" s="150">
         <v>195</v>
       </c>
       <c r="D63" s="39"/>
@@ -10493,38 +10558,38 @@
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="40"/>
-      <c r="I63" s="149">
+      <c r="I63" s="152">
         <v>728487</v>
       </c>
       <c r="J63" s="84"/>
-      <c r="K63" s="149">
+      <c r="K63" s="152">
         <v>655000</v>
       </c>
-      <c r="L63" s="150"/>
+      <c r="L63" s="153"/>
       <c r="M63" s="11"/>
       <c r="N63" s="40"/>
-      <c r="O63" s="151">
+      <c r="O63" s="154">
         <v>1.11219389312977</v>
       </c>
       <c r="P63" s="84"/>
-      <c r="Q63" s="149">
+      <c r="Q63" s="152">
         <v>0.277815753907202</v>
       </c>
-      <c r="R63" t="s" s="147">
+      <c r="R63" t="s" s="150">
         <v>8</v>
       </c>
-      <c r="S63" s="147"/>
-      <c r="T63" s="147"/>
-      <c r="U63" s="147"/>
-      <c r="V63" s="147"/>
-      <c r="W63" s="147"/>
+      <c r="S63" s="150"/>
+      <c r="T63" s="150"/>
+      <c r="U63" s="150"/>
+      <c r="V63" s="150"/>
+      <c r="W63" s="150"/>
     </row>
     <row r="64" ht="13.5" customHeight="1">
-      <c r="A64" s="112">
+      <c r="A64" s="113">
         <v>-4</v>
       </c>
       <c r="B64" s="84"/>
-      <c r="C64" t="s" s="147">
+      <c r="C64" t="s" s="150">
         <v>196</v>
       </c>
       <c r="D64" s="39"/>
@@ -10532,38 +10597,38 @@
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
       <c r="H64" s="40"/>
-      <c r="I64" s="149">
+      <c r="I64" s="152">
         <v>2576862</v>
       </c>
       <c r="J64" s="84"/>
-      <c r="K64" s="149">
+      <c r="K64" s="152">
         <v>2610000</v>
       </c>
-      <c r="L64" s="150"/>
+      <c r="L64" s="153"/>
       <c r="M64" s="11"/>
       <c r="N64" s="40"/>
-      <c r="O64" s="151">
+      <c r="O64" s="154">
         <v>0.987303448275862</v>
       </c>
       <c r="P64" s="84"/>
-      <c r="Q64" s="149">
+      <c r="Q64" s="152">
         <v>0.09925064051998669</v>
       </c>
-      <c r="R64" t="s" s="147">
+      <c r="R64" t="s" s="150">
         <v>8</v>
       </c>
-      <c r="S64" s="147"/>
-      <c r="T64" s="147"/>
-      <c r="U64" s="147"/>
-      <c r="V64" s="147"/>
-      <c r="W64" s="147"/>
+      <c r="S64" s="150"/>
+      <c r="T64" s="150"/>
+      <c r="U64" s="150"/>
+      <c r="V64" s="150"/>
+      <c r="W64" s="150"/>
     </row>
     <row r="65" ht="13.5" customHeight="1">
-      <c r="A65" s="112">
+      <c r="A65" s="113">
         <v>-3</v>
       </c>
       <c r="B65" s="84"/>
-      <c r="C65" t="s" s="147">
+      <c r="C65" t="s" s="150">
         <v>194</v>
       </c>
       <c r="D65" s="39"/>
@@ -10571,38 +10636,38 @@
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="40"/>
-      <c r="I65" s="149">
+      <c r="I65" s="152">
         <v>3188812</v>
       </c>
       <c r="J65" s="84"/>
-      <c r="K65" s="149">
+      <c r="K65" s="152">
         <v>3565000</v>
       </c>
-      <c r="L65" s="150"/>
+      <c r="L65" s="153"/>
       <c r="M65" s="11"/>
       <c r="N65" s="40"/>
-      <c r="O65" s="151">
+      <c r="O65" s="154">
         <v>0.894477419354839</v>
       </c>
       <c r="P65" s="84"/>
-      <c r="Q65" s="149">
+      <c r="Q65" s="152">
         <v>-0.221974928987912</v>
       </c>
-      <c r="R65" t="s" s="147">
+      <c r="R65" t="s" s="150">
         <v>8</v>
       </c>
-      <c r="S65" s="147"/>
-      <c r="T65" s="147"/>
-      <c r="U65" s="147"/>
-      <c r="V65" s="147"/>
-      <c r="W65" s="147"/>
+      <c r="S65" s="150"/>
+      <c r="T65" s="150"/>
+      <c r="U65" s="150"/>
+      <c r="V65" s="150"/>
+      <c r="W65" s="150"/>
     </row>
     <row r="66" ht="13.5" customHeight="1">
-      <c r="A66" s="112">
+      <c r="A66" s="113">
         <v>-3</v>
       </c>
       <c r="B66" s="84"/>
-      <c r="C66" t="s" s="147">
+      <c r="C66" t="s" s="150">
         <v>195</v>
       </c>
       <c r="D66" s="39"/>
@@ -10610,38 +10675,38 @@
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="40"/>
-      <c r="I66" s="149">
+      <c r="I66" s="152">
         <v>560064</v>
       </c>
       <c r="J66" s="84"/>
-      <c r="K66" s="149">
+      <c r="K66" s="152">
         <v>615000</v>
       </c>
-      <c r="L66" s="150"/>
+      <c r="L66" s="153"/>
       <c r="M66" s="11"/>
       <c r="N66" s="40"/>
-      <c r="O66" s="151">
+      <c r="O66" s="154">
         <v>0.9106731707317069</v>
       </c>
       <c r="P66" s="84"/>
-      <c r="Q66" s="149">
+      <c r="Q66" s="152">
         <v>-0.23119561502127</v>
       </c>
-      <c r="R66" t="s" s="147">
+      <c r="R66" t="s" s="150">
         <v>8</v>
       </c>
-      <c r="S66" s="147"/>
-      <c r="T66" s="147"/>
-      <c r="U66" s="147"/>
-      <c r="V66" s="147"/>
-      <c r="W66" s="147"/>
+      <c r="S66" s="150"/>
+      <c r="T66" s="150"/>
+      <c r="U66" s="150"/>
+      <c r="V66" s="150"/>
+      <c r="W66" s="150"/>
     </row>
     <row r="67" ht="13.5" customHeight="1">
-      <c r="A67" s="112">
+      <c r="A67" s="113">
         <v>-3</v>
       </c>
       <c r="B67" s="84"/>
-      <c r="C67" t="s" s="147">
+      <c r="C67" t="s" s="150">
         <v>196</v>
       </c>
       <c r="D67" s="39"/>
@@ -10649,38 +10714,38 @@
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="40"/>
-      <c r="I67" s="149">
+      <c r="I67" s="152">
         <v>2293022</v>
       </c>
       <c r="J67" s="84"/>
-      <c r="K67" s="149">
+      <c r="K67" s="152">
         <v>2365000</v>
       </c>
-      <c r="L67" s="150"/>
+      <c r="L67" s="153"/>
       <c r="M67" s="11"/>
       <c r="N67" s="40"/>
-      <c r="O67" s="151">
+      <c r="O67" s="154">
         <v>0.96956532769556</v>
       </c>
       <c r="P67" s="84"/>
-      <c r="Q67" s="149">
+      <c r="Q67" s="152">
         <v>-0.110149476378634</v>
       </c>
-      <c r="R67" t="s" s="147">
+      <c r="R67" t="s" s="150">
         <v>8</v>
       </c>
-      <c r="S67" s="147"/>
-      <c r="T67" s="147"/>
-      <c r="U67" s="147"/>
-      <c r="V67" s="147"/>
-      <c r="W67" s="147"/>
+      <c r="S67" s="150"/>
+      <c r="T67" s="150"/>
+      <c r="U67" s="150"/>
+      <c r="V67" s="150"/>
+      <c r="W67" s="150"/>
     </row>
     <row r="68" ht="13.5" customHeight="1">
-      <c r="A68" s="112">
+      <c r="A68" s="113">
         <v>-2</v>
       </c>
       <c r="B68" s="84"/>
-      <c r="C68" t="s" s="147">
+      <c r="C68" t="s" s="150">
         <v>194</v>
       </c>
       <c r="D68" s="39"/>
@@ -10688,38 +10753,38 @@
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
       <c r="H68" s="40"/>
-      <c r="I68" s="149">
+      <c r="I68" s="152">
         <v>3092857</v>
       </c>
       <c r="J68" s="84"/>
-      <c r="K68" s="149">
+      <c r="K68" s="152">
         <v>3285000</v>
       </c>
-      <c r="L68" s="150"/>
+      <c r="L68" s="153"/>
       <c r="M68" s="11"/>
       <c r="N68" s="40"/>
-      <c r="O68" s="151">
+      <c r="O68" s="154">
         <v>0.94150898021309</v>
       </c>
       <c r="P68" s="84"/>
-      <c r="Q68" s="149">
+      <c r="Q68" s="152">
         <v>-0.0300911436610248</v>
       </c>
-      <c r="R68" t="s" s="147">
+      <c r="R68" t="s" s="150">
         <v>8</v>
       </c>
-      <c r="S68" s="147"/>
-      <c r="T68" s="147"/>
-      <c r="U68" s="147"/>
-      <c r="V68" s="147"/>
-      <c r="W68" s="147"/>
+      <c r="S68" s="150"/>
+      <c r="T68" s="150"/>
+      <c r="U68" s="150"/>
+      <c r="V68" s="150"/>
+      <c r="W68" s="150"/>
     </row>
     <row r="69" ht="13.5" customHeight="1">
-      <c r="A69" s="112">
+      <c r="A69" s="113">
         <v>-2</v>
       </c>
       <c r="B69" s="84"/>
-      <c r="C69" t="s" s="147">
+      <c r="C69" t="s" s="150">
         <v>195</v>
       </c>
       <c r="D69" s="39"/>
@@ -10727,38 +10792,38 @@
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="40"/>
-      <c r="I69" s="149">
+      <c r="I69" s="152">
         <v>792494</v>
       </c>
       <c r="J69" s="84"/>
-      <c r="K69" s="149">
+      <c r="K69" s="152">
         <v>615000</v>
       </c>
-      <c r="L69" s="150"/>
+      <c r="L69" s="153"/>
       <c r="M69" s="11"/>
       <c r="N69" s="40"/>
-      <c r="O69" s="151">
+      <c r="O69" s="154">
         <v>1.2886081300813</v>
       </c>
       <c r="P69" s="84"/>
-      <c r="Q69" s="149">
+      <c r="Q69" s="152">
         <v>0.415006142155182</v>
       </c>
-      <c r="R69" t="s" s="147">
+      <c r="R69" t="s" s="150">
         <v>8</v>
       </c>
-      <c r="S69" s="147"/>
-      <c r="T69" s="147"/>
-      <c r="U69" s="147"/>
-      <c r="V69" s="147"/>
-      <c r="W69" s="147"/>
+      <c r="S69" s="150"/>
+      <c r="T69" s="150"/>
+      <c r="U69" s="150"/>
+      <c r="V69" s="150"/>
+      <c r="W69" s="150"/>
     </row>
     <row r="70" ht="13.5" customHeight="1">
-      <c r="A70" s="112">
+      <c r="A70" s="113">
         <v>-2</v>
       </c>
       <c r="B70" s="84"/>
-      <c r="C70" t="s" s="147">
+      <c r="C70" t="s" s="150">
         <v>196</v>
       </c>
       <c r="D70" s="39"/>
@@ -10766,38 +10831,38 @@
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="40"/>
-      <c r="I70" s="149">
+      <c r="I70" s="152">
         <v>2263056</v>
       </c>
       <c r="J70" s="84"/>
-      <c r="K70" s="149">
+      <c r="K70" s="152">
         <v>2345000</v>
       </c>
-      <c r="L70" s="150"/>
+      <c r="L70" s="153"/>
       <c r="M70" s="11"/>
       <c r="N70" s="40"/>
-      <c r="O70" s="151">
+      <c r="O70" s="154">
         <v>0.9650558635394459</v>
       </c>
       <c r="P70" s="84"/>
-      <c r="Q70" s="149">
+      <c r="Q70" s="152">
         <v>-0.0130683438711011</v>
       </c>
-      <c r="R70" t="s" s="147">
+      <c r="R70" t="s" s="150">
         <v>8</v>
       </c>
-      <c r="S70" s="147"/>
-      <c r="T70" s="147"/>
-      <c r="U70" s="147"/>
-      <c r="V70" s="147"/>
-      <c r="W70" s="147"/>
+      <c r="S70" s="150"/>
+      <c r="T70" s="150"/>
+      <c r="U70" s="150"/>
+      <c r="V70" s="150"/>
+      <c r="W70" s="150"/>
     </row>
     <row r="71" ht="13.5" customHeight="1">
-      <c r="A71" s="129">
+      <c r="A71" s="133">
         <v>-1</v>
       </c>
       <c r="B71" s="84"/>
-      <c r="C71" t="s" s="147">
+      <c r="C71" t="s" s="150">
         <v>194</v>
       </c>
       <c r="D71" s="39"/>
@@ -10805,38 +10870,38 @@
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="40"/>
-      <c r="I71" s="149">
+      <c r="I71" s="152">
         <v>3553219</v>
       </c>
       <c r="J71" s="84"/>
-      <c r="K71" s="149">
+      <c r="K71" s="152">
         <v>3350000</v>
       </c>
-      <c r="L71" s="150"/>
+      <c r="L71" s="153"/>
       <c r="M71" s="11"/>
       <c r="N71" s="40"/>
-      <c r="O71" s="151">
+      <c r="O71" s="154">
         <v>1.0606623880597</v>
       </c>
       <c r="P71" s="84"/>
-      <c r="Q71" s="149">
+      <c r="Q71" s="152">
         <v>0.148846842902856</v>
       </c>
-      <c r="R71" t="s" s="147">
+      <c r="R71" t="s" s="150">
         <v>8</v>
       </c>
-      <c r="S71" s="147"/>
-      <c r="T71" s="147"/>
-      <c r="U71" s="147"/>
-      <c r="V71" s="147"/>
-      <c r="W71" s="147"/>
+      <c r="S71" s="150"/>
+      <c r="T71" s="150"/>
+      <c r="U71" s="150"/>
+      <c r="V71" s="150"/>
+      <c r="W71" s="150"/>
     </row>
     <row r="72" ht="13.5" customHeight="1">
-      <c r="A72" s="129">
+      <c r="A72" s="133">
         <v>-1</v>
       </c>
       <c r="B72" s="84"/>
-      <c r="C72" t="s" s="147">
+      <c r="C72" t="s" s="150">
         <v>195</v>
       </c>
       <c r="D72" s="39"/>
@@ -10844,70 +10909,70 @@
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
       <c r="H72" s="40"/>
-      <c r="I72" s="149">
+      <c r="I72" s="152">
         <v>2475498</v>
       </c>
       <c r="J72" s="84"/>
-      <c r="K72" s="149">
+      <c r="K72" s="152">
         <v>2035000</v>
       </c>
-      <c r="L72" s="150"/>
+      <c r="L72" s="153"/>
       <c r="M72" s="11"/>
       <c r="N72" s="40"/>
-      <c r="O72" s="151">
+      <c r="O72" s="154">
         <v>1.21646093366093</v>
       </c>
       <c r="P72" s="84"/>
-      <c r="Q72" s="149">
+      <c r="Q72" s="152">
         <v>2.12368043164996</v>
       </c>
-      <c r="R72" t="s" s="147">
+      <c r="R72" t="s" s="150">
         <v>8</v>
       </c>
-      <c r="S72" s="147"/>
-      <c r="T72" s="147"/>
-      <c r="U72" s="147"/>
-      <c r="V72" s="147"/>
-      <c r="W72" s="147"/>
+      <c r="S72" s="150"/>
+      <c r="T72" s="150"/>
+      <c r="U72" s="150"/>
+      <c r="V72" s="150"/>
+      <c r="W72" s="150"/>
     </row>
     <row r="73" ht="13.5" customHeight="1">
-      <c r="A73" s="129">
+      <c r="A73" s="133">
         <v>-1</v>
       </c>
-      <c r="B73" s="152"/>
-      <c r="C73" t="s" s="147">
+      <c r="B73" s="126"/>
+      <c r="C73" t="s" s="150">
         <v>196</v>
       </c>
-      <c r="D73" s="153"/>
+      <c r="D73" s="155"/>
       <c r="E73" s="70"/>
       <c r="F73" s="70"/>
       <c r="G73" s="70"/>
-      <c r="H73" s="154"/>
-      <c r="I73" s="149">
+      <c r="H73" s="156"/>
+      <c r="I73" s="152">
         <v>860533</v>
       </c>
-      <c r="J73" s="152"/>
-      <c r="K73" s="149">
+      <c r="J73" s="126"/>
+      <c r="K73" s="152">
         <v>1135000</v>
       </c>
-      <c r="L73" s="155"/>
+      <c r="L73" s="157"/>
       <c r="M73" s="70"/>
-      <c r="N73" s="154"/>
-      <c r="O73" s="151">
+      <c r="N73" s="156"/>
+      <c r="O73" s="154">
         <v>0.758178854625551</v>
       </c>
-      <c r="P73" s="152"/>
-      <c r="Q73" s="149">
+      <c r="P73" s="126"/>
+      <c r="Q73" s="152">
         <v>-0.619747368160576</v>
       </c>
-      <c r="R73" t="s" s="147">
+      <c r="R73" t="s" s="150">
         <v>8</v>
       </c>
-      <c r="S73" s="147"/>
-      <c r="T73" s="147"/>
-      <c r="U73" s="147"/>
-      <c r="V73" s="147"/>
-      <c r="W73" s="147"/>
+      <c r="S73" s="150"/>
+      <c r="T73" s="150"/>
+      <c r="U73" s="150"/>
+      <c r="V73" s="150"/>
+      <c r="W73" s="150"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10929,8 +10994,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="156" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="156" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="158" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="158" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -10946,78 +11011,78 @@
       <c r="D1" t="s" s="27">
         <v>198</v>
       </c>
-      <c r="E1" s="157"/>
+      <c r="E1" s="159"/>
     </row>
     <row r="2" ht="36" customHeight="1">
-      <c r="A2" t="s" s="158">
+      <c r="A2" t="s" s="160">
         <v>199</v>
       </c>
-      <c r="B2" t="s" s="159">
+      <c r="B2" t="s" s="161">
         <v>200</v>
       </c>
       <c r="C2" s="102">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="159">
+      <c r="D2" t="s" s="161">
         <v>201</v>
       </c>
-      <c r="E2" s="160"/>
+      <c r="E2" s="162"/>
     </row>
     <row r="3" ht="20.1" customHeight="1">
       <c r="A3" s="107"/>
       <c r="B3" s="98"/>
       <c r="C3" s="98"/>
       <c r="D3" s="98"/>
-      <c r="E3" s="160"/>
+      <c r="E3" s="162"/>
     </row>
     <row r="4" ht="20.1" customHeight="1">
       <c r="A4" s="107"/>
       <c r="B4" s="98"/>
       <c r="C4" s="98"/>
       <c r="D4" s="98"/>
-      <c r="E4" s="160"/>
+      <c r="E4" s="162"/>
     </row>
     <row r="5" ht="20.1" customHeight="1">
       <c r="A5" s="107"/>
       <c r="B5" s="98"/>
       <c r="C5" s="98"/>
       <c r="D5" s="98"/>
-      <c r="E5" s="160"/>
+      <c r="E5" s="162"/>
     </row>
     <row r="6" ht="20.1" customHeight="1">
       <c r="A6" s="107"/>
       <c r="B6" s="98"/>
       <c r="C6" s="98"/>
       <c r="D6" s="98"/>
-      <c r="E6" s="160"/>
+      <c r="E6" s="162"/>
     </row>
     <row r="7" ht="20.1" customHeight="1">
       <c r="A7" s="107"/>
       <c r="B7" s="98"/>
       <c r="C7" s="98"/>
       <c r="D7" s="98"/>
-      <c r="E7" s="160"/>
+      <c r="E7" s="162"/>
     </row>
     <row r="8" ht="20.1" customHeight="1">
       <c r="A8" s="107"/>
       <c r="B8" s="98"/>
       <c r="C8" s="98"/>
       <c r="D8" s="98"/>
-      <c r="E8" s="160"/>
+      <c r="E8" s="162"/>
     </row>
     <row r="9" ht="20.1" customHeight="1">
       <c r="A9" s="107"/>
       <c r="B9" s="98"/>
       <c r="C9" s="98"/>
       <c r="D9" s="98"/>
-      <c r="E9" s="160"/>
+      <c r="E9" s="162"/>
     </row>
     <row r="10" ht="20.1" customHeight="1">
       <c r="A10" s="107"/>
       <c r="B10" s="98"/>
       <c r="C10" s="98"/>
       <c r="D10" s="98"/>
-      <c r="E10" s="161"/>
+      <c r="E10" s="163"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -11036,11 +11101,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13" style="162" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="162" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="162" customWidth="1"/>
-    <col min="4" max="6" width="8.85156" style="162" customWidth="1"/>
-    <col min="7" max="256" width="8.85156" style="162" customWidth="1"/>
+    <col min="1" max="1" width="13" style="164" customWidth="1"/>
+    <col min="2" max="2" width="8.85156" style="164" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="164" customWidth="1"/>
+    <col min="4" max="6" width="8.85156" style="164" customWidth="1"/>
+    <col min="7" max="256" width="8.85156" style="164" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1">
@@ -11064,308 +11129,308 @@
       </c>
     </row>
     <row r="2" ht="14.65" customHeight="1">
-      <c r="A2" t="s" s="163">
+      <c r="A2" t="s" s="165">
         <v>206</v>
       </c>
-      <c r="B2" t="s" s="164">
+      <c r="B2" t="s" s="166">
         <v>207</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
     </row>
     <row r="3" ht="14.65" customHeight="1">
-      <c r="A3" t="s" s="163">
+      <c r="A3" t="s" s="165">
         <v>206</v>
       </c>
-      <c r="B3" t="s" s="166">
+      <c r="B3" t="s" s="168">
         <v>208</v>
       </c>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
     </row>
     <row r="4" ht="14.65" customHeight="1">
-      <c r="A4" t="s" s="164">
+      <c r="A4" t="s" s="166">
         <v>206</v>
       </c>
-      <c r="B4" t="s" s="166">
+      <c r="B4" t="s" s="168">
         <v>209</v>
       </c>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
     </row>
     <row r="5" ht="50.65" customHeight="1">
-      <c r="A5" t="s" s="166">
+      <c r="A5" t="s" s="168">
         <v>210</v>
       </c>
-      <c r="B5" t="s" s="166">
+      <c r="B5" t="s" s="168">
         <v>211</v>
       </c>
-      <c r="C5" t="s" s="169">
+      <c r="C5" t="s" s="171">
         <v>212</v>
       </c>
-      <c r="D5" s="170"/>
-      <c r="E5" t="s" s="171">
+      <c r="D5" s="172"/>
+      <c r="E5" t="s" s="173">
         <v>213</v>
       </c>
-      <c r="F5" t="s" s="172">
+      <c r="F5" t="s" s="174">
         <v>214</v>
       </c>
     </row>
     <row r="6" ht="50.65" customHeight="1">
-      <c r="A6" t="s" s="166">
+      <c r="A6" t="s" s="168">
         <v>210</v>
       </c>
-      <c r="B6" t="s" s="166">
+      <c r="B6" t="s" s="168">
         <v>215</v>
       </c>
-      <c r="C6" t="s" s="169">
+      <c r="C6" t="s" s="171">
         <v>212</v>
       </c>
-      <c r="D6" s="170"/>
-      <c r="E6" t="s" s="171">
+      <c r="D6" s="172"/>
+      <c r="E6" t="s" s="173">
         <v>216</v>
       </c>
-      <c r="F6" t="s" s="172">
+      <c r="F6" t="s" s="174">
         <v>217</v>
       </c>
     </row>
     <row r="7" ht="50.65" customHeight="1">
-      <c r="A7" t="s" s="166">
+      <c r="A7" t="s" s="168">
         <v>210</v>
       </c>
-      <c r="B7" t="s" s="166">
+      <c r="B7" t="s" s="168">
         <v>218</v>
       </c>
-      <c r="C7" t="s" s="169">
+      <c r="C7" t="s" s="171">
         <v>212</v>
       </c>
-      <c r="D7" s="170"/>
-      <c r="E7" t="s" s="171">
+      <c r="D7" s="172"/>
+      <c r="E7" t="s" s="173">
         <v>219</v>
       </c>
-      <c r="F7" t="s" s="172">
+      <c r="F7" t="s" s="174">
         <v>220</v>
       </c>
     </row>
     <row r="8" ht="50.65" customHeight="1">
-      <c r="A8" t="s" s="166">
+      <c r="A8" t="s" s="168">
         <v>221</v>
       </c>
-      <c r="B8" t="s" s="166">
+      <c r="B8" t="s" s="168">
         <v>211</v>
       </c>
-      <c r="C8" t="s" s="169">
+      <c r="C8" t="s" s="171">
         <v>222</v>
       </c>
-      <c r="D8" s="170"/>
-      <c r="E8" t="s" s="171">
+      <c r="D8" s="172"/>
+      <c r="E8" t="s" s="173">
         <v>223</v>
       </c>
-      <c r="F8" t="s" s="173">
+      <c r="F8" t="s" s="175">
         <v>224</v>
       </c>
     </row>
     <row r="9" ht="50.65" customHeight="1">
-      <c r="A9" t="s" s="166">
+      <c r="A9" t="s" s="168">
         <v>221</v>
       </c>
-      <c r="B9" t="s" s="166">
+      <c r="B9" t="s" s="168">
         <v>215</v>
       </c>
-      <c r="C9" t="s" s="169">
+      <c r="C9" t="s" s="171">
         <v>222</v>
       </c>
-      <c r="D9" s="170"/>
-      <c r="E9" t="s" s="171">
+      <c r="D9" s="172"/>
+      <c r="E9" t="s" s="173">
         <v>225</v>
       </c>
-      <c r="F9" t="s" s="174">
+      <c r="F9" t="s" s="176">
         <v>226</v>
       </c>
     </row>
     <row r="10" ht="50.65" customHeight="1">
-      <c r="A10" t="s" s="166">
+      <c r="A10" t="s" s="168">
         <v>221</v>
       </c>
-      <c r="B10" t="s" s="166">
+      <c r="B10" t="s" s="168">
         <v>218</v>
       </c>
-      <c r="C10" t="s" s="169">
+      <c r="C10" t="s" s="171">
         <v>222</v>
       </c>
-      <c r="D10" s="170"/>
-      <c r="E10" t="s" s="171">
+      <c r="D10" s="172"/>
+      <c r="E10" t="s" s="173">
         <v>227</v>
       </c>
-      <c r="F10" t="s" s="174">
+      <c r="F10" t="s" s="176">
         <v>228</v>
       </c>
     </row>
     <row r="11" ht="38.65" customHeight="1">
-      <c r="A11" t="s" s="166">
+      <c r="A11" t="s" s="168">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="166">
+      <c r="B11" t="s" s="168">
         <v>211</v>
       </c>
-      <c r="C11" t="s" s="169">
+      <c r="C11" t="s" s="171">
         <v>229</v>
       </c>
-      <c r="D11" s="170"/>
-      <c r="E11" t="s" s="171">
+      <c r="D11" s="172"/>
+      <c r="E11" t="s" s="173">
         <v>230</v>
       </c>
-      <c r="F11" t="s" s="174">
+      <c r="F11" t="s" s="176">
         <v>231</v>
       </c>
     </row>
     <row r="12" ht="38.65" customHeight="1">
-      <c r="A12" t="s" s="166">
+      <c r="A12" t="s" s="168">
         <v>10</v>
       </c>
-      <c r="B12" t="s" s="166">
+      <c r="B12" t="s" s="168">
         <v>215</v>
       </c>
-      <c r="C12" t="s" s="169">
+      <c r="C12" t="s" s="171">
         <v>229</v>
       </c>
-      <c r="D12" s="170"/>
-      <c r="E12" t="s" s="171">
+      <c r="D12" s="172"/>
+      <c r="E12" t="s" s="173">
         <v>232</v>
       </c>
-      <c r="F12" t="s" s="174">
+      <c r="F12" t="s" s="176">
         <v>233</v>
       </c>
     </row>
     <row r="13" ht="38.65" customHeight="1">
-      <c r="A13" t="s" s="166">
+      <c r="A13" t="s" s="168">
         <v>10</v>
       </c>
-      <c r="B13" t="s" s="166">
+      <c r="B13" t="s" s="168">
         <v>218</v>
       </c>
-      <c r="C13" t="s" s="169">
+      <c r="C13" t="s" s="171">
         <v>229</v>
       </c>
-      <c r="D13" s="170"/>
-      <c r="E13" t="s" s="171">
+      <c r="D13" s="172"/>
+      <c r="E13" t="s" s="173">
         <v>234</v>
       </c>
-      <c r="F13" t="s" s="174">
+      <c r="F13" t="s" s="176">
         <v>235</v>
       </c>
     </row>
     <row r="14" ht="38.65" customHeight="1">
-      <c r="A14" t="s" s="166">
+      <c r="A14" t="s" s="168">
         <v>236</v>
       </c>
-      <c r="B14" t="s" s="166">
+      <c r="B14" t="s" s="168">
         <v>211</v>
       </c>
-      <c r="C14" t="s" s="169">
+      <c r="C14" t="s" s="171">
         <v>237</v>
       </c>
-      <c r="D14" s="170"/>
-      <c r="E14" t="s" s="171">
+      <c r="D14" s="172"/>
+      <c r="E14" t="s" s="173">
         <v>238</v>
       </c>
-      <c r="F14" t="s" s="174">
+      <c r="F14" t="s" s="176">
         <v>239</v>
       </c>
     </row>
     <row r="15" ht="38.65" customHeight="1">
-      <c r="A15" t="s" s="166">
+      <c r="A15" t="s" s="168">
         <v>236</v>
       </c>
-      <c r="B15" t="s" s="166">
+      <c r="B15" t="s" s="168">
         <v>215</v>
       </c>
-      <c r="C15" t="s" s="169">
+      <c r="C15" t="s" s="171">
         <v>237</v>
       </c>
-      <c r="D15" s="170"/>
-      <c r="E15" t="s" s="171">
+      <c r="D15" s="172"/>
+      <c r="E15" t="s" s="173">
         <v>240</v>
       </c>
-      <c r="F15" t="s" s="174">
+      <c r="F15" t="s" s="176">
         <v>241</v>
       </c>
     </row>
     <row r="16" ht="38.65" customHeight="1">
-      <c r="A16" t="s" s="166">
+      <c r="A16" t="s" s="168">
         <v>236</v>
       </c>
-      <c r="B16" t="s" s="166">
+      <c r="B16" t="s" s="168">
         <v>218</v>
       </c>
-      <c r="C16" t="s" s="169">
+      <c r="C16" t="s" s="171">
         <v>237</v>
       </c>
-      <c r="D16" s="170"/>
-      <c r="E16" t="s" s="171">
+      <c r="D16" s="172"/>
+      <c r="E16" t="s" s="173">
         <v>242</v>
       </c>
-      <c r="F16" t="s" s="174">
+      <c r="F16" t="s" s="176">
         <v>243</v>
       </c>
     </row>
     <row r="17" ht="50.65" customHeight="1">
-      <c r="A17" t="s" s="166">
+      <c r="A17" t="s" s="168">
         <v>244</v>
       </c>
-      <c r="B17" t="s" s="166">
+      <c r="B17" t="s" s="168">
         <v>211</v>
       </c>
-      <c r="C17" t="s" s="169">
+      <c r="C17" t="s" s="171">
         <v>245</v>
       </c>
-      <c r="D17" s="170"/>
-      <c r="E17" t="s" s="171">
+      <c r="D17" s="172"/>
+      <c r="E17" t="s" s="173">
         <v>246</v>
       </c>
-      <c r="F17" t="s" s="174">
+      <c r="F17" t="s" s="176">
         <v>247</v>
       </c>
     </row>
     <row r="18" ht="50.65" customHeight="1">
-      <c r="A18" t="s" s="166">
+      <c r="A18" t="s" s="168">
         <v>244</v>
       </c>
-      <c r="B18" t="s" s="166">
+      <c r="B18" t="s" s="168">
         <v>215</v>
       </c>
-      <c r="C18" t="s" s="169">
+      <c r="C18" t="s" s="171">
         <v>245</v>
       </c>
-      <c r="D18" s="170"/>
-      <c r="E18" t="s" s="171">
+      <c r="D18" s="172"/>
+      <c r="E18" t="s" s="173">
         <v>248</v>
       </c>
-      <c r="F18" t="s" s="174">
+      <c r="F18" t="s" s="176">
         <v>249</v>
       </c>
     </row>
     <row r="19" ht="50.65" customHeight="1">
-      <c r="A19" t="s" s="166">
+      <c r="A19" t="s" s="168">
         <v>244</v>
       </c>
-      <c r="B19" t="s" s="166">
+      <c r="B19" t="s" s="168">
         <v>218</v>
       </c>
-      <c r="C19" t="s" s="169">
+      <c r="C19" t="s" s="171">
         <v>245</v>
       </c>
-      <c r="D19" s="170"/>
-      <c r="E19" t="s" s="171">
+      <c r="D19" s="172"/>
+      <c r="E19" t="s" s="173">
         <v>250</v>
       </c>
-      <c r="F19" t="s" s="174">
+      <c r="F19" t="s" s="176">
         <v>251</v>
       </c>
     </row>

--- a/test/data/tm.xlsx
+++ b/test/data/tm.xlsx
@@ -10336,11 +10336,21 @@
       <c r="R57" t="s" s="149">
         <v>10</v>
       </c>
-      <c r="S57" s="149"/>
-      <c r="T57" s="149"/>
-      <c r="U57" s="149"/>
-      <c r="V57" s="149"/>
-      <c r="W57" s="149"/>
+      <c r="S57" s="91">
+        <v>7</v>
+      </c>
+      <c r="T57" s="91">
+        <v>8</v>
+      </c>
+      <c r="U57" s="91">
+        <v>7</v>
+      </c>
+      <c r="V57" s="91">
+        <v>9</v>
+      </c>
+      <c r="W57" s="91">
+        <v>4</v>
+      </c>
     </row>
     <row r="58" ht="13.5" customHeight="1">
       <c r="A58" s="133">
@@ -10377,11 +10387,21 @@
       <c r="R58" t="s" s="149">
         <v>10</v>
       </c>
-      <c r="S58" s="149"/>
-      <c r="T58" s="149"/>
-      <c r="U58" s="149"/>
-      <c r="V58" s="149"/>
-      <c r="W58" s="149"/>
+      <c r="S58" s="91">
+        <v>9</v>
+      </c>
+      <c r="T58" s="91">
+        <v>8</v>
+      </c>
+      <c r="U58" s="91">
+        <v>8</v>
+      </c>
+      <c r="V58" s="91">
+        <v>8</v>
+      </c>
+      <c r="W58" s="91">
+        <v>7</v>
+      </c>
     </row>
     <row r="59" ht="13.5" customHeight="1">
       <c r="A59" s="133">
@@ -10418,11 +10438,21 @@
       <c r="R59" t="s" s="149">
         <v>10</v>
       </c>
-      <c r="S59" s="149"/>
-      <c r="T59" s="149"/>
-      <c r="U59" s="149"/>
-      <c r="V59" s="149"/>
-      <c r="W59" s="149"/>
+      <c r="S59" s="91">
+        <v>4</v>
+      </c>
+      <c r="T59" s="91">
+        <v>5</v>
+      </c>
+      <c r="U59" s="91">
+        <v>7</v>
+      </c>
+      <c r="V59" s="91">
+        <v>7</v>
+      </c>
+      <c r="W59" s="91">
+        <v>8</v>
+      </c>
     </row>
     <row r="60" ht="13.5" customHeight="1">
       <c r="A60" s="133">
@@ -10459,11 +10489,21 @@
       <c r="R60" t="s" s="149">
         <v>10</v>
       </c>
-      <c r="S60" s="149"/>
-      <c r="T60" s="149"/>
-      <c r="U60" s="149"/>
-      <c r="V60" s="149"/>
-      <c r="W60" s="149"/>
+      <c r="S60" s="91">
+        <v>5</v>
+      </c>
+      <c r="T60" s="91">
+        <v>6</v>
+      </c>
+      <c r="U60" s="91">
+        <v>4</v>
+      </c>
+      <c r="V60" s="91">
+        <v>6</v>
+      </c>
+      <c r="W60" s="91">
+        <v>9</v>
+      </c>
     </row>
     <row r="61" ht="13.5" customHeight="1">
       <c r="A61" s="133">
@@ -10500,11 +10540,21 @@
       <c r="R61" t="s" s="149">
         <v>10</v>
       </c>
-      <c r="S61" s="149"/>
-      <c r="T61" s="149"/>
-      <c r="U61" s="149"/>
-      <c r="V61" s="149"/>
-      <c r="W61" s="149"/>
+      <c r="S61" s="91">
+        <v>7</v>
+      </c>
+      <c r="T61" s="91">
+        <v>9</v>
+      </c>
+      <c r="U61" s="91">
+        <v>5</v>
+      </c>
+      <c r="V61" s="91">
+        <v>8</v>
+      </c>
+      <c r="W61" s="91">
+        <v>7</v>
+      </c>
     </row>
     <row r="62" ht="13.5" customHeight="1">
       <c r="A62" s="113">

--- a/test/data/tm.xlsx
+++ b/test/data/tm.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="251">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -608,6 +608,12 @@
   </si>
   <si>
     <t>lastShare</t>
+  </si>
+  <si>
+    <t>lastBudget</t>
+  </si>
+  <si>
+    <t>initBudget</t>
   </si>
   <si>
     <t>potential</t>
@@ -1274,7 +1280,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="81">
+  <borders count="79">
     <border>
       <left/>
       <right/>
@@ -1977,45 +1983,6 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
         <color indexed="8"/>
       </right>
       <top/>
@@ -2047,6 +2014,17 @@
       <top style="thin">
         <color indexed="13"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2300,7 +2278,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2631,178 +2609,172 @@
     <xf numFmtId="9" fontId="0" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="61" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="62" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="63" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="64" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="7" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="65" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="66" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="68" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="63" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="64" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="65" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="66" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="7" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="68" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="69" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="70" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="69" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="71" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="71" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="72" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="73" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="73" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="74" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="75" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="76" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="76" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="77" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="76" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="78" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="79" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="80" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4007,7 +3979,7 @@
     </row>
     <row r="19">
       <c r="B19" t="s" s="3">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -4018,12 +3990,12 @@
         <v>5</v>
       </c>
       <c r="D20" t="s" s="5">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s" s="3">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -4034,12 +4006,12 @@
         <v>5</v>
       </c>
       <c r="D22" t="s" s="5">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="s" s="3">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -4050,7 +4022,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="s" s="5">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5770,7 +5742,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -5778,15 +5750,15 @@
   <cols>
     <col min="1" max="2" width="26.8516" style="100" customWidth="1"/>
     <col min="3" max="3" width="19" style="100" customWidth="1"/>
-    <col min="4" max="9" width="16.3516" style="100" customWidth="1"/>
-    <col min="10" max="10" width="31.8516" style="100" customWidth="1"/>
-    <col min="11" max="12" width="16.3516" style="100" customWidth="1"/>
-    <col min="13" max="13" width="23.5" style="100" customWidth="1"/>
-    <col min="14" max="14" width="22.1719" style="100" customWidth="1"/>
-    <col min="15" max="17" width="16.3516" style="100" customWidth="1"/>
-    <col min="18" max="18" width="20" style="100" customWidth="1"/>
-    <col min="19" max="23" width="16.3516" style="100" customWidth="1"/>
-    <col min="24" max="256" width="16.3516" style="100" customWidth="1"/>
+    <col min="4" max="11" width="16.3516" style="100" customWidth="1"/>
+    <col min="12" max="12" width="31.8516" style="100" customWidth="1"/>
+    <col min="13" max="14" width="16.3516" style="100" customWidth="1"/>
+    <col min="15" max="15" width="23.5" style="100" customWidth="1"/>
+    <col min="16" max="16" width="22.1719" style="100" customWidth="1"/>
+    <col min="17" max="19" width="16.3516" style="100" customWidth="1"/>
+    <col min="20" max="20" width="20" style="100" customWidth="1"/>
+    <col min="21" max="25" width="16.3516" style="100" customWidth="1"/>
+    <col min="26" max="256" width="16.3516" style="100" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -5820,16 +5792,16 @@
       <c r="J1" t="s" s="7">
         <v>135</v>
       </c>
-      <c r="K1" t="s" s="101">
+      <c r="K1" t="s" s="7">
         <v>136</v>
       </c>
-      <c r="L1" t="s" s="101">
+      <c r="L1" t="s" s="7">
         <v>137</v>
       </c>
-      <c r="M1" t="s" s="7">
+      <c r="M1" t="s" s="101">
         <v>138</v>
       </c>
-      <c r="N1" t="s" s="7">
+      <c r="N1" t="s" s="101">
         <v>139</v>
       </c>
       <c r="O1" t="s" s="7">
@@ -5858,6 +5830,12 @@
       </c>
       <c r="W1" t="s" s="7">
         <v>148</v>
+      </c>
+      <c r="X1" t="s" s="7">
+        <v>149</v>
+      </c>
+      <c r="Y1" t="s" s="7">
+        <v>150</v>
       </c>
     </row>
     <row r="2" ht="19.9" customHeight="1">
@@ -5887,39 +5865,45 @@
       <c r="J2" s="102">
         <v>0</v>
       </c>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="80">
-        <v>7</v>
-      </c>
-      <c r="N2" s="80">
-        <v>8</v>
-      </c>
+      <c r="K2" s="102">
+        <v>0</v>
+      </c>
+      <c r="L2" s="102">
+        <v>0</v>
+      </c>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
       <c r="O2" s="80">
         <v>7</v>
       </c>
       <c r="P2" s="80">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="80">
+        <v>7</v>
+      </c>
+      <c r="R2" s="80">
         <v>9</v>
       </c>
-      <c r="Q2" s="80">
+      <c r="S2" s="80">
         <v>4</v>
       </c>
-      <c r="R2" s="80">
+      <c r="T2" s="80">
         <v>160</v>
       </c>
-      <c r="S2" s="80">
+      <c r="U2" s="80">
         <v>60</v>
       </c>
-      <c r="T2" s="80">
+      <c r="V2" s="80">
         <v>18</v>
       </c>
-      <c r="U2" s="80">
+      <c r="W2" s="80">
         <v>8</v>
       </c>
-      <c r="V2" s="80">
+      <c r="X2" s="80">
         <v>5</v>
       </c>
-      <c r="W2" s="105"/>
+      <c r="Y2" s="105"/>
     </row>
     <row r="3" ht="19.9" customHeight="1">
       <c r="A3" s="102">
@@ -5948,39 +5932,45 @@
       <c r="J3" s="102">
         <v>0</v>
       </c>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="80">
+      <c r="K3" s="102">
+        <v>0</v>
+      </c>
+      <c r="L3" s="102">
+        <v>0</v>
+      </c>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="80">
         <v>9</v>
-      </c>
-      <c r="N3" s="80">
-        <v>8</v>
-      </c>
-      <c r="O3" s="80">
-        <v>8</v>
       </c>
       <c r="P3" s="80">
         <v>8</v>
       </c>
       <c r="Q3" s="80">
+        <v>8</v>
+      </c>
+      <c r="R3" s="80">
+        <v>8</v>
+      </c>
+      <c r="S3" s="80">
         <v>7</v>
       </c>
-      <c r="R3" s="80">
+      <c r="T3" s="80">
         <v>155</v>
       </c>
-      <c r="S3" s="80">
+      <c r="U3" s="80">
         <v>60</v>
       </c>
-      <c r="T3" s="80">
+      <c r="V3" s="80">
         <v>23</v>
       </c>
-      <c r="U3" s="80">
+      <c r="W3" s="80">
         <v>12</v>
       </c>
-      <c r="V3" s="80">
+      <c r="X3" s="80">
         <v>10</v>
       </c>
-      <c r="W3" s="105"/>
+      <c r="Y3" s="105"/>
     </row>
     <row r="4" ht="19.9" customHeight="1">
       <c r="A4" s="102">
@@ -6009,39 +5999,45 @@
       <c r="J4" s="102">
         <v>0</v>
       </c>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="80">
+      <c r="K4" s="102">
+        <v>0</v>
+      </c>
+      <c r="L4" s="102">
+        <v>0</v>
+      </c>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="80">
         <v>4</v>
       </c>
-      <c r="N4" s="80">
+      <c r="P4" s="80">
         <v>5</v>
       </c>
-      <c r="O4" s="80">
+      <c r="Q4" s="80">
         <v>7</v>
       </c>
-      <c r="P4" s="80">
+      <c r="R4" s="80">
         <v>7</v>
       </c>
-      <c r="Q4" s="80">
+      <c r="S4" s="80">
         <v>8</v>
       </c>
-      <c r="R4" s="80">
+      <c r="T4" s="80">
         <v>130</v>
       </c>
-      <c r="S4" s="80">
+      <c r="U4" s="80">
         <v>50</v>
       </c>
-      <c r="T4" s="80">
+      <c r="V4" s="80">
         <v>18</v>
       </c>
-      <c r="U4" s="80">
+      <c r="W4" s="80">
         <v>10</v>
       </c>
-      <c r="V4" s="80">
+      <c r="X4" s="80">
         <v>10</v>
       </c>
-      <c r="W4" s="105"/>
+      <c r="Y4" s="105"/>
     </row>
     <row r="5" ht="19.9" customHeight="1">
       <c r="A5" s="102">
@@ -6070,39 +6066,45 @@
       <c r="J5" s="102">
         <v>0</v>
       </c>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="80">
+      <c r="K5" s="102">
+        <v>0</v>
+      </c>
+      <c r="L5" s="102">
+        <v>0</v>
+      </c>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="80">
         <v>5</v>
-      </c>
-      <c r="N5" s="80">
-        <v>6</v>
-      </c>
-      <c r="O5" s="80">
-        <v>4</v>
       </c>
       <c r="P5" s="80">
         <v>6</v>
       </c>
       <c r="Q5" s="80">
+        <v>4</v>
+      </c>
+      <c r="R5" s="80">
+        <v>6</v>
+      </c>
+      <c r="S5" s="80">
         <v>9</v>
       </c>
-      <c r="R5" s="80">
+      <c r="T5" s="80">
         <v>120</v>
       </c>
-      <c r="S5" s="80">
+      <c r="U5" s="80">
         <v>45</v>
       </c>
-      <c r="T5" s="80">
+      <c r="V5" s="80">
         <v>16</v>
       </c>
-      <c r="U5" s="80">
+      <c r="W5" s="80">
         <v>15</v>
       </c>
-      <c r="V5" s="80">
+      <c r="X5" s="80">
         <v>13</v>
       </c>
-      <c r="W5" s="105"/>
+      <c r="Y5" s="105"/>
     </row>
     <row r="6" ht="19.9" customHeight="1">
       <c r="A6" s="102">
@@ -6131,39 +6133,45 @@
       <c r="J6" s="102">
         <v>0</v>
       </c>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="80">
+      <c r="K6" s="102">
+        <v>0</v>
+      </c>
+      <c r="L6" s="102">
+        <v>0</v>
+      </c>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="80">
         <v>7</v>
       </c>
-      <c r="N6" s="80">
+      <c r="P6" s="80">
         <v>9</v>
       </c>
-      <c r="O6" s="80">
+      <c r="Q6" s="80">
         <v>5</v>
       </c>
-      <c r="P6" s="80">
+      <c r="R6" s="80">
         <v>8</v>
       </c>
-      <c r="Q6" s="80">
+      <c r="S6" s="80">
         <v>7</v>
       </c>
-      <c r="R6" s="80">
+      <c r="T6" s="80">
         <v>150</v>
       </c>
-      <c r="S6" s="80">
+      <c r="U6" s="80">
         <v>55</v>
       </c>
-      <c r="T6" s="80">
+      <c r="V6" s="80">
         <v>20</v>
       </c>
-      <c r="U6" s="80">
+      <c r="W6" s="80">
         <v>13</v>
       </c>
-      <c r="V6" s="80">
+      <c r="X6" s="80">
         <v>12</v>
       </c>
-      <c r="W6" s="105"/>
+      <c r="Y6" s="105"/>
     </row>
     <row r="7" ht="19.9" customHeight="1">
       <c r="A7" s="102">
@@ -6192,14 +6200,14 @@
       <c r="J7" s="102">
         <v>0</v>
       </c>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="102">
-        <v>0</v>
-      </c>
-      <c r="N7" s="102">
-        <v>0</v>
-      </c>
+      <c r="K7" s="102">
+        <v>0</v>
+      </c>
+      <c r="L7" s="102">
+        <v>0</v>
+      </c>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
       <c r="O7" s="102">
         <v>0</v>
       </c>
@@ -6224,7 +6232,13 @@
       <c r="V7" s="102">
         <v>0</v>
       </c>
-      <c r="W7" s="29"/>
+      <c r="W7" s="102">
+        <v>0</v>
+      </c>
+      <c r="X7" s="102">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="29"/>
     </row>
     <row r="8" ht="19.9" customHeight="1">
       <c r="A8" s="102">
@@ -6244,15 +6258,15 @@
       <c r="I8" s="102">
         <v>0.18</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="102">
-        <v>0</v>
-      </c>
-      <c r="N8" s="102">
-        <v>0</v>
-      </c>
+      <c r="J8" s="102">
+        <v>0</v>
+      </c>
+      <c r="K8" s="102">
+        <v>0</v>
+      </c>
+      <c r="L8" s="29"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
       <c r="O8" s="102">
         <v>0</v>
       </c>
@@ -6277,7 +6291,13 @@
       <c r="V8" s="102">
         <v>0</v>
       </c>
-      <c r="W8" s="29"/>
+      <c r="W8" s="102">
+        <v>0</v>
+      </c>
+      <c r="X8" s="102">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="29"/>
     </row>
     <row r="9" ht="19.9" customHeight="1">
       <c r="A9" s="102">
@@ -6297,15 +6317,15 @@
       <c r="I9" s="102">
         <v>0.06</v>
       </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="102">
-        <v>0</v>
-      </c>
-      <c r="N9" s="102">
-        <v>0</v>
-      </c>
+      <c r="J9" s="102">
+        <v>0</v>
+      </c>
+      <c r="K9" s="102">
+        <v>0</v>
+      </c>
+      <c r="L9" s="29"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
       <c r="O9" s="102">
         <v>0</v>
       </c>
@@ -6330,7 +6350,13 @@
       <c r="V9" s="102">
         <v>0</v>
       </c>
-      <c r="W9" s="29"/>
+      <c r="W9" s="102">
+        <v>0</v>
+      </c>
+      <c r="X9" s="102">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="29"/>
     </row>
     <row r="10" ht="19.9" customHeight="1">
       <c r="A10" s="102">
@@ -6343,7 +6369,7 @@
         <v>73</v>
       </c>
       <c r="D10" t="s" s="107">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="103">
@@ -6358,19 +6384,19 @@
       <c r="I10" s="110">
         <v>0.27</v>
       </c>
-      <c r="J10" s="111">
+      <c r="J10" s="102">
+        <v>0</v>
+      </c>
+      <c r="K10" s="102">
+        <v>0</v>
+      </c>
+      <c r="L10" s="102">
         <v>10560000</v>
       </c>
-      <c r="K10" s="70"/>
-      <c r="L10" s="112">
+      <c r="M10" s="70"/>
+      <c r="N10" s="111">
         <v>1</v>
       </c>
-      <c r="M10" s="102">
-        <v>0</v>
-      </c>
-      <c r="N10" s="102">
-        <v>0</v>
-      </c>
       <c r="O10" s="102">
         <v>0</v>
       </c>
@@ -6395,7 +6421,13 @@
       <c r="V10" s="102">
         <v>0</v>
       </c>
-      <c r="W10" s="29"/>
+      <c r="W10" s="102">
+        <v>0</v>
+      </c>
+      <c r="X10" s="102">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="29"/>
     </row>
     <row r="11" ht="19.9" customHeight="1">
       <c r="A11" s="102">
@@ -6408,7 +6440,7 @@
         <v>73</v>
       </c>
       <c r="D11" t="s" s="107">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="103">
@@ -6420,22 +6452,22 @@
       <c r="H11" s="109">
         <v>1.1025</v>
       </c>
-      <c r="I11" s="113">
+      <c r="I11" s="111">
         <v>0.24</v>
       </c>
-      <c r="J11" s="111">
+      <c r="J11" s="102">
+        <v>0</v>
+      </c>
+      <c r="K11" s="102">
+        <v>0</v>
+      </c>
+      <c r="L11" s="102">
         <v>3700000</v>
       </c>
-      <c r="K11" s="70"/>
-      <c r="L11" s="112">
+      <c r="M11" s="70"/>
+      <c r="N11" s="111">
         <v>1</v>
       </c>
-      <c r="M11" s="102">
-        <v>0</v>
-      </c>
-      <c r="N11" s="102">
-        <v>0</v>
-      </c>
       <c r="O11" s="102">
         <v>0</v>
       </c>
@@ -6460,7 +6492,13 @@
       <c r="V11" s="102">
         <v>0</v>
       </c>
-      <c r="W11" s="29"/>
+      <c r="W11" s="102">
+        <v>0</v>
+      </c>
+      <c r="X11" s="102">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="29"/>
     </row>
     <row r="12" ht="19.9" customHeight="1">
       <c r="A12" s="102">
@@ -6473,7 +6511,7 @@
         <v>73</v>
       </c>
       <c r="D12" t="s" s="107">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="103">
@@ -6485,22 +6523,22 @@
       <c r="H12" s="109">
         <v>1.07463</v>
       </c>
-      <c r="I12" s="113">
+      <c r="I12" s="111">
         <v>0.26</v>
       </c>
-      <c r="J12" s="111">
+      <c r="J12" s="102">
+        <v>0</v>
+      </c>
+      <c r="K12" s="102">
+        <v>0</v>
+      </c>
+      <c r="L12" s="102">
         <v>13041600</v>
       </c>
-      <c r="K12" s="70"/>
-      <c r="L12" s="112">
+      <c r="M12" s="70"/>
+      <c r="N12" s="111">
         <v>1</v>
       </c>
-      <c r="M12" s="102">
-        <v>0</v>
-      </c>
-      <c r="N12" s="102">
-        <v>0</v>
-      </c>
       <c r="O12" s="102">
         <v>0</v>
       </c>
@@ -6525,7 +6563,13 @@
       <c r="V12" s="102">
         <v>0</v>
       </c>
-      <c r="W12" s="29"/>
+      <c r="W12" s="102">
+        <v>0</v>
+      </c>
+      <c r="X12" s="102">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="29"/>
     </row>
     <row r="13" ht="19.9" customHeight="1">
       <c r="A13" s="102">
@@ -6538,7 +6582,7 @@
         <v>73</v>
       </c>
       <c r="D13" t="s" s="107">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="103">
@@ -6550,22 +6594,22 @@
       <c r="H13" s="109">
         <v>0.888888888888889</v>
       </c>
-      <c r="I13" s="113">
+      <c r="I13" s="111">
         <v>0.26</v>
       </c>
-      <c r="J13" s="111">
+      <c r="J13" s="102">
+        <v>0</v>
+      </c>
+      <c r="K13" s="102">
+        <v>0</v>
+      </c>
+      <c r="L13" s="102">
         <v>6200000</v>
       </c>
-      <c r="K13" s="70"/>
-      <c r="L13" s="112">
+      <c r="M13" s="70"/>
+      <c r="N13" s="111">
         <v>1</v>
       </c>
-      <c r="M13" s="102">
-        <v>0</v>
-      </c>
-      <c r="N13" s="102">
-        <v>0</v>
-      </c>
       <c r="O13" s="102">
         <v>0</v>
       </c>
@@ -6590,7 +6634,13 @@
       <c r="V13" s="102">
         <v>0</v>
       </c>
-      <c r="W13" s="29"/>
+      <c r="W13" s="102">
+        <v>0</v>
+      </c>
+      <c r="X13" s="102">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="29"/>
     </row>
     <row r="14" ht="19.9" customHeight="1">
       <c r="A14" s="102">
@@ -6603,7 +6653,7 @@
         <v>73</v>
       </c>
       <c r="D14" t="s" s="107">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="103">
@@ -6615,22 +6665,22 @@
       <c r="H14" s="109">
         <v>1.05882352941176</v>
       </c>
-      <c r="I14" s="112">
+      <c r="I14" s="111">
         <v>0.26</v>
       </c>
       <c r="J14" s="102">
+        <v>0</v>
+      </c>
+      <c r="K14" s="102">
+        <v>0</v>
+      </c>
+      <c r="L14" s="102">
         <v>1400000</v>
       </c>
-      <c r="K14" s="70"/>
-      <c r="L14" s="112">
+      <c r="M14" s="70"/>
+      <c r="N14" s="111">
         <v>1</v>
       </c>
-      <c r="M14" s="102">
-        <v>0</v>
-      </c>
-      <c r="N14" s="102">
-        <v>0</v>
-      </c>
       <c r="O14" s="102">
         <v>0</v>
       </c>
@@ -6655,7 +6705,13 @@
       <c r="V14" s="102">
         <v>0</v>
       </c>
-      <c r="W14" s="29"/>
+      <c r="W14" s="102">
+        <v>0</v>
+      </c>
+      <c r="X14" s="102">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="29"/>
     </row>
     <row r="15" ht="19.9" customHeight="1">
       <c r="A15" s="102">
@@ -6668,7 +6724,7 @@
         <v>73</v>
       </c>
       <c r="D15" t="s" s="107">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="103">
@@ -6680,22 +6736,22 @@
       <c r="H15" s="109">
         <v>1.105472</v>
       </c>
-      <c r="I15" s="112">
+      <c r="I15" s="111">
         <v>0.27</v>
       </c>
       <c r="J15" s="102">
+        <v>0</v>
+      </c>
+      <c r="K15" s="102">
+        <v>0</v>
+      </c>
+      <c r="L15" s="102">
         <v>4067200</v>
       </c>
-      <c r="K15" s="70"/>
-      <c r="L15" s="112">
+      <c r="M15" s="70"/>
+      <c r="N15" s="111">
         <v>1</v>
       </c>
-      <c r="M15" s="102">
-        <v>0</v>
-      </c>
-      <c r="N15" s="102">
-        <v>0</v>
-      </c>
       <c r="O15" s="102">
         <v>0</v>
       </c>
@@ -6720,7 +6776,13 @@
       <c r="V15" s="102">
         <v>0</v>
       </c>
-      <c r="W15" s="29"/>
+      <c r="W15" s="102">
+        <v>0</v>
+      </c>
+      <c r="X15" s="102">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="29"/>
     </row>
     <row r="16" ht="19.9" customHeight="1">
       <c r="A16" s="102">
@@ -6733,7 +6795,7 @@
         <v>73</v>
       </c>
       <c r="D16" t="s" s="107">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="103">
@@ -6745,22 +6807,22 @@
       <c r="H16" s="109">
         <v>0.9024799999999999</v>
       </c>
-      <c r="I16" s="112">
+      <c r="I16" s="111">
         <v>0.25</v>
       </c>
       <c r="J16" s="102">
+        <v>0</v>
+      </c>
+      <c r="K16" s="102">
+        <v>0</v>
+      </c>
+      <c r="L16" s="102">
         <v>1419200</v>
       </c>
-      <c r="K16" s="70"/>
-      <c r="L16" s="112">
+      <c r="M16" s="70"/>
+      <c r="N16" s="111">
         <v>1</v>
       </c>
-      <c r="M16" s="102">
-        <v>0</v>
-      </c>
-      <c r="N16" s="102">
-        <v>0</v>
-      </c>
       <c r="O16" s="102">
         <v>0</v>
       </c>
@@ -6785,7 +6847,13 @@
       <c r="V16" s="102">
         <v>0</v>
       </c>
-      <c r="W16" s="29"/>
+      <c r="W16" s="102">
+        <v>0</v>
+      </c>
+      <c r="X16" s="102">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="29"/>
     </row>
     <row r="17" ht="19.9" customHeight="1">
       <c r="A17" s="102">
@@ -6798,7 +6866,7 @@
         <v>73</v>
       </c>
       <c r="D17" t="s" s="107">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="103">
@@ -6810,22 +6878,22 @@
       <c r="H17" s="109">
         <v>1.1572</v>
       </c>
-      <c r="I17" s="112">
+      <c r="I17" s="111">
         <v>0.11</v>
       </c>
       <c r="J17" s="102">
+        <v>0</v>
+      </c>
+      <c r="K17" s="102">
+        <v>0</v>
+      </c>
+      <c r="L17" s="102">
         <v>1014300</v>
       </c>
-      <c r="K17" s="70"/>
-      <c r="L17" s="112">
+      <c r="M17" s="70"/>
+      <c r="N17" s="111">
         <v>1</v>
       </c>
-      <c r="M17" s="102">
-        <v>0</v>
-      </c>
-      <c r="N17" s="102">
-        <v>0</v>
-      </c>
       <c r="O17" s="102">
         <v>0</v>
       </c>
@@ -6850,7 +6918,13 @@
       <c r="V17" s="102">
         <v>0</v>
       </c>
-      <c r="W17" s="29"/>
+      <c r="W17" s="102">
+        <v>0</v>
+      </c>
+      <c r="X17" s="102">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="29"/>
     </row>
     <row r="18" ht="19.9" customHeight="1">
       <c r="A18" s="102">
@@ -6863,7 +6937,7 @@
         <v>73</v>
       </c>
       <c r="D18" t="s" s="107">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="103">
@@ -6875,22 +6949,22 @@
       <c r="H18" s="109">
         <v>0.896</v>
       </c>
-      <c r="I18" s="112">
+      <c r="I18" s="111">
         <v>0.23</v>
       </c>
       <c r="J18" s="102">
+        <v>0</v>
+      </c>
+      <c r="K18" s="102">
+        <v>0</v>
+      </c>
+      <c r="L18" s="102">
         <v>628320</v>
       </c>
-      <c r="K18" s="70"/>
-      <c r="L18" s="112">
+      <c r="M18" s="70"/>
+      <c r="N18" s="111">
         <v>1</v>
       </c>
-      <c r="M18" s="102">
-        <v>0</v>
-      </c>
-      <c r="N18" s="102">
-        <v>0</v>
-      </c>
       <c r="O18" s="102">
         <v>0</v>
       </c>
@@ -6915,7 +6989,13 @@
       <c r="V18" s="102">
         <v>0</v>
       </c>
-      <c r="W18" s="29"/>
+      <c r="W18" s="102">
+        <v>0</v>
+      </c>
+      <c r="X18" s="102">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="29"/>
     </row>
     <row r="19" ht="19.9" customHeight="1">
       <c r="A19" s="102">
@@ -6928,7 +7008,7 @@
         <v>73</v>
       </c>
       <c r="D19" t="s" s="107">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="103">
@@ -6940,22 +7020,22 @@
       <c r="H19" s="109">
         <v>1.04403625</v>
       </c>
-      <c r="I19" s="114">
+      <c r="I19" s="112">
         <v>0.27</v>
       </c>
       <c r="J19" s="102">
+        <v>0</v>
+      </c>
+      <c r="K19" s="102">
+        <v>0</v>
+      </c>
+      <c r="L19" s="102">
         <v>12234288</v>
       </c>
-      <c r="K19" s="115"/>
-      <c r="L19" s="116">
+      <c r="M19" s="113"/>
+      <c r="N19" s="114">
         <v>1</v>
       </c>
-      <c r="M19" s="102">
-        <v>0</v>
-      </c>
-      <c r="N19" s="102">
-        <v>0</v>
-      </c>
       <c r="O19" s="102">
         <v>0</v>
       </c>
@@ -6980,7 +7060,13 @@
       <c r="V19" s="102">
         <v>0</v>
       </c>
-      <c r="W19" s="29"/>
+      <c r="W19" s="102">
+        <v>0</v>
+      </c>
+      <c r="X19" s="102">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -6999,75 +7085,75 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.17188" style="117" customWidth="1"/>
-    <col min="2" max="5" width="13.5" style="117" customWidth="1"/>
-    <col min="6" max="6" width="13.6719" style="117" customWidth="1"/>
-    <col min="7" max="8" width="17.5" style="117" customWidth="1"/>
-    <col min="9" max="11" width="20.5" style="117" customWidth="1"/>
-    <col min="12" max="14" width="17.8516" style="117" customWidth="1"/>
-    <col min="15" max="15" width="19.1719" style="117" customWidth="1"/>
-    <col min="16" max="16" width="14.5" style="117" customWidth="1"/>
-    <col min="17" max="17" width="20.1719" style="117" customWidth="1"/>
-    <col min="18" max="19" width="17.6719" style="117" customWidth="1"/>
-    <col min="20" max="256" width="8.85156" style="117" customWidth="1"/>
+    <col min="1" max="1" width="9.17188" style="115" customWidth="1"/>
+    <col min="2" max="5" width="13.5" style="115" customWidth="1"/>
+    <col min="6" max="6" width="13.6719" style="115" customWidth="1"/>
+    <col min="7" max="8" width="17.5" style="115" customWidth="1"/>
+    <col min="9" max="11" width="20.5" style="115" customWidth="1"/>
+    <col min="12" max="14" width="17.8516" style="115" customWidth="1"/>
+    <col min="15" max="15" width="19.1719" style="115" customWidth="1"/>
+    <col min="16" max="16" width="14.5" style="115" customWidth="1"/>
+    <col min="17" max="17" width="20.1719" style="115" customWidth="1"/>
+    <col min="18" max="19" width="17.6719" style="115" customWidth="1"/>
+    <col min="20" max="256" width="8.85156" style="115" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="34.5" customHeight="1">
-      <c r="A1" t="s" s="118">
+      <c r="A1" t="s" s="116">
         <v>127</v>
       </c>
-      <c r="B1" t="s" s="118">
+      <c r="B1" t="s" s="116">
         <v>129</v>
       </c>
-      <c r="C1" t="s" s="118">
+      <c r="C1" t="s" s="116">
         <v>128</v>
       </c>
       <c r="D1" t="s" s="101">
         <v>130</v>
       </c>
       <c r="E1" t="s" s="101">
-        <v>160</v>
-      </c>
-      <c r="F1" t="s" s="118">
-        <v>135</v>
+        <v>162</v>
+      </c>
+      <c r="F1" t="s" s="116">
+        <v>137</v>
       </c>
       <c r="G1" t="s" s="101">
         <v>20</v>
       </c>
       <c r="H1" t="s" s="101">
-        <v>161</v>
-      </c>
-      <c r="I1" t="s" s="118">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="I1" t="s" s="116">
+        <v>164</v>
       </c>
       <c r="J1" t="s" s="101">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K1" t="s" s="101">
-        <v>164</v>
-      </c>
-      <c r="L1" t="s" s="118">
-        <v>165</v>
-      </c>
-      <c r="M1" t="s" s="119">
         <v>166</v>
       </c>
+      <c r="L1" t="s" s="116">
+        <v>167</v>
+      </c>
+      <c r="M1" t="s" s="117">
+        <v>168</v>
+      </c>
       <c r="N1" t="s" s="101">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O1" t="s" s="101">
-        <v>168</v>
-      </c>
-      <c r="P1" t="s" s="118">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="P1" t="s" s="116">
+        <v>171</v>
       </c>
       <c r="Q1" t="s" s="101">
-        <v>170</v>
-      </c>
-      <c r="R1" t="s" s="118">
-        <v>171</v>
-      </c>
-      <c r="S1" t="s" s="118">
+        <v>172</v>
+      </c>
+      <c r="R1" t="s" s="116">
+        <v>173</v>
+      </c>
+      <c r="S1" t="s" s="116">
         <v>12</v>
       </c>
     </row>
@@ -7075,38 +7161,38 @@
       <c r="A2" s="102">
         <v>-4</v>
       </c>
-      <c r="B2" t="s" s="120">
-        <v>172</v>
-      </c>
-      <c r="C2" t="s" s="120">
-        <v>173</v>
+      <c r="B2" t="s" s="118">
+        <v>174</v>
+      </c>
+      <c r="C2" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="40"/>
-      <c r="F2" s="121">
+      <c r="F2" s="119">
         <v>10560000</v>
       </c>
       <c r="G2" s="42"/>
       <c r="H2" s="40"/>
-      <c r="I2" s="122">
+      <c r="I2" s="120">
         <v>737747.64</v>
       </c>
       <c r="J2" s="42"/>
       <c r="K2" s="40"/>
-      <c r="L2" s="123">
+      <c r="L2" s="121">
         <v>700000</v>
       </c>
-      <c r="M2" s="124"/>
+      <c r="M2" s="122"/>
       <c r="N2" s="42"/>
       <c r="O2" s="40"/>
       <c r="P2" s="109">
         <v>1.0539252</v>
       </c>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="126">
+      <c r="Q2" s="123"/>
+      <c r="R2" s="124">
         <v>0.15</v>
       </c>
-      <c r="S2" t="s" s="120">
+      <c r="S2" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -7114,38 +7200,38 @@
       <c r="A3" s="102">
         <v>-4</v>
       </c>
-      <c r="B3" t="s" s="120">
-        <v>174</v>
-      </c>
-      <c r="C3" t="s" s="120">
-        <v>173</v>
-      </c>
-      <c r="D3" s="127"/>
+      <c r="B3" t="s" s="118">
+        <v>176</v>
+      </c>
+      <c r="C3" t="s" s="118">
+        <v>175</v>
+      </c>
+      <c r="D3" s="125"/>
       <c r="E3" s="94"/>
-      <c r="F3" s="121">
+      <c r="F3" s="119">
         <v>3700000</v>
       </c>
       <c r="G3" s="87"/>
       <c r="H3" s="94"/>
-      <c r="I3" s="122">
+      <c r="I3" s="120">
         <v>245915.88</v>
       </c>
       <c r="J3" s="87"/>
       <c r="K3" s="94"/>
-      <c r="L3" s="123">
+      <c r="L3" s="121">
         <v>250000</v>
       </c>
-      <c r="M3" s="124"/>
+      <c r="M3" s="122"/>
       <c r="N3" s="87"/>
       <c r="O3" s="94"/>
       <c r="P3" s="109">
         <v>0.98366352</v>
       </c>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="126">
+      <c r="Q3" s="126"/>
+      <c r="R3" s="124">
         <v>0.11</v>
       </c>
-      <c r="S3" t="s" s="120">
+      <c r="S3" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -7153,38 +7239,38 @@
       <c r="A4" s="102">
         <v>-4</v>
       </c>
-      <c r="B4" t="s" s="120">
+      <c r="B4" t="s" s="118">
+        <v>177</v>
+      </c>
+      <c r="C4" t="s" s="118">
         <v>175</v>
       </c>
-      <c r="C4" t="s" s="120">
-        <v>173</v>
-      </c>
-      <c r="D4" s="127"/>
+      <c r="D4" s="125"/>
       <c r="E4" s="94"/>
-      <c r="F4" s="121">
+      <c r="F4" s="119">
         <v>13041600</v>
       </c>
       <c r="G4" s="87"/>
       <c r="H4" s="94"/>
-      <c r="I4" s="122">
+      <c r="I4" s="120">
         <v>901691.5600000001</v>
       </c>
       <c r="J4" s="87"/>
       <c r="K4" s="94"/>
-      <c r="L4" s="123">
+      <c r="L4" s="121">
         <v>850000</v>
       </c>
-      <c r="M4" s="124"/>
+      <c r="M4" s="122"/>
       <c r="N4" s="87"/>
       <c r="O4" s="94"/>
       <c r="P4" s="109">
         <v>1.0608136</v>
       </c>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="126">
+      <c r="Q4" s="126"/>
+      <c r="R4" s="124">
         <v>0.18</v>
       </c>
-      <c r="S4" t="s" s="120">
+      <c r="S4" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -7192,38 +7278,38 @@
       <c r="A5" s="102">
         <v>-4</v>
       </c>
-      <c r="B5" t="s" s="120">
-        <v>176</v>
-      </c>
-      <c r="C5" t="s" s="120">
-        <v>173</v>
-      </c>
-      <c r="D5" s="127"/>
+      <c r="B5" t="s" s="118">
+        <v>178</v>
+      </c>
+      <c r="C5" t="s" s="118">
+        <v>175</v>
+      </c>
+      <c r="D5" s="125"/>
       <c r="E5" s="94"/>
-      <c r="F5" s="121">
+      <c r="F5" s="119">
         <v>6200000</v>
       </c>
       <c r="G5" s="87"/>
       <c r="H5" s="94"/>
-      <c r="I5" s="122">
+      <c r="I5" s="120">
         <v>614789.7</v>
       </c>
       <c r="J5" s="87"/>
       <c r="K5" s="94"/>
-      <c r="L5" s="123">
+      <c r="L5" s="121">
         <v>600000</v>
       </c>
-      <c r="M5" s="124"/>
+      <c r="M5" s="122"/>
       <c r="N5" s="87"/>
       <c r="O5" s="94"/>
       <c r="P5" s="109">
         <v>1.0246495</v>
       </c>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="126">
+      <c r="Q5" s="126"/>
+      <c r="R5" s="124">
         <v>0.13</v>
       </c>
-      <c r="S5" t="s" s="120">
+      <c r="S5" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -7231,38 +7317,38 @@
       <c r="A6" s="102">
         <v>-4</v>
       </c>
-      <c r="B6" t="s" s="120">
-        <v>177</v>
-      </c>
-      <c r="C6" t="s" s="120">
-        <v>173</v>
+      <c r="B6" t="s" s="118">
+        <v>179</v>
+      </c>
+      <c r="C6" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="63"/>
-      <c r="F6" s="129">
+      <c r="F6" s="127">
         <v>1400000</v>
       </c>
       <c r="G6" s="62"/>
       <c r="H6" s="63"/>
-      <c r="I6" s="130">
+      <c r="I6" s="128">
         <v>102464.95</v>
       </c>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="123">
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="121">
         <v>100000</v>
       </c>
-      <c r="M6" s="132"/>
+      <c r="M6" s="130"/>
       <c r="N6" s="47"/>
       <c r="O6" s="63"/>
       <c r="P6" s="109">
         <v>1.0246495</v>
       </c>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="126">
+      <c r="Q6" s="129"/>
+      <c r="R6" s="124">
         <v>0.12</v>
       </c>
-      <c r="S6" t="s" s="120">
+      <c r="S6" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -7270,38 +7356,38 @@
       <c r="A7" s="102">
         <v>-4</v>
       </c>
-      <c r="B7" t="s" s="120">
-        <v>178</v>
-      </c>
-      <c r="C7" t="s" s="120">
-        <v>173</v>
+      <c r="B7" t="s" s="118">
+        <v>180</v>
+      </c>
+      <c r="C7" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="129">
+      <c r="F7" s="127">
         <v>4067200</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="130">
+      <c r="I7" s="128">
         <v>286901.86</v>
       </c>
       <c r="J7" s="70"/>
       <c r="K7" s="70"/>
-      <c r="L7" s="123">
+      <c r="L7" s="121">
         <v>350000</v>
       </c>
-      <c r="M7" s="132"/>
+      <c r="M7" s="130"/>
       <c r="N7" s="49"/>
       <c r="O7" s="21"/>
       <c r="P7" s="109">
         <v>0.8197196</v>
       </c>
       <c r="Q7" s="70"/>
-      <c r="R7" s="126">
+      <c r="R7" s="124">
         <v>-0.11</v>
       </c>
-      <c r="S7" t="s" s="120">
+      <c r="S7" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -7309,38 +7395,38 @@
       <c r="A8" s="102">
         <v>-4</v>
       </c>
-      <c r="B8" t="s" s="120">
-        <v>179</v>
-      </c>
-      <c r="C8" t="s" s="120">
-        <v>173</v>
+      <c r="B8" t="s" s="118">
+        <v>181</v>
+      </c>
+      <c r="C8" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="129">
+      <c r="F8" s="127">
         <v>1419200</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="130">
+      <c r="I8" s="128">
         <v>122957.94</v>
       </c>
       <c r="J8" s="70"/>
       <c r="K8" s="70"/>
-      <c r="L8" s="123">
+      <c r="L8" s="121">
         <v>120000</v>
       </c>
-      <c r="M8" s="132"/>
+      <c r="M8" s="130"/>
       <c r="N8" s="49"/>
       <c r="O8" s="21"/>
       <c r="P8" s="109">
         <v>1.0246495</v>
       </c>
       <c r="Q8" s="70"/>
-      <c r="R8" s="126">
+      <c r="R8" s="124">
         <v>0.16</v>
       </c>
-      <c r="S8" t="s" s="120">
+      <c r="S8" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -7348,38 +7434,38 @@
       <c r="A9" s="102">
         <v>-4</v>
       </c>
-      <c r="B9" t="s" s="120">
-        <v>180</v>
-      </c>
-      <c r="C9" t="s" s="120">
-        <v>173</v>
+      <c r="B9" t="s" s="118">
+        <v>182</v>
+      </c>
+      <c r="C9" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="129">
+      <c r="F9" s="127">
         <v>1014300</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="130">
+      <c r="I9" s="128">
         <v>32788.784</v>
       </c>
       <c r="J9" s="70"/>
       <c r="K9" s="70"/>
-      <c r="L9" s="123">
+      <c r="L9" s="121">
         <v>35000</v>
       </c>
-      <c r="M9" s="132"/>
+      <c r="M9" s="130"/>
       <c r="N9" s="49"/>
       <c r="O9" s="21"/>
       <c r="P9" s="109">
         <v>0.9368224000000001</v>
       </c>
       <c r="Q9" s="70"/>
-      <c r="R9" s="126">
+      <c r="R9" s="124">
         <v>-0.23</v>
       </c>
-      <c r="S9" t="s" s="120">
+      <c r="S9" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -7387,38 +7473,38 @@
       <c r="A10" s="102">
         <v>-4</v>
       </c>
-      <c r="B10" t="s" s="120">
-        <v>181</v>
-      </c>
-      <c r="C10" t="s" s="120">
-        <v>173</v>
+      <c r="B10" t="s" s="118">
+        <v>183</v>
+      </c>
+      <c r="C10" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="129">
+      <c r="F10" s="127">
         <v>628320</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="21"/>
-      <c r="I10" s="130">
+      <c r="I10" s="128">
         <v>81971.960000000006</v>
       </c>
       <c r="J10" s="70"/>
       <c r="K10" s="70"/>
-      <c r="L10" s="123">
+      <c r="L10" s="121">
         <v>75000</v>
       </c>
-      <c r="M10" s="132"/>
+      <c r="M10" s="130"/>
       <c r="N10" s="49"/>
       <c r="O10" s="21"/>
       <c r="P10" s="109">
         <v>1.09295946666667</v>
       </c>
       <c r="Q10" s="70"/>
-      <c r="R10" s="126">
+      <c r="R10" s="124">
         <v>0.29</v>
       </c>
-      <c r="S10" t="s" s="120">
+      <c r="S10" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -7426,38 +7512,38 @@
       <c r="A11" s="102">
         <v>-4</v>
       </c>
-      <c r="B11" t="s" s="120">
-        <v>182</v>
-      </c>
-      <c r="C11" t="s" s="120">
-        <v>173</v>
+      <c r="B11" t="s" s="118">
+        <v>184</v>
+      </c>
+      <c r="C11" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="129">
+      <c r="F11" s="127">
         <v>12234288</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="130">
+      <c r="I11" s="128">
         <v>971367.726</v>
       </c>
       <c r="J11" s="70"/>
       <c r="K11" s="70"/>
-      <c r="L11" s="123">
+      <c r="L11" s="121">
         <v>900000</v>
       </c>
-      <c r="M11" s="132"/>
+      <c r="M11" s="130"/>
       <c r="N11" s="49"/>
       <c r="O11" s="21"/>
       <c r="P11" s="109">
         <v>1.07929747333333</v>
       </c>
       <c r="Q11" s="70"/>
-      <c r="R11" s="126">
+      <c r="R11" s="124">
         <v>0.18</v>
       </c>
-      <c r="S11" t="s" s="120">
+      <c r="S11" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -7465,38 +7551,38 @@
       <c r="A12" s="102">
         <v>-3</v>
       </c>
-      <c r="B12" t="s" s="120">
-        <v>172</v>
-      </c>
-      <c r="C12" t="s" s="120">
-        <v>173</v>
+      <c r="B12" t="s" s="118">
+        <v>174</v>
+      </c>
+      <c r="C12" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="129">
+      <c r="F12" s="127">
         <v>10560000</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="130">
+      <c r="I12" s="128">
         <v>556986.16</v>
       </c>
       <c r="J12" s="70"/>
       <c r="K12" s="70"/>
-      <c r="L12" s="130">
+      <c r="L12" s="128">
         <v>650000</v>
       </c>
-      <c r="M12" s="133"/>
+      <c r="M12" s="131"/>
       <c r="N12" s="49"/>
-      <c r="O12" s="134"/>
+      <c r="O12" s="132"/>
       <c r="P12" s="109">
         <v>0.856901784615385</v>
       </c>
       <c r="Q12" s="70"/>
-      <c r="R12" s="126">
+      <c r="R12" s="124">
         <v>-0.245018038959772</v>
       </c>
-      <c r="S12" t="s" s="120">
+      <c r="S12" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -7504,38 +7590,38 @@
       <c r="A13" s="102">
         <v>-3</v>
       </c>
-      <c r="B13" t="s" s="120">
-        <v>174</v>
-      </c>
-      <c r="C13" t="s" s="120">
-        <v>173</v>
+      <c r="B13" t="s" s="118">
+        <v>176</v>
+      </c>
+      <c r="C13" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="21"/>
-      <c r="F13" s="129">
+      <c r="F13" s="127">
         <v>3700000</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="21"/>
-      <c r="I13" s="130">
+      <c r="I13" s="128">
         <v>191328.72</v>
       </c>
       <c r="J13" s="70"/>
       <c r="K13" s="70"/>
-      <c r="L13" s="130">
+      <c r="L13" s="128">
         <v>200000</v>
       </c>
-      <c r="M13" s="133"/>
+      <c r="M13" s="131"/>
       <c r="N13" s="49"/>
-      <c r="O13" s="134"/>
+      <c r="O13" s="132"/>
       <c r="P13" s="109">
         <v>0.9566436</v>
       </c>
       <c r="Q13" s="70"/>
-      <c r="R13" s="126">
+      <c r="R13" s="124">
         <v>-0.221974928987912</v>
       </c>
-      <c r="S13" t="s" s="120">
+      <c r="S13" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -7543,38 +7629,38 @@
       <c r="A14" s="102">
         <v>-3</v>
       </c>
-      <c r="B14" t="s" s="120">
+      <c r="B14" t="s" s="118">
+        <v>177</v>
+      </c>
+      <c r="C14" t="s" s="118">
         <v>175</v>
-      </c>
-      <c r="C14" t="s" s="120">
-        <v>173</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="21"/>
-      <c r="F14" s="129">
+      <c r="F14" s="127">
         <v>13041600</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="130">
+      <c r="I14" s="128">
         <v>736028.144</v>
       </c>
       <c r="J14" s="70"/>
       <c r="K14" s="70"/>
-      <c r="L14" s="130">
+      <c r="L14" s="128">
         <v>800000</v>
       </c>
-      <c r="M14" s="133"/>
+      <c r="M14" s="131"/>
       <c r="N14" s="49"/>
       <c r="O14" s="21"/>
       <c r="P14" s="109">
         <v>0.92003518</v>
       </c>
       <c r="Q14" s="70"/>
-      <c r="R14" s="126">
+      <c r="R14" s="124">
         <v>-0.18372514876373</v>
       </c>
-      <c r="S14" t="s" s="120">
+      <c r="S14" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -7582,38 +7668,38 @@
       <c r="A15" s="102">
         <v>-3</v>
       </c>
-      <c r="B15" t="s" s="120">
-        <v>176</v>
-      </c>
-      <c r="C15" t="s" s="120">
-        <v>173</v>
+      <c r="B15" t="s" s="118">
+        <v>178</v>
+      </c>
+      <c r="C15" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="21"/>
-      <c r="F15" s="129">
+      <c r="F15" s="127">
         <v>6200000</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="130">
+      <c r="I15" s="128">
         <v>478321.8</v>
       </c>
       <c r="J15" s="70"/>
       <c r="K15" s="70"/>
-      <c r="L15" s="130">
+      <c r="L15" s="128">
         <v>550000</v>
       </c>
-      <c r="M15" s="133"/>
+      <c r="M15" s="131"/>
       <c r="N15" s="49"/>
       <c r="O15" s="21"/>
       <c r="P15" s="109">
         <v>0.869676</v>
       </c>
       <c r="Q15" s="70"/>
-      <c r="R15" s="126">
+      <c r="R15" s="124">
         <v>-0.221974928987912</v>
       </c>
-      <c r="S15" t="s" s="120">
+      <c r="S15" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -7621,38 +7707,38 @@
       <c r="A16" s="102">
         <v>-3</v>
       </c>
-      <c r="B16" t="s" s="120">
-        <v>177</v>
-      </c>
-      <c r="C16" t="s" s="120">
-        <v>173</v>
+      <c r="B16" t="s" s="118">
+        <v>179</v>
+      </c>
+      <c r="C16" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="129">
+      <c r="F16" s="127">
         <v>1400000</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="130">
+      <c r="I16" s="128">
         <v>69720.3</v>
       </c>
       <c r="J16" s="70"/>
       <c r="K16" s="70"/>
-      <c r="L16" s="130">
+      <c r="L16" s="128">
         <v>80000</v>
       </c>
-      <c r="M16" s="133"/>
+      <c r="M16" s="131"/>
       <c r="N16" s="49"/>
       <c r="O16" s="21"/>
       <c r="P16" s="109">
         <v>0.87150375</v>
       </c>
       <c r="Q16" s="70"/>
-      <c r="R16" s="126">
+      <c r="R16" s="124">
         <v>-0.319569277104024</v>
       </c>
-      <c r="S16" t="s" s="120">
+      <c r="S16" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -7660,38 +7746,38 @@
       <c r="A17" s="102">
         <v>-3</v>
       </c>
-      <c r="B17" t="s" s="120">
-        <v>178</v>
-      </c>
-      <c r="C17" t="s" s="120">
-        <v>173</v>
+      <c r="B17" t="s" s="118">
+        <v>180</v>
+      </c>
+      <c r="C17" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="129">
+      <c r="F17" s="127">
         <v>4067200</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="130">
+      <c r="I17" s="128">
         <v>223216.84</v>
       </c>
       <c r="J17" s="70"/>
       <c r="K17" s="70"/>
-      <c r="L17" s="130">
+      <c r="L17" s="128">
         <v>250000</v>
       </c>
-      <c r="M17" s="133"/>
+      <c r="M17" s="131"/>
       <c r="N17" s="49"/>
       <c r="O17" s="21"/>
       <c r="P17" s="109">
         <v>0.89286736</v>
       </c>
       <c r="Q17" s="70"/>
-      <c r="R17" s="126">
+      <c r="R17" s="124">
         <v>-0.221974928987912</v>
       </c>
-      <c r="S17" t="s" s="120">
+      <c r="S17" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -7699,38 +7785,38 @@
       <c r="A18" s="102">
         <v>-3</v>
       </c>
-      <c r="B18" t="s" s="120">
-        <v>179</v>
-      </c>
-      <c r="C18" t="s" s="120">
-        <v>173</v>
+      <c r="B18" t="s" s="118">
+        <v>181</v>
+      </c>
+      <c r="C18" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="129">
+      <c r="F18" s="127">
         <v>1419200</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="130">
+      <c r="I18" s="128">
         <v>90664.36</v>
       </c>
       <c r="J18" s="70"/>
       <c r="K18" s="70"/>
-      <c r="L18" s="130">
+      <c r="L18" s="128">
         <v>100000</v>
       </c>
-      <c r="M18" s="133"/>
+      <c r="M18" s="131"/>
       <c r="N18" s="49"/>
       <c r="O18" s="21"/>
       <c r="P18" s="109">
         <v>0.9066436</v>
       </c>
       <c r="Q18" s="70"/>
-      <c r="R18" s="126">
+      <c r="R18" s="124">
         <v>-0.262639240702959</v>
       </c>
-      <c r="S18" t="s" s="120">
+      <c r="S18" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -7738,38 +7824,38 @@
       <c r="A19" s="102">
         <v>-3</v>
       </c>
-      <c r="B19" t="s" s="120">
-        <v>180</v>
-      </c>
-      <c r="C19" t="s" s="120">
-        <v>173</v>
+      <c r="B19" t="s" s="118">
+        <v>182</v>
+      </c>
+      <c r="C19" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="21"/>
-      <c r="F19" s="129">
+      <c r="F19" s="127">
         <v>1014300</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="130">
+      <c r="I19" s="128">
         <v>25510.496</v>
       </c>
       <c r="J19" s="70"/>
       <c r="K19" s="70"/>
-      <c r="L19" s="130">
+      <c r="L19" s="128">
         <v>25000</v>
       </c>
-      <c r="M19" s="133"/>
+      <c r="M19" s="131"/>
       <c r="N19" s="49"/>
       <c r="O19" s="21"/>
       <c r="P19" s="109">
         <v>1.02041984</v>
       </c>
       <c r="Q19" s="70"/>
-      <c r="R19" s="126">
+      <c r="R19" s="124">
         <v>-0.221974928987912</v>
       </c>
-      <c r="S19" t="s" s="120">
+      <c r="S19" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -7777,38 +7863,38 @@
       <c r="A20" s="102">
         <v>-3</v>
       </c>
-      <c r="B20" t="s" s="120">
-        <v>181</v>
-      </c>
-      <c r="C20" t="s" s="120">
-        <v>173</v>
+      <c r="B20" t="s" s="118">
+        <v>183</v>
+      </c>
+      <c r="C20" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="129">
+      <c r="F20" s="127">
         <v>628320</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="130">
+      <c r="I20" s="128">
         <v>59832.18</v>
       </c>
       <c r="J20" s="70"/>
       <c r="K20" s="70"/>
-      <c r="L20" s="130">
+      <c r="L20" s="128">
         <v>60000</v>
       </c>
-      <c r="M20" s="133"/>
+      <c r="M20" s="131"/>
       <c r="N20" s="49"/>
       <c r="O20" s="21"/>
       <c r="P20" s="109">
         <v>0.997203</v>
       </c>
       <c r="Q20" s="70"/>
-      <c r="R20" s="126">
+      <c r="R20" s="124">
         <v>-0.270089674566767</v>
       </c>
-      <c r="S20" t="s" s="120">
+      <c r="S20" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -7816,38 +7902,38 @@
       <c r="A21" s="102">
         <v>-3</v>
       </c>
-      <c r="B21" t="s" s="120">
-        <v>182</v>
-      </c>
-      <c r="C21" t="s" s="120">
-        <v>173</v>
+      <c r="B21" t="s" s="118">
+        <v>184</v>
+      </c>
+      <c r="C21" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="129">
+      <c r="F21" s="127">
         <v>12234288</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="130">
+      <c r="I21" s="128">
         <v>757203</v>
       </c>
       <c r="J21" s="70"/>
       <c r="K21" s="70"/>
-      <c r="L21" s="130">
+      <c r="L21" s="128">
         <v>850000</v>
       </c>
-      <c r="M21" s="133"/>
+      <c r="M21" s="131"/>
       <c r="N21" s="49"/>
       <c r="O21" s="21"/>
       <c r="P21" s="109">
         <v>0.890827058823529</v>
       </c>
       <c r="Q21" s="70"/>
-      <c r="R21" s="126">
+      <c r="R21" s="124">
         <v>-0.220477498137507</v>
       </c>
-      <c r="S21" t="s" s="120">
+      <c r="S21" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -7855,38 +7941,38 @@
       <c r="A22" s="102">
         <v>-2</v>
       </c>
-      <c r="B22" t="s" s="120">
-        <v>172</v>
-      </c>
-      <c r="C22" t="s" s="120">
-        <v>173</v>
+      <c r="B22" t="s" s="118">
+        <v>174</v>
+      </c>
+      <c r="C22" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="21"/>
-      <c r="F22" s="129">
+      <c r="F22" s="127">
         <v>10560000</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="21"/>
-      <c r="I22" s="130">
+      <c r="I22" s="128">
         <v>525785.6899999999</v>
       </c>
       <c r="J22" s="70"/>
       <c r="K22" s="70"/>
-      <c r="L22" s="123">
+      <c r="L22" s="121">
         <v>550000</v>
       </c>
-      <c r="M22" s="132"/>
+      <c r="M22" s="130"/>
       <c r="N22" s="49"/>
       <c r="O22" s="21"/>
       <c r="P22" s="109">
         <v>0.9559739818181821</v>
       </c>
       <c r="Q22" s="70"/>
-      <c r="R22" s="126">
+      <c r="R22" s="124">
         <v>-0.0560165983298402</v>
       </c>
-      <c r="S22" t="s" s="120">
+      <c r="S22" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -7894,38 +7980,38 @@
       <c r="A23" s="102">
         <v>-2</v>
       </c>
-      <c r="B23" t="s" s="120">
-        <v>174</v>
-      </c>
-      <c r="C23" t="s" s="120">
-        <v>173</v>
+      <c r="B23" t="s" s="118">
+        <v>176</v>
+      </c>
+      <c r="C23" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="129">
+      <c r="F23" s="127">
         <v>3700000</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="21"/>
-      <c r="I23" s="130">
+      <c r="I23" s="128">
         <v>154642.85</v>
       </c>
       <c r="J23" s="70"/>
       <c r="K23" s="70"/>
-      <c r="L23" s="123">
+      <c r="L23" s="121">
         <v>170000</v>
       </c>
-      <c r="M23" s="132"/>
+      <c r="M23" s="130"/>
       <c r="N23" s="49"/>
       <c r="O23" s="21"/>
       <c r="P23" s="109">
         <v>0.909663823529412</v>
       </c>
       <c r="Q23" s="70"/>
-      <c r="R23" s="126">
+      <c r="R23" s="124">
         <v>-0.191742619717521</v>
       </c>
-      <c r="S23" t="s" s="120">
+      <c r="S23" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -7933,38 +8019,38 @@
       <c r="A24" s="102">
         <v>-2</v>
       </c>
-      <c r="B24" t="s" s="120">
+      <c r="B24" t="s" s="118">
+        <v>177</v>
+      </c>
+      <c r="C24" t="s" s="118">
         <v>175</v>
-      </c>
-      <c r="C24" t="s" s="120">
-        <v>173</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="21"/>
-      <c r="F24" s="129">
+      <c r="F24" s="127">
         <v>13041600</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="21"/>
-      <c r="I24" s="130">
+      <c r="I24" s="128">
         <v>711357.11</v>
       </c>
       <c r="J24" s="70"/>
       <c r="K24" s="70"/>
-      <c r="L24" s="123">
+      <c r="L24" s="121">
         <v>750000</v>
       </c>
-      <c r="M24" s="132"/>
+      <c r="M24" s="130"/>
       <c r="N24" s="49"/>
       <c r="O24" s="21"/>
       <c r="P24" s="109">
         <v>0.948476146666667</v>
       </c>
       <c r="Q24" s="70"/>
-      <c r="R24" s="126">
+      <c r="R24" s="124">
         <v>-0.0335191448874813</v>
       </c>
-      <c r="S24" t="s" s="120">
+      <c r="S24" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -7972,38 +8058,38 @@
       <c r="A25" s="102">
         <v>-2</v>
       </c>
-      <c r="B25" t="s" s="120">
-        <v>176</v>
-      </c>
-      <c r="C25" t="s" s="120">
-        <v>173</v>
+      <c r="B25" t="s" s="118">
+        <v>178</v>
+      </c>
+      <c r="C25" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="21"/>
-      <c r="F25" s="129">
+      <c r="F25" s="127">
         <v>6200000</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="130">
+      <c r="I25" s="128">
         <v>432999.98</v>
       </c>
       <c r="J25" s="70"/>
       <c r="K25" s="70"/>
-      <c r="L25" s="123">
+      <c r="L25" s="121">
         <v>500000</v>
       </c>
-      <c r="M25" s="132"/>
+      <c r="M25" s="130"/>
       <c r="N25" s="49"/>
       <c r="O25" s="21"/>
       <c r="P25" s="109">
         <v>0.86599996</v>
       </c>
       <c r="Q25" s="70"/>
-      <c r="R25" s="126">
+      <c r="R25" s="124">
         <v>-0.0947517340836231</v>
       </c>
-      <c r="S25" t="s" s="120">
+      <c r="S25" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -8011,38 +8097,38 @@
       <c r="A26" s="102">
         <v>-2</v>
       </c>
-      <c r="B26" t="s" s="120">
-        <v>177</v>
-      </c>
-      <c r="C26" t="s" s="120">
-        <v>173</v>
+      <c r="B26" t="s" s="118">
+        <v>179</v>
+      </c>
+      <c r="C26" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="21"/>
-      <c r="F26" s="129">
+      <c r="F26" s="127">
         <v>1400000</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="21"/>
-      <c r="I26" s="130">
+      <c r="I26" s="128">
         <v>77321.425</v>
       </c>
       <c r="J26" s="70"/>
       <c r="K26" s="70"/>
-      <c r="L26" s="123">
+      <c r="L26" s="121">
         <v>80000</v>
       </c>
-      <c r="M26" s="132"/>
+      <c r="M26" s="130"/>
       <c r="N26" s="49"/>
       <c r="O26" s="21"/>
       <c r="P26" s="109">
         <v>0.9665178125</v>
       </c>
       <c r="Q26" s="70"/>
-      <c r="R26" s="126">
+      <c r="R26" s="124">
         <v>0.109023125259071</v>
       </c>
-      <c r="S26" t="s" s="120">
+      <c r="S26" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -8050,38 +8136,38 @@
       <c r="A27" s="102">
         <v>-2</v>
       </c>
-      <c r="B27" t="s" s="120">
-        <v>178</v>
-      </c>
-      <c r="C27" t="s" s="120">
-        <v>173</v>
+      <c r="B27" t="s" s="118">
+        <v>180</v>
+      </c>
+      <c r="C27" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="21"/>
-      <c r="F27" s="129">
+      <c r="F27" s="127">
         <v>4067200</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="21"/>
-      <c r="I27" s="130">
+      <c r="I27" s="128">
         <v>247428.56</v>
       </c>
       <c r="J27" s="70"/>
       <c r="K27" s="70"/>
-      <c r="L27" s="123">
+      <c r="L27" s="121">
         <v>250000</v>
       </c>
-      <c r="M27" s="132"/>
+      <c r="M27" s="130"/>
       <c r="N27" s="49"/>
       <c r="O27" s="21"/>
       <c r="P27" s="109">
         <v>0.98971424</v>
       </c>
       <c r="Q27" s="70"/>
-      <c r="R27" s="126">
+      <c r="R27" s="124">
         <v>0.1084672643874</v>
       </c>
-      <c r="S27" t="s" s="120">
+      <c r="S27" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -8089,38 +8175,38 @@
       <c r="A28" s="102">
         <v>-2</v>
       </c>
-      <c r="B28" t="s" s="120">
-        <v>179</v>
-      </c>
-      <c r="C28" t="s" s="120">
-        <v>173</v>
+      <c r="B28" t="s" s="118">
+        <v>181</v>
+      </c>
+      <c r="C28" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="21"/>
-      <c r="F28" s="129">
+      <c r="F28" s="127">
         <v>1419200</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="21"/>
-      <c r="I28" s="130">
+      <c r="I28" s="128">
         <v>92785.710000000006</v>
       </c>
       <c r="J28" s="70"/>
       <c r="K28" s="70"/>
-      <c r="L28" s="123">
+      <c r="L28" s="121">
         <v>100000</v>
       </c>
-      <c r="M28" s="132"/>
+      <c r="M28" s="130"/>
       <c r="N28" s="49"/>
       <c r="O28" s="21"/>
       <c r="P28" s="109">
         <v>0.9278571</v>
       </c>
       <c r="Q28" s="70"/>
-      <c r="R28" s="126">
+      <c r="R28" s="124">
         <v>0.0233978379155821</v>
       </c>
-      <c r="S28" t="s" s="120">
+      <c r="S28" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -8128,38 +8214,38 @@
       <c r="A29" s="102">
         <v>-2</v>
       </c>
-      <c r="B29" t="s" s="120">
-        <v>180</v>
-      </c>
-      <c r="C29" t="s" s="120">
-        <v>173</v>
+      <c r="B29" t="s" s="118">
+        <v>182</v>
+      </c>
+      <c r="C29" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="21"/>
-      <c r="F29" s="129">
+      <c r="F29" s="127">
         <v>1014300</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="21"/>
-      <c r="I29" s="130">
+      <c r="I29" s="128">
         <v>21649.999</v>
       </c>
       <c r="J29" s="70"/>
       <c r="K29" s="70"/>
-      <c r="L29" s="123">
+      <c r="L29" s="121">
         <v>25000</v>
       </c>
-      <c r="M29" s="132"/>
+      <c r="M29" s="130"/>
       <c r="N29" s="49"/>
       <c r="O29" s="21"/>
       <c r="P29" s="109">
         <v>0.86599996</v>
       </c>
       <c r="Q29" s="70"/>
-      <c r="R29" s="126">
+      <c r="R29" s="124">
         <v>-0.151329750703397</v>
       </c>
-      <c r="S29" t="s" s="120">
+      <c r="S29" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -8167,38 +8253,38 @@
       <c r="A30" s="102">
         <v>-2</v>
       </c>
-      <c r="B30" t="s" s="120">
-        <v>181</v>
-      </c>
-      <c r="C30" t="s" s="120">
-        <v>173</v>
+      <c r="B30" t="s" s="118">
+        <v>183</v>
+      </c>
+      <c r="C30" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="21"/>
-      <c r="F30" s="129">
+      <c r="F30" s="127">
         <v>628320</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="21"/>
-      <c r="I30" s="130">
+      <c r="I30" s="128">
         <v>55671.426</v>
       </c>
       <c r="J30" s="70"/>
       <c r="K30" s="70"/>
-      <c r="L30" s="123">
+      <c r="L30" s="121">
         <v>60000</v>
       </c>
-      <c r="M30" s="132"/>
+      <c r="M30" s="130"/>
       <c r="N30" s="49"/>
       <c r="O30" s="21"/>
       <c r="P30" s="109">
         <v>0.9278571</v>
       </c>
       <c r="Q30" s="70"/>
-      <c r="R30" s="126">
+      <c r="R30" s="124">
         <v>-0.0695404045114185</v>
       </c>
-      <c r="S30" t="s" s="120">
+      <c r="S30" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -8206,428 +8292,428 @@
       <c r="A31" s="102">
         <v>-2</v>
       </c>
-      <c r="B31" t="s" s="120">
-        <v>182</v>
-      </c>
-      <c r="C31" t="s" s="120">
-        <v>173</v>
+      <c r="B31" t="s" s="118">
+        <v>184</v>
+      </c>
+      <c r="C31" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="129">
+      <c r="F31" s="127">
         <v>12234288</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="21"/>
-      <c r="I31" s="130">
+      <c r="I31" s="128">
         <v>773214.25</v>
       </c>
       <c r="J31" s="70"/>
       <c r="K31" s="70"/>
-      <c r="L31" s="123">
+      <c r="L31" s="121">
         <v>800000</v>
       </c>
-      <c r="M31" s="132"/>
+      <c r="M31" s="130"/>
       <c r="N31" s="49"/>
       <c r="O31" s="21"/>
       <c r="P31" s="109">
         <v>0.9665178125</v>
       </c>
       <c r="Q31" s="70"/>
-      <c r="R31" s="126">
+      <c r="R31" s="124">
         <v>0.0211452543109312</v>
       </c>
-      <c r="S31" t="s" s="120">
+      <c r="S31" t="s" s="118">
         <v>4</v>
       </c>
     </row>
     <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="123">
+      <c r="A32" s="121">
         <v>-1</v>
       </c>
-      <c r="B32" t="s" s="120">
-        <v>172</v>
-      </c>
-      <c r="C32" t="s" s="120">
-        <v>173</v>
+      <c r="B32" t="s" s="118">
+        <v>174</v>
+      </c>
+      <c r="C32" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="21"/>
-      <c r="F32" s="129">
+      <c r="F32" s="127">
         <v>10560000</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="21"/>
-      <c r="I32" s="130">
+      <c r="I32" s="128">
         <v>716400</v>
       </c>
       <c r="J32" s="70"/>
       <c r="K32" s="70"/>
-      <c r="L32" s="123">
+      <c r="L32" s="121">
         <v>600000</v>
       </c>
-      <c r="M32" s="132"/>
+      <c r="M32" s="130"/>
       <c r="N32" s="49"/>
       <c r="O32" s="21"/>
       <c r="P32" s="109">
         <v>1.194</v>
       </c>
       <c r="Q32" s="70"/>
-      <c r="R32" s="126">
+      <c r="R32" s="124">
         <v>0.362532327572475</v>
       </c>
-      <c r="S32" t="s" s="120">
+      <c r="S32" t="s" s="118">
         <v>4</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="123">
+      <c r="A33" s="121">
         <v>-1</v>
       </c>
-      <c r="B33" t="s" s="120">
-        <v>174</v>
-      </c>
-      <c r="C33" t="s" s="120">
-        <v>173</v>
+      <c r="B33" t="s" s="118">
+        <v>176</v>
+      </c>
+      <c r="C33" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="21"/>
-      <c r="F33" s="129">
+      <c r="F33" s="127">
         <v>3700000</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="21"/>
-      <c r="I33" s="130">
+      <c r="I33" s="128">
         <v>220500</v>
       </c>
       <c r="J33" s="70"/>
       <c r="K33" s="70"/>
-      <c r="L33" s="123">
+      <c r="L33" s="121">
         <v>200000</v>
       </c>
-      <c r="M33" s="132"/>
+      <c r="M33" s="130"/>
       <c r="N33" s="49"/>
       <c r="O33" s="21"/>
       <c r="P33" s="109">
         <v>1.1025</v>
       </c>
       <c r="Q33" s="70"/>
-      <c r="R33" s="126">
+      <c r="R33" s="124">
         <v>0.425866116668181</v>
       </c>
-      <c r="S33" t="s" s="120">
+      <c r="S33" t="s" s="118">
         <v>4</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="123">
+      <c r="A34" s="121">
         <v>-1</v>
       </c>
-      <c r="B34" t="s" s="120">
+      <c r="B34" t="s" s="118">
+        <v>177</v>
+      </c>
+      <c r="C34" t="s" s="118">
         <v>175</v>
-      </c>
-      <c r="C34" t="s" s="120">
-        <v>173</v>
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="21"/>
-      <c r="F34" s="129">
+      <c r="F34" s="127">
         <v>13041600</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="21"/>
-      <c r="I34" s="130">
+      <c r="I34" s="128">
         <v>859704</v>
       </c>
       <c r="J34" s="70"/>
       <c r="K34" s="70"/>
-      <c r="L34" s="123">
+      <c r="L34" s="121">
         <v>800000</v>
       </c>
-      <c r="M34" s="132"/>
+      <c r="M34" s="130"/>
       <c r="N34" s="49"/>
       <c r="O34" s="21"/>
       <c r="P34" s="109">
         <v>1.07463</v>
       </c>
       <c r="Q34" s="70"/>
-      <c r="R34" s="126">
+      <c r="R34" s="124">
         <v>0.208540672349504</v>
       </c>
-      <c r="S34" t="s" s="120">
+      <c r="S34" t="s" s="118">
         <v>4</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1">
-      <c r="A35" s="123">
+      <c r="A35" s="121">
         <v>-1</v>
       </c>
-      <c r="B35" t="s" s="120">
-        <v>176</v>
-      </c>
-      <c r="C35" t="s" s="120">
-        <v>173</v>
+      <c r="B35" t="s" s="118">
+        <v>178</v>
+      </c>
+      <c r="C35" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="21"/>
-      <c r="F35" s="129">
+      <c r="F35" s="127">
         <v>6200000</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="21"/>
-      <c r="I35" s="130">
+      <c r="I35" s="128">
         <v>400000</v>
       </c>
       <c r="J35" s="70"/>
       <c r="K35" s="70"/>
-      <c r="L35" s="123">
+      <c r="L35" s="121">
         <v>450000</v>
       </c>
-      <c r="M35" s="132"/>
+      <c r="M35" s="130"/>
       <c r="N35" s="49"/>
       <c r="O35" s="21"/>
       <c r="P35" s="109">
         <v>0.888888888888889</v>
       </c>
       <c r="Q35" s="70"/>
-      <c r="R35" s="126">
+      <c r="R35" s="124">
         <v>-0.0762124284624679</v>
       </c>
-      <c r="S35" t="s" s="120">
+      <c r="S35" t="s" s="118">
         <v>4</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1">
-      <c r="A36" s="123">
+      <c r="A36" s="121">
         <v>-1</v>
       </c>
-      <c r="B36" t="s" s="120">
-        <v>177</v>
-      </c>
-      <c r="C36" t="s" s="120">
-        <v>173</v>
+      <c r="B36" t="s" s="118">
+        <v>179</v>
+      </c>
+      <c r="C36" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D36" s="20"/>
       <c r="E36" s="21"/>
-      <c r="F36" s="129">
+      <c r="F36" s="127">
         <v>1400000</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="21"/>
-      <c r="I36" s="130">
+      <c r="I36" s="128">
         <v>90000</v>
       </c>
       <c r="J36" s="70"/>
       <c r="K36" s="70"/>
-      <c r="L36" s="123">
+      <c r="L36" s="121">
         <v>85000</v>
       </c>
-      <c r="M36" s="132"/>
+      <c r="M36" s="130"/>
       <c r="N36" s="49"/>
       <c r="O36" s="21"/>
       <c r="P36" s="109">
         <v>1.05882352941176</v>
       </c>
       <c r="Q36" s="70"/>
-      <c r="R36" s="126">
+      <c r="R36" s="124">
         <v>0.163972340137291</v>
       </c>
-      <c r="S36" t="s" s="120">
+      <c r="S36" t="s" s="118">
         <v>4</v>
       </c>
     </row>
     <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" s="123">
+      <c r="A37" s="121">
         <v>-1</v>
       </c>
-      <c r="B37" t="s" s="120">
-        <v>178</v>
-      </c>
-      <c r="C37" t="s" s="120">
-        <v>173</v>
+      <c r="B37" t="s" s="118">
+        <v>180</v>
+      </c>
+      <c r="C37" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="21"/>
-      <c r="F37" s="129">
+      <c r="F37" s="127">
         <v>4067200</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="21"/>
-      <c r="I37" s="130">
+      <c r="I37" s="128">
         <v>276368</v>
       </c>
       <c r="J37" s="70"/>
       <c r="K37" s="70"/>
-      <c r="L37" s="123">
+      <c r="L37" s="121">
         <v>250000</v>
       </c>
-      <c r="M37" s="132"/>
+      <c r="M37" s="130"/>
       <c r="N37" s="49"/>
       <c r="O37" s="21"/>
       <c r="P37" s="109">
         <v>1.105472</v>
       </c>
       <c r="Q37" s="70"/>
-      <c r="R37" s="126">
+      <c r="R37" s="124">
         <v>0.116960790621746</v>
       </c>
-      <c r="S37" t="s" s="120">
+      <c r="S37" t="s" s="118">
         <v>4</v>
       </c>
     </row>
     <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" s="123">
+      <c r="A38" s="121">
         <v>-1</v>
       </c>
-      <c r="B38" t="s" s="120">
-        <v>179</v>
-      </c>
-      <c r="C38" t="s" s="120">
-        <v>173</v>
+      <c r="B38" t="s" s="118">
+        <v>181</v>
+      </c>
+      <c r="C38" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="21"/>
-      <c r="F38" s="129">
+      <c r="F38" s="127">
         <v>1419200</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="21"/>
-      <c r="I38" s="130">
+      <c r="I38" s="128">
         <v>90248</v>
       </c>
       <c r="J38" s="70"/>
       <c r="K38" s="70"/>
-      <c r="L38" s="123">
+      <c r="L38" s="121">
         <v>100000</v>
       </c>
-      <c r="M38" s="132"/>
+      <c r="M38" s="130"/>
       <c r="N38" s="49"/>
       <c r="O38" s="21"/>
       <c r="P38" s="109">
         <v>0.9024799999999999</v>
       </c>
       <c r="Q38" s="70"/>
-      <c r="R38" s="126">
+      <c r="R38" s="124">
         <v>-0.0273502245119426</v>
       </c>
-      <c r="S38" t="s" s="120">
+      <c r="S38" t="s" s="118">
         <v>4</v>
       </c>
     </row>
     <row r="39" ht="13.5" customHeight="1">
-      <c r="A39" s="123">
+      <c r="A39" s="121">
         <v>-1</v>
       </c>
-      <c r="B39" t="s" s="120">
-        <v>180</v>
-      </c>
-      <c r="C39" t="s" s="120">
-        <v>173</v>
+      <c r="B39" t="s" s="118">
+        <v>182</v>
+      </c>
+      <c r="C39" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="21"/>
-      <c r="F39" s="129">
+      <c r="F39" s="127">
         <v>1014300</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="21"/>
-      <c r="I39" s="130">
+      <c r="I39" s="128">
         <v>28930</v>
       </c>
       <c r="J39" s="70"/>
       <c r="K39" s="70"/>
-      <c r="L39" s="123">
+      <c r="L39" s="121">
         <v>25000</v>
       </c>
-      <c r="M39" s="132"/>
+      <c r="M39" s="130"/>
       <c r="N39" s="49"/>
       <c r="O39" s="21"/>
       <c r="P39" s="109">
         <v>1.1572</v>
       </c>
       <c r="Q39" s="70"/>
-      <c r="R39" s="126">
+      <c r="R39" s="124">
         <v>0.33625872222904</v>
       </c>
-      <c r="S39" t="s" s="120">
+      <c r="S39" t="s" s="118">
         <v>4</v>
       </c>
     </row>
     <row r="40" ht="13.5" customHeight="1">
-      <c r="A40" s="123">
+      <c r="A40" s="121">
         <v>-1</v>
       </c>
-      <c r="B40" t="s" s="120">
-        <v>181</v>
-      </c>
-      <c r="C40" t="s" s="120">
-        <v>173</v>
+      <c r="B40" t="s" s="118">
+        <v>183</v>
+      </c>
+      <c r="C40" t="s" s="118">
+        <v>175</v>
       </c>
       <c r="D40" s="20"/>
       <c r="E40" s="21"/>
-      <c r="F40" s="129">
+      <c r="F40" s="127">
         <v>628320</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="21"/>
-      <c r="I40" s="130">
+      <c r="I40" s="128">
         <v>35840</v>
       </c>
       <c r="J40" s="70"/>
       <c r="K40" s="70"/>
-      <c r="L40" s="123">
+      <c r="L40" s="121">
         <v>40000</v>
       </c>
-      <c r="M40" s="132"/>
+      <c r="M40" s="130"/>
       <c r="N40" s="49"/>
       <c r="O40" s="21"/>
       <c r="P40" s="109">
         <v>0.896</v>
       </c>
       <c r="Q40" s="70"/>
-      <c r="R40" s="126">
+      <c r="R40" s="124">
         <v>-0.356222705701844</v>
       </c>
-      <c r="S40" t="s" s="120">
+      <c r="S40" t="s" s="118">
         <v>4</v>
       </c>
     </row>
     <row r="41" ht="13.5" customHeight="1">
-      <c r="A41" s="123">
+      <c r="A41" s="121">
         <v>-1</v>
       </c>
-      <c r="B41" t="s" s="120">
-        <v>182</v>
-      </c>
-      <c r="C41" t="s" s="120">
-        <v>173</v>
-      </c>
-      <c r="D41" s="135"/>
+      <c r="B41" t="s" s="118">
+        <v>184</v>
+      </c>
+      <c r="C41" t="s" s="118">
+        <v>175</v>
+      </c>
+      <c r="D41" s="133"/>
       <c r="E41" s="21"/>
-      <c r="F41" s="129">
+      <c r="F41" s="127">
         <v>12234288</v>
       </c>
       <c r="G41" s="20"/>
       <c r="H41" s="21"/>
-      <c r="I41" s="130">
+      <c r="I41" s="128">
         <v>835229</v>
       </c>
       <c r="J41" s="70"/>
       <c r="K41" s="70"/>
-      <c r="L41" s="123">
+      <c r="L41" s="121">
         <v>800000</v>
       </c>
-      <c r="M41" s="132"/>
+      <c r="M41" s="130"/>
       <c r="N41" s="49"/>
       <c r="O41" s="21"/>
       <c r="P41" s="109">
         <v>1.04403625</v>
       </c>
       <c r="Q41" s="70"/>
-      <c r="R41" s="126">
+      <c r="R41" s="124">
         <v>0.08020383742281</v>
       </c>
-      <c r="S41" t="s" s="120">
+      <c r="S41" t="s" s="118">
         <v>4</v>
       </c>
     </row>
@@ -8636,35 +8722,35 @@
         <v>-4</v>
       </c>
       <c r="B42" s="67"/>
-      <c r="C42" t="s" s="136">
-        <v>183</v>
-      </c>
-      <c r="D42" t="s" s="136">
-        <v>184</v>
+      <c r="C42" t="s" s="134">
+        <v>185</v>
+      </c>
+      <c r="D42" t="s" s="134">
+        <v>186</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="48"/>
       <c r="G42" s="49"/>
       <c r="H42" s="21"/>
-      <c r="I42" s="137">
+      <c r="I42" s="135">
         <v>1053340</v>
       </c>
       <c r="J42" s="70"/>
       <c r="K42" s="70"/>
-      <c r="L42" s="137">
+      <c r="L42" s="135">
         <v>975000</v>
       </c>
-      <c r="M42" s="138"/>
+      <c r="M42" s="136"/>
       <c r="N42" s="49"/>
       <c r="O42" s="21"/>
-      <c r="P42" s="139">
+      <c r="P42" s="137">
         <v>1.08034871794872</v>
       </c>
       <c r="Q42" s="70"/>
-      <c r="R42" s="139">
+      <c r="R42" s="137">
         <v>0.187882670877236</v>
       </c>
-      <c r="S42" t="s" s="136">
+      <c r="S42" t="s" s="134">
         <v>90</v>
       </c>
     </row>
@@ -8673,35 +8759,35 @@
         <v>-4</v>
       </c>
       <c r="B43" s="70"/>
-      <c r="C43" t="s" s="136">
-        <v>183</v>
-      </c>
-      <c r="D43" t="s" s="136">
+      <c r="C43" t="s" s="134">
         <v>185</v>
+      </c>
+      <c r="D43" t="s" s="134">
+        <v>187</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="49"/>
       <c r="G43" s="49"/>
       <c r="H43" s="21"/>
-      <c r="I43" s="137">
+      <c r="I43" s="135">
         <v>1516481</v>
       </c>
       <c r="J43" s="70"/>
       <c r="K43" s="70"/>
-      <c r="L43" s="137">
+      <c r="L43" s="135">
         <v>1450000</v>
       </c>
-      <c r="M43" s="138"/>
+      <c r="M43" s="136"/>
       <c r="N43" s="49"/>
       <c r="O43" s="21"/>
-      <c r="P43" s="139">
+      <c r="P43" s="137">
         <v>1.04584896551724</v>
       </c>
       <c r="Q43" s="70"/>
-      <c r="R43" s="139">
+      <c r="R43" s="137">
         <v>0.159205827067669</v>
       </c>
-      <c r="S43" t="s" s="136">
+      <c r="S43" t="s" s="134">
         <v>90</v>
       </c>
     </row>
@@ -8710,35 +8796,35 @@
         <v>-4</v>
       </c>
       <c r="B44" s="70"/>
-      <c r="C44" t="s" s="136">
-        <v>183</v>
-      </c>
-      <c r="D44" t="s" s="136">
-        <v>186</v>
+      <c r="C44" t="s" s="134">
+        <v>185</v>
+      </c>
+      <c r="D44" t="s" s="134">
+        <v>188</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="49"/>
       <c r="G44" s="49"/>
       <c r="H44" s="21"/>
-      <c r="I44" s="137">
+      <c r="I44" s="135">
         <v>319691</v>
       </c>
       <c r="J44" s="70"/>
       <c r="K44" s="70"/>
-      <c r="L44" s="137">
+      <c r="L44" s="135">
         <v>385000</v>
       </c>
-      <c r="M44" s="138"/>
+      <c r="M44" s="136"/>
       <c r="N44" s="49"/>
       <c r="O44" s="21"/>
-      <c r="P44" s="139">
+      <c r="P44" s="137">
         <v>0.830366233766234</v>
       </c>
       <c r="Q44" s="70"/>
-      <c r="R44" s="139">
+      <c r="R44" s="137">
         <v>-0.124001966568338</v>
       </c>
-      <c r="S44" t="s" s="136">
+      <c r="S44" t="s" s="134">
         <v>90</v>
       </c>
     </row>
@@ -8747,35 +8833,35 @@
         <v>-4</v>
       </c>
       <c r="B45" s="70"/>
-      <c r="C45" t="s" s="136">
-        <v>183</v>
-      </c>
-      <c r="D45" t="s" s="136">
-        <v>187</v>
+      <c r="C45" t="s" s="134">
+        <v>185</v>
+      </c>
+      <c r="D45" t="s" s="134">
+        <v>189</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="49"/>
       <c r="G45" s="49"/>
       <c r="H45" s="21"/>
-      <c r="I45" s="137">
+      <c r="I45" s="135">
         <v>368874</v>
       </c>
       <c r="J45" s="70"/>
       <c r="K45" s="70"/>
-      <c r="L45" s="137">
+      <c r="L45" s="135">
         <v>370000</v>
       </c>
-      <c r="M45" s="138"/>
+      <c r="M45" s="136"/>
       <c r="N45" s="49"/>
       <c r="O45" s="21"/>
-      <c r="P45" s="139">
+      <c r="P45" s="137">
         <v>0.996956756756757</v>
       </c>
       <c r="Q45" s="70"/>
-      <c r="R45" s="139">
+      <c r="R45" s="137">
         <v>0.126180758017493</v>
       </c>
-      <c r="S45" t="s" s="136">
+      <c r="S45" t="s" s="134">
         <v>90</v>
       </c>
     </row>
@@ -8784,35 +8870,35 @@
         <v>-4</v>
       </c>
       <c r="B46" s="70"/>
-      <c r="C46" t="s" s="136">
-        <v>183</v>
-      </c>
-      <c r="D46" t="s" s="136">
-        <v>188</v>
+      <c r="C46" t="s" s="134">
+        <v>185</v>
+      </c>
+      <c r="D46" t="s" s="134">
+        <v>190</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="49"/>
       <c r="G46" s="49"/>
       <c r="H46" s="21"/>
-      <c r="I46" s="137">
+      <c r="I46" s="135">
         <v>840213</v>
       </c>
       <c r="J46" s="70"/>
       <c r="K46" s="70"/>
-      <c r="L46" s="137">
+      <c r="L46" s="135">
         <v>800000</v>
       </c>
-      <c r="M46" s="138"/>
+      <c r="M46" s="136"/>
       <c r="N46" s="49"/>
       <c r="O46" s="21"/>
-      <c r="P46" s="139">
+      <c r="P46" s="137">
         <v>1.05026625</v>
       </c>
       <c r="Q46" s="70"/>
-      <c r="R46" s="139">
+      <c r="R46" s="137">
         <v>0.146255697851096</v>
       </c>
-      <c r="S46" t="s" s="136">
+      <c r="S46" t="s" s="134">
         <v>90</v>
       </c>
     </row>
@@ -8821,35 +8907,35 @@
         <v>-3</v>
       </c>
       <c r="B47" s="70"/>
-      <c r="C47" t="s" s="136">
-        <v>183</v>
-      </c>
-      <c r="D47" t="s" s="136">
-        <v>184</v>
+      <c r="C47" t="s" s="134">
+        <v>185</v>
+      </c>
+      <c r="D47" t="s" s="134">
+        <v>186</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="49"/>
       <c r="G47" s="49"/>
       <c r="H47" s="21"/>
-      <c r="I47" s="137">
+      <c r="I47" s="135">
         <v>817035</v>
       </c>
       <c r="J47" s="70"/>
       <c r="K47" s="70"/>
-      <c r="L47" s="137">
+      <c r="L47" s="135">
         <v>910000</v>
       </c>
-      <c r="M47" s="138"/>
+      <c r="M47" s="136"/>
       <c r="N47" s="49"/>
       <c r="O47" s="21"/>
-      <c r="P47" s="139">
+      <c r="P47" s="137">
         <v>0.897840659340659</v>
       </c>
       <c r="Q47" s="70"/>
-      <c r="R47" s="139">
+      <c r="R47" s="137">
         <v>0.0145048865715667</v>
       </c>
-      <c r="S47" t="s" s="136">
+      <c r="S47" t="s" s="134">
         <v>90</v>
       </c>
     </row>
@@ -8858,35 +8944,35 @@
         <v>-3</v>
       </c>
       <c r="B48" s="70"/>
-      <c r="C48" t="s" s="136">
-        <v>183</v>
-      </c>
-      <c r="D48" t="s" s="136">
+      <c r="C48" t="s" s="134">
         <v>185</v>
+      </c>
+      <c r="D48" t="s" s="134">
+        <v>187</v>
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="49"/>
       <c r="G48" s="49"/>
       <c r="H48" s="21"/>
-      <c r="I48" s="137">
+      <c r="I48" s="135">
         <v>1214350</v>
       </c>
       <c r="J48" s="70"/>
       <c r="K48" s="70"/>
-      <c r="L48" s="137">
+      <c r="L48" s="135">
         <v>1350000</v>
       </c>
-      <c r="M48" s="138"/>
+      <c r="M48" s="136"/>
       <c r="N48" s="49"/>
       <c r="O48" s="21"/>
-      <c r="P48" s="139">
+      <c r="P48" s="137">
         <v>0.8995185185185181</v>
       </c>
       <c r="Q48" s="70"/>
-      <c r="R48" s="139">
+      <c r="R48" s="137">
         <v>-0.0576382426812698</v>
       </c>
-      <c r="S48" t="s" s="136">
+      <c r="S48" t="s" s="134">
         <v>90</v>
       </c>
     </row>
@@ -8895,35 +8981,35 @@
         <v>-3</v>
       </c>
       <c r="B49" s="70"/>
-      <c r="C49" t="s" s="136">
-        <v>183</v>
-      </c>
-      <c r="D49" t="s" s="136">
-        <v>186</v>
+      <c r="C49" t="s" s="134">
+        <v>185</v>
+      </c>
+      <c r="D49" t="s" s="134">
+        <v>188</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="49"/>
       <c r="G49" s="49"/>
       <c r="H49" s="21"/>
-      <c r="I49" s="137">
+      <c r="I49" s="135">
         <v>248727</v>
       </c>
       <c r="J49" s="70"/>
       <c r="K49" s="70"/>
-      <c r="L49" s="137">
+      <c r="L49" s="135">
         <v>275000</v>
       </c>
-      <c r="M49" s="138"/>
+      <c r="M49" s="136"/>
       <c r="N49" s="49"/>
       <c r="O49" s="21"/>
-      <c r="P49" s="139">
+      <c r="P49" s="137">
         <v>0.904461818181818</v>
       </c>
       <c r="Q49" s="70"/>
-      <c r="R49" s="139">
+      <c r="R49" s="137">
         <v>0.081824651123521</v>
       </c>
-      <c r="S49" t="s" s="136">
+      <c r="S49" t="s" s="134">
         <v>90</v>
       </c>
     </row>
@@ -8932,35 +9018,35 @@
         <v>-3</v>
       </c>
       <c r="B50" s="70"/>
-      <c r="C50" t="s" s="136">
-        <v>183</v>
-      </c>
-      <c r="D50" t="s" s="136">
-        <v>187</v>
+      <c r="C50" t="s" s="134">
+        <v>185</v>
+      </c>
+      <c r="D50" t="s" s="134">
+        <v>189</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="49"/>
       <c r="G50" s="49"/>
       <c r="H50" s="21"/>
-      <c r="I50" s="137">
+      <c r="I50" s="135">
         <v>281993</v>
       </c>
       <c r="J50" s="70"/>
       <c r="K50" s="70"/>
-      <c r="L50" s="137">
+      <c r="L50" s="135">
         <v>300000</v>
       </c>
-      <c r="M50" s="138"/>
+      <c r="M50" s="136"/>
       <c r="N50" s="49"/>
       <c r="O50" s="21"/>
-      <c r="P50" s="139">
+      <c r="P50" s="137">
         <v>0.939976666666667</v>
       </c>
       <c r="Q50" s="70"/>
-      <c r="R50" s="139">
+      <c r="R50" s="137">
         <v>-0.122570418414641</v>
       </c>
-      <c r="S50" t="s" s="136">
+      <c r="S50" t="s" s="134">
         <v>90</v>
       </c>
     </row>
@@ -8969,35 +9055,35 @@
         <v>-3</v>
       </c>
       <c r="B51" s="70"/>
-      <c r="C51" t="s" s="136">
-        <v>183</v>
-      </c>
-      <c r="D51" t="s" s="136">
-        <v>188</v>
+      <c r="C51" t="s" s="134">
+        <v>185</v>
+      </c>
+      <c r="D51" t="s" s="134">
+        <v>190</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="49"/>
       <c r="G51" s="49"/>
       <c r="H51" s="21"/>
-      <c r="I51" s="137">
+      <c r="I51" s="135">
         <v>626706</v>
       </c>
       <c r="J51" s="70"/>
       <c r="K51" s="70"/>
-      <c r="L51" s="137">
+      <c r="L51" s="135">
         <v>730000</v>
       </c>
-      <c r="M51" s="138"/>
+      <c r="M51" s="136"/>
       <c r="N51" s="49"/>
       <c r="O51" s="21"/>
-      <c r="P51" s="139">
+      <c r="P51" s="137">
         <v>0.858501369863014</v>
       </c>
       <c r="Q51" s="70"/>
-      <c r="R51" s="139">
+      <c r="R51" s="137">
         <v>-0.0376556152326609</v>
       </c>
-      <c r="S51" t="s" s="136">
+      <c r="S51" t="s" s="134">
         <v>90</v>
       </c>
     </row>
@@ -9006,35 +9092,35 @@
         <v>-2</v>
       </c>
       <c r="B52" s="70"/>
-      <c r="C52" t="s" s="136">
-        <v>183</v>
-      </c>
-      <c r="D52" t="s" s="136">
-        <v>184</v>
+      <c r="C52" t="s" s="134">
+        <v>185</v>
+      </c>
+      <c r="D52" t="s" s="134">
+        <v>186</v>
       </c>
       <c r="E52" s="20"/>
       <c r="F52" s="49"/>
       <c r="G52" s="49"/>
       <c r="H52" s="21"/>
-      <c r="I52" s="137">
+      <c r="I52" s="135">
         <v>828886</v>
       </c>
       <c r="J52" s="70"/>
       <c r="K52" s="70"/>
-      <c r="L52" s="137">
+      <c r="L52" s="135">
         <v>860000</v>
       </c>
-      <c r="M52" s="138"/>
+      <c r="M52" s="136"/>
       <c r="N52" s="49"/>
       <c r="O52" s="21"/>
-      <c r="P52" s="139">
+      <c r="P52" s="137">
         <v>0.963820930232558</v>
       </c>
       <c r="Q52" s="70"/>
-      <c r="R52" s="139">
+      <c r="R52" s="137">
         <v>0.0145048865715667</v>
       </c>
-      <c r="S52" t="s" s="136">
+      <c r="S52" t="s" s="134">
         <v>90</v>
       </c>
     </row>
@@ -9043,35 +9129,35 @@
         <v>-2</v>
       </c>
       <c r="B53" s="70"/>
-      <c r="C53" t="s" s="136">
-        <v>183</v>
-      </c>
-      <c r="D53" t="s" s="136">
+      <c r="C53" t="s" s="134">
         <v>185</v>
+      </c>
+      <c r="D53" t="s" s="134">
+        <v>187</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="49"/>
       <c r="G53" s="49"/>
       <c r="H53" s="21"/>
-      <c r="I53" s="137">
+      <c r="I53" s="135">
         <v>1144357</v>
       </c>
       <c r="J53" s="70"/>
       <c r="K53" s="70"/>
-      <c r="L53" s="137">
+      <c r="L53" s="135">
         <v>1250000</v>
       </c>
-      <c r="M53" s="138"/>
+      <c r="M53" s="136"/>
       <c r="N53" s="49"/>
       <c r="O53" s="21"/>
-      <c r="P53" s="139">
+      <c r="P53" s="137">
         <v>0.9154856</v>
       </c>
       <c r="Q53" s="70"/>
-      <c r="R53" s="139">
+      <c r="R53" s="137">
         <v>-0.0576382426812698</v>
       </c>
-      <c r="S53" t="s" s="136">
+      <c r="S53" t="s" s="134">
         <v>90</v>
       </c>
     </row>
@@ -9080,35 +9166,35 @@
         <v>-2</v>
       </c>
       <c r="B54" s="70"/>
-      <c r="C54" t="s" s="136">
-        <v>183</v>
-      </c>
-      <c r="D54" t="s" s="136">
-        <v>186</v>
+      <c r="C54" t="s" s="134">
+        <v>185</v>
+      </c>
+      <c r="D54" t="s" s="134">
+        <v>188</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="49"/>
       <c r="G54" s="49"/>
       <c r="H54" s="21"/>
-      <c r="I54" s="137">
+      <c r="I54" s="135">
         <v>269079</v>
       </c>
       <c r="J54" s="70"/>
       <c r="K54" s="70"/>
-      <c r="L54" s="137">
+      <c r="L54" s="135">
         <v>275000</v>
       </c>
-      <c r="M54" s="138"/>
+      <c r="M54" s="136"/>
       <c r="N54" s="49"/>
       <c r="O54" s="21"/>
-      <c r="P54" s="139">
+      <c r="P54" s="137">
         <v>0.978469090909091</v>
       </c>
       <c r="Q54" s="70"/>
-      <c r="R54" s="139">
+      <c r="R54" s="137">
         <v>0.081824651123521</v>
       </c>
-      <c r="S54" t="s" s="136">
+      <c r="S54" t="s" s="134">
         <v>90</v>
       </c>
     </row>
@@ -9117,35 +9203,35 @@
         <v>-2</v>
       </c>
       <c r="B55" s="70"/>
-      <c r="C55" t="s" s="136">
-        <v>183</v>
-      </c>
-      <c r="D55" t="s" s="136">
-        <v>187</v>
+      <c r="C55" t="s" s="134">
+        <v>185</v>
+      </c>
+      <c r="D55" t="s" s="134">
+        <v>189</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="49"/>
       <c r="G55" s="49"/>
       <c r="H55" s="21"/>
-      <c r="I55" s="137">
+      <c r="I55" s="135">
         <v>247429</v>
       </c>
       <c r="J55" s="70"/>
       <c r="K55" s="70"/>
-      <c r="L55" s="137">
+      <c r="L55" s="135">
         <v>270000</v>
       </c>
-      <c r="M55" s="138"/>
+      <c r="M55" s="136"/>
       <c r="N55" s="49"/>
       <c r="O55" s="21"/>
-      <c r="P55" s="139">
+      <c r="P55" s="137">
         <v>0.9164037037037041</v>
       </c>
       <c r="Q55" s="70"/>
-      <c r="R55" s="139">
+      <c r="R55" s="137">
         <v>-0.122570418414641</v>
       </c>
-      <c r="S55" t="s" s="136">
+      <c r="S55" t="s" s="134">
         <v>90</v>
       </c>
     </row>
@@ -9154,220 +9240,220 @@
         <v>-2</v>
       </c>
       <c r="B56" s="70"/>
-      <c r="C56" t="s" s="136">
-        <v>183</v>
-      </c>
-      <c r="D56" t="s" s="136">
-        <v>188</v>
+      <c r="C56" t="s" s="134">
+        <v>185</v>
+      </c>
+      <c r="D56" t="s" s="134">
+        <v>190</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="49"/>
       <c r="G56" s="49"/>
       <c r="H56" s="21"/>
-      <c r="I56" s="137">
+      <c r="I56" s="135">
         <v>603107</v>
       </c>
       <c r="J56" s="70"/>
       <c r="K56" s="70"/>
-      <c r="L56" s="137">
+      <c r="L56" s="135">
         <v>630000</v>
       </c>
-      <c r="M56" s="138"/>
+      <c r="M56" s="136"/>
       <c r="N56" s="49"/>
       <c r="O56" s="21"/>
-      <c r="P56" s="139">
+      <c r="P56" s="137">
         <v>0.9573126984126979</v>
       </c>
       <c r="Q56" s="70"/>
-      <c r="R56" s="139">
+      <c r="R56" s="137">
         <v>-0.0376556152326609</v>
       </c>
-      <c r="S56" t="s" s="136">
+      <c r="S56" t="s" s="134">
         <v>90</v>
       </c>
     </row>
     <row r="57" ht="13.5" customHeight="1">
-      <c r="A57" s="123">
+      <c r="A57" s="121">
         <v>-1</v>
       </c>
       <c r="B57" s="70"/>
-      <c r="C57" t="s" s="136">
-        <v>183</v>
-      </c>
-      <c r="D57" t="s" s="136">
-        <v>184</v>
+      <c r="C57" t="s" s="134">
+        <v>185</v>
+      </c>
+      <c r="D57" t="s" s="134">
+        <v>186</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="49"/>
       <c r="G57" s="49"/>
       <c r="H57" s="21"/>
-      <c r="I57" s="137">
+      <c r="I57" s="135">
         <v>871069</v>
       </c>
       <c r="J57" s="70"/>
       <c r="K57" s="70"/>
-      <c r="L57" s="137">
+      <c r="L57" s="135">
         <v>840000</v>
       </c>
-      <c r="M57" s="138"/>
+      <c r="M57" s="136"/>
       <c r="N57" s="49"/>
       <c r="O57" s="21"/>
-      <c r="P57" s="139">
+      <c r="P57" s="137">
         <v>1.0369869047619</v>
       </c>
       <c r="Q57" s="70"/>
       <c r="R57" s="109">
         <v>0.0508911961355361</v>
       </c>
-      <c r="S57" t="s" s="140">
+      <c r="S57" t="s" s="138">
         <v>90</v>
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1">
-      <c r="A58" s="123">
+      <c r="A58" s="121">
         <v>-1</v>
       </c>
       <c r="B58" s="70"/>
-      <c r="C58" t="s" s="136">
-        <v>183</v>
-      </c>
-      <c r="D58" t="s" s="136">
+      <c r="C58" t="s" s="134">
         <v>185</v>
+      </c>
+      <c r="D58" t="s" s="134">
+        <v>187</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="49"/>
       <c r="G58" s="49"/>
       <c r="H58" s="21"/>
-      <c r="I58" s="137">
+      <c r="I58" s="135">
         <v>1259704</v>
       </c>
       <c r="J58" s="70"/>
       <c r="K58" s="70"/>
-      <c r="L58" s="137">
+      <c r="L58" s="135">
         <v>1250000</v>
       </c>
-      <c r="M58" s="138"/>
+      <c r="M58" s="136"/>
       <c r="N58" s="49"/>
       <c r="O58" s="21"/>
-      <c r="P58" s="139">
+      <c r="P58" s="137">
         <v>1.0077632</v>
       </c>
       <c r="Q58" s="70"/>
       <c r="R58" s="109">
         <v>0.100796342400143</v>
       </c>
-      <c r="S58" t="s" s="140">
+      <c r="S58" t="s" s="138">
         <v>90</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1">
-      <c r="A59" s="123">
+      <c r="A59" s="121">
         <v>-1</v>
       </c>
       <c r="B59" s="70"/>
-      <c r="C59" t="s" s="136">
-        <v>183</v>
-      </c>
-      <c r="D59" t="s" s="136">
-        <v>186</v>
+      <c r="C59" t="s" s="134">
+        <v>185</v>
+      </c>
+      <c r="D59" t="s" s="134">
+        <v>188</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="49"/>
       <c r="G59" s="49"/>
       <c r="H59" s="21"/>
-      <c r="I59" s="137">
+      <c r="I59" s="135">
         <v>305298</v>
       </c>
       <c r="J59" s="70"/>
       <c r="K59" s="70"/>
-      <c r="L59" s="137">
+      <c r="L59" s="135">
         <v>275000</v>
       </c>
-      <c r="M59" s="138"/>
+      <c r="M59" s="136"/>
       <c r="N59" s="49"/>
       <c r="O59" s="21"/>
-      <c r="P59" s="139">
+      <c r="P59" s="137">
         <v>1.11017454545455</v>
       </c>
       <c r="Q59" s="70"/>
       <c r="R59" s="109">
         <v>0.134603592253576</v>
       </c>
-      <c r="S59" t="s" s="140">
+      <c r="S59" t="s" s="138">
         <v>90</v>
       </c>
     </row>
     <row r="60" ht="13.5" customHeight="1">
-      <c r="A60" s="123">
+      <c r="A60" s="121">
         <v>-1</v>
       </c>
       <c r="B60" s="70"/>
-      <c r="C60" t="s" s="136">
-        <v>183</v>
-      </c>
-      <c r="D60" t="s" s="136">
-        <v>187</v>
+      <c r="C60" t="s" s="134">
+        <v>185</v>
+      </c>
+      <c r="D60" t="s" s="134">
+        <v>189</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="49"/>
       <c r="G60" s="49"/>
       <c r="H60" s="21"/>
-      <c r="I60" s="137">
+      <c r="I60" s="135">
         <v>310748</v>
       </c>
       <c r="J60" s="70"/>
       <c r="K60" s="70"/>
-      <c r="L60" s="137">
+      <c r="L60" s="135">
         <v>300000</v>
       </c>
-      <c r="M60" s="138"/>
+      <c r="M60" s="136"/>
       <c r="N60" s="49"/>
       <c r="O60" s="21"/>
-      <c r="P60" s="139">
+      <c r="P60" s="137">
         <v>1.03582666666667</v>
       </c>
       <c r="Q60" s="70"/>
       <c r="R60" s="109">
         <v>0.255907755356082</v>
       </c>
-      <c r="S60" t="s" s="140">
+      <c r="S60" t="s" s="138">
         <v>90</v>
       </c>
     </row>
     <row r="61" ht="13.5" customHeight="1">
-      <c r="A61" s="123">
+      <c r="A61" s="121">
         <v>-1</v>
       </c>
       <c r="B61" s="70"/>
-      <c r="C61" t="s" s="136">
-        <v>183</v>
-      </c>
-      <c r="D61" t="s" s="136">
-        <v>188</v>
+      <c r="C61" t="s" s="134">
+        <v>185</v>
+      </c>
+      <c r="D61" t="s" s="134">
+        <v>190</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="49"/>
       <c r="G61" s="49"/>
       <c r="H61" s="21"/>
-      <c r="I61" s="137">
+      <c r="I61" s="135">
         <v>806400</v>
       </c>
       <c r="J61" s="70"/>
       <c r="K61" s="70"/>
-      <c r="L61" s="137">
+      <c r="L61" s="135">
         <v>685000</v>
       </c>
-      <c r="M61" s="138"/>
+      <c r="M61" s="136"/>
       <c r="N61" s="49"/>
       <c r="O61" s="21"/>
-      <c r="P61" s="139">
+      <c r="P61" s="137">
         <v>1.17722627737226</v>
       </c>
       <c r="Q61" s="70"/>
       <c r="R61" s="109">
         <v>0.337076173879594</v>
       </c>
-      <c r="S61" t="s" s="140">
+      <c r="S61" t="s" s="138">
         <v>90</v>
       </c>
     </row>
@@ -9376,33 +9462,33 @@
         <v>-4</v>
       </c>
       <c r="B62" s="70"/>
-      <c r="C62" t="s" s="141">
-        <v>189</v>
-      </c>
-      <c r="D62" s="142"/>
+      <c r="C62" t="s" s="139">
+        <v>191</v>
+      </c>
+      <c r="D62" s="140"/>
       <c r="E62" s="49"/>
       <c r="F62" s="49"/>
       <c r="G62" s="49"/>
       <c r="H62" s="21"/>
-      <c r="I62" s="143">
+      <c r="I62" s="141">
         <v>4098598</v>
       </c>
       <c r="J62" s="70"/>
       <c r="K62" s="70"/>
-      <c r="L62" s="143">
+      <c r="L62" s="141">
         <v>3980000</v>
       </c>
-      <c r="M62" s="144"/>
+      <c r="M62" s="142"/>
       <c r="N62" s="49"/>
       <c r="O62" s="21"/>
-      <c r="P62" s="145">
+      <c r="P62" s="143">
         <v>1.02979849246231</v>
       </c>
       <c r="Q62" s="70"/>
-      <c r="R62" s="143">
+      <c r="R62" s="141">
         <v>0.132072104234243</v>
       </c>
-      <c r="S62" t="s" s="141">
+      <c r="S62" t="s" s="139">
         <v>55</v>
       </c>
     </row>
@@ -9411,33 +9497,33 @@
         <v>-4</v>
       </c>
       <c r="B63" s="70"/>
-      <c r="C63" t="s" s="141">
-        <v>190</v>
+      <c r="C63" t="s" s="139">
+        <v>192</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="49"/>
       <c r="F63" s="49"/>
       <c r="G63" s="49"/>
       <c r="H63" s="21"/>
-      <c r="I63" s="143">
+      <c r="I63" s="141">
         <v>728487</v>
       </c>
       <c r="J63" s="70"/>
       <c r="K63" s="70"/>
-      <c r="L63" s="143">
+      <c r="L63" s="141">
         <v>655000</v>
       </c>
-      <c r="M63" s="144"/>
+      <c r="M63" s="142"/>
       <c r="N63" s="49"/>
       <c r="O63" s="21"/>
-      <c r="P63" s="145">
+      <c r="P63" s="143">
         <v>1.11219389312977</v>
       </c>
       <c r="Q63" s="70"/>
-      <c r="R63" s="143">
+      <c r="R63" s="141">
         <v>0.277815753907202</v>
       </c>
-      <c r="S63" t="s" s="141">
+      <c r="S63" t="s" s="139">
         <v>55</v>
       </c>
     </row>
@@ -9446,33 +9532,33 @@
         <v>-4</v>
       </c>
       <c r="B64" s="70"/>
-      <c r="C64" t="s" s="141">
-        <v>191</v>
+      <c r="C64" t="s" s="139">
+        <v>193</v>
       </c>
       <c r="D64" s="20"/>
       <c r="E64" s="49"/>
       <c r="F64" s="49"/>
       <c r="G64" s="49"/>
       <c r="H64" s="21"/>
-      <c r="I64" s="143">
+      <c r="I64" s="141">
         <v>2576862</v>
       </c>
       <c r="J64" s="70"/>
       <c r="K64" s="70"/>
-      <c r="L64" s="143">
+      <c r="L64" s="141">
         <v>2610000</v>
       </c>
-      <c r="M64" s="144"/>
+      <c r="M64" s="142"/>
       <c r="N64" s="49"/>
       <c r="O64" s="21"/>
-      <c r="P64" s="145">
+      <c r="P64" s="143">
         <v>0.987303448275862</v>
       </c>
       <c r="Q64" s="70"/>
-      <c r="R64" s="143">
+      <c r="R64" s="141">
         <v>0.09925064051998669</v>
       </c>
-      <c r="S64" t="s" s="141">
+      <c r="S64" t="s" s="139">
         <v>55</v>
       </c>
     </row>
@@ -9481,33 +9567,33 @@
         <v>-3</v>
       </c>
       <c r="B65" s="70"/>
-      <c r="C65" t="s" s="141">
-        <v>189</v>
+      <c r="C65" t="s" s="139">
+        <v>191</v>
       </c>
       <c r="D65" s="20"/>
       <c r="E65" s="49"/>
       <c r="F65" s="49"/>
       <c r="G65" s="49"/>
       <c r="H65" s="21"/>
-      <c r="I65" s="143">
+      <c r="I65" s="141">
         <v>3188812</v>
       </c>
       <c r="J65" s="70"/>
       <c r="K65" s="70"/>
-      <c r="L65" s="143">
+      <c r="L65" s="141">
         <v>3565000</v>
       </c>
-      <c r="M65" s="144"/>
+      <c r="M65" s="142"/>
       <c r="N65" s="49"/>
       <c r="O65" s="21"/>
-      <c r="P65" s="145">
+      <c r="P65" s="143">
         <v>0.894477419354839</v>
       </c>
       <c r="Q65" s="70"/>
-      <c r="R65" s="143">
+      <c r="R65" s="141">
         <v>-0.221974928987912</v>
       </c>
-      <c r="S65" t="s" s="141">
+      <c r="S65" t="s" s="139">
         <v>55</v>
       </c>
     </row>
@@ -9516,33 +9602,33 @@
         <v>-3</v>
       </c>
       <c r="B66" s="70"/>
-      <c r="C66" t="s" s="141">
-        <v>190</v>
+      <c r="C66" t="s" s="139">
+        <v>192</v>
       </c>
       <c r="D66" s="20"/>
       <c r="E66" s="49"/>
       <c r="F66" s="49"/>
       <c r="G66" s="49"/>
       <c r="H66" s="21"/>
-      <c r="I66" s="143">
+      <c r="I66" s="141">
         <v>560064</v>
       </c>
       <c r="J66" s="70"/>
       <c r="K66" s="70"/>
-      <c r="L66" s="143">
+      <c r="L66" s="141">
         <v>615000</v>
       </c>
-      <c r="M66" s="144"/>
+      <c r="M66" s="142"/>
       <c r="N66" s="49"/>
       <c r="O66" s="21"/>
-      <c r="P66" s="145">
+      <c r="P66" s="143">
         <v>0.9106731707317069</v>
       </c>
       <c r="Q66" s="70"/>
-      <c r="R66" s="143">
+      <c r="R66" s="141">
         <v>-0.23119561502127</v>
       </c>
-      <c r="S66" t="s" s="141">
+      <c r="S66" t="s" s="139">
         <v>55</v>
       </c>
     </row>
@@ -9551,33 +9637,33 @@
         <v>-3</v>
       </c>
       <c r="B67" s="70"/>
-      <c r="C67" t="s" s="141">
-        <v>191</v>
+      <c r="C67" t="s" s="139">
+        <v>193</v>
       </c>
       <c r="D67" s="20"/>
       <c r="E67" s="49"/>
       <c r="F67" s="49"/>
       <c r="G67" s="49"/>
       <c r="H67" s="21"/>
-      <c r="I67" s="143">
+      <c r="I67" s="141">
         <v>2293022</v>
       </c>
       <c r="J67" s="70"/>
       <c r="K67" s="70"/>
-      <c r="L67" s="143">
+      <c r="L67" s="141">
         <v>2365000</v>
       </c>
-      <c r="M67" s="144"/>
+      <c r="M67" s="142"/>
       <c r="N67" s="49"/>
       <c r="O67" s="21"/>
-      <c r="P67" s="145">
+      <c r="P67" s="143">
         <v>0.96956532769556</v>
       </c>
       <c r="Q67" s="70"/>
-      <c r="R67" s="143">
+      <c r="R67" s="141">
         <v>-0.110149476378634</v>
       </c>
-      <c r="S67" t="s" s="141">
+      <c r="S67" t="s" s="139">
         <v>55</v>
       </c>
     </row>
@@ -9586,33 +9672,33 @@
         <v>-2</v>
       </c>
       <c r="B68" s="70"/>
-      <c r="C68" t="s" s="141">
-        <v>189</v>
+      <c r="C68" t="s" s="139">
+        <v>191</v>
       </c>
       <c r="D68" s="20"/>
       <c r="E68" s="49"/>
       <c r="F68" s="49"/>
       <c r="G68" s="49"/>
       <c r="H68" s="21"/>
-      <c r="I68" s="143">
+      <c r="I68" s="141">
         <v>3092857</v>
       </c>
       <c r="J68" s="70"/>
       <c r="K68" s="70"/>
-      <c r="L68" s="143">
+      <c r="L68" s="141">
         <v>3285000</v>
       </c>
-      <c r="M68" s="144"/>
+      <c r="M68" s="142"/>
       <c r="N68" s="49"/>
       <c r="O68" s="21"/>
-      <c r="P68" s="145">
+      <c r="P68" s="143">
         <v>0.94150898021309</v>
       </c>
       <c r="Q68" s="70"/>
-      <c r="R68" s="143">
+      <c r="R68" s="141">
         <v>-0.0300911436610248</v>
       </c>
-      <c r="S68" t="s" s="141">
+      <c r="S68" t="s" s="139">
         <v>55</v>
       </c>
     </row>
@@ -9621,33 +9707,33 @@
         <v>-2</v>
       </c>
       <c r="B69" s="70"/>
-      <c r="C69" t="s" s="141">
-        <v>190</v>
+      <c r="C69" t="s" s="139">
+        <v>192</v>
       </c>
       <c r="D69" s="20"/>
       <c r="E69" s="49"/>
       <c r="F69" s="49"/>
       <c r="G69" s="49"/>
       <c r="H69" s="21"/>
-      <c r="I69" s="143">
+      <c r="I69" s="141">
         <v>792494</v>
       </c>
       <c r="J69" s="70"/>
       <c r="K69" s="70"/>
-      <c r="L69" s="143">
+      <c r="L69" s="141">
         <v>615000</v>
       </c>
-      <c r="M69" s="144"/>
+      <c r="M69" s="142"/>
       <c r="N69" s="49"/>
       <c r="O69" s="21"/>
-      <c r="P69" s="145">
+      <c r="P69" s="143">
         <v>1.2886081300813</v>
       </c>
       <c r="Q69" s="70"/>
-      <c r="R69" s="143">
+      <c r="R69" s="141">
         <v>0.415006142155182</v>
       </c>
-      <c r="S69" t="s" s="141">
+      <c r="S69" t="s" s="139">
         <v>55</v>
       </c>
     </row>
@@ -9656,138 +9742,138 @@
         <v>-2</v>
       </c>
       <c r="B70" s="70"/>
-      <c r="C70" t="s" s="141">
-        <v>191</v>
+      <c r="C70" t="s" s="139">
+        <v>193</v>
       </c>
       <c r="D70" s="20"/>
       <c r="E70" s="49"/>
       <c r="F70" s="49"/>
       <c r="G70" s="49"/>
       <c r="H70" s="21"/>
-      <c r="I70" s="143">
+      <c r="I70" s="141">
         <v>2263056</v>
       </c>
       <c r="J70" s="70"/>
       <c r="K70" s="70"/>
-      <c r="L70" s="143">
+      <c r="L70" s="141">
         <v>2345000</v>
       </c>
-      <c r="M70" s="144"/>
+      <c r="M70" s="142"/>
       <c r="N70" s="49"/>
       <c r="O70" s="21"/>
-      <c r="P70" s="145">
+      <c r="P70" s="143">
         <v>0.9650558635394459</v>
       </c>
       <c r="Q70" s="70"/>
-      <c r="R70" s="143">
+      <c r="R70" s="141">
         <v>-0.0130683438711011</v>
       </c>
-      <c r="S70" t="s" s="141">
+      <c r="S70" t="s" s="139">
         <v>55</v>
       </c>
     </row>
     <row r="71" ht="13.5" customHeight="1">
-      <c r="A71" s="123">
+      <c r="A71" s="121">
         <v>-1</v>
       </c>
       <c r="B71" s="70"/>
-      <c r="C71" t="s" s="141">
-        <v>189</v>
+      <c r="C71" t="s" s="139">
+        <v>191</v>
       </c>
       <c r="D71" s="20"/>
       <c r="E71" s="49"/>
       <c r="F71" s="49"/>
       <c r="G71" s="49"/>
       <c r="H71" s="21"/>
-      <c r="I71" s="143">
+      <c r="I71" s="141">
         <v>3553219</v>
       </c>
       <c r="J71" s="70"/>
       <c r="K71" s="70"/>
-      <c r="L71" s="143">
+      <c r="L71" s="141">
         <v>3350000</v>
       </c>
-      <c r="M71" s="144"/>
+      <c r="M71" s="142"/>
       <c r="N71" s="49"/>
       <c r="O71" s="21"/>
-      <c r="P71" s="145">
+      <c r="P71" s="143">
         <v>1.0606623880597</v>
       </c>
       <c r="Q71" s="70"/>
-      <c r="R71" s="143">
+      <c r="R71" s="141">
         <v>0.148846842902856</v>
       </c>
-      <c r="S71" t="s" s="141">
+      <c r="S71" t="s" s="139">
         <v>55</v>
       </c>
     </row>
     <row r="72" ht="13.5" customHeight="1">
-      <c r="A72" s="123">
+      <c r="A72" s="121">
         <v>-1</v>
       </c>
       <c r="B72" s="70"/>
-      <c r="C72" t="s" s="141">
-        <v>190</v>
+      <c r="C72" t="s" s="139">
+        <v>192</v>
       </c>
       <c r="D72" s="20"/>
       <c r="E72" s="49"/>
       <c r="F72" s="49"/>
       <c r="G72" s="49"/>
       <c r="H72" s="21"/>
-      <c r="I72" s="143">
+      <c r="I72" s="141">
         <v>2475498</v>
       </c>
       <c r="J72" s="70"/>
       <c r="K72" s="70"/>
-      <c r="L72" s="143">
+      <c r="L72" s="141">
         <v>2035000</v>
       </c>
-      <c r="M72" s="144"/>
+      <c r="M72" s="142"/>
       <c r="N72" s="49"/>
       <c r="O72" s="21"/>
-      <c r="P72" s="145">
+      <c r="P72" s="143">
         <v>1.21646093366093</v>
       </c>
       <c r="Q72" s="70"/>
-      <c r="R72" s="143">
+      <c r="R72" s="141">
         <v>2.12368043164996</v>
       </c>
-      <c r="S72" t="s" s="141">
+      <c r="S72" t="s" s="139">
         <v>55</v>
       </c>
     </row>
     <row r="73" ht="13.5" customHeight="1">
-      <c r="A73" s="123">
+      <c r="A73" s="121">
         <v>-1</v>
       </c>
-      <c r="B73" s="115"/>
-      <c r="C73" t="s" s="141">
-        <v>191</v>
-      </c>
-      <c r="D73" s="146"/>
+      <c r="B73" s="113"/>
+      <c r="C73" t="s" s="139">
+        <v>193</v>
+      </c>
+      <c r="D73" s="144"/>
       <c r="E73" s="55"/>
       <c r="F73" s="55"/>
       <c r="G73" s="55"/>
-      <c r="H73" s="147"/>
-      <c r="I73" s="143">
+      <c r="H73" s="145"/>
+      <c r="I73" s="141">
         <v>860533</v>
       </c>
-      <c r="J73" s="115"/>
-      <c r="K73" s="115"/>
-      <c r="L73" s="143">
+      <c r="J73" s="113"/>
+      <c r="K73" s="113"/>
+      <c r="L73" s="141">
         <v>1135000</v>
       </c>
-      <c r="M73" s="148"/>
+      <c r="M73" s="146"/>
       <c r="N73" s="55"/>
-      <c r="O73" s="147"/>
-      <c r="P73" s="145">
+      <c r="O73" s="145"/>
+      <c r="P73" s="143">
         <v>0.758178854625551</v>
       </c>
-      <c r="Q73" s="115"/>
-      <c r="R73" s="143">
+      <c r="Q73" s="113"/>
+      <c r="R73" s="141">
         <v>-0.619747368160576</v>
       </c>
-      <c r="S73" t="s" s="141">
+      <c r="S73" t="s" s="139">
         <v>55</v>
       </c>
     </row>
@@ -9811,8 +9897,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="149" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="149" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="147" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="147" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -9823,83 +9909,83 @@
         <v>7</v>
       </c>
       <c r="C1" t="s" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D1" t="s" s="8">
-        <v>194</v>
-      </c>
-      <c r="E1" s="150"/>
+        <v>196</v>
+      </c>
+      <c r="E1" s="148"/>
     </row>
     <row r="2" ht="36" customHeight="1">
-      <c r="A2" t="s" s="151">
-        <v>195</v>
-      </c>
-      <c r="B2" t="s" s="152">
-        <v>196</v>
+      <c r="A2" t="s" s="149">
+        <v>197</v>
+      </c>
+      <c r="B2" t="s" s="150">
+        <v>198</v>
       </c>
       <c r="C2" s="91">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="152">
-        <v>197</v>
-      </c>
-      <c r="E2" s="153"/>
+      <c r="D2" t="s" s="150">
+        <v>199</v>
+      </c>
+      <c r="E2" s="151"/>
     </row>
     <row r="3" ht="20.1" customHeight="1">
       <c r="A3" s="96"/>
       <c r="B3" s="87"/>
       <c r="C3" s="87"/>
       <c r="D3" s="87"/>
-      <c r="E3" s="153"/>
+      <c r="E3" s="151"/>
     </row>
     <row r="4" ht="20.1" customHeight="1">
       <c r="A4" s="96"/>
       <c r="B4" s="87"/>
       <c r="C4" s="87"/>
       <c r="D4" s="87"/>
-      <c r="E4" s="153"/>
+      <c r="E4" s="151"/>
     </row>
     <row r="5" ht="20.1" customHeight="1">
       <c r="A5" s="96"/>
       <c r="B5" s="87"/>
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
-      <c r="E5" s="153"/>
+      <c r="E5" s="151"/>
     </row>
     <row r="6" ht="20.1" customHeight="1">
       <c r="A6" s="96"/>
       <c r="B6" s="87"/>
       <c r="C6" s="87"/>
       <c r="D6" s="87"/>
-      <c r="E6" s="153"/>
+      <c r="E6" s="151"/>
     </row>
     <row r="7" ht="20.1" customHeight="1">
       <c r="A7" s="96"/>
       <c r="B7" s="87"/>
       <c r="C7" s="87"/>
       <c r="D7" s="87"/>
-      <c r="E7" s="153"/>
+      <c r="E7" s="151"/>
     </row>
     <row r="8" ht="20.1" customHeight="1">
       <c r="A8" s="96"/>
       <c r="B8" s="87"/>
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
-      <c r="E8" s="153"/>
+      <c r="E8" s="151"/>
     </row>
     <row r="9" ht="20.1" customHeight="1">
       <c r="A9" s="96"/>
       <c r="B9" s="87"/>
       <c r="C9" s="87"/>
       <c r="D9" s="87"/>
-      <c r="E9" s="153"/>
+      <c r="E9" s="151"/>
     </row>
     <row r="10" ht="20.1" customHeight="1">
       <c r="A10" s="96"/>
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
       <c r="D10" s="87"/>
-      <c r="E10" s="154"/>
+      <c r="E10" s="152"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -9918,11 +10004,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13" style="155" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="155" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="155" customWidth="1"/>
-    <col min="4" max="6" width="8.85156" style="155" customWidth="1"/>
-    <col min="7" max="256" width="8.85156" style="155" customWidth="1"/>
+    <col min="1" max="1" width="13" style="153" customWidth="1"/>
+    <col min="2" max="2" width="8.85156" style="153" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="153" customWidth="1"/>
+    <col min="4" max="6" width="8.85156" style="153" customWidth="1"/>
+    <col min="7" max="256" width="8.85156" style="153" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1">
@@ -9933,322 +10019,322 @@
         <v>13</v>
       </c>
       <c r="C1" t="s" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D1" t="s" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E1" t="s" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F1" t="s" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" ht="14.65" customHeight="1">
-      <c r="A2" t="s" s="156">
-        <v>203</v>
-      </c>
-      <c r="B2" t="s" s="157">
-        <v>204</v>
-      </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
+      <c r="A2" t="s" s="154">
+        <v>205</v>
+      </c>
+      <c r="B2" t="s" s="155">
+        <v>206</v>
+      </c>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
     </row>
     <row r="3" ht="14.65" customHeight="1">
-      <c r="A3" t="s" s="156">
-        <v>203</v>
-      </c>
-      <c r="B3" t="s" s="159">
+      <c r="A3" t="s" s="154">
         <v>205</v>
       </c>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
+      <c r="B3" t="s" s="157">
+        <v>207</v>
+      </c>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
     </row>
     <row r="4" ht="14.65" customHeight="1">
-      <c r="A4" t="s" s="157">
-        <v>203</v>
-      </c>
-      <c r="B4" t="s" s="159">
-        <v>206</v>
-      </c>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
+      <c r="A4" t="s" s="155">
+        <v>205</v>
+      </c>
+      <c r="B4" t="s" s="157">
+        <v>208</v>
+      </c>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
     </row>
     <row r="5" ht="50.65" customHeight="1">
-      <c r="A5" t="s" s="159">
-        <v>207</v>
-      </c>
-      <c r="B5" t="s" s="159">
-        <v>208</v>
-      </c>
-      <c r="C5" t="s" s="162">
+      <c r="A5" t="s" s="157">
         <v>209</v>
       </c>
-      <c r="D5" s="163"/>
-      <c r="E5" t="s" s="164">
+      <c r="B5" t="s" s="157">
         <v>210</v>
       </c>
-      <c r="F5" t="s" s="165">
+      <c r="C5" t="s" s="160">
         <v>211</v>
       </c>
+      <c r="D5" s="161"/>
+      <c r="E5" t="s" s="162">
+        <v>212</v>
+      </c>
+      <c r="F5" t="s" s="163">
+        <v>213</v>
+      </c>
     </row>
     <row r="6" ht="50.65" customHeight="1">
-      <c r="A6" t="s" s="159">
-        <v>207</v>
-      </c>
-      <c r="B6" t="s" s="159">
-        <v>212</v>
-      </c>
-      <c r="C6" t="s" s="162">
+      <c r="A6" t="s" s="157">
         <v>209</v>
       </c>
-      <c r="D6" s="163"/>
-      <c r="E6" t="s" s="164">
-        <v>213</v>
-      </c>
-      <c r="F6" t="s" s="165">
+      <c r="B6" t="s" s="157">
         <v>214</v>
       </c>
+      <c r="C6" t="s" s="160">
+        <v>211</v>
+      </c>
+      <c r="D6" s="161"/>
+      <c r="E6" t="s" s="162">
+        <v>215</v>
+      </c>
+      <c r="F6" t="s" s="163">
+        <v>216</v>
+      </c>
     </row>
     <row r="7" ht="50.65" customHeight="1">
-      <c r="A7" t="s" s="159">
-        <v>207</v>
-      </c>
-      <c r="B7" t="s" s="159">
-        <v>215</v>
-      </c>
-      <c r="C7" t="s" s="162">
+      <c r="A7" t="s" s="157">
         <v>209</v>
       </c>
-      <c r="D7" s="163"/>
-      <c r="E7" t="s" s="164">
-        <v>216</v>
-      </c>
-      <c r="F7" t="s" s="165">
+      <c r="B7" t="s" s="157">
         <v>217</v>
       </c>
+      <c r="C7" t="s" s="160">
+        <v>211</v>
+      </c>
+      <c r="D7" s="161"/>
+      <c r="E7" t="s" s="162">
+        <v>218</v>
+      </c>
+      <c r="F7" t="s" s="163">
+        <v>219</v>
+      </c>
     </row>
     <row r="8" ht="50.65" customHeight="1">
-      <c r="A8" t="s" s="159">
-        <v>218</v>
-      </c>
-      <c r="B8" t="s" s="159">
-        <v>208</v>
-      </c>
-      <c r="C8" t="s" s="162">
-        <v>219</v>
-      </c>
-      <c r="D8" s="163"/>
-      <c r="E8" t="s" s="164">
+      <c r="A8" t="s" s="157">
         <v>220</v>
       </c>
-      <c r="F8" t="s" s="166">
+      <c r="B8" t="s" s="157">
+        <v>210</v>
+      </c>
+      <c r="C8" t="s" s="160">
         <v>221</v>
       </c>
+      <c r="D8" s="161"/>
+      <c r="E8" t="s" s="162">
+        <v>222</v>
+      </c>
+      <c r="F8" t="s" s="164">
+        <v>223</v>
+      </c>
     </row>
     <row r="9" ht="50.65" customHeight="1">
-      <c r="A9" t="s" s="159">
-        <v>218</v>
-      </c>
-      <c r="B9" t="s" s="159">
-        <v>212</v>
-      </c>
-      <c r="C9" t="s" s="162">
-        <v>219</v>
-      </c>
-      <c r="D9" s="163"/>
-      <c r="E9" t="s" s="164">
-        <v>222</v>
-      </c>
-      <c r="F9" t="s" s="167">
-        <v>223</v>
+      <c r="A9" t="s" s="157">
+        <v>220</v>
+      </c>
+      <c r="B9" t="s" s="157">
+        <v>214</v>
+      </c>
+      <c r="C9" t="s" s="160">
+        <v>221</v>
+      </c>
+      <c r="D9" s="161"/>
+      <c r="E9" t="s" s="162">
+        <v>224</v>
+      </c>
+      <c r="F9" t="s" s="165">
+        <v>225</v>
       </c>
     </row>
     <row r="10" ht="50.65" customHeight="1">
-      <c r="A10" t="s" s="159">
-        <v>218</v>
-      </c>
-      <c r="B10" t="s" s="159">
-        <v>215</v>
-      </c>
-      <c r="C10" t="s" s="162">
-        <v>219</v>
-      </c>
-      <c r="D10" s="163"/>
-      <c r="E10" t="s" s="164">
-        <v>224</v>
-      </c>
-      <c r="F10" t="s" s="167">
-        <v>225</v>
+      <c r="A10" t="s" s="157">
+        <v>220</v>
+      </c>
+      <c r="B10" t="s" s="157">
+        <v>217</v>
+      </c>
+      <c r="C10" t="s" s="160">
+        <v>221</v>
+      </c>
+      <c r="D10" s="161"/>
+      <c r="E10" t="s" s="162">
+        <v>226</v>
+      </c>
+      <c r="F10" t="s" s="165">
+        <v>227</v>
       </c>
     </row>
     <row r="11" ht="38.65" customHeight="1">
-      <c r="A11" t="s" s="159">
+      <c r="A11" t="s" s="157">
         <v>90</v>
       </c>
-      <c r="B11" t="s" s="159">
-        <v>208</v>
-      </c>
-      <c r="C11" t="s" s="162">
-        <v>226</v>
-      </c>
-      <c r="D11" s="163"/>
-      <c r="E11" t="s" s="164">
-        <v>227</v>
-      </c>
-      <c r="F11" t="s" s="167">
+      <c r="B11" t="s" s="157">
+        <v>210</v>
+      </c>
+      <c r="C11" t="s" s="160">
         <v>228</v>
       </c>
+      <c r="D11" s="161"/>
+      <c r="E11" t="s" s="162">
+        <v>229</v>
+      </c>
+      <c r="F11" t="s" s="165">
+        <v>230</v>
+      </c>
     </row>
     <row r="12" ht="38.65" customHeight="1">
-      <c r="A12" t="s" s="159">
+      <c r="A12" t="s" s="157">
         <v>90</v>
       </c>
-      <c r="B12" t="s" s="159">
-        <v>212</v>
-      </c>
-      <c r="C12" t="s" s="162">
-        <v>226</v>
-      </c>
-      <c r="D12" s="163"/>
-      <c r="E12" t="s" s="164">
-        <v>229</v>
-      </c>
-      <c r="F12" t="s" s="167">
-        <v>230</v>
+      <c r="B12" t="s" s="157">
+        <v>214</v>
+      </c>
+      <c r="C12" t="s" s="160">
+        <v>228</v>
+      </c>
+      <c r="D12" s="161"/>
+      <c r="E12" t="s" s="162">
+        <v>231</v>
+      </c>
+      <c r="F12" t="s" s="165">
+        <v>232</v>
       </c>
     </row>
     <row r="13" ht="38.65" customHeight="1">
-      <c r="A13" t="s" s="159">
+      <c r="A13" t="s" s="157">
         <v>90</v>
       </c>
-      <c r="B13" t="s" s="159">
-        <v>215</v>
-      </c>
-      <c r="C13" t="s" s="162">
-        <v>226</v>
-      </c>
-      <c r="D13" s="163"/>
-      <c r="E13" t="s" s="164">
-        <v>231</v>
-      </c>
-      <c r="F13" t="s" s="167">
-        <v>232</v>
+      <c r="B13" t="s" s="157">
+        <v>217</v>
+      </c>
+      <c r="C13" t="s" s="160">
+        <v>228</v>
+      </c>
+      <c r="D13" s="161"/>
+      <c r="E13" t="s" s="162">
+        <v>233</v>
+      </c>
+      <c r="F13" t="s" s="165">
+        <v>234</v>
       </c>
     </row>
     <row r="14" ht="38.65" customHeight="1">
-      <c r="A14" t="s" s="159">
-        <v>233</v>
-      </c>
-      <c r="B14" t="s" s="159">
-        <v>208</v>
-      </c>
-      <c r="C14" t="s" s="162">
-        <v>234</v>
-      </c>
-      <c r="D14" s="163"/>
-      <c r="E14" t="s" s="164">
+      <c r="A14" t="s" s="157">
         <v>235</v>
       </c>
-      <c r="F14" t="s" s="167">
+      <c r="B14" t="s" s="157">
+        <v>210</v>
+      </c>
+      <c r="C14" t="s" s="160">
         <v>236</v>
       </c>
+      <c r="D14" s="161"/>
+      <c r="E14" t="s" s="162">
+        <v>237</v>
+      </c>
+      <c r="F14" t="s" s="165">
+        <v>238</v>
+      </c>
     </row>
     <row r="15" ht="38.65" customHeight="1">
-      <c r="A15" t="s" s="159">
-        <v>233</v>
-      </c>
-      <c r="B15" t="s" s="159">
-        <v>212</v>
-      </c>
-      <c r="C15" t="s" s="162">
-        <v>234</v>
-      </c>
-      <c r="D15" s="163"/>
-      <c r="E15" t="s" s="164">
-        <v>237</v>
-      </c>
-      <c r="F15" t="s" s="167">
-        <v>238</v>
+      <c r="A15" t="s" s="157">
+        <v>235</v>
+      </c>
+      <c r="B15" t="s" s="157">
+        <v>214</v>
+      </c>
+      <c r="C15" t="s" s="160">
+        <v>236</v>
+      </c>
+      <c r="D15" s="161"/>
+      <c r="E15" t="s" s="162">
+        <v>239</v>
+      </c>
+      <c r="F15" t="s" s="165">
+        <v>240</v>
       </c>
     </row>
     <row r="16" ht="38.65" customHeight="1">
-      <c r="A16" t="s" s="159">
-        <v>233</v>
-      </c>
-      <c r="B16" t="s" s="159">
-        <v>215</v>
-      </c>
-      <c r="C16" t="s" s="162">
-        <v>234</v>
-      </c>
-      <c r="D16" s="163"/>
-      <c r="E16" t="s" s="164">
-        <v>239</v>
-      </c>
-      <c r="F16" t="s" s="167">
-        <v>240</v>
+      <c r="A16" t="s" s="157">
+        <v>235</v>
+      </c>
+      <c r="B16" t="s" s="157">
+        <v>217</v>
+      </c>
+      <c r="C16" t="s" s="160">
+        <v>236</v>
+      </c>
+      <c r="D16" s="161"/>
+      <c r="E16" t="s" s="162">
+        <v>241</v>
+      </c>
+      <c r="F16" t="s" s="165">
+        <v>242</v>
       </c>
     </row>
     <row r="17" ht="50.65" customHeight="1">
-      <c r="A17" t="s" s="159">
-        <v>241</v>
-      </c>
-      <c r="B17" t="s" s="159">
-        <v>208</v>
-      </c>
-      <c r="C17" t="s" s="162">
-        <v>242</v>
-      </c>
-      <c r="D17" s="163"/>
-      <c r="E17" t="s" s="164">
+      <c r="A17" t="s" s="157">
         <v>243</v>
       </c>
-      <c r="F17" t="s" s="167">
+      <c r="B17" t="s" s="157">
+        <v>210</v>
+      </c>
+      <c r="C17" t="s" s="160">
         <v>244</v>
       </c>
+      <c r="D17" s="161"/>
+      <c r="E17" t="s" s="162">
+        <v>245</v>
+      </c>
+      <c r="F17" t="s" s="165">
+        <v>246</v>
+      </c>
     </row>
     <row r="18" ht="50.65" customHeight="1">
-      <c r="A18" t="s" s="159">
-        <v>241</v>
-      </c>
-      <c r="B18" t="s" s="159">
-        <v>212</v>
-      </c>
-      <c r="C18" t="s" s="162">
-        <v>242</v>
-      </c>
-      <c r="D18" s="163"/>
-      <c r="E18" t="s" s="164">
-        <v>245</v>
-      </c>
-      <c r="F18" t="s" s="167">
-        <v>246</v>
+      <c r="A18" t="s" s="157">
+        <v>243</v>
+      </c>
+      <c r="B18" t="s" s="157">
+        <v>214</v>
+      </c>
+      <c r="C18" t="s" s="160">
+        <v>244</v>
+      </c>
+      <c r="D18" s="161"/>
+      <c r="E18" t="s" s="162">
+        <v>247</v>
+      </c>
+      <c r="F18" t="s" s="165">
+        <v>248</v>
       </c>
     </row>
     <row r="19" ht="50.65" customHeight="1">
-      <c r="A19" t="s" s="159">
-        <v>241</v>
-      </c>
-      <c r="B19" t="s" s="159">
-        <v>215</v>
-      </c>
-      <c r="C19" t="s" s="162">
-        <v>242</v>
-      </c>
-      <c r="D19" s="163"/>
-      <c r="E19" t="s" s="164">
-        <v>247</v>
-      </c>
-      <c r="F19" t="s" s="167">
-        <v>248</v>
+      <c r="A19" t="s" s="157">
+        <v>243</v>
+      </c>
+      <c r="B19" t="s" s="157">
+        <v>217</v>
+      </c>
+      <c r="C19" t="s" s="160">
+        <v>244</v>
+      </c>
+      <c r="D19" s="161"/>
+      <c r="E19" t="s" s="162">
+        <v>249</v>
+      </c>
+      <c r="F19" t="s" s="165">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/tm.xlsx
+++ b/test/data/tm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="980" yWindow="2500" windowWidth="29680" windowHeight="20560" activeTab="2"/>
+    <workbookView xWindow="980" yWindow="2500" windowWidth="29680" windowHeight="20560" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="Evaluation" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1181,18 +1180,10 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>avatar_person_wq.jpg</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>avatar_person_lyx.jpg</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>avatar_person_cc.jpg</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>hospital_04.jpg</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -1241,6 +1232,14 @@
   </si>
   <si>
     <t>product_02.jpg</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar_person_xm.jpg</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar_person_hy.jpg</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -4365,7 +4364,7 @@
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>34</v>
@@ -4414,7 +4413,7 @@
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="34" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>34</v>
@@ -4463,7 +4462,7 @@
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>34</v>
@@ -4512,7 +4511,7 @@
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="34" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>34</v>
@@ -4561,7 +4560,7 @@
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="34" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>34</v>
@@ -4610,7 +4609,7 @@
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>52</v>
@@ -4659,7 +4658,7 @@
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="34" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>52</v>
@@ -4708,7 +4707,7 @@
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="34" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>58</v>
@@ -4757,7 +4756,7 @@
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>34</v>
@@ -4806,7 +4805,7 @@
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="34" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G11" s="37" t="s">
         <v>34</v>
@@ -5237,7 +5236,7 @@
   </sheetPr>
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -5324,7 +5323,7 @@
         <v>83</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F2" s="55"/>
       <c r="G2" s="55"/>
@@ -5371,7 +5370,7 @@
         <v>90</v>
       </c>
       <c r="E3" s="70" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F3" s="60"/>
       <c r="G3" s="60"/>
@@ -5418,7 +5417,7 @@
         <v>94</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -5594,8 +5593,8 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5735,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="92" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5768,7 +5767,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="92" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5801,7 +5800,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="92" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">

--- a/test/data/tm.xlsx
+++ b/test/data/tm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anqi\Productization\【T&amp;E】TMIST\研发\数据库文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredyang/Desktop/code/pharbers/ntm-curd/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD75813-73EA-4D86-A8C1-344B49495546}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B203AC4-654E-1F44-9823-041F154339B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="8840" windowWidth="33980" windowHeight="18900" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="264">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -1095,230 +1095,179 @@
     <t>您在区域划分的表现十分卓越，想必您对区域划分的理解十分深入，分享您的工作心得给其他同事，相互促进成长。</t>
   </si>
   <si>
+    <t>优秀</t>
+  </si>
+  <si>
+    <t>您在本轮测试中的区域划分表现优秀，联系您所负责地区的实际情况，查看是否存在区域划分问题，加以调整，追踪效果。</t>
+  </si>
+  <si>
+    <t>有待改善</t>
+  </si>
+  <si>
+    <t>在模拟测试中，区域划分似乎出现了问题，请仔细阅读解读文字，找到区域划分的关键。</t>
+  </si>
+  <si>
+    <t>Quota</t>
+  </si>
+  <si>
+    <t>洞察区域生意机会，把握关键增长点，为销售资源的投入提供依据；在竞争激烈的药品销售市场中，让执行者能够发挥最大能动性。</t>
+  </si>
+  <si>
+    <t>您在指标分配中的表现十分卓越，在实际工作中，您对负责地区的内外部情况想必也是了如指掌。</t>
+  </si>
+  <si>
+    <t>您在指标分配中表现优秀，指标是销售的行动指南，合理进行指标分配是实现销售战略的第一步。</t>
+  </si>
+  <si>
+    <t>在模拟测试中，指标分配似乎出现了问题，请仔细阅读解读文字，找到合理分配指标的关键。</t>
+  </si>
+  <si>
+    <t>销售资源是业绩增长的燃料，综合销售任务全局状况，在资源有限的情况下，做出恰当的资源配置方案，确保每一份资源都被高效利用。</t>
+  </si>
+  <si>
+    <t>您在本轮测试的资源分配中表现十分卓越，在实际工作中，您一定是位出色的市场营销专家。</t>
+  </si>
+  <si>
+    <t>您在资源分配中表现优秀，在资源不足的情况下，资源的优化配置尤为重要，在医药市场中，借助内外部数据带来的优势，提高资源利用率。</t>
+  </si>
+  <si>
+    <t>在模拟测试中，资源分配似乎出现了问题，请仔细阅读解读文字，找到优化资源分配的关键。</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>详细周到地考虑工作需求，平衡工作时间，实现对个人时间的有效利用，是管理者必备的重要技能之一。</t>
+  </si>
+  <si>
+    <t>您在经理时间管理中的表现十分卓越，时间管理是自我管理的一部分，管理好自己才能更好地管理团队。</t>
+  </si>
+  <si>
+    <t>您在经理时间管理中的表现优秀，自我时间规划是自我时间管理的第一步，有效地利用个人时间，降低变动性，透过事先的规划，作为实际行动中的一种提醒与指引。</t>
+  </si>
+  <si>
+    <t>在模拟测试中，经理时间安排似乎出现了问题，请仔细阅读解读文字，把握经理时间管理的关键。</t>
+  </si>
+  <si>
+    <t>Leader</t>
+  </si>
+  <si>
+    <t>稳定而高效的团队是创造佳绩的重要基础，关注人才培养，提高团队综合水平，让团队增长不止于当下。</t>
+  </si>
+  <si>
+    <t>在本轮测试中，您在团队管理中的表现十分卓越，在实际工作中，卓越的销售团队必将所向披靡。</t>
+  </si>
+  <si>
+    <t>您在团队管理中表现优秀，在团队中，关注成员表现，驱动成员成长，您将收获一支强劲的团队。</t>
+  </si>
+  <si>
+    <t>在模拟测试中，团队管理似乎出现了问题，请仔细阅读解读文字，找到有效进行团队管理的关键。</t>
+  </si>
+  <si>
+    <t>avatar_person_cxl.jpg</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar_person_lyx.jpg</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospital_04.jpg</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospital_12.jpg</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospital_13.jpg</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospital_14.jpg</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospital_19.jpg</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospital_22.jpg</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospital_29.jpg</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospital_26.jpg</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospital_23.jpg</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospital_21.jpg</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_04.jpg</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_03.jpg</t>
+  </si>
+  <si>
+    <t>product_02.jpg</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar_person_xm.jpg</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar_person_hy.jpg</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar_person_sn.jpg</t>
+  </si>
+  <si>
+    <t>Sum of potential</t>
+  </si>
+  <si>
     <t>平衡是区域划分的关键：
 1. 每位销售代表负责的总医院药品销售潜力大小应与其他代表无限接近。
 2. 综合考虑区域的历史销售表现，业绩增长将在每个区域成为可能。
 3. 合理考虑区域工作量大小，平衡区域内医院数量与医院距离，避免工作量过载阻碍区域增长。</t>
-  </si>
-  <si>
-    <t>优秀</t>
-  </si>
-  <si>
-    <t>您在本轮测试中的区域划分表现优秀，联系您所负责地区的实际情况，查看是否存在区域划分问题，加以调整，追踪效果。</t>
-  </si>
-  <si>
-    <t>平衡是区域划分的关键：
-1. 每位销售代表负责的总医院药品销售潜力大小应与其他代表无限接近。
-2. 综合考虑区域的历史销售表现，业绩增长将在每个区域成为可能。
-4. 合理考虑区域工作量大小，平衡区域内医院数量与医院距离，避免工作量过载阻碍区域增长。</t>
-  </si>
-  <si>
-    <t>有待改善</t>
-  </si>
-  <si>
-    <t>在模拟测试中，区域划分似乎出现了问题，请仔细阅读解读文字，找到区域划分的关键。</t>
-  </si>
-  <si>
-    <t>平衡是区域划分的关键：
-1. 每位销售代表负责的总医院药品销售潜力大小应与其他代表无限接近。
-2. 综合考虑区域的历史销售表现，业绩增长将在每个区域成为可能。
-5. 合理考虑区域工作量大小，平衡区域内医院数量与医院距离，避免工作量过载阻碍区域增长。</t>
-  </si>
-  <si>
-    <t>Quota</t>
-  </si>
-  <si>
-    <t>洞察区域生意机会，把握关键增长点，为销售资源的投入提供依据；在竞争激烈的药品销售市场中，让执行者能够发挥最大能动性。</t>
-  </si>
-  <si>
-    <t>您在指标分配中的表现十分卓越，在实际工作中，您对负责地区的内外部情况想必也是了如指掌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>业绩增长点是指标分配的关键：
 1. 获取与使用内外部数据，通过数据了解市场状况。
 2. 掌握地区生意情况，把握关键客户，挖掘关键增长点。
 3. 以历史销售趋势为参考，科学设置指标增长率，推动业绩持续增长。</t>
-  </si>
-  <si>
-    <t>您在指标分配中表现优秀，指标是销售的行动指南，合理进行指标分配是实现销售战略的第一步。</t>
-  </si>
-  <si>
-    <t>业绩增长点是指标分配的关键：
-1. 获取与使用内外部数据，通过数据了解市场状况。
-2. 掌握地区生意情况，把握关键客户，挖掘关键增长点。
-4. 以历史销售趋势为参考，科学设置指标增长率，推动业绩持续增长。</t>
-  </si>
-  <si>
-    <t>在模拟测试中，指标分配似乎出现了问题，请仔细阅读解读文字，找到合理分配指标的关键。</t>
-  </si>
-  <si>
-    <t>业绩增长点是指标分配的关键：
-1. 获取与使用内外部数据，通过数据了解市场状况。
-2. 掌握地区生意情况，把握关键客户，挖掘关键增长点。
-5. 以历史销售趋势为参考，科学设置指标增长率，推动业绩持续增长。</t>
-  </si>
-  <si>
-    <t>销售资源是业绩增长的燃料，综合销售任务全局状况，在资源有限的情况下，做出恰当的资源配置方案，确保每一份资源都被高效利用。</t>
-  </si>
-  <si>
-    <t>您在本轮测试的资源分配中表现十分卓越，在实际工作中，您一定是位出色的市场营销专家。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最大化投入产出原则是资源优化分配的关键：
 1. 以药品销售潜力作为依据，甄别地区内的核心客户，牢牢把握。
 2. 正确判断目标客户的增长潜力，把握关键增长点，准确投入资源实现业绩突破。</t>
-  </si>
-  <si>
-    <t>您在资源分配中表现优秀，在资源不足的情况下，资源的优化配置尤为重要，在医药市场中，借助内外部数据带来的优势，提高资源利用率。</t>
-  </si>
-  <si>
-    <t>最大化投入产出原则是资源优化分配的关键：
-1. 以药品销售潜力作为依据，甄别地区内的核心客户，牢牢把握。
-3. 正确判断目标客户的增长潜力，把握关键增长点，准确投入资源实现业绩突破。</t>
-  </si>
-  <si>
-    <t>在模拟测试中，资源分配似乎出现了问题，请仔细阅读解读文字，找到优化资源分配的关键。</t>
-  </si>
-  <si>
-    <t>最大化投入产出原则是资源优化分配的关键：
-1. 以药品销售潜力作为依据，甄别地区内的核心客户，牢牢把握。
-4. 正确判断目标客户的增长潜力，把握关键增长点，准确投入资源实现业绩突破。</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>详细周到地考虑工作需求，平衡工作时间，实现对个人时间的有效利用，是管理者必备的重要技能之一。</t>
-  </si>
-  <si>
-    <t>您在经理时间管理中的表现十分卓越，时间管理是自我管理的一部分，管理好自己才能更好地管理团队。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>分析工作任务的优先级是实现个人时间管理的关键：
 1. 明确工作任务，待解决的问题与需要达到的工作目标。
 2. 估计任务重要性与工作量大小，提前做好时间规划。</t>
-  </si>
-  <si>
-    <t>您在经理时间管理中的表现优秀，自我时间规划是自我时间管理的第一步，有效地利用个人时间，降低变动性，透过事先的规划，作为实际行动中的一种提醒与指引。</t>
-  </si>
-  <si>
-    <t>分析工作任务的优先级是实现个人时间管理的关键：
-1. 明确工作任务，待解决的问题与需要达到的工作目标。
-3. 估计任务重要性与工作量大小，提前做好时间规划。</t>
-  </si>
-  <si>
-    <t>在模拟测试中，经理时间安排似乎出现了问题，请仔细阅读解读文字，把握经理时间管理的关键。</t>
-  </si>
-  <si>
-    <t>分析工作任务的优先级是实现个人时间管理的关键：
-1. 明确工作任务，待解决的问题与需要达到的工作目标。
-4. 估计任务重要性与工作量大小，提前做好时间规划。</t>
-  </si>
-  <si>
-    <t>Leader</t>
-  </si>
-  <si>
-    <t>稳定而高效的团队是创造佳绩的重要基础，关注人才培养，提高团队综合水平，让团队增长不止于当下。</t>
-  </si>
-  <si>
-    <t>在本轮测试中，您在团队管理中的表现十分卓越，在实际工作中，卓越的销售团队必将所向披靡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>关注人才发展是有效团队管理的关键：
 1. 发掘每个人的优势与劣势，有针对性地进行辅导、培训。
 2. 透过辅导，有效提升团队伙伴的能力。
 3. 创造卓越、稳健的销售团队。</t>
-  </si>
-  <si>
-    <t>您在团队管理中表现优秀，在团队中，关注成员表现，驱动成员成长，您将收获一支强劲的团队。</t>
-  </si>
-  <si>
-    <t>关注人才发展是有效团队管理的关键：
-1. 发掘每个人的优势与劣势，有针对性地进行辅导、培训。
-2. 透过辅导，有效提升团队伙伴的能力。
-4. 创造卓越、稳健的销售团队。</t>
-  </si>
-  <si>
-    <t>在模拟测试中，团队管理似乎出现了问题，请仔细阅读解读文字，找到有效进行团队管理的关键。</t>
-  </si>
-  <si>
-    <t>关注人才发展是有效团队管理的关键：
-1. 发掘每个人的优势与劣势，有针对性地进行辅导、培训。
-2. 透过辅导，有效提升团队伙伴的能力。
-5. 创造卓越、稳健的销售团队。</t>
-  </si>
-  <si>
-    <t>avatar_person_cxl.jpg</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>avatar_person_lyx.jpg</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>hospital_04.jpg</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>hospital_12.jpg</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>hospital_13.jpg</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>hospital_14.jpg</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>hospital_19.jpg</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>hospital_22.jpg</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>hospital_29.jpg</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>hospital_26.jpg</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>hospital_23.jpg</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>hospital_21.jpg</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_04.jpg</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_03.jpg</t>
-  </si>
-  <si>
-    <t>product_02.jpg</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>avatar_person_xm.jpg</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>avatar_person_hy.jpg</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>avatar_person_sn.jpg</t>
-  </si>
-  <si>
-    <t>Sum of potential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1326,11 +1275,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0&quot; &quot;"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0&quot; &quot;"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1487,6 +1436,14 @@
       <color theme="1"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1556,7 +1513,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="78">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -2459,36 +2416,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -2559,7 +2486,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5"/>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
@@ -2621,20 +2548,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -2644,129 +2571,129 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5"/>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2798,10 +2725,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5"/>
@@ -2871,1295 +2798,1295 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4495,7 +4422,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4518,7 +4445,7 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4529,7 +4456,7 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4588,15 +4515,6 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4609,7 +4527,7 @@
     <xf numFmtId="9" fontId="16" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4624,13 +4542,13 @@
     <xf numFmtId="9" fontId="11" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="8" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4640,7 +4558,7 @@
     <xf numFmtId="9" fontId="22" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="16" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4649,7 +4567,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4671,7 +4589,7 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4683,208 +4601,116 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="547">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="百分比 10" xfId="26" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="百分比 10 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="百分比 10 2 2" xfId="228" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="百分比 10 2 2 2" xfId="507" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="百分比 10 2 3" xfId="291" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="百分比 10 2 3 2" xfId="542" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="百分比 10 2 4" xfId="365" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="百分比 10 3" xfId="192" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="百分比 10 3 2" xfId="471" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="百分比 10 4" xfId="150" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="百分比 10 4 2" xfId="429" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="百分比 10 5" xfId="115" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="百分比 10 5 2" xfId="394" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="百分比 10 6" xfId="257" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="百分比 10 7" xfId="331" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="百分比 11" xfId="3" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="百分比 11 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="百分比 11 2 2" xfId="213" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="百分比 11 2 2 2" xfId="492" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="百分比 11 2 3" xfId="276" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="百分比 11 2 3 2" xfId="527" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="百分比 11 2 4" xfId="350" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="百分比 11 3" xfId="177" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="百分比 11 3 2" xfId="456" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="百分比 11 4" xfId="135" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="百分比 11 4 2" xfId="414" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="百分比 11 5" xfId="100" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="百分比 11 5 2" xfId="379" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="百分比 11 6" xfId="242" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="百分比 11 7" xfId="316" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="百分比 12" xfId="76" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="百分比 12 2" xfId="235" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="百分比 12 2 2" xfId="310" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="百分比 12 2 3" xfId="514" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="百分比 12 3" xfId="199" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="百分比 12 3 2" xfId="478" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="百分比 12 4" xfId="163" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="百分比 12 4 2" xfId="442" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="百分比 12 5" xfId="128" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="百分比 12 5 2" xfId="407" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="百分比 12 6" xfId="298" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="百分比 12 7" xfId="372" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="百分比 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="百分比 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="百分比 2 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="百分比 2 2 2 2" xfId="216" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="百分比 2 2 2 2 2" xfId="495" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="百分比 2 2 2 3" xfId="279" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="百分比 2 2 2 3 2" xfId="530" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="百分比 2 2 2 4" xfId="353" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="百分比 2 2 3" xfId="180" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="百分比 2 2 3 2" xfId="459" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="百分比 2 2 4" xfId="157" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="百分比 2 2 4 2" xfId="436" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="百分比 2 2 5" xfId="122" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="百分比 2 2 5 2" xfId="401" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="百分比 2 2 6" xfId="264" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="百分比 2 2 7" xfId="338" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="百分比 2 3" xfId="90" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="百分比 2 4" xfId="48" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="百分比 2 4 2" xfId="207" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="百分比 2 4 2 2" xfId="486" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="百分比 2 4 3" xfId="270" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="百分比 2 4 3 2" xfId="521" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="百分比 2 4 4" xfId="344" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="百分比 2 5" xfId="171" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="百分比 2 5 2" xfId="450" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="百分比 2 6" xfId="138" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="百分比 2 6 2" xfId="417" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="百分比 2 7" xfId="103" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="百分比 2 7 2" xfId="382" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="百分比 2 8" xfId="245" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="百分比 2 9" xfId="319" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="百分比 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="百分比 3 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="百分比 3 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="百分比 3 3 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="百分比 3 3 2 2" xfId="219" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="百分比 3 3 2 2 2" xfId="498" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="百分比 3 3 2 3" xfId="282" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="百分比 3 3 2 3 2" xfId="533" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="百分比 3 3 2 4" xfId="356" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="百分比 3 3 3" xfId="183" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="百分比 3 3 3 2" xfId="462" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="百分比 3 3 4" xfId="159" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="百分比 3 3 4 2" xfId="438" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="百分比 3 3 5" xfId="124" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="百分比 3 3 5 2" xfId="403" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="百分比 3 3 6" xfId="266" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="百分比 3 3 7" xfId="340" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="百分比 3 4" xfId="96" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="百分比 3 5" xfId="141" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="百分比 3 5 2" xfId="420" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="百分比 3 6" xfId="106" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="百分比 3 6 2" xfId="385" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="百分比 3 7" xfId="248" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="百分比 3 7 2" xfId="520" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="百分比 3 8" xfId="322" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="百分比 4" xfId="12" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="百分比 4 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="百分比 4 2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="百分比 4 2 2 2" xfId="217" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="百分比 4 2 2 2 2" xfId="496" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="百分比 4 2 2 3" xfId="280" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="百分比 4 2 2 3 2" xfId="531" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="百分比 4 2 2 4" xfId="354" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="百分比 4 2 3" xfId="181" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="百分比 4 2 3 2" xfId="460" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="百分比 4 2 4" xfId="158" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="百分比 4 2 4 2" xfId="437" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="百分比 4 2 5" xfId="123" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="百分比 4 2 5 2" xfId="402" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="百分比 4 2 6" xfId="265" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="百分比 4 2 7" xfId="339" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="百分比 4 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="百分比 4 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="百分比 4 4 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="百分比 4 4 2 2" xfId="490" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="百分比 4 4 3" xfId="274" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="百分比 4 4 3 2" xfId="525" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="百分比 4 4 4" xfId="348" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="百分比 4 5" xfId="175" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="百分比 4 5 2" xfId="454" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="百分比 4 6" xfId="139" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="百分比 4 6 2" xfId="418" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="百分比 4 7" xfId="104" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="百分比 4 7 2" xfId="383" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="百分比 4 8" xfId="246" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="百分比 4 9" xfId="320" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="百分比 5" xfId="13" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="百分比 5 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="百分比 5 2 2" xfId="218" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="百分比 5 2 2 2" xfId="497" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="百分比 5 2 3" xfId="281" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="百分比 5 2 3 2" xfId="532" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="百分比 5 2 4" xfId="355" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="百分比 5 3" xfId="182" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="百分比 5 3 2" xfId="461" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="百分比 5 4" xfId="140" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="百分比 5 4 2" xfId="419" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="百分比 5 5" xfId="105" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="百分比 5 5 2" xfId="384" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="百分比 5 6" xfId="247" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="百分比 5 7" xfId="321" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="百分比 6" xfId="17" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="百分比 6 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="百分比 6 2 2" xfId="222" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="百分比 6 2 2 2" xfId="501" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="百分比 6 2 3" xfId="285" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="百分比 6 2 3 2" xfId="536" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="百分比 6 2 4" xfId="359" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="百分比 6 3" xfId="186" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="百分比 6 3 2" xfId="465" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="百分比 6 4" xfId="144" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="百分比 6 4 2" xfId="423" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="百分比 6 5" xfId="109" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
-    <cellStyle name="百分比 6 5 2" xfId="388" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
-    <cellStyle name="百分比 6 6" xfId="251" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
-    <cellStyle name="百分比 6 7" xfId="325" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="百分比 7" xfId="16" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="百分比 7 2" xfId="62" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="百分比 7 2 2" xfId="221" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="百分比 7 2 2 2" xfId="500" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="百分比 7 2 3" xfId="284" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="百分比 7 2 3 2" xfId="535" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="百分比 7 2 4" xfId="358" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
-    <cellStyle name="百分比 7 3" xfId="185" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
-    <cellStyle name="百分比 7 3 2" xfId="464" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="百分比 7 4" xfId="143" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="百分比 7 4 2" xfId="422" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
-    <cellStyle name="百分比 7 5" xfId="108" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="百分比 7 5 2" xfId="387" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
-    <cellStyle name="百分比 7 6" xfId="250" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
-    <cellStyle name="百分比 7 7" xfId="324" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="百分比 8" xfId="22" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
-    <cellStyle name="百分比 9" xfId="25" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
-    <cellStyle name="百分比 9 2" xfId="68" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
-    <cellStyle name="百分比 9 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
-    <cellStyle name="百分比 9 2 2 2" xfId="506" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
-    <cellStyle name="百分比 9 2 3" xfId="290" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="百分比 9 2 3 2" xfId="541" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
-    <cellStyle name="百分比 9 2 4" xfId="364" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
-    <cellStyle name="百分比 9 3" xfId="191" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="百分比 9 3 2" xfId="470" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="百分比 9 4" xfId="149" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
-    <cellStyle name="百分比 9 4 2" xfId="428" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
-    <cellStyle name="百分比 9 5" xfId="114" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
-    <cellStyle name="百分比 9 5 2" xfId="393" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
-    <cellStyle name="百分比 9 6" xfId="256" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="百分比 9 7" xfId="330" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="千位分隔 2" xfId="8" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
+    <cellStyle name="千位分隔 2 2" xfId="30" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
+    <cellStyle name="千位分隔 2 2 2" xfId="80" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+    <cellStyle name="千位分隔 2 2 2 2" xfId="313" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
+    <cellStyle name="千位分隔 2 2 3" xfId="72" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
+    <cellStyle name="千位分隔 2 2 3 2" xfId="231" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
+    <cellStyle name="千位分隔 2 2 3 2 2" xfId="510" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
+    <cellStyle name="千位分隔 2 2 3 3" xfId="294" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
+    <cellStyle name="千位分隔 2 2 3 3 2" xfId="545" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
+    <cellStyle name="千位分隔 2 2 3 4" xfId="368" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
+    <cellStyle name="千位分隔 2 2 4" xfId="195" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
+    <cellStyle name="千位分隔 2 2 4 2" xfId="474" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
+    <cellStyle name="千位分隔 2 2 5" xfId="153" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
+    <cellStyle name="千位分隔 2 2 5 2" xfId="432" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
+    <cellStyle name="千位分隔 2 2 6" xfId="118" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
+    <cellStyle name="千位分隔 2 2 6 2" xfId="397" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
+    <cellStyle name="千位分隔 2 2 7" xfId="260" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
+    <cellStyle name="千位分隔 2 2 8" xfId="334" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
+    <cellStyle name="千位分隔 2 3" xfId="39" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
+    <cellStyle name="千位分隔 2 4" xfId="77" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
+    <cellStyle name="千位分隔 2 5" xfId="47" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
+    <cellStyle name="千位分隔 2 5 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
+    <cellStyle name="千位分隔 2 5 2 2" xfId="485" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
+    <cellStyle name="千位分隔 2 5 3" xfId="269" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
+    <cellStyle name="千位分隔 2 5 4" xfId="343" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
+    <cellStyle name="千位分隔 2 6" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
+    <cellStyle name="千位分隔 2 6 2" xfId="449" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
+    <cellStyle name="千位分隔 3" xfId="33" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
+    <cellStyle name="千位分隔 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
+    <cellStyle name="千位分隔 3 2 2" xfId="236" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="千位分隔 3 2 2 2" xfId="306" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
+    <cellStyle name="千位分隔 3 2 2 3" xfId="515" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
+    <cellStyle name="千位分隔 3 2 3" xfId="200" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
+    <cellStyle name="千位分隔 3 2 3 2" xfId="479" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
+    <cellStyle name="千位分隔 3 2 4" xfId="164" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
+    <cellStyle name="千位分隔 3 2 4 2" xfId="443" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
+    <cellStyle name="千位分隔 3 2 5" xfId="129" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
+    <cellStyle name="千位分隔 3 2 5 2" xfId="408" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
+    <cellStyle name="千位分隔 3 2 6" xfId="299" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
+    <cellStyle name="千位分隔 3 2 7" xfId="373" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
+    <cellStyle name="千位分隔 4" xfId="35" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
+    <cellStyle name="千位分隔 4 2" xfId="45" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
+    <cellStyle name="千位分隔 4 2 2" xfId="73" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
+    <cellStyle name="千位分隔 4 2 2 2" xfId="232" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
+    <cellStyle name="千位分隔 4 2 2 2 2" xfId="511" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
+    <cellStyle name="千位分隔 4 2 2 3" xfId="295" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
+    <cellStyle name="千位分隔 4 2 2 3 2" xfId="546" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
+    <cellStyle name="千位分隔 4 2 2 4" xfId="369" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
+    <cellStyle name="千位分隔 4 2 3" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
+    <cellStyle name="千位分隔 4 2 3 2" xfId="475" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
+    <cellStyle name="千位分隔 4 2 4" xfId="160" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
+    <cellStyle name="千位分隔 4 2 4 2" xfId="439" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
+    <cellStyle name="千位分隔 4 2 5" xfId="125" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
+    <cellStyle name="千位分隔 4 2 5 2" xfId="404" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
+    <cellStyle name="千位分隔 4 2 6" xfId="267" xr:uid="{00000000-0005-0000-0000-0000FA010000}"/>
+    <cellStyle name="千位分隔 4 2 7" xfId="341" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
+    <cellStyle name="千位分隔 4 3" xfId="93" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
+    <cellStyle name="千位分隔 4 3 2" xfId="240" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
+    <cellStyle name="千位分隔 4 3 2 2" xfId="311" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
+    <cellStyle name="千位分隔 4 3 2 3" xfId="519" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
+    <cellStyle name="千位分隔 4 3 3" xfId="204" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
+    <cellStyle name="千位分隔 4 3 3 2" xfId="483" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
+    <cellStyle name="千位分隔 4 3 4" xfId="168" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
+    <cellStyle name="千位分隔 4 3 4 2" xfId="447" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
+    <cellStyle name="千位分隔 4 3 5" xfId="133" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
+    <cellStyle name="千位分隔 4 3 5 2" xfId="412" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
+    <cellStyle name="千位分隔 4 3 6" xfId="303" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
+    <cellStyle name="千位分隔 4 3 7" xfId="377" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
+    <cellStyle name="千位分隔 4 4" xfId="51" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
+    <cellStyle name="千位分隔 4 4 2" xfId="210" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
+    <cellStyle name="千位分隔 4 4 2 2" xfId="489" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
+    <cellStyle name="千位分隔 4 4 3" xfId="273" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
+    <cellStyle name="千位分隔 4 4 3 2" xfId="524" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
+    <cellStyle name="千位分隔 4 4 4" xfId="347" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
+    <cellStyle name="千位分隔 4 5" xfId="174" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
+    <cellStyle name="千位分隔 4 5 2" xfId="453" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
+    <cellStyle name="千位分隔 4 6" xfId="154" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
+    <cellStyle name="千位分隔 4 6 2" xfId="433" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
+    <cellStyle name="千位分隔 4 7" xfId="119" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
+    <cellStyle name="千位分隔 4 7 2" xfId="398" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
+    <cellStyle name="千位分隔 4 8" xfId="261" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
+    <cellStyle name="千位分隔 4 9" xfId="335" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
+    <cellStyle name="千位分隔 5" xfId="75" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
+    <cellStyle name="千位分隔 5 2" xfId="94" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
+    <cellStyle name="千位分隔 5 3" xfId="234" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
+    <cellStyle name="千位分隔 5 3 2" xfId="314" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
+    <cellStyle name="千位分隔 5 3 3" xfId="513" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
+    <cellStyle name="千位分隔 5 4" xfId="198" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
+    <cellStyle name="千位分隔 5 4 2" xfId="477" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
+    <cellStyle name="千位分隔 5 5" xfId="162" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
+    <cellStyle name="千位分隔 5 5 2" xfId="441" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
+    <cellStyle name="千位分隔 5 6" xfId="127" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
+    <cellStyle name="千位分隔 5 6 2" xfId="406" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
+    <cellStyle name="千位分隔 5 7" xfId="297" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
+    <cellStyle name="千位分隔 5 8" xfId="371" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
     <cellStyle name="常规 10" xfId="20" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
     <cellStyle name="常规 10 2" xfId="66" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
     <cellStyle name="常规 10 2 2" xfId="225" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
@@ -5146,101 +4972,196 @@
     <cellStyle name="常规 9 5 2" xfId="390" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
     <cellStyle name="常规 9 6" xfId="253" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
     <cellStyle name="常规 9 7" xfId="327" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
-    <cellStyle name="千位分隔 2" xfId="8" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
-    <cellStyle name="千位分隔 2 2" xfId="30" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
-    <cellStyle name="千位分隔 2 2 2" xfId="80" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
-    <cellStyle name="千位分隔 2 2 2 2" xfId="313" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
-    <cellStyle name="千位分隔 2 2 3" xfId="72" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
-    <cellStyle name="千位分隔 2 2 3 2" xfId="231" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
-    <cellStyle name="千位分隔 2 2 3 2 2" xfId="510" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
-    <cellStyle name="千位分隔 2 2 3 3" xfId="294" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
-    <cellStyle name="千位分隔 2 2 3 3 2" xfId="545" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
-    <cellStyle name="千位分隔 2 2 3 4" xfId="368" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
-    <cellStyle name="千位分隔 2 2 4" xfId="195" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
-    <cellStyle name="千位分隔 2 2 4 2" xfId="474" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
-    <cellStyle name="千位分隔 2 2 5" xfId="153" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
-    <cellStyle name="千位分隔 2 2 5 2" xfId="432" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
-    <cellStyle name="千位分隔 2 2 6" xfId="118" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
-    <cellStyle name="千位分隔 2 2 6 2" xfId="397" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
-    <cellStyle name="千位分隔 2 2 7" xfId="260" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
-    <cellStyle name="千位分隔 2 2 8" xfId="334" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
-    <cellStyle name="千位分隔 2 3" xfId="39" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
-    <cellStyle name="千位分隔 2 4" xfId="77" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
-    <cellStyle name="千位分隔 2 5" xfId="47" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
-    <cellStyle name="千位分隔 2 5 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
-    <cellStyle name="千位分隔 2 5 2 2" xfId="485" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
-    <cellStyle name="千位分隔 2 5 3" xfId="269" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
-    <cellStyle name="千位分隔 2 5 4" xfId="343" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
-    <cellStyle name="千位分隔 2 6" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
-    <cellStyle name="千位分隔 2 6 2" xfId="449" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
-    <cellStyle name="千位分隔 3" xfId="33" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
-    <cellStyle name="千位分隔 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
-    <cellStyle name="千位分隔 3 2 2" xfId="236" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
-    <cellStyle name="千位分隔 3 2 2 2" xfId="306" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
-    <cellStyle name="千位分隔 3 2 2 3" xfId="515" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
-    <cellStyle name="千位分隔 3 2 3" xfId="200" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
-    <cellStyle name="千位分隔 3 2 3 2" xfId="479" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
-    <cellStyle name="千位分隔 3 2 4" xfId="164" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
-    <cellStyle name="千位分隔 3 2 4 2" xfId="443" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
-    <cellStyle name="千位分隔 3 2 5" xfId="129" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
-    <cellStyle name="千位分隔 3 2 5 2" xfId="408" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
-    <cellStyle name="千位分隔 3 2 6" xfId="299" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
-    <cellStyle name="千位分隔 3 2 7" xfId="373" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
-    <cellStyle name="千位分隔 4" xfId="35" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
-    <cellStyle name="千位分隔 4 2" xfId="45" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
-    <cellStyle name="千位分隔 4 2 2" xfId="73" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
-    <cellStyle name="千位分隔 4 2 2 2" xfId="232" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
-    <cellStyle name="千位分隔 4 2 2 2 2" xfId="511" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
-    <cellStyle name="千位分隔 4 2 2 3" xfId="295" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
-    <cellStyle name="千位分隔 4 2 2 3 2" xfId="546" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
-    <cellStyle name="千位分隔 4 2 2 4" xfId="369" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
-    <cellStyle name="千位分隔 4 2 3" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
-    <cellStyle name="千位分隔 4 2 3 2" xfId="475" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
-    <cellStyle name="千位分隔 4 2 4" xfId="160" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
-    <cellStyle name="千位分隔 4 2 4 2" xfId="439" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
-    <cellStyle name="千位分隔 4 2 5" xfId="125" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
-    <cellStyle name="千位分隔 4 2 5 2" xfId="404" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
-    <cellStyle name="千位分隔 4 2 6" xfId="267" xr:uid="{00000000-0005-0000-0000-0000FA010000}"/>
-    <cellStyle name="千位分隔 4 2 7" xfId="341" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
-    <cellStyle name="千位分隔 4 3" xfId="93" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
-    <cellStyle name="千位分隔 4 3 2" xfId="240" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
-    <cellStyle name="千位分隔 4 3 2 2" xfId="311" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
-    <cellStyle name="千位分隔 4 3 2 3" xfId="519" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
-    <cellStyle name="千位分隔 4 3 3" xfId="204" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
-    <cellStyle name="千位分隔 4 3 3 2" xfId="483" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
-    <cellStyle name="千位分隔 4 3 4" xfId="168" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
-    <cellStyle name="千位分隔 4 3 4 2" xfId="447" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
-    <cellStyle name="千位分隔 4 3 5" xfId="133" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
-    <cellStyle name="千位分隔 4 3 5 2" xfId="412" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
-    <cellStyle name="千位分隔 4 3 6" xfId="303" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
-    <cellStyle name="千位分隔 4 3 7" xfId="377" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
-    <cellStyle name="千位分隔 4 4" xfId="51" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
-    <cellStyle name="千位分隔 4 4 2" xfId="210" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
-    <cellStyle name="千位分隔 4 4 2 2" xfId="489" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
-    <cellStyle name="千位分隔 4 4 3" xfId="273" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
-    <cellStyle name="千位分隔 4 4 3 2" xfId="524" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
-    <cellStyle name="千位分隔 4 4 4" xfId="347" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
-    <cellStyle name="千位分隔 4 5" xfId="174" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
-    <cellStyle name="千位分隔 4 5 2" xfId="453" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
-    <cellStyle name="千位分隔 4 6" xfId="154" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
-    <cellStyle name="千位分隔 4 6 2" xfId="433" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
-    <cellStyle name="千位分隔 4 7" xfId="119" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
-    <cellStyle name="千位分隔 4 7 2" xfId="398" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
-    <cellStyle name="千位分隔 4 8" xfId="261" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
-    <cellStyle name="千位分隔 4 9" xfId="335" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
-    <cellStyle name="千位分隔 5" xfId="75" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
-    <cellStyle name="千位分隔 5 2" xfId="94" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
-    <cellStyle name="千位分隔 5 3" xfId="234" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
-    <cellStyle name="千位分隔 5 3 2" xfId="314" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
-    <cellStyle name="千位分隔 5 3 3" xfId="513" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
-    <cellStyle name="千位分隔 5 4" xfId="198" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
-    <cellStyle name="千位分隔 5 4 2" xfId="477" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
-    <cellStyle name="千位分隔 5 5" xfId="162" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
-    <cellStyle name="千位分隔 5 5 2" xfId="441" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
-    <cellStyle name="千位分隔 5 6" xfId="127" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
-    <cellStyle name="千位分隔 5 6 2" xfId="406" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
-    <cellStyle name="千位分隔 5 7" xfId="297" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
-    <cellStyle name="千位分隔 5 8" xfId="371" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
+    <cellStyle name="百分比 10" xfId="26" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="百分比 10 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="百分比 10 2 2" xfId="228" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="百分比 10 2 2 2" xfId="507" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="百分比 10 2 3" xfId="291" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="百分比 10 2 3 2" xfId="542" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="百分比 10 2 4" xfId="365" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="百分比 10 3" xfId="192" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="百分比 10 3 2" xfId="471" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="百分比 10 4" xfId="150" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="百分比 10 4 2" xfId="429" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="百分比 10 5" xfId="115" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="百分比 10 5 2" xfId="394" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="百分比 10 6" xfId="257" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="百分比 10 7" xfId="331" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="百分比 11" xfId="3" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="百分比 11 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="百分比 11 2 2" xfId="213" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="百分比 11 2 2 2" xfId="492" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="百分比 11 2 3" xfId="276" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="百分比 11 2 3 2" xfId="527" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="百分比 11 2 4" xfId="350" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="百分比 11 3" xfId="177" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="百分比 11 3 2" xfId="456" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="百分比 11 4" xfId="135" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="百分比 11 4 2" xfId="414" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="百分比 11 5" xfId="100" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="百分比 11 5 2" xfId="379" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="百分比 11 6" xfId="242" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="百分比 11 7" xfId="316" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="百分比 12" xfId="76" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="百分比 12 2" xfId="235" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="百分比 12 2 2" xfId="310" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="百分比 12 2 3" xfId="514" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="百分比 12 3" xfId="199" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="百分比 12 3 2" xfId="478" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="百分比 12 4" xfId="163" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="百分比 12 4 2" xfId="442" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="百分比 12 5" xfId="128" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="百分比 12 5 2" xfId="407" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="百分比 12 6" xfId="298" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="百分比 12 7" xfId="372" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="百分比 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="百分比 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="百分比 2 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="百分比 2 2 2 2" xfId="216" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="百分比 2 2 2 2 2" xfId="495" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="百分比 2 2 2 3" xfId="279" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="百分比 2 2 2 3 2" xfId="530" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="百分比 2 2 2 4" xfId="353" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="百分比 2 2 3" xfId="180" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="百分比 2 2 3 2" xfId="459" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="百分比 2 2 4" xfId="157" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="百分比 2 2 4 2" xfId="436" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="百分比 2 2 5" xfId="122" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="百分比 2 2 5 2" xfId="401" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="百分比 2 2 6" xfId="264" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="百分比 2 2 7" xfId="338" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="百分比 2 3" xfId="90" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="百分比 2 4" xfId="48" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="百分比 2 4 2" xfId="207" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="百分比 2 4 2 2" xfId="486" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="百分比 2 4 3" xfId="270" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="百分比 2 4 3 2" xfId="521" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="百分比 2 4 4" xfId="344" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="百分比 2 5" xfId="171" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="百分比 2 5 2" xfId="450" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="百分比 2 6" xfId="138" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="百分比 2 6 2" xfId="417" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="百分比 2 7" xfId="103" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="百分比 2 7 2" xfId="382" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="百分比 2 8" xfId="245" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="百分比 2 9" xfId="319" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="百分比 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="百分比 3 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="百分比 3 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="百分比 3 3 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="百分比 3 3 2 2" xfId="219" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="百分比 3 3 2 2 2" xfId="498" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="百分比 3 3 2 3" xfId="282" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="百分比 3 3 2 3 2" xfId="533" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="百分比 3 3 2 4" xfId="356" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="百分比 3 3 3" xfId="183" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="百分比 3 3 3 2" xfId="462" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="百分比 3 3 4" xfId="159" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="百分比 3 3 4 2" xfId="438" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="百分比 3 3 5" xfId="124" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="百分比 3 3 5 2" xfId="403" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="百分比 3 3 6" xfId="266" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="百分比 3 3 7" xfId="340" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="百分比 3 4" xfId="96" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="百分比 3 5" xfId="141" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="百分比 3 5 2" xfId="420" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="百分比 3 6" xfId="106" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="百分比 3 6 2" xfId="385" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="百分比 3 7" xfId="248" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="百分比 3 7 2" xfId="520" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="百分比 3 8" xfId="322" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="百分比 4" xfId="12" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="百分比 4 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="百分比 4 2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="百分比 4 2 2 2" xfId="217" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="百分比 4 2 2 2 2" xfId="496" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="百分比 4 2 2 3" xfId="280" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="百分比 4 2 2 3 2" xfId="531" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="百分比 4 2 2 4" xfId="354" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="百分比 4 2 3" xfId="181" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="百分比 4 2 3 2" xfId="460" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="百分比 4 2 4" xfId="158" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="百分比 4 2 4 2" xfId="437" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="百分比 4 2 5" xfId="123" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="百分比 4 2 5 2" xfId="402" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="百分比 4 2 6" xfId="265" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="百分比 4 2 7" xfId="339" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="百分比 4 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="百分比 4 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="百分比 4 4 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="百分比 4 4 2 2" xfId="490" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="百分比 4 4 3" xfId="274" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="百分比 4 4 3 2" xfId="525" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="百分比 4 4 4" xfId="348" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="百分比 4 5" xfId="175" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="百分比 4 5 2" xfId="454" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="百分比 4 6" xfId="139" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="百分比 4 6 2" xfId="418" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="百分比 4 7" xfId="104" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="百分比 4 7 2" xfId="383" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="百分比 4 8" xfId="246" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="百分比 4 9" xfId="320" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="百分比 5" xfId="13" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="百分比 5 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="百分比 5 2 2" xfId="218" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="百分比 5 2 2 2" xfId="497" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="百分比 5 2 3" xfId="281" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="百分比 5 2 3 2" xfId="532" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="百分比 5 2 4" xfId="355" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="百分比 5 3" xfId="182" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="百分比 5 3 2" xfId="461" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="百分比 5 4" xfId="140" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="百分比 5 4 2" xfId="419" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="百分比 5 5" xfId="105" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="百分比 5 5 2" xfId="384" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="百分比 5 6" xfId="247" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="百分比 5 7" xfId="321" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="百分比 6" xfId="17" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="百分比 6 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="百分比 6 2 2" xfId="222" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="百分比 6 2 2 2" xfId="501" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="百分比 6 2 3" xfId="285" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="百分比 6 2 3 2" xfId="536" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="百分比 6 2 4" xfId="359" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="百分比 6 3" xfId="186" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="百分比 6 3 2" xfId="465" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="百分比 6 4" xfId="144" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="百分比 6 4 2" xfId="423" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="百分比 6 5" xfId="109" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="百分比 6 5 2" xfId="388" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="百分比 6 6" xfId="251" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="百分比 6 7" xfId="325" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="百分比 7" xfId="16" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="百分比 7 2" xfId="62" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="百分比 7 2 2" xfId="221" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="百分比 7 2 2 2" xfId="500" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="百分比 7 2 3" xfId="284" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="百分比 7 2 3 2" xfId="535" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="百分比 7 2 4" xfId="358" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="百分比 7 3" xfId="185" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="百分比 7 3 2" xfId="464" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="百分比 7 4" xfId="143" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="百分比 7 4 2" xfId="422" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="百分比 7 5" xfId="108" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="百分比 7 5 2" xfId="387" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="百分比 7 6" xfId="250" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="百分比 7 7" xfId="324" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="百分比 8" xfId="22" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="百分比 9" xfId="25" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="百分比 9 2" xfId="68" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="百分比 9 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="百分比 9 2 2 2" xfId="506" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="百分比 9 2 3" xfId="290" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="百分比 9 2 3 2" xfId="541" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="百分比 9 2 4" xfId="364" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="百分比 9 3" xfId="191" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="百分比 9 3 2" xfId="470" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="百分比 9 4" xfId="149" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="百分比 9 4 2" xfId="428" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="百分比 9 5" xfId="114" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="百分比 9 5 2" xfId="393" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="百分比 9 6" xfId="256" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="百分比 9 7" xfId="330" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
@@ -5409,7 +5330,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DA7344F-1667-4AF6-9E35-5D6BDE632D19}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DA7344F-1667-4AF6-9E35-5D6BDE632D19}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G4:G5" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="3">
     <pivotField showAll="0">
@@ -6530,59 +6451,59 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="13" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="4" customWidth="1"/>
-    <col min="2" max="4" width="33.7109375" style="4" customWidth="1"/>
+    <col min="2" max="4" width="33.6640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="10" style="4" customWidth="1"/>
     <col min="6" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.85" customHeight="1">
+    <row r="1" spans="1:5" ht="14.75" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" ht="14.85" customHeight="1">
+    <row r="2" spans="1:5" ht="14.75" customHeight="1">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5" ht="50.1" customHeight="1">
+    <row r="3" spans="1:5" ht="50" customHeight="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="189" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
+      <c r="B3" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="14.85" customHeight="1">
+    <row r="4" spans="1:5" ht="14.75" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" ht="14.85" customHeight="1">
+    <row r="5" spans="1:5" ht="14.75" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:5" ht="14.85" customHeight="1">
+    <row r="6" spans="1:5" ht="14.75" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" ht="18">
+    <row r="7" spans="1:5" ht="19">
       <c r="A7" s="8"/>
       <c r="B7" s="11" t="s">
         <v>1</v>
@@ -6595,14 +6516,14 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" ht="14.85" customHeight="1">
+    <row r="8" spans="1:5" ht="14.75" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" ht="15">
+    <row r="9" spans="1:5" ht="17">
       <c r="A9" s="8"/>
       <c r="B9" s="12" t="s">
         <v>5</v>
@@ -6611,7 +6532,7 @@
       <c r="D9" s="13"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:5" ht="15">
+    <row r="10" spans="1:5" ht="17">
       <c r="A10" s="8"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15" t="s">
@@ -6622,7 +6543,7 @@
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:5" ht="12.95" customHeight="1">
+    <row r="11" spans="1:5" ht="13" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -6631,7 +6552,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:5" ht="12.95" customHeight="1">
+    <row r="12" spans="1:5" ht="13" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
@@ -6642,7 +6563,7 @@
       </c>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:5" ht="12.95" customHeight="1">
+    <row r="13" spans="1:5" ht="13" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -6651,7 +6572,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:5" ht="12.95" customHeight="1">
+    <row r="14" spans="1:5" ht="13" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
@@ -6662,7 +6583,7 @@
       </c>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:5" ht="12.95" customHeight="1">
+    <row r="15" spans="1:5" ht="13" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>8</v>
@@ -6671,7 +6592,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:5" ht="12.95" customHeight="1">
+    <row r="16" spans="1:5" ht="13" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
@@ -6682,7 +6603,7 @@
       </c>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:5" ht="12.95" customHeight="1">
+    <row r="17" spans="1:5" ht="13" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>9</v>
@@ -6691,7 +6612,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:5" ht="12.95" customHeight="1">
+    <row r="18" spans="1:5" ht="13" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
@@ -6702,7 +6623,7 @@
       </c>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:5" ht="12.95" customHeight="1">
+    <row r="19" spans="1:5" ht="13" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="1" t="s">
         <v>10</v>
@@ -6711,7 +6632,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:5" ht="12.95" customHeight="1">
+    <row r="20" spans="1:5" ht="13" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
@@ -6722,7 +6643,7 @@
       </c>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="1:5" ht="12.95" customHeight="1">
+    <row r="21" spans="1:5" ht="13" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="1" t="s">
         <v>11</v>
@@ -6731,7 +6652,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:5" ht="12.95" customHeight="1">
+    <row r="22" spans="1:5" ht="13" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
@@ -6742,7 +6663,7 @@
       </c>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:5" ht="12.95" customHeight="1">
+    <row r="23" spans="1:5" ht="13" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="1" t="s">
         <v>12</v>
@@ -6751,7 +6672,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:5" ht="12.95" customHeight="1">
+    <row r="24" spans="1:5" ht="13" customHeight="1">
       <c r="A24" s="17"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
@@ -6762,7 +6683,7 @@
       </c>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" ht="12.95" customHeight="1">
+    <row r="25" spans="1:5" ht="13" customHeight="1">
       <c r="A25" s="5"/>
       <c r="B25" s="1" t="s">
         <v>13</v>
@@ -6771,7 +6692,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" ht="12.95" customHeight="1">
+    <row r="26" spans="1:5" ht="13" customHeight="1">
       <c r="A26" s="17"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
@@ -6824,10 +6745,10 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="16.28515625" style="137" customWidth="1"/>
-    <col min="7" max="256" width="16.28515625" customWidth="1"/>
+    <col min="1" max="6" width="16.33203125" style="137" customWidth="1"/>
+    <col min="7" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1">
@@ -6870,7 +6791,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="101"/>
       <c r="B3" s="92"/>
       <c r="C3" s="92"/>
@@ -6878,7 +6799,7 @@
       <c r="E3" s="92"/>
       <c r="F3" s="92"/>
     </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="101"/>
       <c r="B4" s="92"/>
       <c r="C4" s="92"/>
@@ -6886,7 +6807,7 @@
       <c r="E4" s="92"/>
       <c r="F4" s="92"/>
     </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="101"/>
       <c r="B5" s="92"/>
       <c r="C5" s="92"/>
@@ -6894,7 +6815,7 @@
       <c r="E5" s="92"/>
       <c r="F5" s="92"/>
     </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="101"/>
       <c r="B6" s="92"/>
       <c r="C6" s="92"/>
@@ -6902,7 +6823,7 @@
       <c r="E6" s="92"/>
       <c r="F6" s="92"/>
     </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="101"/>
       <c r="B7" s="92"/>
       <c r="C7" s="92"/>
@@ -6910,7 +6831,7 @@
       <c r="E7" s="92"/>
       <c r="F7" s="92"/>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="101"/>
       <c r="B8" s="92"/>
       <c r="C8" s="92"/>
@@ -6918,7 +6839,7 @@
       <c r="E8" s="92"/>
       <c r="F8" s="92"/>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="101"/>
       <c r="B9" s="92"/>
       <c r="C9" s="92"/>
@@ -6926,7 +6847,7 @@
       <c r="E9" s="92"/>
       <c r="F9" s="92"/>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="101"/>
       <c r="B10" s="92"/>
       <c r="C10" s="92"/>
@@ -6948,15 +6869,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13" style="140" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="140" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" style="140" customWidth="1"/>
-    <col min="4" max="6" width="8.85546875" style="140" customWidth="1"/>
-    <col min="7" max="256" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="140" customWidth="1"/>
+    <col min="3" max="3" width="109.33203125" style="140" customWidth="1"/>
+    <col min="4" max="4" width="43.1640625" style="140" customWidth="1"/>
+    <col min="5" max="5" width="48.83203125" style="140" customWidth="1"/>
+    <col min="6" max="6" width="71" style="140" customWidth="1"/>
+    <col min="7" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
@@ -6979,7 +6904,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.85" customHeight="1">
+    <row r="2" spans="1:6" ht="14.75" customHeight="1">
       <c r="A2" s="141" t="s">
         <v>209</v>
       </c>
@@ -6991,7 +6916,7 @@
       <c r="E2" s="143"/>
       <c r="F2" s="143"/>
     </row>
-    <row r="3" spans="1:6" ht="14.85" customHeight="1">
+    <row r="3" spans="1:6" ht="14.75" customHeight="1">
       <c r="A3" s="141" t="s">
         <v>209</v>
       </c>
@@ -7003,7 +6928,7 @@
       <c r="E3" s="145"/>
       <c r="F3" s="145"/>
     </row>
-    <row r="4" spans="1:6" ht="14.85" customHeight="1">
+    <row r="4" spans="1:6" ht="14.75" customHeight="1">
       <c r="A4" s="142" t="s">
         <v>209</v>
       </c>
@@ -7015,7 +6940,7 @@
       <c r="E4" s="146"/>
       <c r="F4" s="146"/>
     </row>
-    <row r="5" spans="1:6" ht="50.85" customHeight="1">
+    <row r="5" spans="1:6" ht="50.75" customHeight="1">
       <c r="A5" s="144" t="s">
         <v>213</v>
       </c>
@@ -7029,101 +6954,101 @@
       <c r="E5" s="149" t="s">
         <v>216</v>
       </c>
-      <c r="F5" s="150" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="50.85" customHeight="1">
+      <c r="F5" s="189" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="50.75" customHeight="1">
       <c r="A6" s="144" t="s">
         <v>213</v>
       </c>
       <c r="B6" s="144" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" s="147" t="s">
         <v>215</v>
       </c>
       <c r="D6" s="148"/>
       <c r="E6" s="149" t="s">
-        <v>219</v>
-      </c>
-      <c r="F6" s="150" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="50.85" customHeight="1">
+        <v>218</v>
+      </c>
+      <c r="F6" s="189" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="50" customHeight="1">
       <c r="A7" s="144" t="s">
         <v>213</v>
       </c>
       <c r="B7" s="144" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C7" s="147" t="s">
         <v>215</v>
       </c>
       <c r="D7" s="148"/>
       <c r="E7" s="149" t="s">
-        <v>222</v>
-      </c>
-      <c r="F7" s="150" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="50.85" customHeight="1">
+        <v>220</v>
+      </c>
+      <c r="F7" s="189" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="50.75" customHeight="1">
       <c r="A8" s="144" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B8" s="144" t="s">
         <v>214</v>
       </c>
       <c r="C8" s="147" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D8" s="148"/>
       <c r="E8" s="149" t="s">
-        <v>226</v>
-      </c>
-      <c r="F8" s="151" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="50.85" customHeight="1">
+        <v>223</v>
+      </c>
+      <c r="F8" s="189" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="50.75" customHeight="1">
       <c r="A9" s="144" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B9" s="144" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="147" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D9" s="148"/>
       <c r="E9" s="149" t="s">
-        <v>228</v>
-      </c>
-      <c r="F9" s="152" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="50.85" customHeight="1">
+        <v>224</v>
+      </c>
+      <c r="F9" s="189" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="50.75" customHeight="1">
       <c r="A10" s="144" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B10" s="144" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C10" s="147" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D10" s="148"/>
       <c r="E10" s="149" t="s">
-        <v>230</v>
-      </c>
-      <c r="F10" s="152" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="38.85" customHeight="1">
+        <v>225</v>
+      </c>
+      <c r="F10" s="189" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="38.75" customHeight="1">
       <c r="A11" s="144" t="s">
         <v>8</v>
       </c>
@@ -7131,158 +7056,158 @@
         <v>214</v>
       </c>
       <c r="C11" s="147" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D11" s="148"/>
       <c r="E11" s="149" t="s">
-        <v>233</v>
-      </c>
-      <c r="F11" s="152" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="38.85" customHeight="1">
+        <v>227</v>
+      </c>
+      <c r="F11" s="189" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="38.75" customHeight="1">
       <c r="A12" s="144" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="144" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C12" s="147" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D12" s="148"/>
       <c r="E12" s="149" t="s">
-        <v>235</v>
-      </c>
-      <c r="F12" s="152" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="38.85" customHeight="1">
+        <v>228</v>
+      </c>
+      <c r="F12" s="189" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="38.75" customHeight="1">
       <c r="A13" s="144" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="144" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C13" s="147" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D13" s="148"/>
       <c r="E13" s="149" t="s">
-        <v>237</v>
-      </c>
-      <c r="F13" s="152" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="38.85" customHeight="1">
+        <v>229</v>
+      </c>
+      <c r="F13" s="189" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="38.75" customHeight="1">
       <c r="A14" s="144" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B14" s="144" t="s">
         <v>214</v>
       </c>
       <c r="C14" s="147" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D14" s="148"/>
       <c r="E14" s="149" t="s">
-        <v>241</v>
-      </c>
-      <c r="F14" s="152" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="38.85" customHeight="1">
+        <v>232</v>
+      </c>
+      <c r="F14" s="189" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="38.75" customHeight="1">
       <c r="A15" s="144" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B15" s="144" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C15" s="147" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D15" s="148"/>
       <c r="E15" s="149" t="s">
-        <v>243</v>
-      </c>
-      <c r="F15" s="152" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="38.85" customHeight="1">
+        <v>233</v>
+      </c>
+      <c r="F15" s="189" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="38.75" customHeight="1">
       <c r="A16" s="144" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B16" s="144" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C16" s="147" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D16" s="148"/>
       <c r="E16" s="149" t="s">
-        <v>245</v>
-      </c>
-      <c r="F16" s="152" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="50.85" customHeight="1">
+        <v>234</v>
+      </c>
+      <c r="F16" s="189" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="50.75" customHeight="1">
       <c r="A17" s="144" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B17" s="144" t="s">
         <v>214</v>
       </c>
       <c r="C17" s="147" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D17" s="148"/>
       <c r="E17" s="149" t="s">
-        <v>249</v>
-      </c>
-      <c r="F17" s="152" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="50.85" customHeight="1">
+        <v>237</v>
+      </c>
+      <c r="F17" s="189" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="50.75" customHeight="1">
       <c r="A18" s="144" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B18" s="144" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C18" s="147" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D18" s="148"/>
       <c r="E18" s="149" t="s">
-        <v>251</v>
-      </c>
-      <c r="F18" s="152" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="50.85" customHeight="1">
+        <v>238</v>
+      </c>
+      <c r="F18" s="189" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="50.75" customHeight="1">
       <c r="A19" s="144" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B19" s="144" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C19" s="147" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D19" s="148"/>
       <c r="E19" s="149" t="s">
-        <v>253</v>
-      </c>
-      <c r="F19" s="152" t="s">
-        <v>254</v>
+        <v>239</v>
+      </c>
+      <c r="F19" s="189" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -7306,12 +7231,12 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="59.28515625" style="19" customWidth="1"/>
-    <col min="3" max="17" width="16.28515625" style="19" customWidth="1"/>
-    <col min="18" max="256" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="59.33203125" style="19" customWidth="1"/>
+    <col min="3" max="17" width="16.33203125" style="19" customWidth="1"/>
+    <col min="18" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" customHeight="1">
@@ -7382,7 +7307,7 @@
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="27" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>34</v>
@@ -7416,7 +7341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:17" ht="20" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>37</v>
       </c>
@@ -7431,7 +7356,7 @@
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="34" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>34</v>
@@ -7465,7 +7390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:17" ht="20" customHeight="1">
       <c r="A4" s="23" t="s">
         <v>41</v>
       </c>
@@ -7480,7 +7405,7 @@
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="34" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>34</v>
@@ -7514,7 +7439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:17" ht="20" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>46</v>
       </c>
@@ -7529,7 +7454,7 @@
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="34" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>34</v>
@@ -7563,7 +7488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:17" ht="20" customHeight="1">
       <c r="A6" s="23" t="s">
         <v>48</v>
       </c>
@@ -7578,7 +7503,7 @@
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="34" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>34</v>
@@ -7612,7 +7537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:17" ht="20" customHeight="1">
       <c r="A7" s="23" t="s">
         <v>50</v>
       </c>
@@ -7627,7 +7552,7 @@
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>52</v>
@@ -7661,7 +7586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:17" ht="20" customHeight="1">
       <c r="A8" s="23" t="s">
         <v>53</v>
       </c>
@@ -7676,7 +7601,7 @@
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="34" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>52</v>
@@ -7710,7 +7635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:17" ht="20" customHeight="1">
       <c r="A9" s="23" t="s">
         <v>56</v>
       </c>
@@ -7725,7 +7650,7 @@
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="34" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>58</v>
@@ -7759,7 +7684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:17" ht="20" customHeight="1">
       <c r="A10" s="23" t="s">
         <v>59</v>
       </c>
@@ -7774,7 +7699,7 @@
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="34" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>34</v>
@@ -7808,7 +7733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:17" ht="20" customHeight="1">
       <c r="A11" s="23" t="s">
         <v>61</v>
       </c>
@@ -7823,7 +7748,7 @@
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="34" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="G11" s="37" t="s">
         <v>34</v>
@@ -7857,7 +7782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:17" ht="20" customHeight="1">
       <c r="A12" s="40"/>
       <c r="B12" s="41"/>
       <c r="C12" s="42"/>
@@ -7876,7 +7801,7 @@
       <c r="P12" s="51"/>
       <c r="Q12" s="51"/>
     </row>
-    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:17" ht="20" customHeight="1">
       <c r="A13" s="52"/>
       <c r="B13" s="53"/>
       <c r="C13" s="42"/>
@@ -7895,7 +7820,7 @@
       <c r="P13" s="46"/>
       <c r="Q13" s="46"/>
     </row>
-    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:17" ht="20" customHeight="1">
       <c r="A14" s="59"/>
       <c r="B14" s="60"/>
       <c r="C14" s="61"/>
@@ -7914,7 +7839,7 @@
       <c r="P14" s="46"/>
       <c r="Q14" s="46"/>
     </row>
-    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:17" ht="20" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7933,7 +7858,7 @@
       <c r="P15" s="46"/>
       <c r="Q15" s="46"/>
     </row>
-    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:17" ht="20" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7952,7 +7877,7 @@
       <c r="P16" s="55"/>
       <c r="Q16" s="55"/>
     </row>
-    <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:17" ht="20" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -7971,7 +7896,7 @@
       <c r="P17" s="60"/>
       <c r="Q17" s="63"/>
     </row>
-    <row r="18" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:17" ht="20" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -7990,7 +7915,7 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:17" ht="20" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -8009,7 +7934,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="10"/>
     </row>
-    <row r="20" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:17" ht="20" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -8028,7 +7953,7 @@
       <c r="P20" s="9"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:17" ht="20" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -8047,7 +7972,7 @@
       <c r="P21" s="9"/>
       <c r="Q21" s="10"/>
     </row>
-    <row r="22" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:17" ht="20" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -8066,7 +7991,7 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:17" ht="20" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -8085,7 +8010,7 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="10"/>
     </row>
-    <row r="24" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:17" ht="20" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -8104,7 +8029,7 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="10"/>
     </row>
-    <row r="25" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:17" ht="20" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -8123,7 +8048,7 @@
       <c r="P25" s="9"/>
       <c r="Q25" s="10"/>
     </row>
-    <row r="26" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:17" ht="20" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -8142,7 +8067,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="10"/>
     </row>
-    <row r="27" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:17" ht="20" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -8161,7 +8086,7 @@
       <c r="P27" s="9"/>
       <c r="Q27" s="10"/>
     </row>
-    <row r="28" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:17" ht="20" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -8180,7 +8105,7 @@
       <c r="P28" s="9"/>
       <c r="Q28" s="10"/>
     </row>
-    <row r="29" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:17" ht="20" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -8199,7 +8124,7 @@
       <c r="P29" s="9"/>
       <c r="Q29" s="10"/>
     </row>
-    <row r="30" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:17" ht="20" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -8218,7 +8143,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="10"/>
     </row>
-    <row r="31" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:17" ht="20" customHeight="1">
       <c r="A31" s="17"/>
       <c r="B31" s="64"/>
       <c r="C31" s="64"/>
@@ -8258,14 +8183,14 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="65" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="65" customWidth="1"/>
-    <col min="3" max="14" width="16.28515625" style="65" customWidth="1"/>
-    <col min="15" max="15" width="29.85546875" style="65" customWidth="1"/>
-    <col min="16" max="19" width="16.28515625" style="65" customWidth="1"/>
-    <col min="20" max="256" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="65" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="65" customWidth="1"/>
+    <col min="3" max="14" width="16.33203125" style="65" customWidth="1"/>
+    <col min="15" max="15" width="29.83203125" style="65" customWidth="1"/>
+    <col min="16" max="19" width="16.33203125" style="65" customWidth="1"/>
+    <col min="20" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1">
@@ -8341,7 +8266,7 @@
         <v>83</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="F2" s="55"/>
       <c r="G2" s="55"/>
@@ -8374,7 +8299,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:19" ht="20" customHeight="1">
       <c r="A3" s="66" t="s">
         <v>88</v>
       </c>
@@ -8388,7 +8313,7 @@
         <v>90</v>
       </c>
       <c r="E3" s="70" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="F3" s="60"/>
       <c r="G3" s="60"/>
@@ -8421,7 +8346,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:19" ht="20" customHeight="1">
       <c r="A4" s="66" t="s">
         <v>92</v>
       </c>
@@ -8435,7 +8360,7 @@
         <v>94</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -8468,7 +8393,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:19" ht="20" customHeight="1">
       <c r="A5" s="74"/>
       <c r="B5" s="74"/>
       <c r="C5" s="75"/>
@@ -8489,7 +8414,7 @@
       <c r="R5" s="34"/>
       <c r="S5" s="74"/>
     </row>
-    <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:19" ht="20" customHeight="1">
       <c r="A6" s="74"/>
       <c r="B6" s="74"/>
       <c r="C6" s="78"/>
@@ -8510,7 +8435,7 @@
       <c r="R6" s="34"/>
       <c r="S6" s="74"/>
     </row>
-    <row r="7" spans="1:19" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:19" ht="20" customHeight="1">
       <c r="A7" s="74"/>
       <c r="B7" s="74"/>
       <c r="C7" s="78"/>
@@ -8531,7 +8456,7 @@
       <c r="R7" s="34"/>
       <c r="S7" s="74"/>
     </row>
-    <row r="8" spans="1:19" ht="14.85" customHeight="1">
+    <row r="8" spans="1:19" ht="14.75" customHeight="1">
       <c r="A8" s="79"/>
       <c r="B8" s="80"/>
       <c r="C8" s="64"/>
@@ -8552,7 +8477,7 @@
       <c r="R8" s="64"/>
       <c r="S8" s="82"/>
     </row>
-    <row r="9" spans="1:19" ht="14.85" customHeight="1">
+    <row r="9" spans="1:19" ht="14.75" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -8573,7 +8498,7 @@
       <c r="R9" s="6"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" ht="14.85" customHeight="1">
+    <row r="10" spans="1:19" ht="14.75" customHeight="1">
       <c r="A10" s="17"/>
       <c r="B10" s="64"/>
       <c r="C10" s="64"/>
@@ -8615,14 +8540,14 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="16.28515625" style="83" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="83" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="83" customWidth="1"/>
-    <col min="8" max="11" width="16.28515625" style="83" customWidth="1"/>
-    <col min="12" max="256" width="8.85546875" customWidth="1"/>
+    <col min="1" max="4" width="16.33203125" style="83" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="83" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="83" customWidth="1"/>
+    <col min="8" max="11" width="16.33203125" style="83" customWidth="1"/>
+    <col min="12" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" customHeight="1">
@@ -8690,10 +8615,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="55" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="84" t="s">
         <v>110</v>
       </c>
@@ -8723,10 +8648,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="92" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="84" t="s">
         <v>114</v>
       </c>
@@ -8756,10 +8681,10 @@
         <v>1</v>
       </c>
       <c r="K4" s="92" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="84" t="s">
         <v>117</v>
       </c>
@@ -8789,10 +8714,10 @@
         <v>1</v>
       </c>
       <c r="K5" s="92" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="84" t="s">
         <v>120</v>
       </c>
@@ -8822,10 +8747,10 @@
         <v>1</v>
       </c>
       <c r="K6" s="92" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="97"/>
       <c r="B7" s="98"/>
       <c r="C7" s="99"/>
@@ -8838,7 +8763,7 @@
       <c r="J7" s="98"/>
       <c r="K7" s="92"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="101"/>
       <c r="B8" s="92"/>
       <c r="C8" s="92"/>
@@ -8851,7 +8776,7 @@
       <c r="J8" s="92"/>
       <c r="K8" s="92"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="101"/>
       <c r="B9" s="92"/>
       <c r="C9" s="92"/>
@@ -8864,7 +8789,7 @@
       <c r="J9" s="92"/>
       <c r="K9" s="92"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="101"/>
       <c r="B10" s="92"/>
       <c r="C10" s="92"/>
@@ -8896,10 +8821,10 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="16.28515625" style="102" customWidth="1"/>
-    <col min="9" max="256" width="16.28515625" customWidth="1"/>
+    <col min="1" max="8" width="16.33203125" style="102" customWidth="1"/>
+    <col min="9" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.5" customHeight="1">
@@ -8950,7 +8875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.85" customHeight="1">
+    <row r="3" spans="1:8" ht="14.75" customHeight="1">
       <c r="A3" s="104"/>
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
@@ -8960,7 +8885,7 @@
       <c r="G3" s="60"/>
       <c r="H3" s="63"/>
     </row>
-    <row r="4" spans="1:8" ht="14.85" customHeight="1">
+    <row r="4" spans="1:8" ht="14.75" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -8970,7 +8895,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" ht="14.85" customHeight="1">
+    <row r="5" spans="1:8" ht="14.75" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -8980,7 +8905,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="14.85" customHeight="1">
+    <row r="6" spans="1:8" ht="14.75" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -8990,7 +8915,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" ht="14.85" customHeight="1">
+    <row r="7" spans="1:8" ht="14.75" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -9000,7 +8925,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="14.85" customHeight="1">
+    <row r="8" spans="1:8" ht="14.75" customHeight="1">
       <c r="A8" s="17"/>
       <c r="B8" s="64"/>
       <c r="C8" s="64"/>
@@ -9010,7 +8935,7 @@
       <c r="G8" s="64"/>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="1:8" ht="14.85" customHeight="1">
+    <row r="9" spans="1:8" ht="14.75" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -9020,7 +8945,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="14.85" customHeight="1">
+    <row r="10" spans="1:8" ht="14.75" customHeight="1">
       <c r="A10" s="17"/>
       <c r="B10" s="64"/>
       <c r="C10" s="64"/>
@@ -9051,21 +8976,21 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="26.85546875" style="105" customWidth="1"/>
+    <col min="1" max="2" width="26.83203125" style="105" customWidth="1"/>
     <col min="3" max="3" width="19" style="105" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="105" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="158" customWidth="1"/>
-    <col min="6" max="11" width="16.28515625" style="105" customWidth="1"/>
-    <col min="12" max="12" width="31.85546875" style="105" customWidth="1"/>
-    <col min="13" max="14" width="16.28515625" style="105" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" style="105" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" style="105" customWidth="1"/>
-    <col min="17" max="19" width="16.28515625" style="105" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="105" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="155" customWidth="1"/>
+    <col min="6" max="11" width="16.33203125" style="105" customWidth="1"/>
+    <col min="12" max="12" width="31.83203125" style="105" customWidth="1"/>
+    <col min="13" max="14" width="16.33203125" style="105" customWidth="1"/>
+    <col min="15" max="15" width="23.5" style="105" customWidth="1"/>
+    <col min="16" max="16" width="22.1640625" style="105" customWidth="1"/>
+    <col min="17" max="19" width="16.33203125" style="105" customWidth="1"/>
     <col min="20" max="20" width="20" style="105" customWidth="1"/>
-    <col min="21" max="25" width="16.28515625" style="105" customWidth="1"/>
-    <col min="26" max="256" width="16.28515625" customWidth="1"/>
+    <col min="21" max="25" width="16.33203125" style="105" customWidth="1"/>
+    <col min="26" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="20.25" customHeight="1">
@@ -9145,7 +9070,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:25" ht="20" customHeight="1">
       <c r="A2" s="107">
         <v>0</v>
       </c>
@@ -9212,7 +9137,7 @@
       </c>
       <c r="Y2" s="110"/>
     </row>
-    <row r="3" spans="1:25" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:25" ht="20" customHeight="1">
       <c r="A3" s="107">
         <v>0</v>
       </c>
@@ -9279,7 +9204,7 @@
       </c>
       <c r="Y3" s="110"/>
     </row>
-    <row r="4" spans="1:25" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:25" ht="20" customHeight="1">
       <c r="A4" s="107">
         <v>0</v>
       </c>
@@ -9346,7 +9271,7 @@
       </c>
       <c r="Y4" s="110"/>
     </row>
-    <row r="5" spans="1:25" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:25" ht="20" customHeight="1">
       <c r="A5" s="107">
         <v>0</v>
       </c>
@@ -9413,7 +9338,7 @@
       </c>
       <c r="Y5" s="110"/>
     </row>
-    <row r="6" spans="1:25" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:25" ht="20" customHeight="1">
       <c r="A6" s="107">
         <v>0</v>
       </c>
@@ -9480,7 +9405,7 @@
       </c>
       <c r="Y6" s="110"/>
     </row>
-    <row r="7" spans="1:25" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:25" ht="20" customHeight="1">
       <c r="A7" s="107">
         <v>0</v>
       </c>
@@ -9491,7 +9416,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="42"/>
-      <c r="E7" s="172"/>
+      <c r="E7" s="169"/>
       <c r="F7" s="107">
         <v>3350000</v>
       </c>
@@ -9547,7 +9472,7 @@
       </c>
       <c r="Y7" s="42"/>
     </row>
-    <row r="8" spans="1:25" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:25" ht="20" customHeight="1">
       <c r="A8" s="107">
         <v>0</v>
       </c>
@@ -9558,7 +9483,7 @@
         <v>88</v>
       </c>
       <c r="D8" s="42"/>
-      <c r="E8" s="172"/>
+      <c r="E8" s="169"/>
       <c r="F8" s="42">
         <v>2035000</v>
       </c>
@@ -9614,7 +9539,7 @@
       </c>
       <c r="Y8" s="42"/>
     </row>
-    <row r="9" spans="1:25" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:25" ht="20" customHeight="1">
       <c r="A9" s="107">
         <v>0</v>
       </c>
@@ -9625,7 +9550,7 @@
         <v>92</v>
       </c>
       <c r="D9" s="42"/>
-      <c r="E9" s="172"/>
+      <c r="E9" s="169"/>
       <c r="F9" s="42">
         <v>1135000</v>
       </c>
@@ -9635,7 +9560,7 @@
       <c r="H9" s="114">
         <v>0.76</v>
       </c>
-      <c r="I9" s="175">
+      <c r="I9" s="172">
         <v>0.06</v>
       </c>
       <c r="J9" s="107">
@@ -9681,7 +9606,7 @@
       </c>
       <c r="Y9" s="42"/>
     </row>
-    <row r="10" spans="1:25" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:25" ht="20" customHeight="1">
       <c r="A10" s="107">
         <v>0</v>
       </c>
@@ -9694,7 +9619,7 @@
       <c r="D10" s="112" t="s">
         <v>155</v>
       </c>
-      <c r="E10" s="172" t="s">
+      <c r="E10" s="169" t="s">
         <v>120</v>
       </c>
       <c r="F10" s="108">
@@ -9703,13 +9628,13 @@
       <c r="G10" s="113">
         <v>716400</v>
       </c>
-      <c r="H10" s="157">
+      <c r="H10" s="154">
         <v>1.194</v>
       </c>
-      <c r="I10" s="164">
+      <c r="I10" s="161">
         <v>0.27</v>
       </c>
-      <c r="J10" s="173">
+      <c r="J10" s="170">
         <v>0</v>
       </c>
       <c r="K10" s="107">
@@ -9754,7 +9679,7 @@
       </c>
       <c r="Y10" s="42"/>
     </row>
-    <row r="11" spans="1:25" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:25" ht="20" customHeight="1">
       <c r="A11" s="107">
         <v>0</v>
       </c>
@@ -9767,7 +9692,7 @@
       <c r="D11" s="112" t="s">
         <v>156</v>
       </c>
-      <c r="E11" s="172" t="s">
+      <c r="E11" s="169" t="s">
         <v>117</v>
       </c>
       <c r="F11" s="108">
@@ -9776,13 +9701,13 @@
       <c r="G11" s="113">
         <v>220500</v>
       </c>
-      <c r="H11" s="157">
+      <c r="H11" s="154">
         <v>1.1025</v>
       </c>
-      <c r="I11" s="164">
+      <c r="I11" s="161">
         <v>0.24</v>
       </c>
-      <c r="J11" s="173">
+      <c r="J11" s="170">
         <v>0</v>
       </c>
       <c r="K11" s="107">
@@ -9827,7 +9752,7 @@
       </c>
       <c r="Y11" s="42"/>
     </row>
-    <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:25" ht="20" customHeight="1">
       <c r="A12" s="107">
         <v>0</v>
       </c>
@@ -9840,7 +9765,7 @@
       <c r="D12" s="112" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="172" t="s">
+      <c r="E12" s="169" t="s">
         <v>110</v>
       </c>
       <c r="F12" s="108">
@@ -9849,13 +9774,13 @@
       <c r="G12" s="113">
         <v>859704</v>
       </c>
-      <c r="H12" s="157">
+      <c r="H12" s="154">
         <v>1.07463</v>
       </c>
-      <c r="I12" s="164">
+      <c r="I12" s="161">
         <v>0.26</v>
       </c>
-      <c r="J12" s="173">
+      <c r="J12" s="170">
         <v>0</v>
       </c>
       <c r="K12" s="107">
@@ -9900,7 +9825,7 @@
       </c>
       <c r="Y12" s="42"/>
     </row>
-    <row r="13" spans="1:25" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:25" ht="20" customHeight="1">
       <c r="A13" s="107">
         <v>0</v>
       </c>
@@ -9913,7 +9838,7 @@
       <c r="D13" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="E13" s="172" t="s">
+      <c r="E13" s="169" t="s">
         <v>110</v>
       </c>
       <c r="F13" s="108">
@@ -9922,13 +9847,13 @@
       <c r="G13" s="113">
         <v>400000</v>
       </c>
-      <c r="H13" s="157">
+      <c r="H13" s="154">
         <v>0.88888888888888895</v>
       </c>
-      <c r="I13" s="164">
+      <c r="I13" s="161">
         <v>0.26</v>
       </c>
-      <c r="J13" s="173">
+      <c r="J13" s="170">
         <v>0</v>
       </c>
       <c r="K13" s="107">
@@ -9973,7 +9898,7 @@
       </c>
       <c r="Y13" s="42"/>
     </row>
-    <row r="14" spans="1:25" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:25" ht="20" customHeight="1">
       <c r="A14" s="107">
         <v>0</v>
       </c>
@@ -9986,7 +9911,7 @@
       <c r="D14" s="112" t="s">
         <v>159</v>
       </c>
-      <c r="E14" s="172" t="s">
+      <c r="E14" s="169" t="s">
         <v>120</v>
       </c>
       <c r="F14" s="108">
@@ -9995,13 +9920,13 @@
       <c r="G14" s="113">
         <v>90000</v>
       </c>
-      <c r="H14" s="157">
+      <c r="H14" s="154">
         <v>1.0588235294117601</v>
       </c>
-      <c r="I14" s="164">
+      <c r="I14" s="161">
         <v>0.26</v>
       </c>
-      <c r="J14" s="173">
+      <c r="J14" s="170">
         <v>0</v>
       </c>
       <c r="K14" s="107">
@@ -10046,7 +9971,7 @@
       </c>
       <c r="Y14" s="42"/>
     </row>
-    <row r="15" spans="1:25" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:25" ht="20" customHeight="1">
       <c r="A15" s="107">
         <v>0</v>
       </c>
@@ -10059,7 +9984,7 @@
       <c r="D15" s="112" t="s">
         <v>160</v>
       </c>
-      <c r="E15" s="172" t="s">
+      <c r="E15" s="169" t="s">
         <v>114</v>
       </c>
       <c r="F15" s="108">
@@ -10068,13 +9993,13 @@
       <c r="G15" s="113">
         <v>276368</v>
       </c>
-      <c r="H15" s="157">
+      <c r="H15" s="154">
         <v>1.105472</v>
       </c>
-      <c r="I15" s="164">
+      <c r="I15" s="161">
         <v>0.27</v>
       </c>
-      <c r="J15" s="173">
+      <c r="J15" s="170">
         <v>0</v>
       </c>
       <c r="K15" s="107">
@@ -10119,7 +10044,7 @@
       </c>
       <c r="Y15" s="42"/>
     </row>
-    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:25" ht="20" customHeight="1">
       <c r="A16" s="107">
         <v>0</v>
       </c>
@@ -10132,7 +10057,7 @@
       <c r="D16" s="112" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="172" t="s">
+      <c r="E16" s="169" t="s">
         <v>117</v>
       </c>
       <c r="F16" s="108">
@@ -10141,13 +10066,13 @@
       <c r="G16" s="113">
         <v>90248</v>
       </c>
-      <c r="H16" s="157">
+      <c r="H16" s="154">
         <v>0.90247999999999995</v>
       </c>
-      <c r="I16" s="164">
+      <c r="I16" s="161">
         <v>0.25</v>
       </c>
-      <c r="J16" s="173">
+      <c r="J16" s="170">
         <v>0</v>
       </c>
       <c r="K16" s="107">
@@ -10192,7 +10117,7 @@
       </c>
       <c r="Y16" s="42"/>
     </row>
-    <row r="17" spans="1:25" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:25" ht="20" customHeight="1">
       <c r="A17" s="107">
         <v>0</v>
       </c>
@@ -10205,7 +10130,7 @@
       <c r="D17" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="172" t="s">
+      <c r="E17" s="169" t="s">
         <v>114</v>
       </c>
       <c r="F17" s="108">
@@ -10214,13 +10139,13 @@
       <c r="G17" s="113">
         <v>28930</v>
       </c>
-      <c r="H17" s="157">
+      <c r="H17" s="154">
         <v>1.1572</v>
       </c>
-      <c r="I17" s="164">
+      <c r="I17" s="161">
         <v>0.11</v>
       </c>
-      <c r="J17" s="173">
+      <c r="J17" s="170">
         <v>0</v>
       </c>
       <c r="K17" s="107">
@@ -10265,7 +10190,7 @@
       </c>
       <c r="Y17" s="42"/>
     </row>
-    <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:25" ht="20" customHeight="1">
       <c r="A18" s="107">
         <v>0</v>
       </c>
@@ -10278,7 +10203,7 @@
       <c r="D18" s="112" t="s">
         <v>163</v>
       </c>
-      <c r="E18" s="172" t="s">
+      <c r="E18" s="169" t="s">
         <v>106</v>
       </c>
       <c r="F18" s="108">
@@ -10287,13 +10212,13 @@
       <c r="G18" s="113">
         <v>35840</v>
       </c>
-      <c r="H18" s="157">
+      <c r="H18" s="154">
         <v>0.89600000000000002</v>
       </c>
-      <c r="I18" s="164">
+      <c r="I18" s="161">
         <v>0.23</v>
       </c>
-      <c r="J18" s="173">
+      <c r="J18" s="170">
         <v>0</v>
       </c>
       <c r="K18" s="107">
@@ -10338,7 +10263,7 @@
       </c>
       <c r="Y18" s="42"/>
     </row>
-    <row r="19" spans="1:25" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:25" ht="20" customHeight="1">
       <c r="A19" s="107">
         <v>0</v>
       </c>
@@ -10351,7 +10276,7 @@
       <c r="D19" s="112" t="s">
         <v>164</v>
       </c>
-      <c r="E19" s="172" t="s">
+      <c r="E19" s="169" t="s">
         <v>106</v>
       </c>
       <c r="F19" s="108">
@@ -10360,13 +10285,13 @@
       <c r="G19" s="113">
         <v>835229</v>
       </c>
-      <c r="H19" s="157">
+      <c r="H19" s="154">
         <v>1.04403625</v>
       </c>
-      <c r="I19" s="164">
+      <c r="I19" s="161">
         <v>0.27</v>
       </c>
-      <c r="J19" s="173">
+      <c r="J19" s="170">
         <v>0</v>
       </c>
       <c r="K19" s="107">
@@ -10425,28 +10350,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A54" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="F63" sqref="F63:F73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="118" customWidth="1"/>
-    <col min="2" max="5" width="13.42578125" style="118" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="118" customWidth="1"/>
-    <col min="7" max="8" width="17.42578125" style="118" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="118" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" style="186" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" style="118" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="118" customWidth="1"/>
-    <col min="13" max="14" width="17.85546875" style="186" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" style="118" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="186" customWidth="1"/>
-    <col min="17" max="17" width="20.140625" style="118" customWidth="1"/>
-    <col min="18" max="18" width="17.7109375" style="186" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" style="118" customWidth="1"/>
-    <col min="20" max="256" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="118" customWidth="1"/>
+    <col min="2" max="5" width="13.5" style="118" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="118" customWidth="1"/>
+    <col min="7" max="8" width="17.5" style="118" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="118" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="183" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="118" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" style="118" customWidth="1"/>
+    <col min="13" max="14" width="17.83203125" style="183" customWidth="1"/>
+    <col min="15" max="15" width="19.1640625" style="118" customWidth="1"/>
+    <col min="16" max="16" width="14.5" style="183" customWidth="1"/>
+    <col min="17" max="17" width="20.1640625" style="118" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" style="183" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" style="118" customWidth="1"/>
+    <col min="20" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="34.5" customHeight="1">
@@ -10477,7 +10402,7 @@
       <c r="I1" s="119" t="s">
         <v>167</v>
       </c>
-      <c r="J1" s="161" t="s">
+      <c r="J1" s="158" t="s">
         <v>168</v>
       </c>
       <c r="K1" s="106" t="s">
@@ -10486,22 +10411,22 @@
       <c r="L1" s="119" t="s">
         <v>170</v>
       </c>
-      <c r="M1" s="163" t="s">
+      <c r="M1" s="160" t="s">
         <v>171</v>
       </c>
-      <c r="N1" s="161" t="s">
+      <c r="N1" s="158" t="s">
         <v>172</v>
       </c>
       <c r="O1" s="106" t="s">
         <v>173</v>
       </c>
-      <c r="P1" s="181" t="s">
+      <c r="P1" s="178" t="s">
         <v>174</v>
       </c>
       <c r="Q1" s="106" t="s">
         <v>175</v>
       </c>
-      <c r="R1" s="181" t="s">
+      <c r="R1" s="178" t="s">
         <v>176</v>
       </c>
       <c r="S1" s="119" t="s">
@@ -10518,7 +10443,7 @@
       <c r="C2" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="184" t="s">
+      <c r="D2" s="181" t="s">
         <v>120</v>
       </c>
       <c r="E2" s="53"/>
@@ -10534,26 +10459,26 @@
         <f>I2/SUM(I$2:I$11)</f>
         <v>0.18</v>
       </c>
-      <c r="K2" s="183">
+      <c r="K2" s="180">
         <f>I2</f>
         <v>737747.64</v>
       </c>
       <c r="L2" s="123">
         <v>700000</v>
       </c>
-      <c r="M2" s="176"/>
+      <c r="M2" s="173"/>
       <c r="N2" s="58">
         <f>L2/SUM(L$2:L$11)</f>
         <v>0.17587939698492464</v>
       </c>
-      <c r="O2" s="182">
+      <c r="O2" s="179">
         <v>0.28000000000000003</v>
       </c>
       <c r="P2" s="114">
         <v>1.0539251999999999</v>
       </c>
       <c r="Q2" s="124"/>
-      <c r="R2" s="179">
+      <c r="R2" s="176">
         <v>0.15</v>
       </c>
       <c r="S2" s="120" t="s">
@@ -10570,7 +10495,7 @@
       <c r="C3" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="166" t="s">
+      <c r="D3" s="163" t="s">
         <v>117</v>
       </c>
       <c r="E3" s="99"/>
@@ -10586,26 +10511,26 @@
         <f t="shared" ref="J3:J11" si="0">I3/SUM(I$2:I$11)</f>
         <v>0.06</v>
       </c>
-      <c r="K3" s="183">
+      <c r="K3" s="180">
         <f t="shared" ref="K3:K11" si="1">I3</f>
         <v>245915.88</v>
       </c>
       <c r="L3" s="123">
         <v>250000</v>
       </c>
-      <c r="M3" s="176"/>
+      <c r="M3" s="173"/>
       <c r="N3" s="58">
         <f t="shared" ref="N3:N11" si="2">L3/SUM(L$2:L$11)</f>
         <v>6.2814070351758788E-2</v>
       </c>
-      <c r="O3" s="188">
+      <c r="O3" s="185">
         <v>0.27</v>
       </c>
       <c r="P3" s="114">
         <v>0.98366352000000001</v>
       </c>
       <c r="Q3" s="125"/>
-      <c r="R3" s="179">
+      <c r="R3" s="176">
         <v>0.11</v>
       </c>
       <c r="S3" s="120" t="s">
@@ -10622,7 +10547,7 @@
       <c r="C4" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="166" t="s">
+      <c r="D4" s="163" t="s">
         <v>110</v>
       </c>
       <c r="E4" s="99"/>
@@ -10638,26 +10563,26 @@
         <f t="shared" si="0"/>
         <v>0.22</v>
       </c>
-      <c r="K4" s="183">
+      <c r="K4" s="180">
         <f t="shared" si="1"/>
         <v>901691.56</v>
       </c>
       <c r="L4" s="123">
         <v>850000</v>
       </c>
-      <c r="M4" s="176"/>
+      <c r="M4" s="173"/>
       <c r="N4" s="58">
         <f t="shared" si="2"/>
         <v>0.21356783919597991</v>
       </c>
-      <c r="O4" s="188">
+      <c r="O4" s="185">
         <v>0.28000000000000003</v>
       </c>
       <c r="P4" s="114">
         <v>1.0608135999999999</v>
       </c>
       <c r="Q4" s="125"/>
-      <c r="R4" s="179">
+      <c r="R4" s="176">
         <v>0.18</v>
       </c>
       <c r="S4" s="120" t="s">
@@ -10674,7 +10599,7 @@
       <c r="C5" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="166" t="s">
+      <c r="D5" s="163" t="s">
         <v>110</v>
       </c>
       <c r="E5" s="99"/>
@@ -10690,26 +10615,26 @@
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="K5" s="183">
+      <c r="K5" s="180">
         <f t="shared" si="1"/>
         <v>614789.69999999995</v>
       </c>
       <c r="L5" s="123">
         <v>600000</v>
       </c>
-      <c r="M5" s="176"/>
+      <c r="M5" s="173"/>
       <c r="N5" s="58">
         <f t="shared" si="2"/>
         <v>0.15075376884422109</v>
       </c>
-      <c r="O5" s="188">
+      <c r="O5" s="185">
         <v>0.4</v>
       </c>
       <c r="P5" s="114">
         <v>1.0246495</v>
       </c>
       <c r="Q5" s="125"/>
-      <c r="R5" s="179">
+      <c r="R5" s="176">
         <v>0.13</v>
       </c>
       <c r="S5" s="120" t="s">
@@ -10726,7 +10651,7 @@
       <c r="C6" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="167" t="s">
+      <c r="D6" s="164" t="s">
         <v>120</v>
       </c>
       <c r="E6" s="71"/>
@@ -10742,26 +10667,26 @@
         <f t="shared" si="0"/>
         <v>2.4999999999999998E-2</v>
       </c>
-      <c r="K6" s="183">
+      <c r="K6" s="180">
         <f t="shared" si="1"/>
         <v>102464.95</v>
       </c>
       <c r="L6" s="123">
         <v>100000</v>
       </c>
-      <c r="M6" s="185"/>
+      <c r="M6" s="182"/>
       <c r="N6" s="58">
         <f t="shared" si="2"/>
         <v>2.5125628140703519E-2</v>
       </c>
-      <c r="O6" s="171">
+      <c r="O6" s="168">
         <v>0.28999999999999998</v>
       </c>
       <c r="P6" s="114">
         <v>1.0246495</v>
       </c>
       <c r="Q6" s="128"/>
-      <c r="R6" s="179">
+      <c r="R6" s="176">
         <v>0.12</v>
       </c>
       <c r="S6" s="120" t="s">
@@ -10778,7 +10703,7 @@
       <c r="C7" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="168" t="s">
+      <c r="D7" s="165" t="s">
         <v>114</v>
       </c>
       <c r="E7" s="34"/>
@@ -10794,26 +10719,26 @@
         <f t="shared" si="0"/>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="K7" s="183">
+      <c r="K7" s="180">
         <f t="shared" si="1"/>
         <v>286901.86</v>
       </c>
       <c r="L7" s="123">
         <v>350000</v>
       </c>
-      <c r="M7" s="185"/>
+      <c r="M7" s="182"/>
       <c r="N7" s="58">
         <f t="shared" si="2"/>
         <v>8.7939698492462318E-2</v>
       </c>
-      <c r="O7" s="156">
+      <c r="O7" s="153">
         <v>0.28000000000000003</v>
       </c>
       <c r="P7" s="114">
         <v>0.81971959999999999</v>
       </c>
       <c r="Q7" s="78"/>
-      <c r="R7" s="179">
+      <c r="R7" s="176">
         <v>-0.11</v>
       </c>
       <c r="S7" s="120" t="s">
@@ -10830,7 +10755,7 @@
       <c r="C8" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="168" t="s">
+      <c r="D8" s="165" t="s">
         <v>117</v>
       </c>
       <c r="E8" s="34"/>
@@ -10846,26 +10771,26 @@
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="K8" s="183">
+      <c r="K8" s="180">
         <f t="shared" si="1"/>
         <v>122957.94</v>
       </c>
       <c r="L8" s="123">
         <v>120000</v>
       </c>
-      <c r="M8" s="185"/>
+      <c r="M8" s="182"/>
       <c r="N8" s="58">
         <f t="shared" si="2"/>
         <v>3.015075376884422E-2</v>
       </c>
-      <c r="O8" s="156">
+      <c r="O8" s="153">
         <v>0.35</v>
       </c>
       <c r="P8" s="114">
         <v>1.0246495</v>
       </c>
       <c r="Q8" s="78"/>
-      <c r="R8" s="179">
+      <c r="R8" s="176">
         <v>0.16</v>
       </c>
       <c r="S8" s="120" t="s">
@@ -10882,7 +10807,7 @@
       <c r="C9" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="168" t="s">
+      <c r="D9" s="165" t="s">
         <v>114</v>
       </c>
       <c r="E9" s="34"/>
@@ -10898,26 +10823,26 @@
         <f t="shared" si="0"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K9" s="183">
+      <c r="K9" s="180">
         <f t="shared" si="1"/>
         <v>32788.784</v>
       </c>
       <c r="L9" s="123">
         <v>35000</v>
       </c>
-      <c r="M9" s="185"/>
+      <c r="M9" s="182"/>
       <c r="N9" s="58">
         <f t="shared" si="2"/>
         <v>8.7939698492462311E-3</v>
       </c>
-      <c r="O9" s="169">
+      <c r="O9" s="166">
         <v>0.13</v>
       </c>
       <c r="P9" s="114">
         <v>0.93682240000000006</v>
       </c>
       <c r="Q9" s="78"/>
-      <c r="R9" s="179">
+      <c r="R9" s="176">
         <v>-0.23</v>
       </c>
       <c r="S9" s="120" t="s">
@@ -10934,7 +10859,7 @@
       <c r="C10" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="168" t="s">
+      <c r="D10" s="165" t="s">
         <v>106</v>
       </c>
       <c r="E10" s="34"/>
@@ -10950,26 +10875,26 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="K10" s="183">
+      <c r="K10" s="180">
         <f t="shared" si="1"/>
         <v>81971.960000000006</v>
       </c>
       <c r="L10" s="123">
         <v>75000</v>
       </c>
-      <c r="M10" s="185"/>
+      <c r="M10" s="182"/>
       <c r="N10" s="58">
         <f t="shared" si="2"/>
         <v>1.8844221105527637E-2</v>
       </c>
-      <c r="O10" s="169">
+      <c r="O10" s="166">
         <v>0.52</v>
       </c>
       <c r="P10" s="114">
         <v>1.09295946666667</v>
       </c>
       <c r="Q10" s="78"/>
-      <c r="R10" s="179">
+      <c r="R10" s="176">
         <v>0.28999999999999998</v>
       </c>
       <c r="S10" s="120" t="s">
@@ -10986,7 +10911,7 @@
       <c r="C11" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D11" s="168" t="s">
+      <c r="D11" s="165" t="s">
         <v>106</v>
       </c>
       <c r="E11" s="34"/>
@@ -11002,26 +10927,26 @@
         <f t="shared" si="0"/>
         <v>0.23700000000000002</v>
       </c>
-      <c r="K11" s="183">
+      <c r="K11" s="180">
         <f t="shared" si="1"/>
         <v>971367.72600000002</v>
       </c>
       <c r="L11" s="123">
         <v>900000</v>
       </c>
-      <c r="M11" s="185"/>
+      <c r="M11" s="182"/>
       <c r="N11" s="58">
         <f t="shared" si="2"/>
         <v>0.22613065326633167</v>
       </c>
-      <c r="O11" s="169">
+      <c r="O11" s="166">
         <v>0.32</v>
       </c>
       <c r="P11" s="114">
         <v>1.07929747333333</v>
       </c>
       <c r="Q11" s="78"/>
-      <c r="R11" s="179">
+      <c r="R11" s="176">
         <v>0.18</v>
       </c>
       <c r="S11" s="120" t="s">
@@ -11038,7 +10963,7 @@
       <c r="C12" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D12" s="184" t="s">
+      <c r="D12" s="181" t="s">
         <v>120</v>
       </c>
       <c r="E12" s="34"/>
@@ -11050,30 +10975,30 @@
       <c r="I12" s="127">
         <v>556986.16</v>
       </c>
-      <c r="J12" s="159">
+      <c r="J12" s="156">
         <f>I12/SUM(I$12:I$21)</f>
         <v>0.17466886100528975</v>
       </c>
-      <c r="K12" s="162">
+      <c r="K12" s="159">
         <f>I2+I12</f>
         <v>1294733.8</v>
       </c>
       <c r="L12" s="127">
         <v>650000</v>
       </c>
-      <c r="M12" s="185"/>
-      <c r="N12" s="178">
+      <c r="M12" s="182"/>
+      <c r="N12" s="175">
         <f>L12/SUM(L$12:L$21)</f>
         <v>0.182328190743338</v>
       </c>
-      <c r="O12" s="169">
+      <c r="O12" s="166">
         <v>0.21</v>
       </c>
       <c r="P12" s="114">
         <v>0.85690178461538502</v>
       </c>
       <c r="Q12" s="78"/>
-      <c r="R12" s="179">
+      <c r="R12" s="176">
         <v>-0.24501803895977201</v>
       </c>
       <c r="S12" s="120" t="s">
@@ -11090,7 +11015,7 @@
       <c r="C13" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="166" t="s">
+      <c r="D13" s="163" t="s">
         <v>117</v>
       </c>
       <c r="E13" s="34"/>
@@ -11102,30 +11027,30 @@
       <c r="I13" s="127">
         <v>191328.72</v>
       </c>
-      <c r="J13" s="159">
+      <c r="J13" s="156">
         <f t="shared" ref="J13:J21" si="3">I13/SUM(I$12:I$21)</f>
         <v>0.06</v>
       </c>
-      <c r="K13" s="162">
+      <c r="K13" s="159">
         <f t="shared" ref="K13:K21" si="4">I3+I13</f>
         <v>437244.6</v>
       </c>
       <c r="L13" s="127">
         <v>200000</v>
       </c>
-      <c r="M13" s="185"/>
-      <c r="N13" s="178">
+      <c r="M13" s="182"/>
+      <c r="N13" s="175">
         <f t="shared" ref="N13:N21" si="5">L13/SUM(L$12:L$21)</f>
         <v>5.6100981767180924E-2</v>
       </c>
-      <c r="O13" s="169">
+      <c r="O13" s="166">
         <v>0.21</v>
       </c>
       <c r="P13" s="114">
         <v>0.95664360000000004</v>
       </c>
       <c r="Q13" s="78"/>
-      <c r="R13" s="179">
+      <c r="R13" s="176">
         <v>-0.22197492898791199</v>
       </c>
       <c r="S13" s="120" t="s">
@@ -11142,7 +11067,7 @@
       <c r="C14" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D14" s="166" t="s">
+      <c r="D14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="E14" s="34"/>
@@ -11154,30 +11079,30 @@
       <c r="I14" s="127">
         <v>736028.14399999997</v>
       </c>
-      <c r="J14" s="159">
+      <c r="J14" s="156">
         <f t="shared" si="3"/>
         <v>0.23081578468721267</v>
       </c>
-      <c r="K14" s="162">
+      <c r="K14" s="159">
         <f t="shared" si="4"/>
         <v>1637719.7039999999</v>
       </c>
       <c r="L14" s="127">
         <v>800000</v>
       </c>
-      <c r="M14" s="185"/>
-      <c r="N14" s="178">
+      <c r="M14" s="182"/>
+      <c r="N14" s="175">
         <f t="shared" si="5"/>
         <v>0.2244039270687237</v>
       </c>
-      <c r="O14" s="169">
+      <c r="O14" s="166">
         <v>0.23</v>
       </c>
       <c r="P14" s="114">
         <v>0.92003517999999995</v>
       </c>
       <c r="Q14" s="78"/>
-      <c r="R14" s="179">
+      <c r="R14" s="176">
         <v>-0.18372514876373</v>
       </c>
       <c r="S14" s="120" t="s">
@@ -11194,7 +11119,7 @@
       <c r="C15" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D15" s="166" t="s">
+      <c r="D15" s="163" t="s">
         <v>110</v>
       </c>
       <c r="E15" s="34"/>
@@ -11206,30 +11131,30 @@
       <c r="I15" s="127">
         <v>478321.8</v>
       </c>
-      <c r="J15" s="159">
+      <c r="J15" s="156">
         <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
-      <c r="K15" s="162">
+      <c r="K15" s="159">
         <f t="shared" si="4"/>
         <v>1093111.5</v>
       </c>
       <c r="L15" s="127">
         <v>550000</v>
       </c>
-      <c r="M15" s="185"/>
-      <c r="N15" s="178">
+      <c r="M15" s="182"/>
+      <c r="N15" s="175">
         <f t="shared" si="5"/>
         <v>0.15427769985974754</v>
       </c>
-      <c r="O15" s="169">
+      <c r="O15" s="166">
         <v>0.31</v>
       </c>
       <c r="P15" s="114">
         <v>0.869676</v>
       </c>
       <c r="Q15" s="78"/>
-      <c r="R15" s="179">
+      <c r="R15" s="176">
         <v>-0.22197492898791199</v>
       </c>
       <c r="S15" s="120" t="s">
@@ -11246,7 +11171,7 @@
       <c r="C16" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D16" s="167" t="s">
+      <c r="D16" s="164" t="s">
         <v>120</v>
       </c>
       <c r="E16" s="34"/>
@@ -11258,30 +11183,30 @@
       <c r="I16" s="127">
         <v>69720.3</v>
       </c>
-      <c r="J16" s="159">
+      <c r="J16" s="156">
         <f t="shared" si="3"/>
         <v>2.1864035885464556E-2</v>
       </c>
-      <c r="K16" s="162">
+      <c r="K16" s="159">
         <f t="shared" si="4"/>
         <v>172185.25</v>
       </c>
       <c r="L16" s="127">
         <v>80000</v>
       </c>
-      <c r="M16" s="185"/>
-      <c r="N16" s="178">
+      <c r="M16" s="182"/>
+      <c r="N16" s="175">
         <f t="shared" si="5"/>
         <v>2.244039270687237E-2</v>
       </c>
-      <c r="O16" s="155">
+      <c r="O16" s="152">
         <v>0.2</v>
       </c>
       <c r="P16" s="114">
         <v>0.87150375000000002</v>
       </c>
       <c r="Q16" s="78"/>
-      <c r="R16" s="179">
+      <c r="R16" s="176">
         <v>-0.319569277104024</v>
       </c>
       <c r="S16" s="120" t="s">
@@ -11298,7 +11223,7 @@
       <c r="C17" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D17" s="168" t="s">
+      <c r="D17" s="165" t="s">
         <v>114</v>
       </c>
       <c r="E17" s="34"/>
@@ -11310,30 +11235,30 @@
       <c r="I17" s="127">
         <v>223216.84</v>
       </c>
-      <c r="J17" s="159">
+      <c r="J17" s="156">
         <f t="shared" si="3"/>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="K17" s="162">
+      <c r="K17" s="159">
         <f t="shared" si="4"/>
         <v>510118.69999999995</v>
       </c>
       <c r="L17" s="127">
         <v>250000</v>
       </c>
-      <c r="M17" s="185"/>
-      <c r="N17" s="178">
+      <c r="M17" s="182"/>
+      <c r="N17" s="175">
         <f t="shared" si="5"/>
         <v>7.0126227208976155E-2</v>
       </c>
-      <c r="O17" s="155">
+      <c r="O17" s="152">
         <v>0.22</v>
       </c>
       <c r="P17" s="114">
         <v>0.89286736</v>
       </c>
       <c r="Q17" s="78"/>
-      <c r="R17" s="179">
+      <c r="R17" s="176">
         <v>-0.22197492898791199</v>
       </c>
       <c r="S17" s="120" t="s">
@@ -11350,7 +11275,7 @@
       <c r="C18" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D18" s="168" t="s">
+      <c r="D18" s="165" t="s">
         <v>117</v>
       </c>
       <c r="E18" s="34"/>
@@ -11362,30 +11287,30 @@
       <c r="I18" s="127">
         <v>90664.36</v>
       </c>
-      <c r="J18" s="159">
+      <c r="J18" s="156">
         <f t="shared" si="3"/>
         <v>2.8432017942732278E-2</v>
       </c>
-      <c r="K18" s="162">
+      <c r="K18" s="159">
         <f t="shared" si="4"/>
         <v>213622.3</v>
       </c>
       <c r="L18" s="127">
         <v>100000</v>
       </c>
-      <c r="M18" s="185"/>
-      <c r="N18" s="178">
+      <c r="M18" s="182"/>
+      <c r="N18" s="175">
         <f t="shared" si="5"/>
         <v>2.8050490883590462E-2</v>
       </c>
-      <c r="O18" s="155">
+      <c r="O18" s="152">
         <v>0.26</v>
       </c>
       <c r="P18" s="114">
         <v>0.90664359999999999</v>
       </c>
       <c r="Q18" s="78"/>
-      <c r="R18" s="179">
+      <c r="R18" s="176">
         <v>-0.26263924070295902</v>
       </c>
       <c r="S18" s="120" t="s">
@@ -11402,7 +11327,7 @@
       <c r="C19" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D19" s="168" t="s">
+      <c r="D19" s="165" t="s">
         <v>114</v>
       </c>
       <c r="E19" s="34"/>
@@ -11414,30 +11339,30 @@
       <c r="I19" s="127">
         <v>25510.495999999999</v>
       </c>
-      <c r="J19" s="159">
+      <c r="J19" s="156">
         <f t="shared" si="3"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K19" s="162">
+      <c r="K19" s="159">
         <f t="shared" si="4"/>
         <v>58299.28</v>
       </c>
       <c r="L19" s="127">
         <v>25000</v>
       </c>
-      <c r="M19" s="185"/>
-      <c r="N19" s="178">
+      <c r="M19" s="182"/>
+      <c r="N19" s="175">
         <f t="shared" si="5"/>
         <v>7.0126227208976155E-3</v>
       </c>
-      <c r="O19" s="155">
+      <c r="O19" s="152">
         <v>0.1</v>
       </c>
       <c r="P19" s="114">
         <v>1.02041984</v>
       </c>
       <c r="Q19" s="78"/>
-      <c r="R19" s="179">
+      <c r="R19" s="176">
         <v>-0.22197492898791199</v>
       </c>
       <c r="S19" s="120" t="s">
@@ -11454,7 +11379,7 @@
       <c r="C20" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="168" t="s">
+      <c r="D20" s="165" t="s">
         <v>106</v>
       </c>
       <c r="E20" s="34"/>
@@ -11466,30 +11391,30 @@
       <c r="I20" s="127">
         <v>59832.18</v>
       </c>
-      <c r="J20" s="159">
+      <c r="J20" s="156">
         <f t="shared" si="3"/>
         <v>1.8763156937442533E-2</v>
       </c>
-      <c r="K20" s="162">
+      <c r="K20" s="159">
         <f t="shared" si="4"/>
         <v>141804.14000000001</v>
       </c>
       <c r="L20" s="127">
         <v>60000</v>
       </c>
-      <c r="M20" s="185"/>
-      <c r="N20" s="178">
+      <c r="M20" s="182"/>
+      <c r="N20" s="175">
         <f t="shared" si="5"/>
         <v>1.6830294530154277E-2</v>
       </c>
-      <c r="O20" s="155">
+      <c r="O20" s="152">
         <v>0.38</v>
       </c>
       <c r="P20" s="114">
         <v>0.99720299999999995</v>
       </c>
       <c r="Q20" s="78"/>
-      <c r="R20" s="179">
+      <c r="R20" s="176">
         <v>-0.27008967456676702</v>
       </c>
       <c r="S20" s="120" t="s">
@@ -11506,7 +11431,7 @@
       <c r="C21" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D21" s="168" t="s">
+      <c r="D21" s="165" t="s">
         <v>106</v>
       </c>
       <c r="E21" s="34"/>
@@ -11518,30 +11443,30 @@
       <c r="I21" s="127">
         <v>757203</v>
       </c>
-      <c r="J21" s="159">
+      <c r="J21" s="156">
         <f t="shared" si="3"/>
         <v>0.23745614354185823</v>
       </c>
-      <c r="K21" s="162">
+      <c r="K21" s="159">
         <f t="shared" si="4"/>
         <v>1728570.726</v>
       </c>
       <c r="L21" s="127">
         <v>850000</v>
       </c>
-      <c r="M21" s="185"/>
-      <c r="N21" s="178">
+      <c r="M21" s="182"/>
+      <c r="N21" s="175">
         <f t="shared" si="5"/>
         <v>0.23842917251051893</v>
       </c>
-      <c r="O21" s="155">
+      <c r="O21" s="152">
         <v>0.25</v>
       </c>
       <c r="P21" s="114">
         <v>0.89082705882352897</v>
       </c>
       <c r="Q21" s="78"/>
-      <c r="R21" s="179">
+      <c r="R21" s="176">
         <v>-0.220477498137507</v>
       </c>
       <c r="S21" s="120" t="s">
@@ -11558,7 +11483,7 @@
       <c r="C22" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D22" s="184" t="s">
+      <c r="D22" s="181" t="s">
         <v>120</v>
       </c>
       <c r="E22" s="34"/>
@@ -11570,30 +11495,30 @@
       <c r="I22" s="127">
         <v>525785.68999999994</v>
       </c>
-      <c r="J22" s="159">
+      <c r="J22" s="156">
         <f>I22/SUM(I$22:I$31)</f>
         <v>0.17</v>
       </c>
-      <c r="K22" s="162">
+      <c r="K22" s="159">
         <f>I2+I12+I22</f>
         <v>1820519.49</v>
       </c>
       <c r="L22" s="123">
         <v>550000</v>
       </c>
-      <c r="M22" s="185"/>
-      <c r="N22" s="178">
+      <c r="M22" s="182"/>
+      <c r="N22" s="175">
         <f>L22/SUM(L$22:L$31)</f>
         <v>0.16742770167427701</v>
       </c>
-      <c r="O22" s="155">
+      <c r="O22" s="152">
         <v>0.2</v>
       </c>
       <c r="P22" s="114">
         <v>0.95597398181818205</v>
       </c>
       <c r="Q22" s="78"/>
-      <c r="R22" s="179">
+      <c r="R22" s="176">
         <v>-5.6016598329840198E-2</v>
       </c>
       <c r="S22" s="120" t="s">
@@ -11610,7 +11535,7 @@
       <c r="C23" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="166" t="s">
+      <c r="D23" s="163" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="34"/>
@@ -11622,30 +11547,30 @@
       <c r="I23" s="127">
         <v>154642.85</v>
       </c>
-      <c r="J23" s="159">
+      <c r="J23" s="156">
         <f t="shared" ref="J23:J31" si="6">I23/SUM(I$22:I$31)</f>
         <v>5.000000000000001E-2</v>
       </c>
-      <c r="K23" s="162">
+      <c r="K23" s="159">
         <f t="shared" ref="K23:K31" si="7">I3+I13+I23</f>
         <v>591887.44999999995</v>
       </c>
       <c r="L23" s="123">
         <v>170000</v>
       </c>
-      <c r="M23" s="185"/>
-      <c r="N23" s="178">
+      <c r="M23" s="182"/>
+      <c r="N23" s="175">
         <f t="shared" ref="N23:N31" si="8">L23/SUM(L$22:L$31)</f>
         <v>5.1750380517503802E-2</v>
       </c>
-      <c r="O23" s="155">
+      <c r="O23" s="152">
         <v>0.17</v>
       </c>
       <c r="P23" s="114">
         <v>0.909663823529412</v>
       </c>
       <c r="Q23" s="78"/>
-      <c r="R23" s="179">
+      <c r="R23" s="176">
         <v>-0.19174261971752099</v>
       </c>
       <c r="S23" s="120" t="s">
@@ -11662,7 +11587,7 @@
       <c r="C24" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D24" s="166" t="s">
+      <c r="D24" s="163" t="s">
         <v>110</v>
       </c>
       <c r="E24" s="34"/>
@@ -11674,30 +11599,30 @@
       <c r="I24" s="127">
         <v>711357.11</v>
       </c>
-      <c r="J24" s="159">
+      <c r="J24" s="156">
         <f t="shared" si="6"/>
         <v>0.23000000000000004</v>
       </c>
-      <c r="K24" s="162">
+      <c r="K24" s="159">
         <f t="shared" si="7"/>
         <v>2349076.8139999998</v>
       </c>
       <c r="L24" s="123">
         <v>750000</v>
       </c>
-      <c r="M24" s="185"/>
-      <c r="N24" s="178">
+      <c r="M24" s="182"/>
+      <c r="N24" s="175">
         <f t="shared" si="8"/>
         <v>0.22831050228310501</v>
       </c>
-      <c r="O24" s="155">
+      <c r="O24" s="152">
         <v>0.22</v>
       </c>
       <c r="P24" s="114">
         <v>0.94847614666666702</v>
       </c>
       <c r="Q24" s="78"/>
-      <c r="R24" s="179">
+      <c r="R24" s="176">
         <v>-3.3519144887481298E-2</v>
       </c>
       <c r="S24" s="120" t="s">
@@ -11714,7 +11639,7 @@
       <c r="C25" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D25" s="166" t="s">
+      <c r="D25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="E25" s="34"/>
@@ -11726,30 +11651,30 @@
       <c r="I25" s="127">
         <v>432999.98</v>
       </c>
-      <c r="J25" s="159">
+      <c r="J25" s="156">
         <f t="shared" si="6"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="K25" s="162">
+      <c r="K25" s="159">
         <f t="shared" si="7"/>
         <v>1526111.48</v>
       </c>
       <c r="L25" s="123">
         <v>500000</v>
       </c>
-      <c r="M25" s="185"/>
-      <c r="N25" s="178">
+      <c r="M25" s="182"/>
+      <c r="N25" s="175">
         <f t="shared" si="8"/>
         <v>0.15220700152207001</v>
       </c>
-      <c r="O25" s="155">
+      <c r="O25" s="152">
         <v>0.28000000000000003</v>
       </c>
       <c r="P25" s="114">
         <v>0.86599996000000001</v>
       </c>
       <c r="Q25" s="78"/>
-      <c r="R25" s="179">
+      <c r="R25" s="176">
         <v>-9.4751734083623099E-2</v>
       </c>
       <c r="S25" s="120" t="s">
@@ -11766,7 +11691,7 @@
       <c r="C26" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D26" s="167" t="s">
+      <c r="D26" s="164" t="s">
         <v>120</v>
       </c>
       <c r="E26" s="34"/>
@@ -11778,30 +11703,30 @@
       <c r="I26" s="127">
         <v>77321.425000000003</v>
       </c>
-      <c r="J26" s="159">
+      <c r="J26" s="156">
         <f t="shared" si="6"/>
         <v>2.5000000000000005E-2</v>
       </c>
-      <c r="K26" s="162">
+      <c r="K26" s="159">
         <f t="shared" si="7"/>
         <v>249506.67499999999</v>
       </c>
       <c r="L26" s="123">
         <v>80000</v>
       </c>
-      <c r="M26" s="185"/>
-      <c r="N26" s="178">
+      <c r="M26" s="182"/>
+      <c r="N26" s="175">
         <f t="shared" si="8"/>
         <v>2.4353120243531201E-2</v>
       </c>
-      <c r="O26" s="155">
+      <c r="O26" s="152">
         <v>0.22</v>
       </c>
       <c r="P26" s="114">
         <v>0.96651781250000002</v>
       </c>
       <c r="Q26" s="78"/>
-      <c r="R26" s="179">
+      <c r="R26" s="176">
         <v>0.109023125259071</v>
       </c>
       <c r="S26" s="120" t="s">
@@ -11818,7 +11743,7 @@
       <c r="C27" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D27" s="168" t="s">
+      <c r="D27" s="165" t="s">
         <v>114</v>
       </c>
       <c r="E27" s="34"/>
@@ -11830,30 +11755,30 @@
       <c r="I27" s="127">
         <v>247428.56</v>
       </c>
-      <c r="J27" s="159">
+      <c r="J27" s="156">
         <f t="shared" si="6"/>
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="K27" s="162">
+      <c r="K27" s="159">
         <f t="shared" si="7"/>
         <v>757547.26</v>
       </c>
       <c r="L27" s="123">
         <v>250000</v>
       </c>
-      <c r="M27" s="185"/>
-      <c r="N27" s="178">
+      <c r="M27" s="182"/>
+      <c r="N27" s="175">
         <f t="shared" si="8"/>
         <v>7.6103500761035003E-2</v>
       </c>
-      <c r="O27" s="155">
+      <c r="O27" s="152">
         <v>0.24</v>
       </c>
       <c r="P27" s="114">
         <v>0.98971423999999997</v>
       </c>
       <c r="Q27" s="78"/>
-      <c r="R27" s="179">
+      <c r="R27" s="176">
         <v>0.10846726438739999</v>
       </c>
       <c r="S27" s="120" t="s">
@@ -11870,7 +11795,7 @@
       <c r="C28" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D28" s="168" t="s">
+      <c r="D28" s="165" t="s">
         <v>117</v>
       </c>
       <c r="E28" s="34"/>
@@ -11882,30 +11807,30 @@
       <c r="I28" s="127">
         <v>92785.71</v>
       </c>
-      <c r="J28" s="159">
+      <c r="J28" s="156">
         <f t="shared" si="6"/>
         <v>3.0000000000000006E-2</v>
       </c>
-      <c r="K28" s="162">
+      <c r="K28" s="159">
         <f t="shared" si="7"/>
         <v>306408.01</v>
       </c>
       <c r="L28" s="123">
         <v>100000</v>
       </c>
-      <c r="M28" s="185"/>
-      <c r="N28" s="178">
+      <c r="M28" s="182"/>
+      <c r="N28" s="175">
         <f t="shared" si="8"/>
         <v>3.0441400304414001E-2</v>
       </c>
-      <c r="O28" s="155">
+      <c r="O28" s="152">
         <v>0.26</v>
       </c>
       <c r="P28" s="114">
         <v>0.92785709999999999</v>
       </c>
       <c r="Q28" s="78"/>
-      <c r="R28" s="179">
+      <c r="R28" s="176">
         <v>2.3397837915582101E-2</v>
       </c>
       <c r="S28" s="120" t="s">
@@ -11922,7 +11847,7 @@
       <c r="C29" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D29" s="168" t="s">
+      <c r="D29" s="165" t="s">
         <v>114</v>
       </c>
       <c r="E29" s="34"/>
@@ -11934,30 +11859,30 @@
       <c r="I29" s="127">
         <v>21649.999</v>
       </c>
-      <c r="J29" s="159">
+      <c r="J29" s="156">
         <f t="shared" si="6"/>
         <v>7.000000000000001E-3</v>
       </c>
-      <c r="K29" s="162">
+      <c r="K29" s="159">
         <f t="shared" si="7"/>
         <v>79949.278999999995</v>
       </c>
       <c r="L29" s="123">
         <v>25000</v>
       </c>
-      <c r="M29" s="185"/>
-      <c r="N29" s="178">
+      <c r="M29" s="182"/>
+      <c r="N29" s="175">
         <f t="shared" si="8"/>
         <v>7.6103500761035003E-3</v>
       </c>
-      <c r="O29" s="155">
+      <c r="O29" s="152">
         <v>0.09</v>
       </c>
       <c r="P29" s="114">
         <v>0.86599996000000001</v>
       </c>
       <c r="Q29" s="78"/>
-      <c r="R29" s="179">
+      <c r="R29" s="176">
         <v>-0.15132975070339699</v>
       </c>
       <c r="S29" s="120" t="s">
@@ -11974,7 +11899,7 @@
       <c r="C30" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D30" s="168" t="s">
+      <c r="D30" s="165" t="s">
         <v>106</v>
       </c>
       <c r="E30" s="34"/>
@@ -11986,30 +11911,30 @@
       <c r="I30" s="127">
         <v>55671.425999999999</v>
       </c>
-      <c r="J30" s="159">
+      <c r="J30" s="156">
         <f t="shared" si="6"/>
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="K30" s="162">
+      <c r="K30" s="159">
         <f t="shared" si="7"/>
         <v>197475.56600000002</v>
       </c>
       <c r="L30" s="123">
         <v>60000</v>
       </c>
-      <c r="M30" s="185"/>
-      <c r="N30" s="178">
+      <c r="M30" s="182"/>
+      <c r="N30" s="175">
         <f t="shared" si="8"/>
         <v>1.8264840182648401E-2</v>
       </c>
-      <c r="O30" s="155">
+      <c r="O30" s="152">
         <v>0.35</v>
       </c>
       <c r="P30" s="114">
         <v>0.92785709999999999</v>
       </c>
       <c r="Q30" s="78"/>
-      <c r="R30" s="179">
+      <c r="R30" s="176">
         <v>-6.9540404511418505E-2</v>
       </c>
       <c r="S30" s="120" t="s">
@@ -12026,7 +11951,7 @@
       <c r="C31" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D31" s="168" t="s">
+      <c r="D31" s="165" t="s">
         <v>106</v>
       </c>
       <c r="E31" s="34"/>
@@ -12038,30 +11963,30 @@
       <c r="I31" s="127">
         <v>773214.25</v>
       </c>
-      <c r="J31" s="159">
+      <c r="J31" s="156">
         <f t="shared" si="6"/>
         <v>0.25000000000000006</v>
       </c>
-      <c r="K31" s="162">
+      <c r="K31" s="159">
         <f t="shared" si="7"/>
         <v>2501784.9759999998</v>
       </c>
       <c r="L31" s="123">
         <v>800000</v>
       </c>
-      <c r="M31" s="185"/>
-      <c r="N31" s="178">
+      <c r="M31" s="182"/>
+      <c r="N31" s="175">
         <f t="shared" si="8"/>
         <v>0.24353120243531201</v>
       </c>
-      <c r="O31" s="155">
+      <c r="O31" s="152">
         <v>0.25</v>
       </c>
       <c r="P31" s="114">
         <v>0.96651781250000002</v>
       </c>
       <c r="Q31" s="78"/>
-      <c r="R31" s="179">
+      <c r="R31" s="176">
         <v>2.11452543109312E-2</v>
       </c>
       <c r="S31" s="120" t="s">
@@ -12078,7 +12003,7 @@
       <c r="C32" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D32" s="184" t="s">
+      <c r="D32" s="181" t="s">
         <v>120</v>
       </c>
       <c r="E32" s="34"/>
@@ -12090,30 +12015,30 @@
       <c r="I32" s="127">
         <v>716400</v>
       </c>
-      <c r="J32" s="159">
+      <c r="J32" s="156">
         <f>I32/SUM(I$32:I$41)</f>
         <v>0.20161999584039147</v>
       </c>
-      <c r="K32" s="170">
+      <c r="K32" s="167">
         <f t="shared" ref="K32:K41" si="9">I2+I12+I22+I32</f>
         <v>2536919.4900000002</v>
       </c>
       <c r="L32" s="123">
         <v>600000</v>
       </c>
-      <c r="M32" s="185"/>
-      <c r="N32" s="178">
+      <c r="M32" s="182"/>
+      <c r="N32" s="175">
         <f>L32/SUM(L$32:L$41)</f>
         <v>0.17910447761194029</v>
       </c>
-      <c r="O32" s="155">
+      <c r="O32" s="152">
         <v>0.27</v>
       </c>
       <c r="P32" s="114">
         <v>1.194</v>
       </c>
       <c r="Q32" s="78"/>
-      <c r="R32" s="179">
+      <c r="R32" s="176">
         <v>0.362532327572475</v>
       </c>
       <c r="S32" s="120" t="s">
@@ -12130,7 +12055,7 @@
       <c r="C33" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="166" t="s">
+      <c r="D33" s="163" t="s">
         <v>117</v>
       </c>
       <c r="E33" s="34"/>
@@ -12142,30 +12067,30 @@
       <c r="I33" s="127">
         <v>220500</v>
       </c>
-      <c r="J33" s="159">
+      <c r="J33" s="156">
         <f t="shared" ref="J33:J41" si="10">I33/SUM(I$32:I$41)</f>
         <v>6.2056405754894364E-2</v>
       </c>
-      <c r="K33" s="170">
+      <c r="K33" s="167">
         <f t="shared" si="9"/>
         <v>812387.45</v>
       </c>
       <c r="L33" s="123">
         <v>200000</v>
       </c>
-      <c r="M33" s="185"/>
-      <c r="N33" s="178">
+      <c r="M33" s="182"/>
+      <c r="N33" s="175">
         <f t="shared" ref="N33:N41" si="11">L33/SUM(L$32:L$41)</f>
         <v>5.9701492537313432E-2</v>
       </c>
-      <c r="O33" s="155">
+      <c r="O33" s="152">
         <v>0.24</v>
       </c>
       <c r="P33" s="114">
         <v>1.1025</v>
       </c>
       <c r="Q33" s="78"/>
-      <c r="R33" s="179">
+      <c r="R33" s="176">
         <v>0.42586611666818103</v>
       </c>
       <c r="S33" s="120" t="s">
@@ -12182,7 +12107,7 @@
       <c r="C34" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D34" s="166" t="s">
+      <c r="D34" s="163" t="s">
         <v>110</v>
       </c>
       <c r="E34" s="34"/>
@@ -12194,30 +12119,30 @@
       <c r="I34" s="127">
         <v>859704</v>
       </c>
-      <c r="J34" s="159">
+      <c r="J34" s="156">
         <f t="shared" si="10"/>
         <v>0.24195074944719142</v>
       </c>
-      <c r="K34" s="170">
+      <c r="K34" s="167">
         <f t="shared" si="9"/>
         <v>3208780.8139999998</v>
       </c>
       <c r="L34" s="123">
         <v>800000</v>
       </c>
-      <c r="M34" s="185"/>
-      <c r="N34" s="178">
+      <c r="M34" s="182"/>
+      <c r="N34" s="175">
         <f t="shared" si="11"/>
         <v>0.23880597014925373</v>
       </c>
-      <c r="O34" s="155">
+      <c r="O34" s="152">
         <v>0.26</v>
       </c>
       <c r="P34" s="114">
         <v>1.07463</v>
       </c>
       <c r="Q34" s="78"/>
-      <c r="R34" s="179">
+      <c r="R34" s="176">
         <v>0.20854067234950399</v>
       </c>
       <c r="S34" s="120" t="s">
@@ -12234,7 +12159,7 @@
       <c r="C35" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D35" s="166" t="s">
+      <c r="D35" s="163" t="s">
         <v>110</v>
       </c>
       <c r="E35" s="34"/>
@@ -12246,30 +12171,30 @@
       <c r="I35" s="127">
         <v>400000</v>
       </c>
-      <c r="J35" s="159">
+      <c r="J35" s="156">
         <f t="shared" si="10"/>
         <v>0.11257397869368592</v>
       </c>
-      <c r="K35" s="170">
+      <c r="K35" s="167">
         <f t="shared" si="9"/>
         <v>1926111.48</v>
       </c>
       <c r="L35" s="123">
         <v>450000</v>
       </c>
-      <c r="M35" s="185"/>
-      <c r="N35" s="178">
+      <c r="M35" s="182"/>
+      <c r="N35" s="175">
         <f t="shared" si="11"/>
         <v>0.13432835820895522</v>
       </c>
-      <c r="O35" s="155">
+      <c r="O35" s="152">
         <v>0.26</v>
       </c>
       <c r="P35" s="114">
         <v>0.88888888888888895</v>
       </c>
       <c r="Q35" s="78"/>
-      <c r="R35" s="179">
+      <c r="R35" s="176">
         <v>-7.6212428462467896E-2</v>
       </c>
       <c r="S35" s="120" t="s">
@@ -12286,7 +12211,7 @@
       <c r="C36" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D36" s="167" t="s">
+      <c r="D36" s="164" t="s">
         <v>120</v>
       </c>
       <c r="E36" s="34"/>
@@ -12298,30 +12223,30 @@
       <c r="I36" s="127">
         <v>90000</v>
       </c>
-      <c r="J36" s="159">
+      <c r="J36" s="156">
         <f t="shared" si="10"/>
         <v>2.5329145206079332E-2</v>
       </c>
-      <c r="K36" s="170">
+      <c r="K36" s="167">
         <f t="shared" si="9"/>
         <v>339506.67499999999</v>
       </c>
       <c r="L36" s="123">
         <v>85000</v>
       </c>
-      <c r="M36" s="185"/>
-      <c r="N36" s="178">
+      <c r="M36" s="182"/>
+      <c r="N36" s="175">
         <f t="shared" si="11"/>
         <v>2.5373134328358207E-2</v>
       </c>
-      <c r="O36" s="155">
+      <c r="O36" s="152">
         <v>0.26</v>
       </c>
       <c r="P36" s="114">
         <v>1.0588235294117601</v>
       </c>
       <c r="Q36" s="78"/>
-      <c r="R36" s="179">
+      <c r="R36" s="176">
         <v>0.16397234013729101</v>
       </c>
       <c r="S36" s="120" t="s">
@@ -12338,7 +12263,7 @@
       <c r="C37" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D37" s="168" t="s">
+      <c r="D37" s="165" t="s">
         <v>114</v>
       </c>
       <c r="E37" s="34"/>
@@ -12350,30 +12275,30 @@
       <c r="I37" s="127">
         <v>276368</v>
       </c>
-      <c r="J37" s="159">
+      <c r="J37" s="156">
         <f t="shared" si="10"/>
         <v>7.7779613359041475E-2</v>
       </c>
-      <c r="K37" s="170">
+      <c r="K37" s="167">
         <f t="shared" si="9"/>
         <v>1033915.26</v>
       </c>
       <c r="L37" s="123">
         <v>250000</v>
       </c>
-      <c r="M37" s="185"/>
-      <c r="N37" s="178">
+      <c r="M37" s="182"/>
+      <c r="N37" s="175">
         <f t="shared" si="11"/>
         <v>7.4626865671641784E-2</v>
       </c>
-      <c r="O37" s="155">
+      <c r="O37" s="152">
         <v>0.27</v>
       </c>
       <c r="P37" s="114">
         <v>1.105472</v>
       </c>
       <c r="Q37" s="78"/>
-      <c r="R37" s="179">
+      <c r="R37" s="176">
         <v>0.116960790621746</v>
       </c>
       <c r="S37" s="120" t="s">
@@ -12390,7 +12315,7 @@
       <c r="C38" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D38" s="168" t="s">
+      <c r="D38" s="165" t="s">
         <v>117</v>
       </c>
       <c r="E38" s="34"/>
@@ -12402,30 +12327,30 @@
       <c r="I38" s="127">
         <v>90248</v>
       </c>
-      <c r="J38" s="159">
+      <c r="J38" s="156">
         <f t="shared" si="10"/>
         <v>2.5398941072869417E-2</v>
       </c>
-      <c r="K38" s="170">
+      <c r="K38" s="167">
         <f t="shared" si="9"/>
         <v>396656.01</v>
       </c>
       <c r="L38" s="123">
         <v>100000</v>
       </c>
-      <c r="M38" s="185"/>
-      <c r="N38" s="178">
+      <c r="M38" s="182"/>
+      <c r="N38" s="175">
         <f t="shared" si="11"/>
         <v>2.9850746268656716E-2</v>
       </c>
-      <c r="O38" s="155">
+      <c r="O38" s="152">
         <v>0.25</v>
       </c>
       <c r="P38" s="114">
         <v>0.90247999999999995</v>
       </c>
       <c r="Q38" s="78"/>
-      <c r="R38" s="179">
+      <c r="R38" s="176">
         <v>-2.7350224511942599E-2</v>
       </c>
       <c r="S38" s="120" t="s">
@@ -12442,7 +12367,7 @@
       <c r="C39" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D39" s="168" t="s">
+      <c r="D39" s="165" t="s">
         <v>114</v>
       </c>
       <c r="E39" s="34"/>
@@ -12454,30 +12379,30 @@
       <c r="I39" s="127">
         <v>28930</v>
       </c>
-      <c r="J39" s="159">
+      <c r="J39" s="156">
         <f t="shared" si="10"/>
         <v>8.141913009020835E-3</v>
       </c>
-      <c r="K39" s="170">
+      <c r="K39" s="167">
         <f t="shared" si="9"/>
         <v>108879.27899999999</v>
       </c>
       <c r="L39" s="123">
         <v>25000</v>
       </c>
-      <c r="M39" s="185"/>
-      <c r="N39" s="178">
+      <c r="M39" s="182"/>
+      <c r="N39" s="175">
         <f t="shared" si="11"/>
         <v>7.462686567164179E-3</v>
       </c>
-      <c r="O39" s="155">
+      <c r="O39" s="152">
         <v>0.11</v>
       </c>
       <c r="P39" s="114">
         <v>1.1572</v>
       </c>
       <c r="Q39" s="78"/>
-      <c r="R39" s="179">
+      <c r="R39" s="176">
         <v>0.33625872222904002</v>
       </c>
       <c r="S39" s="120" t="s">
@@ -12494,7 +12419,7 @@
       <c r="C40" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D40" s="168" t="s">
+      <c r="D40" s="165" t="s">
         <v>106</v>
       </c>
       <c r="E40" s="34"/>
@@ -12506,30 +12431,30 @@
       <c r="I40" s="127">
         <v>35840</v>
       </c>
-      <c r="J40" s="159">
+      <c r="J40" s="156">
         <f t="shared" si="10"/>
         <v>1.0086628490954258E-2</v>
       </c>
-      <c r="K40" s="170">
+      <c r="K40" s="167">
         <f t="shared" si="9"/>
         <v>233315.56600000002</v>
       </c>
       <c r="L40" s="123">
         <v>40000</v>
       </c>
-      <c r="M40" s="185"/>
-      <c r="N40" s="178">
+      <c r="M40" s="182"/>
+      <c r="N40" s="175">
         <f t="shared" si="11"/>
         <v>1.1940298507462687E-2</v>
       </c>
-      <c r="O40" s="155">
+      <c r="O40" s="152">
         <v>0.23</v>
       </c>
       <c r="P40" s="114">
         <v>0.89600000000000002</v>
       </c>
       <c r="Q40" s="78"/>
-      <c r="R40" s="179">
+      <c r="R40" s="176">
         <v>-0.356222705701844</v>
       </c>
       <c r="S40" s="120" t="s">
@@ -12546,7 +12471,7 @@
       <c r="C41" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="D41" s="168" t="s">
+      <c r="D41" s="165" t="s">
         <v>106</v>
       </c>
       <c r="E41" s="34"/>
@@ -12558,30 +12483,30 @@
       <c r="I41" s="127">
         <v>835229</v>
       </c>
-      <c r="J41" s="159">
+      <c r="J41" s="156">
         <f t="shared" si="10"/>
         <v>0.2350626291258715</v>
       </c>
-      <c r="K41" s="170">
+      <c r="K41" s="167">
         <f t="shared" si="9"/>
         <v>3337013.9759999998</v>
       </c>
       <c r="L41" s="123">
         <v>800000</v>
       </c>
-      <c r="M41" s="185"/>
-      <c r="N41" s="178">
+      <c r="M41" s="182"/>
+      <c r="N41" s="175">
         <f t="shared" si="11"/>
         <v>0.23880597014925373</v>
       </c>
-      <c r="O41" s="155">
+      <c r="O41" s="152">
         <v>0.27</v>
       </c>
       <c r="P41" s="114">
         <v>1.04403625</v>
       </c>
       <c r="Q41" s="78"/>
-      <c r="R41" s="179">
+      <c r="R41" s="176">
         <v>8.0203837422809995E-2</v>
       </c>
       <c r="S41" s="120" t="s">
@@ -12608,7 +12533,7 @@
       <c r="I42" s="130">
         <v>1053340</v>
       </c>
-      <c r="J42" s="159">
+      <c r="J42" s="156">
         <f>I42/SUM(I$42:I$46)</f>
         <v>0.25700001390719124</v>
       </c>
@@ -12619,19 +12544,19 @@
       <c r="L42" s="130">
         <v>975000</v>
       </c>
-      <c r="M42" s="180"/>
-      <c r="N42" s="178">
+      <c r="M42" s="177"/>
+      <c r="N42" s="175">
         <f>L42/SUM(L$42:L$46)</f>
         <v>0.2449748743718593</v>
       </c>
-      <c r="O42" s="155">
+      <c r="O42" s="152">
         <v>0.33</v>
       </c>
-      <c r="P42" s="165">
+      <c r="P42" s="162">
         <v>1.0803487179487199</v>
       </c>
       <c r="Q42" s="78"/>
-      <c r="R42" s="165">
+      <c r="R42" s="162">
         <v>0.18788267087723601</v>
       </c>
       <c r="S42" s="129" t="s">
@@ -12658,7 +12583,7 @@
       <c r="I43" s="130">
         <v>1516481</v>
       </c>
-      <c r="J43" s="159">
+      <c r="J43" s="156">
         <f t="shared" ref="J43:J46" si="12">I43/SUM(I$42:I$46)</f>
         <v>0.36999984628893923</v>
       </c>
@@ -12669,19 +12594,19 @@
       <c r="L43" s="130">
         <v>1450000</v>
       </c>
-      <c r="M43" s="180"/>
-      <c r="N43" s="178">
+      <c r="M43" s="177"/>
+      <c r="N43" s="175">
         <f t="shared" ref="N43:N46" si="14">L43/SUM(L$42:L$46)</f>
         <v>0.36432160804020103</v>
       </c>
-      <c r="O43" s="155">
+      <c r="O43" s="152">
         <v>0.32</v>
       </c>
-      <c r="P43" s="165">
+      <c r="P43" s="162">
         <v>1.04584896551724</v>
       </c>
       <c r="Q43" s="78"/>
-      <c r="R43" s="165">
+      <c r="R43" s="162">
         <v>0.159205827067669</v>
       </c>
       <c r="S43" s="129" t="s">
@@ -12708,7 +12633,7 @@
       <c r="I44" s="130">
         <v>319691</v>
       </c>
-      <c r="J44" s="159">
+      <c r="J44" s="156">
         <f t="shared" si="12"/>
         <v>7.8000067828055394E-2</v>
       </c>
@@ -12719,19 +12644,19 @@
       <c r="L44" s="130">
         <v>385000</v>
       </c>
-      <c r="M44" s="180"/>
-      <c r="N44" s="178">
+      <c r="M44" s="177"/>
+      <c r="N44" s="175">
         <f t="shared" si="14"/>
         <v>9.6733668341708545E-2</v>
       </c>
-      <c r="O44" s="155">
+      <c r="O44" s="152">
         <v>0.25</v>
       </c>
-      <c r="P44" s="165">
+      <c r="P44" s="162">
         <v>0.83036623376623397</v>
       </c>
       <c r="Q44" s="78"/>
-      <c r="R44" s="165">
+      <c r="R44" s="162">
         <v>-0.12400196656833801</v>
       </c>
       <c r="S44" s="129" t="s">
@@ -12758,7 +12683,7 @@
       <c r="I45" s="130">
         <v>368874</v>
       </c>
-      <c r="J45" s="159">
+      <c r="J45" s="156">
         <f t="shared" si="12"/>
         <v>9.0000021958722962E-2</v>
       </c>
@@ -12769,19 +12694,19 @@
       <c r="L45" s="130">
         <v>370000</v>
       </c>
-      <c r="M45" s="180"/>
-      <c r="N45" s="178">
+      <c r="M45" s="177"/>
+      <c r="N45" s="175">
         <f t="shared" si="14"/>
         <v>9.2964824120603015E-2</v>
       </c>
-      <c r="O45" s="155">
+      <c r="O45" s="152">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P45" s="165">
+      <c r="P45" s="162">
         <v>0.99695675675675699</v>
       </c>
       <c r="Q45" s="78"/>
-      <c r="R45" s="165">
+      <c r="R45" s="162">
         <v>0.12618075801749301</v>
       </c>
       <c r="S45" s="129" t="s">
@@ -12808,7 +12733,7 @@
       <c r="I46" s="130">
         <v>840213</v>
       </c>
-      <c r="J46" s="159">
+      <c r="J46" s="156">
         <f t="shared" si="12"/>
         <v>0.20500005001709121</v>
       </c>
@@ -12819,19 +12744,19 @@
       <c r="L46" s="130">
         <v>800000</v>
       </c>
-      <c r="M46" s="180"/>
-      <c r="N46" s="178">
+      <c r="M46" s="177"/>
+      <c r="N46" s="175">
         <f t="shared" si="14"/>
         <v>0.20100502512562815</v>
       </c>
-      <c r="O46" s="155">
+      <c r="O46" s="152">
         <v>0.28000000000000003</v>
       </c>
-      <c r="P46" s="165">
+      <c r="P46" s="162">
         <v>1.05026625</v>
       </c>
       <c r="Q46" s="78"/>
-      <c r="R46" s="165">
+      <c r="R46" s="162">
         <v>0.14625569785109599</v>
       </c>
       <c r="S46" s="129" t="s">
@@ -12858,7 +12783,7 @@
       <c r="I47" s="130">
         <v>817035</v>
       </c>
-      <c r="J47" s="159">
+      <c r="J47" s="156">
         <f>I47/SUM(I$47:I$51)</f>
         <v>0.25621932438140738</v>
       </c>
@@ -12869,19 +12794,19 @@
       <c r="L47" s="130">
         <v>910000</v>
       </c>
-      <c r="M47" s="180"/>
-      <c r="N47" s="178">
+      <c r="M47" s="177"/>
+      <c r="N47" s="175">
         <f>L47/SUM(L$47:L$51)</f>
         <v>0.2552594670406732</v>
       </c>
-      <c r="O47" s="155">
+      <c r="O47" s="152">
         <v>0.25</v>
       </c>
-      <c r="P47" s="165">
+      <c r="P47" s="162">
         <v>0.89784065934065904</v>
       </c>
       <c r="Q47" s="78"/>
-      <c r="R47" s="165">
+      <c r="R47" s="162">
         <v>1.45048865715667E-2</v>
       </c>
       <c r="S47" s="129" t="s">
@@ -12900,7 +12825,7 @@
         <v>190</v>
       </c>
       <c r="E48" s="33"/>
-      <c r="F48" s="153">
+      <c r="F48" s="150">
         <v>19241600</v>
       </c>
       <c r="G48" s="9"/>
@@ -12908,7 +12833,7 @@
       <c r="I48" s="130">
         <v>1214350</v>
       </c>
-      <c r="J48" s="159">
+      <c r="J48" s="156">
         <f t="shared" ref="J48:J51" si="15">I48/SUM(I$47:I$51)</f>
         <v>0.38081592167111816</v>
       </c>
@@ -12919,19 +12844,19 @@
       <c r="L48" s="130">
         <v>1350000</v>
       </c>
-      <c r="M48" s="180"/>
-      <c r="N48" s="178">
+      <c r="M48" s="177"/>
+      <c r="N48" s="175">
         <f t="shared" ref="N48:N50" si="17">L48/SUM(L$47:L$51)</f>
         <v>0.37868162692847124</v>
       </c>
-      <c r="O48" s="155">
+      <c r="O48" s="152">
         <v>0.25</v>
       </c>
-      <c r="P48" s="165">
+      <c r="P48" s="162">
         <v>0.89951851851851805</v>
       </c>
       <c r="Q48" s="78"/>
-      <c r="R48" s="165">
+      <c r="R48" s="162">
         <v>-5.7638242681269797E-2</v>
       </c>
       <c r="S48" s="129" t="s">
@@ -12950,7 +12875,7 @@
         <v>191</v>
       </c>
       <c r="E49" s="33"/>
-      <c r="F49" s="153">
+      <c r="F49" s="150">
         <v>5081500</v>
       </c>
       <c r="G49" s="9"/>
@@ -12958,7 +12883,7 @@
       <c r="I49" s="130">
         <v>248727</v>
       </c>
-      <c r="J49" s="159">
+      <c r="J49" s="156">
         <f t="shared" si="15"/>
         <v>7.7999919092100467E-2</v>
       </c>
@@ -12969,19 +12894,19 @@
       <c r="L49" s="130">
         <v>275000</v>
       </c>
-      <c r="M49" s="180"/>
-      <c r="N49" s="178">
+      <c r="M49" s="177"/>
+      <c r="N49" s="175">
         <f t="shared" si="17"/>
         <v>7.7138849929873771E-2</v>
       </c>
-      <c r="O49" s="155">
+      <c r="O49" s="152">
         <v>0.2</v>
       </c>
-      <c r="P49" s="165">
+      <c r="P49" s="162">
         <v>0.90446181818181803</v>
       </c>
       <c r="Q49" s="78"/>
-      <c r="R49" s="165">
+      <c r="R49" s="162">
         <v>8.1824651123520997E-2</v>
       </c>
       <c r="S49" s="129" t="s">
@@ -13000,7 +12925,7 @@
         <v>192</v>
       </c>
       <c r="E50" s="33"/>
-      <c r="F50" s="153">
+      <c r="F50" s="150">
         <v>5119200</v>
       </c>
       <c r="G50" s="9"/>
@@ -13008,7 +12933,7 @@
       <c r="I50" s="130">
         <v>281993</v>
       </c>
-      <c r="J50" s="159">
+      <c r="J50" s="156">
         <f t="shared" si="15"/>
         <v>8.843202058698367E-2</v>
       </c>
@@ -13019,19 +12944,19 @@
       <c r="L50" s="130">
         <v>300000</v>
       </c>
-      <c r="M50" s="180"/>
-      <c r="N50" s="178">
+      <c r="M50" s="177"/>
+      <c r="N50" s="175">
         <f t="shared" si="17"/>
         <v>8.4151472650771386E-2</v>
       </c>
-      <c r="O50" s="155">
+      <c r="O50" s="152">
         <v>0.22</v>
       </c>
-      <c r="P50" s="165">
+      <c r="P50" s="162">
         <v>0.93997666666666702</v>
       </c>
       <c r="Q50" s="78"/>
-      <c r="R50" s="165">
+      <c r="R50" s="162">
         <v>-0.122570418414641</v>
       </c>
       <c r="S50" s="129" t="s">
@@ -13050,7 +12975,7 @@
         <v>193</v>
       </c>
       <c r="E51" s="33"/>
-      <c r="F51" s="153">
+      <c r="F51" s="150">
         <v>11960000</v>
       </c>
       <c r="G51" s="9"/>
@@ -13058,7 +12983,7 @@
       <c r="I51" s="130">
         <v>626706</v>
       </c>
-      <c r="J51" s="159">
+      <c r="J51" s="156">
         <f t="shared" si="15"/>
         <v>0.19653281426839031</v>
       </c>
@@ -13069,19 +12994,19 @@
       <c r="L51" s="130">
         <v>730000</v>
       </c>
-      <c r="M51" s="180"/>
-      <c r="N51" s="178">
+      <c r="M51" s="177"/>
+      <c r="N51" s="175">
         <f>L51/SUM(L$47:L$51)</f>
         <v>0.20476858345021037</v>
       </c>
-      <c r="O51" s="155">
+      <c r="O51" s="152">
         <v>0.21</v>
       </c>
-      <c r="P51" s="165">
+      <c r="P51" s="162">
         <v>0.85850136986301395</v>
       </c>
       <c r="Q51" s="78"/>
-      <c r="R51" s="165">
+      <c r="R51" s="162">
         <v>-3.7655615232660901E-2</v>
       </c>
       <c r="S51" s="129" t="s">
@@ -13108,7 +13033,7 @@
       <c r="I52" s="130">
         <v>828886</v>
       </c>
-      <c r="J52" s="159">
+      <c r="J52" s="156">
         <f>I52/SUM(I$52:I$56)</f>
         <v>0.26800001810623053</v>
       </c>
@@ -13119,19 +13044,19 @@
       <c r="L52" s="130">
         <v>860000</v>
       </c>
-      <c r="M52" s="180"/>
-      <c r="N52" s="178">
+      <c r="M52" s="177"/>
+      <c r="N52" s="175">
         <f>L52/SUM(L$52:L$56)</f>
         <v>0.26179604261796041</v>
       </c>
-      <c r="O52" s="155">
+      <c r="O52" s="152">
         <v>0.26</v>
       </c>
-      <c r="P52" s="165">
+      <c r="P52" s="162">
         <v>0.96382093023255799</v>
       </c>
       <c r="Q52" s="78"/>
-      <c r="R52" s="165">
+      <c r="R52" s="162">
         <v>1.45048865715667E-2</v>
       </c>
       <c r="S52" s="129" t="s">
@@ -13150,7 +13075,7 @@
         <v>190</v>
       </c>
       <c r="E53" s="33"/>
-      <c r="F53" s="153">
+      <c r="F53" s="150">
         <v>19241600</v>
       </c>
       <c r="G53" s="9"/>
@@ -13158,7 +13083,7 @@
       <c r="I53" s="130">
         <v>1144357</v>
       </c>
-      <c r="J53" s="159">
+      <c r="J53" s="156">
         <f t="shared" ref="J53:J56" si="18">I53/SUM(I$52:I$56)</f>
         <v>0.36999985127024909</v>
       </c>
@@ -13169,19 +13094,19 @@
       <c r="L53" s="130">
         <v>1250000</v>
       </c>
-      <c r="M53" s="180"/>
-      <c r="N53" s="178">
+      <c r="M53" s="177"/>
+      <c r="N53" s="175">
         <f t="shared" ref="N53:N56" si="20">L53/SUM(L$52:L$56)</f>
         <v>0.38051750380517502</v>
       </c>
-      <c r="O53" s="155">
+      <c r="O53" s="152">
         <v>0.24</v>
       </c>
-      <c r="P53" s="165">
+      <c r="P53" s="162">
         <v>0.91548560000000001</v>
       </c>
       <c r="Q53" s="78"/>
-      <c r="R53" s="165">
+      <c r="R53" s="162">
         <v>-5.7638242681269797E-2</v>
       </c>
       <c r="S53" s="129" t="s">
@@ -13200,7 +13125,7 @@
         <v>191</v>
       </c>
       <c r="E54" s="33"/>
-      <c r="F54" s="153">
+      <c r="F54" s="150">
         <v>5081500</v>
       </c>
       <c r="G54" s="9"/>
@@ -13208,7 +13133,7 @@
       <c r="I54" s="130">
         <v>269079</v>
       </c>
-      <c r="J54" s="159">
+      <c r="J54" s="156">
         <f t="shared" si="18"/>
         <v>8.7000114457243108E-2</v>
       </c>
@@ -13219,19 +13144,19 @@
       <c r="L54" s="130">
         <v>275000</v>
       </c>
-      <c r="M54" s="180"/>
-      <c r="N54" s="178">
+      <c r="M54" s="177"/>
+      <c r="N54" s="175">
         <f t="shared" si="20"/>
         <v>8.3713850837138504E-2</v>
       </c>
-      <c r="O54" s="155">
+      <c r="O54" s="152">
         <v>0.21</v>
       </c>
-      <c r="P54" s="165">
+      <c r="P54" s="162">
         <v>0.97846909090909095</v>
       </c>
       <c r="Q54" s="78"/>
-      <c r="R54" s="165">
+      <c r="R54" s="162">
         <v>8.1824651123520997E-2</v>
       </c>
       <c r="S54" s="129" t="s">
@@ -13250,7 +13175,7 @@
         <v>192</v>
       </c>
       <c r="E55" s="33"/>
-      <c r="F55" s="153">
+      <c r="F55" s="150">
         <v>5119200</v>
       </c>
       <c r="G55" s="9"/>
@@ -13258,7 +13183,7 @@
       <c r="I55" s="130">
         <v>247429</v>
       </c>
-      <c r="J55" s="159">
+      <c r="J55" s="156">
         <f t="shared" si="18"/>
         <v>8.0000116397196383E-2</v>
       </c>
@@ -13269,19 +13194,19 @@
       <c r="L55" s="130">
         <v>270000</v>
       </c>
-      <c r="M55" s="180"/>
-      <c r="N55" s="178">
+      <c r="M55" s="177"/>
+      <c r="N55" s="175">
         <f t="shared" si="20"/>
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="O55" s="155">
+      <c r="O55" s="152">
         <v>0.19</v>
       </c>
-      <c r="P55" s="165">
+      <c r="P55" s="162">
         <v>0.91640370370370405</v>
       </c>
       <c r="Q55" s="78"/>
-      <c r="R55" s="165">
+      <c r="R55" s="162">
         <v>-0.122570418414641</v>
       </c>
       <c r="S55" s="129" t="s">
@@ -13300,7 +13225,7 @@
         <v>193</v>
       </c>
       <c r="E56" s="33"/>
-      <c r="F56" s="153">
+      <c r="F56" s="150">
         <v>11960000</v>
       </c>
       <c r="G56" s="9"/>
@@ -13308,7 +13233,7 @@
       <c r="I56" s="130">
         <v>603107</v>
       </c>
-      <c r="J56" s="159">
+      <c r="J56" s="156">
         <f t="shared" si="18"/>
         <v>0.19499989976908089</v>
       </c>
@@ -13319,19 +13244,19 @@
       <c r="L56" s="130">
         <v>630000</v>
       </c>
-      <c r="M56" s="180"/>
-      <c r="N56" s="178">
+      <c r="M56" s="177"/>
+      <c r="N56" s="175">
         <f t="shared" si="20"/>
         <v>0.19178082191780821</v>
       </c>
-      <c r="O56" s="155">
+      <c r="O56" s="152">
         <v>0.2</v>
       </c>
-      <c r="P56" s="165">
+      <c r="P56" s="162">
         <v>0.95731269841269795</v>
       </c>
       <c r="Q56" s="78"/>
-      <c r="R56" s="165">
+      <c r="R56" s="162">
         <v>-3.7655615232660901E-2</v>
       </c>
       <c r="S56" s="129" t="s">
@@ -13358,7 +13283,7 @@
       <c r="I57" s="130">
         <v>871069</v>
       </c>
-      <c r="J57" s="159">
+      <c r="J57" s="156">
         <f>I57/SUM(I$57:I$61)</f>
         <v>0.24514925761682577</v>
       </c>
@@ -13369,15 +13294,15 @@
       <c r="L57" s="130">
         <v>840000</v>
       </c>
-      <c r="M57" s="180"/>
-      <c r="N57" s="178">
+      <c r="M57" s="177"/>
+      <c r="N57" s="175">
         <f>L57/SUM(L$57:L$61)</f>
         <v>0.2507462686567164</v>
       </c>
-      <c r="O57" s="155">
+      <c r="O57" s="152">
         <v>0.27</v>
       </c>
-      <c r="P57" s="165">
+      <c r="P57" s="162">
         <v>1.0369869047619</v>
       </c>
       <c r="Q57" s="78"/>
@@ -13400,7 +13325,7 @@
         <v>190</v>
       </c>
       <c r="E58" s="33"/>
-      <c r="F58" s="153">
+      <c r="F58" s="150">
         <v>19241600</v>
       </c>
       <c r="G58" s="9"/>
@@ -13408,7 +13333,7 @@
       <c r="I58" s="130">
         <v>1259704</v>
       </c>
-      <c r="J58" s="159">
+      <c r="J58" s="156">
         <f t="shared" ref="J58:J61" si="21">I58/SUM(I$57:I$61)</f>
         <v>0.35452472814087732</v>
       </c>
@@ -13419,15 +13344,15 @@
       <c r="L58" s="130">
         <v>1250000</v>
       </c>
-      <c r="M58" s="180"/>
-      <c r="N58" s="178">
+      <c r="M58" s="177"/>
+      <c r="N58" s="175">
         <f t="shared" ref="N58:N61" si="23">L58/SUM(L$57:L$61)</f>
         <v>0.37313432835820898</v>
       </c>
-      <c r="O58" s="155">
+      <c r="O58" s="152">
         <v>0.26</v>
       </c>
-      <c r="P58" s="165">
+      <c r="P58" s="162">
         <v>1.0077632000000001</v>
       </c>
       <c r="Q58" s="78"/>
@@ -13450,7 +13375,7 @@
         <v>191</v>
       </c>
       <c r="E59" s="33"/>
-      <c r="F59" s="153">
+      <c r="F59" s="150">
         <v>5081500</v>
       </c>
       <c r="G59" s="9"/>
@@ -13458,7 +13383,7 @@
       <c r="I59" s="130">
         <v>305298</v>
       </c>
-      <c r="J59" s="159">
+      <c r="J59" s="156">
         <f t="shared" si="21"/>
         <v>8.5921526368062315E-2</v>
       </c>
@@ -13469,15 +13394,15 @@
       <c r="L59" s="130">
         <v>275000</v>
       </c>
-      <c r="M59" s="180"/>
-      <c r="N59" s="178">
+      <c r="M59" s="177"/>
+      <c r="N59" s="175">
         <f t="shared" si="23"/>
         <v>8.2089552238805971E-2</v>
       </c>
-      <c r="O59" s="155">
+      <c r="O59" s="152">
         <v>0.24</v>
       </c>
-      <c r="P59" s="165">
+      <c r="P59" s="162">
         <v>1.11017454545455</v>
       </c>
       <c r="Q59" s="78"/>
@@ -13500,7 +13425,7 @@
         <v>192</v>
       </c>
       <c r="E60" s="33"/>
-      <c r="F60" s="153">
+      <c r="F60" s="150">
         <v>5119200</v>
       </c>
       <c r="G60" s="9"/>
@@ -13508,7 +13433,7 @@
       <c r="I60" s="130">
         <v>310748</v>
       </c>
-      <c r="J60" s="159">
+      <c r="J60" s="156">
         <f t="shared" si="21"/>
         <v>8.7455346827763777E-2</v>
       </c>
@@ -13519,15 +13444,15 @@
       <c r="L60" s="130">
         <v>300000</v>
       </c>
-      <c r="M60" s="180"/>
-      <c r="N60" s="178">
+      <c r="M60" s="177"/>
+      <c r="N60" s="175">
         <f t="shared" si="23"/>
         <v>8.9552238805970144E-2</v>
       </c>
-      <c r="O60" s="155">
+      <c r="O60" s="152">
         <v>0.24</v>
       </c>
-      <c r="P60" s="165">
+      <c r="P60" s="162">
         <v>1.03582666666667</v>
       </c>
       <c r="Q60" s="78"/>
@@ -13550,7 +13475,7 @@
         <v>193</v>
       </c>
       <c r="E61" s="33"/>
-      <c r="F61" s="153">
+      <c r="F61" s="150">
         <v>11960000</v>
       </c>
       <c r="G61" s="9"/>
@@ -13558,7 +13483,7 @@
       <c r="I61" s="130">
         <v>806400</v>
       </c>
-      <c r="J61" s="159">
+      <c r="J61" s="156">
         <f t="shared" si="21"/>
         <v>0.22694914104647082</v>
       </c>
@@ -13569,15 +13494,15 @@
       <c r="L61" s="130">
         <v>685000</v>
       </c>
-      <c r="M61" s="180"/>
-      <c r="N61" s="178">
+      <c r="M61" s="177"/>
+      <c r="N61" s="175">
         <f t="shared" si="23"/>
         <v>0.20447761194029851</v>
       </c>
-      <c r="O61" s="155">
+      <c r="O61" s="152">
         <v>0.27</v>
       </c>
-      <c r="P61" s="165">
+      <c r="P61" s="162">
         <v>1.1772262773722599</v>
       </c>
       <c r="Q61" s="78"/>
@@ -13598,7 +13523,7 @@
       </c>
       <c r="D62" s="133"/>
       <c r="E62" s="9"/>
-      <c r="F62" s="191">
+      <c r="F62" s="186">
         <v>54264908</v>
       </c>
       <c r="G62" s="9"/>
@@ -13606,7 +13531,7 @@
       <c r="I62" s="134">
         <v>4098598</v>
       </c>
-      <c r="J62" s="159"/>
+      <c r="J62" s="156"/>
       <c r="K62" s="78">
         <f>I62</f>
         <v>4098598</v>
@@ -13614,16 +13539,16 @@
       <c r="L62" s="134">
         <v>3980000</v>
       </c>
-      <c r="M62" s="174"/>
-      <c r="N62" s="178"/>
-      <c r="O62" s="155">
+      <c r="M62" s="171"/>
+      <c r="N62" s="175"/>
+      <c r="O62" s="152">
         <v>0.3</v>
       </c>
-      <c r="P62" s="187">
+      <c r="P62" s="184">
         <v>1.02979849246231</v>
       </c>
       <c r="Q62" s="78"/>
-      <c r="R62" s="187">
+      <c r="R62" s="184">
         <v>0.13207210423424301</v>
       </c>
       <c r="S62" s="132" t="s">
@@ -13640,7 +13565,7 @@
       </c>
       <c r="D63" s="33"/>
       <c r="E63" s="9"/>
-      <c r="F63" s="191">
+      <c r="F63" s="186">
         <v>54264908</v>
       </c>
       <c r="G63" s="9"/>
@@ -13648,7 +13573,7 @@
       <c r="I63" s="134">
         <v>728487</v>
       </c>
-      <c r="J63" s="159"/>
+      <c r="J63" s="156"/>
       <c r="K63" s="78">
         <f t="shared" ref="K63:K64" si="24">I63</f>
         <v>728487</v>
@@ -13656,16 +13581,16 @@
       <c r="L63" s="134">
         <v>655000</v>
       </c>
-      <c r="M63" s="174"/>
-      <c r="N63" s="178"/>
-      <c r="O63" s="155">
+      <c r="M63" s="171"/>
+      <c r="N63" s="175"/>
+      <c r="O63" s="152">
         <v>0.05</v>
       </c>
-      <c r="P63" s="187">
+      <c r="P63" s="184">
         <v>1.1121938931297699</v>
       </c>
       <c r="Q63" s="78"/>
-      <c r="R63" s="187">
+      <c r="R63" s="184">
         <v>0.27781575390720198</v>
       </c>
       <c r="S63" s="132" t="s">
@@ -13682,7 +13607,7 @@
       </c>
       <c r="D64" s="33"/>
       <c r="E64" s="9"/>
-      <c r="F64" s="191">
+      <c r="F64" s="186">
         <v>54264908</v>
       </c>
       <c r="G64" s="9"/>
@@ -13690,7 +13615,7 @@
       <c r="I64" s="134">
         <v>2576862</v>
       </c>
-      <c r="J64" s="159"/>
+      <c r="J64" s="156"/>
       <c r="K64" s="78">
         <f t="shared" si="24"/>
         <v>2576862</v>
@@ -13698,16 +13623,16 @@
       <c r="L64" s="134">
         <v>2610000</v>
       </c>
-      <c r="M64" s="174"/>
-      <c r="N64" s="178"/>
-      <c r="O64" s="155">
+      <c r="M64" s="171"/>
+      <c r="N64" s="175"/>
+      <c r="O64" s="152">
         <v>0.19</v>
       </c>
-      <c r="P64" s="187">
+      <c r="P64" s="184">
         <v>0.98730344827586203</v>
       </c>
       <c r="Q64" s="78"/>
-      <c r="R64" s="187">
+      <c r="R64" s="184">
         <v>9.9250640519986694E-2</v>
       </c>
       <c r="S64" s="132" t="s">
@@ -13724,7 +13649,7 @@
       </c>
       <c r="D65" s="33"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="191">
+      <c r="F65" s="186">
         <v>54264908</v>
       </c>
       <c r="G65" s="9"/>
@@ -13732,7 +13657,7 @@
       <c r="I65" s="134">
         <v>3188812</v>
       </c>
-      <c r="J65" s="159"/>
+      <c r="J65" s="156"/>
       <c r="K65" s="78">
         <f>I62+I65</f>
         <v>7287410</v>
@@ -13740,16 +13665,16 @@
       <c r="L65" s="134">
         <v>3565000</v>
       </c>
-      <c r="M65" s="174"/>
-      <c r="N65" s="178"/>
-      <c r="O65" s="155">
+      <c r="M65" s="171"/>
+      <c r="N65" s="175"/>
+      <c r="O65" s="152">
         <v>0.24</v>
       </c>
-      <c r="P65" s="187">
+      <c r="P65" s="184">
         <v>0.89447741935483904</v>
       </c>
       <c r="Q65" s="78"/>
-      <c r="R65" s="187">
+      <c r="R65" s="184">
         <v>-0.22197492898791199</v>
       </c>
       <c r="S65" s="132" t="s">
@@ -13766,7 +13691,7 @@
       </c>
       <c r="D66" s="33"/>
       <c r="E66" s="9"/>
-      <c r="F66" s="191">
+      <c r="F66" s="186">
         <v>54264908</v>
       </c>
       <c r="G66" s="9"/>
@@ -13774,7 +13699,7 @@
       <c r="I66" s="134">
         <v>560064</v>
       </c>
-      <c r="J66" s="159"/>
+      <c r="J66" s="156"/>
       <c r="K66" s="78">
         <f t="shared" ref="K66:K67" si="25">I63+I66</f>
         <v>1288551</v>
@@ -13782,16 +13707,16 @@
       <c r="L66" s="134">
         <v>615000</v>
       </c>
-      <c r="M66" s="174"/>
-      <c r="N66" s="178"/>
-      <c r="O66" s="155">
+      <c r="M66" s="171"/>
+      <c r="N66" s="175"/>
+      <c r="O66" s="152">
         <v>0.04</v>
       </c>
-      <c r="P66" s="187">
+      <c r="P66" s="184">
         <v>0.91067317073170695</v>
       </c>
       <c r="Q66" s="78"/>
-      <c r="R66" s="187">
+      <c r="R66" s="184">
         <v>-0.23119561502127001</v>
       </c>
       <c r="S66" s="132" t="s">
@@ -13808,7 +13733,7 @@
       </c>
       <c r="D67" s="33"/>
       <c r="E67" s="9"/>
-      <c r="F67" s="191">
+      <c r="F67" s="186">
         <v>54264908</v>
       </c>
       <c r="G67" s="9"/>
@@ -13816,7 +13741,7 @@
       <c r="I67" s="134">
         <v>2293022</v>
       </c>
-      <c r="J67" s="159"/>
+      <c r="J67" s="156"/>
       <c r="K67" s="78">
         <f t="shared" si="25"/>
         <v>4869884</v>
@@ -13824,16 +13749,16 @@
       <c r="L67" s="134">
         <v>2365000</v>
       </c>
-      <c r="M67" s="174"/>
-      <c r="N67" s="178"/>
-      <c r="O67" s="155">
+      <c r="M67" s="171"/>
+      <c r="N67" s="175"/>
+      <c r="O67" s="152">
         <v>0.17</v>
       </c>
-      <c r="P67" s="187">
+      <c r="P67" s="184">
         <v>0.96956532769556003</v>
       </c>
       <c r="Q67" s="78"/>
-      <c r="R67" s="187">
+      <c r="R67" s="184">
         <v>-0.110149476378634</v>
       </c>
       <c r="S67" s="132" t="s">
@@ -13850,7 +13775,7 @@
       </c>
       <c r="D68" s="33"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="191">
+      <c r="F68" s="186">
         <v>54264908</v>
       </c>
       <c r="G68" s="9"/>
@@ -13858,7 +13783,7 @@
       <c r="I68" s="134">
         <v>3092857</v>
       </c>
-      <c r="J68" s="159"/>
+      <c r="J68" s="156"/>
       <c r="K68" s="78">
         <f>I62+I65+I68</f>
         <v>10380267</v>
@@ -13866,16 +13791,16 @@
       <c r="L68" s="134">
         <v>3285000</v>
       </c>
-      <c r="M68" s="174"/>
-      <c r="N68" s="178"/>
-      <c r="O68" s="155">
+      <c r="M68" s="171"/>
+      <c r="N68" s="175"/>
+      <c r="O68" s="152">
         <v>0.23</v>
       </c>
-      <c r="P68" s="187">
+      <c r="P68" s="184">
         <v>0.94150898021309004</v>
       </c>
       <c r="Q68" s="78"/>
-      <c r="R68" s="187">
+      <c r="R68" s="184">
         <v>-3.0091143661024802E-2</v>
       </c>
       <c r="S68" s="132" t="s">
@@ -13892,7 +13817,7 @@
       </c>
       <c r="D69" s="33"/>
       <c r="E69" s="9"/>
-      <c r="F69" s="191">
+      <c r="F69" s="186">
         <v>54264908</v>
       </c>
       <c r="G69" s="9"/>
@@ -13900,7 +13825,7 @@
       <c r="I69" s="134">
         <v>792494</v>
       </c>
-      <c r="J69" s="159"/>
+      <c r="J69" s="156"/>
       <c r="K69" s="78">
         <f t="shared" ref="K69:K70" si="26">I63+I66+I69</f>
         <v>2081045</v>
@@ -13908,16 +13833,16 @@
       <c r="L69" s="134">
         <v>615000</v>
       </c>
-      <c r="M69" s="174"/>
-      <c r="N69" s="178"/>
-      <c r="O69" s="155">
+      <c r="M69" s="171"/>
+      <c r="N69" s="175"/>
+      <c r="O69" s="152">
         <v>0.06</v>
       </c>
-      <c r="P69" s="187">
+      <c r="P69" s="184">
         <v>1.2886081300812999</v>
       </c>
       <c r="Q69" s="78"/>
-      <c r="R69" s="187">
+      <c r="R69" s="184">
         <v>0.415006142155182</v>
       </c>
       <c r="S69" s="132" t="s">
@@ -13934,7 +13859,7 @@
       </c>
       <c r="D70" s="33"/>
       <c r="E70" s="9"/>
-      <c r="F70" s="191">
+      <c r="F70" s="186">
         <v>54264908</v>
       </c>
       <c r="G70" s="9"/>
@@ -13942,7 +13867,7 @@
       <c r="I70" s="134">
         <v>2263056</v>
       </c>
-      <c r="J70" s="159"/>
+      <c r="J70" s="156"/>
       <c r="K70" s="78">
         <f t="shared" si="26"/>
         <v>7132940</v>
@@ -13950,16 +13875,16 @@
       <c r="L70" s="134">
         <v>2345000</v>
       </c>
-      <c r="M70" s="174"/>
-      <c r="N70" s="178"/>
-      <c r="O70" s="155">
+      <c r="M70" s="171"/>
+      <c r="N70" s="175"/>
+      <c r="O70" s="152">
         <v>0.17</v>
       </c>
-      <c r="P70" s="187">
+      <c r="P70" s="184">
         <v>0.96505586353944595</v>
       </c>
       <c r="Q70" s="78"/>
-      <c r="R70" s="187">
+      <c r="R70" s="184">
         <v>-1.3068343871101101E-2</v>
       </c>
       <c r="S70" s="132" t="s">
@@ -13976,7 +13901,7 @@
       </c>
       <c r="D71" s="33"/>
       <c r="E71" s="9"/>
-      <c r="F71" s="191">
+      <c r="F71" s="186">
         <v>54264908</v>
       </c>
       <c r="G71" s="9"/>
@@ -13984,7 +13909,7 @@
       <c r="I71" s="134">
         <v>3553219</v>
       </c>
-      <c r="J71" s="159"/>
+      <c r="J71" s="156"/>
       <c r="K71" s="78">
         <f>I62+I65+I68+I71</f>
         <v>13933486</v>
@@ -13992,16 +13917,16 @@
       <c r="L71" s="134">
         <v>3350000</v>
       </c>
-      <c r="M71" s="174"/>
-      <c r="N71" s="178"/>
-      <c r="O71" s="155">
+      <c r="M71" s="171"/>
+      <c r="N71" s="175"/>
+      <c r="O71" s="152">
         <v>0.26</v>
       </c>
-      <c r="P71" s="187">
+      <c r="P71" s="184">
         <v>1.0606623880596999</v>
       </c>
       <c r="Q71" s="78"/>
-      <c r="R71" s="187">
+      <c r="R71" s="184">
         <v>0.14884684290285599</v>
       </c>
       <c r="S71" s="132" t="s">
@@ -14018,7 +13943,7 @@
       </c>
       <c r="D72" s="33"/>
       <c r="E72" s="9"/>
-      <c r="F72" s="191">
+      <c r="F72" s="186">
         <v>54264908</v>
       </c>
       <c r="G72" s="9"/>
@@ -14026,7 +13951,7 @@
       <c r="I72" s="134">
         <v>2475498</v>
       </c>
-      <c r="J72" s="159"/>
+      <c r="J72" s="156"/>
       <c r="K72" s="78">
         <f t="shared" ref="K72:K73" si="27">I63+I66+I69+I72</f>
         <v>4556543</v>
@@ -14034,16 +13959,16 @@
       <c r="L72" s="134">
         <v>2035000</v>
       </c>
-      <c r="M72" s="174"/>
-      <c r="N72" s="178"/>
-      <c r="O72" s="155">
+      <c r="M72" s="171"/>
+      <c r="N72" s="175"/>
+      <c r="O72" s="152">
         <v>0.18</v>
       </c>
-      <c r="P72" s="187">
+      <c r="P72" s="184">
         <v>1.21646093366093</v>
       </c>
       <c r="Q72" s="78"/>
-      <c r="R72" s="187">
+      <c r="R72" s="184">
         <v>2.12368043164996</v>
       </c>
       <c r="S72" s="132" t="s">
@@ -14060,7 +13985,7 @@
       </c>
       <c r="D73" s="135"/>
       <c r="E73" s="64"/>
-      <c r="F73" s="191">
+      <c r="F73" s="186">
         <v>54264908</v>
       </c>
       <c r="G73" s="64"/>
@@ -14068,7 +13993,7 @@
       <c r="I73" s="134">
         <v>860533</v>
       </c>
-      <c r="J73" s="177"/>
+      <c r="J73" s="174"/>
       <c r="K73" s="78">
         <f t="shared" si="27"/>
         <v>7993473</v>
@@ -14076,16 +14001,16 @@
       <c r="L73" s="134">
         <v>1135000</v>
       </c>
-      <c r="M73" s="174"/>
-      <c r="N73" s="154"/>
-      <c r="O73" s="160">
+      <c r="M73" s="171"/>
+      <c r="N73" s="151"/>
+      <c r="O73" s="157">
         <v>0.06</v>
       </c>
-      <c r="P73" s="187">
+      <c r="P73" s="184">
         <v>0.75817885462555101</v>
       </c>
       <c r="Q73" s="116"/>
-      <c r="R73" s="187">
+      <c r="R73" s="184">
         <v>-0.61974736816057596</v>
       </c>
       <c r="S73" s="132" t="s">
@@ -14111,12 +14036,12 @@
       <selection activeCell="G21" sqref="G21:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="106" t="s">
         <v>134</v>
       </c>
@@ -14127,8 +14052,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="184" t="s">
+    <row r="2" spans="1:7" ht="14">
+      <c r="A2" s="181" t="s">
         <v>120</v>
       </c>
       <c r="B2" s="53"/>
@@ -14136,8 +14061,8 @@
         <v>10560000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="166" t="s">
+    <row r="3" spans="1:7" ht="14">
+      <c r="A3" s="163" t="s">
         <v>117</v>
       </c>
       <c r="B3" s="99"/>
@@ -14145,8 +14070,8 @@
         <v>3700000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="25.5">
-      <c r="A4" s="166" t="s">
+    <row r="4" spans="1:7" ht="28">
+      <c r="A4" s="163" t="s">
         <v>110</v>
       </c>
       <c r="B4" s="99"/>
@@ -14154,11 +14079,11 @@
         <v>13041600</v>
       </c>
       <c r="G4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="166" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14">
+      <c r="A5" s="163" t="s">
         <v>110</v>
       </c>
       <c r="B5" s="99"/>
@@ -14169,8 +14094,8 @@
         <v>54264908</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25">
-      <c r="A6" s="167" t="s">
+    <row r="6" spans="1:7" ht="14">
+      <c r="A6" s="164" t="s">
         <v>120</v>
       </c>
       <c r="B6" s="71"/>
@@ -14178,8 +14103,8 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25">
-      <c r="A7" s="168" t="s">
+    <row r="7" spans="1:7" ht="14">
+      <c r="A7" s="165" t="s">
         <v>114</v>
       </c>
       <c r="B7" s="34"/>
@@ -14187,8 +14112,8 @@
         <v>4067200</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25">
-      <c r="A8" s="168" t="s">
+    <row r="8" spans="1:7" ht="14">
+      <c r="A8" s="165" t="s">
         <v>117</v>
       </c>
       <c r="B8" s="34"/>
@@ -14196,8 +14121,8 @@
         <v>1419200</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25">
-      <c r="A9" s="168" t="s">
+    <row r="9" spans="1:7" ht="14">
+      <c r="A9" s="165" t="s">
         <v>114</v>
       </c>
       <c r="B9" s="34"/>
@@ -14205,8 +14130,8 @@
         <v>1014300</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.25">
-      <c r="A10" s="168" t="s">
+    <row r="10" spans="1:7" ht="14">
+      <c r="A10" s="165" t="s">
         <v>106</v>
       </c>
       <c r="B10" s="34"/>
@@ -14214,8 +14139,8 @@
         <v>628320</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25">
-      <c r="A11" s="168" t="s">
+    <row r="11" spans="1:7" ht="14">
+      <c r="A11" s="165" t="s">
         <v>106</v>
       </c>
       <c r="B11" s="34"/>
@@ -14235,7 +14160,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData/>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
